--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -444,7 +444,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="166" formatCode="mmm\-yyyy"/>
@@ -452,6 +452,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
     <numFmt numFmtId="170" formatCode="0.##"/>
+    <numFmt numFmtId="172" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -1185,45 +1186,6 @@
   </cellStyleXfs>
   <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1314,9 +1276,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1350,9 +1309,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1581,9 +1537,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1722,14 +1675,41 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1743,31 +1723,52 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1780,17 +1781,7 @@
     <cellStyle name="Result" xfId="1"/>
     <cellStyle name="Result2" xfId="2"/>
   </cellStyles>
-  <dxfs count="86">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1908,736 +1899,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Lohit Devanagari"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Lohit Devanagari"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Lohit Devanagari"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Lohit Devanagari"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Lohit Devanagari"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Lohit Devanagari"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Lohit Devanagari"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Lohit Devanagari"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2987,4385 +2248,4421 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="2.5703125" style="14" customWidth="1"/>
-    <col min="3" max="13" width="11.5703125" style="14"/>
-    <col min="14" max="14" width="2.5703125" style="14" customWidth="1"/>
-    <col min="15" max="36" width="11.5703125" style="14"/>
+    <col min="1" max="2" width="2.5703125" style="1" customWidth="1"/>
+    <col min="3" max="13" width="11.5703125" style="1"/>
+    <col min="14" max="14" width="2.5703125" style="1" customWidth="1"/>
+    <col min="15" max="36" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="14.45" customHeight="1">
-      <c r="A1" s="15">
+      <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
-      <c r="O1" s="19" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="5"/>
+      <c r="O1" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="21"/>
-      <c r="AA1" s="22" t="s">
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="8"/>
+      <c r="AA1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AG1" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
+      <c r="AH1" s="187"/>
+      <c r="AI1" s="187"/>
+      <c r="AJ1" s="187"/>
     </row>
     <row r="2" spans="1:36" ht="14.45" customHeight="1">
-      <c r="A2" s="15">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="H2" s="24" t="s">
+      <c r="B2" s="10"/>
+      <c r="H2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="O2" s="26"/>
-      <c r="T2" s="24" t="s">
+      <c r="M2" s="12"/>
+      <c r="O2" s="13"/>
+      <c r="T2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="27"/>
-      <c r="AA2" s="28"/>
-      <c r="AG2" s="12" t="s">
+      <c r="Y2" s="14"/>
+      <c r="AA2" s="15"/>
+      <c r="AG2" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="11" t="s">
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="11"/>
+      <c r="AJ2" s="189"/>
     </row>
     <row r="3" spans="1:36" ht="14.45" customHeight="1">
-      <c r="A3" s="15">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="H3" s="24" t="s">
+      <c r="B3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="O3" s="26"/>
-      <c r="T3" s="24" t="s">
+      <c r="M3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="T3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="27"/>
-      <c r="AA3" s="31" t="str">
+      <c r="Y3" s="14"/>
+      <c r="AA3" s="18" t="str">
         <f>IF(AB7="","",AB7)</f>
         <v/>
       </c>
-      <c r="AG3" s="29" t="s">
+      <c r="AG3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="32" t="s">
+      <c r="AH3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AI3" s="32" t="s">
+      <c r="AI3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="30" t="s">
+      <c r="AJ3" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="14.45" customHeight="1">
-      <c r="A4" s="15">
+      <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="H4" s="33"/>
-      <c r="M4" s="25"/>
-      <c r="O4" s="26"/>
-      <c r="T4" s="33"/>
-      <c r="Y4" s="27"/>
-      <c r="AA4" s="34" t="s">
+      <c r="B4" s="10"/>
+      <c r="H4" s="20"/>
+      <c r="M4" s="12"/>
+      <c r="O4" s="13"/>
+      <c r="T4" s="20"/>
+      <c r="Y4" s="14"/>
+      <c r="AA4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="35"/>
-      <c r="AF4" s="34" t="s">
+      <c r="AB4" s="22"/>
+      <c r="AF4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AG4" s="29" t="s">
+      <c r="AG4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AH4" s="32" t="s">
+      <c r="AH4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AI4" s="32" t="s">
+      <c r="AI4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AJ4" s="30" t="s">
+      <c r="AJ4" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="14.45" customHeight="1">
-      <c r="A5" s="15">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="H5" s="24" t="s">
+      <c r="B5" s="10"/>
+      <c r="H5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="O5" s="26"/>
-      <c r="T5" s="24" t="s">
+      <c r="M5" s="12"/>
+      <c r="O5" s="13"/>
+      <c r="T5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Y5" s="27"/>
-      <c r="AF5" s="34" t="s">
+      <c r="Y5" s="14"/>
+      <c r="AF5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AG5" s="29" t="s">
+      <c r="AG5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AH5" s="32" t="s">
+      <c r="AH5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AI5" s="32" t="s">
+      <c r="AI5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AJ5" s="30" t="s">
+      <c r="AJ5" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="14.45" customHeight="1">
-      <c r="A6" s="15">
+      <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="38"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="41"/>
-      <c r="AA6" s="42" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="28"/>
+      <c r="AA6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="43" t="s">
+      <c r="AB6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="43" t="s">
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="AF6" s="34" t="s">
+      <c r="AF6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32" t="s">
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AJ6" s="30" t="s">
+      <c r="AJ6" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="14.45" customHeight="1">
-      <c r="A7" s="15">
+      <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="45"/>
-      <c r="W7" s="14" t="s">
+      <c r="P7" s="191"/>
+      <c r="Q7" s="31"/>
+      <c r="W7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X7" s="46" t="str">
+      <c r="X7" s="32" t="str">
         <f>IF(Y7&lt;&gt;"",Y7,IF(AB9="","",AB9))</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="Y7" s="47" t="s">
+      <c r="Y7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AA7" s="34" t="s">
+      <c r="AA7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="49" t="str">
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="35" t="str">
         <f t="shared" ref="AC7:AC20" si="0">IF(AB7&lt;&gt;AD7,"Change","")</f>
         <v/>
       </c>
-      <c r="AD7" s="50" t="str">
+      <c r="AD7" s="36" t="str">
         <f>IF(OR(AA2="",AA2=0),"",AA2)</f>
         <v/>
       </c>
-      <c r="AF7" s="34" t="s">
+      <c r="AF7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AG7" s="51" t="s">
+      <c r="AG7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AH7" s="52" t="s">
+      <c r="AH7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="AI7" s="52" t="s">
+      <c r="AI7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="AJ7" s="53" t="s">
+      <c r="AJ7" s="39" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="14.45" customHeight="1">
-      <c r="A8" s="15">
+      <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="O8" s="14" t="s">
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="O8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="56" t="str">
+      <c r="P8" s="194" t="str">
         <f>IF(AB8="","",AB8)</f>
         <v/>
       </c>
-      <c r="Q8" s="57"/>
-      <c r="T8" s="58" t="s">
+      <c r="Q8" s="42"/>
+      <c r="T8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="60"/>
-      <c r="AA8" s="34" t="s">
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="45"/>
+      <c r="AA8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AB8" s="61"/>
-      <c r="AC8" s="49" t="str">
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD8" s="62" t="str">
+      <c r="AD8" s="47" t="str">
         <f>IF(P7="","",P7)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:36" ht="14.45" customHeight="1">
-      <c r="A9" s="15">
+      <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="63" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="65" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="66" t="s">
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="66" t="s">
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="21"/>
-      <c r="AA9" s="34" t="s">
+      <c r="X9" s="7"/>
+      <c r="Y9" s="8"/>
+      <c r="AA9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="49" t="str">
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Change</v>
       </c>
-      <c r="AD9" s="50" t="str">
+      <c r="AD9" s="36" t="str">
         <f>IF(X7="","",X7)</f>
         <v>Eugene Mah</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="14.45" customHeight="1">
-      <c r="A10" s="15">
+      <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="D10" s="67" t="s">
+      <c r="B10" s="10"/>
+      <c r="D10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="10" t="str">
+      <c r="E10" s="190" t="str">
         <f t="shared" ref="E10:E15" si="1">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="F10" s="10"/>
-      <c r="I10" s="67" t="s">
+      <c r="F10" s="190"/>
+      <c r="I10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="10" t="str">
+      <c r="J10" s="190" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="K10" s="10"/>
-      <c r="M10" s="25"/>
-      <c r="O10" s="26"/>
-      <c r="Q10" s="34" t="s">
+      <c r="K10" s="190"/>
+      <c r="M10" s="12"/>
+      <c r="O10" s="13"/>
+      <c r="Q10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="R10" s="69" t="str">
+      <c r="R10" s="54" t="str">
         <f t="shared" ref="R10:R15" si="2">IF(S10&lt;&gt;"",S10,IF(AB10="","",AB10))</f>
         <v/>
       </c>
-      <c r="S10" s="70"/>
-      <c r="U10" s="34" t="s">
+      <c r="S10" s="55"/>
+      <c r="U10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="V10" s="69" t="str">
+      <c r="V10" s="54" t="str">
         <f>IF(W10&lt;&gt;"",W10,IF(AB16="","",AB16))</f>
         <v/>
       </c>
-      <c r="W10" s="70"/>
-      <c r="Y10" s="27"/>
-      <c r="AA10" s="34" t="s">
+      <c r="W10" s="55"/>
+      <c r="Y10" s="14"/>
+      <c r="AA10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="49" t="str">
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD10" s="50" t="str">
+      <c r="AD10" s="36" t="str">
         <f t="shared" ref="AD10:AD15" si="3">IF(R10="","",R10)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:36" ht="14.45" customHeight="1">
-      <c r="A11" s="15">
+      <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="D11" s="67" t="s">
+      <c r="B11" s="10"/>
+      <c r="D11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="9" t="str">
+      <c r="E11" s="185" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="9"/>
-      <c r="I11" s="67" t="s">
+      <c r="F11" s="185"/>
+      <c r="I11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="8" t="str">
+      <c r="J11" s="195" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="K11" s="8"/>
-      <c r="M11" s="25"/>
-      <c r="O11" s="26"/>
-      <c r="Q11" s="34" t="s">
+      <c r="K11" s="195"/>
+      <c r="M11" s="12"/>
+      <c r="O11" s="13"/>
+      <c r="Q11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="69" t="str">
+      <c r="R11" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S11" s="70"/>
-      <c r="U11" s="34" t="s">
+      <c r="S11" s="55"/>
+      <c r="U11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="72" t="str">
+      <c r="V11" s="57" t="str">
         <f>IF(W11&lt;&gt;"",W11,IF(AB17="","",AB17))</f>
         <v/>
       </c>
-      <c r="W11" s="73"/>
-      <c r="Y11" s="27"/>
-      <c r="AA11" s="34" t="s">
+      <c r="W11" s="58"/>
+      <c r="Y11" s="14"/>
+      <c r="AA11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="49" t="str">
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD11" s="50" t="str">
+      <c r="AD11" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:36" ht="14.45" customHeight="1">
-      <c r="A12" s="15">
+      <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="D12" s="67" t="s">
+      <c r="B12" s="10"/>
+      <c r="D12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="9" t="str">
+      <c r="E12" s="185" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="9"/>
-      <c r="I12" s="67" t="s">
+      <c r="F12" s="185"/>
+      <c r="I12" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="9" t="str">
+      <c r="J12" s="185" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="K12" s="9"/>
-      <c r="M12" s="25"/>
-      <c r="O12" s="26"/>
-      <c r="Q12" s="34" t="s">
+      <c r="K12" s="185"/>
+      <c r="M12" s="12"/>
+      <c r="O12" s="13"/>
+      <c r="Q12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="R12" s="69" t="str">
+      <c r="R12" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S12" s="70"/>
-      <c r="U12" s="34" t="s">
+      <c r="S12" s="55"/>
+      <c r="U12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="V12" s="74" t="str">
+      <c r="V12" s="59" t="str">
         <f>IF(W12&lt;&gt;"",W12,IF(AB18="","",AB18))</f>
         <v/>
       </c>
-      <c r="W12" s="75"/>
-      <c r="Y12" s="27"/>
-      <c r="AA12" s="34" t="s">
+      <c r="W12" s="60"/>
+      <c r="Y12" s="14"/>
+      <c r="AA12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="49" t="str">
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD12" s="50" t="str">
+      <c r="AD12" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:36" ht="14.45" customHeight="1">
-      <c r="A13" s="15">
+      <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="D13" s="67" t="s">
+      <c r="B13" s="10"/>
+      <c r="D13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="9" t="str">
+      <c r="E13" s="185" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="9"/>
-      <c r="I13" s="67" t="s">
+      <c r="F13" s="185"/>
+      <c r="I13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="9" t="str">
+      <c r="J13" s="185" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="K13" s="9"/>
-      <c r="M13" s="25"/>
-      <c r="O13" s="26"/>
-      <c r="Q13" s="34" t="s">
+      <c r="K13" s="185"/>
+      <c r="M13" s="12"/>
+      <c r="O13" s="13"/>
+      <c r="Q13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="R13" s="74" t="str">
+      <c r="R13" s="59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S13" s="75"/>
-      <c r="U13" s="34" t="s">
+      <c r="S13" s="60"/>
+      <c r="U13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="V13" s="76" t="str">
+      <c r="V13" s="61" t="str">
         <f>IF(W13&lt;&gt;"",W13,IF(AB19="","",AB19))</f>
         <v/>
       </c>
-      <c r="W13" s="75"/>
-      <c r="Y13" s="27"/>
-      <c r="AA13" s="34" t="s">
+      <c r="W13" s="60"/>
+      <c r="Y13" s="14"/>
+      <c r="AA13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="49" t="str">
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD13" s="50" t="str">
+      <c r="AD13" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:36" ht="14.45" customHeight="1">
-      <c r="A14" s="15">
+      <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="D14" s="67" t="s">
+      <c r="B14" s="10"/>
+      <c r="D14" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="9" t="str">
+      <c r="E14" s="185" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="9"/>
-      <c r="I14" s="67" t="s">
+      <c r="F14" s="185"/>
+      <c r="I14" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="9" t="str">
+      <c r="J14" s="185" t="str">
         <f>IF(V14="","",V14)</f>
         <v/>
       </c>
-      <c r="K14" s="9"/>
-      <c r="M14" s="25"/>
-      <c r="O14" s="26"/>
-      <c r="Q14" s="34" t="s">
+      <c r="K14" s="185"/>
+      <c r="M14" s="12"/>
+      <c r="O14" s="13"/>
+      <c r="Q14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="R14" s="69" t="str">
+      <c r="R14" s="54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S14" s="70"/>
-      <c r="U14" s="34" t="s">
+      <c r="S14" s="55"/>
+      <c r="U14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="V14" s="76" t="str">
+      <c r="V14" s="61" t="str">
         <f>IF(W14&lt;&gt;"",W14,IF(AB20="","",AB20))</f>
         <v/>
       </c>
-      <c r="W14" s="75"/>
-      <c r="Y14" s="27"/>
-      <c r="AA14" s="34" t="s">
+      <c r="W14" s="60"/>
+      <c r="Y14" s="14"/>
+      <c r="AA14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="49" t="str">
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD14" s="50" t="str">
+      <c r="AD14" s="36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:36" ht="14.45" customHeight="1">
-      <c r="A15" s="15">
+      <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="D15" s="77" t="s">
+      <c r="B15" s="10"/>
+      <c r="D15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="9" t="str">
+      <c r="E15" s="185" t="str">
         <f t="shared" si="1"/>
         <v>IMPAX 4.2 2015</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="M15" s="25"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="78" t="s">
+      <c r="F15" s="185"/>
+      <c r="M15" s="12"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="R15" s="79" t="str">
+      <c r="R15" s="64" t="str">
         <f t="shared" si="2"/>
         <v>IMPAX 4.2 2015</v>
       </c>
-      <c r="S15" s="80" t="s">
+      <c r="S15" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="41"/>
-      <c r="AA15" s="81" t="s">
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="28"/>
+      <c r="AA15" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="49" t="str">
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Change</v>
       </c>
-      <c r="AD15" s="50" t="str">
+      <c r="AD15" s="36" t="str">
         <f t="shared" si="3"/>
         <v>IMPAX 4.2 2015</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="14.45" customHeight="1">
-      <c r="A16" s="15">
+      <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="38"/>
-      <c r="AA16" s="34" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="25"/>
+      <c r="AA16" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="49" t="str">
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD16" s="50" t="str">
+      <c r="AD16" s="36" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A17" s="15">
+      <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="M17" s="82" t="str">
+      <c r="B17" s="40"/>
+      <c r="M17" s="67" t="str">
         <f>$H$2</f>
         <v>Medical University of South Carolina</v>
       </c>
-      <c r="S17" s="83"/>
-      <c r="T17" s="58" t="s">
+      <c r="S17" s="68"/>
+      <c r="T17" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="34" t="s">
+      <c r="AA17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="49" t="str">
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD17" s="85" t="str">
+      <c r="AD17" s="70" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A18" s="15">
+      <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="M18" s="86" t="str">
+      <c r="B18" s="40"/>
+      <c r="M18" s="71" t="str">
         <f>$H$5</f>
         <v>Mammography Monitor Compliance Inspection</v>
       </c>
-      <c r="O18" s="87" t="s">
+      <c r="O18" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="21"/>
-      <c r="AA18" s="34" t="s">
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="8"/>
+      <c r="AA18" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="49" t="str">
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD18" s="88" t="str">
+      <c r="AD18" s="73" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A19" s="15">
+      <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="7" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="18"/>
-      <c r="O19" s="26"/>
-      <c r="R19" s="14" t="s">
+      <c r="G19" s="186"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="186"/>
+      <c r="K19" s="186"/>
+      <c r="L19" s="186"/>
+      <c r="M19" s="5"/>
+      <c r="O19" s="13"/>
+      <c r="R19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y19" s="27"/>
-      <c r="AA19" s="34" t="s">
+      <c r="Y19" s="14"/>
+      <c r="AA19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="49" t="str">
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD19" s="88" t="str">
+      <c r="AD19" s="73" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A20" s="15">
+      <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="D20" s="67" t="s">
+      <c r="B20" s="10"/>
+      <c r="D20" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="68" t="str">
+      <c r="E20" s="53" t="str">
         <f>IF(O20="","",IF(O20=1,"YES",IF(O20=2,"NO",IF(O20=3,"NA",""))))</f>
         <v/>
       </c>
-      <c r="F20" s="54" t="str">
+      <c r="F20" s="40" t="str">
         <f>IF(R20="","",R20)</f>
         <v/>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="25"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="14" t="s">
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="12"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R20" s="91"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="92"/>
-      <c r="V20" s="92"/>
-      <c r="W20" s="92"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="27"/>
-      <c r="AA20" s="34" t="s">
+      <c r="R20" s="76"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="14"/>
+      <c r="AA20" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AB20" s="84"/>
-      <c r="AC20" s="49" t="str">
+      <c r="AB20" s="69"/>
+      <c r="AC20" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD20" s="88" t="str">
+      <c r="AD20" s="73" t="str">
         <f>IF(V14="","",V14)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A21" s="15">
+      <c r="A21" s="2">
         <v>21</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="D21" s="67" t="s">
+      <c r="B21" s="10"/>
+      <c r="D21" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="71" t="str">
+      <c r="E21" s="56" t="str">
         <f>IF(O21="","",IF(O21=1,"YES",IF(O21=2,"NO",IF(O21=3,"NA",""))))</f>
         <v/>
       </c>
-      <c r="F21" s="54" t="str">
+      <c r="F21" s="40" t="str">
         <f>IF(R21="","",R21)</f>
         <v/>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="25"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="14" t="s">
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="12"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R21" s="91"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="92"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="27"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="14"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
     </row>
     <row r="22" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A22" s="15">
+      <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="D22" s="67" t="s">
+      <c r="B22" s="10"/>
+      <c r="D22" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="71" t="str">
+      <c r="E22" s="56" t="str">
         <f>IF(O22="","",IF(O22=1,"YES",IF(O22=2,"NO",IF(O22=3,"NA",""))))</f>
         <v/>
       </c>
-      <c r="F22" s="54" t="str">
+      <c r="F22" s="40" t="str">
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="25"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="14" t="s">
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="12"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R22" s="91"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="92"/>
-      <c r="W22" s="92"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="27"/>
-      <c r="AA22" s="81" t="s">
+      <c r="R22" s="76"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="14"/>
+      <c r="AA22" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="49" t="str">
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="35" t="str">
         <f t="shared" ref="AC22:AC28" si="4">IF(AB22&lt;&gt;AD22,"Change","")</f>
         <v/>
       </c>
-      <c r="AD22" s="88" t="str">
+      <c r="AD22" s="73" t="str">
         <f>IF(P26="","",P26)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A23" s="15">
+      <c r="A23" s="2">
         <v>23</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="D23" s="67" t="s">
+      <c r="B23" s="10"/>
+      <c r="D23" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="71" t="str">
+      <c r="E23" s="56" t="str">
         <f>IF(O23="","",IF(O23=1,"YES",IF(O23=2,"NO",IF(O23=3,"NA",""))))</f>
         <v/>
       </c>
-      <c r="F23" s="54" t="str">
+      <c r="F23" s="40" t="str">
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="25"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="14" t="s">
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="12"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R23" s="91"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="92"/>
-      <c r="Y23" s="27"/>
-      <c r="AA23" s="34" t="s">
+      <c r="R23" s="76"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="14"/>
+      <c r="AA23" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="49" t="str">
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="35" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AD23" s="94" t="str">
+      <c r="AD23" s="79" t="str">
         <f>IF(R36="","",R36)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A24" s="15">
+      <c r="A24" s="2">
         <v>24</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="D24" s="67" t="s">
+      <c r="B24" s="10"/>
+      <c r="D24" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="6" t="str">
+      <c r="E24" s="192" t="str">
         <f>IF(P51="","",P51)</f>
         <v/>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="25"/>
-      <c r="O24" s="26"/>
-      <c r="Y24" s="27"/>
-      <c r="AA24" s="34" t="s">
+      <c r="F24" s="192"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="12"/>
+      <c r="O24" s="13"/>
+      <c r="Y24" s="14"/>
+      <c r="AA24" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AB24" s="48"/>
-      <c r="AC24" s="49" t="str">
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="35" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AD24" s="94" t="str">
+      <c r="AD24" s="79" t="str">
         <f>IF(S36="","",S36)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A25" s="15">
+      <c r="A25" s="2">
         <v>25</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="M25" s="25"/>
-      <c r="O25" s="95" t="s">
+      <c r="B25" s="10"/>
+      <c r="M25" s="12"/>
+      <c r="O25" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="U25" s="34" t="s">
+      <c r="U25" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="14" t="s">
+      <c r="V25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y25" s="27"/>
-      <c r="AA25" s="34" t="s">
+      <c r="Y25" s="14"/>
+      <c r="AA25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AB25" s="96"/>
-      <c r="AC25" s="49" t="str">
+      <c r="AB25" s="81"/>
+      <c r="AC25" s="35" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AD25" s="97" t="str">
+      <c r="AD25" s="82" t="str">
         <f>IF(Q92="","",Q92)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A26" s="15">
+      <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="98" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="M26" s="25"/>
-      <c r="O26" s="99" t="s">
+      <c r="M26" s="12"/>
+      <c r="O26" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="14" t="s">
+      <c r="P26" s="85"/>
+      <c r="Q26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y26" s="27"/>
-      <c r="AA26" s="34" t="s">
+      <c r="Y26" s="14"/>
+      <c r="AA26" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="49" t="str">
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="35" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AD26" s="97" t="str">
+      <c r="AD26" s="82" t="str">
         <f>IF(R92="","",R92)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A27" s="15">
+      <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="67" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="101" t="str">
+      <c r="D27" s="86" t="str">
         <f>IF(P26="","",P26)</f>
         <v/>
       </c>
-      <c r="E27" s="102" t="s">
+      <c r="E27" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M27" s="25"/>
-      <c r="O27" s="99" t="s">
+      <c r="M27" s="12"/>
+      <c r="O27" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="P27" s="103" t="str">
+      <c r="P27" s="88" t="str">
         <f>IF(AB22="","",AB22)</f>
         <v/>
       </c>
-      <c r="Q27" s="14" t="s">
+      <c r="Q27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R27" s="42" t="s">
+      <c r="R27" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="S27" s="14" t="s">
+      <c r="S27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y27" s="27"/>
-      <c r="AA27" s="34" t="s">
+      <c r="Y27" s="14"/>
+      <c r="AA27" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AB27" s="96"/>
-      <c r="AC27" s="49" t="str">
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="35" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AD27" s="97" t="str">
+      <c r="AD27" s="82" t="str">
         <f>IF(S92="","",S92)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A28" s="15">
+      <c r="A28" s="2">
         <v>28</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="67" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="104" t="str">
+      <c r="D28" s="89" t="str">
         <f>IF(Q28="","",IF(LEN(Q28)&lt;=135,Q28,IF(LEN(Q28)&lt;=260,LEFT(Q28,SEARCH(" ",Q28,125)),LEFT(Q28,SEARCH(" ",Q28,130)))))</f>
         <v/>
       </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="25"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="34" t="s">
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="12"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="Q28" s="105" t="str">
+      <c r="Q28" s="90" t="str">
         <f>IF(Q30&lt;&gt;"",Q30,IF(AB43="","",AB43))</f>
         <v/>
       </c>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="27"/>
-      <c r="AA28" s="34" t="s">
+      <c r="R28" s="91"/>
+      <c r="S28" s="91"/>
+      <c r="T28" s="91"/>
+      <c r="U28" s="91"/>
+      <c r="X28" s="91"/>
+      <c r="Y28" s="14"/>
+      <c r="AA28" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="AB28" s="96"/>
-      <c r="AC28" s="49" t="str">
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="35" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AD28" s="97" t="str">
+      <c r="AD28" s="82" t="str">
         <f>IF(T92="","",T92)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A29" s="15">
+      <c r="A29" s="2">
         <v>29</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="D29" s="107" t="str">
+      <c r="B29" s="10"/>
+      <c r="D29" s="92" t="str">
         <f>IF(LEN(Q28)&lt;=135,"",IF(LEN(Q28)&lt;=260,RIGHT(Q28,LEN(Q28)-SEARCH(" ",Q28,125)),MID(Q28,SEARCH(" ",Q28,130),IF(LEN(Q28)&lt;=265,LEN(Q28),SEARCH(" ",Q28,255)-SEARCH(" ",Q28,130)))))</f>
         <v/>
       </c>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="25"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="108" t="s">
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="12"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="110">
+      <c r="Q29" s="94"/>
+      <c r="R29" s="95">
         <f>LEN(Q28)</f>
         <v>0</v>
       </c>
-      <c r="S29" s="92"/>
-      <c r="T29" s="92"/>
-      <c r="U29" s="92"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="27"/>
-      <c r="AA29" s="34" t="s">
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="77"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="77"/>
+      <c r="Y29" s="14"/>
+      <c r="AA29" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="33"/>
-      <c r="AD29" s="33"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
     </row>
     <row r="30" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A30" s="15">
+      <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="D30" s="107" t="str">
+      <c r="B30" s="10"/>
+      <c r="D30" s="92" t="str">
         <f>IF(LEN(Q28)&lt;=265,"",RIGHT(Q28,LEN(Q28)-SEARCH(" ",Q28,255)))</f>
         <v/>
       </c>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="25"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="34" t="s">
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="12"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="92"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="27"/>
-      <c r="AA30" s="34" t="s">
+      <c r="Q30" s="76"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+      <c r="U30" s="77"/>
+      <c r="V30" s="77"/>
+      <c r="W30" s="77"/>
+      <c r="X30" s="77"/>
+      <c r="Y30" s="14"/>
+      <c r="AA30" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AB30" s="96"/>
-      <c r="AD30" s="97" t="str">
+      <c r="AB30" s="81"/>
+      <c r="AD30" s="82" t="str">
         <f>IF(R70="","",R70)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A31" s="15">
+      <c r="A31" s="2">
         <v>31</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="M31" s="25"/>
-      <c r="O31" s="26"/>
-      <c r="Y31" s="27"/>
-      <c r="AA31" s="34" t="s">
+      <c r="B31" s="10"/>
+      <c r="M31" s="12"/>
+      <c r="O31" s="13"/>
+      <c r="Y31" s="14"/>
+      <c r="AA31" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AB31" s="96"/>
-      <c r="AD31" s="97" t="str">
+      <c r="AB31" s="81"/>
+      <c r="AD31" s="82" t="str">
         <f>IF(R72="","",R72)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A32" s="15">
+      <c r="A32" s="2">
         <v>32</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="98" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="M32" s="25"/>
-      <c r="O32" s="95" t="s">
+      <c r="M32" s="12"/>
+      <c r="O32" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="U32" s="34" t="s">
+      <c r="U32" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V32" s="14" t="s">
+      <c r="V32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Y32" s="27"/>
-      <c r="AA32" s="34" t="s">
+      <c r="Y32" s="14"/>
+      <c r="AA32" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AB32" s="96"/>
-      <c r="AD32" s="97" t="str">
+      <c r="AB32" s="81"/>
+      <c r="AD32" s="82" t="str">
         <f>IF(R74="","",R74)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A33" s="15">
+      <c r="A33" s="2">
         <v>33</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="102" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="6" t="str">
+      <c r="D33" s="192" t="str">
         <f>IF(P33="","",P33)</f>
         <v/>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="102" t="s">
+      <c r="E33" s="192"/>
+      <c r="F33" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="102" t="s">
+      <c r="G33" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="H33" s="111" t="s">
+      <c r="H33" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="25"/>
-      <c r="O33" s="99" t="s">
+      <c r="I33" s="97"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="12"/>
+      <c r="O33" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="P33" s="44"/>
-      <c r="R33" s="33" t="str">
+      <c r="P33" s="191"/>
+      <c r="R33" s="20" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
-      <c r="S33" s="33" t="str">
+      <c r="S33" s="20" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
         <v>Right ()</v>
       </c>
-      <c r="Y33" s="27"/>
-      <c r="AA33" s="34" t="s">
+      <c r="Y33" s="14"/>
+      <c r="AA33" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="AB33" s="96"/>
-      <c r="AD33" s="97" t="str">
+      <c r="AB33" s="81"/>
+      <c r="AD33" s="82" t="str">
         <f>IF(S70="","",S70)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A34" s="15">
+      <c r="A34" s="2">
         <v>34</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="67" t="str">
+      <c r="B34" s="10"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="52" t="str">
         <f>R33</f>
         <v>Left ()</v>
       </c>
-      <c r="F34" s="113" t="str">
+      <c r="F34" s="98" t="str">
         <f>IF(R34="","",R34)</f>
         <v/>
       </c>
-      <c r="G34" s="113" t="str">
+      <c r="G34" s="98" t="str">
         <f>IF(R35="","",R35)</f>
         <v/>
       </c>
-      <c r="H34" s="114" t="str">
+      <c r="H34" s="99" t="str">
         <f>IF(R36="","",R36)</f>
         <v/>
       </c>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="25"/>
-      <c r="O34" s="26"/>
-      <c r="Q34" s="115" t="s">
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="12"/>
+      <c r="O34" s="13"/>
+      <c r="Q34" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="R34" s="116"/>
-      <c r="S34" s="116"/>
-      <c r="Y34" s="27"/>
-      <c r="AA34" s="34" t="s">
+      <c r="R34" s="101"/>
+      <c r="S34" s="101"/>
+      <c r="Y34" s="14"/>
+      <c r="AA34" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AB34" s="96"/>
-      <c r="AD34" s="97" t="str">
+      <c r="AB34" s="81"/>
+      <c r="AD34" s="82" t="str">
         <f>IF(S72="","",S72)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A35" s="15">
+      <c r="A35" s="2">
         <v>35</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="67" t="str">
+      <c r="B35" s="10"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="52" t="str">
         <f>S33</f>
         <v>Right ()</v>
       </c>
-      <c r="F35" s="113" t="str">
+      <c r="F35" s="98" t="str">
         <f>IF(S34="","",S34)</f>
         <v/>
       </c>
-      <c r="G35" s="113" t="str">
+      <c r="G35" s="98" t="str">
         <f>IF(S35="","",S35)</f>
         <v/>
       </c>
-      <c r="H35" s="114" t="str">
+      <c r="H35" s="99" t="str">
         <f>IF(S36="","",S36)</f>
         <v/>
       </c>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="25"/>
-      <c r="O35" s="26"/>
-      <c r="Q35" s="117" t="s">
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="12"/>
+      <c r="O35" s="13"/>
+      <c r="Q35" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="R35" s="118"/>
-      <c r="S35" s="118"/>
-      <c r="Y35" s="27"/>
-      <c r="AA35" s="34" t="s">
+      <c r="R35" s="103"/>
+      <c r="S35" s="103"/>
+      <c r="Y35" s="14"/>
+      <c r="AA35" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="AB35" s="96"/>
-      <c r="AD35" s="97" t="str">
+      <c r="AB35" s="81"/>
+      <c r="AD35" s="82" t="str">
         <f>IF(S74="","",S74)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A36" s="15">
+      <c r="A36" s="2">
         <v>36</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="67" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="104" t="str">
+      <c r="D36" s="89" t="str">
         <f>IF(Q38="","",IF(LEN(Q38)&lt;=135,Q38,IF(LEN(Q38)&lt;=260,LEFT(Q38,SEARCH(" ",Q38,125)),LEFT(Q38,SEARCH(" ",Q38,130)))))</f>
         <v/>
       </c>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="25"/>
-      <c r="O36" s="26"/>
-      <c r="Q36" s="34" t="s">
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="12"/>
+      <c r="O36" s="13"/>
+      <c r="Q36" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="R36" s="119" t="str">
+      <c r="R36" s="104" t="str">
         <f>IF(OR(R34="",R35=""),"",R35/R34)</f>
         <v/>
       </c>
-      <c r="S36" s="120" t="str">
+      <c r="S36" s="105" t="str">
         <f>IF(OR(S34="",S35=""),"",S35/S34)</f>
         <v/>
       </c>
-      <c r="Y36" s="27"/>
+      <c r="Y36" s="14"/>
     </row>
     <row r="37" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A37" s="15">
+      <c r="A37" s="2">
         <v>37</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="107" t="str">
+      <c r="B37" s="10"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="92" t="str">
         <f>IF(LEN(Q38)&lt;=135,"",IF(LEN(Q38)&lt;=260,RIGHT(Q38,LEN(Q38)-SEARCH(" ",Q38,125)),MID(Q38,SEARCH(" ",Q38,130),IF(LEN(Q38)&lt;=265,LEN(Q38),SEARCH(" ",Q38,255)-SEARCH(" ",Q38,130)))))</f>
         <v/>
       </c>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="107"/>
-      <c r="M37" s="25"/>
-      <c r="O37" s="26"/>
-      <c r="Y37" s="27"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="12"/>
+      <c r="O37" s="13"/>
+      <c r="Y37" s="14"/>
     </row>
     <row r="38" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A38" s="15">
+      <c r="A38" s="2">
         <v>38</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="107" t="str">
+      <c r="B38" s="10"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="92" t="str">
         <f>IF(LEN(Q38)&lt;=265,"",RIGHT(Q38,LEN(Q38)-SEARCH(" ",Q38,255)))</f>
         <v/>
       </c>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="25"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="34" t="s">
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="92"/>
+      <c r="M38" s="12"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="Q38" s="105" t="str">
+      <c r="Q38" s="90" t="str">
         <f>IF(Q40&lt;&gt;"",Q40,IF(AB44="","",AB44))</f>
         <v/>
       </c>
-      <c r="R38" s="106"/>
-      <c r="S38" s="106"/>
-      <c r="T38" s="106"/>
-      <c r="U38" s="106"/>
-      <c r="X38" s="106"/>
-      <c r="Y38" s="27"/>
+      <c r="R38" s="91"/>
+      <c r="S38" s="91"/>
+      <c r="T38" s="91"/>
+      <c r="U38" s="91"/>
+      <c r="X38" s="91"/>
+      <c r="Y38" s="14"/>
     </row>
     <row r="39" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A39" s="15">
+      <c r="A39" s="2">
         <v>39</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="M39" s="25"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="108" t="s">
+      <c r="B39" s="10"/>
+      <c r="M39" s="12"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="110">
+      <c r="Q39" s="94"/>
+      <c r="R39" s="95">
         <f>LEN(Q38)</f>
         <v>0</v>
       </c>
-      <c r="S39" s="92"/>
-      <c r="T39" s="92"/>
-      <c r="U39" s="92"/>
-      <c r="V39" s="92"/>
-      <c r="W39" s="92"/>
-      <c r="X39" s="92"/>
-      <c r="Y39" s="27"/>
+      <c r="S39" s="77"/>
+      <c r="T39" s="77"/>
+      <c r="U39" s="77"/>
+      <c r="V39" s="77"/>
+      <c r="W39" s="77"/>
+      <c r="X39" s="77"/>
+      <c r="Y39" s="14"/>
     </row>
     <row r="40" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A40" s="15">
+      <c r="A40" s="2">
         <v>40</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="98" t="s">
+      <c r="B40" s="10"/>
+      <c r="C40" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="25"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="34" t="s">
+      <c r="M40" s="12"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q40" s="91"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="92"/>
-      <c r="U40" s="92"/>
-      <c r="V40" s="92"/>
-      <c r="W40" s="92"/>
-      <c r="X40" s="92"/>
-      <c r="Y40" s="27"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="77"/>
+      <c r="S40" s="77"/>
+      <c r="T40" s="77"/>
+      <c r="U40" s="77"/>
+      <c r="V40" s="77"/>
+      <c r="W40" s="77"/>
+      <c r="X40" s="77"/>
+      <c r="Y40" s="14"/>
     </row>
     <row r="41" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A41" s="15">
+      <c r="A41" s="2">
         <v>41</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="102" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="6" t="str">
+      <c r="D41" s="192" t="str">
         <f>IF(P43="","",P43)</f>
         <v/>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="121" t="str">
+      <c r="E41" s="192"/>
+      <c r="F41" s="106" t="str">
         <f>R44</f>
         <v>Left ()</v>
       </c>
-      <c r="G41" s="122" t="str">
+      <c r="G41" s="107" t="str">
         <f>S44</f>
         <v>Right ()</v>
       </c>
-      <c r="M41" s="25"/>
-      <c r="O41" s="26"/>
-      <c r="Y41" s="27"/>
+      <c r="M41" s="12"/>
+      <c r="O41" s="13"/>
+      <c r="Y41" s="14"/>
     </row>
     <row r="42" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A42" s="15">
+      <c r="A42" s="2">
         <v>42</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="E42" s="67" t="s">
+      <c r="B42" s="10"/>
+      <c r="E42" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="123" t="str">
+      <c r="F42" s="108" t="str">
         <f>IF(R45="","",IF(R45=1,"YES",IF(R45=2,"NO",IF(R45=3,"NA",""))))</f>
         <v/>
       </c>
-      <c r="G42" s="124" t="str">
+      <c r="G42" s="109" t="str">
         <f>IF(S45="","",IF(S45=1,"YES",IF(S45=2,"NO",IF(S45=3,"NA",""))))</f>
         <v/>
       </c>
-      <c r="M42" s="25"/>
-      <c r="O42" s="95" t="s">
+      <c r="M42" s="12"/>
+      <c r="O42" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="U42" s="34" t="s">
+      <c r="U42" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V42" s="14" t="s">
+      <c r="V42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Y42" s="27"/>
-      <c r="AA42" s="83" t="s">
+      <c r="Y42" s="14"/>
+      <c r="AA42" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="AB42" s="33"/>
-      <c r="AC42" s="33"/>
-      <c r="AD42" s="33"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="20"/>
     </row>
     <row r="43" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A43" s="15">
+      <c r="A43" s="2">
         <v>43</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="67" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="104" t="str">
+      <c r="D43" s="89" t="str">
         <f>IF(Q46="","",IF(LEN(Q46)&lt;=135,Q46,IF(LEN(Q46)&lt;=260,LEFT(Q46,SEARCH(" ",Q46,125)),LEFT(Q46,SEARCH(" ",Q46,130)))))</f>
         <v/>
       </c>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="104"/>
-      <c r="K43" s="104"/>
-      <c r="L43" s="104"/>
-      <c r="M43" s="25"/>
-      <c r="O43" s="99" t="s">
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="89"/>
+      <c r="M43" s="12"/>
+      <c r="O43" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="P43" s="44"/>
-      <c r="V43" s="14" t="s">
+      <c r="P43" s="191"/>
+      <c r="V43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Y43" s="27"/>
-      <c r="AA43" s="34" t="s">
+      <c r="Y43" s="14"/>
+      <c r="AA43" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="AB43" s="48"/>
-      <c r="AC43" s="49" t="str">
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="35" t="str">
         <f t="shared" ref="AC43:AC49" si="5">IF(AB43&lt;&gt;AD43,"Change","")</f>
         <v/>
       </c>
-      <c r="AD43" s="97" t="str">
+      <c r="AD43" s="82" t="str">
         <f>IF(Q30="","",Q30)</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A44" s="15">
+      <c r="A44" s="2">
         <v>44</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="107" t="str">
+      <c r="B44" s="10"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="92" t="str">
         <f>IF(LEN(Q46)&lt;=135,"",IF(LEN(Q46)&lt;=260,RIGHT(Q46,LEN(Q46)-SEARCH(" ",Q46,125)),MID(Q46,SEARCH(" ",Q46,130),IF(LEN(Q46)&lt;=265,LEN(Q46),SEARCH(" ",Q46,255)-SEARCH(" ",Q46,130)))))</f>
         <v/>
       </c>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="107"/>
-      <c r="L44" s="107"/>
-      <c r="M44" s="25"/>
-      <c r="O44" s="125" t="s">
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="92"/>
+      <c r="L44" s="92"/>
+      <c r="M44" s="12"/>
+      <c r="O44" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="R44" s="33" t="str">
+      <c r="R44" s="20" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
-      <c r="S44" s="33" t="str">
+      <c r="S44" s="20" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
         <v>Right ()</v>
       </c>
-      <c r="Y44" s="27"/>
-      <c r="AA44" s="34" t="s">
+      <c r="Y44" s="14"/>
+      <c r="AA44" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="AB44" s="48"/>
-      <c r="AC44" s="49" t="str">
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="35" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AD44" s="97" t="str">
+      <c r="AD44" s="82" t="str">
         <f>IF(Q40="","",Q40)</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A45" s="15">
+      <c r="A45" s="2">
         <v>45</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="107" t="str">
+      <c r="B45" s="10"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="92" t="str">
         <f>IF(LEN(Q46)&lt;=265,"",RIGHT(Q46,LEN(Q46)-SEARCH(" ",Q46,255)))</f>
         <v/>
       </c>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="107"/>
-      <c r="M45" s="25"/>
-      <c r="O45" s="26"/>
-      <c r="Q45" s="34" t="s">
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="12"/>
+      <c r="O45" s="13"/>
+      <c r="Q45" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="R45" s="126"/>
-      <c r="S45" s="126"/>
-      <c r="Y45" s="27"/>
-      <c r="AA45" s="34" t="s">
+      <c r="R45" s="111"/>
+      <c r="S45" s="111"/>
+      <c r="Y45" s="14"/>
+      <c r="AA45" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AB45" s="48"/>
-      <c r="AC45" s="49" t="str">
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="35" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AD45" s="97" t="str">
+      <c r="AD45" s="82" t="str">
         <f>IF(Q48="","",Q48)</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A46" s="15">
+      <c r="A46" s="2">
         <v>46</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="M46" s="25"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="34" t="s">
+      <c r="B46" s="10"/>
+      <c r="M46" s="12"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="Q46" s="105" t="str">
+      <c r="Q46" s="90" t="str">
         <f>IF(Q48&lt;&gt;"",Q48,IF(AB45="","",AB45))</f>
         <v/>
       </c>
-      <c r="R46" s="106"/>
-      <c r="S46" s="106"/>
-      <c r="T46" s="106"/>
-      <c r="U46" s="106"/>
-      <c r="X46" s="106"/>
-      <c r="Y46" s="27"/>
-      <c r="AA46" s="34" t="s">
+      <c r="R46" s="91"/>
+      <c r="S46" s="91"/>
+      <c r="T46" s="91"/>
+      <c r="U46" s="91"/>
+      <c r="X46" s="91"/>
+      <c r="Y46" s="14"/>
+      <c r="AA46" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="AB46" s="48"/>
-      <c r="AC46" s="49" t="str">
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="35" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AD46" s="97" t="str">
+      <c r="AD46" s="82" t="str">
         <f>IF(Q54="","",Q54)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A47" s="15">
+      <c r="A47" s="2">
         <v>47</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="98" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="M47" s="25"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="108" t="s">
+      <c r="M47" s="12"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="Q47" s="109"/>
-      <c r="R47" s="110">
+      <c r="Q47" s="94"/>
+      <c r="R47" s="95">
         <f>LEN(Q46)</f>
         <v>0</v>
       </c>
-      <c r="S47" s="92"/>
-      <c r="T47" s="92"/>
-      <c r="U47" s="92"/>
-      <c r="V47" s="92"/>
-      <c r="W47" s="92"/>
-      <c r="X47" s="92"/>
-      <c r="Y47" s="27"/>
-      <c r="AA47" s="34" t="s">
+      <c r="S47" s="77"/>
+      <c r="T47" s="77"/>
+      <c r="U47" s="77"/>
+      <c r="V47" s="77"/>
+      <c r="W47" s="77"/>
+      <c r="X47" s="77"/>
+      <c r="Y47" s="14"/>
+      <c r="AA47" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="AB47" s="48"/>
-      <c r="AC47" s="49" t="str">
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="35" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AD47" s="97" t="str">
+      <c r="AD47" s="82" t="str">
         <f>IF(Q62="","",Q62)</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A48" s="15">
+      <c r="A48" s="2">
         <v>48</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="127" t="s">
+      <c r="B48" s="10"/>
+      <c r="C48" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
-      <c r="G48" s="112"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="127" t="s">
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="J48" s="112"/>
-      <c r="K48" s="112"/>
-      <c r="L48" s="112"/>
-      <c r="M48" s="25"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="34" t="s">
+      <c r="J48" s="97"/>
+      <c r="K48" s="97"/>
+      <c r="L48" s="97"/>
+      <c r="M48" s="12"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q48" s="91"/>
-      <c r="R48" s="92"/>
-      <c r="S48" s="92"/>
-      <c r="T48" s="92"/>
-      <c r="U48" s="92"/>
-      <c r="V48" s="92"/>
-      <c r="W48" s="92"/>
-      <c r="X48" s="92"/>
-      <c r="Y48" s="27"/>
-      <c r="AA48" s="34" t="s">
+      <c r="Q48" s="76"/>
+      <c r="R48" s="77"/>
+      <c r="S48" s="77"/>
+      <c r="T48" s="77"/>
+      <c r="U48" s="77"/>
+      <c r="V48" s="77"/>
+      <c r="W48" s="77"/>
+      <c r="X48" s="77"/>
+      <c r="Y48" s="14"/>
+      <c r="AA48" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="AB48" s="48"/>
-      <c r="AC48" s="49" t="str">
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="35" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AD48" s="97" t="str">
+      <c r="AD48" s="82" t="str">
         <f>IF(Q80="","",Q80)</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A49" s="15">
+      <c r="A49" s="2">
         <v>49</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="102" t="str">
+      <c r="B49" s="10"/>
+      <c r="C49" s="87" t="str">
         <f>Q57</f>
         <v>Left ()</v>
       </c>
-      <c r="D49" s="68" t="str">
+      <c r="D49" s="53" t="str">
         <f>IF(Q58="","",Q58)</f>
         <v/>
       </c>
-      <c r="E49" s="102" t="str">
+      <c r="E49" s="87" t="str">
         <f>R57</f>
         <v>Right ()</v>
       </c>
-      <c r="F49" s="68" t="str">
+      <c r="F49" s="53" t="str">
         <f>IF(R58="","",R58)</f>
         <v/>
       </c>
-      <c r="G49" s="112"/>
-      <c r="H49" s="112"/>
-      <c r="I49" s="102" t="str">
+      <c r="G49" s="97"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="87" t="str">
         <f>Q57</f>
         <v>Left ()</v>
       </c>
-      <c r="J49" s="68" t="str">
+      <c r="J49" s="53" t="str">
         <f>IF(Q59="","",Q59)</f>
         <v/>
       </c>
-      <c r="K49" s="102" t="str">
+      <c r="K49" s="87" t="str">
         <f>R57</f>
         <v>Right ()</v>
       </c>
-      <c r="L49" s="68" t="str">
+      <c r="L49" s="53" t="str">
         <f>IF(R59="","",R59)</f>
         <v/>
       </c>
-      <c r="M49" s="25"/>
-      <c r="O49" s="26"/>
-      <c r="Y49" s="27"/>
-      <c r="AA49" s="34" t="s">
+      <c r="M49" s="12"/>
+      <c r="O49" s="13"/>
+      <c r="Y49" s="14"/>
+      <c r="AA49" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="AB49" s="48"/>
-      <c r="AC49" s="49" t="str">
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="35" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AD49" s="97" t="str">
+      <c r="AD49" s="82" t="str">
         <f>IF(Q95="","",Q95)</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A50" s="15">
+      <c r="A50" s="2">
         <v>50</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="67" t="s">
+      <c r="B50" s="10"/>
+      <c r="C50" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="104" t="str">
+      <c r="D50" s="89" t="str">
         <f>IF(Q60="","",IF(LEN(Q60)&lt;=135,Q60,IF(LEN(Q60)&lt;=260,LEFT(Q60,SEARCH(" ",Q60,125)),LEFT(Q60,SEARCH(" ",Q60,130)))))</f>
         <v/>
       </c>
-      <c r="E50" s="104"/>
-      <c r="F50" s="104"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="104"/>
-      <c r="J50" s="104"/>
-      <c r="K50" s="104"/>
-      <c r="L50" s="104"/>
-      <c r="M50" s="25"/>
-      <c r="O50" s="95" t="s">
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="12"/>
+      <c r="O50" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="U50" s="34" t="s">
+      <c r="U50" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V50" s="14" t="s">
+      <c r="V50" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Y50" s="27"/>
-      <c r="AB50" s="33"/>
-      <c r="AC50" s="33"/>
-      <c r="AD50" s="33"/>
+      <c r="Y50" s="14"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="20"/>
     </row>
     <row r="51" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A51" s="15">
+      <c r="A51" s="2">
         <v>51</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="112"/>
-      <c r="D51" s="107" t="str">
+      <c r="B51" s="10"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="92" t="str">
         <f>IF(LEN(Q60)&lt;=135,"",IF(LEN(Q60)&lt;=260,RIGHT(Q60,LEN(Q60)-SEARCH(" ",Q60,125)),MID(Q60,SEARCH(" ",Q60,130),IF(LEN(Q60)&lt;=265,LEN(Q60),SEARCH(" ",Q60,255)-SEARCH(" ",Q60,130)))))</f>
         <v/>
       </c>
-      <c r="E51" s="107"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="107"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="107"/>
-      <c r="J51" s="107"/>
-      <c r="K51" s="107"/>
-      <c r="L51" s="107"/>
-      <c r="M51" s="25"/>
-      <c r="O51" s="99" t="s">
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="92"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="92"/>
+      <c r="J51" s="92"/>
+      <c r="K51" s="92"/>
+      <c r="L51" s="92"/>
+      <c r="M51" s="12"/>
+      <c r="O51" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="P51" s="44"/>
-      <c r="V51" s="14" t="s">
+      <c r="P51" s="191"/>
+      <c r="V51" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y51" s="27"/>
-      <c r="AA51" s="83" t="s">
+      <c r="Y51" s="14"/>
+      <c r="AA51" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="AB51" s="84"/>
-      <c r="AC51" s="49" t="str">
+      <c r="AB51" s="69"/>
+      <c r="AC51" s="35" t="str">
         <f>IF(AB51&lt;&gt;AD51,"Change","")</f>
         <v/>
       </c>
-      <c r="AD51" s="97" t="str">
+      <c r="AD51" s="82" t="str">
         <f>IF(Q100="","",Q100)</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A52" s="15">
+      <c r="A52" s="2">
         <v>52</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="107" t="str">
+      <c r="B52" s="10"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="92" t="str">
         <f>IF(LEN(Q60)&lt;=265,"",RIGHT(Q60,LEN(Q60)-SEARCH(" ",Q60,255)))</f>
         <v/>
       </c>
-      <c r="E52" s="107"/>
-      <c r="F52" s="107"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="107"/>
-      <c r="K52" s="107"/>
-      <c r="L52" s="107"/>
-      <c r="M52" s="25"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="34" t="s">
+      <c r="E52" s="92"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="92"/>
+      <c r="H52" s="92"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="92"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="92"/>
+      <c r="M52" s="12"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="Q52" s="105" t="str">
+      <c r="Q52" s="90" t="str">
         <f>IF(Q54&lt;&gt;"",Q54,IF(AB46="","",AB46))</f>
         <v/>
       </c>
-      <c r="R52" s="106"/>
-      <c r="S52" s="106"/>
-      <c r="T52" s="106"/>
-      <c r="U52" s="106"/>
-      <c r="X52" s="106"/>
-      <c r="Y52" s="27"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="33"/>
-      <c r="AD52" s="33"/>
+      <c r="R52" s="91"/>
+      <c r="S52" s="91"/>
+      <c r="T52" s="91"/>
+      <c r="U52" s="91"/>
+      <c r="X52" s="91"/>
+      <c r="Y52" s="14"/>
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="20"/>
     </row>
     <row r="53" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A53" s="15">
+      <c r="A53" s="2">
         <v>53</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="M53" s="25"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="108" t="s">
+      <c r="B53" s="10"/>
+      <c r="M53" s="12"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="110">
+      <c r="Q53" s="94"/>
+      <c r="R53" s="95">
         <f>LEN(Q52)</f>
         <v>0</v>
       </c>
-      <c r="S53" s="92"/>
-      <c r="T53" s="92"/>
-      <c r="U53" s="92"/>
-      <c r="V53" s="92"/>
-      <c r="W53" s="92"/>
-      <c r="X53" s="92"/>
-      <c r="Y53" s="27"/>
-      <c r="AB53" s="84"/>
-      <c r="AC53" s="49" t="str">
+      <c r="S53" s="77"/>
+      <c r="T53" s="77"/>
+      <c r="U53" s="77"/>
+      <c r="V53" s="77"/>
+      <c r="W53" s="77"/>
+      <c r="X53" s="77"/>
+      <c r="Y53" s="14"/>
+      <c r="AB53" s="69"/>
+      <c r="AC53" s="35" t="str">
         <f>IF(AB53&lt;&gt;AD53,"Change","")</f>
         <v/>
       </c>
-      <c r="AD53" s="97" t="str">
+      <c r="AD53" s="82" t="str">
         <f>IF(Q102="","",Q102)</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A54" s="15">
+      <c r="A54" s="2">
         <v>54</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="127" t="s">
+      <c r="B54" s="10"/>
+      <c r="C54" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="184" t="s">
         <v>98</v>
       </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="25"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="34" t="s">
+      <c r="J54" s="184"/>
+      <c r="K54" s="184"/>
+      <c r="L54" s="184"/>
+      <c r="M54" s="12"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q54" s="91"/>
-      <c r="R54" s="92"/>
-      <c r="S54" s="92"/>
-      <c r="T54" s="92"/>
-      <c r="U54" s="92"/>
-      <c r="V54" s="92"/>
-      <c r="W54" s="92"/>
-      <c r="X54" s="92"/>
-      <c r="Y54" s="27"/>
-      <c r="AB54" s="33"/>
-      <c r="AC54" s="33"/>
-      <c r="AD54" s="33"/>
+      <c r="Q54" s="76"/>
+      <c r="R54" s="77"/>
+      <c r="S54" s="77"/>
+      <c r="T54" s="77"/>
+      <c r="U54" s="77"/>
+      <c r="V54" s="77"/>
+      <c r="W54" s="77"/>
+      <c r="X54" s="77"/>
+      <c r="Y54" s="14"/>
+      <c r="AB54" s="20"/>
+      <c r="AC54" s="20"/>
+      <c r="AD54" s="20"/>
     </row>
     <row r="55" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A55" s="15">
+      <c r="A55" s="2">
         <v>55</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="F55" s="121" t="str">
+      <c r="B55" s="10"/>
+      <c r="F55" s="106" t="str">
         <f>R65</f>
         <v>Left ()</v>
       </c>
-      <c r="G55" s="122" t="str">
+      <c r="G55" s="107" t="str">
         <f>S65</f>
         <v>Right ()</v>
       </c>
-      <c r="I55" s="4" t="str">
+      <c r="I55" s="172" t="str">
         <f>R65</f>
         <v>Left ()</v>
       </c>
-      <c r="J55" s="4"/>
-      <c r="K55" s="3" t="str">
+      <c r="J55" s="172"/>
+      <c r="K55" s="173" t="str">
         <f>S65</f>
         <v>Right ()</v>
       </c>
-      <c r="L55" s="3"/>
-      <c r="M55" s="25"/>
-      <c r="O55" s="26"/>
-      <c r="Y55" s="27"/>
-      <c r="AB55" s="84"/>
-      <c r="AC55" s="49" t="str">
+      <c r="L55" s="173"/>
+      <c r="M55" s="12"/>
+      <c r="O55" s="13"/>
+      <c r="Y55" s="14"/>
+      <c r="AB55" s="69"/>
+      <c r="AC55" s="35" t="str">
         <f>IF(AB55&lt;&gt;AD55,"Change","")</f>
         <v/>
       </c>
-      <c r="AD55" s="97" t="str">
+      <c r="AD55" s="82" t="str">
         <f>IF(Q104="","",Q104)</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A56" s="15">
+      <c r="A56" s="2">
         <v>56</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="E56" s="67" t="s">
+      <c r="B56" s="10"/>
+      <c r="E56" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="F56" s="128" t="str">
+      <c r="F56" s="113" t="str">
         <f t="shared" ref="F56:G58" si="6">IF(R66="","",IF(R66=1,"YES",IF(R66=2,"NO",IF(R66=3,"NA",""))))</f>
         <v/>
       </c>
-      <c r="G56" s="129" t="str">
+      <c r="G56" s="114" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H56" s="67" t="s">
+      <c r="H56" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="I56" s="2" t="str">
+      <c r="I56" s="180" t="str">
         <f>IF(R70="","",R70)</f>
         <v/>
       </c>
-      <c r="J56" s="2"/>
-      <c r="K56" s="1" t="str">
+      <c r="J56" s="180"/>
+      <c r="K56" s="181" t="str">
         <f>IF(S70="","",S70)</f>
         <v/>
       </c>
-      <c r="L56" s="1"/>
-      <c r="M56" s="25"/>
-      <c r="O56" s="95" t="s">
+      <c r="L56" s="181"/>
+      <c r="M56" s="12"/>
+      <c r="O56" s="80" t="s">
         <v>89</v>
       </c>
       <c r="U56"/>
       <c r="V56"/>
-      <c r="Y56" s="27"/>
-      <c r="AB56" s="33"/>
-      <c r="AC56" s="33"/>
-      <c r="AD56" s="33"/>
+      <c r="Y56" s="14"/>
+      <c r="AB56" s="20"/>
+      <c r="AC56" s="20"/>
+      <c r="AD56" s="20"/>
     </row>
     <row r="57" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A57" s="15">
+      <c r="A57" s="2">
         <v>57</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="E57" s="67" t="s">
+      <c r="B57" s="10"/>
+      <c r="E57" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F57" s="128" t="str">
+      <c r="F57" s="113" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G57" s="129" t="str">
+      <c r="G57" s="114" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H57" s="67" t="s">
+      <c r="H57" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="I57" s="2" t="str">
+      <c r="I57" s="180" t="str">
         <f>IF(R72="","",R72)</f>
         <v/>
       </c>
-      <c r="J57" s="2"/>
-      <c r="K57" s="1" t="str">
+      <c r="J57" s="180"/>
+      <c r="K57" s="181" t="str">
         <f>IF(S72="","",S72)</f>
         <v/>
       </c>
-      <c r="L57" s="1"/>
-      <c r="M57" s="25"/>
-      <c r="O57" s="130" t="s">
+      <c r="L57" s="181"/>
+      <c r="M57" s="12"/>
+      <c r="O57" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="Q57" s="33" t="str">
+      <c r="Q57" s="20" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
-      <c r="R57" s="33" t="str">
+      <c r="R57" s="20" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
         <v>Right ()</v>
       </c>
-      <c r="Y57" s="27"/>
-      <c r="AB57" s="84"/>
-      <c r="AC57" s="49" t="str">
+      <c r="Y57" s="14"/>
+      <c r="AB57" s="69"/>
+      <c r="AC57" s="35" t="str">
         <f>IF(AB57&lt;&gt;AD57,"Change","")</f>
         <v/>
       </c>
-      <c r="AD57" s="97" t="str">
+      <c r="AD57" s="82" t="str">
         <f>IF(Q106="","",Q106)</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A58" s="15">
+      <c r="A58" s="2">
         <v>58</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="E58" s="67" t="s">
+      <c r="B58" s="10"/>
+      <c r="E58" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="F58" s="123" t="str">
+      <c r="F58" s="108" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G58" s="124" t="str">
+      <c r="G58" s="109" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H58" s="67" t="s">
+      <c r="H58" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="I58" s="180" t="str">
+      <c r="I58" s="182" t="str">
         <f>IF(R74="","",R74)</f>
         <v/>
       </c>
-      <c r="J58" s="180"/>
-      <c r="K58" s="181" t="str">
+      <c r="J58" s="182"/>
+      <c r="K58" s="183" t="str">
         <f>IF(S74="","",S74)</f>
         <v/>
       </c>
-      <c r="L58" s="181"/>
-      <c r="M58" s="25"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="131" t="s">
+      <c r="L58" s="183"/>
+      <c r="M58" s="12"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="Q58" s="116"/>
-      <c r="R58" s="116"/>
-      <c r="Y58" s="27"/>
-      <c r="AB58" s="33"/>
-      <c r="AC58" s="33"/>
-      <c r="AD58" s="33"/>
+      <c r="Q58" s="101"/>
+      <c r="R58" s="101"/>
+      <c r="Y58" s="14"/>
+      <c r="AB58" s="20"/>
+      <c r="AC58" s="20"/>
+      <c r="AD58" s="20"/>
     </row>
     <row r="59" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A59" s="15">
+      <c r="A59" s="2">
         <v>59</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="67" t="s">
+      <c r="B59" s="10"/>
+      <c r="C59" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="104" t="str">
+      <c r="D59" s="89" t="str">
         <f>IF(Q78="","",IF(LEN(Q78)&lt;=135,Q78,IF(LEN(Q78)&lt;=260,LEFT(Q78,SEARCH(" ",Q78,125)),LEFT(Q78,SEARCH(" ",Q78,130)))))</f>
         <v/>
       </c>
-      <c r="E59" s="104"/>
-      <c r="F59" s="104"/>
-      <c r="G59" s="104"/>
-      <c r="H59" s="104"/>
-      <c r="I59" s="104"/>
-      <c r="J59" s="104"/>
-      <c r="K59" s="104"/>
-      <c r="L59" s="104"/>
-      <c r="M59" s="25"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="132" t="s">
+      <c r="E59" s="89"/>
+      <c r="F59" s="89"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="89"/>
+      <c r="I59" s="89"/>
+      <c r="J59" s="89"/>
+      <c r="K59" s="89"/>
+      <c r="L59" s="89"/>
+      <c r="M59" s="12"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="Q59" s="118"/>
-      <c r="R59" s="118"/>
-      <c r="Y59" s="27"/>
-      <c r="AB59" s="84"/>
-      <c r="AC59" s="49" t="str">
+      <c r="Q59" s="103"/>
+      <c r="R59" s="103"/>
+      <c r="Y59" s="14"/>
+      <c r="AB59" s="69"/>
+      <c r="AC59" s="35" t="str">
         <f>IF(AB59&lt;&gt;AD59,"Change","")</f>
         <v/>
       </c>
-      <c r="AD59" s="97" t="str">
+      <c r="AD59" s="82" t="str">
         <f>IF(Q108="","",Q108)</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A60" s="15">
+      <c r="A60" s="2">
         <v>60</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="112"/>
-      <c r="D60" s="107" t="str">
+      <c r="B60" s="10"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="92" t="str">
         <f>IF(LEN(Q78)&lt;=135,"",IF(LEN(Q78)&lt;=260,RIGHT(Q78,LEN(Q78)-SEARCH(" ",Q78,125)),MID(Q78,SEARCH(" ",Q78,130),IF(LEN(Q78)&lt;=265,LEN(Q78),SEARCH(" ",Q78,255)-SEARCH(" ",Q78,130)))))</f>
         <v/>
       </c>
-      <c r="E60" s="107"/>
-      <c r="F60" s="107"/>
-      <c r="G60" s="107"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="107"/>
-      <c r="J60" s="107"/>
-      <c r="K60" s="107"/>
-      <c r="L60" s="107"/>
-      <c r="M60" s="25"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="34" t="s">
+      <c r="E60" s="92"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="92"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="92"/>
+      <c r="K60" s="92"/>
+      <c r="L60" s="92"/>
+      <c r="M60" s="12"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="Q60" s="105" t="str">
+      <c r="Q60" s="90" t="str">
         <f>IF(Q62&lt;&gt;"",Q62,IF(AB54="","",AB47))</f>
         <v/>
       </c>
-      <c r="R60" s="106"/>
-      <c r="S60" s="106"/>
-      <c r="T60" s="106"/>
-      <c r="U60" s="106"/>
-      <c r="X60" s="106"/>
-      <c r="Y60" s="27"/>
-      <c r="AB60" s="33"/>
-      <c r="AC60" s="33"/>
-      <c r="AD60" s="33"/>
+      <c r="R60" s="91"/>
+      <c r="S60" s="91"/>
+      <c r="T60" s="91"/>
+      <c r="U60" s="91"/>
+      <c r="X60" s="91"/>
+      <c r="Y60" s="14"/>
+      <c r="AB60" s="20"/>
+      <c r="AC60" s="20"/>
+      <c r="AD60" s="20"/>
     </row>
     <row r="61" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A61" s="15">
+      <c r="A61" s="2">
         <v>61</v>
       </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="112"/>
-      <c r="D61" s="107" t="str">
+      <c r="B61" s="10"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="92" t="str">
         <f>IF(LEN(Q78)&lt;=265,"",RIGHT(Q78,LEN(Q78)-SEARCH(" ",Q78,255)))</f>
         <v/>
       </c>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="107"/>
-      <c r="K61" s="107"/>
-      <c r="L61" s="107"/>
-      <c r="M61" s="25"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="108" t="s">
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="92"/>
+      <c r="H61" s="92"/>
+      <c r="I61" s="92"/>
+      <c r="J61" s="92"/>
+      <c r="K61" s="92"/>
+      <c r="L61" s="92"/>
+      <c r="M61" s="12"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="Q61" s="109"/>
-      <c r="R61" s="110">
+      <c r="Q61" s="94"/>
+      <c r="R61" s="95">
         <f>LEN(Q60)</f>
         <v>0</v>
       </c>
-      <c r="S61" s="92"/>
-      <c r="T61" s="92"/>
-      <c r="U61" s="92"/>
-      <c r="V61" s="92"/>
-      <c r="W61" s="92"/>
-      <c r="X61" s="92"/>
-      <c r="Y61" s="27"/>
-      <c r="AB61" s="84"/>
-      <c r="AC61" s="49" t="str">
+      <c r="S61" s="77"/>
+      <c r="T61" s="77"/>
+      <c r="U61" s="77"/>
+      <c r="V61" s="77"/>
+      <c r="W61" s="77"/>
+      <c r="X61" s="77"/>
+      <c r="Y61" s="14"/>
+      <c r="AB61" s="69"/>
+      <c r="AC61" s="35" t="str">
         <f>IF(AB61&lt;&gt;AD61,"Change","")</f>
         <v/>
       </c>
-      <c r="AD61" s="97" t="str">
+      <c r="AD61" s="82" t="str">
         <f>IF(Q110="","",Q110)</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A62" s="15">
+      <c r="A62" s="2">
         <v>62</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="M62" s="25"/>
-      <c r="O62" s="26"/>
-      <c r="P62" s="34" t="s">
+      <c r="B62" s="10"/>
+      <c r="M62" s="12"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q62" s="91"/>
-      <c r="R62" s="92"/>
-      <c r="S62" s="92"/>
-      <c r="T62" s="92"/>
-      <c r="U62" s="92"/>
-      <c r="V62" s="92"/>
-      <c r="W62" s="92"/>
-      <c r="X62" s="92"/>
-      <c r="Y62" s="27"/>
-      <c r="AB62" s="33"/>
-      <c r="AC62" s="33"/>
-      <c r="AD62" s="33"/>
+      <c r="Q62" s="76"/>
+      <c r="R62" s="77"/>
+      <c r="S62" s="77"/>
+      <c r="T62" s="77"/>
+      <c r="U62" s="77"/>
+      <c r="V62" s="77"/>
+      <c r="W62" s="77"/>
+      <c r="X62" s="77"/>
+      <c r="Y62" s="14"/>
+      <c r="AB62" s="20"/>
+      <c r="AC62" s="20"/>
+      <c r="AD62" s="20"/>
     </row>
     <row r="63" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A63" s="15">
+      <c r="A63" s="2">
         <v>63</v>
       </c>
-      <c r="B63" s="23"/>
-      <c r="M63" s="25"/>
-      <c r="O63" s="26"/>
-      <c r="Y63" s="27"/>
-      <c r="AB63" s="84"/>
-      <c r="AC63" s="49" t="str">
+      <c r="B63" s="10"/>
+      <c r="M63" s="12"/>
+      <c r="O63" s="13"/>
+      <c r="Y63" s="14"/>
+      <c r="AB63" s="69"/>
+      <c r="AC63" s="35" t="str">
         <f>IF(AB63&lt;&gt;AD63,"Change","")</f>
         <v/>
       </c>
-      <c r="AD63" s="97" t="str">
+      <c r="AD63" s="82" t="str">
         <f>IF(Q112="","",Q112)</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A64" s="15">
+      <c r="A64" s="2">
         <v>64</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="38"/>
-      <c r="O64" s="130" t="s">
+      <c r="B64" s="23"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="25"/>
+      <c r="O64" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="U64" s="34" t="s">
+      <c r="U64" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="V64" s="14" t="s">
+      <c r="V64" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Y64" s="27"/>
-      <c r="AB64" s="33"/>
-      <c r="AC64" s="33"/>
-      <c r="AD64" s="33"/>
+      <c r="Y64" s="14"/>
+      <c r="AB64" s="20"/>
+      <c r="AC64" s="20"/>
+      <c r="AD64" s="20"/>
     </row>
     <row r="65" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A65" s="15">
+      <c r="A65" s="2">
         <v>65</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="133" t="str">
+      <c r="D65" s="193" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
-      <c r="L65" s="34" t="s">
+      <c r="L65" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M65" s="134" t="str">
+      <c r="M65" s="118" t="str">
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="O65" s="125" t="s">
+      <c r="O65" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="R65" s="33" t="str">
+      <c r="R65" s="20" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
-      <c r="S65" s="33" t="str">
+      <c r="S65" s="20" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
         <v>Right ()</v>
       </c>
-      <c r="Y65" s="27"/>
-      <c r="AB65" s="84"/>
-      <c r="AC65" s="49" t="str">
+      <c r="Y65" s="14"/>
+      <c r="AB65" s="69"/>
+      <c r="AC65" s="35" t="str">
         <f>IF(AB65&lt;&gt;AD65,"Change","")</f>
         <v/>
       </c>
-      <c r="AD65" s="97" t="str">
+      <c r="AD65" s="82" t="str">
         <f>IF(Q114="","",Q114)</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A66" s="15">
+      <c r="A66" s="2">
         <v>66</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D66" s="135" t="str">
+      <c r="D66" s="119" t="str">
         <f>IF($E$14="","",$E$14)</f>
         <v/>
       </c>
-      <c r="L66" s="34" t="s">
+      <c r="L66" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="M66" s="136" t="str">
+      <c r="M66" s="120" t="str">
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
-      <c r="O66" s="26"/>
-      <c r="Q66" s="34" t="s">
+      <c r="O66" s="13"/>
+      <c r="Q66" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="R66" s="137"/>
-      <c r="S66" s="138"/>
-      <c r="Y66" s="27"/>
-      <c r="AB66" s="33"/>
-      <c r="AC66" s="33"/>
-      <c r="AD66" s="33"/>
+      <c r="R66" s="121"/>
+      <c r="S66" s="122"/>
+      <c r="Y66" s="14"/>
+      <c r="AB66" s="20"/>
+      <c r="AC66" s="20"/>
+      <c r="AD66" s="20"/>
     </row>
     <row r="67" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A67" s="15">
+      <c r="A67" s="2">
         <v>1</v>
       </c>
-      <c r="M67" s="139" t="str">
+      <c r="M67" s="123" t="str">
         <f>$H$2</f>
         <v>Medical University of South Carolina</v>
       </c>
-      <c r="O67" s="26"/>
-      <c r="Q67" s="34" t="s">
+      <c r="O67" s="13"/>
+      <c r="Q67" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="R67" s="140"/>
-      <c r="S67" s="141"/>
-      <c r="Y67" s="27"/>
-      <c r="AB67" s="84"/>
-      <c r="AC67" s="49" t="str">
+      <c r="R67" s="124"/>
+      <c r="S67" s="125"/>
+      <c r="Y67" s="14"/>
+      <c r="AB67" s="69"/>
+      <c r="AC67" s="35" t="str">
         <f>IF(AB67&lt;&gt;AD67,"Change","")</f>
         <v/>
       </c>
-      <c r="AD67" s="97" t="str">
+      <c r="AD67" s="82" t="str">
         <f>IF(Q116="","",Q116)</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A68" s="15">
+      <c r="A68" s="2">
         <v>2</v>
       </c>
-      <c r="M68" s="42" t="str">
+      <c r="M68" s="29" t="str">
         <f>$H$5</f>
         <v>Mammography Monitor Compliance Inspection</v>
       </c>
-      <c r="O68" s="26"/>
-      <c r="Q68" s="34" t="s">
+      <c r="O68" s="13"/>
+      <c r="Q68" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="R68" s="142"/>
-      <c r="S68" s="143"/>
-      <c r="Y68" s="27"/>
-      <c r="AB68" s="33"/>
-      <c r="AC68" s="33"/>
-      <c r="AD68" s="33"/>
+      <c r="R68" s="126"/>
+      <c r="S68" s="127"/>
+      <c r="Y68" s="14"/>
+      <c r="AB68" s="20"/>
+      <c r="AC68" s="20"/>
+      <c r="AD68" s="20"/>
     </row>
     <row r="69" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A69" s="15">
+      <c r="A69" s="2">
         <v>3</v>
       </c>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
-      <c r="O69" s="26"/>
-      <c r="Q69" s="34" t="s">
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="O69" s="13"/>
+      <c r="Q69" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="R69" s="14" t="s">
+      <c r="R69" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="V69" s="182" t="s">
+      <c r="V69" s="167" t="s">
         <v>111</v>
       </c>
-      <c r="W69" s="182"/>
-      <c r="Y69" s="27"/>
-      <c r="AB69" s="84"/>
-      <c r="AC69" s="49" t="str">
+      <c r="W69" s="167"/>
+      <c r="Y69" s="14"/>
+      <c r="AB69" s="69"/>
+      <c r="AC69" s="35" t="str">
         <f>IF(AB69&lt;&gt;AD69,"Change","")</f>
         <v/>
       </c>
-      <c r="AD69" s="97" t="str">
+      <c r="AD69" s="82" t="str">
         <f>IF(Q118="","",Q118)</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A70" s="15">
+      <c r="A70" s="2">
         <v>4</v>
       </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="63" t="s">
+      <c r="B70" s="3"/>
+      <c r="C70" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="18"/>
-      <c r="O70" s="26"/>
-      <c r="Q70" s="182" t="s">
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="5"/>
+      <c r="O70" s="13"/>
+      <c r="Q70" s="167" t="s">
         <v>100</v>
       </c>
-      <c r="R70" s="183"/>
-      <c r="S70" s="184"/>
-      <c r="V70" s="185" t="str">
+      <c r="R70" s="176"/>
+      <c r="S70" s="177"/>
+      <c r="V70" s="178" t="str">
         <f>IF(AB30="","",AB30)</f>
         <v/>
       </c>
-      <c r="W70" s="186" t="str">
+      <c r="W70" s="179" t="str">
         <f>IF(AB33="","",AB33)</f>
         <v/>
       </c>
-      <c r="Y70" s="27"/>
-      <c r="AB70" s="33"/>
-      <c r="AC70" s="33"/>
-      <c r="AD70" s="33"/>
+      <c r="Y70" s="14"/>
+      <c r="AB70" s="20"/>
+      <c r="AC70" s="20"/>
+      <c r="AD70" s="20"/>
     </row>
     <row r="71" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A71" s="15">
+      <c r="A71" s="2">
         <v>5</v>
       </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="112"/>
-      <c r="D71" s="4" t="str">
+      <c r="B71" s="10"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="172" t="str">
         <f>Q83</f>
         <v>UNL-10 (cd/m^2)</v>
       </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="3" t="str">
+      <c r="E71" s="172"/>
+      <c r="F71" s="173" t="str">
         <f>S83</f>
         <v>UNL-80 (cd/m^2)</v>
       </c>
-      <c r="G71" s="3"/>
-      <c r="I71" s="83" t="s">
+      <c r="G71" s="173"/>
+      <c r="I71" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="M71" s="25"/>
-      <c r="O71" s="26"/>
-      <c r="Q71" s="182"/>
-      <c r="R71" s="183"/>
-      <c r="S71" s="184"/>
-      <c r="V71" s="185"/>
-      <c r="W71" s="186"/>
-      <c r="Y71" s="27"/>
-      <c r="AB71" s="84"/>
-      <c r="AC71" s="49" t="str">
+      <c r="M71" s="12"/>
+      <c r="O71" s="13"/>
+      <c r="Q71" s="167"/>
+      <c r="R71" s="176"/>
+      <c r="S71" s="177"/>
+      <c r="V71" s="178"/>
+      <c r="W71" s="179"/>
+      <c r="Y71" s="14"/>
+      <c r="AB71" s="69"/>
+      <c r="AC71" s="35" t="str">
         <f>IF(AB71&lt;&gt;AD71,"Change","")</f>
         <v/>
       </c>
-      <c r="AD71" s="97" t="str">
+      <c r="AD71" s="82" t="str">
         <f>IF(Q120="","",Q120)</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A72" s="15">
+      <c r="A72" s="2">
         <v>6</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="112"/>
-      <c r="D72" s="128" t="str">
+      <c r="B72" s="10"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="113" t="str">
         <f>Q84</f>
         <v>Left ()</v>
       </c>
-      <c r="E72" s="113" t="str">
+      <c r="E72" s="98" t="str">
         <f>R84</f>
         <v>Right ()</v>
       </c>
-      <c r="F72" s="113" t="str">
+      <c r="F72" s="98" t="str">
         <f>S84</f>
         <v>Left ()</v>
       </c>
-      <c r="G72" s="129" t="str">
+      <c r="G72" s="114" t="str">
         <f>T84</f>
         <v>Right ()</v>
       </c>
-      <c r="I72" s="68" t="str">
+      <c r="I72" s="53" t="str">
         <f>IF(V84="","TBD",IF(V84=1,"YES",IF(V84=2,"NO",IF(V84=3,"NA",""))))</f>
         <v>TBD</v>
       </c>
-      <c r="J72" s="112" t="s">
+      <c r="J72" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="M72" s="25"/>
-      <c r="O72" s="26"/>
-      <c r="Q72" s="182" t="s">
+      <c r="M72" s="12"/>
+      <c r="O72" s="13"/>
+      <c r="Q72" s="167" t="s">
         <v>102</v>
       </c>
-      <c r="R72" s="187"/>
-      <c r="S72" s="188"/>
-      <c r="V72" s="189" t="str">
+      <c r="R72" s="174"/>
+      <c r="S72" s="175"/>
+      <c r="V72" s="165" t="str">
         <f>IF(AB31="","",AB31)</f>
         <v/>
       </c>
-      <c r="W72" s="190" t="str">
+      <c r="W72" s="166" t="str">
         <f>IF(AB34="","",AB34)</f>
         <v/>
       </c>
-      <c r="Y72" s="27"/>
+      <c r="Y72" s="14"/>
     </row>
     <row r="73" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A73" s="15">
+      <c r="A73" s="2">
         <v>7</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="67" t="s">
+      <c r="B73" s="10"/>
+      <c r="C73" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="D73" s="144" t="str">
+      <c r="D73" s="128" t="str">
         <f t="shared" ref="D73:G75" si="7">IF(Q90="","",Q90)</f>
         <v/>
       </c>
-      <c r="E73" s="114" t="str">
+      <c r="E73" s="99" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F73" s="114" t="str">
+      <c r="F73" s="99" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G73" s="145" t="str">
+      <c r="G73" s="129" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I73" s="71" t="str">
+      <c r="I73" s="56" t="str">
         <f>IF(V85="","TBD",IF(V85=1,"YES",IF(V85=2,"NO",IF(V85=3,"NA",""))))</f>
         <v>TBD</v>
       </c>
-      <c r="J73" s="112" t="s">
+      <c r="J73" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="M73" s="25"/>
-      <c r="O73" s="26"/>
-      <c r="Q73" s="182"/>
-      <c r="R73" s="187"/>
-      <c r="S73" s="188"/>
-      <c r="V73" s="189"/>
-      <c r="W73" s="190"/>
-      <c r="Y73" s="27"/>
+      <c r="M73" s="12"/>
+      <c r="O73" s="13"/>
+      <c r="Q73" s="167"/>
+      <c r="R73" s="174"/>
+      <c r="S73" s="175"/>
+      <c r="V73" s="165"/>
+      <c r="W73" s="166"/>
+      <c r="Y73" s="14"/>
     </row>
     <row r="74" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A74" s="15">
+      <c r="A74" s="2">
         <v>8</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="67" t="s">
+      <c r="B74" s="10"/>
+      <c r="C74" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D74" s="144" t="str">
+      <c r="D74" s="128" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="E74" s="114" t="str">
+      <c r="E74" s="99" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F74" s="114" t="str">
+      <c r="F74" s="99" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G74" s="145" t="str">
+      <c r="G74" s="129" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I74" s="71" t="str">
+      <c r="I74" s="56" t="str">
         <f>IF(V86="","TBD",IF(V86=1,"YES",IF(V86=2,"NO",IF(V86=3,"NA",""))))</f>
         <v>TBD</v>
       </c>
-      <c r="J74" s="112" t="s">
+      <c r="J74" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="M74" s="25"/>
-      <c r="O74" s="26"/>
-      <c r="Q74" s="182" t="s">
+      <c r="M74" s="12"/>
+      <c r="O74" s="13"/>
+      <c r="Q74" s="167" t="s">
         <v>105</v>
       </c>
-      <c r="R74" s="191"/>
-      <c r="S74" s="192"/>
-      <c r="V74" s="193" t="str">
+      <c r="R74" s="168"/>
+      <c r="S74" s="169"/>
+      <c r="V74" s="170" t="str">
         <f>IF(AB32="","",AB32)</f>
         <v/>
       </c>
-      <c r="W74" s="194" t="str">
+      <c r="W74" s="171" t="str">
         <f>IF(AB35="","",AB35)</f>
         <v/>
       </c>
-      <c r="Y74" s="27"/>
+      <c r="Y74" s="14"/>
     </row>
     <row r="75" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A75" s="15">
+      <c r="A75" s="2">
         <v>9</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="67" t="s">
+      <c r="B75" s="10"/>
+      <c r="C75" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D75" s="146" t="str">
+      <c r="D75" s="130" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="E75" s="147" t="str">
+      <c r="E75" s="131" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F75" s="147" t="str">
+      <c r="F75" s="131" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G75" s="148" t="str">
+      <c r="G75" s="132" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M75" s="25"/>
-      <c r="O75" s="26"/>
-      <c r="Q75" s="182"/>
-      <c r="R75" s="191"/>
-      <c r="S75" s="192"/>
-      <c r="V75" s="193"/>
-      <c r="W75" s="194"/>
-      <c r="Y75" s="27"/>
+      <c r="M75" s="12"/>
+      <c r="O75" s="13"/>
+      <c r="Q75" s="167"/>
+      <c r="R75" s="168"/>
+      <c r="S75" s="169"/>
+      <c r="V75" s="170"/>
+      <c r="W75" s="171"/>
+      <c r="Y75" s="14"/>
     </row>
     <row r="76" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A76" s="15">
+      <c r="A76" s="2">
         <v>10</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="D76" s="123" t="str">
+      <c r="B76" s="10"/>
+      <c r="D76" s="108" t="str">
         <f>IF(D75="","",IF(D75&lt;=0.3,"PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="E76" s="149" t="str">
+      <c r="E76" s="133" t="str">
         <f>IF(E75="","",IF(E75&lt;=0.3,"PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="F76" s="149" t="str">
+      <c r="F76" s="133" t="str">
         <f>IF(F75="","",IF(F75&lt;=0.3,"PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G76" s="124" t="str">
+      <c r="G76" s="109" t="str">
         <f>IF(G75="","",IF(G75&lt;=0.3,"PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="I76" s="42" t="s">
+      <c r="I76" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="J76" s="14" t="s">
+      <c r="J76" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M76" s="25"/>
-      <c r="O76" s="26"/>
-      <c r="Q76" s="42" t="s">
+      <c r="M76" s="12"/>
+      <c r="O76" s="13"/>
+      <c r="Q76" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="R76" s="14" t="s">
+      <c r="R76" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="Y76" s="27"/>
+      <c r="Y76" s="14"/>
     </row>
     <row r="77" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A77" s="15">
+      <c r="A77" s="2">
         <v>11</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="67" t="s">
+      <c r="B77" s="10"/>
+      <c r="C77" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="104" t="str">
+      <c r="D77" s="89" t="str">
         <f>IF(Q93="","",IF(LEN(Q93)&lt;=135,Q93,IF(LEN(Q93)&lt;=260,LEFT(Q93,SEARCH(" ",Q93,125)),LEFT(Q93,SEARCH(" ",Q93,130)))))</f>
         <v/>
       </c>
-      <c r="E77" s="104"/>
-      <c r="F77" s="104"/>
-      <c r="G77" s="104"/>
-      <c r="H77" s="104"/>
-      <c r="I77" s="104"/>
-      <c r="J77" s="104"/>
-      <c r="K77" s="104"/>
-      <c r="L77" s="104"/>
-      <c r="M77" s="25"/>
-      <c r="O77" s="26"/>
-      <c r="Y77" s="27"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="89"/>
+      <c r="G77" s="89"/>
+      <c r="H77" s="89"/>
+      <c r="I77" s="89"/>
+      <c r="J77" s="89"/>
+      <c r="K77" s="89"/>
+      <c r="L77" s="89"/>
+      <c r="M77" s="12"/>
+      <c r="O77" s="13"/>
+      <c r="Y77" s="14"/>
     </row>
     <row r="78" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A78" s="15">
+      <c r="A78" s="2">
         <v>12</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="112"/>
-      <c r="D78" s="107" t="str">
+      <c r="B78" s="10"/>
+      <c r="C78" s="97"/>
+      <c r="D78" s="92" t="str">
         <f>IF(LEN(Q93)&lt;=135,"",IF(LEN(Q93)&lt;=260,RIGHT(Q93,LEN(Q96)-SEARCH(" ",Q93,125)),MID(Q93,SEARCH(" ",Q93,130),IF(LEN(Q93)&lt;=265,LEN(Q93),SEARCH(" ",Q93,255)-SEARCH(" ",Q93,130)))))</f>
         <v/>
       </c>
-      <c r="E78" s="107"/>
-      <c r="F78" s="107"/>
-      <c r="G78" s="107"/>
-      <c r="H78" s="107"/>
-      <c r="I78" s="107"/>
-      <c r="J78" s="107"/>
-      <c r="K78" s="107"/>
-      <c r="L78" s="107"/>
-      <c r="M78" s="25"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="34" t="s">
+      <c r="E78" s="92"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="92"/>
+      <c r="H78" s="92"/>
+      <c r="I78" s="92"/>
+      <c r="J78" s="92"/>
+      <c r="K78" s="92"/>
+      <c r="L78" s="92"/>
+      <c r="M78" s="12"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="Q78" s="105" t="str">
+      <c r="Q78" s="90" t="str">
         <f>IF(Q80&lt;&gt;"",Q80,IF(AB48="","",AB48))</f>
         <v/>
       </c>
-      <c r="R78" s="106"/>
-      <c r="S78" s="106"/>
-      <c r="T78" s="106"/>
-      <c r="U78" s="106"/>
-      <c r="X78" s="106"/>
-      <c r="Y78" s="27"/>
+      <c r="R78" s="91"/>
+      <c r="S78" s="91"/>
+      <c r="T78" s="91"/>
+      <c r="U78" s="91"/>
+      <c r="X78" s="91"/>
+      <c r="Y78" s="14"/>
     </row>
     <row r="79" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A79" s="15">
+      <c r="A79" s="2">
         <v>13</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="112"/>
-      <c r="D79" s="107" t="str">
+      <c r="B79" s="10"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="92" t="str">
         <f>IF(LEN(Q93)&lt;=265,"",RIGHT(Q93,LEN(Q93)-SEARCH(" ",Q93,255)))</f>
         <v/>
       </c>
-      <c r="E79" s="107"/>
-      <c r="F79" s="107"/>
-      <c r="G79" s="107"/>
-      <c r="H79" s="107"/>
-      <c r="I79" s="107"/>
-      <c r="J79" s="107"/>
-      <c r="K79" s="107"/>
-      <c r="L79" s="107"/>
-      <c r="M79" s="25"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="108" t="s">
+      <c r="E79" s="92"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="92"/>
+      <c r="H79" s="92"/>
+      <c r="I79" s="92"/>
+      <c r="J79" s="92"/>
+      <c r="K79" s="92"/>
+      <c r="L79" s="92"/>
+      <c r="M79" s="12"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="Q79" s="109"/>
-      <c r="R79" s="110">
+      <c r="Q79" s="94"/>
+      <c r="R79" s="95">
         <f>LEN(Q78)</f>
         <v>0</v>
       </c>
-      <c r="S79" s="92"/>
-      <c r="T79" s="92"/>
-      <c r="U79" s="92"/>
-      <c r="V79" s="92"/>
-      <c r="W79" s="92"/>
-      <c r="X79" s="92"/>
-      <c r="Y79" s="27"/>
+      <c r="S79" s="77"/>
+      <c r="T79" s="77"/>
+      <c r="U79" s="77"/>
+      <c r="V79" s="77"/>
+      <c r="W79" s="77"/>
+      <c r="X79" s="77"/>
+      <c r="Y79" s="14"/>
     </row>
     <row r="80" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A80" s="15">
+      <c r="A80" s="2">
         <v>14</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="M80" s="25"/>
-      <c r="O80" s="26"/>
-      <c r="P80" s="34" t="s">
+      <c r="B80" s="10"/>
+      <c r="M80" s="12"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q80" s="91"/>
-      <c r="R80" s="92"/>
-      <c r="S80" s="92"/>
-      <c r="T80" s="92"/>
-      <c r="U80" s="92"/>
-      <c r="V80" s="92"/>
-      <c r="W80" s="92"/>
-      <c r="X80" s="92"/>
-      <c r="Y80" s="27"/>
+      <c r="Q80" s="76"/>
+      <c r="R80" s="77"/>
+      <c r="S80" s="77"/>
+      <c r="T80" s="77"/>
+      <c r="U80" s="77"/>
+      <c r="V80" s="77"/>
+      <c r="W80" s="77"/>
+      <c r="X80" s="77"/>
+      <c r="Y80" s="14"/>
     </row>
     <row r="81" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A81" s="15">
+      <c r="A81" s="2">
         <v>15</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="98" t="s">
+      <c r="B81" s="10"/>
+      <c r="C81" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="M81" s="25"/>
-      <c r="O81" s="26"/>
-      <c r="Y81" s="27"/>
+      <c r="M81" s="12"/>
+      <c r="O81" s="13"/>
+      <c r="Y81" s="14"/>
     </row>
     <row r="82" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A82" s="15">
+      <c r="A82" s="2">
         <v>16</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="D82" s="135" t="str">
+      <c r="B82" s="10"/>
+      <c r="D82" s="119" t="str">
         <f>IF(Q100="","",IF(LEN(Q100)&lt;=135,Q100,IF(LEN(Q100)&lt;=260,LEFT(Q100,SEARCH(" ",Q100,125)),LEFT(Q100,SEARCH(" ",Q100,130)))))</f>
         <v/>
       </c>
-      <c r="E82" s="106"/>
-      <c r="F82" s="106"/>
-      <c r="G82" s="106"/>
-      <c r="H82" s="106"/>
-      <c r="I82" s="106"/>
-      <c r="J82" s="106"/>
-      <c r="K82" s="106"/>
-      <c r="L82" s="106"/>
-      <c r="M82" s="25"/>
-      <c r="O82" s="130" t="s">
+      <c r="E82" s="91"/>
+      <c r="F82" s="91"/>
+      <c r="G82" s="91"/>
+      <c r="H82" s="91"/>
+      <c r="I82" s="91"/>
+      <c r="J82" s="91"/>
+      <c r="K82" s="91"/>
+      <c r="L82" s="91"/>
+      <c r="M82" s="12"/>
+      <c r="O82" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="V82" s="83" t="s">
+      <c r="V82" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="Y82" s="27"/>
+      <c r="Y82" s="14"/>
     </row>
     <row r="83" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A83" s="15">
+      <c r="A83" s="2">
         <v>17</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="D83" s="150" t="str">
+      <c r="B83" s="10"/>
+      <c r="D83" s="134" t="str">
         <f>IF(LEN(Q100)&lt;=135,"",IF(LEN(Q100)&lt;=260,RIGHT(Q100,LEN(Q100)-SEARCH(" ",Q100,125)),MID(Q100,SEARCH(" ",Q100,130),IF(LEN(Q100)&lt;=265,LEN(Q100),SEARCH(" ",Q100,255)-SEARCH(" ",Q100,130)))))</f>
         <v/>
       </c>
-      <c r="E83" s="92"/>
-      <c r="F83" s="92"/>
-      <c r="G83" s="92"/>
-      <c r="H83" s="92"/>
-      <c r="I83" s="92"/>
-      <c r="J83" s="92"/>
-      <c r="K83" s="92"/>
-      <c r="L83" s="92"/>
-      <c r="M83" s="25"/>
-      <c r="O83" s="26"/>
-      <c r="Q83" s="195" t="s">
+      <c r="E83" s="77"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="77"/>
+      <c r="I83" s="77"/>
+      <c r="J83" s="77"/>
+      <c r="K83" s="77"/>
+      <c r="L83" s="77"/>
+      <c r="M83" s="12"/>
+      <c r="O83" s="13"/>
+      <c r="Q83" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="R83" s="195"/>
-      <c r="S83" s="195" t="s">
+      <c r="R83" s="164"/>
+      <c r="S83" s="164" t="s">
         <v>124</v>
       </c>
-      <c r="T83" s="195"/>
-      <c r="V83" s="151" t="s">
+      <c r="T83" s="164"/>
+      <c r="V83" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="Y83" s="27"/>
+      <c r="Y83" s="14"/>
     </row>
     <row r="84" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A84" s="15">
+      <c r="A84" s="2">
         <v>18</v>
       </c>
-      <c r="B84" s="23"/>
-      <c r="D84" s="150" t="str">
+      <c r="B84" s="10"/>
+      <c r="D84" s="134" t="str">
         <f>IF(LEN(Q100)&lt;=265,"",RIGHT(Q100,LEN(Q100)-SEARCH(" ",Q100,255)))</f>
         <v/>
       </c>
-      <c r="E84" s="92"/>
-      <c r="F84" s="92"/>
-      <c r="G84" s="92"/>
-      <c r="H84" s="92"/>
-      <c r="I84" s="92"/>
-      <c r="J84" s="92"/>
-      <c r="K84" s="92"/>
-      <c r="L84" s="92"/>
-      <c r="M84" s="25"/>
-      <c r="O84" s="26"/>
-      <c r="Q84" s="152" t="str">
+      <c r="E84" s="77"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="77"/>
+      <c r="H84" s="77"/>
+      <c r="I84" s="77"/>
+      <c r="J84" s="77"/>
+      <c r="K84" s="77"/>
+      <c r="L84" s="77"/>
+      <c r="M84" s="12"/>
+      <c r="O84" s="13"/>
+      <c r="Q84" s="136" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
-      <c r="R84" s="153" t="str">
+      <c r="R84" s="137" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
         <v>Right ()</v>
       </c>
-      <c r="S84" s="152" t="str">
+      <c r="S84" s="136" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
-      <c r="T84" s="153" t="str">
+      <c r="T84" s="137" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
         <v>Right ()</v>
       </c>
-      <c r="V84" s="154"/>
-      <c r="W84" s="14" t="s">
+      <c r="V84" s="138"/>
+      <c r="W84" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Y84" s="27"/>
+      <c r="Y84" s="14"/>
     </row>
     <row r="85" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A85" s="15">
+      <c r="A85" s="2">
         <v>19</v>
       </c>
-      <c r="B85" s="23"/>
-      <c r="D85" s="150" t="str">
+      <c r="B85" s="10"/>
+      <c r="D85" s="134" t="str">
         <f>IF(Q102="","",IF(LEN(Q102)&lt;=135,Q102,IF(LEN(Q102)&lt;=260,LEFT(Q102,SEARCH(" ",Q102,125)),LEFT(Q102,SEARCH(" ",Q102,130)))))</f>
         <v/>
       </c>
-      <c r="E85" s="92"/>
-      <c r="F85" s="92"/>
-      <c r="G85" s="92"/>
-      <c r="H85" s="92"/>
-      <c r="I85" s="92"/>
-      <c r="J85" s="92"/>
-      <c r="K85" s="92"/>
-      <c r="L85" s="92"/>
-      <c r="M85" s="25"/>
-      <c r="O85" s="26"/>
-      <c r="P85" s="34" t="s">
+      <c r="E85" s="77"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="77"/>
+      <c r="J85" s="77"/>
+      <c r="K85" s="77"/>
+      <c r="L85" s="77"/>
+      <c r="M85" s="12"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="Q85" s="155"/>
-      <c r="R85" s="156"/>
-      <c r="S85" s="157"/>
-      <c r="T85" s="156"/>
-      <c r="V85" s="154"/>
-      <c r="W85" s="14" t="s">
+      <c r="Q85" s="139"/>
+      <c r="R85" s="140"/>
+      <c r="S85" s="141"/>
+      <c r="T85" s="140"/>
+      <c r="V85" s="138"/>
+      <c r="W85" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Y85" s="27"/>
+      <c r="Y85" s="14"/>
     </row>
     <row r="86" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A86" s="15">
+      <c r="A86" s="2">
         <v>20</v>
       </c>
-      <c r="B86" s="23"/>
-      <c r="D86" s="150" t="str">
+      <c r="B86" s="10"/>
+      <c r="D86" s="134" t="str">
         <f>IF(LEN(Q102)&lt;=135,"",IF(LEN(Q102)&lt;=260,RIGHT(Q102,LEN(Q102)-SEARCH(" ",Q102,125)),MID(Q102,SEARCH(" ",Q102,130),IF(LEN(Q102)&lt;=265,LEN(Q102),SEARCH(" ",Q102,255)-SEARCH(" ",Q102,130)))))</f>
         <v/>
       </c>
-      <c r="E86" s="92"/>
-      <c r="F86" s="92"/>
-      <c r="G86" s="92"/>
-      <c r="H86" s="92"/>
-      <c r="I86" s="92"/>
-      <c r="J86" s="92"/>
-      <c r="K86" s="92"/>
-      <c r="L86" s="92"/>
-      <c r="M86" s="25"/>
-      <c r="O86" s="26"/>
-      <c r="P86" s="34" t="s">
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="77"/>
+      <c r="H86" s="77"/>
+      <c r="I86" s="77"/>
+      <c r="J86" s="77"/>
+      <c r="K86" s="77"/>
+      <c r="L86" s="77"/>
+      <c r="M86" s="12"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="Q86" s="158"/>
-      <c r="R86" s="159"/>
-      <c r="S86" s="160"/>
-      <c r="T86" s="159"/>
-      <c r="V86" s="154"/>
-      <c r="W86" s="14" t="s">
+      <c r="Q86" s="142"/>
+      <c r="R86" s="143"/>
+      <c r="S86" s="144"/>
+      <c r="T86" s="143"/>
+      <c r="V86" s="138"/>
+      <c r="W86" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Y86" s="27"/>
+      <c r="Y86" s="14"/>
     </row>
     <row r="87" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A87" s="15">
+      <c r="A87" s="2">
         <v>21</v>
       </c>
-      <c r="B87" s="23"/>
-      <c r="D87" s="150" t="str">
+      <c r="B87" s="10"/>
+      <c r="D87" s="134" t="str">
         <f>IF(LEN(Q102)&lt;=265,"",RIGHT(Q102,LEN(Q102)-SEARCH(" ",Q102,255)))</f>
         <v/>
       </c>
-      <c r="E87" s="92"/>
-      <c r="F87" s="92"/>
-      <c r="G87" s="92"/>
-      <c r="H87" s="92"/>
-      <c r="I87" s="92"/>
-      <c r="J87" s="92"/>
-      <c r="K87" s="92"/>
-      <c r="L87" s="92"/>
-      <c r="M87" s="25"/>
-      <c r="O87" s="26"/>
-      <c r="P87" s="34" t="s">
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="77"/>
+      <c r="J87" s="77"/>
+      <c r="K87" s="77"/>
+      <c r="L87" s="77"/>
+      <c r="M87" s="12"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="Q87" s="158"/>
-      <c r="R87" s="159"/>
-      <c r="S87" s="160"/>
-      <c r="T87" s="159"/>
-      <c r="Y87" s="27"/>
+      <c r="Q87" s="142"/>
+      <c r="R87" s="143"/>
+      <c r="S87" s="144"/>
+      <c r="T87" s="143"/>
+      <c r="Y87" s="14"/>
     </row>
     <row r="88" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A88" s="15">
+      <c r="A88" s="2">
         <v>22</v>
       </c>
-      <c r="B88" s="23"/>
-      <c r="D88" s="150" t="str">
+      <c r="B88" s="10"/>
+      <c r="D88" s="134" t="str">
         <f>IF(Q104="","",IF(LEN(Q104)&lt;=135,Q104,IF(LEN(Q104)&lt;=260,LEFT(Q104,SEARCH(" ",Q104,125)),LEFT(Q104,SEARCH(" ",Q104,130)))))</f>
         <v/>
       </c>
-      <c r="E88" s="92"/>
-      <c r="F88" s="92"/>
-      <c r="G88" s="92"/>
-      <c r="H88" s="92"/>
-      <c r="I88" s="92"/>
-      <c r="J88" s="92"/>
-      <c r="K88" s="92"/>
-      <c r="L88" s="92"/>
-      <c r="M88" s="25"/>
-      <c r="O88" s="26"/>
-      <c r="P88" s="34" t="s">
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="77"/>
+      <c r="I88" s="77"/>
+      <c r="J88" s="77"/>
+      <c r="K88" s="77"/>
+      <c r="L88" s="77"/>
+      <c r="M88" s="12"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="Q88" s="158"/>
-      <c r="R88" s="159"/>
-      <c r="S88" s="160"/>
-      <c r="T88" s="159"/>
-      <c r="Y88" s="27"/>
+      <c r="Q88" s="142"/>
+      <c r="R88" s="143"/>
+      <c r="S88" s="144"/>
+      <c r="T88" s="143"/>
+      <c r="Y88" s="14"/>
     </row>
     <row r="89" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A89" s="15">
+      <c r="A89" s="2">
         <v>23</v>
       </c>
-      <c r="B89" s="23"/>
-      <c r="D89" s="150" t="str">
+      <c r="B89" s="10"/>
+      <c r="D89" s="134" t="str">
         <f>IF(LEN(Q104)&lt;=135,"",IF(LEN(Q104)&lt;=260,RIGHT(Q104,LEN(Q104)-SEARCH(" ",Q104,125)),MID(Q104,SEARCH(" ",Q104,130),IF(LEN(Q104)&lt;=265,LEN(Q104),SEARCH(" ",Q104,255)-SEARCH(" ",Q104,130)))))</f>
         <v/>
       </c>
-      <c r="E89" s="92"/>
-      <c r="F89" s="92"/>
-      <c r="G89" s="92"/>
-      <c r="H89" s="92"/>
-      <c r="I89" s="92"/>
-      <c r="J89" s="92"/>
-      <c r="K89" s="92"/>
-      <c r="L89" s="92"/>
-      <c r="M89" s="25"/>
-      <c r="O89" s="26"/>
-      <c r="P89" s="34" t="s">
+      <c r="E89" s="77"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="77"/>
+      <c r="I89" s="77"/>
+      <c r="J89" s="77"/>
+      <c r="K89" s="77"/>
+      <c r="L89" s="77"/>
+      <c r="M89" s="12"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="Q89" s="161"/>
-      <c r="R89" s="162"/>
-      <c r="S89" s="163"/>
-      <c r="T89" s="162"/>
-      <c r="Y89" s="27"/>
+      <c r="Q89" s="145"/>
+      <c r="R89" s="146"/>
+      <c r="S89" s="147"/>
+      <c r="T89" s="146"/>
+      <c r="Y89" s="14"/>
     </row>
     <row r="90" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A90" s="15">
+      <c r="A90" s="2">
         <v>24</v>
       </c>
-      <c r="B90" s="23"/>
-      <c r="D90" s="150" t="str">
+      <c r="B90" s="10"/>
+      <c r="D90" s="134" t="str">
         <f>IF(LEN(Q104)&lt;=265,"",RIGHT(Q104,LEN(Q104)-SEARCH(" ",Q104,255)))</f>
         <v/>
       </c>
-      <c r="E90" s="92"/>
-      <c r="F90" s="92"/>
-      <c r="G90" s="92"/>
-      <c r="H90" s="92"/>
-      <c r="I90" s="92"/>
-      <c r="J90" s="92"/>
-      <c r="K90" s="92"/>
-      <c r="L90" s="92"/>
-      <c r="M90" s="25"/>
-      <c r="O90" s="26"/>
-      <c r="P90" s="34" t="s">
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="77"/>
+      <c r="I90" s="77"/>
+      <c r="J90" s="77"/>
+      <c r="K90" s="77"/>
+      <c r="L90" s="77"/>
+      <c r="M90" s="12"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="Q90" s="164" t="str">
+      <c r="Q90" s="148" t="str">
         <f>IF(Q85="","",AVERAGE(Q85:Q89))</f>
         <v/>
       </c>
-      <c r="R90" s="165" t="str">
+      <c r="R90" s="149" t="str">
         <f>IF(R85="","",AVERAGE(R85:R89))</f>
         <v/>
       </c>
-      <c r="S90" s="166" t="str">
+      <c r="S90" s="150" t="str">
         <f>IF(S85="","",AVERAGE(S85:S89))</f>
         <v/>
       </c>
-      <c r="T90" s="165" t="str">
+      <c r="T90" s="149" t="str">
         <f>IF(T85="","",AVERAGE(T85:T89))</f>
         <v/>
       </c>
-      <c r="Y90" s="27"/>
+      <c r="Y90" s="14"/>
     </row>
     <row r="91" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A91" s="15">
+      <c r="A91" s="2">
         <v>25</v>
       </c>
-      <c r="B91" s="23"/>
-      <c r="D91" s="150" t="str">
+      <c r="B91" s="10"/>
+      <c r="D91" s="134" t="str">
         <f>IF(Q106="","",IF(LEN(Q106)&lt;=135,Q106,IF(LEN(Q106)&lt;=260,LEFT(Q106,SEARCH(" ",Q106,125)),LEFT(Q106,SEARCH(" ",Q106,130)))))</f>
         <v/>
       </c>
-      <c r="E91" s="92"/>
-      <c r="F91" s="92"/>
-      <c r="G91" s="92"/>
-      <c r="H91" s="92"/>
-      <c r="I91" s="92"/>
-      <c r="J91" s="92"/>
-      <c r="K91" s="92"/>
-      <c r="L91" s="92"/>
-      <c r="M91" s="25"/>
-      <c r="O91" s="26"/>
-      <c r="P91" s="34" t="s">
+      <c r="E91" s="77"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="77"/>
+      <c r="I91" s="77"/>
+      <c r="J91" s="77"/>
+      <c r="K91" s="77"/>
+      <c r="L91" s="77"/>
+      <c r="M91" s="12"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="Q91" s="167" t="str">
+      <c r="Q91" s="151" t="str">
         <f>IF(Q85="","",STDEV(Q85:Q89))</f>
         <v/>
       </c>
-      <c r="R91" s="168" t="str">
+      <c r="R91" s="152" t="str">
         <f>IF(R85="","",STDEV(R85:R89))</f>
         <v/>
       </c>
-      <c r="S91" s="169" t="str">
+      <c r="S91" s="153" t="str">
         <f>IF(S85="","",STDEV(S85:S89))</f>
         <v/>
       </c>
-      <c r="T91" s="168" t="str">
+      <c r="T91" s="152" t="str">
         <f>IF(T85="","",STDEV(T85:T89))</f>
         <v/>
       </c>
-      <c r="Y91" s="27"/>
+      <c r="Y91" s="14"/>
     </row>
     <row r="92" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A92" s="15">
+      <c r="A92" s="2">
         <v>26</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="D92" s="150" t="str">
+      <c r="B92" s="10"/>
+      <c r="D92" s="134" t="str">
         <f>IF(LEN(Q106)&lt;=135,"",IF(LEN(Q106)&lt;=260,RIGHT(Q106,LEN(Q106)-SEARCH(" ",Q106,125)),MID(Q106,SEARCH(" ",Q106,130),IF(LEN(Q106)&lt;=265,LEN(Q106),SEARCH(" ",Q106,255)-SEARCH(" ",Q106,130)))))</f>
         <v/>
       </c>
-      <c r="E92" s="92"/>
-      <c r="F92" s="92"/>
-      <c r="G92" s="92"/>
-      <c r="H92" s="92"/>
-      <c r="I92" s="92"/>
-      <c r="J92" s="92"/>
-      <c r="K92" s="92"/>
-      <c r="L92" s="92"/>
-      <c r="M92" s="25"/>
-      <c r="O92" s="26"/>
-      <c r="P92" s="34" t="s">
+      <c r="E92" s="77"/>
+      <c r="F92" s="77"/>
+      <c r="G92" s="77"/>
+      <c r="H92" s="77"/>
+      <c r="I92" s="77"/>
+      <c r="J92" s="77"/>
+      <c r="K92" s="77"/>
+      <c r="L92" s="77"/>
+      <c r="M92" s="12"/>
+      <c r="O92" s="13"/>
+      <c r="P92" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="Q92" s="170" t="str">
+      <c r="Q92" s="154" t="str">
         <f>IF(Q85="","",(MAX(Q85:Q89)-MIN(Q85:Q89))/(MIN(Q85:Q89)+MAX(Q85:Q89)))</f>
         <v/>
       </c>
-      <c r="R92" s="171" t="str">
+      <c r="R92" s="155" t="str">
         <f>IF(R85="","",(MAX(R85:R89)-MIN(R85:R89))/(MIN(R85:R89)+MAX(R85:R89)))</f>
         <v/>
       </c>
-      <c r="S92" s="172" t="str">
+      <c r="S92" s="156" t="str">
         <f>IF(S85="","",(MAX(S85:S89)-MIN(S85:S89))/(MIN(S85:S89)+MAX(S85:S89)))</f>
         <v/>
       </c>
-      <c r="T92" s="171" t="str">
+      <c r="T92" s="155" t="str">
         <f>IF(T85="","",(MAX(T85:T89)-MIN(T85:T89))/(MIN(T85:T89)+MAX(T85:T89)))</f>
         <v/>
       </c>
-      <c r="U92" s="42" t="s">
+      <c r="U92" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="V92" s="14" t="s">
+      <c r="V92" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Y92" s="27"/>
+      <c r="Y92" s="14"/>
     </row>
     <row r="93" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A93" s="15">
+      <c r="A93" s="2">
         <v>27</v>
       </c>
-      <c r="B93" s="23"/>
-      <c r="D93" s="150" t="str">
+      <c r="B93" s="10"/>
+      <c r="D93" s="134" t="str">
         <f>IF(LEN(Q106)&lt;=265,"",RIGHT(Q106,LEN(Q106)-SEARCH(" ",Q106,255)))</f>
         <v/>
       </c>
-      <c r="E93" s="92"/>
-      <c r="F93" s="92"/>
-      <c r="G93" s="92"/>
-      <c r="H93" s="92"/>
-      <c r="I93" s="92"/>
-      <c r="J93" s="92"/>
-      <c r="K93" s="92"/>
-      <c r="L93" s="92"/>
-      <c r="M93" s="25"/>
-      <c r="O93" s="26"/>
-      <c r="P93" s="34" t="s">
+      <c r="E93" s="77"/>
+      <c r="F93" s="77"/>
+      <c r="G93" s="77"/>
+      <c r="H93" s="77"/>
+      <c r="I93" s="77"/>
+      <c r="J93" s="77"/>
+      <c r="K93" s="77"/>
+      <c r="L93" s="77"/>
+      <c r="M93" s="12"/>
+      <c r="O93" s="13"/>
+      <c r="P93" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="Q93" s="105" t="str">
+      <c r="Q93" s="90" t="str">
         <f>IF(Q95&lt;&gt;"",Q95,IF(AB49="","",AB49))</f>
         <v/>
       </c>
-      <c r="R93" s="106"/>
-      <c r="S93" s="106"/>
-      <c r="T93" s="106"/>
-      <c r="U93" s="106"/>
-      <c r="X93" s="106"/>
-      <c r="Y93" s="27"/>
+      <c r="R93" s="91"/>
+      <c r="S93" s="91"/>
+      <c r="T93" s="91"/>
+      <c r="U93" s="91"/>
+      <c r="X93" s="91"/>
+      <c r="Y93" s="14"/>
     </row>
     <row r="94" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A94" s="15">
+      <c r="A94" s="2">
         <v>28</v>
       </c>
-      <c r="B94" s="23"/>
-      <c r="D94" s="150" t="str">
+      <c r="B94" s="10"/>
+      <c r="D94" s="134" t="str">
         <f>IF(Q108="","",IF(LEN(Q108)&lt;=135,Q108,IF(LEN(Q108)&lt;=260,LEFT(Q108,SEARCH(" ",Q108,125)),LEFT(Q108,SEARCH(" ",Q108,130)))))</f>
         <v/>
       </c>
-      <c r="E94" s="92"/>
-      <c r="F94" s="92"/>
-      <c r="G94" s="92"/>
-      <c r="H94" s="92"/>
-      <c r="I94" s="92"/>
-      <c r="J94" s="92"/>
-      <c r="K94" s="92"/>
-      <c r="L94" s="92"/>
-      <c r="M94" s="25"/>
-      <c r="O94" s="26"/>
-      <c r="P94" s="108" t="s">
+      <c r="E94" s="77"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="77"/>
+      <c r="H94" s="77"/>
+      <c r="I94" s="77"/>
+      <c r="J94" s="77"/>
+      <c r="K94" s="77"/>
+      <c r="L94" s="77"/>
+      <c r="M94" s="12"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="Q94" s="109"/>
-      <c r="R94" s="110">
+      <c r="Q94" s="94"/>
+      <c r="R94" s="95">
         <f>LEN(Q93)</f>
         <v>0</v>
       </c>
-      <c r="S94" s="92"/>
-      <c r="T94" s="92"/>
-      <c r="U94" s="92"/>
-      <c r="V94" s="92"/>
-      <c r="W94" s="92"/>
-      <c r="X94" s="92"/>
-      <c r="Y94" s="27"/>
+      <c r="S94" s="77"/>
+      <c r="T94" s="77"/>
+      <c r="U94" s="77"/>
+      <c r="V94" s="77"/>
+      <c r="W94" s="77"/>
+      <c r="X94" s="77"/>
+      <c r="Y94" s="14"/>
     </row>
     <row r="95" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A95" s="15">
+      <c r="A95" s="2">
         <v>29</v>
       </c>
-      <c r="B95" s="23"/>
-      <c r="D95" s="150" t="str">
+      <c r="B95" s="10"/>
+      <c r="D95" s="134" t="str">
         <f>IF(LEN(Q108)&lt;=135,"",IF(LEN(Q108)&lt;=260,RIGHT(Q108,LEN(Q108)-SEARCH(" ",Q108,125)),MID(Q108,SEARCH(" ",Q108,130),IF(LEN(Q108)&lt;=265,LEN(Q108),SEARCH(" ",Q108,255)-SEARCH(" ",Q108,130)))))</f>
         <v/>
       </c>
-      <c r="E95" s="92"/>
-      <c r="F95" s="92"/>
-      <c r="G95" s="92"/>
-      <c r="H95" s="92"/>
-      <c r="I95" s="92"/>
-      <c r="J95" s="92"/>
-      <c r="K95" s="92"/>
-      <c r="L95" s="92"/>
-      <c r="M95" s="25"/>
-      <c r="O95" s="26"/>
-      <c r="P95" s="34" t="s">
+      <c r="E95" s="77"/>
+      <c r="F95" s="77"/>
+      <c r="G95" s="77"/>
+      <c r="H95" s="77"/>
+      <c r="I95" s="77"/>
+      <c r="J95" s="77"/>
+      <c r="K95" s="77"/>
+      <c r="L95" s="77"/>
+      <c r="M95" s="12"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="Q95" s="91"/>
-      <c r="R95" s="92"/>
-      <c r="S95" s="92"/>
-      <c r="T95" s="92"/>
-      <c r="U95" s="92"/>
-      <c r="V95" s="92"/>
-      <c r="W95" s="92"/>
-      <c r="X95" s="92"/>
-      <c r="Y95" s="27"/>
+      <c r="Q95" s="76"/>
+      <c r="R95" s="77"/>
+      <c r="S95" s="77"/>
+      <c r="T95" s="77"/>
+      <c r="U95" s="77"/>
+      <c r="V95" s="77"/>
+      <c r="W95" s="77"/>
+      <c r="X95" s="77"/>
+      <c r="Y95" s="14"/>
     </row>
     <row r="96" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A96" s="15">
+      <c r="A96" s="2">
         <v>30</v>
       </c>
-      <c r="B96" s="23"/>
-      <c r="D96" s="150" t="str">
+      <c r="B96" s="10"/>
+      <c r="D96" s="134" t="str">
         <f>IF(LEN(Q108)&lt;=265,"",RIGHT(Q108,LEN(Q108)-SEARCH(" ",Q108,255)))</f>
         <v/>
       </c>
-      <c r="E96" s="92"/>
-      <c r="F96" s="92"/>
-      <c r="G96" s="92"/>
-      <c r="H96" s="92"/>
-      <c r="I96" s="92"/>
-      <c r="J96" s="92"/>
-      <c r="K96" s="92"/>
-      <c r="L96" s="92"/>
-      <c r="M96" s="25"/>
-      <c r="O96" s="39"/>
-      <c r="P96" s="40"/>
-      <c r="Q96" s="40"/>
-      <c r="R96" s="40"/>
-      <c r="S96" s="40"/>
-      <c r="T96" s="40"/>
-      <c r="U96" s="40"/>
-      <c r="V96" s="40"/>
-      <c r="W96" s="40"/>
-      <c r="X96" s="40"/>
-      <c r="Y96" s="41"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="77"/>
+      <c r="H96" s="77"/>
+      <c r="I96" s="77"/>
+      <c r="J96" s="77"/>
+      <c r="K96" s="77"/>
+      <c r="L96" s="77"/>
+      <c r="M96" s="12"/>
+      <c r="O96" s="26"/>
+      <c r="P96" s="27"/>
+      <c r="Q96" s="27"/>
+      <c r="R96" s="27"/>
+      <c r="S96" s="27"/>
+      <c r="T96" s="27"/>
+      <c r="U96" s="27"/>
+      <c r="V96" s="27"/>
+      <c r="W96" s="27"/>
+      <c r="X96" s="27"/>
+      <c r="Y96" s="28"/>
     </row>
     <row r="97" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A97" s="15">
+      <c r="A97" s="2">
         <v>31</v>
       </c>
-      <c r="B97" s="23"/>
-      <c r="D97" s="150" t="str">
+      <c r="B97" s="10"/>
+      <c r="D97" s="134" t="str">
         <f>IF(Q110="","",IF(LEN(Q110)&lt;=135,Q110,IF(LEN(Q110)&lt;=260,LEFT(Q110,SEARCH(" ",Q110,125)),LEFT(Q110,SEARCH(" ",Q110,130)))))</f>
         <v/>
       </c>
-      <c r="E97" s="92"/>
-      <c r="F97" s="92"/>
-      <c r="G97" s="92"/>
-      <c r="H97" s="92"/>
-      <c r="I97" s="92"/>
-      <c r="J97" s="92"/>
-      <c r="K97" s="92"/>
-      <c r="L97" s="92"/>
-      <c r="M97" s="25"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="77"/>
+      <c r="H97" s="77"/>
+      <c r="I97" s="77"/>
+      <c r="J97" s="77"/>
+      <c r="K97" s="77"/>
+      <c r="L97" s="77"/>
+      <c r="M97" s="12"/>
     </row>
     <row r="98" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A98" s="15">
+      <c r="A98" s="2">
         <v>32</v>
       </c>
-      <c r="B98" s="23"/>
-      <c r="D98" s="150" t="str">
+      <c r="B98" s="10"/>
+      <c r="D98" s="134" t="str">
         <f>IF(LEN(Q110)&lt;=135,"",IF(LEN(Q110)&lt;=260,RIGHT(Q110,LEN(Q110)-SEARCH(" ",Q110,125)),MID(Q110,SEARCH(" ",Q110,130),IF(LEN(Q110)&lt;=265,LEN(Q110),SEARCH(" ",Q110,255)-SEARCH(" ",Q110,130)))))</f>
         <v/>
       </c>
-      <c r="E98" s="92"/>
-      <c r="F98" s="92"/>
-      <c r="G98" s="92"/>
-      <c r="H98" s="92"/>
-      <c r="I98" s="92"/>
-      <c r="J98" s="92"/>
-      <c r="K98" s="92"/>
-      <c r="L98" s="92"/>
-      <c r="M98" s="25"/>
-      <c r="T98" s="173" t="s">
+      <c r="E98" s="77"/>
+      <c r="F98" s="77"/>
+      <c r="G98" s="77"/>
+      <c r="H98" s="77"/>
+      <c r="I98" s="77"/>
+      <c r="J98" s="77"/>
+      <c r="K98" s="77"/>
+      <c r="L98" s="77"/>
+      <c r="M98" s="12"/>
+      <c r="T98" s="157" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A99" s="15">
+      <c r="A99" s="2">
         <v>33</v>
       </c>
-      <c r="B99" s="23"/>
-      <c r="D99" s="150" t="str">
+      <c r="B99" s="10"/>
+      <c r="D99" s="134" t="str">
         <f>IF(LEN(Q110)&lt;=265,"",RIGHT(Q110,LEN(Q110)-SEARCH(" ",Q110,255)))</f>
         <v/>
       </c>
-      <c r="E99" s="92"/>
-      <c r="F99" s="92"/>
-      <c r="G99" s="92"/>
-      <c r="H99" s="92"/>
-      <c r="I99" s="92"/>
-      <c r="J99" s="92"/>
-      <c r="K99" s="92"/>
-      <c r="L99" s="92"/>
-      <c r="M99" s="25"/>
-      <c r="O99" s="64"/>
-      <c r="P99" s="20"/>
-      <c r="Q99" s="20"/>
-      <c r="R99" s="20"/>
-      <c r="S99" s="174" t="s">
+      <c r="E99" s="77"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="77"/>
+      <c r="H99" s="77"/>
+      <c r="I99" s="77"/>
+      <c r="J99" s="77"/>
+      <c r="K99" s="77"/>
+      <c r="L99" s="77"/>
+      <c r="M99" s="12"/>
+      <c r="O99" s="49"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="158" t="s">
         <v>134</v>
       </c>
-      <c r="T99" s="20"/>
-      <c r="U99" s="20"/>
-      <c r="V99" s="20"/>
-      <c r="W99" s="20"/>
-      <c r="X99" s="20"/>
-      <c r="Y99" s="21"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7"/>
+      <c r="Y99" s="8"/>
     </row>
     <row r="100" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A100" s="15">
+      <c r="A100" s="2">
         <v>34</v>
       </c>
-      <c r="B100" s="23"/>
-      <c r="D100" s="150" t="str">
+      <c r="B100" s="10"/>
+      <c r="D100" s="134" t="str">
         <f>IF(Q112="","",IF(LEN(Q112)&lt;=135,Q112,IF(LEN(Q112)&lt;=260,LEFT(Q112,SEARCH(" ",Q112,125)),LEFT(Q112,SEARCH(" ",Q112,130)))))</f>
         <v/>
       </c>
-      <c r="E100" s="92"/>
-      <c r="F100" s="92"/>
-      <c r="G100" s="92"/>
-      <c r="H100" s="92"/>
-      <c r="I100" s="92"/>
-      <c r="J100" s="92"/>
-      <c r="K100" s="92"/>
-      <c r="L100" s="92"/>
-      <c r="M100" s="25"/>
-      <c r="O100" s="26"/>
-      <c r="P100" s="34" t="s">
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="77"/>
+      <c r="K100" s="77"/>
+      <c r="L100" s="77"/>
+      <c r="M100" s="12"/>
+      <c r="O100" s="13"/>
+      <c r="P100" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="Q100" s="175"/>
-      <c r="R100" s="176"/>
-      <c r="S100" s="177" t="str">
+      <c r="Q100" s="159"/>
+      <c r="R100" s="160"/>
+      <c r="S100" s="161" t="str">
         <f>IF(AB51="","",AB51)</f>
         <v/>
       </c>
-      <c r="T100" s="106"/>
-      <c r="U100" s="106"/>
-      <c r="X100" s="106"/>
-      <c r="Y100" s="27"/>
+      <c r="T100" s="91"/>
+      <c r="U100" s="91"/>
+      <c r="X100" s="91"/>
+      <c r="Y100" s="14"/>
     </row>
     <row r="101" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A101" s="15">
+      <c r="A101" s="2">
         <v>35</v>
       </c>
-      <c r="B101" s="23"/>
-      <c r="D101" s="150" t="str">
+      <c r="B101" s="10"/>
+      <c r="D101" s="134" t="str">
         <f>IF(LEN(Q112)&lt;=135,"",IF(LEN(Q112)&lt;=260,RIGHT(Q112,LEN(Q112)-SEARCH(" ",Q112,125)),MID(Q112,SEARCH(" ",Q112,130),IF(LEN(Q112)&lt;=265,LEN(Q112),SEARCH(" ",Q112,255)-SEARCH(" ",Q112,130)))))</f>
         <v/>
       </c>
-      <c r="E101" s="92"/>
-      <c r="F101" s="92"/>
-      <c r="G101" s="92"/>
-      <c r="H101" s="92"/>
-      <c r="I101" s="92"/>
-      <c r="J101" s="92"/>
-      <c r="K101" s="92"/>
-      <c r="L101" s="92"/>
-      <c r="M101" s="25"/>
-      <c r="O101" s="26"/>
-      <c r="P101" s="108" t="s">
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="77"/>
+      <c r="I101" s="77"/>
+      <c r="J101" s="77"/>
+      <c r="K101" s="77"/>
+      <c r="L101" s="77"/>
+      <c r="M101" s="12"/>
+      <c r="O101" s="13"/>
+      <c r="P101" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="Q101" s="109"/>
-      <c r="R101" s="178">
+      <c r="Q101" s="94"/>
+      <c r="R101" s="162">
         <f>LEN(Q100)</f>
         <v>0</v>
       </c>
-      <c r="S101" s="92"/>
-      <c r="T101" s="92"/>
-      <c r="U101" s="179"/>
-      <c r="V101" s="92"/>
-      <c r="W101" s="92"/>
-      <c r="X101" s="92"/>
-      <c r="Y101" s="27"/>
+      <c r="S101" s="77"/>
+      <c r="T101" s="77"/>
+      <c r="U101" s="163"/>
+      <c r="V101" s="77"/>
+      <c r="W101" s="77"/>
+      <c r="X101" s="77"/>
+      <c r="Y101" s="14"/>
     </row>
     <row r="102" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A102" s="15">
+      <c r="A102" s="2">
         <v>36</v>
       </c>
-      <c r="B102" s="23"/>
-      <c r="D102" s="150" t="str">
+      <c r="B102" s="10"/>
+      <c r="D102" s="134" t="str">
         <f>IF(LEN(Q112)&lt;=265,"",RIGHT(Q112,LEN(Q112)-SEARCH(" ",Q112,255)))</f>
         <v/>
       </c>
-      <c r="E102" s="92"/>
-      <c r="F102" s="92"/>
-      <c r="G102" s="92"/>
-      <c r="H102" s="92"/>
-      <c r="I102" s="92"/>
-      <c r="J102" s="92"/>
-      <c r="K102" s="92"/>
-      <c r="L102" s="92"/>
-      <c r="M102" s="25"/>
-      <c r="O102" s="26"/>
-      <c r="P102" s="34" t="s">
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+      <c r="K102" s="77"/>
+      <c r="L102" s="77"/>
+      <c r="M102" s="12"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q102" s="175"/>
-      <c r="R102" s="176"/>
-      <c r="S102" s="177" t="str">
+      <c r="Q102" s="159"/>
+      <c r="R102" s="160"/>
+      <c r="S102" s="161" t="str">
         <f>IF(AB53="","",AB53)</f>
         <v/>
       </c>
-      <c r="T102" s="106"/>
-      <c r="U102" s="106"/>
-      <c r="X102" s="106"/>
-      <c r="Y102" s="27"/>
+      <c r="T102" s="91"/>
+      <c r="U102" s="91"/>
+      <c r="X102" s="91"/>
+      <c r="Y102" s="14"/>
     </row>
     <row r="103" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A103" s="15">
+      <c r="A103" s="2">
         <v>37</v>
       </c>
-      <c r="B103" s="23"/>
-      <c r="D103" s="150" t="str">
+      <c r="B103" s="10"/>
+      <c r="D103" s="134" t="str">
         <f>IF(Q114="","",IF(LEN(Q114)&lt;=135,Q114,IF(LEN(Q114)&lt;=260,LEFT(Q114,SEARCH(" ",Q114,125)),LEFT(Q114,SEARCH(" ",Q114,130)))))</f>
         <v/>
       </c>
-      <c r="E103" s="92"/>
-      <c r="F103" s="92"/>
-      <c r="G103" s="92"/>
-      <c r="H103" s="92"/>
-      <c r="I103" s="92"/>
-      <c r="J103" s="92"/>
-      <c r="K103" s="92"/>
-      <c r="L103" s="92"/>
-      <c r="M103" s="25"/>
-      <c r="O103" s="26"/>
-      <c r="P103" s="108" t="s">
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="77"/>
+      <c r="I103" s="77"/>
+      <c r="J103" s="77"/>
+      <c r="K103" s="77"/>
+      <c r="L103" s="77"/>
+      <c r="M103" s="12"/>
+      <c r="O103" s="13"/>
+      <c r="P103" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="Q103" s="109"/>
-      <c r="R103" s="178">
+      <c r="Q103" s="94"/>
+      <c r="R103" s="162">
         <f>LEN(Q102)</f>
         <v>0</v>
       </c>
-      <c r="S103" s="92"/>
-      <c r="T103" s="92"/>
-      <c r="U103" s="179"/>
-      <c r="V103" s="92"/>
-      <c r="W103" s="92"/>
-      <c r="X103" s="92"/>
-      <c r="Y103" s="27"/>
+      <c r="S103" s="77"/>
+      <c r="T103" s="77"/>
+      <c r="U103" s="163"/>
+      <c r="V103" s="77"/>
+      <c r="W103" s="77"/>
+      <c r="X103" s="77"/>
+      <c r="Y103" s="14"/>
     </row>
     <row r="104" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A104" s="15">
+      <c r="A104" s="2">
         <v>38</v>
       </c>
-      <c r="B104" s="23"/>
-      <c r="D104" s="150" t="str">
+      <c r="B104" s="10"/>
+      <c r="D104" s="134" t="str">
         <f>IF(LEN(Q114)&lt;=135,"",IF(LEN(Q114)&lt;=260,RIGHT(Q114,LEN(Q114)-SEARCH(" ",Q114,125)),MID(Q114,SEARCH(" ",Q114,130),IF(LEN(Q114)&lt;=265,LEN(Q114),SEARCH(" ",Q114,255)-SEARCH(" ",Q114,130)))))</f>
         <v/>
       </c>
-      <c r="E104" s="92"/>
-      <c r="F104" s="92"/>
-      <c r="G104" s="92"/>
-      <c r="H104" s="92"/>
-      <c r="I104" s="92"/>
-      <c r="J104" s="92"/>
-      <c r="K104" s="92"/>
-      <c r="L104" s="92"/>
-      <c r="M104" s="25"/>
-      <c r="O104" s="26"/>
-      <c r="P104" s="34" t="s">
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="77"/>
+      <c r="L104" s="77"/>
+      <c r="M104" s="12"/>
+      <c r="O104" s="13"/>
+      <c r="P104" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q104" s="175"/>
-      <c r="R104" s="176"/>
-      <c r="S104" s="177" t="str">
+      <c r="Q104" s="159"/>
+      <c r="R104" s="160"/>
+      <c r="S104" s="161" t="str">
         <f>IF(AB55="","",AB55)</f>
         <v/>
       </c>
-      <c r="T104" s="106"/>
-      <c r="U104" s="106"/>
-      <c r="X104" s="106"/>
-      <c r="Y104" s="27"/>
+      <c r="T104" s="91"/>
+      <c r="U104" s="91"/>
+      <c r="X104" s="91"/>
+      <c r="Y104" s="14"/>
     </row>
     <row r="105" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A105" s="15">
+      <c r="A105" s="2">
         <v>39</v>
       </c>
-      <c r="B105" s="23"/>
-      <c r="D105" s="150" t="str">
+      <c r="B105" s="10"/>
+      <c r="D105" s="134" t="str">
         <f>IF(LEN(Q114)&lt;=265,"",RIGHT(Q114,LEN(Q114)-SEARCH(" ",Q114,255)))</f>
         <v/>
       </c>
-      <c r="E105" s="92"/>
-      <c r="F105" s="92"/>
-      <c r="G105" s="92"/>
-      <c r="H105" s="92"/>
-      <c r="I105" s="92"/>
-      <c r="J105" s="92"/>
-      <c r="K105" s="92"/>
-      <c r="L105" s="92"/>
-      <c r="M105" s="25"/>
-      <c r="O105" s="26"/>
-      <c r="P105" s="108" t="s">
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="77"/>
+      <c r="I105" s="77"/>
+      <c r="J105" s="77"/>
+      <c r="K105" s="77"/>
+      <c r="L105" s="77"/>
+      <c r="M105" s="12"/>
+      <c r="O105" s="13"/>
+      <c r="P105" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="Q105" s="109"/>
-      <c r="R105" s="178">
+      <c r="Q105" s="94"/>
+      <c r="R105" s="162">
         <f>LEN(Q104)</f>
         <v>0</v>
       </c>
-      <c r="S105" s="92"/>
-      <c r="T105" s="92"/>
-      <c r="U105" s="179"/>
-      <c r="V105" s="92"/>
-      <c r="W105" s="92"/>
-      <c r="X105" s="92"/>
-      <c r="Y105" s="27"/>
+      <c r="S105" s="77"/>
+      <c r="T105" s="77"/>
+      <c r="U105" s="163"/>
+      <c r="V105" s="77"/>
+      <c r="W105" s="77"/>
+      <c r="X105" s="77"/>
+      <c r="Y105" s="14"/>
     </row>
     <row r="106" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A106" s="15">
+      <c r="A106" s="2">
         <v>40</v>
       </c>
-      <c r="B106" s="23"/>
-      <c r="D106" s="150" t="str">
+      <c r="B106" s="10"/>
+      <c r="D106" s="134" t="str">
         <f>IF(Q116="","",IF(LEN(Q116)&lt;=135,Q116,IF(LEN(Q116)&lt;=260,LEFT(Q116,SEARCH(" ",Q116,125)),LEFT(Q116,SEARCH(" ",Q116,130)))))</f>
         <v/>
       </c>
-      <c r="E106" s="92"/>
-      <c r="F106" s="92"/>
-      <c r="G106" s="92"/>
-      <c r="H106" s="92"/>
-      <c r="I106" s="92"/>
-      <c r="J106" s="92"/>
-      <c r="K106" s="92"/>
-      <c r="L106" s="92"/>
-      <c r="M106" s="25"/>
-      <c r="O106" s="26"/>
-      <c r="P106" s="34" t="s">
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="77"/>
+      <c r="I106" s="77"/>
+      <c r="J106" s="77"/>
+      <c r="K106" s="77"/>
+      <c r="L106" s="77"/>
+      <c r="M106" s="12"/>
+      <c r="O106" s="13"/>
+      <c r="P106" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q106" s="175"/>
-      <c r="R106" s="176"/>
-      <c r="S106" s="177" t="str">
+      <c r="Q106" s="159"/>
+      <c r="R106" s="160"/>
+      <c r="S106" s="161" t="str">
         <f>IF(AB57="","",AB57)</f>
         <v/>
       </c>
-      <c r="T106" s="106"/>
-      <c r="U106" s="106"/>
-      <c r="X106" s="106"/>
-      <c r="Y106" s="27"/>
+      <c r="T106" s="91"/>
+      <c r="U106" s="91"/>
+      <c r="X106" s="91"/>
+      <c r="Y106" s="14"/>
     </row>
     <row r="107" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A107" s="15">
+      <c r="A107" s="2">
         <v>41</v>
       </c>
-      <c r="B107" s="23"/>
-      <c r="D107" s="150" t="str">
+      <c r="B107" s="10"/>
+      <c r="D107" s="134" t="str">
         <f>IF(LEN(Q116)&lt;=135,"",IF(LEN(Q116)&lt;=260,RIGHT(Q116,LEN(Q116)-SEARCH(" ",Q116,125)),MID(Q116,SEARCH(" ",Q116,130),IF(LEN(Q116)&lt;=265,LEN(Q116),SEARCH(" ",Q116,255)-SEARCH(" ",Q116,130)))))</f>
         <v/>
       </c>
-      <c r="E107" s="92"/>
-      <c r="F107" s="92"/>
-      <c r="G107" s="92"/>
-      <c r="H107" s="92"/>
-      <c r="I107" s="92"/>
-      <c r="J107" s="92"/>
-      <c r="K107" s="92"/>
-      <c r="L107" s="92"/>
-      <c r="M107" s="25"/>
-      <c r="O107" s="26"/>
-      <c r="P107" s="108" t="s">
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="77"/>
+      <c r="H107" s="77"/>
+      <c r="I107" s="77"/>
+      <c r="J107" s="77"/>
+      <c r="K107" s="77"/>
+      <c r="L107" s="77"/>
+      <c r="M107" s="12"/>
+      <c r="O107" s="13"/>
+      <c r="P107" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="Q107" s="109"/>
-      <c r="R107" s="178">
+      <c r="Q107" s="94"/>
+      <c r="R107" s="162">
         <f>LEN(Q106)</f>
         <v>0</v>
       </c>
-      <c r="S107" s="92"/>
-      <c r="T107" s="92"/>
-      <c r="U107" s="179"/>
-      <c r="V107" s="92"/>
-      <c r="W107" s="92"/>
-      <c r="X107" s="92"/>
-      <c r="Y107" s="27"/>
+      <c r="S107" s="77"/>
+      <c r="T107" s="77"/>
+      <c r="U107" s="163"/>
+      <c r="V107" s="77"/>
+      <c r="W107" s="77"/>
+      <c r="X107" s="77"/>
+      <c r="Y107" s="14"/>
     </row>
     <row r="108" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A108" s="15">
+      <c r="A108" s="2">
         <v>42</v>
       </c>
-      <c r="B108" s="23"/>
-      <c r="D108" s="150" t="str">
+      <c r="B108" s="10"/>
+      <c r="D108" s="134" t="str">
         <f>IF(LEN(Q116)&lt;=265,"",RIGHT(Q116,LEN(Q116)-SEARCH(" ",Q116,255)))</f>
         <v/>
       </c>
-      <c r="E108" s="92"/>
-      <c r="F108" s="92"/>
-      <c r="G108" s="92"/>
-      <c r="H108" s="92"/>
-      <c r="I108" s="92"/>
-      <c r="J108" s="92"/>
-      <c r="K108" s="92"/>
-      <c r="L108" s="92"/>
-      <c r="M108" s="25"/>
-      <c r="O108" s="26"/>
-      <c r="P108" s="34" t="s">
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="77"/>
+      <c r="H108" s="77"/>
+      <c r="I108" s="77"/>
+      <c r="J108" s="77"/>
+      <c r="K108" s="77"/>
+      <c r="L108" s="77"/>
+      <c r="M108" s="12"/>
+      <c r="O108" s="13"/>
+      <c r="P108" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q108" s="175"/>
-      <c r="R108" s="176"/>
-      <c r="S108" s="177" t="str">
+      <c r="Q108" s="159"/>
+      <c r="R108" s="160"/>
+      <c r="S108" s="161" t="str">
         <f>IF(AB59="","",AB59)</f>
         <v/>
       </c>
-      <c r="T108" s="106"/>
-      <c r="U108" s="106"/>
-      <c r="X108" s="106"/>
-      <c r="Y108" s="27"/>
+      <c r="T108" s="91"/>
+      <c r="U108" s="91"/>
+      <c r="X108" s="91"/>
+      <c r="Y108" s="14"/>
     </row>
     <row r="109" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A109" s="15">
+      <c r="A109" s="2">
         <v>43</v>
       </c>
-      <c r="B109" s="23"/>
-      <c r="D109" s="150" t="str">
+      <c r="B109" s="10"/>
+      <c r="D109" s="134" t="str">
         <f>IF(Q118="","",IF(LEN(Q118)&lt;=135,Q118,IF(LEN(Q118)&lt;=260,LEFT(Q118,SEARCH(" ",Q118,125)),LEFT(Q118,SEARCH(" ",Q118,130)))))</f>
         <v/>
       </c>
-      <c r="E109" s="92"/>
-      <c r="F109" s="92"/>
-      <c r="G109" s="92"/>
-      <c r="H109" s="92"/>
-      <c r="I109" s="92"/>
-      <c r="J109" s="92"/>
-      <c r="K109" s="92"/>
-      <c r="L109" s="92"/>
-      <c r="M109" s="25"/>
-      <c r="O109" s="26"/>
-      <c r="P109" s="108" t="s">
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="77"/>
+      <c r="H109" s="77"/>
+      <c r="I109" s="77"/>
+      <c r="J109" s="77"/>
+      <c r="K109" s="77"/>
+      <c r="L109" s="77"/>
+      <c r="M109" s="12"/>
+      <c r="O109" s="13"/>
+      <c r="P109" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="Q109" s="109"/>
-      <c r="R109" s="178">
+      <c r="Q109" s="94"/>
+      <c r="R109" s="162">
         <f>LEN(Q108)</f>
         <v>0</v>
       </c>
-      <c r="S109" s="92"/>
-      <c r="T109" s="92"/>
-      <c r="U109" s="179"/>
-      <c r="V109" s="92"/>
-      <c r="W109" s="92"/>
-      <c r="X109" s="92"/>
-      <c r="Y109" s="27"/>
+      <c r="S109" s="77"/>
+      <c r="T109" s="77"/>
+      <c r="U109" s="163"/>
+      <c r="V109" s="77"/>
+      <c r="W109" s="77"/>
+      <c r="X109" s="77"/>
+      <c r="Y109" s="14"/>
     </row>
     <row r="110" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A110" s="15">
+      <c r="A110" s="2">
         <v>44</v>
       </c>
-      <c r="B110" s="23"/>
-      <c r="D110" s="150" t="str">
+      <c r="B110" s="10"/>
+      <c r="D110" s="134" t="str">
         <f>IF(LEN(Q118)&lt;=135,"",IF(LEN(Q118)&lt;=260,RIGHT(Q118,LEN(Q118)-SEARCH(" ",Q118,125)),MID(Q118,SEARCH(" ",Q118,130),IF(LEN(Q118)&lt;=265,LEN(Q118),SEARCH(" ",Q118,255)-SEARCH(" ",Q118,130)))))</f>
         <v/>
       </c>
-      <c r="E110" s="92"/>
-      <c r="F110" s="92"/>
-      <c r="G110" s="92"/>
-      <c r="H110" s="92"/>
-      <c r="I110" s="92"/>
-      <c r="J110" s="92"/>
-      <c r="K110" s="92"/>
-      <c r="L110" s="92"/>
-      <c r="M110" s="25"/>
-      <c r="O110" s="26"/>
-      <c r="P110" s="34" t="s">
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="77"/>
+      <c r="H110" s="77"/>
+      <c r="I110" s="77"/>
+      <c r="J110" s="77"/>
+      <c r="K110" s="77"/>
+      <c r="L110" s="77"/>
+      <c r="M110" s="12"/>
+      <c r="O110" s="13"/>
+      <c r="P110" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q110" s="175"/>
-      <c r="R110" s="176"/>
-      <c r="S110" s="177" t="str">
+      <c r="Q110" s="159"/>
+      <c r="R110" s="160"/>
+      <c r="S110" s="161" t="str">
         <f>IF(AB61="","",AB61)</f>
         <v/>
       </c>
-      <c r="T110" s="106"/>
-      <c r="U110" s="106"/>
-      <c r="X110" s="106"/>
-      <c r="Y110" s="27"/>
+      <c r="T110" s="91"/>
+      <c r="U110" s="91"/>
+      <c r="X110" s="91"/>
+      <c r="Y110" s="14"/>
     </row>
     <row r="111" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A111" s="15">
+      <c r="A111" s="2">
         <v>45</v>
       </c>
-      <c r="B111" s="23"/>
-      <c r="D111" s="150" t="str">
+      <c r="B111" s="10"/>
+      <c r="D111" s="134" t="str">
         <f>IF(LEN(Q118)&lt;=265,"",RIGHT(Q118,LEN(Q118)-SEARCH(" ",Q118,255)))</f>
         <v/>
       </c>
-      <c r="E111" s="92"/>
-      <c r="F111" s="92"/>
-      <c r="G111" s="92"/>
-      <c r="H111" s="92"/>
-      <c r="I111" s="92"/>
-      <c r="J111" s="92"/>
-      <c r="K111" s="92"/>
-      <c r="L111" s="92"/>
-      <c r="M111" s="25"/>
-      <c r="O111" s="26"/>
-      <c r="P111" s="108" t="s">
+      <c r="E111" s="77"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="77"/>
+      <c r="H111" s="77"/>
+      <c r="I111" s="77"/>
+      <c r="J111" s="77"/>
+      <c r="K111" s="77"/>
+      <c r="L111" s="77"/>
+      <c r="M111" s="12"/>
+      <c r="O111" s="13"/>
+      <c r="P111" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="Q111" s="109"/>
-      <c r="R111" s="178">
+      <c r="Q111" s="94"/>
+      <c r="R111" s="162">
         <f>LEN(Q110)</f>
         <v>0</v>
       </c>
-      <c r="S111" s="92"/>
-      <c r="T111" s="92"/>
-      <c r="U111" s="92"/>
-      <c r="V111" s="92"/>
-      <c r="W111" s="92"/>
-      <c r="X111" s="92"/>
-      <c r="Y111" s="27"/>
+      <c r="S111" s="77"/>
+      <c r="T111" s="77"/>
+      <c r="U111" s="77"/>
+      <c r="V111" s="77"/>
+      <c r="W111" s="77"/>
+      <c r="X111" s="77"/>
+      <c r="Y111" s="14"/>
     </row>
     <row r="112" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A112" s="15">
+      <c r="A112" s="2">
         <v>46</v>
       </c>
-      <c r="B112" s="23"/>
-      <c r="D112" s="150" t="str">
+      <c r="B112" s="10"/>
+      <c r="D112" s="134" t="str">
         <f>IF(Q120="","",IF(LEN(Q120)&lt;=135,Q120,IF(LEN(Q120)&lt;=260,LEFT(Q120,SEARCH(" ",Q120,125)),LEFT(Q120,SEARCH(" ",Q120,130)))))</f>
         <v/>
       </c>
-      <c r="E112" s="92"/>
-      <c r="F112" s="92"/>
-      <c r="G112" s="92"/>
-      <c r="H112" s="92"/>
-      <c r="I112" s="92"/>
-      <c r="J112" s="92"/>
-      <c r="K112" s="92"/>
-      <c r="L112" s="92"/>
-      <c r="M112" s="25"/>
-      <c r="O112" s="26"/>
-      <c r="P112" s="34" t="s">
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="77"/>
+      <c r="L112" s="77"/>
+      <c r="M112" s="12"/>
+      <c r="O112" s="13"/>
+      <c r="P112" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q112" s="175"/>
-      <c r="R112" s="176"/>
-      <c r="S112" s="177" t="str">
+      <c r="Q112" s="159"/>
+      <c r="R112" s="160"/>
+      <c r="S112" s="161" t="str">
         <f>IF(AB63="","",AB63)</f>
         <v/>
       </c>
-      <c r="T112" s="106"/>
-      <c r="U112" s="106"/>
-      <c r="X112" s="106"/>
-      <c r="Y112" s="27"/>
+      <c r="T112" s="91"/>
+      <c r="U112" s="91"/>
+      <c r="X112" s="91"/>
+      <c r="Y112" s="14"/>
     </row>
     <row r="113" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A113" s="15">
+      <c r="A113" s="2">
         <v>47</v>
       </c>
-      <c r="B113" s="23"/>
-      <c r="D113" s="150" t="str">
+      <c r="B113" s="10"/>
+      <c r="D113" s="134" t="str">
         <f>IF(LEN(Q120)&lt;=135,"",IF(LEN(Q120)&lt;=260,RIGHT(Q120,LEN(Q120)-SEARCH(" ",Q120,125)),MID(Q120,SEARCH(" ",Q120,130),IF(LEN(Q120)&lt;=265,LEN(Q120),SEARCH(" ",Q120,255)-SEARCH(" ",Q120,130)))))</f>
         <v/>
       </c>
-      <c r="E113" s="92"/>
-      <c r="F113" s="92"/>
-      <c r="G113" s="92"/>
-      <c r="H113" s="92"/>
-      <c r="I113" s="92"/>
-      <c r="J113" s="92"/>
-      <c r="K113" s="92"/>
-      <c r="L113" s="92"/>
-      <c r="M113" s="25"/>
-      <c r="O113" s="26"/>
-      <c r="P113" s="108" t="s">
+      <c r="E113" s="77"/>
+      <c r="F113" s="77"/>
+      <c r="G113" s="77"/>
+      <c r="H113" s="77"/>
+      <c r="I113" s="77"/>
+      <c r="J113" s="77"/>
+      <c r="K113" s="77"/>
+      <c r="L113" s="77"/>
+      <c r="M113" s="12"/>
+      <c r="O113" s="13"/>
+      <c r="P113" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="Q113" s="109"/>
-      <c r="R113" s="178">
+      <c r="Q113" s="94"/>
+      <c r="R113" s="162">
         <f>LEN(Q112)</f>
         <v>0</v>
       </c>
-      <c r="S113" s="92"/>
-      <c r="T113" s="92"/>
-      <c r="U113" s="92"/>
-      <c r="V113" s="92"/>
-      <c r="W113" s="92"/>
-      <c r="X113" s="92"/>
-      <c r="Y113" s="27"/>
+      <c r="S113" s="77"/>
+      <c r="T113" s="77"/>
+      <c r="U113" s="77"/>
+      <c r="V113" s="77"/>
+      <c r="W113" s="77"/>
+      <c r="X113" s="77"/>
+      <c r="Y113" s="14"/>
     </row>
     <row r="114" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A114" s="15">
+      <c r="A114" s="2">
         <v>48</v>
       </c>
-      <c r="B114" s="23"/>
-      <c r="D114" s="150" t="str">
+      <c r="B114" s="10"/>
+      <c r="D114" s="134" t="str">
         <f>IF(LEN(Q120)&lt;=265,"",RIGHT(Q120,LEN(Q120)-SEARCH(" ",Q120,255)))</f>
         <v/>
       </c>
-      <c r="E114" s="92"/>
-      <c r="F114" s="92"/>
-      <c r="G114" s="92"/>
-      <c r="H114" s="92"/>
-      <c r="I114" s="92"/>
-      <c r="J114" s="92"/>
-      <c r="K114" s="92"/>
-      <c r="L114" s="92"/>
-      <c r="M114" s="25"/>
-      <c r="O114" s="26"/>
-      <c r="P114" s="34" t="s">
+      <c r="E114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="77"/>
+      <c r="L114" s="77"/>
+      <c r="M114" s="12"/>
+      <c r="O114" s="13"/>
+      <c r="P114" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q114" s="175"/>
-      <c r="R114" s="176"/>
-      <c r="S114" s="177" t="str">
+      <c r="Q114" s="159"/>
+      <c r="R114" s="160"/>
+      <c r="S114" s="161" t="str">
         <f>IF(AB65="","",AB65)</f>
         <v/>
       </c>
-      <c r="T114" s="106"/>
-      <c r="U114" s="106"/>
-      <c r="X114" s="106"/>
-      <c r="Y114" s="27"/>
+      <c r="T114" s="91"/>
+      <c r="U114" s="91"/>
+      <c r="X114" s="91"/>
+      <c r="Y114" s="14"/>
     </row>
     <row r="115" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A115" s="15">
+      <c r="A115" s="2">
         <v>49</v>
       </c>
-      <c r="B115" s="23"/>
-      <c r="M115" s="25"/>
-      <c r="O115" s="26"/>
-      <c r="P115" s="108" t="s">
+      <c r="B115" s="10"/>
+      <c r="M115" s="12"/>
+      <c r="O115" s="13"/>
+      <c r="P115" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="Q115" s="109"/>
-      <c r="R115" s="178">
+      <c r="Q115" s="94"/>
+      <c r="R115" s="162">
         <f>LEN(Q114)</f>
         <v>0</v>
       </c>
-      <c r="S115" s="92"/>
-      <c r="T115" s="92"/>
-      <c r="U115" s="92"/>
-      <c r="V115" s="92"/>
-      <c r="W115" s="92"/>
-      <c r="X115" s="92"/>
-      <c r="Y115" s="27"/>
+      <c r="S115" s="77"/>
+      <c r="T115" s="77"/>
+      <c r="U115" s="77"/>
+      <c r="V115" s="77"/>
+      <c r="W115" s="77"/>
+      <c r="X115" s="77"/>
+      <c r="Y115" s="14"/>
     </row>
     <row r="116" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A116" s="15">
+      <c r="A116" s="2">
         <v>50</v>
       </c>
-      <c r="B116" s="23"/>
-      <c r="M116" s="25"/>
-      <c r="O116" s="26"/>
-      <c r="P116" s="34" t="s">
+      <c r="B116" s="10"/>
+      <c r="M116" s="12"/>
+      <c r="O116" s="13"/>
+      <c r="P116" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q116" s="175"/>
-      <c r="R116" s="176"/>
-      <c r="S116" s="177" t="str">
+      <c r="Q116" s="159"/>
+      <c r="R116" s="160"/>
+      <c r="S116" s="161" t="str">
         <f>IF(AB67="","",AB67)</f>
         <v/>
       </c>
-      <c r="T116" s="106"/>
-      <c r="U116" s="106"/>
-      <c r="X116" s="106"/>
-      <c r="Y116" s="27"/>
+      <c r="T116" s="91"/>
+      <c r="U116" s="91"/>
+      <c r="X116" s="91"/>
+      <c r="Y116" s="14"/>
     </row>
     <row r="117" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A117" s="15">
+      <c r="A117" s="2">
         <v>51</v>
       </c>
-      <c r="B117" s="23"/>
-      <c r="M117" s="25"/>
-      <c r="O117" s="26"/>
-      <c r="P117" s="108" t="s">
+      <c r="B117" s="10"/>
+      <c r="M117" s="12"/>
+      <c r="O117" s="13"/>
+      <c r="P117" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="Q117" s="109"/>
-      <c r="R117" s="178">
+      <c r="Q117" s="94"/>
+      <c r="R117" s="162">
         <f>LEN(Q116)</f>
         <v>0</v>
       </c>
-      <c r="S117" s="92"/>
-      <c r="T117" s="92"/>
-      <c r="U117" s="92"/>
-      <c r="V117" s="92"/>
-      <c r="W117" s="92"/>
-      <c r="X117" s="92"/>
-      <c r="Y117" s="27"/>
+      <c r="S117" s="77"/>
+      <c r="T117" s="77"/>
+      <c r="U117" s="77"/>
+      <c r="V117" s="77"/>
+      <c r="W117" s="77"/>
+      <c r="X117" s="77"/>
+      <c r="Y117" s="14"/>
     </row>
     <row r="118" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A118" s="15">
+      <c r="A118" s="2">
         <v>52</v>
       </c>
-      <c r="B118" s="23"/>
-      <c r="M118" s="25"/>
-      <c r="O118" s="26"/>
-      <c r="P118" s="34" t="s">
+      <c r="B118" s="10"/>
+      <c r="M118" s="12"/>
+      <c r="O118" s="13"/>
+      <c r="P118" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q118" s="175"/>
-      <c r="R118" s="176"/>
-      <c r="S118" s="177" t="str">
+      <c r="Q118" s="159"/>
+      <c r="R118" s="160"/>
+      <c r="S118" s="161" t="str">
         <f>IF(AB69="","",AB69)</f>
         <v/>
       </c>
-      <c r="T118" s="106"/>
-      <c r="U118" s="106"/>
-      <c r="X118" s="106"/>
-      <c r="Y118" s="27"/>
+      <c r="T118" s="91"/>
+      <c r="U118" s="91"/>
+      <c r="X118" s="91"/>
+      <c r="Y118" s="14"/>
     </row>
     <row r="119" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A119" s="15">
+      <c r="A119" s="2">
         <v>53</v>
       </c>
-      <c r="B119" s="23"/>
-      <c r="M119" s="25"/>
-      <c r="O119" s="26"/>
-      <c r="P119" s="108" t="s">
+      <c r="B119" s="10"/>
+      <c r="M119" s="12"/>
+      <c r="O119" s="13"/>
+      <c r="P119" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="Q119" s="109"/>
-      <c r="R119" s="178">
+      <c r="Q119" s="94"/>
+      <c r="R119" s="162">
         <f>LEN(Q118)</f>
         <v>0</v>
       </c>
-      <c r="S119" s="92"/>
-      <c r="T119" s="92"/>
-      <c r="U119" s="92"/>
-      <c r="V119" s="92"/>
-      <c r="W119" s="92"/>
-      <c r="X119" s="92"/>
-      <c r="Y119" s="27"/>
+      <c r="S119" s="77"/>
+      <c r="T119" s="77"/>
+      <c r="U119" s="77"/>
+      <c r="V119" s="77"/>
+      <c r="W119" s="77"/>
+      <c r="X119" s="77"/>
+      <c r="Y119" s="14"/>
     </row>
     <row r="120" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A120" s="15">
+      <c r="A120" s="2">
         <v>54</v>
       </c>
-      <c r="B120" s="23"/>
-      <c r="M120" s="25"/>
-      <c r="O120" s="26"/>
-      <c r="P120" s="34" t="s">
+      <c r="B120" s="10"/>
+      <c r="M120" s="12"/>
+      <c r="O120" s="13"/>
+      <c r="P120" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q120" s="175"/>
-      <c r="R120" s="176"/>
-      <c r="S120" s="177" t="str">
+      <c r="Q120" s="159"/>
+      <c r="R120" s="160"/>
+      <c r="S120" s="161" t="str">
         <f>IF(AB71="","",AB71)</f>
         <v/>
       </c>
-      <c r="T120" s="106"/>
-      <c r="U120" s="106"/>
-      <c r="X120" s="106"/>
-      <c r="Y120" s="27"/>
+      <c r="T120" s="91"/>
+      <c r="U120" s="91"/>
+      <c r="X120" s="91"/>
+      <c r="Y120" s="14"/>
     </row>
     <row r="121" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A121" s="15">
+      <c r="A121" s="2">
         <v>55</v>
       </c>
-      <c r="B121" s="23"/>
-      <c r="M121" s="25"/>
-      <c r="O121" s="26"/>
-      <c r="P121" s="108" t="s">
+      <c r="B121" s="10"/>
+      <c r="M121" s="12"/>
+      <c r="O121" s="13"/>
+      <c r="P121" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="Q121" s="109"/>
-      <c r="R121" s="178">
+      <c r="Q121" s="94"/>
+      <c r="R121" s="162">
         <f>LEN(Q120)</f>
         <v>0</v>
       </c>
-      <c r="S121" s="92"/>
-      <c r="T121" s="92"/>
-      <c r="U121" s="92"/>
-      <c r="V121" s="92"/>
-      <c r="W121" s="92"/>
-      <c r="X121" s="92"/>
-      <c r="Y121" s="27"/>
+      <c r="S121" s="77"/>
+      <c r="T121" s="77"/>
+      <c r="U121" s="77"/>
+      <c r="V121" s="77"/>
+      <c r="W121" s="77"/>
+      <c r="X121" s="77"/>
+      <c r="Y121" s="14"/>
     </row>
     <row r="122" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A122" s="15">
+      <c r="A122" s="2">
         <v>56</v>
       </c>
-      <c r="B122" s="23"/>
-      <c r="M122" s="25"/>
-      <c r="O122" s="39"/>
-      <c r="P122" s="40"/>
-      <c r="Q122" s="40"/>
-      <c r="R122" s="40"/>
-      <c r="S122" s="40"/>
-      <c r="T122" s="40"/>
-      <c r="U122" s="40"/>
-      <c r="V122" s="40"/>
-      <c r="W122" s="40"/>
-      <c r="X122" s="40"/>
-      <c r="Y122" s="41"/>
+      <c r="B122" s="10"/>
+      <c r="M122" s="12"/>
+      <c r="O122" s="26"/>
+      <c r="P122" s="27"/>
+      <c r="Q122" s="27"/>
+      <c r="R122" s="27"/>
+      <c r="S122" s="27"/>
+      <c r="T122" s="27"/>
+      <c r="U122" s="27"/>
+      <c r="V122" s="27"/>
+      <c r="W122" s="27"/>
+      <c r="X122" s="27"/>
+      <c r="Y122" s="28"/>
     </row>
     <row r="123" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A123" s="15">
+      <c r="A123" s="2">
         <v>57</v>
       </c>
-      <c r="B123" s="23"/>
-      <c r="M123" s="25"/>
+      <c r="B123" s="10"/>
+      <c r="M123" s="12"/>
     </row>
     <row r="124" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A124" s="15">
+      <c r="A124" s="2">
         <v>58</v>
       </c>
-      <c r="B124" s="23"/>
-      <c r="M124" s="25"/>
+      <c r="B124" s="10"/>
+      <c r="M124" s="12"/>
     </row>
     <row r="125" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A125" s="15">
+      <c r="A125" s="2">
         <v>59</v>
       </c>
-      <c r="B125" s="23"/>
-      <c r="M125" s="25"/>
+      <c r="B125" s="10"/>
+      <c r="M125" s="12"/>
     </row>
     <row r="126" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A126" s="15">
+      <c r="A126" s="2">
         <v>60</v>
       </c>
-      <c r="B126" s="23"/>
-      <c r="M126" s="25"/>
+      <c r="B126" s="10"/>
+      <c r="M126" s="12"/>
     </row>
     <row r="127" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A127" s="15">
+      <c r="A127" s="2">
         <v>61</v>
       </c>
-      <c r="B127" s="23"/>
-      <c r="M127" s="25"/>
+      <c r="B127" s="10"/>
+      <c r="M127" s="12"/>
     </row>
     <row r="128" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A128" s="15">
+      <c r="A128" s="2">
         <v>62</v>
       </c>
-      <c r="B128" s="23"/>
-      <c r="M128" s="25"/>
+      <c r="B128" s="10"/>
+      <c r="M128" s="12"/>
     </row>
     <row r="129" spans="1:13" ht="14.45" customHeight="1">
-      <c r="A129" s="15">
+      <c r="A129" s="2">
         <v>63</v>
       </c>
-      <c r="B129" s="23"/>
-      <c r="M129" s="25"/>
+      <c r="B129" s="10"/>
+      <c r="M129" s="12"/>
     </row>
     <row r="130" spans="1:13" ht="14.45" customHeight="1">
-      <c r="A130" s="15">
+      <c r="A130" s="2">
         <v>64</v>
       </c>
-      <c r="B130" s="36"/>
-      <c r="C130" s="37"/>
-      <c r="D130" s="37"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="37"/>
-      <c r="I130" s="37"/>
-      <c r="J130" s="37"/>
-      <c r="K130" s="37"/>
-      <c r="L130" s="37"/>
-      <c r="M130" s="38"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="24"/>
+      <c r="J130" s="24"/>
+      <c r="K130" s="24"/>
+      <c r="L130" s="24"/>
+      <c r="M130" s="25"/>
     </row>
     <row r="131" spans="1:13" ht="14.45" customHeight="1">
-      <c r="A131" s="15">
+      <c r="A131" s="2">
         <v>65</v>
       </c>
-      <c r="C131" s="34" t="s">
+      <c r="C131" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D131" s="133" t="str">
+      <c r="D131" s="193" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
-      <c r="L131" s="34" t="s">
+      <c r="L131" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M131" s="134" t="str">
+      <c r="M131" s="118" t="str">
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="14.45" customHeight="1">
-      <c r="A132" s="15">
+      <c r="A132" s="2">
         <v>66</v>
       </c>
-      <c r="C132" s="34" t="s">
+      <c r="C132" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D132" s="135" t="str">
+      <c r="D132" s="119" t="str">
         <f>IF($J$12="","",$J$12)</f>
         <v/>
       </c>
-      <c r="L132" s="34" t="s">
+      <c r="L132" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="M132" s="136" t="str">
+      <c r="M132" s="120" t="str">
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="S70:S71"/>
+    <mergeCell ref="V70:V71"/>
+    <mergeCell ref="W70:W71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="S72:S73"/>
     <mergeCell ref="Q83:R83"/>
     <mergeCell ref="S83:T83"/>
     <mergeCell ref="V72:V73"/>
@@ -7375,90 +6672,52 @@
     <mergeCell ref="S74:S75"/>
     <mergeCell ref="V74:V75"/>
     <mergeCell ref="W74:W75"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="S72:S73"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="S70:S71"/>
-    <mergeCell ref="V70:V71"/>
-    <mergeCell ref="W70:W71"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <conditionalFormatting sqref="I72:I74">
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27 P26">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:G58 F42:G42">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:G76">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:G75 Q92:T92">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E23">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="142">
   <si>
     <t>Print Area</t>
   </si>
@@ -438,6 +438,21 @@
   </si>
   <si>
     <t>Revision 1.3-20190606</t>
+  </si>
+  <si>
+    <t>Meter:</t>
+  </si>
+  <si>
+    <t>Calibration Due:</t>
+  </si>
+  <si>
+    <t>Calibration Date:</t>
+  </si>
+  <si>
+    <t>Radcal 9010</t>
+  </si>
+  <si>
+    <t>Test Equipment</t>
   </si>
 </sst>
 </file>
@@ -452,7 +467,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
     <numFmt numFmtId="170" formatCode="0.##"/>
-    <numFmt numFmtId="172" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="171" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -558,7 +573,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -601,8 +616,14 @@
         <bgColor rgb="FFE6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="47">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1165,6 +1186,30 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1184,7 +1229,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1486,15 +1531,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1675,6 +1714,90 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1684,9 +1807,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1699,76 +1819,22 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1782,6 +1848,16 @@
     <cellStyle name="Result2" xfId="2"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1849,16 +1925,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2248,7 +2314,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2290,12 +2358,12 @@
       <c r="AA1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="187" t="s">
+      <c r="AG1" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="187"/>
-      <c r="AI1" s="187"/>
-      <c r="AJ1" s="187"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="168"/>
     </row>
     <row r="2" spans="1:36" ht="14.45" customHeight="1">
       <c r="A2" s="2">
@@ -2312,14 +2380,14 @@
       </c>
       <c r="Y2" s="14"/>
       <c r="AA2" s="15"/>
-      <c r="AG2" s="188" t="s">
+      <c r="AG2" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="189" t="s">
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="189"/>
+      <c r="AJ2" s="170"/>
     </row>
     <row r="3" spans="1:36" ht="14.45" customHeight="1">
       <c r="A3" s="2">
@@ -2468,7 +2536,7 @@
       <c r="O7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="191"/>
+      <c r="P7" s="162"/>
       <c r="Q7" s="31"/>
       <c r="W7" s="1" t="s">
         <v>21</v>
@@ -2529,7 +2597,7 @@
       <c r="O8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="194" t="str">
+      <c r="P8" s="164" t="str">
         <f>IF(AB8="","",AB8)</f>
         <v/>
       </c>
@@ -2609,19 +2677,19 @@
       <c r="D10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="190" t="str">
+      <c r="E10" s="171" t="str">
         <f t="shared" ref="E10:E15" si="1">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="F10" s="190"/>
+      <c r="F10" s="171"/>
       <c r="I10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="190" t="str">
+      <c r="J10" s="171" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="K10" s="190"/>
+      <c r="K10" s="171"/>
       <c r="M10" s="12"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="21" t="s">
@@ -2662,19 +2730,19 @@
       <c r="D11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="185" t="str">
+      <c r="E11" s="172" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="185"/>
+      <c r="F11" s="172"/>
       <c r="I11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="195" t="str">
+      <c r="J11" s="173" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="K11" s="195"/>
+      <c r="K11" s="173"/>
       <c r="M11" s="12"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="21" t="s">
@@ -2715,19 +2783,19 @@
       <c r="D12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="185" t="str">
+      <c r="E12" s="172" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="185"/>
+      <c r="F12" s="172"/>
       <c r="I12" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="185" t="str">
+      <c r="J12" s="172" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="K12" s="185"/>
+      <c r="K12" s="172"/>
       <c r="M12" s="12"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="21" t="s">
@@ -2768,19 +2836,19 @@
       <c r="D13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="185" t="str">
+      <c r="E13" s="172" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="185"/>
+      <c r="F13" s="172"/>
       <c r="I13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="185" t="str">
+      <c r="J13" s="172" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="K13" s="185"/>
+      <c r="K13" s="172"/>
       <c r="M13" s="12"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="21" t="s">
@@ -2821,19 +2889,19 @@
       <c r="D14" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="185" t="str">
+      <c r="E14" s="172" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="185"/>
+      <c r="F14" s="172"/>
       <c r="I14" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="185" t="str">
+      <c r="J14" s="172" t="str">
         <f>IF(V14="","",V14)</f>
         <v/>
       </c>
-      <c r="K14" s="185"/>
+      <c r="K14" s="172"/>
       <c r="M14" s="12"/>
       <c r="O14" s="13"/>
       <c r="Q14" s="21" t="s">
@@ -2874,11 +2942,11 @@
       <c r="D15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="185" t="str">
+      <c r="E15" s="172" t="str">
         <f t="shared" si="1"/>
         <v>IMPAX 4.2 2015</v>
       </c>
-      <c r="F15" s="185"/>
+      <c r="F15" s="172"/>
       <c r="M15" s="12"/>
       <c r="O15" s="26"/>
       <c r="P15" s="27"/>
@@ -3009,20 +3077,26 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="186" t="s">
+      <c r="F19" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="186"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="186"/>
-      <c r="L19" s="186"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="174"/>
+      <c r="L19" s="174"/>
       <c r="M19" s="5"/>
       <c r="O19" s="13"/>
       <c r="R19" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="S19" s="40"/>
+      <c r="V19" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
       <c r="Y19" s="14"/>
       <c r="AA19" s="21" t="s">
         <v>38</v>
@@ -3065,12 +3139,17 @@
         <v>47</v>
       </c>
       <c r="R20" s="76"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
+      <c r="S20" s="40"/>
+      <c r="V20" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="W20" s="197" t="str">
+        <f>IF(X20&lt;&gt;"",X20,IF(AB23="","",AB23))</f>
+        <v>Radcal 9010</v>
+      </c>
+      <c r="X20" s="198" t="s">
+        <v>140</v>
+      </c>
       <c r="Y20" s="14"/>
       <c r="AA20" s="21" t="s">
         <v>40</v>
@@ -3113,12 +3192,17 @@
         <v>48</v>
       </c>
       <c r="R21" s="76"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="77"/>
-      <c r="X21" s="77"/>
+      <c r="S21" s="40"/>
+      <c r="V21" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="W21" s="202">
+        <f t="shared" ref="W21:W22" si="4">IF(X21&lt;&gt;"",X21,IF(AB24="","",AB24))</f>
+        <v>43670</v>
+      </c>
+      <c r="X21" s="199">
+        <v>43670</v>
+      </c>
       <c r="Y21" s="14"/>
       <c r="AB21" s="20"/>
       <c r="AC21" s="20"/>
@@ -3152,24 +3236,20 @@
         <v>49</v>
       </c>
       <c r="R22" s="76"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
+      <c r="S22" s="40"/>
+      <c r="V22" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="W22" s="202">
+        <f t="shared" si="4"/>
+        <v>44036</v>
+      </c>
+      <c r="X22" s="199">
+        <v>44036</v>
+      </c>
       <c r="Y22" s="14"/>
-      <c r="AA22" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="35" t="str">
-        <f t="shared" ref="AC22:AC28" si="4">IF(AB22&lt;&gt;AD22,"Change","")</f>
-        <v/>
-      </c>
-      <c r="AD22" s="73" t="str">
-        <f>IF(P26="","",P26)</f>
-        <v/>
+      <c r="AA22" s="21" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.45" customHeight="1">
@@ -3200,24 +3280,24 @@
         <v>51</v>
       </c>
       <c r="R23" s="76"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="77"/>
-      <c r="V23" s="77"/>
-      <c r="W23" s="77"/>
-      <c r="X23" s="77"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
       <c r="Y23" s="14"/>
-      <c r="AA23" s="21" t="s">
-        <v>52</v>
+      <c r="AA23" s="66" t="s">
+        <v>137</v>
       </c>
       <c r="AB23" s="34"/>
       <c r="AC23" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AD23" s="79" t="str">
-        <f>IF(R36="","",R36)</f>
-        <v/>
+        <f t="shared" ref="AC23:AC25" si="5">IF(AB23&lt;&gt;AD23,"Change","")</f>
+        <v>Change</v>
+      </c>
+      <c r="AD23" s="73" t="str">
+        <f>IF(X20="","",X20)</f>
+        <v>Radcal 9010</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="14.45" customHeight="1">
@@ -3228,11 +3308,11 @@
       <c r="D24" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="192" t="str">
+      <c r="E24" s="175" t="str">
         <f>IF(P51="","",P51)</f>
         <v/>
       </c>
-      <c r="F24" s="192"/>
+      <c r="F24" s="175"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -3242,17 +3322,17 @@
       <c r="M24" s="12"/>
       <c r="O24" s="13"/>
       <c r="Y24" s="14"/>
-      <c r="AA24" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB24" s="34"/>
+      <c r="AA24" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB24" s="201"/>
       <c r="AC24" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AD24" s="79" t="str">
-        <f>IF(S36="","",S36)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>Change</v>
+      </c>
+      <c r="AD24" s="200">
+        <f t="shared" ref="AD24:AD25" si="6">IF(X21="","",X21)</f>
+        <v>43670</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="14.45" customHeight="1">
@@ -3271,17 +3351,17 @@
         <v>14</v>
       </c>
       <c r="Y25" s="14"/>
-      <c r="AA25" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB25" s="81"/>
+      <c r="AA25" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB25" s="201"/>
       <c r="AC25" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AD25" s="82" t="str">
-        <f>IF(Q92="","",Q92)</f>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>Change</v>
+      </c>
+      <c r="AD25" s="200">
+        <f t="shared" si="6"/>
+        <v>44036</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.45" customHeight="1">
@@ -3301,18 +3381,6 @@
         <v>57</v>
       </c>
       <c r="Y26" s="14"/>
-      <c r="AA26" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB26" s="81"/>
-      <c r="AC26" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AD26" s="82" t="str">
-        <f>IF(R92="","",R92)</f>
-        <v/>
-      </c>
     </row>
     <row r="27" spans="1:30" ht="14.45" customHeight="1">
       <c r="A27" s="2">
@@ -3340,7 +3408,7 @@
         <v>62</v>
       </c>
       <c r="P27" s="88" t="str">
-        <f>IF(AB22="","",AB22)</f>
+        <f>IF(AB27="","",AB27)</f>
         <v/>
       </c>
       <c r="Q27" s="1" t="s">
@@ -3353,16 +3421,16 @@
         <v>61</v>
       </c>
       <c r="Y27" s="14"/>
-      <c r="AA27" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB27" s="81"/>
+      <c r="AA27" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB27" s="34"/>
       <c r="AC27" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AD27" s="82" t="str">
-        <f>IF(S92="","",S92)</f>
+        <f t="shared" ref="AC27:AC33" si="7">IF(AB27&lt;&gt;AD27,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD27" s="73" t="str">
+        <f>IF(P26="","",P26)</f>
         <v/>
       </c>
     </row>
@@ -3402,15 +3470,15 @@
       <c r="X28" s="91"/>
       <c r="Y28" s="14"/>
       <c r="AA28" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB28" s="81"/>
+        <v>52</v>
+      </c>
+      <c r="AB28" s="34"/>
       <c r="AC28" s="35" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AD28" s="82" t="str">
-        <f>IF(T92="","",T92)</f>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD28" s="79" t="str">
+        <f>IF(R36="","",R36)</f>
         <v/>
       </c>
     </row>
@@ -3449,11 +3517,17 @@
       <c r="X29" s="77"/>
       <c r="Y29" s="14"/>
       <c r="AA29" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
+        <v>53</v>
+      </c>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD29" s="79" t="str">
+        <f>IF(S36="","",S36)</f>
+        <v/>
+      </c>
     </row>
     <row r="30" spans="1:30" ht="14.45" customHeight="1">
       <c r="A30" s="2">
@@ -3487,11 +3561,15 @@
       <c r="X30" s="77"/>
       <c r="Y30" s="14"/>
       <c r="AA30" s="21" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AB30" s="81"/>
+      <c r="AC30" s="35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="AD30" s="82" t="str">
-        <f>IF(R70="","",R70)</f>
+        <f>IF(Q92="","",Q92)</f>
         <v/>
       </c>
     </row>
@@ -3504,11 +3582,15 @@
       <c r="O31" s="13"/>
       <c r="Y31" s="14"/>
       <c r="AA31" s="21" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="AB31" s="81"/>
+      <c r="AC31" s="35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="AD31" s="82" t="str">
-        <f>IF(R72="","",R72)</f>
+        <f>IF(R92="","",R92)</f>
         <v/>
       </c>
     </row>
@@ -3532,11 +3614,15 @@
       </c>
       <c r="Y32" s="14"/>
       <c r="AA32" s="21" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AB32" s="81"/>
+      <c r="AC32" s="35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="AD32" s="82" t="str">
-        <f>IF(R74="","",R74)</f>
+        <f>IF(S92="","",S92)</f>
         <v/>
       </c>
     </row>
@@ -3548,11 +3634,11 @@
       <c r="C33" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="192" t="str">
+      <c r="D33" s="175" t="str">
         <f>IF(P33="","",P33)</f>
         <v/>
       </c>
-      <c r="E33" s="192"/>
+      <c r="E33" s="175"/>
       <c r="F33" s="87" t="s">
         <v>74</v>
       </c>
@@ -3570,7 +3656,7 @@
       <c r="O33" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="P33" s="191"/>
+      <c r="P33" s="162"/>
       <c r="R33" s="20" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
         <v>Left ()</v>
@@ -3581,11 +3667,15 @@
       </c>
       <c r="Y33" s="14"/>
       <c r="AA33" s="21" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AB33" s="81"/>
+      <c r="AC33" s="35" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="AD33" s="82" t="str">
-        <f>IF(S70="","",S70)</f>
+        <f>IF(T92="","",T92)</f>
         <v/>
       </c>
     </row>
@@ -3621,17 +3711,15 @@
       <c r="Q34" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="R34" s="101"/>
-      <c r="S34" s="101"/>
+      <c r="R34" s="166"/>
+      <c r="S34" s="166"/>
       <c r="Y34" s="14"/>
       <c r="AA34" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB34" s="81"/>
-      <c r="AD34" s="82" t="str">
-        <f>IF(S72="","",S72)</f>
-        <v/>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
     </row>
     <row r="35" spans="1:30" ht="14.45" customHeight="1">
       <c r="A35" s="2">
@@ -3662,18 +3750,18 @@
       <c r="L35" s="97"/>
       <c r="M35" s="12"/>
       <c r="O35" s="13"/>
-      <c r="Q35" s="102" t="s">
+      <c r="Q35" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="R35" s="103"/>
-      <c r="S35" s="103"/>
+      <c r="R35" s="167"/>
+      <c r="S35" s="167"/>
       <c r="Y35" s="14"/>
       <c r="AA35" s="21" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="AB35" s="81"/>
       <c r="AD35" s="82" t="str">
-        <f>IF(S74="","",S74)</f>
+        <f>IF(R70="","",R70)</f>
         <v/>
       </c>
     </row>
@@ -3702,15 +3790,23 @@
       <c r="Q36" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="R36" s="104" t="str">
+      <c r="R36" s="102" t="str">
         <f>IF(OR(R34="",R35=""),"",R35/R34)</f>
         <v/>
       </c>
-      <c r="S36" s="105" t="str">
+      <c r="S36" s="103" t="str">
         <f>IF(OR(S34="",S35=""),"",S35/S34)</f>
         <v/>
       </c>
       <c r="Y36" s="14"/>
+      <c r="AA36" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB36" s="81"/>
+      <c r="AD36" s="82" t="str">
+        <f>IF(R72="","",R72)</f>
+        <v/>
+      </c>
     </row>
     <row r="37" spans="1:30" ht="14.45" customHeight="1">
       <c r="A37" s="2">
@@ -3733,6 +3829,14 @@
       <c r="M37" s="12"/>
       <c r="O37" s="13"/>
       <c r="Y37" s="14"/>
+      <c r="AA37" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB37" s="81"/>
+      <c r="AD37" s="82" t="str">
+        <f>IF(R74="","",R74)</f>
+        <v/>
+      </c>
     </row>
     <row r="38" spans="1:30" ht="14.45" customHeight="1">
       <c r="A38" s="2">
@@ -3767,6 +3871,14 @@
       <c r="U38" s="91"/>
       <c r="X38" s="91"/>
       <c r="Y38" s="14"/>
+      <c r="AA38" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB38" s="81"/>
+      <c r="AD38" s="82" t="str">
+        <f>IF(S70="","",S70)</f>
+        <v/>
+      </c>
     </row>
     <row r="39" spans="1:30" ht="14.45" customHeight="1">
       <c r="A39" s="2">
@@ -3790,6 +3902,14 @@
       <c r="W39" s="77"/>
       <c r="X39" s="77"/>
       <c r="Y39" s="14"/>
+      <c r="AA39" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB39" s="81"/>
+      <c r="AD39" s="82" t="str">
+        <f>IF(S72="","",S72)</f>
+        <v/>
+      </c>
     </row>
     <row r="40" spans="1:30" ht="14.45" customHeight="1">
       <c r="A40" s="2">
@@ -3813,6 +3933,14 @@
       <c r="W40" s="77"/>
       <c r="X40" s="77"/>
       <c r="Y40" s="14"/>
+      <c r="AA40" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB40" s="81"/>
+      <c r="AD40" s="82" t="str">
+        <f>IF(S74="","",S74)</f>
+        <v/>
+      </c>
     </row>
     <row r="41" spans="1:30" ht="14.45" customHeight="1">
       <c r="A41" s="2">
@@ -3822,16 +3950,16 @@
       <c r="C41" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="192" t="str">
+      <c r="D41" s="175" t="str">
         <f>IF(P43="","",P43)</f>
         <v/>
       </c>
-      <c r="E41" s="192"/>
-      <c r="F41" s="106" t="str">
+      <c r="E41" s="175"/>
+      <c r="F41" s="104" t="str">
         <f>R44</f>
         <v>Left ()</v>
       </c>
-      <c r="G41" s="107" t="str">
+      <c r="G41" s="105" t="str">
         <f>S44</f>
         <v>Right ()</v>
       </c>
@@ -3847,11 +3975,11 @@
       <c r="E42" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="108" t="str">
+      <c r="F42" s="106" t="str">
         <f>IF(R45="","",IF(R45=1,"YES",IF(R45=2,"NO",IF(R45=3,"NA",""))))</f>
         <v/>
       </c>
-      <c r="G42" s="109" t="str">
+      <c r="G42" s="107" t="str">
         <f>IF(S45="","",IF(S45=1,"YES",IF(S45=2,"NO",IF(S45=3,"NA",""))))</f>
         <v/>
       </c>
@@ -3897,7 +4025,7 @@
       <c r="O43" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="P43" s="191"/>
+      <c r="P43" s="162"/>
       <c r="V43" s="1" t="s">
         <v>84</v>
       </c>
@@ -3907,7 +4035,7 @@
       </c>
       <c r="AB43" s="34"/>
       <c r="AC43" s="35" t="str">
-        <f t="shared" ref="AC43:AC49" si="5">IF(AB43&lt;&gt;AD43,"Change","")</f>
+        <f t="shared" ref="AC43:AC49" si="8">IF(AB43&lt;&gt;AD43,"Change","")</f>
         <v/>
       </c>
       <c r="AD43" s="82" t="str">
@@ -3934,7 +4062,7 @@
       <c r="K44" s="92"/>
       <c r="L44" s="92"/>
       <c r="M44" s="12"/>
-      <c r="O44" s="110" t="s">
+      <c r="O44" s="108" t="s">
         <v>44</v>
       </c>
       <c r="R44" s="20" t="str">
@@ -3951,7 +4079,7 @@
       </c>
       <c r="AB44" s="34"/>
       <c r="AC44" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD44" s="82" t="str">
@@ -3982,15 +4110,15 @@
       <c r="Q45" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="R45" s="111"/>
-      <c r="S45" s="111"/>
+      <c r="R45" s="109"/>
+      <c r="S45" s="109"/>
       <c r="Y45" s="14"/>
       <c r="AA45" s="21" t="s">
         <v>87</v>
       </c>
       <c r="AB45" s="34"/>
       <c r="AC45" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD45" s="82" t="str">
@@ -4023,7 +4151,7 @@
       </c>
       <c r="AB46" s="34"/>
       <c r="AC46" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD46" s="82" t="str">
@@ -4061,7 +4189,7 @@
       </c>
       <c r="AB47" s="34"/>
       <c r="AC47" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD47" s="82" t="str">
@@ -4074,7 +4202,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="112" t="s">
+      <c r="C48" s="110" t="s">
         <v>91</v>
       </c>
       <c r="D48" s="97"/>
@@ -4082,7 +4210,7 @@
       <c r="F48" s="97"/>
       <c r="G48" s="97"/>
       <c r="H48" s="97"/>
-      <c r="I48" s="112" t="s">
+      <c r="I48" s="110" t="s">
         <v>92</v>
       </c>
       <c r="J48" s="97"/>
@@ -4107,7 +4235,7 @@
       </c>
       <c r="AB48" s="34"/>
       <c r="AC48" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD48" s="82" t="str">
@@ -4124,7 +4252,7 @@
         <f>Q57</f>
         <v>Left ()</v>
       </c>
-      <c r="D49" s="53" t="str">
+      <c r="D49" s="165" t="str">
         <f>IF(Q58="","",Q58)</f>
         <v/>
       </c>
@@ -4132,7 +4260,7 @@
         <f>R57</f>
         <v>Right ()</v>
       </c>
-      <c r="F49" s="53" t="str">
+      <c r="F49" s="165" t="str">
         <f>IF(R58="","",R58)</f>
         <v/>
       </c>
@@ -4142,7 +4270,7 @@
         <f>Q57</f>
         <v>Left ()</v>
       </c>
-      <c r="J49" s="53" t="str">
+      <c r="J49" s="165" t="str">
         <f>IF(Q59="","",Q59)</f>
         <v/>
       </c>
@@ -4150,7 +4278,7 @@
         <f>R57</f>
         <v>Right ()</v>
       </c>
-      <c r="L49" s="53" t="str">
+      <c r="L49" s="165" t="str">
         <f>IF(R59="","",R59)</f>
         <v/>
       </c>
@@ -4162,7 +4290,7 @@
       </c>
       <c r="AB49" s="34"/>
       <c r="AC49" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD49" s="82" t="str">
@@ -4227,7 +4355,7 @@
       <c r="O51" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="P51" s="191"/>
+      <c r="P51" s="162"/>
       <c r="V51" s="1" t="s">
         <v>96</v>
       </c>
@@ -4319,15 +4447,15 @@
         <v>54</v>
       </c>
       <c r="B54" s="10"/>
-      <c r="C54" s="112" t="s">
+      <c r="C54" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="I54" s="184" t="s">
+      <c r="I54" s="176" t="s">
         <v>98</v>
       </c>
-      <c r="J54" s="184"/>
-      <c r="K54" s="184"/>
-      <c r="L54" s="184"/>
+      <c r="J54" s="176"/>
+      <c r="K54" s="176"/>
+      <c r="L54" s="176"/>
       <c r="M54" s="12"/>
       <c r="O54" s="13"/>
       <c r="P54" s="21" t="s">
@@ -4351,24 +4479,24 @@
         <v>55</v>
       </c>
       <c r="B55" s="10"/>
-      <c r="F55" s="106" t="str">
+      <c r="F55" s="104" t="str">
         <f>R65</f>
         <v>Left ()</v>
       </c>
-      <c r="G55" s="107" t="str">
+      <c r="G55" s="105" t="str">
         <f>S65</f>
         <v>Right ()</v>
       </c>
-      <c r="I55" s="172" t="str">
+      <c r="I55" s="177" t="str">
         <f>R65</f>
         <v>Left ()</v>
       </c>
-      <c r="J55" s="172"/>
-      <c r="K55" s="173" t="str">
+      <c r="J55" s="177"/>
+      <c r="K55" s="178" t="str">
         <f>S65</f>
         <v>Right ()</v>
       </c>
-      <c r="L55" s="173"/>
+      <c r="L55" s="178"/>
       <c r="M55" s="12"/>
       <c r="O55" s="13"/>
       <c r="Y55" s="14"/>
@@ -4390,27 +4518,27 @@
       <c r="E56" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="F56" s="113" t="str">
-        <f t="shared" ref="F56:G58" si="6">IF(R66="","",IF(R66=1,"YES",IF(R66=2,"NO",IF(R66=3,"NA",""))))</f>
-        <v/>
-      </c>
-      <c r="G56" s="114" t="str">
-        <f t="shared" si="6"/>
+      <c r="F56" s="111" t="str">
+        <f t="shared" ref="F56:G58" si="9">IF(R66="","",IF(R66=1,"YES",IF(R66=2,"NO",IF(R66=3,"NA",""))))</f>
+        <v/>
+      </c>
+      <c r="G56" s="112" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H56" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="I56" s="180" t="str">
+      <c r="I56" s="179" t="str">
         <f>IF(R70="","",R70)</f>
         <v/>
       </c>
-      <c r="J56" s="180"/>
-      <c r="K56" s="181" t="str">
+      <c r="J56" s="179"/>
+      <c r="K56" s="180" t="str">
         <f>IF(S70="","",S70)</f>
         <v/>
       </c>
-      <c r="L56" s="181"/>
+      <c r="L56" s="180"/>
       <c r="M56" s="12"/>
       <c r="O56" s="80" t="s">
         <v>89</v>
@@ -4430,29 +4558,29 @@
       <c r="E57" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F57" s="113" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G57" s="114" t="str">
-        <f t="shared" si="6"/>
+      <c r="F57" s="111" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G57" s="112" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H57" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="I57" s="180" t="str">
+      <c r="I57" s="179" t="str">
         <f>IF(R72="","",R72)</f>
         <v/>
       </c>
-      <c r="J57" s="180"/>
-      <c r="K57" s="181" t="str">
+      <c r="J57" s="179"/>
+      <c r="K57" s="180" t="str">
         <f>IF(S72="","",S72)</f>
         <v/>
       </c>
-      <c r="L57" s="181"/>
+      <c r="L57" s="180"/>
       <c r="M57" s="12"/>
-      <c r="O57" s="115" t="s">
+      <c r="O57" s="113" t="s">
         <v>103</v>
       </c>
       <c r="Q57" s="20" t="str">
@@ -4482,34 +4610,34 @@
       <c r="E58" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="F58" s="108" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="G58" s="109" t="str">
-        <f t="shared" si="6"/>
+      <c r="F58" s="106" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G58" s="107" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H58" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="I58" s="182" t="str">
+      <c r="I58" s="181" t="str">
         <f>IF(R74="","",R74)</f>
         <v/>
       </c>
-      <c r="J58" s="182"/>
-      <c r="K58" s="183" t="str">
+      <c r="J58" s="181"/>
+      <c r="K58" s="182" t="str">
         <f>IF(S74="","",S74)</f>
         <v/>
       </c>
-      <c r="L58" s="183"/>
+      <c r="L58" s="182"/>
       <c r="M58" s="12"/>
       <c r="O58" s="13"/>
-      <c r="P58" s="116" t="s">
+      <c r="P58" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="Q58" s="101"/>
-      <c r="R58" s="101"/>
+      <c r="Q58" s="166"/>
+      <c r="R58" s="166"/>
       <c r="Y58" s="14"/>
       <c r="AB58" s="20"/>
       <c r="AC58" s="20"/>
@@ -4537,11 +4665,11 @@
       <c r="L59" s="89"/>
       <c r="M59" s="12"/>
       <c r="O59" s="13"/>
-      <c r="P59" s="117" t="s">
+      <c r="P59" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="Q59" s="103"/>
-      <c r="R59" s="103"/>
+      <c r="Q59" s="167"/>
+      <c r="R59" s="167"/>
       <c r="Y59" s="14"/>
       <c r="AB59" s="69"/>
       <c r="AC59" s="35" t="str">
@@ -4692,7 +4820,7 @@
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
       <c r="M64" s="25"/>
-      <c r="O64" s="115" t="s">
+      <c r="O64" s="113" t="s">
         <v>97</v>
       </c>
       <c r="U64" s="21" t="s">
@@ -4713,18 +4841,18 @@
       <c r="C65" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="193" t="str">
+      <c r="D65" s="163" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
       <c r="L65" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M65" s="118" t="str">
+      <c r="M65" s="116" t="str">
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="O65" s="110" t="s">
+      <c r="O65" s="108" t="s">
         <v>44</v>
       </c>
       <c r="R65" s="20" t="str">
@@ -4753,14 +4881,14 @@
       <c r="C66" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D66" s="119" t="str">
+      <c r="D66" s="117" t="str">
         <f>IF($E$14="","",$E$14)</f>
         <v/>
       </c>
       <c r="L66" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="M66" s="120" t="str">
+      <c r="M66" s="118" t="str">
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
@@ -4768,8 +4896,8 @@
       <c r="Q66" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="R66" s="121"/>
-      <c r="S66" s="122"/>
+      <c r="R66" s="119"/>
+      <c r="S66" s="120"/>
       <c r="Y66" s="14"/>
       <c r="AB66" s="20"/>
       <c r="AC66" s="20"/>
@@ -4779,7 +4907,7 @@
       <c r="A67" s="2">
         <v>1</v>
       </c>
-      <c r="M67" s="123" t="str">
+      <c r="M67" s="121" t="str">
         <f>$H$2</f>
         <v>Medical University of South Carolina</v>
       </c>
@@ -4787,8 +4915,8 @@
       <c r="Q67" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="R67" s="124"/>
-      <c r="S67" s="125"/>
+      <c r="R67" s="122"/>
+      <c r="S67" s="123"/>
       <c r="Y67" s="14"/>
       <c r="AB67" s="69"/>
       <c r="AC67" s="35" t="str">
@@ -4812,8 +4940,8 @@
       <c r="Q68" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="R68" s="126"/>
-      <c r="S68" s="127"/>
+      <c r="R68" s="124"/>
+      <c r="S68" s="125"/>
       <c r="Y68" s="14"/>
       <c r="AB68" s="20"/>
       <c r="AC68" s="20"/>
@@ -4842,10 +4970,10 @@
       <c r="R69" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="V69" s="167" t="s">
+      <c r="V69" s="183" t="s">
         <v>111</v>
       </c>
-      <c r="W69" s="167"/>
+      <c r="W69" s="183"/>
       <c r="Y69" s="14"/>
       <c r="AB69" s="69"/>
       <c r="AC69" s="35" t="str">
@@ -4876,17 +5004,17 @@
       <c r="L70" s="4"/>
       <c r="M70" s="5"/>
       <c r="O70" s="13"/>
-      <c r="Q70" s="167" t="s">
+      <c r="Q70" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="R70" s="176"/>
-      <c r="S70" s="177"/>
-      <c r="V70" s="178" t="str">
-        <f>IF(AB30="","",AB30)</f>
-        <v/>
-      </c>
-      <c r="W70" s="179" t="str">
-        <f>IF(AB33="","",AB33)</f>
+      <c r="R70" s="184"/>
+      <c r="S70" s="185"/>
+      <c r="V70" s="186" t="str">
+        <f>IF(AB35="","",AB35)</f>
+        <v/>
+      </c>
+      <c r="W70" s="187" t="str">
+        <f>IF(AB38="","",AB38)</f>
         <v/>
       </c>
       <c r="Y70" s="14"/>
@@ -4900,26 +5028,26 @@
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="97"/>
-      <c r="D71" s="172" t="str">
+      <c r="D71" s="177" t="str">
         <f>Q83</f>
         <v>UNL-10 (cd/m^2)</v>
       </c>
-      <c r="E71" s="172"/>
-      <c r="F71" s="173" t="str">
+      <c r="E71" s="177"/>
+      <c r="F71" s="178" t="str">
         <f>S83</f>
         <v>UNL-80 (cd/m^2)</v>
       </c>
-      <c r="G71" s="173"/>
+      <c r="G71" s="178"/>
       <c r="I71" s="68" t="s">
         <v>113</v>
       </c>
       <c r="M71" s="12"/>
       <c r="O71" s="13"/>
-      <c r="Q71" s="167"/>
-      <c r="R71" s="176"/>
-      <c r="S71" s="177"/>
-      <c r="V71" s="178"/>
-      <c r="W71" s="179"/>
+      <c r="Q71" s="183"/>
+      <c r="R71" s="184"/>
+      <c r="S71" s="185"/>
+      <c r="V71" s="186"/>
+      <c r="W71" s="187"/>
       <c r="Y71" s="14"/>
       <c r="AB71" s="69"/>
       <c r="AC71" s="35" t="str">
@@ -4937,7 +5065,7 @@
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="97"/>
-      <c r="D72" s="113" t="str">
+      <c r="D72" s="111" t="str">
         <f>Q84</f>
         <v>Left ()</v>
       </c>
@@ -4949,7 +5077,7 @@
         <f>S84</f>
         <v>Left ()</v>
       </c>
-      <c r="G72" s="114" t="str">
+      <c r="G72" s="112" t="str">
         <f>T84</f>
         <v>Right ()</v>
       </c>
@@ -4962,17 +5090,17 @@
       </c>
       <c r="M72" s="12"/>
       <c r="O72" s="13"/>
-      <c r="Q72" s="167" t="s">
+      <c r="Q72" s="183" t="s">
         <v>102</v>
       </c>
-      <c r="R72" s="174"/>
-      <c r="S72" s="175"/>
-      <c r="V72" s="165" t="str">
-        <f>IF(AB31="","",AB31)</f>
-        <v/>
-      </c>
-      <c r="W72" s="166" t="str">
-        <f>IF(AB34="","",AB34)</f>
+      <c r="R72" s="188"/>
+      <c r="S72" s="189"/>
+      <c r="V72" s="191" t="str">
+        <f>IF(AB36="","",AB36)</f>
+        <v/>
+      </c>
+      <c r="W72" s="192" t="str">
+        <f>IF(AB39="","",AB39)</f>
         <v/>
       </c>
       <c r="Y72" s="14"/>
@@ -4985,20 +5113,20 @@
       <c r="C73" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="D73" s="128" t="str">
-        <f t="shared" ref="D73:G75" si="7">IF(Q90="","",Q90)</f>
+      <c r="D73" s="126" t="str">
+        <f t="shared" ref="D73:G75" si="10">IF(Q90="","",Q90)</f>
         <v/>
       </c>
       <c r="E73" s="99" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F73" s="99" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G73" s="129" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G73" s="127" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I73" s="56" t="str">
@@ -5010,11 +5138,11 @@
       </c>
       <c r="M73" s="12"/>
       <c r="O73" s="13"/>
-      <c r="Q73" s="167"/>
-      <c r="R73" s="174"/>
-      <c r="S73" s="175"/>
-      <c r="V73" s="165"/>
-      <c r="W73" s="166"/>
+      <c r="Q73" s="183"/>
+      <c r="R73" s="188"/>
+      <c r="S73" s="189"/>
+      <c r="V73" s="191"/>
+      <c r="W73" s="192"/>
       <c r="Y73" s="14"/>
     </row>
     <row r="74" spans="1:30" ht="14.45" customHeight="1">
@@ -5025,20 +5153,20 @@
       <c r="C74" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D74" s="128" t="str">
-        <f t="shared" si="7"/>
+      <c r="D74" s="126" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E74" s="99" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F74" s="99" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G74" s="129" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G74" s="127" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I74" s="56" t="str">
@@ -5050,17 +5178,17 @@
       </c>
       <c r="M74" s="12"/>
       <c r="O74" s="13"/>
-      <c r="Q74" s="167" t="s">
+      <c r="Q74" s="183" t="s">
         <v>105</v>
       </c>
-      <c r="R74" s="168"/>
-      <c r="S74" s="169"/>
-      <c r="V74" s="170" t="str">
-        <f>IF(AB32="","",AB32)</f>
-        <v/>
-      </c>
-      <c r="W74" s="171" t="str">
-        <f>IF(AB35="","",AB35)</f>
+      <c r="R74" s="193"/>
+      <c r="S74" s="194"/>
+      <c r="V74" s="195" t="str">
+        <f>IF(AB37="","",AB37)</f>
+        <v/>
+      </c>
+      <c r="W74" s="196" t="str">
+        <f>IF(AB40="","",AB40)</f>
         <v/>
       </c>
       <c r="Y74" s="14"/>
@@ -5073,29 +5201,29 @@
       <c r="C75" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D75" s="130" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="E75" s="131" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F75" s="131" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G75" s="132" t="str">
-        <f t="shared" si="7"/>
+      <c r="D75" s="128" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E75" s="129" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F75" s="129" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G75" s="130" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M75" s="12"/>
       <c r="O75" s="13"/>
-      <c r="Q75" s="167"/>
-      <c r="R75" s="168"/>
-      <c r="S75" s="169"/>
-      <c r="V75" s="170"/>
-      <c r="W75" s="171"/>
+      <c r="Q75" s="183"/>
+      <c r="R75" s="193"/>
+      <c r="S75" s="194"/>
+      <c r="V75" s="195"/>
+      <c r="W75" s="196"/>
       <c r="Y75" s="14"/>
     </row>
     <row r="76" spans="1:30" ht="14.45" customHeight="1">
@@ -5103,19 +5231,19 @@
         <v>10</v>
       </c>
       <c r="B76" s="10"/>
-      <c r="D76" s="108" t="str">
+      <c r="D76" s="106" t="str">
         <f>IF(D75="","",IF(D75&lt;=0.3,"PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="E76" s="133" t="str">
+      <c r="E76" s="131" t="str">
         <f>IF(E75="","",IF(E75&lt;=0.3,"PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="F76" s="133" t="str">
+      <c r="F76" s="131" t="str">
         <f>IF(F75="","",IF(F75&lt;=0.3,"PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G76" s="109" t="str">
+      <c r="G76" s="107" t="str">
         <f>IF(G75="","",IF(G75&lt;=0.3,"PASS","FAIL"))</f>
         <v/>
       </c>
@@ -5266,7 +5394,7 @@
         <v>16</v>
       </c>
       <c r="B82" s="10"/>
-      <c r="D82" s="119" t="str">
+      <c r="D82" s="117" t="str">
         <f>IF(Q100="","",IF(LEN(Q100)&lt;=135,Q100,IF(LEN(Q100)&lt;=260,LEFT(Q100,SEARCH(" ",Q100,125)),LEFT(Q100,SEARCH(" ",Q100,130)))))</f>
         <v/>
       </c>
@@ -5279,7 +5407,7 @@
       <c r="K82" s="91"/>
       <c r="L82" s="91"/>
       <c r="M82" s="12"/>
-      <c r="O82" s="115" t="s">
+      <c r="O82" s="113" t="s">
         <v>112</v>
       </c>
       <c r="V82" s="68" t="s">
@@ -5292,7 +5420,7 @@
         <v>17</v>
       </c>
       <c r="B83" s="10"/>
-      <c r="D83" s="134" t="str">
+      <c r="D83" s="132" t="str">
         <f>IF(LEN(Q100)&lt;=135,"",IF(LEN(Q100)&lt;=260,RIGHT(Q100,LEN(Q100)-SEARCH(" ",Q100,125)),MID(Q100,SEARCH(" ",Q100,130),IF(LEN(Q100)&lt;=265,LEN(Q100),SEARCH(" ",Q100,255)-SEARCH(" ",Q100,130)))))</f>
         <v/>
       </c>
@@ -5306,15 +5434,15 @@
       <c r="L83" s="77"/>
       <c r="M83" s="12"/>
       <c r="O83" s="13"/>
-      <c r="Q83" s="164" t="s">
+      <c r="Q83" s="190" t="s">
         <v>123</v>
       </c>
-      <c r="R83" s="164"/>
-      <c r="S83" s="164" t="s">
+      <c r="R83" s="190"/>
+      <c r="S83" s="190" t="s">
         <v>124</v>
       </c>
-      <c r="T83" s="164"/>
-      <c r="V83" s="135" t="s">
+      <c r="T83" s="190"/>
+      <c r="V83" s="133" t="s">
         <v>44</v>
       </c>
       <c r="Y83" s="14"/>
@@ -5324,7 +5452,7 @@
         <v>18</v>
       </c>
       <c r="B84" s="10"/>
-      <c r="D84" s="134" t="str">
+      <c r="D84" s="132" t="str">
         <f>IF(LEN(Q100)&lt;=265,"",RIGHT(Q100,LEN(Q100)-SEARCH(" ",Q100,255)))</f>
         <v/>
       </c>
@@ -5338,23 +5466,23 @@
       <c r="L84" s="77"/>
       <c r="M84" s="12"/>
       <c r="O84" s="13"/>
-      <c r="Q84" s="136" t="str">
+      <c r="Q84" s="134" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
-      <c r="R84" s="137" t="str">
+      <c r="R84" s="135" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
         <v>Right ()</v>
       </c>
-      <c r="S84" s="136" t="str">
+      <c r="S84" s="134" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
-      <c r="T84" s="137" t="str">
+      <c r="T84" s="135" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
         <v>Right ()</v>
       </c>
-      <c r="V84" s="138"/>
+      <c r="V84" s="136"/>
       <c r="W84" s="1" t="s">
         <v>114</v>
       </c>
@@ -5365,7 +5493,7 @@
         <v>19</v>
       </c>
       <c r="B85" s="10"/>
-      <c r="D85" s="134" t="str">
+      <c r="D85" s="132" t="str">
         <f>IF(Q102="","",IF(LEN(Q102)&lt;=135,Q102,IF(LEN(Q102)&lt;=260,LEFT(Q102,SEARCH(" ",Q102,125)),LEFT(Q102,SEARCH(" ",Q102,130)))))</f>
         <v/>
       </c>
@@ -5382,11 +5510,11 @@
       <c r="P85" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="Q85" s="139"/>
-      <c r="R85" s="140"/>
-      <c r="S85" s="141"/>
-      <c r="T85" s="140"/>
-      <c r="V85" s="138"/>
+      <c r="Q85" s="137"/>
+      <c r="R85" s="138"/>
+      <c r="S85" s="139"/>
+      <c r="T85" s="138"/>
+      <c r="V85" s="136"/>
       <c r="W85" s="1" t="s">
         <v>116</v>
       </c>
@@ -5397,7 +5525,7 @@
         <v>20</v>
       </c>
       <c r="B86" s="10"/>
-      <c r="D86" s="134" t="str">
+      <c r="D86" s="132" t="str">
         <f>IF(LEN(Q102)&lt;=135,"",IF(LEN(Q102)&lt;=260,RIGHT(Q102,LEN(Q102)-SEARCH(" ",Q102,125)),MID(Q102,SEARCH(" ",Q102,130),IF(LEN(Q102)&lt;=265,LEN(Q102),SEARCH(" ",Q102,255)-SEARCH(" ",Q102,130)))))</f>
         <v/>
       </c>
@@ -5414,11 +5542,11 @@
       <c r="P86" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="Q86" s="142"/>
-      <c r="R86" s="143"/>
-      <c r="S86" s="144"/>
-      <c r="T86" s="143"/>
-      <c r="V86" s="138"/>
+      <c r="Q86" s="140"/>
+      <c r="R86" s="141"/>
+      <c r="S86" s="142"/>
+      <c r="T86" s="141"/>
+      <c r="V86" s="136"/>
       <c r="W86" s="1" t="s">
         <v>118</v>
       </c>
@@ -5429,7 +5557,7 @@
         <v>21</v>
       </c>
       <c r="B87" s="10"/>
-      <c r="D87" s="134" t="str">
+      <c r="D87" s="132" t="str">
         <f>IF(LEN(Q102)&lt;=265,"",RIGHT(Q102,LEN(Q102)-SEARCH(" ",Q102,255)))</f>
         <v/>
       </c>
@@ -5446,10 +5574,10 @@
       <c r="P87" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="Q87" s="142"/>
-      <c r="R87" s="143"/>
-      <c r="S87" s="144"/>
-      <c r="T87" s="143"/>
+      <c r="Q87" s="140"/>
+      <c r="R87" s="141"/>
+      <c r="S87" s="142"/>
+      <c r="T87" s="141"/>
       <c r="Y87" s="14"/>
     </row>
     <row r="88" spans="1:25" ht="14.45" customHeight="1">
@@ -5457,7 +5585,7 @@
         <v>22</v>
       </c>
       <c r="B88" s="10"/>
-      <c r="D88" s="134" t="str">
+      <c r="D88" s="132" t="str">
         <f>IF(Q104="","",IF(LEN(Q104)&lt;=135,Q104,IF(LEN(Q104)&lt;=260,LEFT(Q104,SEARCH(" ",Q104,125)),LEFT(Q104,SEARCH(" ",Q104,130)))))</f>
         <v/>
       </c>
@@ -5474,10 +5602,10 @@
       <c r="P88" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="Q88" s="142"/>
-      <c r="R88" s="143"/>
-      <c r="S88" s="144"/>
-      <c r="T88" s="143"/>
+      <c r="Q88" s="140"/>
+      <c r="R88" s="141"/>
+      <c r="S88" s="142"/>
+      <c r="T88" s="141"/>
       <c r="Y88" s="14"/>
     </row>
     <row r="89" spans="1:25" ht="14.45" customHeight="1">
@@ -5485,7 +5613,7 @@
         <v>23</v>
       </c>
       <c r="B89" s="10"/>
-      <c r="D89" s="134" t="str">
+      <c r="D89" s="132" t="str">
         <f>IF(LEN(Q104)&lt;=135,"",IF(LEN(Q104)&lt;=260,RIGHT(Q104,LEN(Q104)-SEARCH(" ",Q104,125)),MID(Q104,SEARCH(" ",Q104,130),IF(LEN(Q104)&lt;=265,LEN(Q104),SEARCH(" ",Q104,255)-SEARCH(" ",Q104,130)))))</f>
         <v/>
       </c>
@@ -5502,10 +5630,10 @@
       <c r="P89" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="Q89" s="145"/>
-      <c r="R89" s="146"/>
-      <c r="S89" s="147"/>
-      <c r="T89" s="146"/>
+      <c r="Q89" s="143"/>
+      <c r="R89" s="144"/>
+      <c r="S89" s="145"/>
+      <c r="T89" s="144"/>
       <c r="Y89" s="14"/>
     </row>
     <row r="90" spans="1:25" ht="14.45" customHeight="1">
@@ -5513,7 +5641,7 @@
         <v>24</v>
       </c>
       <c r="B90" s="10"/>
-      <c r="D90" s="134" t="str">
+      <c r="D90" s="132" t="str">
         <f>IF(LEN(Q104)&lt;=265,"",RIGHT(Q104,LEN(Q104)-SEARCH(" ",Q104,255)))</f>
         <v/>
       </c>
@@ -5530,19 +5658,19 @@
       <c r="P90" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="Q90" s="148" t="str">
+      <c r="Q90" s="146" t="str">
         <f>IF(Q85="","",AVERAGE(Q85:Q89))</f>
         <v/>
       </c>
-      <c r="R90" s="149" t="str">
+      <c r="R90" s="147" t="str">
         <f>IF(R85="","",AVERAGE(R85:R89))</f>
         <v/>
       </c>
-      <c r="S90" s="150" t="str">
+      <c r="S90" s="148" t="str">
         <f>IF(S85="","",AVERAGE(S85:S89))</f>
         <v/>
       </c>
-      <c r="T90" s="149" t="str">
+      <c r="T90" s="147" t="str">
         <f>IF(T85="","",AVERAGE(T85:T89))</f>
         <v/>
       </c>
@@ -5553,7 +5681,7 @@
         <v>25</v>
       </c>
       <c r="B91" s="10"/>
-      <c r="D91" s="134" t="str">
+      <c r="D91" s="132" t="str">
         <f>IF(Q106="","",IF(LEN(Q106)&lt;=135,Q106,IF(LEN(Q106)&lt;=260,LEFT(Q106,SEARCH(" ",Q106,125)),LEFT(Q106,SEARCH(" ",Q106,130)))))</f>
         <v/>
       </c>
@@ -5570,19 +5698,19 @@
       <c r="P91" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="Q91" s="151" t="str">
+      <c r="Q91" s="149" t="str">
         <f>IF(Q85="","",STDEV(Q85:Q89))</f>
         <v/>
       </c>
-      <c r="R91" s="152" t="str">
+      <c r="R91" s="150" t="str">
         <f>IF(R85="","",STDEV(R85:R89))</f>
         <v/>
       </c>
-      <c r="S91" s="153" t="str">
+      <c r="S91" s="151" t="str">
         <f>IF(S85="","",STDEV(S85:S89))</f>
         <v/>
       </c>
-      <c r="T91" s="152" t="str">
+      <c r="T91" s="150" t="str">
         <f>IF(T85="","",STDEV(T85:T89))</f>
         <v/>
       </c>
@@ -5593,7 +5721,7 @@
         <v>26</v>
       </c>
       <c r="B92" s="10"/>
-      <c r="D92" s="134" t="str">
+      <c r="D92" s="132" t="str">
         <f>IF(LEN(Q106)&lt;=135,"",IF(LEN(Q106)&lt;=260,RIGHT(Q106,LEN(Q106)-SEARCH(" ",Q106,125)),MID(Q106,SEARCH(" ",Q106,130),IF(LEN(Q106)&lt;=265,LEN(Q106),SEARCH(" ",Q106,255)-SEARCH(" ",Q106,130)))))</f>
         <v/>
       </c>
@@ -5610,19 +5738,19 @@
       <c r="P92" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="Q92" s="154" t="str">
+      <c r="Q92" s="152" t="str">
         <f>IF(Q85="","",(MAX(Q85:Q89)-MIN(Q85:Q89))/(MIN(Q85:Q89)+MAX(Q85:Q89)))</f>
         <v/>
       </c>
-      <c r="R92" s="155" t="str">
+      <c r="R92" s="153" t="str">
         <f>IF(R85="","",(MAX(R85:R89)-MIN(R85:R89))/(MIN(R85:R89)+MAX(R85:R89)))</f>
         <v/>
       </c>
-      <c r="S92" s="156" t="str">
+      <c r="S92" s="154" t="str">
         <f>IF(S85="","",(MAX(S85:S89)-MIN(S85:S89))/(MIN(S85:S89)+MAX(S85:S89)))</f>
         <v/>
       </c>
-      <c r="T92" s="155" t="str">
+      <c r="T92" s="153" t="str">
         <f>IF(T85="","",(MAX(T85:T89)-MIN(T85:T89))/(MIN(T85:T89)+MAX(T85:T89)))</f>
         <v/>
       </c>
@@ -5639,7 +5767,7 @@
         <v>27</v>
       </c>
       <c r="B93" s="10"/>
-      <c r="D93" s="134" t="str">
+      <c r="D93" s="132" t="str">
         <f>IF(LEN(Q106)&lt;=265,"",RIGHT(Q106,LEN(Q106)-SEARCH(" ",Q106,255)))</f>
         <v/>
       </c>
@@ -5672,7 +5800,7 @@
         <v>28</v>
       </c>
       <c r="B94" s="10"/>
-      <c r="D94" s="134" t="str">
+      <c r="D94" s="132" t="str">
         <f>IF(Q108="","",IF(LEN(Q108)&lt;=135,Q108,IF(LEN(Q108)&lt;=260,LEFT(Q108,SEARCH(" ",Q108,125)),LEFT(Q108,SEARCH(" ",Q108,130)))))</f>
         <v/>
       </c>
@@ -5707,7 +5835,7 @@
         <v>29</v>
       </c>
       <c r="B95" s="10"/>
-      <c r="D95" s="134" t="str">
+      <c r="D95" s="132" t="str">
         <f>IF(LEN(Q108)&lt;=135,"",IF(LEN(Q108)&lt;=260,RIGHT(Q108,LEN(Q108)-SEARCH(" ",Q108,125)),MID(Q108,SEARCH(" ",Q108,130),IF(LEN(Q108)&lt;=265,LEN(Q108),SEARCH(" ",Q108,255)-SEARCH(" ",Q108,130)))))</f>
         <v/>
       </c>
@@ -5739,7 +5867,7 @@
         <v>30</v>
       </c>
       <c r="B96" s="10"/>
-      <c r="D96" s="134" t="str">
+      <c r="D96" s="132" t="str">
         <f>IF(LEN(Q108)&lt;=265,"",RIGHT(Q108,LEN(Q108)-SEARCH(" ",Q108,255)))</f>
         <v/>
       </c>
@@ -5769,7 +5897,7 @@
         <v>31</v>
       </c>
       <c r="B97" s="10"/>
-      <c r="D97" s="134" t="str">
+      <c r="D97" s="132" t="str">
         <f>IF(Q110="","",IF(LEN(Q110)&lt;=135,Q110,IF(LEN(Q110)&lt;=260,LEFT(Q110,SEARCH(" ",Q110,125)),LEFT(Q110,SEARCH(" ",Q110,130)))))</f>
         <v/>
       </c>
@@ -5788,7 +5916,7 @@
         <v>32</v>
       </c>
       <c r="B98" s="10"/>
-      <c r="D98" s="134" t="str">
+      <c r="D98" s="132" t="str">
         <f>IF(LEN(Q110)&lt;=135,"",IF(LEN(Q110)&lt;=260,RIGHT(Q110,LEN(Q110)-SEARCH(" ",Q110,125)),MID(Q110,SEARCH(" ",Q110,130),IF(LEN(Q110)&lt;=265,LEN(Q110),SEARCH(" ",Q110,255)-SEARCH(" ",Q110,130)))))</f>
         <v/>
       </c>
@@ -5801,7 +5929,7 @@
       <c r="K98" s="77"/>
       <c r="L98" s="77"/>
       <c r="M98" s="12"/>
-      <c r="T98" s="157" t="s">
+      <c r="T98" s="155" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5810,7 +5938,7 @@
         <v>33</v>
       </c>
       <c r="B99" s="10"/>
-      <c r="D99" s="134" t="str">
+      <c r="D99" s="132" t="str">
         <f>IF(LEN(Q110)&lt;=265,"",RIGHT(Q110,LEN(Q110)-SEARCH(" ",Q110,255)))</f>
         <v/>
       </c>
@@ -5827,7 +5955,7 @@
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="158" t="s">
+      <c r="S99" s="156" t="s">
         <v>134</v>
       </c>
       <c r="T99" s="7"/>
@@ -5842,7 +5970,7 @@
         <v>34</v>
       </c>
       <c r="B100" s="10"/>
-      <c r="D100" s="134" t="str">
+      <c r="D100" s="132" t="str">
         <f>IF(Q112="","",IF(LEN(Q112)&lt;=135,Q112,IF(LEN(Q112)&lt;=260,LEFT(Q112,SEARCH(" ",Q112,125)),LEFT(Q112,SEARCH(" ",Q112,130)))))</f>
         <v/>
       </c>
@@ -5859,9 +5987,9 @@
       <c r="P100" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="Q100" s="159"/>
-      <c r="R100" s="160"/>
-      <c r="S100" s="161" t="str">
+      <c r="Q100" s="157"/>
+      <c r="R100" s="158"/>
+      <c r="S100" s="159" t="str">
         <f>IF(AB51="","",AB51)</f>
         <v/>
       </c>
@@ -5875,7 +6003,7 @@
         <v>35</v>
       </c>
       <c r="B101" s="10"/>
-      <c r="D101" s="134" t="str">
+      <c r="D101" s="132" t="str">
         <f>IF(LEN(Q112)&lt;=135,"",IF(LEN(Q112)&lt;=260,RIGHT(Q112,LEN(Q112)-SEARCH(" ",Q112,125)),MID(Q112,SEARCH(" ",Q112,130),IF(LEN(Q112)&lt;=265,LEN(Q112),SEARCH(" ",Q112,255)-SEARCH(" ",Q112,130)))))</f>
         <v/>
       </c>
@@ -5893,13 +6021,13 @@
         <v>66</v>
       </c>
       <c r="Q101" s="94"/>
-      <c r="R101" s="162">
+      <c r="R101" s="160">
         <f>LEN(Q100)</f>
         <v>0</v>
       </c>
       <c r="S101" s="77"/>
       <c r="T101" s="77"/>
-      <c r="U101" s="163"/>
+      <c r="U101" s="161"/>
       <c r="V101" s="77"/>
       <c r="W101" s="77"/>
       <c r="X101" s="77"/>
@@ -5910,7 +6038,7 @@
         <v>36</v>
       </c>
       <c r="B102" s="10"/>
-      <c r="D102" s="134" t="str">
+      <c r="D102" s="132" t="str">
         <f>IF(LEN(Q112)&lt;=265,"",RIGHT(Q112,LEN(Q112)-SEARCH(" ",Q112,255)))</f>
         <v/>
       </c>
@@ -5927,9 +6055,9 @@
       <c r="P102" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q102" s="159"/>
-      <c r="R102" s="160"/>
-      <c r="S102" s="161" t="str">
+      <c r="Q102" s="157"/>
+      <c r="R102" s="158"/>
+      <c r="S102" s="159" t="str">
         <f>IF(AB53="","",AB53)</f>
         <v/>
       </c>
@@ -5943,7 +6071,7 @@
         <v>37</v>
       </c>
       <c r="B103" s="10"/>
-      <c r="D103" s="134" t="str">
+      <c r="D103" s="132" t="str">
         <f>IF(Q114="","",IF(LEN(Q114)&lt;=135,Q114,IF(LEN(Q114)&lt;=260,LEFT(Q114,SEARCH(" ",Q114,125)),LEFT(Q114,SEARCH(" ",Q114,130)))))</f>
         <v/>
       </c>
@@ -5961,13 +6089,13 @@
         <v>66</v>
       </c>
       <c r="Q103" s="94"/>
-      <c r="R103" s="162">
+      <c r="R103" s="160">
         <f>LEN(Q102)</f>
         <v>0</v>
       </c>
       <c r="S103" s="77"/>
       <c r="T103" s="77"/>
-      <c r="U103" s="163"/>
+      <c r="U103" s="161"/>
       <c r="V103" s="77"/>
       <c r="W103" s="77"/>
       <c r="X103" s="77"/>
@@ -5978,7 +6106,7 @@
         <v>38</v>
       </c>
       <c r="B104" s="10"/>
-      <c r="D104" s="134" t="str">
+      <c r="D104" s="132" t="str">
         <f>IF(LEN(Q114)&lt;=135,"",IF(LEN(Q114)&lt;=260,RIGHT(Q114,LEN(Q114)-SEARCH(" ",Q114,125)),MID(Q114,SEARCH(" ",Q114,130),IF(LEN(Q114)&lt;=265,LEN(Q114),SEARCH(" ",Q114,255)-SEARCH(" ",Q114,130)))))</f>
         <v/>
       </c>
@@ -5995,9 +6123,9 @@
       <c r="P104" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q104" s="159"/>
-      <c r="R104" s="160"/>
-      <c r="S104" s="161" t="str">
+      <c r="Q104" s="157"/>
+      <c r="R104" s="158"/>
+      <c r="S104" s="159" t="str">
         <f>IF(AB55="","",AB55)</f>
         <v/>
       </c>
@@ -6011,7 +6139,7 @@
         <v>39</v>
       </c>
       <c r="B105" s="10"/>
-      <c r="D105" s="134" t="str">
+      <c r="D105" s="132" t="str">
         <f>IF(LEN(Q114)&lt;=265,"",RIGHT(Q114,LEN(Q114)-SEARCH(" ",Q114,255)))</f>
         <v/>
       </c>
@@ -6029,13 +6157,13 @@
         <v>66</v>
       </c>
       <c r="Q105" s="94"/>
-      <c r="R105" s="162">
+      <c r="R105" s="160">
         <f>LEN(Q104)</f>
         <v>0</v>
       </c>
       <c r="S105" s="77"/>
       <c r="T105" s="77"/>
-      <c r="U105" s="163"/>
+      <c r="U105" s="161"/>
       <c r="V105" s="77"/>
       <c r="W105" s="77"/>
       <c r="X105" s="77"/>
@@ -6046,7 +6174,7 @@
         <v>40</v>
       </c>
       <c r="B106" s="10"/>
-      <c r="D106" s="134" t="str">
+      <c r="D106" s="132" t="str">
         <f>IF(Q116="","",IF(LEN(Q116)&lt;=135,Q116,IF(LEN(Q116)&lt;=260,LEFT(Q116,SEARCH(" ",Q116,125)),LEFT(Q116,SEARCH(" ",Q116,130)))))</f>
         <v/>
       </c>
@@ -6063,9 +6191,9 @@
       <c r="P106" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q106" s="159"/>
-      <c r="R106" s="160"/>
-      <c r="S106" s="161" t="str">
+      <c r="Q106" s="157"/>
+      <c r="R106" s="158"/>
+      <c r="S106" s="159" t="str">
         <f>IF(AB57="","",AB57)</f>
         <v/>
       </c>
@@ -6079,7 +6207,7 @@
         <v>41</v>
       </c>
       <c r="B107" s="10"/>
-      <c r="D107" s="134" t="str">
+      <c r="D107" s="132" t="str">
         <f>IF(LEN(Q116)&lt;=135,"",IF(LEN(Q116)&lt;=260,RIGHT(Q116,LEN(Q116)-SEARCH(" ",Q116,125)),MID(Q116,SEARCH(" ",Q116,130),IF(LEN(Q116)&lt;=265,LEN(Q116),SEARCH(" ",Q116,255)-SEARCH(" ",Q116,130)))))</f>
         <v/>
       </c>
@@ -6097,13 +6225,13 @@
         <v>66</v>
       </c>
       <c r="Q107" s="94"/>
-      <c r="R107" s="162">
+      <c r="R107" s="160">
         <f>LEN(Q106)</f>
         <v>0</v>
       </c>
       <c r="S107" s="77"/>
       <c r="T107" s="77"/>
-      <c r="U107" s="163"/>
+      <c r="U107" s="161"/>
       <c r="V107" s="77"/>
       <c r="W107" s="77"/>
       <c r="X107" s="77"/>
@@ -6114,7 +6242,7 @@
         <v>42</v>
       </c>
       <c r="B108" s="10"/>
-      <c r="D108" s="134" t="str">
+      <c r="D108" s="132" t="str">
         <f>IF(LEN(Q116)&lt;=265,"",RIGHT(Q116,LEN(Q116)-SEARCH(" ",Q116,255)))</f>
         <v/>
       </c>
@@ -6131,9 +6259,9 @@
       <c r="P108" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q108" s="159"/>
-      <c r="R108" s="160"/>
-      <c r="S108" s="161" t="str">
+      <c r="Q108" s="157"/>
+      <c r="R108" s="158"/>
+      <c r="S108" s="159" t="str">
         <f>IF(AB59="","",AB59)</f>
         <v/>
       </c>
@@ -6147,7 +6275,7 @@
         <v>43</v>
       </c>
       <c r="B109" s="10"/>
-      <c r="D109" s="134" t="str">
+      <c r="D109" s="132" t="str">
         <f>IF(Q118="","",IF(LEN(Q118)&lt;=135,Q118,IF(LEN(Q118)&lt;=260,LEFT(Q118,SEARCH(" ",Q118,125)),LEFT(Q118,SEARCH(" ",Q118,130)))))</f>
         <v/>
       </c>
@@ -6165,13 +6293,13 @@
         <v>66</v>
       </c>
       <c r="Q109" s="94"/>
-      <c r="R109" s="162">
+      <c r="R109" s="160">
         <f>LEN(Q108)</f>
         <v>0</v>
       </c>
       <c r="S109" s="77"/>
       <c r="T109" s="77"/>
-      <c r="U109" s="163"/>
+      <c r="U109" s="161"/>
       <c r="V109" s="77"/>
       <c r="W109" s="77"/>
       <c r="X109" s="77"/>
@@ -6182,7 +6310,7 @@
         <v>44</v>
       </c>
       <c r="B110" s="10"/>
-      <c r="D110" s="134" t="str">
+      <c r="D110" s="132" t="str">
         <f>IF(LEN(Q118)&lt;=135,"",IF(LEN(Q118)&lt;=260,RIGHT(Q118,LEN(Q118)-SEARCH(" ",Q118,125)),MID(Q118,SEARCH(" ",Q118,130),IF(LEN(Q118)&lt;=265,LEN(Q118),SEARCH(" ",Q118,255)-SEARCH(" ",Q118,130)))))</f>
         <v/>
       </c>
@@ -6199,9 +6327,9 @@
       <c r="P110" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q110" s="159"/>
-      <c r="R110" s="160"/>
-      <c r="S110" s="161" t="str">
+      <c r="Q110" s="157"/>
+      <c r="R110" s="158"/>
+      <c r="S110" s="159" t="str">
         <f>IF(AB61="","",AB61)</f>
         <v/>
       </c>
@@ -6215,7 +6343,7 @@
         <v>45</v>
       </c>
       <c r="B111" s="10"/>
-      <c r="D111" s="134" t="str">
+      <c r="D111" s="132" t="str">
         <f>IF(LEN(Q118)&lt;=265,"",RIGHT(Q118,LEN(Q118)-SEARCH(" ",Q118,255)))</f>
         <v/>
       </c>
@@ -6233,7 +6361,7 @@
         <v>66</v>
       </c>
       <c r="Q111" s="94"/>
-      <c r="R111" s="162">
+      <c r="R111" s="160">
         <f>LEN(Q110)</f>
         <v>0</v>
       </c>
@@ -6250,7 +6378,7 @@
         <v>46</v>
       </c>
       <c r="B112" s="10"/>
-      <c r="D112" s="134" t="str">
+      <c r="D112" s="132" t="str">
         <f>IF(Q120="","",IF(LEN(Q120)&lt;=135,Q120,IF(LEN(Q120)&lt;=260,LEFT(Q120,SEARCH(" ",Q120,125)),LEFT(Q120,SEARCH(" ",Q120,130)))))</f>
         <v/>
       </c>
@@ -6267,9 +6395,9 @@
       <c r="P112" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q112" s="159"/>
-      <c r="R112" s="160"/>
-      <c r="S112" s="161" t="str">
+      <c r="Q112" s="157"/>
+      <c r="R112" s="158"/>
+      <c r="S112" s="159" t="str">
         <f>IF(AB63="","",AB63)</f>
         <v/>
       </c>
@@ -6283,7 +6411,7 @@
         <v>47</v>
       </c>
       <c r="B113" s="10"/>
-      <c r="D113" s="134" t="str">
+      <c r="D113" s="132" t="str">
         <f>IF(LEN(Q120)&lt;=135,"",IF(LEN(Q120)&lt;=260,RIGHT(Q120,LEN(Q120)-SEARCH(" ",Q120,125)),MID(Q120,SEARCH(" ",Q120,130),IF(LEN(Q120)&lt;=265,LEN(Q120),SEARCH(" ",Q120,255)-SEARCH(" ",Q120,130)))))</f>
         <v/>
       </c>
@@ -6301,7 +6429,7 @@
         <v>66</v>
       </c>
       <c r="Q113" s="94"/>
-      <c r="R113" s="162">
+      <c r="R113" s="160">
         <f>LEN(Q112)</f>
         <v>0</v>
       </c>
@@ -6318,7 +6446,7 @@
         <v>48</v>
       </c>
       <c r="B114" s="10"/>
-      <c r="D114" s="134" t="str">
+      <c r="D114" s="132" t="str">
         <f>IF(LEN(Q120)&lt;=265,"",RIGHT(Q120,LEN(Q120)-SEARCH(" ",Q120,255)))</f>
         <v/>
       </c>
@@ -6335,9 +6463,9 @@
       <c r="P114" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q114" s="159"/>
-      <c r="R114" s="160"/>
-      <c r="S114" s="161" t="str">
+      <c r="Q114" s="157"/>
+      <c r="R114" s="158"/>
+      <c r="S114" s="159" t="str">
         <f>IF(AB65="","",AB65)</f>
         <v/>
       </c>
@@ -6357,7 +6485,7 @@
         <v>66</v>
       </c>
       <c r="Q115" s="94"/>
-      <c r="R115" s="162">
+      <c r="R115" s="160">
         <f>LEN(Q114)</f>
         <v>0</v>
       </c>
@@ -6379,9 +6507,9 @@
       <c r="P116" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q116" s="159"/>
-      <c r="R116" s="160"/>
-      <c r="S116" s="161" t="str">
+      <c r="Q116" s="157"/>
+      <c r="R116" s="158"/>
+      <c r="S116" s="159" t="str">
         <f>IF(AB67="","",AB67)</f>
         <v/>
       </c>
@@ -6401,7 +6529,7 @@
         <v>66</v>
       </c>
       <c r="Q117" s="94"/>
-      <c r="R117" s="162">
+      <c r="R117" s="160">
         <f>LEN(Q116)</f>
         <v>0</v>
       </c>
@@ -6423,9 +6551,9 @@
       <c r="P118" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q118" s="159"/>
-      <c r="R118" s="160"/>
-      <c r="S118" s="161" t="str">
+      <c r="Q118" s="157"/>
+      <c r="R118" s="158"/>
+      <c r="S118" s="159" t="str">
         <f>IF(AB69="","",AB69)</f>
         <v/>
       </c>
@@ -6445,7 +6573,7 @@
         <v>66</v>
       </c>
       <c r="Q119" s="94"/>
-      <c r="R119" s="162">
+      <c r="R119" s="160">
         <f>LEN(Q118)</f>
         <v>0</v>
       </c>
@@ -6467,9 +6595,9 @@
       <c r="P120" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q120" s="159"/>
-      <c r="R120" s="160"/>
-      <c r="S120" s="161" t="str">
+      <c r="Q120" s="157"/>
+      <c r="R120" s="158"/>
+      <c r="S120" s="159" t="str">
         <f>IF(AB71="","",AB71)</f>
         <v/>
       </c>
@@ -6489,7 +6617,7 @@
         <v>66</v>
       </c>
       <c r="Q121" s="94"/>
-      <c r="R121" s="162">
+      <c r="R121" s="160">
         <f>LEN(Q120)</f>
         <v>0</v>
       </c>
@@ -6592,14 +6720,14 @@
       <c r="C131" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D131" s="193" t="str">
+      <c r="D131" s="163" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
       <c r="L131" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M131" s="118" t="str">
+      <c r="M131" s="116" t="str">
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
@@ -6611,58 +6739,20 @@
       <c r="C132" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D132" s="119" t="str">
+      <c r="D132" s="117" t="str">
         <f>IF($J$12="","",$J$12)</f>
         <v/>
       </c>
       <c r="L132" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="M132" s="120" t="str">
+      <c r="M132" s="118" t="str">
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="S70:S71"/>
-    <mergeCell ref="V70:V71"/>
-    <mergeCell ref="W70:W71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="S72:S73"/>
     <mergeCell ref="Q83:R83"/>
     <mergeCell ref="S83:T83"/>
     <mergeCell ref="V72:V73"/>
@@ -6672,6 +6762,44 @@
     <mergeCell ref="S74:S75"/>
     <mergeCell ref="V74:V75"/>
     <mergeCell ref="W74:W75"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="S72:S73"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="S70:S71"/>
+    <mergeCell ref="V70:V71"/>
+    <mergeCell ref="W70:W71"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <conditionalFormatting sqref="I72:I74">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
@@ -6690,35 +6818,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:G58 F42:G42">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D76:G76">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"PASS"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:G75 Q92:T92">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E23">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.92638888888888904" header="0.51180555555555496" footer="0.78749999999999998"/>

--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="145">
   <si>
     <t>Print Area</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Enter 1 for YES, 2 for NO, 3 for NA</t>
   </si>
   <si>
-    <t>Corrective Actions &amp; Comments</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -437,9 +434,6 @@
     <t>Additional Comments:</t>
   </si>
   <si>
-    <t>Revision 1.3-20190606</t>
-  </si>
-  <si>
     <t>Meter:</t>
   </si>
   <si>
@@ -453,6 +447,21 @@
   </si>
   <si>
     <t>Test Equipment</t>
+  </si>
+  <si>
+    <t>Monitor surface is clean:</t>
+  </si>
+  <si>
+    <t>Viewing conditions:</t>
+  </si>
+  <si>
+    <t>TG18-QC test pattern:</t>
+  </si>
+  <si>
+    <t>Rapid Frame acceptable:</t>
+  </si>
+  <si>
+    <t>Revision 1.4-20200130</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1238,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1486,9 +1495,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1732,32 +1738,53 @@
     <xf numFmtId="2" fontId="3" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="171" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1765,20 +1792,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1792,50 +1810,47 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2314,14 +2329,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="2.5703125" style="1" customWidth="1"/>
-    <col min="3" max="13" width="11.5703125" style="1"/>
+    <col min="3" max="11" width="11.5703125" style="1"/>
+    <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="1"/>
     <col min="14" max="14" width="2.5703125" style="1" customWidth="1"/>
     <col min="15" max="36" width="11.5703125" style="1"/>
   </cols>
@@ -2343,7 +2360,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="5"/>
       <c r="O1" s="6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
@@ -2358,12 +2375,12 @@
       <c r="AA1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="168" t="s">
+      <c r="AG1" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="168"/>
+      <c r="AH1" s="200"/>
+      <c r="AI1" s="200"/>
+      <c r="AJ1" s="200"/>
     </row>
     <row r="2" spans="1:36" ht="14.45" customHeight="1">
       <c r="A2" s="2">
@@ -2380,14 +2397,14 @@
       </c>
       <c r="Y2" s="14"/>
       <c r="AA2" s="15"/>
-      <c r="AG2" s="169" t="s">
+      <c r="AG2" s="201" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="170" t="s">
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="170"/>
+      <c r="AJ2" s="202"/>
     </row>
     <row r="3" spans="1:36" ht="14.45" customHeight="1">
       <c r="A3" s="2">
@@ -2536,7 +2553,7 @@
       <c r="O7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="162"/>
+      <c r="P7" s="161"/>
       <c r="Q7" s="31"/>
       <c r="W7" s="1" t="s">
         <v>21</v>
@@ -2597,7 +2614,7 @@
       <c r="O8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="164" t="str">
+      <c r="P8" s="163" t="str">
         <f>IF(AB8="","",AB8)</f>
         <v/>
       </c>
@@ -2677,19 +2694,19 @@
       <c r="D10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="171" t="str">
+      <c r="E10" s="203" t="str">
         <f t="shared" ref="E10:E15" si="1">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="F10" s="171"/>
+      <c r="F10" s="203"/>
       <c r="I10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="171" t="str">
+      <c r="J10" s="203" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="K10" s="171"/>
+      <c r="K10" s="203"/>
       <c r="M10" s="12"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="21" t="s">
@@ -2730,19 +2747,19 @@
       <c r="D11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="172" t="str">
+      <c r="E11" s="197" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="172"/>
+      <c r="F11" s="197"/>
       <c r="I11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="173" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="K11" s="173"/>
+      <c r="K11" s="199"/>
       <c r="M11" s="12"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="21" t="s">
@@ -2783,19 +2800,19 @@
       <c r="D12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="172" t="str">
+      <c r="E12" s="197" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="172"/>
+      <c r="F12" s="197"/>
       <c r="I12" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="172" t="str">
+      <c r="J12" s="197" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="K12" s="172"/>
+      <c r="K12" s="197"/>
       <c r="M12" s="12"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="21" t="s">
@@ -2836,19 +2853,19 @@
       <c r="D13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="172" t="str">
+      <c r="E13" s="197" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="172"/>
+      <c r="F13" s="197"/>
       <c r="I13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="172" t="str">
+      <c r="J13" s="197" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="K13" s="172"/>
+      <c r="K13" s="197"/>
       <c r="M13" s="12"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="21" t="s">
@@ -2889,19 +2906,19 @@
       <c r="D14" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="172" t="str">
+      <c r="E14" s="197" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="172"/>
+      <c r="F14" s="197"/>
       <c r="I14" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="172" t="str">
+      <c r="J14" s="197" t="str">
         <f>IF(V14="","",V14)</f>
         <v/>
       </c>
-      <c r="K14" s="172"/>
+      <c r="K14" s="197"/>
       <c r="M14" s="12"/>
       <c r="O14" s="13"/>
       <c r="Q14" s="21" t="s">
@@ -2942,11 +2959,11 @@
       <c r="D15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="172" t="str">
+      <c r="E15" s="197" t="str">
         <f t="shared" si="1"/>
         <v>IMPAX 4.2 2015</v>
       </c>
-      <c r="F15" s="172"/>
+      <c r="F15" s="197"/>
       <c r="M15" s="12"/>
       <c r="O15" s="26"/>
       <c r="P15" s="27"/>
@@ -3034,7 +3051,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="14.45" customHeight="1">
+    <row r="18" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -3069,7 +3086,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="14.45" customHeight="1">
+    <row r="19" spans="1:30" ht="14.45" customHeight="1" thickTop="1">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -3077,23 +3094,25 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="174" t="s">
+      <c r="F19" s="204"/>
+      <c r="G19" s="204" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="174"/>
-      <c r="K19" s="174"/>
-      <c r="L19" s="174"/>
+      <c r="H19" s="204"/>
+      <c r="I19" s="204"/>
+      <c r="J19" s="204"/>
+      <c r="K19" s="198" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" s="198"/>
       <c r="M19" s="5"/>
       <c r="O19" s="13"/>
       <c r="R19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S19" s="40"/>
       <c r="V19" s="40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="W19" s="40"/>
       <c r="X19" s="40"/>
@@ -3117,7 +3136,7 @@
       </c>
       <c r="B20" s="10"/>
       <c r="D20" s="52" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="E20" s="53" t="str">
         <f>IF(O20="","",IF(O20=1,"YES",IF(O20=2,"NO",IF(O20=3,"NA",""))))</f>
@@ -3127,28 +3146,36 @@
         <f>IF(R20="","",R20)</f>
         <v/>
       </c>
-      <c r="G20" s="40"/>
+      <c r="G20" s="40" t="str">
+        <f>IF(R20="","",R20)</f>
+        <v/>
+      </c>
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
+      <c r="K20" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="167" t="str">
+        <f>IF(W20="","",W20)</f>
+        <v>Radcal 9010</v>
+      </c>
       <c r="M20" s="12"/>
       <c r="O20" s="75"/>
       <c r="P20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R20" s="76"/>
       <c r="S20" s="40"/>
       <c r="V20" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="W20" s="197" t="str">
+        <v>135</v>
+      </c>
+      <c r="W20" s="169" t="str">
         <f>IF(X20&lt;&gt;"",X20,IF(AB23="","",AB23))</f>
         <v>Radcal 9010</v>
       </c>
-      <c r="X20" s="198" t="s">
-        <v>140</v>
+      <c r="X20" s="170" t="s">
+        <v>138</v>
       </c>
       <c r="Y20" s="14"/>
       <c r="AA20" s="21" t="s">
@@ -3170,7 +3197,7 @@
       </c>
       <c r="B21" s="10"/>
       <c r="D21" s="52" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="E21" s="56" t="str">
         <f>IF(O21="","",IF(O21=1,"YES",IF(O21=2,"NO",IF(O21=3,"NA",""))))</f>
@@ -3180,27 +3207,35 @@
         <f>IF(R21="","",R21)</f>
         <v/>
       </c>
-      <c r="G21" s="40"/>
+      <c r="G21" s="40" t="str">
+        <f t="shared" ref="G21:G23" si="4">IF(R21="","",R21)</f>
+        <v/>
+      </c>
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
+      <c r="K21" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="L21" s="168">
+        <f t="shared" ref="L21:L22" si="5">IF(W21="","",W21)</f>
+        <v>43670</v>
+      </c>
       <c r="M21" s="12"/>
       <c r="O21" s="75"/>
       <c r="P21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R21" s="76"/>
       <c r="S21" s="40"/>
       <c r="V21" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="W21" s="202">
-        <f t="shared" ref="W21:W22" si="4">IF(X21&lt;&gt;"",X21,IF(AB24="","",AB24))</f>
+        <v>137</v>
+      </c>
+      <c r="W21" s="174">
+        <f t="shared" ref="W21:W22" si="6">IF(X21&lt;&gt;"",X21,IF(AB24="","",AB24))</f>
         <v>43670</v>
       </c>
-      <c r="X21" s="199">
+      <c r="X21" s="171">
         <v>43670</v>
       </c>
       <c r="Y21" s="14"/>
@@ -3214,7 +3249,7 @@
       </c>
       <c r="B22" s="10"/>
       <c r="D22" s="52" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="E22" s="56" t="str">
         <f>IF(O22="","",IF(O22=1,"YES",IF(O22=2,"NO",IF(O22=3,"NA",""))))</f>
@@ -3224,32 +3259,40 @@
         <f>IF(R22="","",R22)</f>
         <v/>
       </c>
-      <c r="G22" s="40"/>
+      <c r="G22" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
+      <c r="K22" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="L22" s="168">
+        <f t="shared" si="5"/>
+        <v>44036</v>
+      </c>
       <c r="M22" s="12"/>
       <c r="O22" s="75"/>
       <c r="P22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R22" s="76"/>
       <c r="S22" s="40"/>
       <c r="V22" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="W22" s="202">
-        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="W22" s="174">
+        <f t="shared" si="6"/>
         <v>44036</v>
       </c>
-      <c r="X22" s="199">
+      <c r="X22" s="171">
         <v>44036</v>
       </c>
       <c r="Y22" s="14"/>
       <c r="AA22" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.45" customHeight="1">
@@ -3258,7 +3301,7 @@
       </c>
       <c r="B23" s="10"/>
       <c r="D23" s="52" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="E23" s="56" t="str">
         <f>IF(O23="","",IF(O23=1,"YES",IF(O23=2,"NO",IF(O23=3,"NA",""))))</f>
@@ -3268,7 +3311,10 @@
         <f>IF(R23="","",R23)</f>
         <v/>
       </c>
-      <c r="G23" s="40"/>
+      <c r="G23" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
@@ -3277,7 +3323,7 @@
       <c r="M23" s="12"/>
       <c r="O23" s="75"/>
       <c r="P23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R23" s="76"/>
       <c r="S23" s="40"/>
@@ -3288,11 +3334,11 @@
       <c r="X23" s="40"/>
       <c r="Y23" s="14"/>
       <c r="AA23" s="66" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AB23" s="34"/>
       <c r="AC23" s="35" t="str">
-        <f t="shared" ref="AC23:AC25" si="5">IF(AB23&lt;&gt;AD23,"Change","")</f>
+        <f t="shared" ref="AC23:AC25" si="7">IF(AB23&lt;&gt;AD23,"Change","")</f>
         <v>Change</v>
       </c>
       <c r="AD23" s="73" t="str">
@@ -3306,13 +3352,13 @@
       </c>
       <c r="B24" s="10"/>
       <c r="D24" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="175" t="str">
+        <v>87</v>
+      </c>
+      <c r="E24" s="195" t="str">
         <f>IF(P51="","",P51)</f>
         <v/>
       </c>
-      <c r="F24" s="175"/>
+      <c r="F24" s="195"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -3323,15 +3369,15 @@
       <c r="O24" s="13"/>
       <c r="Y24" s="14"/>
       <c r="AA24" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB24" s="201"/>
+        <v>137</v>
+      </c>
+      <c r="AB24" s="173"/>
       <c r="AC24" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Change</v>
       </c>
-      <c r="AD24" s="200">
-        <f t="shared" ref="AD24:AD25" si="6">IF(X21="","",X21)</f>
+      <c r="AD24" s="172">
+        <f t="shared" ref="AD24:AD25" si="8">IF(X21="","",X21)</f>
         <v>43670</v>
       </c>
     </row>
@@ -3342,25 +3388,25 @@
       <c r="B25" s="10"/>
       <c r="M25" s="12"/>
       <c r="O25" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="U25" s="21" t="s">
         <v>54</v>
-      </c>
-      <c r="U25" s="21" t="s">
-        <v>55</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Y25" s="14"/>
       <c r="AA25" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB25" s="201"/>
+        <v>136</v>
+      </c>
+      <c r="AB25" s="173"/>
       <c r="AC25" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Change</v>
       </c>
-      <c r="AD25" s="200">
-        <f t="shared" si="6"/>
+      <c r="AD25" s="172">
+        <f t="shared" si="8"/>
         <v>44036</v>
       </c>
     </row>
@@ -3370,15 +3416,15 @@
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M26" s="12"/>
       <c r="O26" s="84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P26" s="85"/>
       <c r="Q26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y26" s="14"/>
     </row>
@@ -3388,45 +3434,45 @@
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="167" t="str">
+        <f>IF(P26="","",P26)</f>
+        <v/>
+      </c>
+      <c r="E27" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="86" t="str">
-        <f>IF(P26="","",P26)</f>
-        <v/>
-      </c>
-      <c r="E27" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="29" t="s">
+      <c r="H27" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="M27" s="12"/>
       <c r="O27" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="88" t="str">
+        <v>61</v>
+      </c>
+      <c r="P27" s="87" t="str">
         <f>IF(AB27="","",AB27)</f>
         <v/>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R27" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="Y27" s="14"/>
       <c r="AA27" s="66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB27" s="34"/>
       <c r="AC27" s="35" t="str">
-        <f t="shared" ref="AC27:AC33" si="7">IF(AB27&lt;&gt;AD27,"Change","")</f>
+        <f t="shared" ref="AC27:AC33" si="9">IF(AB27&lt;&gt;AD27,"Change","")</f>
         <v/>
       </c>
       <c r="AD27" s="73" t="str">
@@ -3440,9 +3486,9 @@
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="89" t="str">
+        <v>63</v>
+      </c>
+      <c r="D28" s="88" t="str">
         <f>IF(Q28="","",IF(LEN(Q28)&lt;=135,Q28,IF(LEN(Q28)&lt;=260,LEFT(Q28,SEARCH(" ",Q28,125)),LEFT(Q28,SEARCH(" ",Q28,130)))))</f>
         <v/>
       </c>
@@ -3457,24 +3503,24 @@
       <c r="M28" s="12"/>
       <c r="O28" s="13"/>
       <c r="P28" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q28" s="90" t="str">
+        <v>63</v>
+      </c>
+      <c r="Q28" s="89" t="str">
         <f>IF(Q30&lt;&gt;"",Q30,IF(AB43="","",AB43))</f>
         <v/>
       </c>
-      <c r="R28" s="91"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="91"/>
-      <c r="U28" s="91"/>
-      <c r="X28" s="91"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="X28" s="90"/>
       <c r="Y28" s="14"/>
       <c r="AA28" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB28" s="34"/>
       <c r="AC28" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AD28" s="79" t="str">
@@ -3487,7 +3533,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="10"/>
-      <c r="D29" s="92" t="str">
+      <c r="D29" s="91" t="str">
         <f>IF(LEN(Q28)&lt;=135,"",IF(LEN(Q28)&lt;=260,RIGHT(Q28,LEN(Q28)-SEARCH(" ",Q28,125)),MID(Q28,SEARCH(" ",Q28,130),IF(LEN(Q28)&lt;=265,LEN(Q28),SEARCH(" ",Q28,255)-SEARCH(" ",Q28,130)))))</f>
         <v/>
       </c>
@@ -3501,11 +3547,11 @@
       <c r="L29" s="78"/>
       <c r="M29" s="12"/>
       <c r="O29" s="13"/>
-      <c r="P29" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="95">
+      <c r="P29" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="94">
         <f>LEN(Q28)</f>
         <v>0</v>
       </c>
@@ -3517,11 +3563,11 @@
       <c r="X29" s="77"/>
       <c r="Y29" s="14"/>
       <c r="AA29" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB29" s="34"/>
       <c r="AC29" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AD29" s="79" t="str">
@@ -3534,7 +3580,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="D30" s="92" t="str">
+      <c r="D30" s="91" t="str">
         <f>IF(LEN(Q28)&lt;=265,"",RIGHT(Q28,LEN(Q28)-SEARCH(" ",Q28,255)))</f>
         <v/>
       </c>
@@ -3549,7 +3595,7 @@
       <c r="M30" s="12"/>
       <c r="O30" s="13"/>
       <c r="P30" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q30" s="76"/>
       <c r="R30" s="77"/>
@@ -3561,11 +3607,11 @@
       <c r="X30" s="77"/>
       <c r="Y30" s="14"/>
       <c r="AA30" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB30" s="81"/>
       <c r="AC30" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AD30" s="82" t="str">
@@ -3582,11 +3628,11 @@
       <c r="O31" s="13"/>
       <c r="Y31" s="14"/>
       <c r="AA31" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB31" s="81"/>
       <c r="AC31" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AD31" s="82" t="str">
@@ -3600,25 +3646,25 @@
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M32" s="12"/>
       <c r="O32" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="U32" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="V32" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="U32" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="Y32" s="14"/>
       <c r="AA32" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB32" s="81"/>
       <c r="AC32" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AD32" s="82" t="str">
@@ -3631,32 +3677,32 @@
         <v>33</v>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="175" t="str">
+      <c r="D33" s="195" t="str">
         <f>IF(P33="","",P33)</f>
         <v/>
       </c>
-      <c r="E33" s="175"/>
-      <c r="F33" s="87" t="s">
+      <c r="E33" s="195"/>
+      <c r="F33" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="87" t="s">
+      <c r="H33" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="H33" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="97"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
       <c r="M33" s="12"/>
       <c r="O33" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="P33" s="162"/>
+      <c r="P33" s="161"/>
       <c r="R33" s="20" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
         <v>Left ()</v>
@@ -3667,11 +3713,11 @@
       </c>
       <c r="Y33" s="14"/>
       <c r="AA33" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB33" s="81"/>
       <c r="AC33" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AD33" s="82" t="str">
@@ -3684,38 +3730,38 @@
         <v>34</v>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="52" t="str">
         <f>R33</f>
         <v>Left ()</v>
       </c>
-      <c r="F34" s="98" t="str">
+      <c r="F34" s="97" t="str">
         <f>IF(R34="","",R34)</f>
         <v/>
       </c>
-      <c r="G34" s="98" t="str">
+      <c r="G34" s="97" t="str">
         <f>IF(R35="","",R35)</f>
         <v/>
       </c>
-      <c r="H34" s="99" t="str">
+      <c r="H34" s="98" t="str">
         <f>IF(R36="","",R36)</f>
         <v/>
       </c>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
       <c r="M34" s="12"/>
       <c r="O34" s="13"/>
-      <c r="Q34" s="100" t="s">
-        <v>78</v>
-      </c>
-      <c r="R34" s="166"/>
-      <c r="S34" s="166"/>
+      <c r="Q34" s="99" t="s">
+        <v>77</v>
+      </c>
+      <c r="R34" s="165"/>
+      <c r="S34" s="165"/>
       <c r="Y34" s="14"/>
       <c r="AA34" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB34" s="20"/>
       <c r="AC34" s="20"/>
@@ -3726,38 +3772,38 @@
         <v>35</v>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
       <c r="E35" s="52" t="str">
         <f>S33</f>
         <v>Right ()</v>
       </c>
-      <c r="F35" s="98" t="str">
+      <c r="F35" s="97" t="str">
         <f>IF(S34="","",S34)</f>
         <v/>
       </c>
-      <c r="G35" s="98" t="str">
+      <c r="G35" s="97" t="str">
         <f>IF(S35="","",S35)</f>
         <v/>
       </c>
-      <c r="H35" s="99" t="str">
+      <c r="H35" s="98" t="str">
         <f>IF(S36="","",S36)</f>
         <v/>
       </c>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
       <c r="M35" s="12"/>
       <c r="O35" s="13"/>
-      <c r="Q35" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="R35" s="167"/>
-      <c r="S35" s="167"/>
+      <c r="Q35" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="R35" s="166"/>
+      <c r="S35" s="166"/>
       <c r="Y35" s="14"/>
       <c r="AA35" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB35" s="81"/>
       <c r="AD35" s="82" t="str">
@@ -3771,36 +3817,36 @@
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="89" t="str">
+        <v>63</v>
+      </c>
+      <c r="D36" s="88" t="str">
         <f>IF(Q38="","",IF(LEN(Q38)&lt;=135,Q38,IF(LEN(Q38)&lt;=260,LEFT(Q38,SEARCH(" ",Q38,125)),LEFT(Q38,SEARCH(" ",Q38,130)))))</f>
         <v/>
       </c>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="88"/>
       <c r="M36" s="12"/>
       <c r="O36" s="13"/>
       <c r="Q36" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="R36" s="102" t="str">
+        <v>75</v>
+      </c>
+      <c r="R36" s="101" t="str">
         <f>IF(OR(R34="",R35=""),"",R35/R34)</f>
         <v/>
       </c>
-      <c r="S36" s="103" t="str">
+      <c r="S36" s="102" t="str">
         <f>IF(OR(S34="",S35=""),"",S35/S34)</f>
         <v/>
       </c>
       <c r="Y36" s="14"/>
       <c r="AA36" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB36" s="81"/>
       <c r="AD36" s="82" t="str">
@@ -3813,24 +3859,24 @@
         <v>37</v>
       </c>
       <c r="B37" s="10"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="92" t="str">
+      <c r="C37" s="96"/>
+      <c r="D37" s="91" t="str">
         <f>IF(LEN(Q38)&lt;=135,"",IF(LEN(Q38)&lt;=260,RIGHT(Q38,LEN(Q38)-SEARCH(" ",Q38,125)),MID(Q38,SEARCH(" ",Q38,130),IF(LEN(Q38)&lt;=265,LEN(Q38),SEARCH(" ",Q38,255)-SEARCH(" ",Q38,130)))))</f>
         <v/>
       </c>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
       <c r="M37" s="12"/>
       <c r="O37" s="13"/>
       <c r="Y37" s="14"/>
       <c r="AA37" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB37" s="81"/>
       <c r="AD37" s="82" t="str">
@@ -3843,36 +3889,36 @@
         <v>38</v>
       </c>
       <c r="B38" s="10"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="92" t="str">
+      <c r="C38" s="96"/>
+      <c r="D38" s="91" t="str">
         <f>IF(LEN(Q38)&lt;=265,"",RIGHT(Q38,LEN(Q38)-SEARCH(" ",Q38,255)))</f>
         <v/>
       </c>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
       <c r="M38" s="12"/>
       <c r="O38" s="13"/>
       <c r="P38" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q38" s="90" t="str">
+        <v>63</v>
+      </c>
+      <c r="Q38" s="89" t="str">
         <f>IF(Q40&lt;&gt;"",Q40,IF(AB44="","",AB44))</f>
         <v/>
       </c>
-      <c r="R38" s="91"/>
-      <c r="S38" s="91"/>
-      <c r="T38" s="91"/>
-      <c r="U38" s="91"/>
-      <c r="X38" s="91"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="90"/>
+      <c r="U38" s="90"/>
+      <c r="X38" s="90"/>
       <c r="Y38" s="14"/>
       <c r="AA38" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB38" s="81"/>
       <c r="AD38" s="82" t="str">
@@ -3887,11 +3933,11 @@
       <c r="B39" s="10"/>
       <c r="M39" s="12"/>
       <c r="O39" s="13"/>
-      <c r="P39" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q39" s="94"/>
-      <c r="R39" s="95">
+      <c r="P39" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="94">
         <f>LEN(Q38)</f>
         <v>0</v>
       </c>
@@ -3903,7 +3949,7 @@
       <c r="X39" s="77"/>
       <c r="Y39" s="14"/>
       <c r="AA39" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB39" s="81"/>
       <c r="AD39" s="82" t="str">
@@ -3922,7 +3968,7 @@
       <c r="M40" s="12"/>
       <c r="O40" s="13"/>
       <c r="P40" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q40" s="76"/>
       <c r="R40" s="77"/>
@@ -3934,7 +3980,7 @@
       <c r="X40" s="77"/>
       <c r="Y40" s="14"/>
       <c r="AA40" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB40" s="81"/>
       <c r="AD40" s="82" t="str">
@@ -3947,19 +3993,19 @@
         <v>41</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="87" t="s">
+      <c r="C41" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="175" t="str">
+      <c r="D41" s="195" t="str">
         <f>IF(P43="","",P43)</f>
         <v/>
       </c>
-      <c r="E41" s="175"/>
-      <c r="F41" s="104" t="str">
+      <c r="E41" s="195"/>
+      <c r="F41" s="103" t="str">
         <f>R44</f>
         <v>Left ()</v>
       </c>
-      <c r="G41" s="105" t="str">
+      <c r="G41" s="104" t="str">
         <f>S44</f>
         <v>Right ()</v>
       </c>
@@ -3973,13 +4019,13 @@
       </c>
       <c r="B42" s="10"/>
       <c r="E42" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="F42" s="106" t="str">
+        <v>81</v>
+      </c>
+      <c r="F42" s="105" t="str">
         <f>IF(R45="","",IF(R45=1,"YES",IF(R45=2,"NO",IF(R45=3,"NA",""))))</f>
         <v/>
       </c>
-      <c r="G42" s="107" t="str">
+      <c r="G42" s="106" t="str">
         <f>IF(S45="","",IF(S45=1,"YES",IF(S45=2,"NO",IF(S45=3,"NA",""))))</f>
         <v/>
       </c>
@@ -3988,14 +4034,14 @@
         <v>12</v>
       </c>
       <c r="U42" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y42" s="14"/>
       <c r="AA42" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB42" s="20"/>
       <c r="AC42" s="20"/>
@@ -4007,35 +4053,35 @@
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="89" t="str">
+        <v>63</v>
+      </c>
+      <c r="D43" s="88" t="str">
         <f>IF(Q46="","",IF(LEN(Q46)&lt;=135,Q46,IF(LEN(Q46)&lt;=260,LEFT(Q46,SEARCH(" ",Q46,125)),LEFT(Q46,SEARCH(" ",Q46,130)))))</f>
         <v/>
       </c>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="89"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
       <c r="M43" s="12"/>
       <c r="O43" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="P43" s="162"/>
+      <c r="P43" s="161"/>
       <c r="V43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y43" s="14"/>
       <c r="AA43" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB43" s="34"/>
       <c r="AC43" s="35" t="str">
-        <f t="shared" ref="AC43:AC49" si="8">IF(AB43&lt;&gt;AD43,"Change","")</f>
+        <f t="shared" ref="AC43:AC49" si="10">IF(AB43&lt;&gt;AD43,"Change","")</f>
         <v/>
       </c>
       <c r="AD43" s="82" t="str">
@@ -4048,21 +4094,21 @@
         <v>44</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="92" t="str">
+      <c r="C44" s="96"/>
+      <c r="D44" s="91" t="str">
         <f>IF(LEN(Q46)&lt;=135,"",IF(LEN(Q46)&lt;=260,RIGHT(Q46,LEN(Q46)-SEARCH(" ",Q46,125)),MID(Q46,SEARCH(" ",Q46,130),IF(LEN(Q46)&lt;=265,LEN(Q46),SEARCH(" ",Q46,255)-SEARCH(" ",Q46,130)))))</f>
         <v/>
       </c>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="92"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="91"/>
+      <c r="K44" s="91"/>
+      <c r="L44" s="91"/>
       <c r="M44" s="12"/>
-      <c r="O44" s="108" t="s">
+      <c r="O44" s="107" t="s">
         <v>44</v>
       </c>
       <c r="R44" s="20" t="str">
@@ -4075,11 +4121,11 @@
       </c>
       <c r="Y44" s="14"/>
       <c r="AA44" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB44" s="34"/>
       <c r="AC44" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD44" s="82" t="str">
@@ -4092,33 +4138,33 @@
         <v>45</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="92" t="str">
+      <c r="C45" s="96"/>
+      <c r="D45" s="91" t="str">
         <f>IF(LEN(Q46)&lt;=265,"",RIGHT(Q46,LEN(Q46)-SEARCH(" ",Q46,255)))</f>
         <v/>
       </c>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="91"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="91"/>
       <c r="M45" s="12"/>
       <c r="O45" s="13"/>
       <c r="Q45" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="R45" s="109"/>
-      <c r="S45" s="109"/>
+        <v>81</v>
+      </c>
+      <c r="R45" s="108"/>
+      <c r="S45" s="108"/>
       <c r="Y45" s="14"/>
       <c r="AA45" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB45" s="34"/>
       <c r="AC45" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD45" s="82" t="str">
@@ -4134,24 +4180,24 @@
       <c r="M46" s="12"/>
       <c r="O46" s="13"/>
       <c r="P46" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q46" s="90" t="str">
+        <v>63</v>
+      </c>
+      <c r="Q46" s="89" t="str">
         <f>IF(Q48&lt;&gt;"",Q48,IF(AB45="","",AB45))</f>
         <v/>
       </c>
-      <c r="R46" s="91"/>
-      <c r="S46" s="91"/>
-      <c r="T46" s="91"/>
-      <c r="U46" s="91"/>
-      <c r="X46" s="91"/>
+      <c r="R46" s="90"/>
+      <c r="S46" s="90"/>
+      <c r="T46" s="90"/>
+      <c r="U46" s="90"/>
+      <c r="X46" s="90"/>
       <c r="Y46" s="14"/>
       <c r="AA46" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB46" s="34"/>
       <c r="AC46" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD46" s="82" t="str">
@@ -4165,15 +4211,15 @@
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M47" s="12"/>
       <c r="O47" s="13"/>
-      <c r="P47" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q47" s="94"/>
-      <c r="R47" s="95">
+      <c r="P47" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q47" s="93"/>
+      <c r="R47" s="94">
         <f>LEN(Q46)</f>
         <v>0</v>
       </c>
@@ -4185,11 +4231,11 @@
       <c r="X47" s="77"/>
       <c r="Y47" s="14"/>
       <c r="AA47" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB47" s="34"/>
       <c r="AC47" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD47" s="82" t="str">
@@ -4202,24 +4248,24 @@
         <v>48</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="110" t="s">
+      <c r="C48" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
-      <c r="L48" s="97"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="96"/>
       <c r="M48" s="12"/>
       <c r="O48" s="13"/>
       <c r="P48" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q48" s="76"/>
       <c r="R48" s="77"/>
@@ -4231,11 +4277,11 @@
       <c r="X48" s="77"/>
       <c r="Y48" s="14"/>
       <c r="AA48" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB48" s="34"/>
       <c r="AC48" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD48" s="82" t="str">
@@ -4248,37 +4294,37 @@
         <v>49</v>
       </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="87" t="str">
+      <c r="C49" s="86" t="str">
         <f>Q57</f>
         <v>Left ()</v>
       </c>
-      <c r="D49" s="165" t="str">
+      <c r="D49" s="164" t="str">
         <f>IF(Q58="","",Q58)</f>
         <v/>
       </c>
-      <c r="E49" s="87" t="str">
+      <c r="E49" s="86" t="str">
         <f>R57</f>
         <v>Right ()</v>
       </c>
-      <c r="F49" s="165" t="str">
+      <c r="F49" s="164" t="str">
         <f>IF(R58="","",R58)</f>
         <v/>
       </c>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="87" t="str">
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="86" t="str">
         <f>Q57</f>
         <v>Left ()</v>
       </c>
-      <c r="J49" s="165" t="str">
+      <c r="J49" s="164" t="str">
         <f>IF(Q59="","",Q59)</f>
         <v/>
       </c>
-      <c r="K49" s="87" t="str">
+      <c r="K49" s="86" t="str">
         <f>R57</f>
         <v>Right ()</v>
       </c>
-      <c r="L49" s="165" t="str">
+      <c r="L49" s="164" t="str">
         <f>IF(R59="","",R59)</f>
         <v/>
       </c>
@@ -4286,11 +4332,11 @@
       <c r="O49" s="13"/>
       <c r="Y49" s="14"/>
       <c r="AA49" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB49" s="34"/>
       <c r="AC49" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD49" s="82" t="str">
@@ -4304,29 +4350,29 @@
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="89" t="str">
+        <v>63</v>
+      </c>
+      <c r="D50" s="88" t="str">
         <f>IF(Q60="","",IF(LEN(Q60)&lt;=135,Q60,IF(LEN(Q60)&lt;=260,LEFT(Q60,SEARCH(" ",Q60,125)),LEFT(Q60,SEARCH(" ",Q60,130)))))</f>
         <v/>
       </c>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="89"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
       <c r="M50" s="12"/>
       <c r="O50" s="80" t="s">
         <v>18</v>
       </c>
       <c r="U50" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y50" s="14"/>
       <c r="AB50" s="20"/>
@@ -4338,30 +4384,30 @@
         <v>51</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="92" t="str">
+      <c r="C51" s="96"/>
+      <c r="D51" s="91" t="str">
         <f>IF(LEN(Q60)&lt;=135,"",IF(LEN(Q60)&lt;=260,RIGHT(Q60,LEN(Q60)-SEARCH(" ",Q60,125)),MID(Q60,SEARCH(" ",Q60,130),IF(LEN(Q60)&lt;=265,LEN(Q60),SEARCH(" ",Q60,255)-SEARCH(" ",Q60,130)))))</f>
         <v/>
       </c>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
-      <c r="G51" s="92"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="92"/>
-      <c r="K51" s="92"/>
-      <c r="L51" s="92"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="91"/>
+      <c r="L51" s="91"/>
       <c r="M51" s="12"/>
       <c r="O51" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="P51" s="162"/>
+      <c r="P51" s="161"/>
       <c r="V51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y51" s="14"/>
       <c r="AA51" s="68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB51" s="69"/>
       <c r="AC51" s="35" t="str">
@@ -4378,33 +4424,33 @@
         <v>52</v>
       </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="97"/>
-      <c r="D52" s="92" t="str">
+      <c r="C52" s="96"/>
+      <c r="D52" s="91" t="str">
         <f>IF(LEN(Q60)&lt;=265,"",RIGHT(Q60,LEN(Q60)-SEARCH(" ",Q60,255)))</f>
         <v/>
       </c>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="92"/>
-      <c r="K52" s="92"/>
-      <c r="L52" s="92"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="91"/>
+      <c r="G52" s="91"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="91"/>
+      <c r="J52" s="91"/>
+      <c r="K52" s="91"/>
+      <c r="L52" s="91"/>
       <c r="M52" s="12"/>
       <c r="O52" s="13"/>
       <c r="P52" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q52" s="90" t="str">
+        <v>63</v>
+      </c>
+      <c r="Q52" s="89" t="str">
         <f>IF(Q54&lt;&gt;"",Q54,IF(AB46="","",AB46))</f>
         <v/>
       </c>
-      <c r="R52" s="91"/>
-      <c r="S52" s="91"/>
-      <c r="T52" s="91"/>
-      <c r="U52" s="91"/>
-      <c r="X52" s="91"/>
+      <c r="R52" s="90"/>
+      <c r="S52" s="90"/>
+      <c r="T52" s="90"/>
+      <c r="U52" s="90"/>
+      <c r="X52" s="90"/>
       <c r="Y52" s="14"/>
       <c r="AB52" s="20"/>
       <c r="AC52" s="20"/>
@@ -4417,11 +4463,11 @@
       <c r="B53" s="10"/>
       <c r="M53" s="12"/>
       <c r="O53" s="13"/>
-      <c r="P53" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q53" s="94"/>
-      <c r="R53" s="95">
+      <c r="P53" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q53" s="93"/>
+      <c r="R53" s="94">
         <f>LEN(Q52)</f>
         <v>0</v>
       </c>
@@ -4447,19 +4493,19 @@
         <v>54</v>
       </c>
       <c r="B54" s="10"/>
-      <c r="C54" s="110" t="s">
+      <c r="C54" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="I54" s="196" t="s">
         <v>97</v>
       </c>
-      <c r="I54" s="176" t="s">
-        <v>98</v>
-      </c>
-      <c r="J54" s="176"/>
-      <c r="K54" s="176"/>
-      <c r="L54" s="176"/>
+      <c r="J54" s="196"/>
+      <c r="K54" s="196"/>
+      <c r="L54" s="196"/>
       <c r="M54" s="12"/>
       <c r="O54" s="13"/>
       <c r="P54" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q54" s="76"/>
       <c r="R54" s="77"/>
@@ -4479,24 +4525,24 @@
         <v>55</v>
       </c>
       <c r="B55" s="10"/>
-      <c r="F55" s="104" t="str">
+      <c r="F55" s="103" t="str">
         <f>R65</f>
         <v>Left ()</v>
       </c>
-      <c r="G55" s="105" t="str">
+      <c r="G55" s="104" t="str">
         <f>S65</f>
         <v>Right ()</v>
       </c>
-      <c r="I55" s="177" t="str">
+      <c r="I55" s="183" t="str">
         <f>R65</f>
         <v>Left ()</v>
       </c>
-      <c r="J55" s="177"/>
-      <c r="K55" s="178" t="str">
+      <c r="J55" s="183"/>
+      <c r="K55" s="184" t="str">
         <f>S65</f>
         <v>Right ()</v>
       </c>
-      <c r="L55" s="178"/>
+      <c r="L55" s="184"/>
       <c r="M55" s="12"/>
       <c r="O55" s="13"/>
       <c r="Y55" s="14"/>
@@ -4516,32 +4562,32 @@
       </c>
       <c r="B56" s="10"/>
       <c r="E56" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="110" t="str">
+        <f t="shared" ref="F56:G58" si="11">IF(R66="","",IF(R66=1,"YES",IF(R66=2,"NO",IF(R66=3,"NA",""))))</f>
+        <v/>
+      </c>
+      <c r="G56" s="111" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H56" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="F56" s="111" t="str">
-        <f t="shared" ref="F56:G58" si="9">IF(R66="","",IF(R66=1,"YES",IF(R66=2,"NO",IF(R66=3,"NA",""))))</f>
-        <v/>
-      </c>
-      <c r="G56" s="112" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H56" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="I56" s="179" t="str">
+      <c r="I56" s="191" t="str">
         <f>IF(R70="","",R70)</f>
         <v/>
       </c>
-      <c r="J56" s="179"/>
-      <c r="K56" s="180" t="str">
+      <c r="J56" s="191"/>
+      <c r="K56" s="192" t="str">
         <f>IF(S70="","",S70)</f>
         <v/>
       </c>
-      <c r="L56" s="180"/>
+      <c r="L56" s="192"/>
       <c r="M56" s="12"/>
       <c r="O56" s="80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U56"/>
       <c r="V56"/>
@@ -4556,32 +4602,32 @@
       </c>
       <c r="B57" s="10"/>
       <c r="E57" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" s="110" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G57" s="111" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H57" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F57" s="111" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G57" s="112" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H57" s="52" t="s">
+      <c r="I57" s="191" t="str">
+        <f>IF(R72="","",R72)</f>
+        <v/>
+      </c>
+      <c r="J57" s="191"/>
+      <c r="K57" s="192" t="str">
+        <f>IF(S72="","",S72)</f>
+        <v/>
+      </c>
+      <c r="L57" s="192"/>
+      <c r="M57" s="12"/>
+      <c r="O57" s="112" t="s">
         <v>102</v>
-      </c>
-      <c r="I57" s="179" t="str">
-        <f>IF(R72="","",R72)</f>
-        <v/>
-      </c>
-      <c r="J57" s="179"/>
-      <c r="K57" s="180" t="str">
-        <f>IF(S72="","",S72)</f>
-        <v/>
-      </c>
-      <c r="L57" s="180"/>
-      <c r="M57" s="12"/>
-      <c r="O57" s="113" t="s">
-        <v>103</v>
       </c>
       <c r="Q57" s="20" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
@@ -4608,36 +4654,36 @@
       </c>
       <c r="B58" s="10"/>
       <c r="E58" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="F58" s="105" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G58" s="106" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H58" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="F58" s="106" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G58" s="107" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H58" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="I58" s="181" t="str">
+      <c r="I58" s="193" t="str">
         <f>IF(R74="","",R74)</f>
         <v/>
       </c>
-      <c r="J58" s="181"/>
-      <c r="K58" s="182" t="str">
+      <c r="J58" s="193"/>
+      <c r="K58" s="194" t="str">
         <f>IF(S74="","",S74)</f>
         <v/>
       </c>
-      <c r="L58" s="182"/>
+      <c r="L58" s="194"/>
       <c r="M58" s="12"/>
       <c r="O58" s="13"/>
-      <c r="P58" s="114" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q58" s="166"/>
-      <c r="R58" s="166"/>
+      <c r="P58" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q58" s="165"/>
+      <c r="R58" s="165"/>
       <c r="Y58" s="14"/>
       <c r="AB58" s="20"/>
       <c r="AC58" s="20"/>
@@ -4649,27 +4695,27 @@
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="89" t="str">
+        <v>63</v>
+      </c>
+      <c r="D59" s="88" t="str">
         <f>IF(Q78="","",IF(LEN(Q78)&lt;=135,Q78,IF(LEN(Q78)&lt;=260,LEFT(Q78,SEARCH(" ",Q78,125)),LEFT(Q78,SEARCH(" ",Q78,130)))))</f>
         <v/>
       </c>
-      <c r="E59" s="89"/>
-      <c r="F59" s="89"/>
-      <c r="G59" s="89"/>
-      <c r="H59" s="89"/>
-      <c r="I59" s="89"/>
-      <c r="J59" s="89"/>
-      <c r="K59" s="89"/>
-      <c r="L59" s="89"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
+      <c r="K59" s="88"/>
+      <c r="L59" s="88"/>
       <c r="M59" s="12"/>
       <c r="O59" s="13"/>
-      <c r="P59" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q59" s="167"/>
-      <c r="R59" s="167"/>
+      <c r="P59" s="114" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q59" s="166"/>
+      <c r="R59" s="166"/>
       <c r="Y59" s="14"/>
       <c r="AB59" s="69"/>
       <c r="AC59" s="35" t="str">
@@ -4686,33 +4732,33 @@
         <v>60</v>
       </c>
       <c r="B60" s="10"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="92" t="str">
+      <c r="C60" s="96"/>
+      <c r="D60" s="91" t="str">
         <f>IF(LEN(Q78)&lt;=135,"",IF(LEN(Q78)&lt;=260,RIGHT(Q78,LEN(Q78)-SEARCH(" ",Q78,125)),MID(Q78,SEARCH(" ",Q78,130),IF(LEN(Q78)&lt;=265,LEN(Q78),SEARCH(" ",Q78,255)-SEARCH(" ",Q78,130)))))</f>
         <v/>
       </c>
-      <c r="E60" s="92"/>
-      <c r="F60" s="92"/>
-      <c r="G60" s="92"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="92"/>
-      <c r="J60" s="92"/>
-      <c r="K60" s="92"/>
-      <c r="L60" s="92"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="91"/>
+      <c r="G60" s="91"/>
+      <c r="H60" s="91"/>
+      <c r="I60" s="91"/>
+      <c r="J60" s="91"/>
+      <c r="K60" s="91"/>
+      <c r="L60" s="91"/>
       <c r="M60" s="12"/>
       <c r="O60" s="13"/>
       <c r="P60" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q60" s="90" t="str">
+        <v>63</v>
+      </c>
+      <c r="Q60" s="89" t="str">
         <f>IF(Q62&lt;&gt;"",Q62,IF(AB54="","",AB47))</f>
         <v/>
       </c>
-      <c r="R60" s="91"/>
-      <c r="S60" s="91"/>
-      <c r="T60" s="91"/>
-      <c r="U60" s="91"/>
-      <c r="X60" s="91"/>
+      <c r="R60" s="90"/>
+      <c r="S60" s="90"/>
+      <c r="T60" s="90"/>
+      <c r="U60" s="90"/>
+      <c r="X60" s="90"/>
       <c r="Y60" s="14"/>
       <c r="AB60" s="20"/>
       <c r="AC60" s="20"/>
@@ -4723,26 +4769,26 @@
         <v>61</v>
       </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="92" t="str">
+      <c r="C61" s="96"/>
+      <c r="D61" s="91" t="str">
         <f>IF(LEN(Q78)&lt;=265,"",RIGHT(Q78,LEN(Q78)-SEARCH(" ",Q78,255)))</f>
         <v/>
       </c>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
-      <c r="G61" s="92"/>
-      <c r="H61" s="92"/>
-      <c r="I61" s="92"/>
-      <c r="J61" s="92"/>
-      <c r="K61" s="92"/>
-      <c r="L61" s="92"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="91"/>
+      <c r="G61" s="91"/>
+      <c r="H61" s="91"/>
+      <c r="I61" s="91"/>
+      <c r="J61" s="91"/>
+      <c r="K61" s="91"/>
+      <c r="L61" s="91"/>
       <c r="M61" s="12"/>
       <c r="O61" s="13"/>
-      <c r="P61" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q61" s="94"/>
-      <c r="R61" s="95">
+      <c r="P61" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q61" s="93"/>
+      <c r="R61" s="94">
         <f>LEN(Q60)</f>
         <v>0</v>
       </c>
@@ -4771,7 +4817,7 @@
       <c r="M62" s="12"/>
       <c r="O62" s="13"/>
       <c r="P62" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q62" s="76"/>
       <c r="R62" s="77"/>
@@ -4820,14 +4866,14 @@
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
       <c r="M64" s="25"/>
-      <c r="O64" s="113" t="s">
-        <v>97</v>
+      <c r="O64" s="112" t="s">
+        <v>96</v>
       </c>
       <c r="U64" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y64" s="14"/>
       <c r="AB64" s="20"/>
@@ -4841,18 +4887,18 @@
       <c r="C65" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="163" t="str">
+      <c r="D65" s="162" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
       <c r="L65" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M65" s="116" t="str">
+      <c r="M65" s="115" t="str">
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="O65" s="108" t="s">
+      <c r="O65" s="107" t="s">
         <v>44</v>
       </c>
       <c r="R65" s="20" t="str">
@@ -4879,25 +4925,25 @@
         <v>66</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D66" s="117" t="str">
+        <v>108</v>
+      </c>
+      <c r="D66" s="116" t="str">
         <f>IF($E$14="","",$E$14)</f>
         <v/>
       </c>
       <c r="L66" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="M66" s="118" t="str">
+      <c r="M66" s="117" t="str">
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
       <c r="O66" s="13"/>
       <c r="Q66" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="R66" s="119"/>
-      <c r="S66" s="120"/>
+        <v>98</v>
+      </c>
+      <c r="R66" s="118"/>
+      <c r="S66" s="119"/>
       <c r="Y66" s="14"/>
       <c r="AB66" s="20"/>
       <c r="AC66" s="20"/>
@@ -4907,16 +4953,16 @@
       <c r="A67" s="2">
         <v>1</v>
       </c>
-      <c r="M67" s="121" t="str">
+      <c r="M67" s="120" t="str">
         <f>$H$2</f>
         <v>Medical University of South Carolina</v>
       </c>
       <c r="O67" s="13"/>
       <c r="Q67" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="R67" s="122"/>
-      <c r="S67" s="123"/>
+        <v>100</v>
+      </c>
+      <c r="R67" s="121"/>
+      <c r="S67" s="122"/>
       <c r="Y67" s="14"/>
       <c r="AB67" s="69"/>
       <c r="AC67" s="35" t="str">
@@ -4938,10 +4984,10 @@
       </c>
       <c r="O68" s="13"/>
       <c r="Q68" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="R68" s="124"/>
-      <c r="S68" s="125"/>
+        <v>103</v>
+      </c>
+      <c r="R68" s="123"/>
+      <c r="S68" s="124"/>
       <c r="Y68" s="14"/>
       <c r="AB68" s="20"/>
       <c r="AC68" s="20"/>
@@ -4965,15 +5011,15 @@
       <c r="M69" s="40"/>
       <c r="O69" s="13"/>
       <c r="Q69" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R69" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V69" s="178" t="s">
         <v>110</v>
       </c>
-      <c r="V69" s="183" t="s">
-        <v>111</v>
-      </c>
-      <c r="W69" s="183"/>
+      <c r="W69" s="178"/>
       <c r="Y69" s="14"/>
       <c r="AB69" s="69"/>
       <c r="AC69" s="35" t="str">
@@ -4991,7 +5037,7 @@
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -5004,16 +5050,16 @@
       <c r="L70" s="4"/>
       <c r="M70" s="5"/>
       <c r="O70" s="13"/>
-      <c r="Q70" s="183" t="s">
-        <v>100</v>
-      </c>
-      <c r="R70" s="184"/>
-      <c r="S70" s="185"/>
-      <c r="V70" s="186" t="str">
+      <c r="Q70" s="178" t="s">
+        <v>99</v>
+      </c>
+      <c r="R70" s="187"/>
+      <c r="S70" s="188"/>
+      <c r="V70" s="189" t="str">
         <f>IF(AB35="","",AB35)</f>
         <v/>
       </c>
-      <c r="W70" s="187" t="str">
+      <c r="W70" s="190" t="str">
         <f>IF(AB38="","",AB38)</f>
         <v/>
       </c>
@@ -5027,27 +5073,27 @@
         <v>5</v>
       </c>
       <c r="B71" s="10"/>
-      <c r="C71" s="97"/>
-      <c r="D71" s="177" t="str">
+      <c r="C71" s="96"/>
+      <c r="D71" s="183" t="str">
         <f>Q83</f>
         <v>UNL-10 (cd/m^2)</v>
       </c>
-      <c r="E71" s="177"/>
-      <c r="F71" s="178" t="str">
+      <c r="E71" s="183"/>
+      <c r="F71" s="184" t="str">
         <f>S83</f>
         <v>UNL-80 (cd/m^2)</v>
       </c>
-      <c r="G71" s="178"/>
+      <c r="G71" s="184"/>
       <c r="I71" s="68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M71" s="12"/>
       <c r="O71" s="13"/>
-      <c r="Q71" s="183"/>
-      <c r="R71" s="184"/>
-      <c r="S71" s="185"/>
-      <c r="V71" s="186"/>
-      <c r="W71" s="187"/>
+      <c r="Q71" s="178"/>
+      <c r="R71" s="187"/>
+      <c r="S71" s="188"/>
+      <c r="V71" s="189"/>
+      <c r="W71" s="190"/>
       <c r="Y71" s="14"/>
       <c r="AB71" s="69"/>
       <c r="AC71" s="35" t="str">
@@ -5064,20 +5110,20 @@
         <v>6</v>
       </c>
       <c r="B72" s="10"/>
-      <c r="C72" s="97"/>
-      <c r="D72" s="111" t="str">
+      <c r="C72" s="96"/>
+      <c r="D72" s="110" t="str">
         <f>Q84</f>
         <v>Left ()</v>
       </c>
-      <c r="E72" s="98" t="str">
+      <c r="E72" s="97" t="str">
         <f>R84</f>
         <v>Right ()</v>
       </c>
-      <c r="F72" s="98" t="str">
+      <c r="F72" s="97" t="str">
         <f>S84</f>
         <v>Left ()</v>
       </c>
-      <c r="G72" s="112" t="str">
+      <c r="G72" s="111" t="str">
         <f>T84</f>
         <v>Right ()</v>
       </c>
@@ -5085,21 +5131,21 @@
         <f>IF(V84="","TBD",IF(V84=1,"YES",IF(V84=2,"NO",IF(V84=3,"NA",""))))</f>
         <v>TBD</v>
       </c>
-      <c r="J72" s="97" t="s">
-        <v>114</v>
+      <c r="J72" s="96" t="s">
+        <v>113</v>
       </c>
       <c r="M72" s="12"/>
       <c r="O72" s="13"/>
-      <c r="Q72" s="183" t="s">
-        <v>102</v>
-      </c>
-      <c r="R72" s="188"/>
-      <c r="S72" s="189"/>
-      <c r="V72" s="191" t="str">
+      <c r="Q72" s="178" t="s">
+        <v>101</v>
+      </c>
+      <c r="R72" s="185"/>
+      <c r="S72" s="186"/>
+      <c r="V72" s="176" t="str">
         <f>IF(AB36="","",AB36)</f>
         <v/>
       </c>
-      <c r="W72" s="192" t="str">
+      <c r="W72" s="177" t="str">
         <f>IF(AB39="","",AB39)</f>
         <v/>
       </c>
@@ -5111,38 +5157,38 @@
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="D73" s="126" t="str">
-        <f t="shared" ref="D73:G75" si="10">IF(Q90="","",Q90)</f>
-        <v/>
-      </c>
-      <c r="E73" s="99" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F73" s="99" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G73" s="127" t="str">
-        <f t="shared" si="10"/>
+        <v>114</v>
+      </c>
+      <c r="D73" s="125" t="str">
+        <f t="shared" ref="D73:G75" si="12">IF(Q90="","",Q90)</f>
+        <v/>
+      </c>
+      <c r="E73" s="98" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F73" s="98" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G73" s="126" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I73" s="56" t="str">
         <f>IF(V85="","TBD",IF(V85=1,"YES",IF(V85=2,"NO",IF(V85=3,"NA",""))))</f>
         <v>TBD</v>
       </c>
-      <c r="J73" s="97" t="s">
-        <v>116</v>
+      <c r="J73" s="96" t="s">
+        <v>115</v>
       </c>
       <c r="M73" s="12"/>
       <c r="O73" s="13"/>
-      <c r="Q73" s="183"/>
-      <c r="R73" s="188"/>
-      <c r="S73" s="189"/>
-      <c r="V73" s="191"/>
-      <c r="W73" s="192"/>
+      <c r="Q73" s="178"/>
+      <c r="R73" s="185"/>
+      <c r="S73" s="186"/>
+      <c r="V73" s="176"/>
+      <c r="W73" s="177"/>
       <c r="Y73" s="14"/>
     </row>
     <row r="74" spans="1:30" ht="14.45" customHeight="1">
@@ -5151,43 +5197,43 @@
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="D74" s="126" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="E74" s="99" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F74" s="99" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G74" s="127" t="str">
-        <f t="shared" si="10"/>
+        <v>116</v>
+      </c>
+      <c r="D74" s="125" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E74" s="98" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F74" s="98" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G74" s="126" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I74" s="56" t="str">
         <f>IF(V86="","TBD",IF(V86=1,"YES",IF(V86=2,"NO",IF(V86=3,"NA",""))))</f>
         <v>TBD</v>
       </c>
-      <c r="J74" s="97" t="s">
-        <v>118</v>
+      <c r="J74" s="96" t="s">
+        <v>117</v>
       </c>
       <c r="M74" s="12"/>
       <c r="O74" s="13"/>
-      <c r="Q74" s="183" t="s">
-        <v>105</v>
-      </c>
-      <c r="R74" s="193"/>
-      <c r="S74" s="194"/>
-      <c r="V74" s="195" t="str">
+      <c r="Q74" s="178" t="s">
+        <v>104</v>
+      </c>
+      <c r="R74" s="179"/>
+      <c r="S74" s="180"/>
+      <c r="V74" s="181" t="str">
         <f>IF(AB37="","",AB37)</f>
         <v/>
       </c>
-      <c r="W74" s="196" t="str">
+      <c r="W74" s="182" t="str">
         <f>IF(AB40="","",AB40)</f>
         <v/>
       </c>
@@ -5199,31 +5245,31 @@
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="D75" s="128" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="E75" s="129" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F75" s="129" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G75" s="130" t="str">
-        <f t="shared" si="10"/>
+        <v>118</v>
+      </c>
+      <c r="D75" s="127" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="E75" s="128" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F75" s="128" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G75" s="129" t="str">
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M75" s="12"/>
       <c r="O75" s="13"/>
-      <c r="Q75" s="183"/>
-      <c r="R75" s="193"/>
-      <c r="S75" s="194"/>
-      <c r="V75" s="195"/>
-      <c r="W75" s="196"/>
+      <c r="Q75" s="178"/>
+      <c r="R75" s="179"/>
+      <c r="S75" s="180"/>
+      <c r="V75" s="181"/>
+      <c r="W75" s="182"/>
       <c r="Y75" s="14"/>
     </row>
     <row r="76" spans="1:30" ht="14.45" customHeight="1">
@@ -5231,35 +5277,35 @@
         <v>10</v>
       </c>
       <c r="B76" s="10"/>
-      <c r="D76" s="106" t="str">
+      <c r="D76" s="105" t="str">
         <f>IF(D75="","",IF(D75&lt;=0.3,"PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="E76" s="131" t="str">
+      <c r="E76" s="130" t="str">
         <f>IF(E75="","",IF(E75&lt;=0.3,"PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="F76" s="131" t="str">
+      <c r="F76" s="130" t="str">
         <f>IF(F75="","",IF(F75&lt;=0.3,"PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G76" s="107" t="str">
+      <c r="G76" s="106" t="str">
         <f>IF(G75="","",IF(G75&lt;=0.3,"PASS","FAIL"))</f>
         <v/>
       </c>
       <c r="I76" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M76" s="12"/>
       <c r="O76" s="13"/>
       <c r="Q76" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y76" s="14"/>
     </row>
@@ -5269,20 +5315,20 @@
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D77" s="89" t="str">
+        <v>63</v>
+      </c>
+      <c r="D77" s="88" t="str">
         <f>IF(Q93="","",IF(LEN(Q93)&lt;=135,Q93,IF(LEN(Q93)&lt;=260,LEFT(Q93,SEARCH(" ",Q93,125)),LEFT(Q93,SEARCH(" ",Q93,130)))))</f>
         <v/>
       </c>
-      <c r="E77" s="89"/>
-      <c r="F77" s="89"/>
-      <c r="G77" s="89"/>
-      <c r="H77" s="89"/>
-      <c r="I77" s="89"/>
-      <c r="J77" s="89"/>
-      <c r="K77" s="89"/>
-      <c r="L77" s="89"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="88"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="88"/>
+      <c r="L77" s="88"/>
       <c r="M77" s="12"/>
       <c r="O77" s="13"/>
       <c r="Y77" s="14"/>
@@ -5292,33 +5338,33 @@
         <v>12</v>
       </c>
       <c r="B78" s="10"/>
-      <c r="C78" s="97"/>
-      <c r="D78" s="92" t="str">
+      <c r="C78" s="96"/>
+      <c r="D78" s="91" t="str">
         <f>IF(LEN(Q93)&lt;=135,"",IF(LEN(Q93)&lt;=260,RIGHT(Q93,LEN(Q96)-SEARCH(" ",Q93,125)),MID(Q93,SEARCH(" ",Q93,130),IF(LEN(Q93)&lt;=265,LEN(Q93),SEARCH(" ",Q93,255)-SEARCH(" ",Q93,130)))))</f>
         <v/>
       </c>
-      <c r="E78" s="92"/>
-      <c r="F78" s="92"/>
-      <c r="G78" s="92"/>
-      <c r="H78" s="92"/>
-      <c r="I78" s="92"/>
-      <c r="J78" s="92"/>
-      <c r="K78" s="92"/>
-      <c r="L78" s="92"/>
+      <c r="E78" s="91"/>
+      <c r="F78" s="91"/>
+      <c r="G78" s="91"/>
+      <c r="H78" s="91"/>
+      <c r="I78" s="91"/>
+      <c r="J78" s="91"/>
+      <c r="K78" s="91"/>
+      <c r="L78" s="91"/>
       <c r="M78" s="12"/>
       <c r="O78" s="13"/>
       <c r="P78" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q78" s="90" t="str">
+        <v>63</v>
+      </c>
+      <c r="Q78" s="89" t="str">
         <f>IF(Q80&lt;&gt;"",Q80,IF(AB48="","",AB48))</f>
         <v/>
       </c>
-      <c r="R78" s="91"/>
-      <c r="S78" s="91"/>
-      <c r="T78" s="91"/>
-      <c r="U78" s="91"/>
-      <c r="X78" s="91"/>
+      <c r="R78" s="90"/>
+      <c r="S78" s="90"/>
+      <c r="T78" s="90"/>
+      <c r="U78" s="90"/>
+      <c r="X78" s="90"/>
       <c r="Y78" s="14"/>
     </row>
     <row r="79" spans="1:30" ht="14.45" customHeight="1">
@@ -5326,26 +5372,26 @@
         <v>13</v>
       </c>
       <c r="B79" s="10"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="92" t="str">
+      <c r="C79" s="96"/>
+      <c r="D79" s="91" t="str">
         <f>IF(LEN(Q93)&lt;=265,"",RIGHT(Q93,LEN(Q93)-SEARCH(" ",Q93,255)))</f>
         <v/>
       </c>
-      <c r="E79" s="92"/>
-      <c r="F79" s="92"/>
-      <c r="G79" s="92"/>
-      <c r="H79" s="92"/>
-      <c r="I79" s="92"/>
-      <c r="J79" s="92"/>
-      <c r="K79" s="92"/>
-      <c r="L79" s="92"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="91"/>
+      <c r="G79" s="91"/>
+      <c r="H79" s="91"/>
+      <c r="I79" s="91"/>
+      <c r="J79" s="91"/>
+      <c r="K79" s="91"/>
+      <c r="L79" s="91"/>
       <c r="M79" s="12"/>
       <c r="O79" s="13"/>
-      <c r="P79" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q79" s="94"/>
-      <c r="R79" s="95">
+      <c r="P79" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q79" s="93"/>
+      <c r="R79" s="94">
         <f>LEN(Q78)</f>
         <v>0</v>
       </c>
@@ -5365,7 +5411,7 @@
       <c r="M80" s="12"/>
       <c r="O80" s="13"/>
       <c r="P80" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q80" s="76"/>
       <c r="R80" s="77"/>
@@ -5383,7 +5429,7 @@
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M81" s="12"/>
       <c r="O81" s="13"/>
@@ -5394,24 +5440,24 @@
         <v>16</v>
       </c>
       <c r="B82" s="10"/>
-      <c r="D82" s="117" t="str">
+      <c r="D82" s="116" t="str">
         <f>IF(Q100="","",IF(LEN(Q100)&lt;=135,Q100,IF(LEN(Q100)&lt;=260,LEFT(Q100,SEARCH(" ",Q100,125)),LEFT(Q100,SEARCH(" ",Q100,130)))))</f>
         <v/>
       </c>
-      <c r="E82" s="91"/>
-      <c r="F82" s="91"/>
-      <c r="G82" s="91"/>
-      <c r="H82" s="91"/>
-      <c r="I82" s="91"/>
-      <c r="J82" s="91"/>
-      <c r="K82" s="91"/>
-      <c r="L82" s="91"/>
+      <c r="E82" s="90"/>
+      <c r="F82" s="90"/>
+      <c r="G82" s="90"/>
+      <c r="H82" s="90"/>
+      <c r="I82" s="90"/>
+      <c r="J82" s="90"/>
+      <c r="K82" s="90"/>
+      <c r="L82" s="90"/>
       <c r="M82" s="12"/>
-      <c r="O82" s="113" t="s">
-        <v>112</v>
+      <c r="O82" s="112" t="s">
+        <v>111</v>
       </c>
       <c r="V82" s="68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y82" s="14"/>
     </row>
@@ -5420,7 +5466,7 @@
         <v>17</v>
       </c>
       <c r="B83" s="10"/>
-      <c r="D83" s="132" t="str">
+      <c r="D83" s="131" t="str">
         <f>IF(LEN(Q100)&lt;=135,"",IF(LEN(Q100)&lt;=260,RIGHT(Q100,LEN(Q100)-SEARCH(" ",Q100,125)),MID(Q100,SEARCH(" ",Q100,130),IF(LEN(Q100)&lt;=265,LEN(Q100),SEARCH(" ",Q100,255)-SEARCH(" ",Q100,130)))))</f>
         <v/>
       </c>
@@ -5434,15 +5480,15 @@
       <c r="L83" s="77"/>
       <c r="M83" s="12"/>
       <c r="O83" s="13"/>
-      <c r="Q83" s="190" t="s">
+      <c r="Q83" s="175" t="s">
+        <v>122</v>
+      </c>
+      <c r="R83" s="175"/>
+      <c r="S83" s="175" t="s">
         <v>123</v>
       </c>
-      <c r="R83" s="190"/>
-      <c r="S83" s="190" t="s">
-        <v>124</v>
-      </c>
-      <c r="T83" s="190"/>
-      <c r="V83" s="133" t="s">
+      <c r="T83" s="175"/>
+      <c r="V83" s="132" t="s">
         <v>44</v>
       </c>
       <c r="Y83" s="14"/>
@@ -5452,7 +5498,7 @@
         <v>18</v>
       </c>
       <c r="B84" s="10"/>
-      <c r="D84" s="132" t="str">
+      <c r="D84" s="131" t="str">
         <f>IF(LEN(Q100)&lt;=265,"",RIGHT(Q100,LEN(Q100)-SEARCH(" ",Q100,255)))</f>
         <v/>
       </c>
@@ -5466,25 +5512,25 @@
       <c r="L84" s="77"/>
       <c r="M84" s="12"/>
       <c r="O84" s="13"/>
-      <c r="Q84" s="134" t="str">
+      <c r="Q84" s="133" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
-      <c r="R84" s="135" t="str">
+      <c r="R84" s="134" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
         <v>Right ()</v>
       </c>
-      <c r="S84" s="134" t="str">
+      <c r="S84" s="133" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
-      <c r="T84" s="135" t="str">
+      <c r="T84" s="134" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
         <v>Right ()</v>
       </c>
-      <c r="V84" s="136"/>
+      <c r="V84" s="135"/>
       <c r="W84" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y84" s="14"/>
     </row>
@@ -5493,7 +5539,7 @@
         <v>19</v>
       </c>
       <c r="B85" s="10"/>
-      <c r="D85" s="132" t="str">
+      <c r="D85" s="131" t="str">
         <f>IF(Q102="","",IF(LEN(Q102)&lt;=135,Q102,IF(LEN(Q102)&lt;=260,LEFT(Q102,SEARCH(" ",Q102,125)),LEFT(Q102,SEARCH(" ",Q102,130)))))</f>
         <v/>
       </c>
@@ -5508,15 +5554,15 @@
       <c r="M85" s="12"/>
       <c r="O85" s="13"/>
       <c r="P85" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q85" s="137"/>
-      <c r="R85" s="138"/>
-      <c r="S85" s="139"/>
-      <c r="T85" s="138"/>
-      <c r="V85" s="136"/>
+        <v>124</v>
+      </c>
+      <c r="Q85" s="136"/>
+      <c r="R85" s="137"/>
+      <c r="S85" s="138"/>
+      <c r="T85" s="137"/>
+      <c r="V85" s="135"/>
       <c r="W85" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y85" s="14"/>
     </row>
@@ -5525,7 +5571,7 @@
         <v>20</v>
       </c>
       <c r="B86" s="10"/>
-      <c r="D86" s="132" t="str">
+      <c r="D86" s="131" t="str">
         <f>IF(LEN(Q102)&lt;=135,"",IF(LEN(Q102)&lt;=260,RIGHT(Q102,LEN(Q102)-SEARCH(" ",Q102,125)),MID(Q102,SEARCH(" ",Q102,130),IF(LEN(Q102)&lt;=265,LEN(Q102),SEARCH(" ",Q102,255)-SEARCH(" ",Q102,130)))))</f>
         <v/>
       </c>
@@ -5540,15 +5586,15 @@
       <c r="M86" s="12"/>
       <c r="O86" s="13"/>
       <c r="P86" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q86" s="140"/>
-      <c r="R86" s="141"/>
-      <c r="S86" s="142"/>
-      <c r="T86" s="141"/>
-      <c r="V86" s="136"/>
+        <v>125</v>
+      </c>
+      <c r="Q86" s="139"/>
+      <c r="R86" s="140"/>
+      <c r="S86" s="141"/>
+      <c r="T86" s="140"/>
+      <c r="V86" s="135"/>
       <c r="W86" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y86" s="14"/>
     </row>
@@ -5557,7 +5603,7 @@
         <v>21</v>
       </c>
       <c r="B87" s="10"/>
-      <c r="D87" s="132" t="str">
+      <c r="D87" s="131" t="str">
         <f>IF(LEN(Q102)&lt;=265,"",RIGHT(Q102,LEN(Q102)-SEARCH(" ",Q102,255)))</f>
         <v/>
       </c>
@@ -5572,12 +5618,12 @@
       <c r="M87" s="12"/>
       <c r="O87" s="13"/>
       <c r="P87" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q87" s="140"/>
-      <c r="R87" s="141"/>
-      <c r="S87" s="142"/>
-      <c r="T87" s="141"/>
+        <v>126</v>
+      </c>
+      <c r="Q87" s="139"/>
+      <c r="R87" s="140"/>
+      <c r="S87" s="141"/>
+      <c r="T87" s="140"/>
       <c r="Y87" s="14"/>
     </row>
     <row r="88" spans="1:25" ht="14.45" customHeight="1">
@@ -5585,7 +5631,7 @@
         <v>22</v>
       </c>
       <c r="B88" s="10"/>
-      <c r="D88" s="132" t="str">
+      <c r="D88" s="131" t="str">
         <f>IF(Q104="","",IF(LEN(Q104)&lt;=135,Q104,IF(LEN(Q104)&lt;=260,LEFT(Q104,SEARCH(" ",Q104,125)),LEFT(Q104,SEARCH(" ",Q104,130)))))</f>
         <v/>
       </c>
@@ -5600,12 +5646,12 @@
       <c r="M88" s="12"/>
       <c r="O88" s="13"/>
       <c r="P88" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q88" s="140"/>
-      <c r="R88" s="141"/>
-      <c r="S88" s="142"/>
-      <c r="T88" s="141"/>
+        <v>127</v>
+      </c>
+      <c r="Q88" s="139"/>
+      <c r="R88" s="140"/>
+      <c r="S88" s="141"/>
+      <c r="T88" s="140"/>
       <c r="Y88" s="14"/>
     </row>
     <row r="89" spans="1:25" ht="14.45" customHeight="1">
@@ -5613,7 +5659,7 @@
         <v>23</v>
       </c>
       <c r="B89" s="10"/>
-      <c r="D89" s="132" t="str">
+      <c r="D89" s="131" t="str">
         <f>IF(LEN(Q104)&lt;=135,"",IF(LEN(Q104)&lt;=260,RIGHT(Q104,LEN(Q104)-SEARCH(" ",Q104,125)),MID(Q104,SEARCH(" ",Q104,130),IF(LEN(Q104)&lt;=265,LEN(Q104),SEARCH(" ",Q104,255)-SEARCH(" ",Q104,130)))))</f>
         <v/>
       </c>
@@ -5628,12 +5674,12 @@
       <c r="M89" s="12"/>
       <c r="O89" s="13"/>
       <c r="P89" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q89" s="143"/>
-      <c r="R89" s="144"/>
-      <c r="S89" s="145"/>
-      <c r="T89" s="144"/>
+        <v>128</v>
+      </c>
+      <c r="Q89" s="142"/>
+      <c r="R89" s="143"/>
+      <c r="S89" s="144"/>
+      <c r="T89" s="143"/>
       <c r="Y89" s="14"/>
     </row>
     <row r="90" spans="1:25" ht="14.45" customHeight="1">
@@ -5641,7 +5687,7 @@
         <v>24</v>
       </c>
       <c r="B90" s="10"/>
-      <c r="D90" s="132" t="str">
+      <c r="D90" s="131" t="str">
         <f>IF(LEN(Q104)&lt;=265,"",RIGHT(Q104,LEN(Q104)-SEARCH(" ",Q104,255)))</f>
         <v/>
       </c>
@@ -5656,21 +5702,21 @@
       <c r="M90" s="12"/>
       <c r="O90" s="13"/>
       <c r="P90" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q90" s="146" t="str">
+        <v>129</v>
+      </c>
+      <c r="Q90" s="145" t="str">
         <f>IF(Q85="","",AVERAGE(Q85:Q89))</f>
         <v/>
       </c>
-      <c r="R90" s="147" t="str">
+      <c r="R90" s="146" t="str">
         <f>IF(R85="","",AVERAGE(R85:R89))</f>
         <v/>
       </c>
-      <c r="S90" s="148" t="str">
+      <c r="S90" s="147" t="str">
         <f>IF(S85="","",AVERAGE(S85:S89))</f>
         <v/>
       </c>
-      <c r="T90" s="147" t="str">
+      <c r="T90" s="146" t="str">
         <f>IF(T85="","",AVERAGE(T85:T89))</f>
         <v/>
       </c>
@@ -5681,7 +5727,7 @@
         <v>25</v>
       </c>
       <c r="B91" s="10"/>
-      <c r="D91" s="132" t="str">
+      <c r="D91" s="131" t="str">
         <f>IF(Q106="","",IF(LEN(Q106)&lt;=135,Q106,IF(LEN(Q106)&lt;=260,LEFT(Q106,SEARCH(" ",Q106,125)),LEFT(Q106,SEARCH(" ",Q106,130)))))</f>
         <v/>
       </c>
@@ -5696,21 +5742,21 @@
       <c r="M91" s="12"/>
       <c r="O91" s="13"/>
       <c r="P91" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q91" s="149" t="str">
+        <v>130</v>
+      </c>
+      <c r="Q91" s="148" t="str">
         <f>IF(Q85="","",STDEV(Q85:Q89))</f>
         <v/>
       </c>
-      <c r="R91" s="150" t="str">
+      <c r="R91" s="149" t="str">
         <f>IF(R85="","",STDEV(R85:R89))</f>
         <v/>
       </c>
-      <c r="S91" s="151" t="str">
+      <c r="S91" s="150" t="str">
         <f>IF(S85="","",STDEV(S85:S89))</f>
         <v/>
       </c>
-      <c r="T91" s="150" t="str">
+      <c r="T91" s="149" t="str">
         <f>IF(T85="","",STDEV(T85:T89))</f>
         <v/>
       </c>
@@ -5721,7 +5767,7 @@
         <v>26</v>
       </c>
       <c r="B92" s="10"/>
-      <c r="D92" s="132" t="str">
+      <c r="D92" s="131" t="str">
         <f>IF(LEN(Q106)&lt;=135,"",IF(LEN(Q106)&lt;=260,RIGHT(Q106,LEN(Q106)-SEARCH(" ",Q106,125)),MID(Q106,SEARCH(" ",Q106,130),IF(LEN(Q106)&lt;=265,LEN(Q106),SEARCH(" ",Q106,255)-SEARCH(" ",Q106,130)))))</f>
         <v/>
       </c>
@@ -5736,29 +5782,29 @@
       <c r="M92" s="12"/>
       <c r="O92" s="13"/>
       <c r="P92" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q92" s="152" t="str">
+        <v>131</v>
+      </c>
+      <c r="Q92" s="151" t="str">
         <f>IF(Q85="","",(MAX(Q85:Q89)-MIN(Q85:Q89))/(MIN(Q85:Q89)+MAX(Q85:Q89)))</f>
         <v/>
       </c>
-      <c r="R92" s="153" t="str">
+      <c r="R92" s="152" t="str">
         <f>IF(R85="","",(MAX(R85:R89)-MIN(R85:R89))/(MIN(R85:R89)+MAX(R85:R89)))</f>
         <v/>
       </c>
-      <c r="S92" s="154" t="str">
+      <c r="S92" s="153" t="str">
         <f>IF(S85="","",(MAX(S85:S89)-MIN(S85:S89))/(MIN(S85:S89)+MAX(S85:S89)))</f>
         <v/>
       </c>
-      <c r="T92" s="153" t="str">
+      <c r="T92" s="152" t="str">
         <f>IF(T85="","",(MAX(T85:T89)-MIN(T85:T89))/(MIN(T85:T89)+MAX(T85:T89)))</f>
         <v/>
       </c>
       <c r="U92" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y92" s="14"/>
     </row>
@@ -5767,7 +5813,7 @@
         <v>27</v>
       </c>
       <c r="B93" s="10"/>
-      <c r="D93" s="132" t="str">
+      <c r="D93" s="131" t="str">
         <f>IF(LEN(Q106)&lt;=265,"",RIGHT(Q106,LEN(Q106)-SEARCH(" ",Q106,255)))</f>
         <v/>
       </c>
@@ -5782,17 +5828,17 @@
       <c r="M93" s="12"/>
       <c r="O93" s="13"/>
       <c r="P93" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q93" s="90" t="str">
+        <v>63</v>
+      </c>
+      <c r="Q93" s="89" t="str">
         <f>IF(Q95&lt;&gt;"",Q95,IF(AB49="","",AB49))</f>
         <v/>
       </c>
-      <c r="R93" s="91"/>
-      <c r="S93" s="91"/>
-      <c r="T93" s="91"/>
-      <c r="U93" s="91"/>
-      <c r="X93" s="91"/>
+      <c r="R93" s="90"/>
+      <c r="S93" s="90"/>
+      <c r="T93" s="90"/>
+      <c r="U93" s="90"/>
+      <c r="X93" s="90"/>
       <c r="Y93" s="14"/>
     </row>
     <row r="94" spans="1:25" ht="14.45" customHeight="1">
@@ -5800,7 +5846,7 @@
         <v>28</v>
       </c>
       <c r="B94" s="10"/>
-      <c r="D94" s="132" t="str">
+      <c r="D94" s="131" t="str">
         <f>IF(Q108="","",IF(LEN(Q108)&lt;=135,Q108,IF(LEN(Q108)&lt;=260,LEFT(Q108,SEARCH(" ",Q108,125)),LEFT(Q108,SEARCH(" ",Q108,130)))))</f>
         <v/>
       </c>
@@ -5814,11 +5860,11 @@
       <c r="L94" s="77"/>
       <c r="M94" s="12"/>
       <c r="O94" s="13"/>
-      <c r="P94" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q94" s="94"/>
-      <c r="R94" s="95">
+      <c r="P94" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q94" s="93"/>
+      <c r="R94" s="94">
         <f>LEN(Q93)</f>
         <v>0</v>
       </c>
@@ -5835,7 +5881,7 @@
         <v>29</v>
       </c>
       <c r="B95" s="10"/>
-      <c r="D95" s="132" t="str">
+      <c r="D95" s="131" t="str">
         <f>IF(LEN(Q108)&lt;=135,"",IF(LEN(Q108)&lt;=260,RIGHT(Q108,LEN(Q108)-SEARCH(" ",Q108,125)),MID(Q108,SEARCH(" ",Q108,130),IF(LEN(Q108)&lt;=265,LEN(Q108),SEARCH(" ",Q108,255)-SEARCH(" ",Q108,130)))))</f>
         <v/>
       </c>
@@ -5850,7 +5896,7 @@
       <c r="M95" s="12"/>
       <c r="O95" s="13"/>
       <c r="P95" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q95" s="76"/>
       <c r="R95" s="77"/>
@@ -5867,7 +5913,7 @@
         <v>30</v>
       </c>
       <c r="B96" s="10"/>
-      <c r="D96" s="132" t="str">
+      <c r="D96" s="131" t="str">
         <f>IF(LEN(Q108)&lt;=265,"",RIGHT(Q108,LEN(Q108)-SEARCH(" ",Q108,255)))</f>
         <v/>
       </c>
@@ -5897,7 +5943,7 @@
         <v>31</v>
       </c>
       <c r="B97" s="10"/>
-      <c r="D97" s="132" t="str">
+      <c r="D97" s="131" t="str">
         <f>IF(Q110="","",IF(LEN(Q110)&lt;=135,Q110,IF(LEN(Q110)&lt;=260,LEFT(Q110,SEARCH(" ",Q110,125)),LEFT(Q110,SEARCH(" ",Q110,130)))))</f>
         <v/>
       </c>
@@ -5916,7 +5962,7 @@
         <v>32</v>
       </c>
       <c r="B98" s="10"/>
-      <c r="D98" s="132" t="str">
+      <c r="D98" s="131" t="str">
         <f>IF(LEN(Q110)&lt;=135,"",IF(LEN(Q110)&lt;=260,RIGHT(Q110,LEN(Q110)-SEARCH(" ",Q110,125)),MID(Q110,SEARCH(" ",Q110,130),IF(LEN(Q110)&lt;=265,LEN(Q110),SEARCH(" ",Q110,255)-SEARCH(" ",Q110,130)))))</f>
         <v/>
       </c>
@@ -5929,8 +5975,8 @@
       <c r="K98" s="77"/>
       <c r="L98" s="77"/>
       <c r="M98" s="12"/>
-      <c r="T98" s="155" t="s">
-        <v>133</v>
+      <c r="T98" s="154" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="14.45" customHeight="1">
@@ -5938,7 +5984,7 @@
         <v>33</v>
       </c>
       <c r="B99" s="10"/>
-      <c r="D99" s="132" t="str">
+      <c r="D99" s="131" t="str">
         <f>IF(LEN(Q110)&lt;=265,"",RIGHT(Q110,LEN(Q110)-SEARCH(" ",Q110,255)))</f>
         <v/>
       </c>
@@ -5955,8 +6001,8 @@
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="156" t="s">
-        <v>134</v>
+      <c r="S99" s="155" t="s">
+        <v>133</v>
       </c>
       <c r="T99" s="7"/>
       <c r="U99" s="7"/>
@@ -5970,7 +6016,7 @@
         <v>34</v>
       </c>
       <c r="B100" s="10"/>
-      <c r="D100" s="132" t="str">
+      <c r="D100" s="131" t="str">
         <f>IF(Q112="","",IF(LEN(Q112)&lt;=135,Q112,IF(LEN(Q112)&lt;=260,LEFT(Q112,SEARCH(" ",Q112,125)),LEFT(Q112,SEARCH(" ",Q112,130)))))</f>
         <v/>
       </c>
@@ -5985,17 +6031,17 @@
       <c r="M100" s="12"/>
       <c r="O100" s="13"/>
       <c r="P100" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q100" s="157"/>
-      <c r="R100" s="158"/>
-      <c r="S100" s="159" t="str">
+        <v>63</v>
+      </c>
+      <c r="Q100" s="156"/>
+      <c r="R100" s="157"/>
+      <c r="S100" s="158" t="str">
         <f>IF(AB51="","",AB51)</f>
         <v/>
       </c>
-      <c r="T100" s="91"/>
-      <c r="U100" s="91"/>
-      <c r="X100" s="91"/>
+      <c r="T100" s="90"/>
+      <c r="U100" s="90"/>
+      <c r="X100" s="90"/>
       <c r="Y100" s="14"/>
     </row>
     <row r="101" spans="1:25" ht="14.45" customHeight="1">
@@ -6003,7 +6049,7 @@
         <v>35</v>
       </c>
       <c r="B101" s="10"/>
-      <c r="D101" s="132" t="str">
+      <c r="D101" s="131" t="str">
         <f>IF(LEN(Q112)&lt;=135,"",IF(LEN(Q112)&lt;=260,RIGHT(Q112,LEN(Q112)-SEARCH(" ",Q112,125)),MID(Q112,SEARCH(" ",Q112,130),IF(LEN(Q112)&lt;=265,LEN(Q112),SEARCH(" ",Q112,255)-SEARCH(" ",Q112,130)))))</f>
         <v/>
       </c>
@@ -6017,17 +6063,17 @@
       <c r="L101" s="77"/>
       <c r="M101" s="12"/>
       <c r="O101" s="13"/>
-      <c r="P101" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q101" s="94"/>
-      <c r="R101" s="160">
+      <c r="P101" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q101" s="93"/>
+      <c r="R101" s="159">
         <f>LEN(Q100)</f>
         <v>0</v>
       </c>
       <c r="S101" s="77"/>
       <c r="T101" s="77"/>
-      <c r="U101" s="161"/>
+      <c r="U101" s="160"/>
       <c r="V101" s="77"/>
       <c r="W101" s="77"/>
       <c r="X101" s="77"/>
@@ -6038,7 +6084,7 @@
         <v>36</v>
       </c>
       <c r="B102" s="10"/>
-      <c r="D102" s="132" t="str">
+      <c r="D102" s="131" t="str">
         <f>IF(LEN(Q112)&lt;=265,"",RIGHT(Q112,LEN(Q112)-SEARCH(" ",Q112,255)))</f>
         <v/>
       </c>
@@ -6053,17 +6099,17 @@
       <c r="M102" s="12"/>
       <c r="O102" s="13"/>
       <c r="P102" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q102" s="157"/>
-      <c r="R102" s="158"/>
-      <c r="S102" s="159" t="str">
+        <v>134</v>
+      </c>
+      <c r="Q102" s="156"/>
+      <c r="R102" s="157"/>
+      <c r="S102" s="158" t="str">
         <f>IF(AB53="","",AB53)</f>
         <v/>
       </c>
-      <c r="T102" s="91"/>
-      <c r="U102" s="91"/>
-      <c r="X102" s="91"/>
+      <c r="T102" s="90"/>
+      <c r="U102" s="90"/>
+      <c r="X102" s="90"/>
       <c r="Y102" s="14"/>
     </row>
     <row r="103" spans="1:25" ht="14.45" customHeight="1">
@@ -6071,7 +6117,7 @@
         <v>37</v>
       </c>
       <c r="B103" s="10"/>
-      <c r="D103" s="132" t="str">
+      <c r="D103" s="131" t="str">
         <f>IF(Q114="","",IF(LEN(Q114)&lt;=135,Q114,IF(LEN(Q114)&lt;=260,LEFT(Q114,SEARCH(" ",Q114,125)),LEFT(Q114,SEARCH(" ",Q114,130)))))</f>
         <v/>
       </c>
@@ -6085,17 +6131,17 @@
       <c r="L103" s="77"/>
       <c r="M103" s="12"/>
       <c r="O103" s="13"/>
-      <c r="P103" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q103" s="94"/>
-      <c r="R103" s="160">
+      <c r="P103" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q103" s="93"/>
+      <c r="R103" s="159">
         <f>LEN(Q102)</f>
         <v>0</v>
       </c>
       <c r="S103" s="77"/>
       <c r="T103" s="77"/>
-      <c r="U103" s="161"/>
+      <c r="U103" s="160"/>
       <c r="V103" s="77"/>
       <c r="W103" s="77"/>
       <c r="X103" s="77"/>
@@ -6106,7 +6152,7 @@
         <v>38</v>
       </c>
       <c r="B104" s="10"/>
-      <c r="D104" s="132" t="str">
+      <c r="D104" s="131" t="str">
         <f>IF(LEN(Q114)&lt;=135,"",IF(LEN(Q114)&lt;=260,RIGHT(Q114,LEN(Q114)-SEARCH(" ",Q114,125)),MID(Q114,SEARCH(" ",Q114,130),IF(LEN(Q114)&lt;=265,LEN(Q114),SEARCH(" ",Q114,255)-SEARCH(" ",Q114,130)))))</f>
         <v/>
       </c>
@@ -6121,17 +6167,17 @@
       <c r="M104" s="12"/>
       <c r="O104" s="13"/>
       <c r="P104" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q104" s="157"/>
-      <c r="R104" s="158"/>
-      <c r="S104" s="159" t="str">
+        <v>134</v>
+      </c>
+      <c r="Q104" s="156"/>
+      <c r="R104" s="157"/>
+      <c r="S104" s="158" t="str">
         <f>IF(AB55="","",AB55)</f>
         <v/>
       </c>
-      <c r="T104" s="91"/>
-      <c r="U104" s="91"/>
-      <c r="X104" s="91"/>
+      <c r="T104" s="90"/>
+      <c r="U104" s="90"/>
+      <c r="X104" s="90"/>
       <c r="Y104" s="14"/>
     </row>
     <row r="105" spans="1:25" ht="14.45" customHeight="1">
@@ -6139,7 +6185,7 @@
         <v>39</v>
       </c>
       <c r="B105" s="10"/>
-      <c r="D105" s="132" t="str">
+      <c r="D105" s="131" t="str">
         <f>IF(LEN(Q114)&lt;=265,"",RIGHT(Q114,LEN(Q114)-SEARCH(" ",Q114,255)))</f>
         <v/>
       </c>
@@ -6153,17 +6199,17 @@
       <c r="L105" s="77"/>
       <c r="M105" s="12"/>
       <c r="O105" s="13"/>
-      <c r="P105" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q105" s="94"/>
-      <c r="R105" s="160">
+      <c r="P105" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q105" s="93"/>
+      <c r="R105" s="159">
         <f>LEN(Q104)</f>
         <v>0</v>
       </c>
       <c r="S105" s="77"/>
       <c r="T105" s="77"/>
-      <c r="U105" s="161"/>
+      <c r="U105" s="160"/>
       <c r="V105" s="77"/>
       <c r="W105" s="77"/>
       <c r="X105" s="77"/>
@@ -6174,7 +6220,7 @@
         <v>40</v>
       </c>
       <c r="B106" s="10"/>
-      <c r="D106" s="132" t="str">
+      <c r="D106" s="131" t="str">
         <f>IF(Q116="","",IF(LEN(Q116)&lt;=135,Q116,IF(LEN(Q116)&lt;=260,LEFT(Q116,SEARCH(" ",Q116,125)),LEFT(Q116,SEARCH(" ",Q116,130)))))</f>
         <v/>
       </c>
@@ -6189,17 +6235,17 @@
       <c r="M106" s="12"/>
       <c r="O106" s="13"/>
       <c r="P106" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q106" s="157"/>
-      <c r="R106" s="158"/>
-      <c r="S106" s="159" t="str">
+        <v>134</v>
+      </c>
+      <c r="Q106" s="156"/>
+      <c r="R106" s="157"/>
+      <c r="S106" s="158" t="str">
         <f>IF(AB57="","",AB57)</f>
         <v/>
       </c>
-      <c r="T106" s="91"/>
-      <c r="U106" s="91"/>
-      <c r="X106" s="91"/>
+      <c r="T106" s="90"/>
+      <c r="U106" s="90"/>
+      <c r="X106" s="90"/>
       <c r="Y106" s="14"/>
     </row>
     <row r="107" spans="1:25" ht="14.45" customHeight="1">
@@ -6207,7 +6253,7 @@
         <v>41</v>
       </c>
       <c r="B107" s="10"/>
-      <c r="D107" s="132" t="str">
+      <c r="D107" s="131" t="str">
         <f>IF(LEN(Q116)&lt;=135,"",IF(LEN(Q116)&lt;=260,RIGHT(Q116,LEN(Q116)-SEARCH(" ",Q116,125)),MID(Q116,SEARCH(" ",Q116,130),IF(LEN(Q116)&lt;=265,LEN(Q116),SEARCH(" ",Q116,255)-SEARCH(" ",Q116,130)))))</f>
         <v/>
       </c>
@@ -6221,17 +6267,17 @@
       <c r="L107" s="77"/>
       <c r="M107" s="12"/>
       <c r="O107" s="13"/>
-      <c r="P107" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q107" s="94"/>
-      <c r="R107" s="160">
+      <c r="P107" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q107" s="93"/>
+      <c r="R107" s="159">
         <f>LEN(Q106)</f>
         <v>0</v>
       </c>
       <c r="S107" s="77"/>
       <c r="T107" s="77"/>
-      <c r="U107" s="161"/>
+      <c r="U107" s="160"/>
       <c r="V107" s="77"/>
       <c r="W107" s="77"/>
       <c r="X107" s="77"/>
@@ -6242,7 +6288,7 @@
         <v>42</v>
       </c>
       <c r="B108" s="10"/>
-      <c r="D108" s="132" t="str">
+      <c r="D108" s="131" t="str">
         <f>IF(LEN(Q116)&lt;=265,"",RIGHT(Q116,LEN(Q116)-SEARCH(" ",Q116,255)))</f>
         <v/>
       </c>
@@ -6257,17 +6303,17 @@
       <c r="M108" s="12"/>
       <c r="O108" s="13"/>
       <c r="P108" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q108" s="157"/>
-      <c r="R108" s="158"/>
-      <c r="S108" s="159" t="str">
+        <v>134</v>
+      </c>
+      <c r="Q108" s="156"/>
+      <c r="R108" s="157"/>
+      <c r="S108" s="158" t="str">
         <f>IF(AB59="","",AB59)</f>
         <v/>
       </c>
-      <c r="T108" s="91"/>
-      <c r="U108" s="91"/>
-      <c r="X108" s="91"/>
+      <c r="T108" s="90"/>
+      <c r="U108" s="90"/>
+      <c r="X108" s="90"/>
       <c r="Y108" s="14"/>
     </row>
     <row r="109" spans="1:25" ht="14.45" customHeight="1">
@@ -6275,7 +6321,7 @@
         <v>43</v>
       </c>
       <c r="B109" s="10"/>
-      <c r="D109" s="132" t="str">
+      <c r="D109" s="131" t="str">
         <f>IF(Q118="","",IF(LEN(Q118)&lt;=135,Q118,IF(LEN(Q118)&lt;=260,LEFT(Q118,SEARCH(" ",Q118,125)),LEFT(Q118,SEARCH(" ",Q118,130)))))</f>
         <v/>
       </c>
@@ -6289,17 +6335,17 @@
       <c r="L109" s="77"/>
       <c r="M109" s="12"/>
       <c r="O109" s="13"/>
-      <c r="P109" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q109" s="94"/>
-      <c r="R109" s="160">
+      <c r="P109" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q109" s="93"/>
+      <c r="R109" s="159">
         <f>LEN(Q108)</f>
         <v>0</v>
       </c>
       <c r="S109" s="77"/>
       <c r="T109" s="77"/>
-      <c r="U109" s="161"/>
+      <c r="U109" s="160"/>
       <c r="V109" s="77"/>
       <c r="W109" s="77"/>
       <c r="X109" s="77"/>
@@ -6310,7 +6356,7 @@
         <v>44</v>
       </c>
       <c r="B110" s="10"/>
-      <c r="D110" s="132" t="str">
+      <c r="D110" s="131" t="str">
         <f>IF(LEN(Q118)&lt;=135,"",IF(LEN(Q118)&lt;=260,RIGHT(Q118,LEN(Q118)-SEARCH(" ",Q118,125)),MID(Q118,SEARCH(" ",Q118,130),IF(LEN(Q118)&lt;=265,LEN(Q118),SEARCH(" ",Q118,255)-SEARCH(" ",Q118,130)))))</f>
         <v/>
       </c>
@@ -6325,17 +6371,17 @@
       <c r="M110" s="12"/>
       <c r="O110" s="13"/>
       <c r="P110" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q110" s="157"/>
-      <c r="R110" s="158"/>
-      <c r="S110" s="159" t="str">
+        <v>134</v>
+      </c>
+      <c r="Q110" s="156"/>
+      <c r="R110" s="157"/>
+      <c r="S110" s="158" t="str">
         <f>IF(AB61="","",AB61)</f>
         <v/>
       </c>
-      <c r="T110" s="91"/>
-      <c r="U110" s="91"/>
-      <c r="X110" s="91"/>
+      <c r="T110" s="90"/>
+      <c r="U110" s="90"/>
+      <c r="X110" s="90"/>
       <c r="Y110" s="14"/>
     </row>
     <row r="111" spans="1:25" ht="14.45" customHeight="1">
@@ -6343,7 +6389,7 @@
         <v>45</v>
       </c>
       <c r="B111" s="10"/>
-      <c r="D111" s="132" t="str">
+      <c r="D111" s="131" t="str">
         <f>IF(LEN(Q118)&lt;=265,"",RIGHT(Q118,LEN(Q118)-SEARCH(" ",Q118,255)))</f>
         <v/>
       </c>
@@ -6357,11 +6403,11 @@
       <c r="L111" s="77"/>
       <c r="M111" s="12"/>
       <c r="O111" s="13"/>
-      <c r="P111" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q111" s="94"/>
-      <c r="R111" s="160">
+      <c r="P111" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q111" s="93"/>
+      <c r="R111" s="159">
         <f>LEN(Q110)</f>
         <v>0</v>
       </c>
@@ -6378,7 +6424,7 @@
         <v>46</v>
       </c>
       <c r="B112" s="10"/>
-      <c r="D112" s="132" t="str">
+      <c r="D112" s="131" t="str">
         <f>IF(Q120="","",IF(LEN(Q120)&lt;=135,Q120,IF(LEN(Q120)&lt;=260,LEFT(Q120,SEARCH(" ",Q120,125)),LEFT(Q120,SEARCH(" ",Q120,130)))))</f>
         <v/>
       </c>
@@ -6393,17 +6439,17 @@
       <c r="M112" s="12"/>
       <c r="O112" s="13"/>
       <c r="P112" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q112" s="157"/>
-      <c r="R112" s="158"/>
-      <c r="S112" s="159" t="str">
+        <v>134</v>
+      </c>
+      <c r="Q112" s="156"/>
+      <c r="R112" s="157"/>
+      <c r="S112" s="158" t="str">
         <f>IF(AB63="","",AB63)</f>
         <v/>
       </c>
-      <c r="T112" s="91"/>
-      <c r="U112" s="91"/>
-      <c r="X112" s="91"/>
+      <c r="T112" s="90"/>
+      <c r="U112" s="90"/>
+      <c r="X112" s="90"/>
       <c r="Y112" s="14"/>
     </row>
     <row r="113" spans="1:25" ht="14.45" customHeight="1">
@@ -6411,7 +6457,7 @@
         <v>47</v>
       </c>
       <c r="B113" s="10"/>
-      <c r="D113" s="132" t="str">
+      <c r="D113" s="131" t="str">
         <f>IF(LEN(Q120)&lt;=135,"",IF(LEN(Q120)&lt;=260,RIGHT(Q120,LEN(Q120)-SEARCH(" ",Q120,125)),MID(Q120,SEARCH(" ",Q120,130),IF(LEN(Q120)&lt;=265,LEN(Q120),SEARCH(" ",Q120,255)-SEARCH(" ",Q120,130)))))</f>
         <v/>
       </c>
@@ -6425,11 +6471,11 @@
       <c r="L113" s="77"/>
       <c r="M113" s="12"/>
       <c r="O113" s="13"/>
-      <c r="P113" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q113" s="94"/>
-      <c r="R113" s="160">
+      <c r="P113" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q113" s="93"/>
+      <c r="R113" s="159">
         <f>LEN(Q112)</f>
         <v>0</v>
       </c>
@@ -6446,7 +6492,7 @@
         <v>48</v>
       </c>
       <c r="B114" s="10"/>
-      <c r="D114" s="132" t="str">
+      <c r="D114" s="131" t="str">
         <f>IF(LEN(Q120)&lt;=265,"",RIGHT(Q120,LEN(Q120)-SEARCH(" ",Q120,255)))</f>
         <v/>
       </c>
@@ -6461,17 +6507,17 @@
       <c r="M114" s="12"/>
       <c r="O114" s="13"/>
       <c r="P114" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q114" s="157"/>
-      <c r="R114" s="158"/>
-      <c r="S114" s="159" t="str">
+        <v>134</v>
+      </c>
+      <c r="Q114" s="156"/>
+      <c r="R114" s="157"/>
+      <c r="S114" s="158" t="str">
         <f>IF(AB65="","",AB65)</f>
         <v/>
       </c>
-      <c r="T114" s="91"/>
-      <c r="U114" s="91"/>
-      <c r="X114" s="91"/>
+      <c r="T114" s="90"/>
+      <c r="U114" s="90"/>
+      <c r="X114" s="90"/>
       <c r="Y114" s="14"/>
     </row>
     <row r="115" spans="1:25" ht="14.45" customHeight="1">
@@ -6481,11 +6527,11 @@
       <c r="B115" s="10"/>
       <c r="M115" s="12"/>
       <c r="O115" s="13"/>
-      <c r="P115" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q115" s="94"/>
-      <c r="R115" s="160">
+      <c r="P115" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q115" s="93"/>
+      <c r="R115" s="159">
         <f>LEN(Q114)</f>
         <v>0</v>
       </c>
@@ -6505,17 +6551,17 @@
       <c r="M116" s="12"/>
       <c r="O116" s="13"/>
       <c r="P116" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q116" s="157"/>
-      <c r="R116" s="158"/>
-      <c r="S116" s="159" t="str">
+        <v>134</v>
+      </c>
+      <c r="Q116" s="156"/>
+      <c r="R116" s="157"/>
+      <c r="S116" s="158" t="str">
         <f>IF(AB67="","",AB67)</f>
         <v/>
       </c>
-      <c r="T116" s="91"/>
-      <c r="U116" s="91"/>
-      <c r="X116" s="91"/>
+      <c r="T116" s="90"/>
+      <c r="U116" s="90"/>
+      <c r="X116" s="90"/>
       <c r="Y116" s="14"/>
     </row>
     <row r="117" spans="1:25" ht="14.45" customHeight="1">
@@ -6525,11 +6571,11 @@
       <c r="B117" s="10"/>
       <c r="M117" s="12"/>
       <c r="O117" s="13"/>
-      <c r="P117" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q117" s="94"/>
-      <c r="R117" s="160">
+      <c r="P117" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q117" s="93"/>
+      <c r="R117" s="159">
         <f>LEN(Q116)</f>
         <v>0</v>
       </c>
@@ -6549,17 +6595,17 @@
       <c r="M118" s="12"/>
       <c r="O118" s="13"/>
       <c r="P118" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q118" s="157"/>
-      <c r="R118" s="158"/>
-      <c r="S118" s="159" t="str">
+        <v>134</v>
+      </c>
+      <c r="Q118" s="156"/>
+      <c r="R118" s="157"/>
+      <c r="S118" s="158" t="str">
         <f>IF(AB69="","",AB69)</f>
         <v/>
       </c>
-      <c r="T118" s="91"/>
-      <c r="U118" s="91"/>
-      <c r="X118" s="91"/>
+      <c r="T118" s="90"/>
+      <c r="U118" s="90"/>
+      <c r="X118" s="90"/>
       <c r="Y118" s="14"/>
     </row>
     <row r="119" spans="1:25" ht="14.45" customHeight="1">
@@ -6569,11 +6615,11 @@
       <c r="B119" s="10"/>
       <c r="M119" s="12"/>
       <c r="O119" s="13"/>
-      <c r="P119" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q119" s="94"/>
-      <c r="R119" s="160">
+      <c r="P119" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q119" s="93"/>
+      <c r="R119" s="159">
         <f>LEN(Q118)</f>
         <v>0</v>
       </c>
@@ -6593,17 +6639,17 @@
       <c r="M120" s="12"/>
       <c r="O120" s="13"/>
       <c r="P120" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q120" s="157"/>
-      <c r="R120" s="158"/>
-      <c r="S120" s="159" t="str">
+        <v>134</v>
+      </c>
+      <c r="Q120" s="156"/>
+      <c r="R120" s="157"/>
+      <c r="S120" s="158" t="str">
         <f>IF(AB71="","",AB71)</f>
         <v/>
       </c>
-      <c r="T120" s="91"/>
-      <c r="U120" s="91"/>
-      <c r="X120" s="91"/>
+      <c r="T120" s="90"/>
+      <c r="U120" s="90"/>
+      <c r="X120" s="90"/>
       <c r="Y120" s="14"/>
     </row>
     <row r="121" spans="1:25" ht="14.45" customHeight="1">
@@ -6613,11 +6659,11 @@
       <c r="B121" s="10"/>
       <c r="M121" s="12"/>
       <c r="O121" s="13"/>
-      <c r="P121" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q121" s="94"/>
-      <c r="R121" s="160">
+      <c r="P121" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q121" s="93"/>
+      <c r="R121" s="159">
         <f>LEN(Q120)</f>
         <v>0</v>
       </c>
@@ -6720,14 +6766,14 @@
       <c r="C131" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D131" s="163" t="str">
+      <c r="D131" s="162" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
       <c r="L131" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M131" s="116" t="str">
+      <c r="M131" s="115" t="str">
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
@@ -6737,22 +6783,60 @@
         <v>66</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D132" s="117" t="str">
+        <v>108</v>
+      </c>
+      <c r="D132" s="116" t="str">
         <f>IF($J$12="","",$J$12)</f>
         <v/>
       </c>
       <c r="L132" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="M132" s="118" t="str">
+      <c r="M132" s="117" t="str">
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="S70:S71"/>
+    <mergeCell ref="V70:V71"/>
+    <mergeCell ref="W70:W71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="S72:S73"/>
     <mergeCell ref="Q83:R83"/>
     <mergeCell ref="S83:T83"/>
     <mergeCell ref="V72:V73"/>
@@ -6762,44 +6846,6 @@
     <mergeCell ref="S74:S75"/>
     <mergeCell ref="V74:V75"/>
     <mergeCell ref="W74:W75"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="S72:S73"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="S70:S71"/>
-    <mergeCell ref="V70:V71"/>
-    <mergeCell ref="W70:W71"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <conditionalFormatting sqref="I72:I74">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">

--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -443,9 +443,6 @@
     <t>Calibration Date:</t>
   </si>
   <si>
-    <t>Radcal 9010</t>
-  </si>
-  <si>
     <t>Test Equipment</t>
   </si>
   <si>
@@ -462,6 +459,9 @@
   </si>
   <si>
     <t>Revision 1.4-20200130</t>
+  </si>
+  <si>
+    <t>Piranha CB2-17090320</t>
   </si>
 </sst>
 </file>
@@ -1741,26 +1741,92 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="171" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1771,9 +1837,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1786,71 +1849,8 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="171" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2329,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2360,7 +2360,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="5"/>
       <c r="O1" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
@@ -2375,12 +2375,12 @@
       <c r="AA1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="200" t="s">
+      <c r="AG1" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="200"/>
-      <c r="AI1" s="200"/>
-      <c r="AJ1" s="200"/>
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="175"/>
+      <c r="AJ1" s="175"/>
     </row>
     <row r="2" spans="1:36" ht="14.45" customHeight="1">
       <c r="A2" s="2">
@@ -2397,14 +2397,14 @@
       </c>
       <c r="Y2" s="14"/>
       <c r="AA2" s="15"/>
-      <c r="AG2" s="201" t="s">
+      <c r="AG2" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202" t="s">
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="202"/>
+      <c r="AJ2" s="177"/>
     </row>
     <row r="3" spans="1:36" ht="14.45" customHeight="1">
       <c r="A3" s="2">
@@ -2694,19 +2694,19 @@
       <c r="D10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="203" t="str">
+      <c r="E10" s="178" t="str">
         <f t="shared" ref="E10:E15" si="1">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="F10" s="203"/>
+      <c r="F10" s="178"/>
       <c r="I10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="203" t="str">
+      <c r="J10" s="178" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="K10" s="203"/>
+      <c r="K10" s="178"/>
       <c r="M10" s="12"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="21" t="s">
@@ -2747,19 +2747,19 @@
       <c r="D11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="197" t="str">
+      <c r="E11" s="179" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="197"/>
+      <c r="F11" s="179"/>
       <c r="I11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="180" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="K11" s="199"/>
+      <c r="K11" s="180"/>
       <c r="M11" s="12"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="21" t="s">
@@ -2800,19 +2800,19 @@
       <c r="D12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="197" t="str">
+      <c r="E12" s="179" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="197"/>
+      <c r="F12" s="179"/>
       <c r="I12" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="197" t="str">
+      <c r="J12" s="179" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="K12" s="197"/>
+      <c r="K12" s="179"/>
       <c r="M12" s="12"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="21" t="s">
@@ -2853,19 +2853,19 @@
       <c r="D13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="197" t="str">
+      <c r="E13" s="179" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="197"/>
+      <c r="F13" s="179"/>
       <c r="I13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="197" t="str">
+      <c r="J13" s="179" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="K13" s="197"/>
+      <c r="K13" s="179"/>
       <c r="M13" s="12"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="21" t="s">
@@ -2906,19 +2906,19 @@
       <c r="D14" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="197" t="str">
+      <c r="E14" s="179" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="197"/>
+      <c r="F14" s="179"/>
       <c r="I14" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="197" t="str">
+      <c r="J14" s="179" t="str">
         <f>IF(V14="","",V14)</f>
         <v/>
       </c>
-      <c r="K14" s="197"/>
+      <c r="K14" s="179"/>
       <c r="M14" s="12"/>
       <c r="O14" s="13"/>
       <c r="Q14" s="21" t="s">
@@ -2959,11 +2959,11 @@
       <c r="D15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="197" t="str">
+      <c r="E15" s="179" t="str">
         <f t="shared" si="1"/>
         <v>IMPAX 4.2 2015</v>
       </c>
-      <c r="F15" s="197"/>
+      <c r="F15" s="179"/>
       <c r="M15" s="12"/>
       <c r="O15" s="26"/>
       <c r="P15" s="27"/>
@@ -3094,17 +3094,17 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="204" t="s">
+      <c r="F19" s="174"/>
+      <c r="G19" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="204"/>
-      <c r="I19" s="204"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="198" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" s="198"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="182" t="s">
+        <v>138</v>
+      </c>
+      <c r="L19" s="182"/>
       <c r="M19" s="5"/>
       <c r="O19" s="13"/>
       <c r="R19" s="1" t="s">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="S19" s="40"/>
       <c r="V19" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W19" s="40"/>
       <c r="X19" s="40"/>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B20" s="10"/>
       <c r="D20" s="52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E20" s="53" t="str">
         <f>IF(O20="","",IF(O20=1,"YES",IF(O20=2,"NO",IF(O20=3,"NA",""))))</f>
@@ -3156,9 +3156,9 @@
       <c r="K20" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="L20" s="167" t="str">
+      <c r="L20" s="88" t="str">
         <f>IF(W20="","",W20)</f>
-        <v>Radcal 9010</v>
+        <v>Piranha CB2-17090320</v>
       </c>
       <c r="M20" s="12"/>
       <c r="O20" s="75"/>
@@ -3170,12 +3170,12 @@
       <c r="V20" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="W20" s="169" t="str">
+      <c r="W20" s="168" t="str">
         <f>IF(X20&lt;&gt;"",X20,IF(AB23="","",AB23))</f>
-        <v>Radcal 9010</v>
-      </c>
-      <c r="X20" s="170" t="s">
-        <v>138</v>
+        <v>Piranha CB2-17090320</v>
+      </c>
+      <c r="X20" s="169" t="s">
+        <v>144</v>
       </c>
       <c r="Y20" s="14"/>
       <c r="AA20" s="21" t="s">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B21" s="10"/>
       <c r="D21" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E21" s="56" t="str">
         <f>IF(O21="","",IF(O21=1,"YES",IF(O21=2,"NO",IF(O21=3,"NA",""))))</f>
@@ -3217,9 +3217,9 @@
       <c r="K21" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="L21" s="168">
+      <c r="L21" s="204">
         <f t="shared" ref="L21:L22" si="5">IF(W21="","",W21)</f>
-        <v>43670</v>
+        <v>43790</v>
       </c>
       <c r="M21" s="12"/>
       <c r="O21" s="75"/>
@@ -3231,12 +3231,12 @@
       <c r="V21" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="W21" s="174">
+      <c r="W21" s="173">
         <f t="shared" ref="W21:W22" si="6">IF(X21&lt;&gt;"",X21,IF(AB24="","",AB24))</f>
-        <v>43670</v>
-      </c>
-      <c r="X21" s="171">
-        <v>43670</v>
+        <v>43790</v>
+      </c>
+      <c r="X21" s="170">
+        <v>43790</v>
       </c>
       <c r="Y21" s="14"/>
       <c r="AB21" s="20"/>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B22" s="10"/>
       <c r="D22" s="52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E22" s="56" t="str">
         <f>IF(O22="","",IF(O22=1,"YES",IF(O22=2,"NO",IF(O22=3,"NA",""))))</f>
@@ -3269,9 +3269,9 @@
       <c r="K22" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="L22" s="168">
+      <c r="L22" s="204">
         <f t="shared" si="5"/>
-        <v>44036</v>
+        <v>44521</v>
       </c>
       <c r="M22" s="12"/>
       <c r="O22" s="75"/>
@@ -3283,16 +3283,16 @@
       <c r="V22" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="W22" s="174">
+      <c r="W22" s="173">
         <f t="shared" si="6"/>
-        <v>44036</v>
-      </c>
-      <c r="X22" s="171">
-        <v>44036</v>
+        <v>44521</v>
+      </c>
+      <c r="X22" s="170">
+        <v>44521</v>
       </c>
       <c r="Y22" s="14"/>
       <c r="AA22" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="14.45" customHeight="1">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="B23" s="10"/>
       <c r="D23" s="52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E23" s="56" t="str">
         <f>IF(O23="","",IF(O23=1,"YES",IF(O23=2,"NO",IF(O23=3,"NA",""))))</f>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="AD23" s="73" t="str">
         <f>IF(X20="","",X20)</f>
-        <v>Radcal 9010</v>
+        <v>Piranha CB2-17090320</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="14.45" customHeight="1">
@@ -3354,11 +3354,11 @@
       <c r="D24" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="195" t="str">
+      <c r="E24" s="181" t="str">
         <f>IF(P51="","",P51)</f>
         <v/>
       </c>
-      <c r="F24" s="195"/>
+      <c r="F24" s="181"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -3371,14 +3371,14 @@
       <c r="AA24" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="AB24" s="173"/>
+      <c r="AB24" s="172"/>
       <c r="AC24" s="35" t="str">
         <f t="shared" si="7"/>
         <v>Change</v>
       </c>
-      <c r="AD24" s="172">
+      <c r="AD24" s="171">
         <f t="shared" ref="AD24:AD25" si="8">IF(X21="","",X21)</f>
-        <v>43670</v>
+        <v>43790</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="14.45" customHeight="1">
@@ -3400,14 +3400,14 @@
       <c r="AA25" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="AB25" s="173"/>
+      <c r="AB25" s="172"/>
       <c r="AC25" s="35" t="str">
         <f t="shared" si="7"/>
         <v>Change</v>
       </c>
-      <c r="AD25" s="172">
+      <c r="AD25" s="171">
         <f t="shared" si="8"/>
-        <v>44036</v>
+        <v>44521</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="14.45" customHeight="1">
@@ -3680,11 +3680,11 @@
       <c r="C33" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="195" t="str">
+      <c r="D33" s="181" t="str">
         <f>IF(P33="","",P33)</f>
         <v/>
       </c>
-      <c r="E33" s="195"/>
+      <c r="E33" s="181"/>
       <c r="F33" s="86" t="s">
         <v>73</v>
       </c>
@@ -3996,11 +3996,11 @@
       <c r="C41" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="195" t="str">
+      <c r="D41" s="181" t="str">
         <f>IF(P43="","",P43)</f>
         <v/>
       </c>
-      <c r="E41" s="195"/>
+      <c r="E41" s="181"/>
       <c r="F41" s="103" t="str">
         <f>R44</f>
         <v>Left ()</v>
@@ -4496,12 +4496,12 @@
       <c r="C54" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="I54" s="196" t="s">
+      <c r="I54" s="183" t="s">
         <v>97</v>
       </c>
-      <c r="J54" s="196"/>
-      <c r="K54" s="196"/>
-      <c r="L54" s="196"/>
+      <c r="J54" s="183"/>
+      <c r="K54" s="183"/>
+      <c r="L54" s="183"/>
       <c r="M54" s="12"/>
       <c r="O54" s="13"/>
       <c r="P54" s="21" t="s">
@@ -4533,16 +4533,16 @@
         <f>S65</f>
         <v>Right ()</v>
       </c>
-      <c r="I55" s="183" t="str">
+      <c r="I55" s="184" t="str">
         <f>R65</f>
         <v>Left ()</v>
       </c>
-      <c r="J55" s="183"/>
-      <c r="K55" s="184" t="str">
+      <c r="J55" s="184"/>
+      <c r="K55" s="185" t="str">
         <f>S65</f>
         <v>Right ()</v>
       </c>
-      <c r="L55" s="184"/>
+      <c r="L55" s="185"/>
       <c r="M55" s="12"/>
       <c r="O55" s="13"/>
       <c r="Y55" s="14"/>
@@ -4575,16 +4575,16 @@
       <c r="H56" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="I56" s="191" t="str">
+      <c r="I56" s="186" t="str">
         <f>IF(R70="","",R70)</f>
         <v/>
       </c>
-      <c r="J56" s="191"/>
-      <c r="K56" s="192" t="str">
+      <c r="J56" s="186"/>
+      <c r="K56" s="187" t="str">
         <f>IF(S70="","",S70)</f>
         <v/>
       </c>
-      <c r="L56" s="192"/>
+      <c r="L56" s="187"/>
       <c r="M56" s="12"/>
       <c r="O56" s="80" t="s">
         <v>88</v>
@@ -4615,16 +4615,16 @@
       <c r="H57" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="I57" s="191" t="str">
+      <c r="I57" s="186" t="str">
         <f>IF(R72="","",R72)</f>
         <v/>
       </c>
-      <c r="J57" s="191"/>
-      <c r="K57" s="192" t="str">
+      <c r="J57" s="186"/>
+      <c r="K57" s="187" t="str">
         <f>IF(S72="","",S72)</f>
         <v/>
       </c>
-      <c r="L57" s="192"/>
+      <c r="L57" s="187"/>
       <c r="M57" s="12"/>
       <c r="O57" s="112" t="s">
         <v>102</v>
@@ -4667,16 +4667,16 @@
       <c r="H58" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="I58" s="193" t="str">
+      <c r="I58" s="188" t="str">
         <f>IF(R74="","",R74)</f>
         <v/>
       </c>
-      <c r="J58" s="193"/>
-      <c r="K58" s="194" t="str">
+      <c r="J58" s="188"/>
+      <c r="K58" s="189" t="str">
         <f>IF(S74="","",S74)</f>
         <v/>
       </c>
-      <c r="L58" s="194"/>
+      <c r="L58" s="189"/>
       <c r="M58" s="12"/>
       <c r="O58" s="13"/>
       <c r="P58" s="113" t="s">
@@ -5016,10 +5016,10 @@
       <c r="R69" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="V69" s="178" t="s">
+      <c r="V69" s="190" t="s">
         <v>110</v>
       </c>
-      <c r="W69" s="178"/>
+      <c r="W69" s="190"/>
       <c r="Y69" s="14"/>
       <c r="AB69" s="69"/>
       <c r="AC69" s="35" t="str">
@@ -5050,16 +5050,16 @@
       <c r="L70" s="4"/>
       <c r="M70" s="5"/>
       <c r="O70" s="13"/>
-      <c r="Q70" s="178" t="s">
+      <c r="Q70" s="190" t="s">
         <v>99</v>
       </c>
-      <c r="R70" s="187"/>
-      <c r="S70" s="188"/>
-      <c r="V70" s="189" t="str">
+      <c r="R70" s="191"/>
+      <c r="S70" s="192"/>
+      <c r="V70" s="193" t="str">
         <f>IF(AB35="","",AB35)</f>
         <v/>
       </c>
-      <c r="W70" s="190" t="str">
+      <c r="W70" s="194" t="str">
         <f>IF(AB38="","",AB38)</f>
         <v/>
       </c>
@@ -5074,26 +5074,26 @@
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="96"/>
-      <c r="D71" s="183" t="str">
+      <c r="D71" s="184" t="str">
         <f>Q83</f>
         <v>UNL-10 (cd/m^2)</v>
       </c>
-      <c r="E71" s="183"/>
-      <c r="F71" s="184" t="str">
+      <c r="E71" s="184"/>
+      <c r="F71" s="185" t="str">
         <f>S83</f>
         <v>UNL-80 (cd/m^2)</v>
       </c>
-      <c r="G71" s="184"/>
+      <c r="G71" s="185"/>
       <c r="I71" s="68" t="s">
         <v>112</v>
       </c>
       <c r="M71" s="12"/>
       <c r="O71" s="13"/>
-      <c r="Q71" s="178"/>
-      <c r="R71" s="187"/>
-      <c r="S71" s="188"/>
-      <c r="V71" s="189"/>
-      <c r="W71" s="190"/>
+      <c r="Q71" s="190"/>
+      <c r="R71" s="191"/>
+      <c r="S71" s="192"/>
+      <c r="V71" s="193"/>
+      <c r="W71" s="194"/>
       <c r="Y71" s="14"/>
       <c r="AB71" s="69"/>
       <c r="AC71" s="35" t="str">
@@ -5136,16 +5136,16 @@
       </c>
       <c r="M72" s="12"/>
       <c r="O72" s="13"/>
-      <c r="Q72" s="178" t="s">
+      <c r="Q72" s="190" t="s">
         <v>101</v>
       </c>
-      <c r="R72" s="185"/>
-      <c r="S72" s="186"/>
-      <c r="V72" s="176" t="str">
+      <c r="R72" s="195"/>
+      <c r="S72" s="196"/>
+      <c r="V72" s="198" t="str">
         <f>IF(AB36="","",AB36)</f>
         <v/>
       </c>
-      <c r="W72" s="177" t="str">
+      <c r="W72" s="199" t="str">
         <f>IF(AB39="","",AB39)</f>
         <v/>
       </c>
@@ -5184,11 +5184,11 @@
       </c>
       <c r="M73" s="12"/>
       <c r="O73" s="13"/>
-      <c r="Q73" s="178"/>
-      <c r="R73" s="185"/>
-      <c r="S73" s="186"/>
-      <c r="V73" s="176"/>
-      <c r="W73" s="177"/>
+      <c r="Q73" s="190"/>
+      <c r="R73" s="195"/>
+      <c r="S73" s="196"/>
+      <c r="V73" s="198"/>
+      <c r="W73" s="199"/>
       <c r="Y73" s="14"/>
     </row>
     <row r="74" spans="1:30" ht="14.45" customHeight="1">
@@ -5224,16 +5224,16 @@
       </c>
       <c r="M74" s="12"/>
       <c r="O74" s="13"/>
-      <c r="Q74" s="178" t="s">
+      <c r="Q74" s="190" t="s">
         <v>104</v>
       </c>
-      <c r="R74" s="179"/>
-      <c r="S74" s="180"/>
-      <c r="V74" s="181" t="str">
+      <c r="R74" s="200"/>
+      <c r="S74" s="201"/>
+      <c r="V74" s="202" t="str">
         <f>IF(AB37="","",AB37)</f>
         <v/>
       </c>
-      <c r="W74" s="182" t="str">
+      <c r="W74" s="203" t="str">
         <f>IF(AB40="","",AB40)</f>
         <v/>
       </c>
@@ -5265,11 +5265,11 @@
       </c>
       <c r="M75" s="12"/>
       <c r="O75" s="13"/>
-      <c r="Q75" s="178"/>
-      <c r="R75" s="179"/>
-      <c r="S75" s="180"/>
-      <c r="V75" s="181"/>
-      <c r="W75" s="182"/>
+      <c r="Q75" s="190"/>
+      <c r="R75" s="200"/>
+      <c r="S75" s="201"/>
+      <c r="V75" s="202"/>
+      <c r="W75" s="203"/>
       <c r="Y75" s="14"/>
     </row>
     <row r="76" spans="1:30" ht="14.45" customHeight="1">
@@ -5480,14 +5480,14 @@
       <c r="L83" s="77"/>
       <c r="M83" s="12"/>
       <c r="O83" s="13"/>
-      <c r="Q83" s="175" t="s">
+      <c r="Q83" s="197" t="s">
         <v>122</v>
       </c>
-      <c r="R83" s="175"/>
-      <c r="S83" s="175" t="s">
+      <c r="R83" s="197"/>
+      <c r="S83" s="197" t="s">
         <v>123</v>
       </c>
-      <c r="T83" s="175"/>
+      <c r="T83" s="197"/>
       <c r="V83" s="132" t="s">
         <v>44</v>
       </c>
@@ -6799,44 +6799,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="S70:S71"/>
-    <mergeCell ref="V70:V71"/>
-    <mergeCell ref="W70:W71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="S72:S73"/>
     <mergeCell ref="Q83:R83"/>
     <mergeCell ref="S83:T83"/>
     <mergeCell ref="V72:V73"/>
@@ -6846,6 +6808,44 @@
     <mergeCell ref="S74:S75"/>
     <mergeCell ref="V74:V75"/>
     <mergeCell ref="W74:W75"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="S72:S73"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="S70:S71"/>
+    <mergeCell ref="V70:V71"/>
+    <mergeCell ref="W70:W71"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <conditionalFormatting sqref="I72:I74">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
@@ -6896,7 +6896,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.92638888888888904" header="0.51180555555555496" footer="0.78749999999999998"/>
-  <pageSetup scale="69" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="65" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maheug\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374C5CD0-DCE0-4316-880D-9BC694B092AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Barco" sheetId="1" r:id="rId1"/>
@@ -17,8 +18,13 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Barco!$B$1:$M$132</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="146">
   <si>
     <t>Print Area</t>
   </si>
@@ -461,21 +467,23 @@
     <t>Revision 1.4-20200130</t>
   </si>
   <si>
-    <t>Piranha CB2-17090320</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Piranha CB2-19020491</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="166" formatCode="mmm\-yyyy"/>
     <numFmt numFmtId="167" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="0.##"/>
     <numFmt numFmtId="171" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="17">
@@ -1238,7 +1246,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1645,33 +1653,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="6" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1762,32 +1743,41 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="171" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1795,20 +1785,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1822,45 +1803,81 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="171" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Fail" xfId="6"/>
-    <cellStyle name="Heading" xfId="3"/>
-    <cellStyle name="Heading1" xfId="4"/>
+    <cellStyle name="Fail" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Heading" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Heading1" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pass" xfId="5"/>
-    <cellStyle name="Result" xfId="1"/>
-    <cellStyle name="Result2" xfId="2"/>
+    <cellStyle name="Pass" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Result" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Result2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2326,24 +2343,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="M63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q85" sqref="Q85:T89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="2" width="2.5703125" style="1" customWidth="1"/>
-    <col min="3" max="11" width="11.5703125" style="1"/>
-    <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="1"/>
-    <col min="14" max="14" width="2.5703125" style="1" customWidth="1"/>
-    <col min="15" max="36" width="11.5703125" style="1"/>
+    <col min="1" max="2" width="2.5546875" style="1" customWidth="1"/>
+    <col min="3" max="11" width="11.5546875" style="1"/>
+    <col min="12" max="12" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="1"/>
+    <col min="14" max="14" width="2.5546875" style="1" customWidth="1"/>
+    <col min="15" max="36" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="14.45" customHeight="1">
+    <row r="1" spans="1:36" ht="14.4" customHeight="1">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -2375,14 +2392,14 @@
       <c r="AA1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="175" t="s">
+      <c r="AG1" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="175"/>
-      <c r="AJ1" s="175"/>
-    </row>
-    <row r="2" spans="1:36" ht="14.45" customHeight="1">
+      <c r="AH1" s="195"/>
+      <c r="AI1" s="195"/>
+      <c r="AJ1" s="195"/>
+    </row>
+    <row r="2" spans="1:36" ht="14.4" customHeight="1">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -2397,16 +2414,16 @@
       </c>
       <c r="Y2" s="14"/>
       <c r="AA2" s="15"/>
-      <c r="AG2" s="176" t="s">
+      <c r="AG2" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="176"/>
-      <c r="AI2" s="177" t="s">
+      <c r="AH2" s="196"/>
+      <c r="AI2" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="177"/>
-    </row>
-    <row r="3" spans="1:36" ht="14.45" customHeight="1">
+      <c r="AJ2" s="197"/>
+    </row>
+    <row r="3" spans="1:36" ht="14.4" customHeight="1">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -2437,7 +2454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="14.45" customHeight="1">
+    <row r="4" spans="1:36" ht="14.4" customHeight="1">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -2467,7 +2484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="14.45" customHeight="1">
+    <row r="5" spans="1:36" ht="14.4" customHeight="1">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -2497,7 +2514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="14.45" customHeight="1">
+    <row r="6" spans="1:36" ht="14.4" customHeight="1">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -2546,14 +2563,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="14.45" customHeight="1">
+    <row r="7" spans="1:36" ht="14.4" customHeight="1">
       <c r="A7" s="2">
         <v>7</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="161"/>
+      <c r="P7" s="152"/>
       <c r="Q7" s="31"/>
       <c r="W7" s="1" t="s">
         <v>21</v>
@@ -2593,7 +2610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="14.45" customHeight="1">
+    <row r="8" spans="1:36" ht="14.4" customHeight="1">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -2614,7 +2631,7 @@
       <c r="O8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="163" t="str">
+      <c r="P8" s="154" t="str">
         <f>IF(AB8="","",AB8)</f>
         <v/>
       </c>
@@ -2638,7 +2655,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14.45" customHeight="1">
+    <row r="9" spans="1:36" ht="14.4" customHeight="1">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -2686,7 +2703,7 @@
         <v>Eugene Mah</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.45" customHeight="1">
+    <row r="10" spans="1:36" ht="14.4" customHeight="1">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -2694,19 +2711,19 @@
       <c r="D10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="178" t="str">
+      <c r="E10" s="198" t="str">
         <f t="shared" ref="E10:E15" si="1">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="F10" s="178"/>
+      <c r="F10" s="198"/>
       <c r="I10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="178" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="K10" s="178"/>
+      <c r="K10" s="198"/>
       <c r="M10" s="12"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="21" t="s">
@@ -2739,7 +2756,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.45" customHeight="1">
+    <row r="11" spans="1:36" ht="14.4" customHeight="1">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2747,19 +2764,19 @@
       <c r="D11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="179" t="str">
+      <c r="E11" s="192" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="179"/>
+      <c r="F11" s="192"/>
       <c r="I11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="180" t="str">
+      <c r="J11" s="194" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="K11" s="180"/>
+      <c r="K11" s="194"/>
       <c r="M11" s="12"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="21" t="s">
@@ -2792,7 +2809,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.45" customHeight="1">
+    <row r="12" spans="1:36" ht="14.4" customHeight="1">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -2800,19 +2817,19 @@
       <c r="D12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="179" t="str">
+      <c r="E12" s="192" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="179"/>
+      <c r="F12" s="192"/>
       <c r="I12" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="179" t="str">
+      <c r="J12" s="192" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="K12" s="179"/>
+      <c r="K12" s="192"/>
       <c r="M12" s="12"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="21" t="s">
@@ -2845,7 +2862,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.45" customHeight="1">
+    <row r="13" spans="1:36" ht="14.4" customHeight="1">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -2853,19 +2870,19 @@
       <c r="D13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="179" t="str">
+      <c r="E13" s="192" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="179"/>
+      <c r="F13" s="192"/>
       <c r="I13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="179" t="str">
+      <c r="J13" s="192" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="K13" s="179"/>
+      <c r="K13" s="192"/>
       <c r="M13" s="12"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="21" t="s">
@@ -2898,7 +2915,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.45" customHeight="1">
+    <row r="14" spans="1:36" ht="14.4" customHeight="1">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -2906,19 +2923,19 @@
       <c r="D14" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="179" t="str">
+      <c r="E14" s="192" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="179"/>
+      <c r="F14" s="192"/>
       <c r="I14" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="179" t="str">
+      <c r="J14" s="192" t="str">
         <f>IF(V14="","",V14)</f>
-        <v/>
-      </c>
-      <c r="K14" s="179"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K14" s="192"/>
       <c r="M14" s="12"/>
       <c r="O14" s="13"/>
       <c r="Q14" s="21" t="s">
@@ -2934,7 +2951,7 @@
       </c>
       <c r="V14" s="61" t="str">
         <f>IF(W14&lt;&gt;"",W14,IF(AB20="","",AB20))</f>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="W14" s="60"/>
       <c r="Y14" s="14"/>
@@ -2951,7 +2968,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.45" customHeight="1">
+    <row r="15" spans="1:36" ht="14.4" customHeight="1">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -2959,11 +2976,11 @@
       <c r="D15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="179" t="str">
+      <c r="E15" s="192" t="str">
         <f t="shared" si="1"/>
         <v>IMPAX 4.2 2015</v>
       </c>
-      <c r="F15" s="179"/>
+      <c r="F15" s="192"/>
       <c r="M15" s="12"/>
       <c r="O15" s="26"/>
       <c r="P15" s="27"/>
@@ -2996,7 +3013,7 @@
         <v>IMPAX 4.2 2015</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.45" customHeight="1">
+    <row r="16" spans="1:36" ht="14.4" customHeight="1">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -3025,7 +3042,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="14.45" customHeight="1">
+    <row r="17" spans="1:30" ht="14.4" customHeight="1">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -3051,7 +3068,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+    <row r="18" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -3086,7 +3103,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="14.45" customHeight="1" thickTop="1">
+    <row r="19" spans="1:30" ht="14.4" customHeight="1" thickTop="1">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -3094,17 +3111,17 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174" t="s">
+      <c r="F19" s="165"/>
+      <c r="G19" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="174"/>
-      <c r="K19" s="182" t="s">
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="193" t="s">
         <v>138</v>
       </c>
-      <c r="L19" s="182"/>
+      <c r="L19" s="193"/>
       <c r="M19" s="5"/>
       <c r="O19" s="13"/>
       <c r="R19" s="1" t="s">
@@ -3130,7 +3147,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="14.45" customHeight="1">
+    <row r="20" spans="1:30" ht="14.4" customHeight="1">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -3158,7 +3175,7 @@
       </c>
       <c r="L20" s="88" t="str">
         <f>IF(W20="","",W20)</f>
-        <v>Piranha CB2-17090320</v>
+        <v>Piranha CB2-19020491</v>
       </c>
       <c r="M20" s="12"/>
       <c r="O20" s="75"/>
@@ -3170,28 +3187,30 @@
       <c r="V20" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="W20" s="168" t="str">
+      <c r="W20" s="159" t="str">
         <f>IF(X20&lt;&gt;"",X20,IF(AB23="","",AB23))</f>
-        <v>Piranha CB2-17090320</v>
-      </c>
-      <c r="X20" s="169" t="s">
-        <v>144</v>
+        <v>Piranha CB2-19020491</v>
+      </c>
+      <c r="X20" s="160" t="s">
+        <v>145</v>
       </c>
       <c r="Y20" s="14"/>
       <c r="AA20" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AB20" s="69"/>
+      <c r="AB20" s="69" t="s">
+        <v>144</v>
+      </c>
       <c r="AC20" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AD20" s="73" t="str">
         <f>IF(V14="","",V14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="14.45" customHeight="1">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="14.4" customHeight="1">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -3217,9 +3236,9 @@
       <c r="K21" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="L21" s="204">
+      <c r="L21" s="166">
         <f t="shared" ref="L21:L22" si="5">IF(W21="","",W21)</f>
-        <v>43790</v>
+        <v>43549</v>
       </c>
       <c r="M21" s="12"/>
       <c r="O21" s="75"/>
@@ -3231,19 +3250,19 @@
       <c r="V21" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="W21" s="173">
+      <c r="W21" s="164">
         <f t="shared" ref="W21:W22" si="6">IF(X21&lt;&gt;"",X21,IF(AB24="","",AB24))</f>
-        <v>43790</v>
-      </c>
-      <c r="X21" s="170">
-        <v>43790</v>
+        <v>43549</v>
+      </c>
+      <c r="X21" s="161">
+        <v>43549</v>
       </c>
       <c r="Y21" s="14"/>
       <c r="AB21" s="20"/>
       <c r="AC21" s="20"/>
       <c r="AD21" s="20"/>
     </row>
-    <row r="22" spans="1:30" ht="14.45" customHeight="1">
+    <row r="22" spans="1:30" ht="14.4" customHeight="1">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -3269,9 +3288,9 @@
       <c r="K22" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="L22" s="204">
+      <c r="L22" s="166">
         <f t="shared" si="5"/>
-        <v>44521</v>
+        <v>44280</v>
       </c>
       <c r="M22" s="12"/>
       <c r="O22" s="75"/>
@@ -3283,19 +3302,19 @@
       <c r="V22" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="W22" s="173">
+      <c r="W22" s="164">
         <f t="shared" si="6"/>
-        <v>44521</v>
-      </c>
-      <c r="X22" s="170">
-        <v>44521</v>
+        <v>44280</v>
+      </c>
+      <c r="X22" s="161">
+        <v>44280</v>
       </c>
       <c r="Y22" s="14"/>
       <c r="AA22" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="14.45" customHeight="1">
+    <row r="23" spans="1:30" ht="14.4" customHeight="1">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -3343,10 +3362,10 @@
       </c>
       <c r="AD23" s="73" t="str">
         <f>IF(X20="","",X20)</f>
-        <v>Piranha CB2-17090320</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="14.45" customHeight="1">
+        <v>Piranha CB2-19020491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="14.4" customHeight="1">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -3354,11 +3373,11 @@
       <c r="D24" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="181" t="str">
+      <c r="E24" s="190" t="str">
         <f>IF(P51="","",P51)</f>
         <v/>
       </c>
-      <c r="F24" s="181"/>
+      <c r="F24" s="190"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -3371,17 +3390,17 @@
       <c r="AA24" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="AB24" s="172"/>
+      <c r="AB24" s="163"/>
       <c r="AC24" s="35" t="str">
         <f t="shared" si="7"/>
         <v>Change</v>
       </c>
-      <c r="AD24" s="171">
+      <c r="AD24" s="162">
         <f t="shared" ref="AD24:AD25" si="8">IF(X21="","",X21)</f>
-        <v>43790</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" ht="14.45" customHeight="1">
+        <v>43549</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="14.4" customHeight="1">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -3400,17 +3419,17 @@
       <c r="AA25" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="AB25" s="172"/>
+      <c r="AB25" s="163"/>
       <c r="AC25" s="35" t="str">
         <f t="shared" si="7"/>
         <v>Change</v>
       </c>
-      <c r="AD25" s="171">
+      <c r="AD25" s="162">
         <f t="shared" si="8"/>
-        <v>44521</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" ht="14.45" customHeight="1">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="14.4" customHeight="1">
       <c r="A26" s="2">
         <v>26</v>
       </c>
@@ -3428,7 +3447,7 @@
       </c>
       <c r="Y26" s="14"/>
     </row>
-    <row r="27" spans="1:30" ht="14.45" customHeight="1">
+    <row r="27" spans="1:30" ht="14.4" customHeight="1">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -3436,7 +3455,7 @@
       <c r="C27" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="167" t="str">
+      <c r="D27" s="158" t="str">
         <f>IF(P26="","",P26)</f>
         <v/>
       </c>
@@ -3472,7 +3491,7 @@
       </c>
       <c r="AB27" s="34"/>
       <c r="AC27" s="35" t="str">
-        <f t="shared" ref="AC27:AC33" si="9">IF(AB27&lt;&gt;AD27,"Change","")</f>
+        <f t="shared" ref="AC27:AC40" si="9">IF(AB27&lt;&gt;AD27,"Change","")</f>
         <v/>
       </c>
       <c r="AD27" s="73" t="str">
@@ -3480,7 +3499,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="14.45" customHeight="1">
+    <row r="28" spans="1:30" ht="14.4" customHeight="1">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -3528,7 +3547,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="14.45" customHeight="1">
+    <row r="29" spans="1:30" ht="14.4" customHeight="1">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -3575,7 +3594,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="14.45" customHeight="1">
+    <row r="30" spans="1:30" ht="14.4" customHeight="1">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -3619,7 +3638,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="14.45" customHeight="1">
+    <row r="31" spans="1:30" ht="14.4" customHeight="1">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -3640,7 +3659,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="14.45" customHeight="1">
+    <row r="32" spans="1:30" ht="14.4" customHeight="1">
       <c r="A32" s="2">
         <v>32</v>
       </c>
@@ -3672,7 +3691,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="14.45" customHeight="1">
+    <row r="33" spans="1:30" ht="14.4" customHeight="1">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -3680,11 +3699,11 @@
       <c r="C33" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="181" t="str">
+      <c r="D33" s="190" t="str">
         <f>IF(P33="","",P33)</f>
         <v/>
       </c>
-      <c r="E33" s="181"/>
+      <c r="E33" s="190"/>
       <c r="F33" s="86" t="s">
         <v>73</v>
       </c>
@@ -3702,14 +3721,14 @@
       <c r="O33" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="P33" s="161"/>
+      <c r="P33" s="152"/>
       <c r="R33" s="20" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
       <c r="S33" s="20" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right ()</v>
+        <v>Right ( )</v>
       </c>
       <c r="Y33" s="14"/>
       <c r="AA33" s="21" t="s">
@@ -3725,7 +3744,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="14.45" customHeight="1">
+    <row r="34" spans="1:30" ht="14.4" customHeight="1">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -3757,8 +3776,8 @@
       <c r="Q34" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="R34" s="165"/>
-      <c r="S34" s="165"/>
+      <c r="R34" s="156"/>
+      <c r="S34" s="156"/>
       <c r="Y34" s="14"/>
       <c r="AA34" s="21" t="s">
         <v>66</v>
@@ -3767,7 +3786,7 @@
       <c r="AC34" s="20"/>
       <c r="AD34" s="20"/>
     </row>
-    <row r="35" spans="1:30" ht="14.45" customHeight="1">
+    <row r="35" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -3776,7 +3795,7 @@
       <c r="D35" s="96"/>
       <c r="E35" s="52" t="str">
         <f>S33</f>
-        <v>Right ()</v>
+        <v>Right ( )</v>
       </c>
       <c r="F35" s="97" t="str">
         <f>IF(S34="","",S34)</f>
@@ -3799,19 +3818,23 @@
       <c r="Q35" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="R35" s="166"/>
-      <c r="S35" s="166"/>
+      <c r="R35" s="157"/>
+      <c r="S35" s="157"/>
       <c r="Y35" s="14"/>
       <c r="AA35" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="AB35" s="81"/>
+      <c r="AB35" s="167"/>
+      <c r="AC35" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="AD35" s="82" t="str">
         <f>IF(R70="","",R70)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="14.45" customHeight="1">
+    <row r="36" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -3848,13 +3871,17 @@
       <c r="AA36" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AB36" s="81"/>
+      <c r="AB36" s="167"/>
+      <c r="AC36" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="AD36" s="82" t="str">
         <f>IF(R72="","",R72)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="14.45" customHeight="1">
+    <row r="37" spans="1:30" ht="14.4" customHeight="1">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -3878,13 +3905,17 @@
       <c r="AA37" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AB37" s="81"/>
+      <c r="AB37" s="167"/>
+      <c r="AC37" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="AD37" s="82" t="str">
         <f>IF(R74="","",R74)</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="14.45" customHeight="1">
+    <row r="38" spans="1:30" ht="14.4" customHeight="1">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -3920,13 +3951,17 @@
       <c r="AA38" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="AB38" s="81"/>
+      <c r="AB38" s="167"/>
+      <c r="AC38" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="AD38" s="82" t="str">
         <f>IF(S70="","",S70)</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="14.45" customHeight="1">
+    <row r="39" spans="1:30" ht="14.4" customHeight="1">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -3951,13 +3986,17 @@
       <c r="AA39" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="AB39" s="81"/>
+      <c r="AB39" s="167"/>
+      <c r="AC39" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="AD39" s="82" t="str">
         <f>IF(S72="","",S72)</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="14.45" customHeight="1">
+    <row r="40" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -3982,13 +4021,17 @@
       <c r="AA40" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="AB40" s="81"/>
+      <c r="AB40" s="167"/>
+      <c r="AC40" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="AD40" s="82" t="str">
         <f>IF(S74="","",S74)</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="14.45" customHeight="1">
+    <row r="41" spans="1:30" ht="14.4" customHeight="1">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -3996,24 +4039,24 @@
       <c r="C41" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="181" t="str">
+      <c r="D41" s="190" t="str">
         <f>IF(P43="","",P43)</f>
         <v/>
       </c>
-      <c r="E41" s="181"/>
+      <c r="E41" s="190"/>
       <c r="F41" s="103" t="str">
         <f>R44</f>
         <v>Left ()</v>
       </c>
       <c r="G41" s="104" t="str">
         <f>S44</f>
-        <v>Right ()</v>
+        <v>Right ( )</v>
       </c>
       <c r="M41" s="12"/>
       <c r="O41" s="13"/>
       <c r="Y41" s="14"/>
     </row>
-    <row r="42" spans="1:30" ht="14.45" customHeight="1">
+    <row r="42" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A42" s="2">
         <v>42</v>
       </c>
@@ -4047,7 +4090,7 @@
       <c r="AC42" s="20"/>
       <c r="AD42" s="20"/>
     </row>
-    <row r="43" spans="1:30" ht="14.45" customHeight="1">
+    <row r="43" spans="1:30" ht="14.4" customHeight="1">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -4071,7 +4114,7 @@
       <c r="O43" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="P43" s="161"/>
+      <c r="P43" s="152"/>
       <c r="V43" s="1" t="s">
         <v>83</v>
       </c>
@@ -4079,7 +4122,7 @@
       <c r="AA43" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="AB43" s="34"/>
+      <c r="AB43" s="168"/>
       <c r="AC43" s="35" t="str">
         <f t="shared" ref="AC43:AC49" si="10">IF(AB43&lt;&gt;AD43,"Change","")</f>
         <v/>
@@ -4089,7 +4132,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="14.45" customHeight="1">
+    <row r="44" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A44" s="2">
         <v>44</v>
       </c>
@@ -4117,13 +4160,13 @@
       </c>
       <c r="S44" s="20" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right ()</v>
+        <v>Right ( )</v>
       </c>
       <c r="Y44" s="14"/>
       <c r="AA44" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="AB44" s="34"/>
+      <c r="AB44" s="168"/>
       <c r="AC44" s="35" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4133,7 +4176,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="14.45" customHeight="1">
+    <row r="45" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A45" s="2">
         <v>45</v>
       </c>
@@ -4162,7 +4205,7 @@
       <c r="AA45" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="AB45" s="34"/>
+      <c r="AB45" s="168"/>
       <c r="AC45" s="35" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4172,7 +4215,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="14.45" customHeight="1">
+    <row r="46" spans="1:30" ht="14.4" customHeight="1">
       <c r="A46" s="2">
         <v>46</v>
       </c>
@@ -4195,7 +4238,7 @@
       <c r="AA46" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AB46" s="34"/>
+      <c r="AB46" s="168"/>
       <c r="AC46" s="35" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4205,7 +4248,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="14.45" customHeight="1">
+    <row r="47" spans="1:30" ht="14.4" customHeight="1">
       <c r="A47" s="2">
         <v>47</v>
       </c>
@@ -4233,7 +4276,7 @@
       <c r="AA47" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="AB47" s="34"/>
+      <c r="AB47" s="168"/>
       <c r="AC47" s="35" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4243,7 +4286,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="14.45" customHeight="1">
+    <row r="48" spans="1:30" ht="14.4" customHeight="1">
       <c r="A48" s="2">
         <v>48</v>
       </c>
@@ -4279,7 +4322,7 @@
       <c r="AA48" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="AB48" s="34"/>
+      <c r="AB48" s="168"/>
       <c r="AC48" s="35" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4289,7 +4332,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="14.45" customHeight="1">
+    <row r="49" spans="1:30" ht="14.4" customHeight="1">
       <c r="A49" s="2">
         <v>49</v>
       </c>
@@ -4298,15 +4341,15 @@
         <f>Q57</f>
         <v>Left ()</v>
       </c>
-      <c r="D49" s="164" t="str">
+      <c r="D49" s="155" t="str">
         <f>IF(Q58="","",Q58)</f>
         <v/>
       </c>
       <c r="E49" s="86" t="str">
         <f>R57</f>
-        <v>Right ()</v>
-      </c>
-      <c r="F49" s="164" t="str">
+        <v>Right ( )</v>
+      </c>
+      <c r="F49" s="155" t="str">
         <f>IF(R58="","",R58)</f>
         <v/>
       </c>
@@ -4316,15 +4359,15 @@
         <f>Q57</f>
         <v>Left ()</v>
       </c>
-      <c r="J49" s="164" t="str">
+      <c r="J49" s="155" t="str">
         <f>IF(Q59="","",Q59)</f>
         <v/>
       </c>
       <c r="K49" s="86" t="str">
         <f>R57</f>
-        <v>Right ()</v>
-      </c>
-      <c r="L49" s="164" t="str">
+        <v>Right ( )</v>
+      </c>
+      <c r="L49" s="155" t="str">
         <f>IF(R59="","",R59)</f>
         <v/>
       </c>
@@ -4334,7 +4377,7 @@
       <c r="AA49" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="AB49" s="34"/>
+      <c r="AB49" s="168"/>
       <c r="AC49" s="35" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -4344,7 +4387,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="14.45" customHeight="1">
+    <row r="50" spans="1:30" ht="14.4" customHeight="1">
       <c r="A50" s="2">
         <v>50</v>
       </c>
@@ -4379,7 +4422,7 @@
       <c r="AC50" s="20"/>
       <c r="AD50" s="20"/>
     </row>
-    <row r="51" spans="1:30" ht="14.45" customHeight="1">
+    <row r="51" spans="1:30" ht="14.4" customHeight="1">
       <c r="A51" s="2">
         <v>51</v>
       </c>
@@ -4401,7 +4444,7 @@
       <c r="O51" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="P51" s="161"/>
+      <c r="P51" s="152"/>
       <c r="V51" s="1" t="s">
         <v>95</v>
       </c>
@@ -4409,7 +4452,7 @@
       <c r="AA51" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="AB51" s="69"/>
+      <c r="AB51" s="169"/>
       <c r="AC51" s="35" t="str">
         <f>IF(AB51&lt;&gt;AD51,"Change","")</f>
         <v/>
@@ -4419,7 +4462,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="14.45" customHeight="1">
+    <row r="52" spans="1:30" ht="14.4" customHeight="1">
       <c r="A52" s="2">
         <v>52</v>
       </c>
@@ -4452,11 +4495,11 @@
       <c r="U52" s="90"/>
       <c r="X52" s="90"/>
       <c r="Y52" s="14"/>
-      <c r="AB52" s="20"/>
+      <c r="AB52" s="2"/>
       <c r="AC52" s="20"/>
       <c r="AD52" s="20"/>
     </row>
-    <row r="53" spans="1:30" ht="14.45" customHeight="1">
+    <row r="53" spans="1:30" ht="14.4" customHeight="1">
       <c r="A53" s="2">
         <v>53</v>
       </c>
@@ -4478,7 +4521,7 @@
       <c r="W53" s="77"/>
       <c r="X53" s="77"/>
       <c r="Y53" s="14"/>
-      <c r="AB53" s="69"/>
+      <c r="AB53" s="169"/>
       <c r="AC53" s="35" t="str">
         <f>IF(AB53&lt;&gt;AD53,"Change","")</f>
         <v/>
@@ -4488,7 +4531,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="14.45" customHeight="1">
+    <row r="54" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A54" s="2">
         <v>54</v>
       </c>
@@ -4496,12 +4539,12 @@
       <c r="C54" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="I54" s="183" t="s">
+      <c r="I54" s="191" t="s">
         <v>97</v>
       </c>
-      <c r="J54" s="183"/>
-      <c r="K54" s="183"/>
-      <c r="L54" s="183"/>
+      <c r="J54" s="191"/>
+      <c r="K54" s="191"/>
+      <c r="L54" s="191"/>
       <c r="M54" s="12"/>
       <c r="O54" s="13"/>
       <c r="P54" s="21" t="s">
@@ -4516,11 +4559,11 @@
       <c r="W54" s="77"/>
       <c r="X54" s="77"/>
       <c r="Y54" s="14"/>
-      <c r="AB54" s="20"/>
+      <c r="AB54" s="2"/>
       <c r="AC54" s="20"/>
       <c r="AD54" s="20"/>
     </row>
-    <row r="55" spans="1:30" ht="14.45" customHeight="1">
+    <row r="55" spans="1:30" ht="14.4" customHeight="1">
       <c r="A55" s="2">
         <v>55</v>
       </c>
@@ -4531,22 +4574,22 @@
       </c>
       <c r="G55" s="104" t="str">
         <f>S65</f>
-        <v>Right ()</v>
-      </c>
-      <c r="I55" s="184" t="str">
+        <v>Right ( )</v>
+      </c>
+      <c r="I55" s="178" t="str">
         <f>R65</f>
         <v>Left ()</v>
       </c>
-      <c r="J55" s="184"/>
-      <c r="K55" s="185" t="str">
+      <c r="J55" s="178"/>
+      <c r="K55" s="179" t="str">
         <f>S65</f>
-        <v>Right ()</v>
-      </c>
-      <c r="L55" s="185"/>
+        <v>Right ( )</v>
+      </c>
+      <c r="L55" s="179"/>
       <c r="M55" s="12"/>
       <c r="O55" s="13"/>
       <c r="Y55" s="14"/>
-      <c r="AB55" s="69"/>
+      <c r="AB55" s="169"/>
       <c r="AC55" s="35" t="str">
         <f>IF(AB55&lt;&gt;AD55,"Change","")</f>
         <v/>
@@ -4556,7 +4599,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="14.45" customHeight="1">
+    <row r="56" spans="1:30" ht="14.4" customHeight="1">
       <c r="A56" s="2">
         <v>56</v>
       </c>
@@ -4592,11 +4635,11 @@
       <c r="U56"/>
       <c r="V56"/>
       <c r="Y56" s="14"/>
-      <c r="AB56" s="20"/>
+      <c r="AB56" s="2"/>
       <c r="AC56" s="20"/>
       <c r="AD56" s="20"/>
     </row>
-    <row r="57" spans="1:30" ht="14.45" customHeight="1">
+    <row r="57" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A57" s="2">
         <v>57</v>
       </c>
@@ -4635,10 +4678,10 @@
       </c>
       <c r="R57" s="20" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right ()</v>
+        <v>Right ( )</v>
       </c>
       <c r="Y57" s="14"/>
-      <c r="AB57" s="69"/>
+      <c r="AB57" s="169"/>
       <c r="AC57" s="35" t="str">
         <f>IF(AB57&lt;&gt;AD57,"Change","")</f>
         <v/>
@@ -4648,7 +4691,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="14.45" customHeight="1">
+    <row r="58" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A58" s="2">
         <v>58</v>
       </c>
@@ -4682,14 +4725,14 @@
       <c r="P58" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="Q58" s="165"/>
-      <c r="R58" s="165"/>
+      <c r="Q58" s="156"/>
+      <c r="R58" s="156"/>
       <c r="Y58" s="14"/>
-      <c r="AB58" s="20"/>
+      <c r="AB58" s="2"/>
       <c r="AC58" s="20"/>
       <c r="AD58" s="20"/>
     </row>
-    <row r="59" spans="1:30" ht="14.45" customHeight="1">
+    <row r="59" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A59" s="2">
         <v>59</v>
       </c>
@@ -4714,10 +4757,10 @@
       <c r="P59" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="Q59" s="166"/>
-      <c r="R59" s="166"/>
+      <c r="Q59" s="157"/>
+      <c r="R59" s="157"/>
       <c r="Y59" s="14"/>
-      <c r="AB59" s="69"/>
+      <c r="AB59" s="169"/>
       <c r="AC59" s="35" t="str">
         <f>IF(AB59&lt;&gt;AD59,"Change","")</f>
         <v/>
@@ -4727,7 +4770,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="14.45" customHeight="1">
+    <row r="60" spans="1:30" ht="14.4" customHeight="1">
       <c r="A60" s="2">
         <v>60</v>
       </c>
@@ -4760,11 +4803,11 @@
       <c r="U60" s="90"/>
       <c r="X60" s="90"/>
       <c r="Y60" s="14"/>
-      <c r="AB60" s="20"/>
+      <c r="AB60" s="2"/>
       <c r="AC60" s="20"/>
       <c r="AD60" s="20"/>
     </row>
-    <row r="61" spans="1:30" ht="14.45" customHeight="1">
+    <row r="61" spans="1:30" ht="14.4" customHeight="1">
       <c r="A61" s="2">
         <v>61</v>
       </c>
@@ -4799,7 +4842,7 @@
       <c r="W61" s="77"/>
       <c r="X61" s="77"/>
       <c r="Y61" s="14"/>
-      <c r="AB61" s="69"/>
+      <c r="AB61" s="169"/>
       <c r="AC61" s="35" t="str">
         <f>IF(AB61&lt;&gt;AD61,"Change","")</f>
         <v/>
@@ -4809,7 +4852,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="14.45" customHeight="1">
+    <row r="62" spans="1:30" ht="14.4" customHeight="1">
       <c r="A62" s="2">
         <v>62</v>
       </c>
@@ -4828,11 +4871,11 @@
       <c r="W62" s="77"/>
       <c r="X62" s="77"/>
       <c r="Y62" s="14"/>
-      <c r="AB62" s="20"/>
+      <c r="AB62" s="2"/>
       <c r="AC62" s="20"/>
       <c r="AD62" s="20"/>
     </row>
-    <row r="63" spans="1:30" ht="14.45" customHeight="1">
+    <row r="63" spans="1:30" ht="14.4" customHeight="1">
       <c r="A63" s="2">
         <v>63</v>
       </c>
@@ -4840,7 +4883,7 @@
       <c r="M63" s="12"/>
       <c r="O63" s="13"/>
       <c r="Y63" s="14"/>
-      <c r="AB63" s="69"/>
+      <c r="AB63" s="169"/>
       <c r="AC63" s="35" t="str">
         <f>IF(AB63&lt;&gt;AD63,"Change","")</f>
         <v/>
@@ -4850,7 +4893,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="14.45" customHeight="1">
+    <row r="64" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A64" s="2">
         <v>64</v>
       </c>
@@ -4876,18 +4919,18 @@
         <v>107</v>
       </c>
       <c r="Y64" s="14"/>
-      <c r="AB64" s="20"/>
+      <c r="AB64" s="2"/>
       <c r="AC64" s="20"/>
       <c r="AD64" s="20"/>
     </row>
-    <row r="65" spans="1:30" ht="14.45" customHeight="1">
+    <row r="65" spans="1:30" ht="14.4" customHeight="1" thickTop="1" thickBot="1">
       <c r="A65" s="2">
         <v>65</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="162" t="str">
+      <c r="D65" s="153" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
@@ -4907,10 +4950,10 @@
       </c>
       <c r="S65" s="20" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right ()</v>
+        <v>Right ( )</v>
       </c>
       <c r="Y65" s="14"/>
-      <c r="AB65" s="69"/>
+      <c r="AB65" s="169"/>
       <c r="AC65" s="35" t="str">
         <f>IF(AB65&lt;&gt;AD65,"Change","")</f>
         <v/>
@@ -4920,7 +4963,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="14.45" customHeight="1">
+    <row r="66" spans="1:30" ht="14.4" customHeight="1">
       <c r="A66" s="2">
         <v>66</v>
       </c>
@@ -4945,11 +4988,11 @@
       <c r="R66" s="118"/>
       <c r="S66" s="119"/>
       <c r="Y66" s="14"/>
-      <c r="AB66" s="20"/>
+      <c r="AB66" s="2"/>
       <c r="AC66" s="20"/>
       <c r="AD66" s="20"/>
     </row>
-    <row r="67" spans="1:30" ht="14.45" customHeight="1">
+    <row r="67" spans="1:30" ht="14.4" customHeight="1">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -4964,7 +5007,7 @@
       <c r="R67" s="121"/>
       <c r="S67" s="122"/>
       <c r="Y67" s="14"/>
-      <c r="AB67" s="69"/>
+      <c r="AB67" s="169"/>
       <c r="AC67" s="35" t="str">
         <f>IF(AB67&lt;&gt;AD67,"Change","")</f>
         <v/>
@@ -4974,7 +5017,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="14.45" customHeight="1">
+    <row r="68" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A68" s="2">
         <v>2</v>
       </c>
@@ -4989,11 +5032,11 @@
       <c r="R68" s="123"/>
       <c r="S68" s="124"/>
       <c r="Y68" s="14"/>
-      <c r="AB68" s="20"/>
+      <c r="AB68" s="2"/>
       <c r="AC68" s="20"/>
       <c r="AD68" s="20"/>
     </row>
-    <row r="69" spans="1:30" ht="14.45" customHeight="1">
+    <row r="69" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A69" s="2">
         <v>3</v>
       </c>
@@ -5016,12 +5059,12 @@
       <c r="R69" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="V69" s="190" t="s">
+      <c r="V69" s="173" t="s">
         <v>110</v>
       </c>
-      <c r="W69" s="190"/>
+      <c r="W69" s="173"/>
       <c r="Y69" s="14"/>
-      <c r="AB69" s="69"/>
+      <c r="AB69" s="169"/>
       <c r="AC69" s="35" t="str">
         <f>IF(AB69&lt;&gt;AD69,"Change","")</f>
         <v/>
@@ -5031,7 +5074,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="14.45" customHeight="1">
+    <row r="70" spans="1:30" ht="14.4" customHeight="1" thickTop="1" thickBot="1">
       <c r="A70" s="2">
         <v>4</v>
       </c>
@@ -5050,52 +5093,52 @@
       <c r="L70" s="4"/>
       <c r="M70" s="5"/>
       <c r="O70" s="13"/>
-      <c r="Q70" s="190" t="s">
+      <c r="Q70" s="173" t="s">
         <v>99</v>
       </c>
-      <c r="R70" s="191"/>
-      <c r="S70" s="192"/>
-      <c r="V70" s="193" t="str">
+      <c r="R70" s="182"/>
+      <c r="S70" s="183"/>
+      <c r="V70" s="184" t="str">
         <f>IF(AB35="","",AB35)</f>
         <v/>
       </c>
-      <c r="W70" s="194" t="str">
+      <c r="W70" s="185" t="str">
         <f>IF(AB38="","",AB38)</f>
         <v/>
       </c>
       <c r="Y70" s="14"/>
-      <c r="AB70" s="20"/>
+      <c r="AB70" s="2"/>
       <c r="AC70" s="20"/>
       <c r="AD70" s="20"/>
     </row>
-    <row r="71" spans="1:30" ht="14.45" customHeight="1">
+    <row r="71" spans="1:30" ht="14.4" customHeight="1">
       <c r="A71" s="2">
         <v>5</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="96"/>
-      <c r="D71" s="184" t="str">
+      <c r="D71" s="178" t="str">
         <f>Q83</f>
         <v>UNL-10 (cd/m^2)</v>
       </c>
-      <c r="E71" s="184"/>
-      <c r="F71" s="185" t="str">
+      <c r="E71" s="178"/>
+      <c r="F71" s="179" t="str">
         <f>S83</f>
         <v>UNL-80 (cd/m^2)</v>
       </c>
-      <c r="G71" s="185"/>
+      <c r="G71" s="179"/>
       <c r="I71" s="68" t="s">
         <v>112</v>
       </c>
       <c r="M71" s="12"/>
       <c r="O71" s="13"/>
-      <c r="Q71" s="190"/>
-      <c r="R71" s="191"/>
-      <c r="S71" s="192"/>
-      <c r="V71" s="193"/>
-      <c r="W71" s="194"/>
+      <c r="Q71" s="173"/>
+      <c r="R71" s="182"/>
+      <c r="S71" s="183"/>
+      <c r="V71" s="184"/>
+      <c r="W71" s="185"/>
       <c r="Y71" s="14"/>
-      <c r="AB71" s="69"/>
+      <c r="AB71" s="169"/>
       <c r="AC71" s="35" t="str">
         <f>IF(AB71&lt;&gt;AD71,"Change","")</f>
         <v/>
@@ -5105,7 +5148,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="14.45" customHeight="1">
+    <row r="72" spans="1:30" ht="14.4" customHeight="1">
       <c r="A72" s="2">
         <v>6</v>
       </c>
@@ -5117,7 +5160,7 @@
       </c>
       <c r="E72" s="97" t="str">
         <f>R84</f>
-        <v>Right ()</v>
+        <v>Right ( )</v>
       </c>
       <c r="F72" s="97" t="str">
         <f>S84</f>
@@ -5125,7 +5168,7 @@
       </c>
       <c r="G72" s="111" t="str">
         <f>T84</f>
-        <v>Right ()</v>
+        <v>Right ( )</v>
       </c>
       <c r="I72" s="53" t="str">
         <f>IF(V84="","TBD",IF(V84=1,"YES",IF(V84=2,"NO",IF(V84=3,"NA",""))))</f>
@@ -5136,22 +5179,22 @@
       </c>
       <c r="M72" s="12"/>
       <c r="O72" s="13"/>
-      <c r="Q72" s="190" t="s">
+      <c r="Q72" s="173" t="s">
         <v>101</v>
       </c>
-      <c r="R72" s="195"/>
-      <c r="S72" s="196"/>
-      <c r="V72" s="198" t="str">
+      <c r="R72" s="180"/>
+      <c r="S72" s="181"/>
+      <c r="V72" s="171" t="str">
         <f>IF(AB36="","",AB36)</f>
         <v/>
       </c>
-      <c r="W72" s="199" t="str">
+      <c r="W72" s="172" t="str">
         <f>IF(AB39="","",AB39)</f>
         <v/>
       </c>
       <c r="Y72" s="14"/>
     </row>
-    <row r="73" spans="1:30" ht="14.45" customHeight="1">
+    <row r="73" spans="1:30" ht="14.4" customHeight="1">
       <c r="A73" s="2">
         <v>7</v>
       </c>
@@ -5184,14 +5227,14 @@
       </c>
       <c r="M73" s="12"/>
       <c r="O73" s="13"/>
-      <c r="Q73" s="190"/>
-      <c r="R73" s="195"/>
-      <c r="S73" s="196"/>
-      <c r="V73" s="198"/>
-      <c r="W73" s="199"/>
+      <c r="Q73" s="173"/>
+      <c r="R73" s="180"/>
+      <c r="S73" s="181"/>
+      <c r="V73" s="171"/>
+      <c r="W73" s="172"/>
       <c r="Y73" s="14"/>
     </row>
-    <row r="74" spans="1:30" ht="14.45" customHeight="1">
+    <row r="74" spans="1:30" ht="14.4" customHeight="1">
       <c r="A74" s="2">
         <v>8</v>
       </c>
@@ -5224,22 +5267,22 @@
       </c>
       <c r="M74" s="12"/>
       <c r="O74" s="13"/>
-      <c r="Q74" s="190" t="s">
+      <c r="Q74" s="173" t="s">
         <v>104</v>
       </c>
-      <c r="R74" s="200"/>
-      <c r="S74" s="201"/>
-      <c r="V74" s="202" t="str">
+      <c r="R74" s="174"/>
+      <c r="S74" s="175"/>
+      <c r="V74" s="176" t="str">
         <f>IF(AB37="","",AB37)</f>
         <v/>
       </c>
-      <c r="W74" s="203" t="str">
+      <c r="W74" s="177" t="str">
         <f>IF(AB40="","",AB40)</f>
         <v/>
       </c>
       <c r="Y74" s="14"/>
     </row>
-    <row r="75" spans="1:30" ht="14.45" customHeight="1">
+    <row r="75" spans="1:30" ht="14.4" customHeight="1">
       <c r="A75" s="2">
         <v>9</v>
       </c>
@@ -5265,14 +5308,14 @@
       </c>
       <c r="M75" s="12"/>
       <c r="O75" s="13"/>
-      <c r="Q75" s="190"/>
-      <c r="R75" s="200"/>
-      <c r="S75" s="201"/>
-      <c r="V75" s="202"/>
-      <c r="W75" s="203"/>
+      <c r="Q75" s="173"/>
+      <c r="R75" s="174"/>
+      <c r="S75" s="175"/>
+      <c r="V75" s="176"/>
+      <c r="W75" s="177"/>
       <c r="Y75" s="14"/>
     </row>
-    <row r="76" spans="1:30" ht="14.45" customHeight="1">
+    <row r="76" spans="1:30" ht="14.4" customHeight="1">
       <c r="A76" s="2">
         <v>10</v>
       </c>
@@ -5309,7 +5352,7 @@
       </c>
       <c r="Y76" s="14"/>
     </row>
-    <row r="77" spans="1:30" ht="14.45" customHeight="1">
+    <row r="77" spans="1:30" ht="14.4" customHeight="1">
       <c r="A77" s="2">
         <v>11</v>
       </c>
@@ -5333,7 +5376,7 @@
       <c r="O77" s="13"/>
       <c r="Y77" s="14"/>
     </row>
-    <row r="78" spans="1:30" ht="14.45" customHeight="1">
+    <row r="78" spans="1:30" ht="14.4" customHeight="1">
       <c r="A78" s="2">
         <v>12</v>
       </c>
@@ -5367,7 +5410,7 @@
       <c r="X78" s="90"/>
       <c r="Y78" s="14"/>
     </row>
-    <row r="79" spans="1:30" ht="14.45" customHeight="1">
+    <row r="79" spans="1:30" ht="14.4" customHeight="1">
       <c r="A79" s="2">
         <v>13</v>
       </c>
@@ -5403,7 +5446,7 @@
       <c r="X79" s="77"/>
       <c r="Y79" s="14"/>
     </row>
-    <row r="80" spans="1:30" ht="14.45" customHeight="1">
+    <row r="80" spans="1:30" ht="14.4" customHeight="1">
       <c r="A80" s="2">
         <v>14</v>
       </c>
@@ -5423,7 +5466,7 @@
       <c r="X80" s="77"/>
       <c r="Y80" s="14"/>
     </row>
-    <row r="81" spans="1:25" ht="14.45" customHeight="1">
+    <row r="81" spans="1:25" ht="14.4" customHeight="1">
       <c r="A81" s="2">
         <v>15</v>
       </c>
@@ -5435,7 +5478,7 @@
       <c r="O81" s="13"/>
       <c r="Y81" s="14"/>
     </row>
-    <row r="82" spans="1:25" ht="14.45" customHeight="1">
+    <row r="82" spans="1:25" ht="14.4" customHeight="1">
       <c r="A82" s="2">
         <v>16</v>
       </c>
@@ -5461,7 +5504,7 @@
       </c>
       <c r="Y82" s="14"/>
     </row>
-    <row r="83" spans="1:25" ht="14.45" customHeight="1">
+    <row r="83" spans="1:25" ht="14.4" customHeight="1">
       <c r="A83" s="2">
         <v>17</v>
       </c>
@@ -5480,20 +5523,20 @@
       <c r="L83" s="77"/>
       <c r="M83" s="12"/>
       <c r="O83" s="13"/>
-      <c r="Q83" s="197" t="s">
+      <c r="Q83" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="R83" s="197"/>
-      <c r="S83" s="197" t="s">
+      <c r="R83" s="170"/>
+      <c r="S83" s="170" t="s">
         <v>123</v>
       </c>
-      <c r="T83" s="197"/>
+      <c r="T83" s="170"/>
       <c r="V83" s="132" t="s">
         <v>44</v>
       </c>
       <c r="Y83" s="14"/>
     </row>
-    <row r="84" spans="1:25" ht="14.45" customHeight="1">
+    <row r="84" spans="1:25" ht="14.4" customHeight="1">
       <c r="A84" s="2">
         <v>18</v>
       </c>
@@ -5518,7 +5561,7 @@
       </c>
       <c r="R84" s="134" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right ()</v>
+        <v>Right ( )</v>
       </c>
       <c r="S84" s="133" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
@@ -5526,7 +5569,7 @@
       </c>
       <c r="T84" s="134" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right ()</v>
+        <v>Right ( )</v>
       </c>
       <c r="V84" s="135"/>
       <c r="W84" s="1" t="s">
@@ -5534,7 +5577,7 @@
       </c>
       <c r="Y84" s="14"/>
     </row>
-    <row r="85" spans="1:25" ht="14.45" customHeight="1">
+    <row r="85" spans="1:25" ht="14.4" customHeight="1">
       <c r="A85" s="2">
         <v>19</v>
       </c>
@@ -5556,17 +5599,17 @@
       <c r="P85" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="Q85" s="136"/>
-      <c r="R85" s="137"/>
-      <c r="S85" s="138"/>
-      <c r="T85" s="137"/>
+      <c r="Q85" s="199"/>
+      <c r="R85" s="200"/>
+      <c r="S85" s="201"/>
+      <c r="T85" s="200"/>
       <c r="V85" s="135"/>
       <c r="W85" s="1" t="s">
         <v>115</v>
       </c>
       <c r="Y85" s="14"/>
     </row>
-    <row r="86" spans="1:25" ht="14.45" customHeight="1">
+    <row r="86" spans="1:25" ht="14.4" customHeight="1">
       <c r="A86" s="2">
         <v>20</v>
       </c>
@@ -5588,17 +5631,17 @@
       <c r="P86" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="Q86" s="139"/>
-      <c r="R86" s="140"/>
-      <c r="S86" s="141"/>
-      <c r="T86" s="140"/>
+      <c r="Q86" s="202"/>
+      <c r="R86" s="203"/>
+      <c r="S86" s="204"/>
+      <c r="T86" s="203"/>
       <c r="V86" s="135"/>
       <c r="W86" s="1" t="s">
         <v>117</v>
       </c>
       <c r="Y86" s="14"/>
     </row>
-    <row r="87" spans="1:25" ht="14.45" customHeight="1">
+    <row r="87" spans="1:25" ht="14.4" customHeight="1">
       <c r="A87" s="2">
         <v>21</v>
       </c>
@@ -5620,13 +5663,13 @@
       <c r="P87" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="Q87" s="139"/>
-      <c r="R87" s="140"/>
-      <c r="S87" s="141"/>
-      <c r="T87" s="140"/>
+      <c r="Q87" s="202"/>
+      <c r="R87" s="203"/>
+      <c r="S87" s="204"/>
+      <c r="T87" s="203"/>
       <c r="Y87" s="14"/>
     </row>
-    <row r="88" spans="1:25" ht="14.45" customHeight="1">
+    <row r="88" spans="1:25" ht="14.4" customHeight="1">
       <c r="A88" s="2">
         <v>22</v>
       </c>
@@ -5648,13 +5691,13 @@
       <c r="P88" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="Q88" s="139"/>
-      <c r="R88" s="140"/>
-      <c r="S88" s="141"/>
-      <c r="T88" s="140"/>
+      <c r="Q88" s="202"/>
+      <c r="R88" s="203"/>
+      <c r="S88" s="204"/>
+      <c r="T88" s="203"/>
       <c r="Y88" s="14"/>
     </row>
-    <row r="89" spans="1:25" ht="14.45" customHeight="1">
+    <row r="89" spans="1:25" ht="14.4" customHeight="1">
       <c r="A89" s="2">
         <v>23</v>
       </c>
@@ -5676,13 +5719,13 @@
       <c r="P89" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="Q89" s="142"/>
-      <c r="R89" s="143"/>
-      <c r="S89" s="144"/>
-      <c r="T89" s="143"/>
+      <c r="Q89" s="205"/>
+      <c r="R89" s="206"/>
+      <c r="S89" s="207"/>
+      <c r="T89" s="206"/>
       <c r="Y89" s="14"/>
     </row>
-    <row r="90" spans="1:25" ht="14.45" customHeight="1">
+    <row r="90" spans="1:25" ht="14.4" customHeight="1">
       <c r="A90" s="2">
         <v>24</v>
       </c>
@@ -5704,25 +5747,25 @@
       <c r="P90" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="Q90" s="145" t="str">
+      <c r="Q90" s="136" t="str">
         <f>IF(Q85="","",AVERAGE(Q85:Q89))</f>
         <v/>
       </c>
-      <c r="R90" s="146" t="str">
+      <c r="R90" s="137" t="str">
         <f>IF(R85="","",AVERAGE(R85:R89))</f>
         <v/>
       </c>
-      <c r="S90" s="147" t="str">
+      <c r="S90" s="138" t="str">
         <f>IF(S85="","",AVERAGE(S85:S89))</f>
         <v/>
       </c>
-      <c r="T90" s="146" t="str">
+      <c r="T90" s="137" t="str">
         <f>IF(T85="","",AVERAGE(T85:T89))</f>
         <v/>
       </c>
       <c r="Y90" s="14"/>
     </row>
-    <row r="91" spans="1:25" ht="14.45" customHeight="1">
+    <row r="91" spans="1:25" ht="14.4" customHeight="1">
       <c r="A91" s="2">
         <v>25</v>
       </c>
@@ -5744,25 +5787,25 @@
       <c r="P91" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="Q91" s="148" t="str">
+      <c r="Q91" s="139" t="str">
         <f>IF(Q85="","",STDEV(Q85:Q89))</f>
         <v/>
       </c>
-      <c r="R91" s="149" t="str">
+      <c r="R91" s="140" t="str">
         <f>IF(R85="","",STDEV(R85:R89))</f>
         <v/>
       </c>
-      <c r="S91" s="150" t="str">
+      <c r="S91" s="141" t="str">
         <f>IF(S85="","",STDEV(S85:S89))</f>
         <v/>
       </c>
-      <c r="T91" s="149" t="str">
+      <c r="T91" s="140" t="str">
         <f>IF(T85="","",STDEV(T85:T89))</f>
         <v/>
       </c>
       <c r="Y91" s="14"/>
     </row>
-    <row r="92" spans="1:25" ht="14.45" customHeight="1">
+    <row r="92" spans="1:25" ht="14.4" customHeight="1">
       <c r="A92" s="2">
         <v>26</v>
       </c>
@@ -5784,19 +5827,19 @@
       <c r="P92" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="Q92" s="151" t="str">
+      <c r="Q92" s="142" t="str">
         <f>IF(Q85="","",(MAX(Q85:Q89)-MIN(Q85:Q89))/(MIN(Q85:Q89)+MAX(Q85:Q89)))</f>
         <v/>
       </c>
-      <c r="R92" s="152" t="str">
+      <c r="R92" s="143" t="str">
         <f>IF(R85="","",(MAX(R85:R89)-MIN(R85:R89))/(MIN(R85:R89)+MAX(R85:R89)))</f>
         <v/>
       </c>
-      <c r="S92" s="153" t="str">
+      <c r="S92" s="144" t="str">
         <f>IF(S85="","",(MAX(S85:S89)-MIN(S85:S89))/(MIN(S85:S89)+MAX(S85:S89)))</f>
         <v/>
       </c>
-      <c r="T92" s="152" t="str">
+      <c r="T92" s="143" t="str">
         <f>IF(T85="","",(MAX(T85:T89)-MIN(T85:T89))/(MIN(T85:T89)+MAX(T85:T89)))</f>
         <v/>
       </c>
@@ -5808,7 +5851,7 @@
       </c>
       <c r="Y92" s="14"/>
     </row>
-    <row r="93" spans="1:25" ht="14.45" customHeight="1">
+    <row r="93" spans="1:25" ht="14.4" customHeight="1">
       <c r="A93" s="2">
         <v>27</v>
       </c>
@@ -5841,7 +5884,7 @@
       <c r="X93" s="90"/>
       <c r="Y93" s="14"/>
     </row>
-    <row r="94" spans="1:25" ht="14.45" customHeight="1">
+    <row r="94" spans="1:25" ht="14.4" customHeight="1">
       <c r="A94" s="2">
         <v>28</v>
       </c>
@@ -5876,7 +5919,7 @@
       <c r="X94" s="77"/>
       <c r="Y94" s="14"/>
     </row>
-    <row r="95" spans="1:25" ht="14.45" customHeight="1">
+    <row r="95" spans="1:25" ht="14.4" customHeight="1">
       <c r="A95" s="2">
         <v>29</v>
       </c>
@@ -5908,7 +5951,7 @@
       <c r="X95" s="77"/>
       <c r="Y95" s="14"/>
     </row>
-    <row r="96" spans="1:25" ht="14.45" customHeight="1">
+    <row r="96" spans="1:25" ht="14.4" customHeight="1">
       <c r="A96" s="2">
         <v>30</v>
       </c>
@@ -5938,7 +5981,7 @@
       <c r="X96" s="27"/>
       <c r="Y96" s="28"/>
     </row>
-    <row r="97" spans="1:25" ht="14.45" customHeight="1">
+    <row r="97" spans="1:25" ht="14.4" customHeight="1">
       <c r="A97" s="2">
         <v>31</v>
       </c>
@@ -5957,7 +6000,7 @@
       <c r="L97" s="77"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:25" ht="14.45" customHeight="1">
+    <row r="98" spans="1:25" ht="14.4" customHeight="1">
       <c r="A98" s="2">
         <v>32</v>
       </c>
@@ -5975,11 +6018,11 @@
       <c r="K98" s="77"/>
       <c r="L98" s="77"/>
       <c r="M98" s="12"/>
-      <c r="T98" s="154" t="s">
+      <c r="T98" s="145" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="14.45" customHeight="1">
+    <row r="99" spans="1:25" ht="14.4" customHeight="1">
       <c r="A99" s="2">
         <v>33</v>
       </c>
@@ -6001,7 +6044,7 @@
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="155" t="s">
+      <c r="S99" s="146" t="s">
         <v>133</v>
       </c>
       <c r="T99" s="7"/>
@@ -6011,7 +6054,7 @@
       <c r="X99" s="7"/>
       <c r="Y99" s="8"/>
     </row>
-    <row r="100" spans="1:25" ht="14.45" customHeight="1">
+    <row r="100" spans="1:25" ht="14.4" customHeight="1">
       <c r="A100" s="2">
         <v>34</v>
       </c>
@@ -6033,9 +6076,9 @@
       <c r="P100" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="Q100" s="156"/>
-      <c r="R100" s="157"/>
-      <c r="S100" s="158" t="str">
+      <c r="Q100" s="147"/>
+      <c r="R100" s="148"/>
+      <c r="S100" s="149" t="str">
         <f>IF(AB51="","",AB51)</f>
         <v/>
       </c>
@@ -6044,7 +6087,7 @@
       <c r="X100" s="90"/>
       <c r="Y100" s="14"/>
     </row>
-    <row r="101" spans="1:25" ht="14.45" customHeight="1">
+    <row r="101" spans="1:25" ht="14.4" customHeight="1">
       <c r="A101" s="2">
         <v>35</v>
       </c>
@@ -6067,19 +6110,19 @@
         <v>65</v>
       </c>
       <c r="Q101" s="93"/>
-      <c r="R101" s="159">
+      <c r="R101" s="150">
         <f>LEN(Q100)</f>
         <v>0</v>
       </c>
       <c r="S101" s="77"/>
       <c r="T101" s="77"/>
-      <c r="U101" s="160"/>
+      <c r="U101" s="151"/>
       <c r="V101" s="77"/>
       <c r="W101" s="77"/>
       <c r="X101" s="77"/>
       <c r="Y101" s="14"/>
     </row>
-    <row r="102" spans="1:25" ht="14.45" customHeight="1">
+    <row r="102" spans="1:25" ht="14.4" customHeight="1">
       <c r="A102" s="2">
         <v>36</v>
       </c>
@@ -6101,9 +6144,9 @@
       <c r="P102" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q102" s="156"/>
-      <c r="R102" s="157"/>
-      <c r="S102" s="158" t="str">
+      <c r="Q102" s="147"/>
+      <c r="R102" s="148"/>
+      <c r="S102" s="149" t="str">
         <f>IF(AB53="","",AB53)</f>
         <v/>
       </c>
@@ -6112,7 +6155,7 @@
       <c r="X102" s="90"/>
       <c r="Y102" s="14"/>
     </row>
-    <row r="103" spans="1:25" ht="14.45" customHeight="1">
+    <row r="103" spans="1:25" ht="14.4" customHeight="1">
       <c r="A103" s="2">
         <v>37</v>
       </c>
@@ -6135,19 +6178,19 @@
         <v>65</v>
       </c>
       <c r="Q103" s="93"/>
-      <c r="R103" s="159">
+      <c r="R103" s="150">
         <f>LEN(Q102)</f>
         <v>0</v>
       </c>
       <c r="S103" s="77"/>
       <c r="T103" s="77"/>
-      <c r="U103" s="160"/>
+      <c r="U103" s="151"/>
       <c r="V103" s="77"/>
       <c r="W103" s="77"/>
       <c r="X103" s="77"/>
       <c r="Y103" s="14"/>
     </row>
-    <row r="104" spans="1:25" ht="14.45" customHeight="1">
+    <row r="104" spans="1:25" ht="14.4" customHeight="1">
       <c r="A104" s="2">
         <v>38</v>
       </c>
@@ -6169,9 +6212,9 @@
       <c r="P104" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q104" s="156"/>
-      <c r="R104" s="157"/>
-      <c r="S104" s="158" t="str">
+      <c r="Q104" s="147"/>
+      <c r="R104" s="148"/>
+      <c r="S104" s="149" t="str">
         <f>IF(AB55="","",AB55)</f>
         <v/>
       </c>
@@ -6180,7 +6223,7 @@
       <c r="X104" s="90"/>
       <c r="Y104" s="14"/>
     </row>
-    <row r="105" spans="1:25" ht="14.45" customHeight="1">
+    <row r="105" spans="1:25" ht="14.4" customHeight="1">
       <c r="A105" s="2">
         <v>39</v>
       </c>
@@ -6203,19 +6246,19 @@
         <v>65</v>
       </c>
       <c r="Q105" s="93"/>
-      <c r="R105" s="159">
+      <c r="R105" s="150">
         <f>LEN(Q104)</f>
         <v>0</v>
       </c>
       <c r="S105" s="77"/>
       <c r="T105" s="77"/>
-      <c r="U105" s="160"/>
+      <c r="U105" s="151"/>
       <c r="V105" s="77"/>
       <c r="W105" s="77"/>
       <c r="X105" s="77"/>
       <c r="Y105" s="14"/>
     </row>
-    <row r="106" spans="1:25" ht="14.45" customHeight="1">
+    <row r="106" spans="1:25" ht="14.4" customHeight="1">
       <c r="A106" s="2">
         <v>40</v>
       </c>
@@ -6237,9 +6280,9 @@
       <c r="P106" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q106" s="156"/>
-      <c r="R106" s="157"/>
-      <c r="S106" s="158" t="str">
+      <c r="Q106" s="147"/>
+      <c r="R106" s="148"/>
+      <c r="S106" s="149" t="str">
         <f>IF(AB57="","",AB57)</f>
         <v/>
       </c>
@@ -6248,7 +6291,7 @@
       <c r="X106" s="90"/>
       <c r="Y106" s="14"/>
     </row>
-    <row r="107" spans="1:25" ht="14.45" customHeight="1">
+    <row r="107" spans="1:25" ht="14.4" customHeight="1">
       <c r="A107" s="2">
         <v>41</v>
       </c>
@@ -6271,19 +6314,19 @@
         <v>65</v>
       </c>
       <c r="Q107" s="93"/>
-      <c r="R107" s="159">
+      <c r="R107" s="150">
         <f>LEN(Q106)</f>
         <v>0</v>
       </c>
       <c r="S107" s="77"/>
       <c r="T107" s="77"/>
-      <c r="U107" s="160"/>
+      <c r="U107" s="151"/>
       <c r="V107" s="77"/>
       <c r="W107" s="77"/>
       <c r="X107" s="77"/>
       <c r="Y107" s="14"/>
     </row>
-    <row r="108" spans="1:25" ht="14.45" customHeight="1">
+    <row r="108" spans="1:25" ht="14.4" customHeight="1">
       <c r="A108" s="2">
         <v>42</v>
       </c>
@@ -6305,9 +6348,9 @@
       <c r="P108" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q108" s="156"/>
-      <c r="R108" s="157"/>
-      <c r="S108" s="158" t="str">
+      <c r="Q108" s="147"/>
+      <c r="R108" s="148"/>
+      <c r="S108" s="149" t="str">
         <f>IF(AB59="","",AB59)</f>
         <v/>
       </c>
@@ -6316,7 +6359,7 @@
       <c r="X108" s="90"/>
       <c r="Y108" s="14"/>
     </row>
-    <row r="109" spans="1:25" ht="14.45" customHeight="1">
+    <row r="109" spans="1:25" ht="14.4" customHeight="1">
       <c r="A109" s="2">
         <v>43</v>
       </c>
@@ -6339,19 +6382,19 @@
         <v>65</v>
       </c>
       <c r="Q109" s="93"/>
-      <c r="R109" s="159">
+      <c r="R109" s="150">
         <f>LEN(Q108)</f>
         <v>0</v>
       </c>
       <c r="S109" s="77"/>
       <c r="T109" s="77"/>
-      <c r="U109" s="160"/>
+      <c r="U109" s="151"/>
       <c r="V109" s="77"/>
       <c r="W109" s="77"/>
       <c r="X109" s="77"/>
       <c r="Y109" s="14"/>
     </row>
-    <row r="110" spans="1:25" ht="14.45" customHeight="1">
+    <row r="110" spans="1:25" ht="14.4" customHeight="1">
       <c r="A110" s="2">
         <v>44</v>
       </c>
@@ -6373,9 +6416,9 @@
       <c r="P110" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q110" s="156"/>
-      <c r="R110" s="157"/>
-      <c r="S110" s="158" t="str">
+      <c r="Q110" s="147"/>
+      <c r="R110" s="148"/>
+      <c r="S110" s="149" t="str">
         <f>IF(AB61="","",AB61)</f>
         <v/>
       </c>
@@ -6384,7 +6427,7 @@
       <c r="X110" s="90"/>
       <c r="Y110" s="14"/>
     </row>
-    <row r="111" spans="1:25" ht="14.45" customHeight="1">
+    <row r="111" spans="1:25" ht="14.4" customHeight="1">
       <c r="A111" s="2">
         <v>45</v>
       </c>
@@ -6407,7 +6450,7 @@
         <v>65</v>
       </c>
       <c r="Q111" s="93"/>
-      <c r="R111" s="159">
+      <c r="R111" s="150">
         <f>LEN(Q110)</f>
         <v>0</v>
       </c>
@@ -6419,7 +6462,7 @@
       <c r="X111" s="77"/>
       <c r="Y111" s="14"/>
     </row>
-    <row r="112" spans="1:25" ht="14.45" customHeight="1">
+    <row r="112" spans="1:25" ht="14.4" customHeight="1">
       <c r="A112" s="2">
         <v>46</v>
       </c>
@@ -6441,9 +6484,9 @@
       <c r="P112" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q112" s="156"/>
-      <c r="R112" s="157"/>
-      <c r="S112" s="158" t="str">
+      <c r="Q112" s="147"/>
+      <c r="R112" s="148"/>
+      <c r="S112" s="149" t="str">
         <f>IF(AB63="","",AB63)</f>
         <v/>
       </c>
@@ -6452,7 +6495,7 @@
       <c r="X112" s="90"/>
       <c r="Y112" s="14"/>
     </row>
-    <row r="113" spans="1:25" ht="14.45" customHeight="1">
+    <row r="113" spans="1:25" ht="14.4" customHeight="1">
       <c r="A113" s="2">
         <v>47</v>
       </c>
@@ -6475,7 +6518,7 @@
         <v>65</v>
       </c>
       <c r="Q113" s="93"/>
-      <c r="R113" s="159">
+      <c r="R113" s="150">
         <f>LEN(Q112)</f>
         <v>0</v>
       </c>
@@ -6487,7 +6530,7 @@
       <c r="X113" s="77"/>
       <c r="Y113" s="14"/>
     </row>
-    <row r="114" spans="1:25" ht="14.45" customHeight="1">
+    <row r="114" spans="1:25" ht="14.4" customHeight="1">
       <c r="A114" s="2">
         <v>48</v>
       </c>
@@ -6509,9 +6552,9 @@
       <c r="P114" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q114" s="156"/>
-      <c r="R114" s="157"/>
-      <c r="S114" s="158" t="str">
+      <c r="Q114" s="147"/>
+      <c r="R114" s="148"/>
+      <c r="S114" s="149" t="str">
         <f>IF(AB65="","",AB65)</f>
         <v/>
       </c>
@@ -6520,7 +6563,7 @@
       <c r="X114" s="90"/>
       <c r="Y114" s="14"/>
     </row>
-    <row r="115" spans="1:25" ht="14.45" customHeight="1">
+    <row r="115" spans="1:25" ht="14.4" customHeight="1">
       <c r="A115" s="2">
         <v>49</v>
       </c>
@@ -6531,7 +6574,7 @@
         <v>65</v>
       </c>
       <c r="Q115" s="93"/>
-      <c r="R115" s="159">
+      <c r="R115" s="150">
         <f>LEN(Q114)</f>
         <v>0</v>
       </c>
@@ -6543,7 +6586,7 @@
       <c r="X115" s="77"/>
       <c r="Y115" s="14"/>
     </row>
-    <row r="116" spans="1:25" ht="14.45" customHeight="1">
+    <row r="116" spans="1:25" ht="14.4" customHeight="1">
       <c r="A116" s="2">
         <v>50</v>
       </c>
@@ -6553,9 +6596,9 @@
       <c r="P116" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q116" s="156"/>
-      <c r="R116" s="157"/>
-      <c r="S116" s="158" t="str">
+      <c r="Q116" s="147"/>
+      <c r="R116" s="148"/>
+      <c r="S116" s="149" t="str">
         <f>IF(AB67="","",AB67)</f>
         <v/>
       </c>
@@ -6564,7 +6607,7 @@
       <c r="X116" s="90"/>
       <c r="Y116" s="14"/>
     </row>
-    <row r="117" spans="1:25" ht="14.45" customHeight="1">
+    <row r="117" spans="1:25" ht="14.4" customHeight="1">
       <c r="A117" s="2">
         <v>51</v>
       </c>
@@ -6575,7 +6618,7 @@
         <v>65</v>
       </c>
       <c r="Q117" s="93"/>
-      <c r="R117" s="159">
+      <c r="R117" s="150">
         <f>LEN(Q116)</f>
         <v>0</v>
       </c>
@@ -6587,7 +6630,7 @@
       <c r="X117" s="77"/>
       <c r="Y117" s="14"/>
     </row>
-    <row r="118" spans="1:25" ht="14.45" customHeight="1">
+    <row r="118" spans="1:25" ht="14.4" customHeight="1">
       <c r="A118" s="2">
         <v>52</v>
       </c>
@@ -6597,9 +6640,9 @@
       <c r="P118" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q118" s="156"/>
-      <c r="R118" s="157"/>
-      <c r="S118" s="158" t="str">
+      <c r="Q118" s="147"/>
+      <c r="R118" s="148"/>
+      <c r="S118" s="149" t="str">
         <f>IF(AB69="","",AB69)</f>
         <v/>
       </c>
@@ -6608,7 +6651,7 @@
       <c r="X118" s="90"/>
       <c r="Y118" s="14"/>
     </row>
-    <row r="119" spans="1:25" ht="14.45" customHeight="1">
+    <row r="119" spans="1:25" ht="14.4" customHeight="1">
       <c r="A119" s="2">
         <v>53</v>
       </c>
@@ -6619,7 +6662,7 @@
         <v>65</v>
       </c>
       <c r="Q119" s="93"/>
-      <c r="R119" s="159">
+      <c r="R119" s="150">
         <f>LEN(Q118)</f>
         <v>0</v>
       </c>
@@ -6631,7 +6674,7 @@
       <c r="X119" s="77"/>
       <c r="Y119" s="14"/>
     </row>
-    <row r="120" spans="1:25" ht="14.45" customHeight="1">
+    <row r="120" spans="1:25" ht="14.4" customHeight="1">
       <c r="A120" s="2">
         <v>54</v>
       </c>
@@ -6641,9 +6684,9 @@
       <c r="P120" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="Q120" s="156"/>
-      <c r="R120" s="157"/>
-      <c r="S120" s="158" t="str">
+      <c r="Q120" s="147"/>
+      <c r="R120" s="148"/>
+      <c r="S120" s="149" t="str">
         <f>IF(AB71="","",AB71)</f>
         <v/>
       </c>
@@ -6652,7 +6695,7 @@
       <c r="X120" s="90"/>
       <c r="Y120" s="14"/>
     </row>
-    <row r="121" spans="1:25" ht="14.45" customHeight="1">
+    <row r="121" spans="1:25" ht="14.4" customHeight="1">
       <c r="A121" s="2">
         <v>55</v>
       </c>
@@ -6663,7 +6706,7 @@
         <v>65</v>
       </c>
       <c r="Q121" s="93"/>
-      <c r="R121" s="159">
+      <c r="R121" s="150">
         <f>LEN(Q120)</f>
         <v>0</v>
       </c>
@@ -6675,7 +6718,7 @@
       <c r="X121" s="77"/>
       <c r="Y121" s="14"/>
     </row>
-    <row r="122" spans="1:25" ht="14.45" customHeight="1">
+    <row r="122" spans="1:25" ht="14.4" customHeight="1">
       <c r="A122" s="2">
         <v>56</v>
       </c>
@@ -6693,56 +6736,56 @@
       <c r="X122" s="27"/>
       <c r="Y122" s="28"/>
     </row>
-    <row r="123" spans="1:25" ht="14.45" customHeight="1">
+    <row r="123" spans="1:25" ht="14.4" customHeight="1">
       <c r="A123" s="2">
         <v>57</v>
       </c>
       <c r="B123" s="10"/>
       <c r="M123" s="12"/>
     </row>
-    <row r="124" spans="1:25" ht="14.45" customHeight="1">
+    <row r="124" spans="1:25" ht="14.4" customHeight="1">
       <c r="A124" s="2">
         <v>58</v>
       </c>
       <c r="B124" s="10"/>
       <c r="M124" s="12"/>
     </row>
-    <row r="125" spans="1:25" ht="14.45" customHeight="1">
+    <row r="125" spans="1:25" ht="14.4" customHeight="1">
       <c r="A125" s="2">
         <v>59</v>
       </c>
       <c r="B125" s="10"/>
       <c r="M125" s="12"/>
     </row>
-    <row r="126" spans="1:25" ht="14.45" customHeight="1">
+    <row r="126" spans="1:25" ht="14.4" customHeight="1">
       <c r="A126" s="2">
         <v>60</v>
       </c>
       <c r="B126" s="10"/>
       <c r="M126" s="12"/>
     </row>
-    <row r="127" spans="1:25" ht="14.45" customHeight="1">
+    <row r="127" spans="1:25" ht="14.4" customHeight="1">
       <c r="A127" s="2">
         <v>61</v>
       </c>
       <c r="B127" s="10"/>
       <c r="M127" s="12"/>
     </row>
-    <row r="128" spans="1:25" ht="14.45" customHeight="1">
+    <row r="128" spans="1:25" ht="14.4" customHeight="1">
       <c r="A128" s="2">
         <v>62</v>
       </c>
       <c r="B128" s="10"/>
       <c r="M128" s="12"/>
     </row>
-    <row r="129" spans="1:13" ht="14.45" customHeight="1">
+    <row r="129" spans="1:13" ht="14.4" customHeight="1">
       <c r="A129" s="2">
         <v>63</v>
       </c>
       <c r="B129" s="10"/>
       <c r="M129" s="12"/>
     </row>
-    <row r="130" spans="1:13" ht="14.45" customHeight="1">
+    <row r="130" spans="1:13" ht="14.4" customHeight="1">
       <c r="A130" s="2">
         <v>64</v>
       </c>
@@ -6759,14 +6802,14 @@
       <c r="L130" s="24"/>
       <c r="M130" s="25"/>
     </row>
-    <row r="131" spans="1:13" ht="14.45" customHeight="1">
+    <row r="131" spans="1:13" ht="14.4" customHeight="1">
       <c r="A131" s="2">
         <v>65</v>
       </c>
       <c r="C131" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D131" s="162" t="str">
+      <c r="D131" s="153" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
@@ -6778,7 +6821,7 @@
         <v>Eugene Mah</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="14.45" customHeight="1">
+    <row r="132" spans="1:13" ht="14.4" customHeight="1">
       <c r="A132" s="2">
         <v>66</v>
       </c>
@@ -6799,6 +6842,44 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="S70:S71"/>
+    <mergeCell ref="V70:V71"/>
+    <mergeCell ref="W70:W71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="S72:S73"/>
     <mergeCell ref="Q83:R83"/>
     <mergeCell ref="S83:T83"/>
     <mergeCell ref="V72:V73"/>
@@ -6808,44 +6889,6 @@
     <mergeCell ref="S74:S75"/>
     <mergeCell ref="V74:V75"/>
     <mergeCell ref="W74:W75"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="S72:S73"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="S70:S71"/>
-    <mergeCell ref="V70:V71"/>
-    <mergeCell ref="W70:W71"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <conditionalFormatting sqref="I72:I74">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">

--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maheug\Documents\GitHub\EquipTestingSpreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374C5CD0-DCE0-4316-880D-9BC694B092AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Barco" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Barco!$B$1:$M$132</definedName>
+    <definedName name="Z_B8088769_C3DE_4DF8_A82B_D0EB46FFCC4A_.wvu.PrintArea" localSheetId="0" hidden="1">Barco!$B$1:$M$132</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Eugene Mah - Personal View" guid="{B8088769-C3DE-4DF8-A82B-D0EB46FFCC4A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="784" tabRatio="500" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -476,7 +479,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
@@ -484,7 +487,7 @@
     <numFmt numFmtId="167" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -1701,13 +1704,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1728,22 +1731,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="169" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1755,6 +1758,99 @@
     <xf numFmtId="166" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1764,9 +1860,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1779,105 +1872,15 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Fail" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Heading" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Heading1" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Fail" xfId="6"/>
+    <cellStyle name="Heading" xfId="3"/>
+    <cellStyle name="Heading1" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pass" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Result" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Result2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Pass" xfId="5"/>
+    <cellStyle name="Result" xfId="1"/>
+    <cellStyle name="Result2" xfId="2"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2079,6 +2082,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6E99346C-9346-4CAA-827E-A3BD6FA3C515}">
+  <header guid="{6E99346C-9346-4CAA-827E-A3BD6FA3C515}" dateTime="2020-06-03T09:45:39" maxSheetId="2" userName="Eugene Mah" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2343,24 +2364,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q85" sqref="Q85:T89"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="2.5546875" style="1" customWidth="1"/>
-    <col min="3" max="11" width="11.5546875" style="1"/>
-    <col min="12" max="12" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="1"/>
-    <col min="14" max="14" width="2.5546875" style="1" customWidth="1"/>
-    <col min="15" max="36" width="11.5546875" style="1"/>
+    <col min="1" max="2" width="2.5703125" style="1" customWidth="1"/>
+    <col min="3" max="11" width="11.5703125" style="1"/>
+    <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="1"/>
+    <col min="14" max="14" width="2.5703125" style="1" customWidth="1"/>
+    <col min="15" max="36" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="14.4" customHeight="1">
+    <row r="1" spans="1:36" ht="14.45" customHeight="1">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -2392,14 +2411,14 @@
       <c r="AA1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="195" t="s">
+      <c r="AG1" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="195"/>
-      <c r="AI1" s="195"/>
-      <c r="AJ1" s="195"/>
-    </row>
-    <row r="2" spans="1:36" ht="14.4" customHeight="1">
+      <c r="AH1" s="179"/>
+      <c r="AI1" s="179"/>
+      <c r="AJ1" s="179"/>
+    </row>
+    <row r="2" spans="1:36" ht="14.45" customHeight="1">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -2414,16 +2433,16 @@
       </c>
       <c r="Y2" s="14"/>
       <c r="AA2" s="15"/>
-      <c r="AG2" s="196" t="s">
+      <c r="AG2" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="196"/>
-      <c r="AI2" s="197" t="s">
+      <c r="AH2" s="180"/>
+      <c r="AI2" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="197"/>
-    </row>
-    <row r="3" spans="1:36" ht="14.4" customHeight="1">
+      <c r="AJ2" s="181"/>
+    </row>
+    <row r="3" spans="1:36" ht="14.45" customHeight="1">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -2454,7 +2473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="14.4" customHeight="1">
+    <row r="4" spans="1:36" ht="14.45" customHeight="1">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -2484,7 +2503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="14.4" customHeight="1">
+    <row r="5" spans="1:36" ht="14.45" customHeight="1">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -2514,7 +2533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="14.4" customHeight="1">
+    <row r="6" spans="1:36" ht="14.45" customHeight="1">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -2563,7 +2582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="14.4" customHeight="1">
+    <row r="7" spans="1:36" ht="14.45" customHeight="1">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -2610,7 +2629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="14.4" customHeight="1">
+    <row r="8" spans="1:36" ht="14.45" customHeight="1">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -2655,7 +2674,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14.4" customHeight="1">
+    <row r="9" spans="1:36" ht="14.45" customHeight="1">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -2703,7 +2722,7 @@
         <v>Eugene Mah</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.4" customHeight="1">
+    <row r="10" spans="1:36" ht="14.45" customHeight="1">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -2711,19 +2730,19 @@
       <c r="D10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="182" t="str">
         <f t="shared" ref="E10:E15" si="1">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="F10" s="198"/>
+      <c r="F10" s="182"/>
       <c r="I10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="182" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="K10" s="198"/>
+      <c r="K10" s="182"/>
       <c r="M10" s="12"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="21" t="s">
@@ -2756,7 +2775,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.4" customHeight="1">
+    <row r="11" spans="1:36" ht="14.45" customHeight="1">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2764,19 +2783,19 @@
       <c r="D11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="192" t="str">
+      <c r="E11" s="183" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="192"/>
+      <c r="F11" s="183"/>
       <c r="I11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="194" t="str">
+      <c r="J11" s="184" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="K11" s="194"/>
+      <c r="K11" s="184"/>
       <c r="M11" s="12"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="21" t="s">
@@ -2809,7 +2828,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.4" customHeight="1">
+    <row r="12" spans="1:36" ht="14.45" customHeight="1">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -2817,19 +2836,19 @@
       <c r="D12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="192" t="str">
+      <c r="E12" s="183" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="192"/>
+      <c r="F12" s="183"/>
       <c r="I12" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="192" t="str">
+      <c r="J12" s="183" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="K12" s="192"/>
+      <c r="K12" s="183"/>
       <c r="M12" s="12"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="21" t="s">
@@ -2862,7 +2881,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.4" customHeight="1">
+    <row r="13" spans="1:36" ht="14.45" customHeight="1">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -2870,19 +2889,19 @@
       <c r="D13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="192" t="str">
+      <c r="E13" s="183" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="192"/>
+      <c r="F13" s="183"/>
       <c r="I13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="192" t="str">
+      <c r="J13" s="183" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="K13" s="192"/>
+      <c r="K13" s="183"/>
       <c r="M13" s="12"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="21" t="s">
@@ -2915,7 +2934,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.4" customHeight="1">
+    <row r="14" spans="1:36" ht="14.45" customHeight="1">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -2923,19 +2942,19 @@
       <c r="D14" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="192" t="str">
+      <c r="E14" s="183" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="192"/>
+      <c r="F14" s="183"/>
       <c r="I14" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="192" t="str">
+      <c r="J14" s="183" t="str">
         <f>IF(V14="","",V14)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K14" s="192"/>
+      <c r="K14" s="183"/>
       <c r="M14" s="12"/>
       <c r="O14" s="13"/>
       <c r="Q14" s="21" t="s">
@@ -2968,7 +2987,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.4" customHeight="1">
+    <row r="15" spans="1:36" ht="14.45" customHeight="1">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -2976,11 +2995,11 @@
       <c r="D15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="192" t="str">
+      <c r="E15" s="183" t="str">
         <f t="shared" si="1"/>
         <v>IMPAX 4.2 2015</v>
       </c>
-      <c r="F15" s="192"/>
+      <c r="F15" s="183"/>
       <c r="M15" s="12"/>
       <c r="O15" s="26"/>
       <c r="P15" s="27"/>
@@ -3013,7 +3032,7 @@
         <v>IMPAX 4.2 2015</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.4" customHeight="1">
+    <row r="16" spans="1:36" ht="14.45" customHeight="1">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -3042,7 +3061,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="14.4" customHeight="1">
+    <row r="17" spans="1:30" ht="14.45" customHeight="1">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -3068,7 +3087,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="18" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -3103,7 +3122,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="14.4" customHeight="1" thickTop="1">
+    <row r="19" spans="1:30" ht="14.45" customHeight="1" thickTop="1">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -3118,10 +3137,10 @@
       <c r="H19" s="165"/>
       <c r="I19" s="165"/>
       <c r="J19" s="165"/>
-      <c r="K19" s="193" t="s">
+      <c r="K19" s="186" t="s">
         <v>138</v>
       </c>
-      <c r="L19" s="193"/>
+      <c r="L19" s="186"/>
       <c r="M19" s="5"/>
       <c r="O19" s="13"/>
       <c r="R19" s="1" t="s">
@@ -3147,7 +3166,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="14.4" customHeight="1">
+    <row r="20" spans="1:30" ht="14.45" customHeight="1">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -3210,7 +3229,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="14.4" customHeight="1">
+    <row r="21" spans="1:30" ht="14.45" customHeight="1">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -3262,7 +3281,7 @@
       <c r="AC21" s="20"/>
       <c r="AD21" s="20"/>
     </row>
-    <row r="22" spans="1:30" ht="14.4" customHeight="1">
+    <row r="22" spans="1:30" ht="14.45" customHeight="1">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -3314,7 +3333,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="14.4" customHeight="1">
+    <row r="23" spans="1:30" ht="14.45" customHeight="1">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -3365,7 +3384,7 @@
         <v>Piranha CB2-19020491</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="14.4" customHeight="1">
+    <row r="24" spans="1:30" ht="14.45" customHeight="1">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -3373,11 +3392,11 @@
       <c r="D24" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="190" t="str">
+      <c r="E24" s="185" t="str">
         <f>IF(P51="","",P51)</f>
         <v/>
       </c>
-      <c r="F24" s="190"/>
+      <c r="F24" s="185"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -3400,7 +3419,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="14.4" customHeight="1">
+    <row r="25" spans="1:30" ht="14.45" customHeight="1">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -3429,7 +3448,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="14.4" customHeight="1">
+    <row r="26" spans="1:30" ht="14.45" customHeight="1">
       <c r="A26" s="2">
         <v>26</v>
       </c>
@@ -3447,7 +3466,7 @@
       </c>
       <c r="Y26" s="14"/>
     </row>
-    <row r="27" spans="1:30" ht="14.4" customHeight="1">
+    <row r="27" spans="1:30" ht="14.45" customHeight="1">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -3499,7 +3518,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="14.4" customHeight="1">
+    <row r="28" spans="1:30" ht="14.45" customHeight="1">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -3547,7 +3566,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="14.4" customHeight="1">
+    <row r="29" spans="1:30" ht="14.45" customHeight="1">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -3594,7 +3613,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="14.4" customHeight="1">
+    <row r="30" spans="1:30" ht="14.45" customHeight="1">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -3638,7 +3657,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="14.4" customHeight="1">
+    <row r="31" spans="1:30" ht="14.45" customHeight="1">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -3659,7 +3678,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="14.4" customHeight="1">
+    <row r="32" spans="1:30" ht="14.45" customHeight="1">
       <c r="A32" s="2">
         <v>32</v>
       </c>
@@ -3691,7 +3710,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="14.4" customHeight="1">
+    <row r="33" spans="1:30" ht="14.45" customHeight="1">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -3699,11 +3718,11 @@
       <c r="C33" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="190" t="str">
+      <c r="D33" s="185" t="str">
         <f>IF(P33="","",P33)</f>
         <v/>
       </c>
-      <c r="E33" s="190"/>
+      <c r="E33" s="185"/>
       <c r="F33" s="86" t="s">
         <v>73</v>
       </c>
@@ -3744,7 +3763,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="14.4" customHeight="1">
+    <row r="34" spans="1:30" ht="14.45" customHeight="1">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -3786,7 +3805,7 @@
       <c r="AC34" s="20"/>
       <c r="AD34" s="20"/>
     </row>
-    <row r="35" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="35" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -3834,7 +3853,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="36" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -3881,7 +3900,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="14.4" customHeight="1">
+    <row r="37" spans="1:30" ht="14.45" customHeight="1">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -3915,7 +3934,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="14.4" customHeight="1">
+    <row r="38" spans="1:30" ht="14.45" customHeight="1">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -3961,7 +3980,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="14.4" customHeight="1">
+    <row r="39" spans="1:30" ht="14.45" customHeight="1">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -3996,7 +4015,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="40" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -4031,7 +4050,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="14.4" customHeight="1">
+    <row r="41" spans="1:30" ht="14.45" customHeight="1">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -4039,11 +4058,11 @@
       <c r="C41" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="190" t="str">
+      <c r="D41" s="185" t="str">
         <f>IF(P43="","",P43)</f>
         <v/>
       </c>
-      <c r="E41" s="190"/>
+      <c r="E41" s="185"/>
       <c r="F41" s="103" t="str">
         <f>R44</f>
         <v>Left ()</v>
@@ -4056,7 +4075,7 @@
       <c r="O41" s="13"/>
       <c r="Y41" s="14"/>
     </row>
-    <row r="42" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="42" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A42" s="2">
         <v>42</v>
       </c>
@@ -4090,7 +4109,7 @@
       <c r="AC42" s="20"/>
       <c r="AD42" s="20"/>
     </row>
-    <row r="43" spans="1:30" ht="14.4" customHeight="1">
+    <row r="43" spans="1:30" ht="14.45" customHeight="1">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -4132,7 +4151,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="44" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A44" s="2">
         <v>44</v>
       </c>
@@ -4176,7 +4195,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="45" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A45" s="2">
         <v>45</v>
       </c>
@@ -4215,7 +4234,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="14.4" customHeight="1">
+    <row r="46" spans="1:30" ht="14.45" customHeight="1">
       <c r="A46" s="2">
         <v>46</v>
       </c>
@@ -4248,7 +4267,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="14.4" customHeight="1">
+    <row r="47" spans="1:30" ht="14.45" customHeight="1">
       <c r="A47" s="2">
         <v>47</v>
       </c>
@@ -4286,7 +4305,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="14.4" customHeight="1">
+    <row r="48" spans="1:30" ht="14.45" customHeight="1">
       <c r="A48" s="2">
         <v>48</v>
       </c>
@@ -4332,7 +4351,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="14.4" customHeight="1">
+    <row r="49" spans="1:30" ht="14.45" customHeight="1">
       <c r="A49" s="2">
         <v>49</v>
       </c>
@@ -4387,7 +4406,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="14.4" customHeight="1">
+    <row r="50" spans="1:30" ht="14.45" customHeight="1">
       <c r="A50" s="2">
         <v>50</v>
       </c>
@@ -4422,7 +4441,7 @@
       <c r="AC50" s="20"/>
       <c r="AD50" s="20"/>
     </row>
-    <row r="51" spans="1:30" ht="14.4" customHeight="1">
+    <row r="51" spans="1:30" ht="14.45" customHeight="1">
       <c r="A51" s="2">
         <v>51</v>
       </c>
@@ -4462,7 +4481,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="14.4" customHeight="1">
+    <row r="52" spans="1:30" ht="14.45" customHeight="1">
       <c r="A52" s="2">
         <v>52</v>
       </c>
@@ -4499,7 +4518,7 @@
       <c r="AC52" s="20"/>
       <c r="AD52" s="20"/>
     </row>
-    <row r="53" spans="1:30" ht="14.4" customHeight="1">
+    <row r="53" spans="1:30" ht="14.45" customHeight="1">
       <c r="A53" s="2">
         <v>53</v>
       </c>
@@ -4531,7 +4550,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="54" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A54" s="2">
         <v>54</v>
       </c>
@@ -4539,12 +4558,12 @@
       <c r="C54" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="I54" s="191" t="s">
+      <c r="I54" s="187" t="s">
         <v>97</v>
       </c>
-      <c r="J54" s="191"/>
-      <c r="K54" s="191"/>
-      <c r="L54" s="191"/>
+      <c r="J54" s="187"/>
+      <c r="K54" s="187"/>
+      <c r="L54" s="187"/>
       <c r="M54" s="12"/>
       <c r="O54" s="13"/>
       <c r="P54" s="21" t="s">
@@ -4563,7 +4582,7 @@
       <c r="AC54" s="20"/>
       <c r="AD54" s="20"/>
     </row>
-    <row r="55" spans="1:30" ht="14.4" customHeight="1">
+    <row r="55" spans="1:30" ht="14.45" customHeight="1">
       <c r="A55" s="2">
         <v>55</v>
       </c>
@@ -4576,16 +4595,16 @@
         <f>S65</f>
         <v>Right ( )</v>
       </c>
-      <c r="I55" s="178" t="str">
+      <c r="I55" s="188" t="str">
         <f>R65</f>
         <v>Left ()</v>
       </c>
-      <c r="J55" s="178"/>
-      <c r="K55" s="179" t="str">
+      <c r="J55" s="188"/>
+      <c r="K55" s="189" t="str">
         <f>S65</f>
         <v>Right ( )</v>
       </c>
-      <c r="L55" s="179"/>
+      <c r="L55" s="189"/>
       <c r="M55" s="12"/>
       <c r="O55" s="13"/>
       <c r="Y55" s="14"/>
@@ -4599,7 +4618,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="14.4" customHeight="1">
+    <row r="56" spans="1:30" ht="14.45" customHeight="1">
       <c r="A56" s="2">
         <v>56</v>
       </c>
@@ -4618,16 +4637,16 @@
       <c r="H56" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="I56" s="186" t="str">
+      <c r="I56" s="190" t="str">
         <f>IF(R70="","",R70)</f>
         <v/>
       </c>
-      <c r="J56" s="186"/>
-      <c r="K56" s="187" t="str">
+      <c r="J56" s="190"/>
+      <c r="K56" s="191" t="str">
         <f>IF(S70="","",S70)</f>
         <v/>
       </c>
-      <c r="L56" s="187"/>
+      <c r="L56" s="191"/>
       <c r="M56" s="12"/>
       <c r="O56" s="80" t="s">
         <v>88</v>
@@ -4639,7 +4658,7 @@
       <c r="AC56" s="20"/>
       <c r="AD56" s="20"/>
     </row>
-    <row r="57" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="57" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A57" s="2">
         <v>57</v>
       </c>
@@ -4658,16 +4677,16 @@
       <c r="H57" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="I57" s="186" t="str">
+      <c r="I57" s="190" t="str">
         <f>IF(R72="","",R72)</f>
         <v/>
       </c>
-      <c r="J57" s="186"/>
-      <c r="K57" s="187" t="str">
+      <c r="J57" s="190"/>
+      <c r="K57" s="191" t="str">
         <f>IF(S72="","",S72)</f>
         <v/>
       </c>
-      <c r="L57" s="187"/>
+      <c r="L57" s="191"/>
       <c r="M57" s="12"/>
       <c r="O57" s="112" t="s">
         <v>102</v>
@@ -4691,7 +4710,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="58" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A58" s="2">
         <v>58</v>
       </c>
@@ -4710,16 +4729,16 @@
       <c r="H58" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="I58" s="188" t="str">
+      <c r="I58" s="192" t="str">
         <f>IF(R74="","",R74)</f>
         <v/>
       </c>
-      <c r="J58" s="188"/>
-      <c r="K58" s="189" t="str">
+      <c r="J58" s="192"/>
+      <c r="K58" s="193" t="str">
         <f>IF(S74="","",S74)</f>
         <v/>
       </c>
-      <c r="L58" s="189"/>
+      <c r="L58" s="193"/>
       <c r="M58" s="12"/>
       <c r="O58" s="13"/>
       <c r="P58" s="113" t="s">
@@ -4732,7 +4751,7 @@
       <c r="AC58" s="20"/>
       <c r="AD58" s="20"/>
     </row>
-    <row r="59" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="59" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A59" s="2">
         <v>59</v>
       </c>
@@ -4770,7 +4789,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="14.4" customHeight="1">
+    <row r="60" spans="1:30" ht="14.45" customHeight="1">
       <c r="A60" s="2">
         <v>60</v>
       </c>
@@ -4807,7 +4826,7 @@
       <c r="AC60" s="20"/>
       <c r="AD60" s="20"/>
     </row>
-    <row r="61" spans="1:30" ht="14.4" customHeight="1">
+    <row r="61" spans="1:30" ht="14.45" customHeight="1">
       <c r="A61" s="2">
         <v>61</v>
       </c>
@@ -4852,7 +4871,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="14.4" customHeight="1">
+    <row r="62" spans="1:30" ht="14.45" customHeight="1">
       <c r="A62" s="2">
         <v>62</v>
       </c>
@@ -4875,7 +4894,7 @@
       <c r="AC62" s="20"/>
       <c r="AD62" s="20"/>
     </row>
-    <row r="63" spans="1:30" ht="14.4" customHeight="1">
+    <row r="63" spans="1:30" ht="14.45" customHeight="1">
       <c r="A63" s="2">
         <v>63</v>
       </c>
@@ -4893,7 +4912,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="64" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A64" s="2">
         <v>64</v>
       </c>
@@ -4923,7 +4942,7 @@
       <c r="AC64" s="20"/>
       <c r="AD64" s="20"/>
     </row>
-    <row r="65" spans="1:30" ht="14.4" customHeight="1" thickTop="1" thickBot="1">
+    <row r="65" spans="1:30" ht="14.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A65" s="2">
         <v>65</v>
       </c>
@@ -4963,7 +4982,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="14.4" customHeight="1">
+    <row r="66" spans="1:30" ht="14.45" customHeight="1">
       <c r="A66" s="2">
         <v>66</v>
       </c>
@@ -4992,7 +5011,7 @@
       <c r="AC66" s="20"/>
       <c r="AD66" s="20"/>
     </row>
-    <row r="67" spans="1:30" ht="14.4" customHeight="1">
+    <row r="67" spans="1:30" ht="14.45" customHeight="1">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -5017,7 +5036,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="68" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A68" s="2">
         <v>2</v>
       </c>
@@ -5036,7 +5055,7 @@
       <c r="AC68" s="20"/>
       <c r="AD68" s="20"/>
     </row>
-    <row r="69" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="69" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A69" s="2">
         <v>3</v>
       </c>
@@ -5059,10 +5078,10 @@
       <c r="R69" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="V69" s="173" t="s">
+      <c r="V69" s="194" t="s">
         <v>110</v>
       </c>
-      <c r="W69" s="173"/>
+      <c r="W69" s="194"/>
       <c r="Y69" s="14"/>
       <c r="AB69" s="169"/>
       <c r="AC69" s="35" t="str">
@@ -5074,7 +5093,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="14.4" customHeight="1" thickTop="1" thickBot="1">
+    <row r="70" spans="1:30" ht="14.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A70" s="2">
         <v>4</v>
       </c>
@@ -5093,16 +5112,16 @@
       <c r="L70" s="4"/>
       <c r="M70" s="5"/>
       <c r="O70" s="13"/>
-      <c r="Q70" s="173" t="s">
+      <c r="Q70" s="194" t="s">
         <v>99</v>
       </c>
-      <c r="R70" s="182"/>
-      <c r="S70" s="183"/>
-      <c r="V70" s="184" t="str">
+      <c r="R70" s="195"/>
+      <c r="S70" s="196"/>
+      <c r="V70" s="197" t="str">
         <f>IF(AB35="","",AB35)</f>
         <v/>
       </c>
-      <c r="W70" s="185" t="str">
+      <c r="W70" s="198" t="str">
         <f>IF(AB38="","",AB38)</f>
         <v/>
       </c>
@@ -5111,32 +5130,32 @@
       <c r="AC70" s="20"/>
       <c r="AD70" s="20"/>
     </row>
-    <row r="71" spans="1:30" ht="14.4" customHeight="1">
+    <row r="71" spans="1:30" ht="14.45" customHeight="1">
       <c r="A71" s="2">
         <v>5</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="96"/>
-      <c r="D71" s="178" t="str">
+      <c r="D71" s="188" t="str">
         <f>Q83</f>
         <v>UNL-10 (cd/m^2)</v>
       </c>
-      <c r="E71" s="178"/>
-      <c r="F71" s="179" t="str">
+      <c r="E71" s="188"/>
+      <c r="F71" s="189" t="str">
         <f>S83</f>
         <v>UNL-80 (cd/m^2)</v>
       </c>
-      <c r="G71" s="179"/>
+      <c r="G71" s="189"/>
       <c r="I71" s="68" t="s">
         <v>112</v>
       </c>
       <c r="M71" s="12"/>
       <c r="O71" s="13"/>
-      <c r="Q71" s="173"/>
-      <c r="R71" s="182"/>
-      <c r="S71" s="183"/>
-      <c r="V71" s="184"/>
-      <c r="W71" s="185"/>
+      <c r="Q71" s="194"/>
+      <c r="R71" s="195"/>
+      <c r="S71" s="196"/>
+      <c r="V71" s="197"/>
+      <c r="W71" s="198"/>
       <c r="Y71" s="14"/>
       <c r="AB71" s="169"/>
       <c r="AC71" s="35" t="str">
@@ -5148,7 +5167,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="14.4" customHeight="1">
+    <row r="72" spans="1:30" ht="14.45" customHeight="1">
       <c r="A72" s="2">
         <v>6</v>
       </c>
@@ -5179,22 +5198,22 @@
       </c>
       <c r="M72" s="12"/>
       <c r="O72" s="13"/>
-      <c r="Q72" s="173" t="s">
+      <c r="Q72" s="194" t="s">
         <v>101</v>
       </c>
-      <c r="R72" s="180"/>
-      <c r="S72" s="181"/>
-      <c r="V72" s="171" t="str">
+      <c r="R72" s="199"/>
+      <c r="S72" s="200"/>
+      <c r="V72" s="202" t="str">
         <f>IF(AB36="","",AB36)</f>
         <v/>
       </c>
-      <c r="W72" s="172" t="str">
+      <c r="W72" s="203" t="str">
         <f>IF(AB39="","",AB39)</f>
         <v/>
       </c>
       <c r="Y72" s="14"/>
     </row>
-    <row r="73" spans="1:30" ht="14.4" customHeight="1">
+    <row r="73" spans="1:30" ht="14.45" customHeight="1">
       <c r="A73" s="2">
         <v>7</v>
       </c>
@@ -5227,14 +5246,14 @@
       </c>
       <c r="M73" s="12"/>
       <c r="O73" s="13"/>
-      <c r="Q73" s="173"/>
-      <c r="R73" s="180"/>
-      <c r="S73" s="181"/>
-      <c r="V73" s="171"/>
-      <c r="W73" s="172"/>
+      <c r="Q73" s="194"/>
+      <c r="R73" s="199"/>
+      <c r="S73" s="200"/>
+      <c r="V73" s="202"/>
+      <c r="W73" s="203"/>
       <c r="Y73" s="14"/>
     </row>
-    <row r="74" spans="1:30" ht="14.4" customHeight="1">
+    <row r="74" spans="1:30" ht="14.45" customHeight="1">
       <c r="A74" s="2">
         <v>8</v>
       </c>
@@ -5267,22 +5286,22 @@
       </c>
       <c r="M74" s="12"/>
       <c r="O74" s="13"/>
-      <c r="Q74" s="173" t="s">
+      <c r="Q74" s="194" t="s">
         <v>104</v>
       </c>
-      <c r="R74" s="174"/>
-      <c r="S74" s="175"/>
-      <c r="V74" s="176" t="str">
+      <c r="R74" s="204"/>
+      <c r="S74" s="205"/>
+      <c r="V74" s="206" t="str">
         <f>IF(AB37="","",AB37)</f>
         <v/>
       </c>
-      <c r="W74" s="177" t="str">
+      <c r="W74" s="207" t="str">
         <f>IF(AB40="","",AB40)</f>
         <v/>
       </c>
       <c r="Y74" s="14"/>
     </row>
-    <row r="75" spans="1:30" ht="14.4" customHeight="1">
+    <row r="75" spans="1:30" ht="14.45" customHeight="1">
       <c r="A75" s="2">
         <v>9</v>
       </c>
@@ -5308,14 +5327,14 @@
       </c>
       <c r="M75" s="12"/>
       <c r="O75" s="13"/>
-      <c r="Q75" s="173"/>
-      <c r="R75" s="174"/>
-      <c r="S75" s="175"/>
-      <c r="V75" s="176"/>
-      <c r="W75" s="177"/>
+      <c r="Q75" s="194"/>
+      <c r="R75" s="204"/>
+      <c r="S75" s="205"/>
+      <c r="V75" s="206"/>
+      <c r="W75" s="207"/>
       <c r="Y75" s="14"/>
     </row>
-    <row r="76" spans="1:30" ht="14.4" customHeight="1">
+    <row r="76" spans="1:30" ht="14.45" customHeight="1">
       <c r="A76" s="2">
         <v>10</v>
       </c>
@@ -5352,7 +5371,7 @@
       </c>
       <c r="Y76" s="14"/>
     </row>
-    <row r="77" spans="1:30" ht="14.4" customHeight="1">
+    <row r="77" spans="1:30" ht="14.45" customHeight="1">
       <c r="A77" s="2">
         <v>11</v>
       </c>
@@ -5376,7 +5395,7 @@
       <c r="O77" s="13"/>
       <c r="Y77" s="14"/>
     </row>
-    <row r="78" spans="1:30" ht="14.4" customHeight="1">
+    <row r="78" spans="1:30" ht="14.45" customHeight="1">
       <c r="A78" s="2">
         <v>12</v>
       </c>
@@ -5410,7 +5429,7 @@
       <c r="X78" s="90"/>
       <c r="Y78" s="14"/>
     </row>
-    <row r="79" spans="1:30" ht="14.4" customHeight="1">
+    <row r="79" spans="1:30" ht="14.45" customHeight="1">
       <c r="A79" s="2">
         <v>13</v>
       </c>
@@ -5446,7 +5465,7 @@
       <c r="X79" s="77"/>
       <c r="Y79" s="14"/>
     </row>
-    <row r="80" spans="1:30" ht="14.4" customHeight="1">
+    <row r="80" spans="1:30" ht="14.45" customHeight="1">
       <c r="A80" s="2">
         <v>14</v>
       </c>
@@ -5466,7 +5485,7 @@
       <c r="X80" s="77"/>
       <c r="Y80" s="14"/>
     </row>
-    <row r="81" spans="1:25" ht="14.4" customHeight="1">
+    <row r="81" spans="1:25" ht="14.45" customHeight="1">
       <c r="A81" s="2">
         <v>15</v>
       </c>
@@ -5478,7 +5497,7 @@
       <c r="O81" s="13"/>
       <c r="Y81" s="14"/>
     </row>
-    <row r="82" spans="1:25" ht="14.4" customHeight="1">
+    <row r="82" spans="1:25" ht="14.45" customHeight="1">
       <c r="A82" s="2">
         <v>16</v>
       </c>
@@ -5504,7 +5523,7 @@
       </c>
       <c r="Y82" s="14"/>
     </row>
-    <row r="83" spans="1:25" ht="14.4" customHeight="1">
+    <row r="83" spans="1:25" ht="14.45" customHeight="1">
       <c r="A83" s="2">
         <v>17</v>
       </c>
@@ -5523,20 +5542,20 @@
       <c r="L83" s="77"/>
       <c r="M83" s="12"/>
       <c r="O83" s="13"/>
-      <c r="Q83" s="170" t="s">
+      <c r="Q83" s="201" t="s">
         <v>122</v>
       </c>
-      <c r="R83" s="170"/>
-      <c r="S83" s="170" t="s">
+      <c r="R83" s="201"/>
+      <c r="S83" s="201" t="s">
         <v>123</v>
       </c>
-      <c r="T83" s="170"/>
+      <c r="T83" s="201"/>
       <c r="V83" s="132" t="s">
         <v>44</v>
       </c>
       <c r="Y83" s="14"/>
     </row>
-    <row r="84" spans="1:25" ht="14.4" customHeight="1">
+    <row r="84" spans="1:25" ht="14.45" customHeight="1">
       <c r="A84" s="2">
         <v>18</v>
       </c>
@@ -5577,7 +5596,7 @@
       </c>
       <c r="Y84" s="14"/>
     </row>
-    <row r="85" spans="1:25" ht="14.4" customHeight="1">
+    <row r="85" spans="1:25" ht="14.45" customHeight="1">
       <c r="A85" s="2">
         <v>19</v>
       </c>
@@ -5599,17 +5618,17 @@
       <c r="P85" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="Q85" s="199"/>
-      <c r="R85" s="200"/>
-      <c r="S85" s="201"/>
-      <c r="T85" s="200"/>
+      <c r="Q85" s="170"/>
+      <c r="R85" s="171"/>
+      <c r="S85" s="172"/>
+      <c r="T85" s="171"/>
       <c r="V85" s="135"/>
       <c r="W85" s="1" t="s">
         <v>115</v>
       </c>
       <c r="Y85" s="14"/>
     </row>
-    <row r="86" spans="1:25" ht="14.4" customHeight="1">
+    <row r="86" spans="1:25" ht="14.45" customHeight="1">
       <c r="A86" s="2">
         <v>20</v>
       </c>
@@ -5631,17 +5650,17 @@
       <c r="P86" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="Q86" s="202"/>
-      <c r="R86" s="203"/>
-      <c r="S86" s="204"/>
-      <c r="T86" s="203"/>
+      <c r="Q86" s="173"/>
+      <c r="R86" s="174"/>
+      <c r="S86" s="175"/>
+      <c r="T86" s="174"/>
       <c r="V86" s="135"/>
       <c r="W86" s="1" t="s">
         <v>117</v>
       </c>
       <c r="Y86" s="14"/>
     </row>
-    <row r="87" spans="1:25" ht="14.4" customHeight="1">
+    <row r="87" spans="1:25" ht="14.45" customHeight="1">
       <c r="A87" s="2">
         <v>21</v>
       </c>
@@ -5663,13 +5682,13 @@
       <c r="P87" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="Q87" s="202"/>
-      <c r="R87" s="203"/>
-      <c r="S87" s="204"/>
-      <c r="T87" s="203"/>
+      <c r="Q87" s="173"/>
+      <c r="R87" s="174"/>
+      <c r="S87" s="175"/>
+      <c r="T87" s="174"/>
       <c r="Y87" s="14"/>
     </row>
-    <row r="88" spans="1:25" ht="14.4" customHeight="1">
+    <row r="88" spans="1:25" ht="14.45" customHeight="1">
       <c r="A88" s="2">
         <v>22</v>
       </c>
@@ -5691,13 +5710,13 @@
       <c r="P88" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="Q88" s="202"/>
-      <c r="R88" s="203"/>
-      <c r="S88" s="204"/>
-      <c r="T88" s="203"/>
+      <c r="Q88" s="173"/>
+      <c r="R88" s="174"/>
+      <c r="S88" s="175"/>
+      <c r="T88" s="174"/>
       <c r="Y88" s="14"/>
     </row>
-    <row r="89" spans="1:25" ht="14.4" customHeight="1">
+    <row r="89" spans="1:25" ht="14.45" customHeight="1">
       <c r="A89" s="2">
         <v>23</v>
       </c>
@@ -5719,13 +5738,13 @@
       <c r="P89" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="Q89" s="205"/>
-      <c r="R89" s="206"/>
-      <c r="S89" s="207"/>
-      <c r="T89" s="206"/>
+      <c r="Q89" s="176"/>
+      <c r="R89" s="177"/>
+      <c r="S89" s="178"/>
+      <c r="T89" s="177"/>
       <c r="Y89" s="14"/>
     </row>
-    <row r="90" spans="1:25" ht="14.4" customHeight="1">
+    <row r="90" spans="1:25" ht="14.45" customHeight="1">
       <c r="A90" s="2">
         <v>24</v>
       </c>
@@ -5765,7 +5784,7 @@
       </c>
       <c r="Y90" s="14"/>
     </row>
-    <row r="91" spans="1:25" ht="14.4" customHeight="1">
+    <row r="91" spans="1:25" ht="14.45" customHeight="1">
       <c r="A91" s="2">
         <v>25</v>
       </c>
@@ -5805,7 +5824,7 @@
       </c>
       <c r="Y91" s="14"/>
     </row>
-    <row r="92" spans="1:25" ht="14.4" customHeight="1">
+    <row r="92" spans="1:25" ht="14.45" customHeight="1">
       <c r="A92" s="2">
         <v>26</v>
       </c>
@@ -5851,7 +5870,7 @@
       </c>
       <c r="Y92" s="14"/>
     </row>
-    <row r="93" spans="1:25" ht="14.4" customHeight="1">
+    <row r="93" spans="1:25" ht="14.45" customHeight="1">
       <c r="A93" s="2">
         <v>27</v>
       </c>
@@ -5884,7 +5903,7 @@
       <c r="X93" s="90"/>
       <c r="Y93" s="14"/>
     </row>
-    <row r="94" spans="1:25" ht="14.4" customHeight="1">
+    <row r="94" spans="1:25" ht="14.45" customHeight="1">
       <c r="A94" s="2">
         <v>28</v>
       </c>
@@ -5919,7 +5938,7 @@
       <c r="X94" s="77"/>
       <c r="Y94" s="14"/>
     </row>
-    <row r="95" spans="1:25" ht="14.4" customHeight="1">
+    <row r="95" spans="1:25" ht="14.45" customHeight="1">
       <c r="A95" s="2">
         <v>29</v>
       </c>
@@ -5951,7 +5970,7 @@
       <c r="X95" s="77"/>
       <c r="Y95" s="14"/>
     </row>
-    <row r="96" spans="1:25" ht="14.4" customHeight="1">
+    <row r="96" spans="1:25" ht="14.45" customHeight="1">
       <c r="A96" s="2">
         <v>30</v>
       </c>
@@ -5981,7 +6000,7 @@
       <c r="X96" s="27"/>
       <c r="Y96" s="28"/>
     </row>
-    <row r="97" spans="1:25" ht="14.4" customHeight="1">
+    <row r="97" spans="1:25" ht="14.45" customHeight="1">
       <c r="A97" s="2">
         <v>31</v>
       </c>
@@ -6000,7 +6019,7 @@
       <c r="L97" s="77"/>
       <c r="M97" s="12"/>
     </row>
-    <row r="98" spans="1:25" ht="14.4" customHeight="1">
+    <row r="98" spans="1:25" ht="14.45" customHeight="1">
       <c r="A98" s="2">
         <v>32</v>
       </c>
@@ -6022,7 +6041,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="14.4" customHeight="1">
+    <row r="99" spans="1:25" ht="14.45" customHeight="1">
       <c r="A99" s="2">
         <v>33</v>
       </c>
@@ -6054,7 +6073,7 @@
       <c r="X99" s="7"/>
       <c r="Y99" s="8"/>
     </row>
-    <row r="100" spans="1:25" ht="14.4" customHeight="1">
+    <row r="100" spans="1:25" ht="14.45" customHeight="1">
       <c r="A100" s="2">
         <v>34</v>
       </c>
@@ -6087,7 +6106,7 @@
       <c r="X100" s="90"/>
       <c r="Y100" s="14"/>
     </row>
-    <row r="101" spans="1:25" ht="14.4" customHeight="1">
+    <row r="101" spans="1:25" ht="14.45" customHeight="1">
       <c r="A101" s="2">
         <v>35</v>
       </c>
@@ -6122,7 +6141,7 @@
       <c r="X101" s="77"/>
       <c r="Y101" s="14"/>
     </row>
-    <row r="102" spans="1:25" ht="14.4" customHeight="1">
+    <row r="102" spans="1:25" ht="14.45" customHeight="1">
       <c r="A102" s="2">
         <v>36</v>
       </c>
@@ -6155,7 +6174,7 @@
       <c r="X102" s="90"/>
       <c r="Y102" s="14"/>
     </row>
-    <row r="103" spans="1:25" ht="14.4" customHeight="1">
+    <row r="103" spans="1:25" ht="14.45" customHeight="1">
       <c r="A103" s="2">
         <v>37</v>
       </c>
@@ -6190,7 +6209,7 @@
       <c r="X103" s="77"/>
       <c r="Y103" s="14"/>
     </row>
-    <row r="104" spans="1:25" ht="14.4" customHeight="1">
+    <row r="104" spans="1:25" ht="14.45" customHeight="1">
       <c r="A104" s="2">
         <v>38</v>
       </c>
@@ -6223,7 +6242,7 @@
       <c r="X104" s="90"/>
       <c r="Y104" s="14"/>
     </row>
-    <row r="105" spans="1:25" ht="14.4" customHeight="1">
+    <row r="105" spans="1:25" ht="14.45" customHeight="1">
       <c r="A105" s="2">
         <v>39</v>
       </c>
@@ -6258,7 +6277,7 @@
       <c r="X105" s="77"/>
       <c r="Y105" s="14"/>
     </row>
-    <row r="106" spans="1:25" ht="14.4" customHeight="1">
+    <row r="106" spans="1:25" ht="14.45" customHeight="1">
       <c r="A106" s="2">
         <v>40</v>
       </c>
@@ -6291,7 +6310,7 @@
       <c r="X106" s="90"/>
       <c r="Y106" s="14"/>
     </row>
-    <row r="107" spans="1:25" ht="14.4" customHeight="1">
+    <row r="107" spans="1:25" ht="14.45" customHeight="1">
       <c r="A107" s="2">
         <v>41</v>
       </c>
@@ -6326,7 +6345,7 @@
       <c r="X107" s="77"/>
       <c r="Y107" s="14"/>
     </row>
-    <row r="108" spans="1:25" ht="14.4" customHeight="1">
+    <row r="108" spans="1:25" ht="14.45" customHeight="1">
       <c r="A108" s="2">
         <v>42</v>
       </c>
@@ -6359,7 +6378,7 @@
       <c r="X108" s="90"/>
       <c r="Y108" s="14"/>
     </row>
-    <row r="109" spans="1:25" ht="14.4" customHeight="1">
+    <row r="109" spans="1:25" ht="14.45" customHeight="1">
       <c r="A109" s="2">
         <v>43</v>
       </c>
@@ -6394,7 +6413,7 @@
       <c r="X109" s="77"/>
       <c r="Y109" s="14"/>
     </row>
-    <row r="110" spans="1:25" ht="14.4" customHeight="1">
+    <row r="110" spans="1:25" ht="14.45" customHeight="1">
       <c r="A110" s="2">
         <v>44</v>
       </c>
@@ -6427,7 +6446,7 @@
       <c r="X110" s="90"/>
       <c r="Y110" s="14"/>
     </row>
-    <row r="111" spans="1:25" ht="14.4" customHeight="1">
+    <row r="111" spans="1:25" ht="14.45" customHeight="1">
       <c r="A111" s="2">
         <v>45</v>
       </c>
@@ -6462,7 +6481,7 @@
       <c r="X111" s="77"/>
       <c r="Y111" s="14"/>
     </row>
-    <row r="112" spans="1:25" ht="14.4" customHeight="1">
+    <row r="112" spans="1:25" ht="14.45" customHeight="1">
       <c r="A112" s="2">
         <v>46</v>
       </c>
@@ -6495,7 +6514,7 @@
       <c r="X112" s="90"/>
       <c r="Y112" s="14"/>
     </row>
-    <row r="113" spans="1:25" ht="14.4" customHeight="1">
+    <row r="113" spans="1:25" ht="14.45" customHeight="1">
       <c r="A113" s="2">
         <v>47</v>
       </c>
@@ -6530,7 +6549,7 @@
       <c r="X113" s="77"/>
       <c r="Y113" s="14"/>
     </row>
-    <row r="114" spans="1:25" ht="14.4" customHeight="1">
+    <row r="114" spans="1:25" ht="14.45" customHeight="1">
       <c r="A114" s="2">
         <v>48</v>
       </c>
@@ -6563,7 +6582,7 @@
       <c r="X114" s="90"/>
       <c r="Y114" s="14"/>
     </row>
-    <row r="115" spans="1:25" ht="14.4" customHeight="1">
+    <row r="115" spans="1:25" ht="14.45" customHeight="1">
       <c r="A115" s="2">
         <v>49</v>
       </c>
@@ -6586,7 +6605,7 @@
       <c r="X115" s="77"/>
       <c r="Y115" s="14"/>
     </row>
-    <row r="116" spans="1:25" ht="14.4" customHeight="1">
+    <row r="116" spans="1:25" ht="14.45" customHeight="1">
       <c r="A116" s="2">
         <v>50</v>
       </c>
@@ -6607,7 +6626,7 @@
       <c r="X116" s="90"/>
       <c r="Y116" s="14"/>
     </row>
-    <row r="117" spans="1:25" ht="14.4" customHeight="1">
+    <row r="117" spans="1:25" ht="14.45" customHeight="1">
       <c r="A117" s="2">
         <v>51</v>
       </c>
@@ -6630,7 +6649,7 @@
       <c r="X117" s="77"/>
       <c r="Y117" s="14"/>
     </row>
-    <row r="118" spans="1:25" ht="14.4" customHeight="1">
+    <row r="118" spans="1:25" ht="14.45" customHeight="1">
       <c r="A118" s="2">
         <v>52</v>
       </c>
@@ -6651,7 +6670,7 @@
       <c r="X118" s="90"/>
       <c r="Y118" s="14"/>
     </row>
-    <row r="119" spans="1:25" ht="14.4" customHeight="1">
+    <row r="119" spans="1:25" ht="14.45" customHeight="1">
       <c r="A119" s="2">
         <v>53</v>
       </c>
@@ -6674,7 +6693,7 @@
       <c r="X119" s="77"/>
       <c r="Y119" s="14"/>
     </row>
-    <row r="120" spans="1:25" ht="14.4" customHeight="1">
+    <row r="120" spans="1:25" ht="14.45" customHeight="1">
       <c r="A120" s="2">
         <v>54</v>
       </c>
@@ -6695,7 +6714,7 @@
       <c r="X120" s="90"/>
       <c r="Y120" s="14"/>
     </row>
-    <row r="121" spans="1:25" ht="14.4" customHeight="1">
+    <row r="121" spans="1:25" ht="14.45" customHeight="1">
       <c r="A121" s="2">
         <v>55</v>
       </c>
@@ -6718,7 +6737,7 @@
       <c r="X121" s="77"/>
       <c r="Y121" s="14"/>
     </row>
-    <row r="122" spans="1:25" ht="14.4" customHeight="1">
+    <row r="122" spans="1:25" ht="14.45" customHeight="1">
       <c r="A122" s="2">
         <v>56</v>
       </c>
@@ -6736,56 +6755,56 @@
       <c r="X122" s="27"/>
       <c r="Y122" s="28"/>
     </row>
-    <row r="123" spans="1:25" ht="14.4" customHeight="1">
+    <row r="123" spans="1:25" ht="14.45" customHeight="1">
       <c r="A123" s="2">
         <v>57</v>
       </c>
       <c r="B123" s="10"/>
       <c r="M123" s="12"/>
     </row>
-    <row r="124" spans="1:25" ht="14.4" customHeight="1">
+    <row r="124" spans="1:25" ht="14.45" customHeight="1">
       <c r="A124" s="2">
         <v>58</v>
       </c>
       <c r="B124" s="10"/>
       <c r="M124" s="12"/>
     </row>
-    <row r="125" spans="1:25" ht="14.4" customHeight="1">
+    <row r="125" spans="1:25" ht="14.45" customHeight="1">
       <c r="A125" s="2">
         <v>59</v>
       </c>
       <c r="B125" s="10"/>
       <c r="M125" s="12"/>
     </row>
-    <row r="126" spans="1:25" ht="14.4" customHeight="1">
+    <row r="126" spans="1:25" ht="14.45" customHeight="1">
       <c r="A126" s="2">
         <v>60</v>
       </c>
       <c r="B126" s="10"/>
       <c r="M126" s="12"/>
     </row>
-    <row r="127" spans="1:25" ht="14.4" customHeight="1">
+    <row r="127" spans="1:25" ht="14.45" customHeight="1">
       <c r="A127" s="2">
         <v>61</v>
       </c>
       <c r="B127" s="10"/>
       <c r="M127" s="12"/>
     </row>
-    <row r="128" spans="1:25" ht="14.4" customHeight="1">
+    <row r="128" spans="1:25" ht="14.45" customHeight="1">
       <c r="A128" s="2">
         <v>62</v>
       </c>
       <c r="B128" s="10"/>
       <c r="M128" s="12"/>
     </row>
-    <row r="129" spans="1:13" ht="14.4" customHeight="1">
+    <row r="129" spans="1:13" ht="14.45" customHeight="1">
       <c r="A129" s="2">
         <v>63</v>
       </c>
       <c r="B129" s="10"/>
       <c r="M129" s="12"/>
     </row>
-    <row r="130" spans="1:13" ht="14.4" customHeight="1">
+    <row r="130" spans="1:13" ht="14.45" customHeight="1">
       <c r="A130" s="2">
         <v>64</v>
       </c>
@@ -6802,7 +6821,7 @@
       <c r="L130" s="24"/>
       <c r="M130" s="25"/>
     </row>
-    <row r="131" spans="1:13" ht="14.4" customHeight="1">
+    <row r="131" spans="1:13" ht="14.45" customHeight="1">
       <c r="A131" s="2">
         <v>65</v>
       </c>
@@ -6821,7 +6840,7 @@
         <v>Eugene Mah</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="14.4" customHeight="1">
+    <row r="132" spans="1:13" ht="14.45" customHeight="1">
       <c r="A132" s="2">
         <v>66</v>
       </c>
@@ -6841,45 +6860,19 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{B8088769-C3DE-4DF8-A82B-D0EB46FFCC4A}">
+      <rowBreaks count="1" manualBreakCount="1">
+        <brk id="66" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.92638888888888904" header="0.51180555555555496" footer="0.78749999999999998"/>
+      <pageSetup scale="65" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+      <headerFooter>
+        <oddFooter>&amp;CPage &amp;P</oddFooter>
+      </headerFooter>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="47">
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="S70:S71"/>
-    <mergeCell ref="V70:V71"/>
-    <mergeCell ref="W70:W71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="S72:S73"/>
     <mergeCell ref="Q83:R83"/>
     <mergeCell ref="S83:T83"/>
     <mergeCell ref="V72:V73"/>
@@ -6889,6 +6882,44 @@
     <mergeCell ref="S74:S75"/>
     <mergeCell ref="V74:V75"/>
     <mergeCell ref="W74:W75"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="S72:S73"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="S70:S71"/>
+    <mergeCell ref="V70:V71"/>
+    <mergeCell ref="W70:W71"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <conditionalFormatting sqref="I72:I74">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
@@ -6939,7 +6970,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.92638888888888904" header="0.51180555555555496" footer="0.78749999999999998"/>
-  <pageSetup scale="65" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="65" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -1785,32 +1785,29 @@
     <xf numFmtId="2" fontId="3" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1818,20 +1815,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1845,32 +1833,44 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2082,24 +2082,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6E99346C-9346-4CAA-827E-A3BD6FA3C515}">
-  <header guid="{6E99346C-9346-4CAA-827E-A3BD6FA3C515}" dateTime="2020-06-03T09:45:39" maxSheetId="2" userName="Eugene Mah" r:id="rId1">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2411,12 +2393,12 @@
       <c r="AA1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="179" t="s">
+      <c r="AG1" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="179"/>
-      <c r="AI1" s="179"/>
-      <c r="AJ1" s="179"/>
+      <c r="AH1" s="204"/>
+      <c r="AI1" s="204"/>
+      <c r="AJ1" s="204"/>
     </row>
     <row r="2" spans="1:36" ht="14.45" customHeight="1">
       <c r="A2" s="2">
@@ -2433,14 +2415,14 @@
       </c>
       <c r="Y2" s="14"/>
       <c r="AA2" s="15"/>
-      <c r="AG2" s="180" t="s">
+      <c r="AG2" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="180"/>
-      <c r="AI2" s="181" t="s">
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="181"/>
+      <c r="AJ2" s="206"/>
     </row>
     <row r="3" spans="1:36" ht="14.45" customHeight="1">
       <c r="A3" s="2">
@@ -2730,19 +2712,19 @@
       <c r="D10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="182" t="str">
+      <c r="E10" s="207" t="str">
         <f t="shared" ref="E10:E15" si="1">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="F10" s="182"/>
+      <c r="F10" s="207"/>
       <c r="I10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="182" t="str">
+      <c r="J10" s="207" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="K10" s="182"/>
+      <c r="K10" s="207"/>
       <c r="M10" s="12"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="21" t="s">
@@ -2783,19 +2765,19 @@
       <c r="D11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="183" t="str">
+      <c r="E11" s="201" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="183"/>
+      <c r="F11" s="201"/>
       <c r="I11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="184" t="str">
+      <c r="J11" s="203" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="K11" s="184"/>
+      <c r="K11" s="203"/>
       <c r="M11" s="12"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="21" t="s">
@@ -2836,19 +2818,19 @@
       <c r="D12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="183" t="str">
+      <c r="E12" s="201" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="183"/>
+      <c r="F12" s="201"/>
       <c r="I12" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="183" t="str">
+      <c r="J12" s="201" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="K12" s="183"/>
+      <c r="K12" s="201"/>
       <c r="M12" s="12"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="21" t="s">
@@ -2889,19 +2871,19 @@
       <c r="D13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="183" t="str">
+      <c r="E13" s="201" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="183"/>
+      <c r="F13" s="201"/>
       <c r="I13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="183" t="str">
+      <c r="J13" s="201" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="K13" s="183"/>
+      <c r="K13" s="201"/>
       <c r="M13" s="12"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="21" t="s">
@@ -2942,19 +2924,19 @@
       <c r="D14" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="183" t="str">
+      <c r="E14" s="201" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="183"/>
+      <c r="F14" s="201"/>
       <c r="I14" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="183" t="str">
+      <c r="J14" s="201" t="str">
         <f>IF(V14="","",V14)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K14" s="183"/>
+      <c r="K14" s="201"/>
       <c r="M14" s="12"/>
       <c r="O14" s="13"/>
       <c r="Q14" s="21" t="s">
@@ -2995,11 +2977,11 @@
       <c r="D15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="183" t="str">
+      <c r="E15" s="201" t="str">
         <f t="shared" si="1"/>
         <v>IMPAX 4.2 2015</v>
       </c>
-      <c r="F15" s="183"/>
+      <c r="F15" s="201"/>
       <c r="M15" s="12"/>
       <c r="O15" s="26"/>
       <c r="P15" s="27"/>
@@ -3137,10 +3119,10 @@
       <c r="H19" s="165"/>
       <c r="I19" s="165"/>
       <c r="J19" s="165"/>
-      <c r="K19" s="186" t="s">
+      <c r="K19" s="202" t="s">
         <v>138</v>
       </c>
-      <c r="L19" s="186"/>
+      <c r="L19" s="202"/>
       <c r="M19" s="5"/>
       <c r="O19" s="13"/>
       <c r="R19" s="1" t="s">
@@ -3392,11 +3374,11 @@
       <c r="D24" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="185" t="str">
+      <c r="E24" s="199" t="str">
         <f>IF(P51="","",P51)</f>
         <v/>
       </c>
-      <c r="F24" s="185"/>
+      <c r="F24" s="199"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -3718,11 +3700,11 @@
       <c r="C33" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="185" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(P33="","",P33)</f>
         <v/>
       </c>
-      <c r="E33" s="185"/>
+      <c r="E33" s="199"/>
       <c r="F33" s="86" t="s">
         <v>73</v>
       </c>
@@ -4058,11 +4040,11 @@
       <c r="C41" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="185" t="str">
+      <c r="D41" s="199" t="str">
         <f>IF(P43="","",P43)</f>
         <v/>
       </c>
-      <c r="E41" s="185"/>
+      <c r="E41" s="199"/>
       <c r="F41" s="103" t="str">
         <f>R44</f>
         <v>Left ()</v>
@@ -4558,12 +4540,12 @@
       <c r="C54" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="I54" s="187" t="s">
+      <c r="I54" s="200" t="s">
         <v>97</v>
       </c>
-      <c r="J54" s="187"/>
-      <c r="K54" s="187"/>
-      <c r="L54" s="187"/>
+      <c r="J54" s="200"/>
+      <c r="K54" s="200"/>
+      <c r="L54" s="200"/>
       <c r="M54" s="12"/>
       <c r="O54" s="13"/>
       <c r="P54" s="21" t="s">
@@ -4595,16 +4577,16 @@
         <f>S65</f>
         <v>Right ( )</v>
       </c>
-      <c r="I55" s="188" t="str">
+      <c r="I55" s="187" t="str">
         <f>R65</f>
         <v>Left ()</v>
       </c>
-      <c r="J55" s="188"/>
-      <c r="K55" s="189" t="str">
+      <c r="J55" s="187"/>
+      <c r="K55" s="188" t="str">
         <f>S65</f>
         <v>Right ( )</v>
       </c>
-      <c r="L55" s="189"/>
+      <c r="L55" s="188"/>
       <c r="M55" s="12"/>
       <c r="O55" s="13"/>
       <c r="Y55" s="14"/>
@@ -4637,16 +4619,16 @@
       <c r="H56" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="I56" s="190" t="str">
+      <c r="I56" s="195" t="str">
         <f>IF(R70="","",R70)</f>
         <v/>
       </c>
-      <c r="J56" s="190"/>
-      <c r="K56" s="191" t="str">
+      <c r="J56" s="195"/>
+      <c r="K56" s="196" t="str">
         <f>IF(S70="","",S70)</f>
         <v/>
       </c>
-      <c r="L56" s="191"/>
+      <c r="L56" s="196"/>
       <c r="M56" s="12"/>
       <c r="O56" s="80" t="s">
         <v>88</v>
@@ -4677,16 +4659,16 @@
       <c r="H57" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="I57" s="190" t="str">
+      <c r="I57" s="195" t="str">
         <f>IF(R72="","",R72)</f>
         <v/>
       </c>
-      <c r="J57" s="190"/>
-      <c r="K57" s="191" t="str">
+      <c r="J57" s="195"/>
+      <c r="K57" s="196" t="str">
         <f>IF(S72="","",S72)</f>
         <v/>
       </c>
-      <c r="L57" s="191"/>
+      <c r="L57" s="196"/>
       <c r="M57" s="12"/>
       <c r="O57" s="112" t="s">
         <v>102</v>
@@ -4729,16 +4711,16 @@
       <c r="H58" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="I58" s="192" t="str">
+      <c r="I58" s="197" t="str">
         <f>IF(R74="","",R74)</f>
         <v/>
       </c>
-      <c r="J58" s="192"/>
-      <c r="K58" s="193" t="str">
+      <c r="J58" s="197"/>
+      <c r="K58" s="198" t="str">
         <f>IF(S74="","",S74)</f>
         <v/>
       </c>
-      <c r="L58" s="193"/>
+      <c r="L58" s="198"/>
       <c r="M58" s="12"/>
       <c r="O58" s="13"/>
       <c r="P58" s="113" t="s">
@@ -5078,10 +5060,10 @@
       <c r="R69" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="V69" s="194" t="s">
+      <c r="V69" s="182" t="s">
         <v>110</v>
       </c>
-      <c r="W69" s="194"/>
+      <c r="W69" s="182"/>
       <c r="Y69" s="14"/>
       <c r="AB69" s="169"/>
       <c r="AC69" s="35" t="str">
@@ -5112,16 +5094,16 @@
       <c r="L70" s="4"/>
       <c r="M70" s="5"/>
       <c r="O70" s="13"/>
-      <c r="Q70" s="194" t="s">
+      <c r="Q70" s="182" t="s">
         <v>99</v>
       </c>
-      <c r="R70" s="195"/>
-      <c r="S70" s="196"/>
-      <c r="V70" s="197" t="str">
+      <c r="R70" s="191"/>
+      <c r="S70" s="192"/>
+      <c r="V70" s="193" t="str">
         <f>IF(AB35="","",AB35)</f>
         <v/>
       </c>
-      <c r="W70" s="198" t="str">
+      <c r="W70" s="194" t="str">
         <f>IF(AB38="","",AB38)</f>
         <v/>
       </c>
@@ -5136,26 +5118,26 @@
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="96"/>
-      <c r="D71" s="188" t="str">
+      <c r="D71" s="187" t="str">
         <f>Q83</f>
         <v>UNL-10 (cd/m^2)</v>
       </c>
-      <c r="E71" s="188"/>
-      <c r="F71" s="189" t="str">
+      <c r="E71" s="187"/>
+      <c r="F71" s="188" t="str">
         <f>S83</f>
         <v>UNL-80 (cd/m^2)</v>
       </c>
-      <c r="G71" s="189"/>
+      <c r="G71" s="188"/>
       <c r="I71" s="68" t="s">
         <v>112</v>
       </c>
       <c r="M71" s="12"/>
       <c r="O71" s="13"/>
-      <c r="Q71" s="194"/>
-      <c r="R71" s="195"/>
-      <c r="S71" s="196"/>
-      <c r="V71" s="197"/>
-      <c r="W71" s="198"/>
+      <c r="Q71" s="182"/>
+      <c r="R71" s="191"/>
+      <c r="S71" s="192"/>
+      <c r="V71" s="193"/>
+      <c r="W71" s="194"/>
       <c r="Y71" s="14"/>
       <c r="AB71" s="169"/>
       <c r="AC71" s="35" t="str">
@@ -5198,16 +5180,16 @@
       </c>
       <c r="M72" s="12"/>
       <c r="O72" s="13"/>
-      <c r="Q72" s="194" t="s">
+      <c r="Q72" s="182" t="s">
         <v>101</v>
       </c>
-      <c r="R72" s="199"/>
-      <c r="S72" s="200"/>
-      <c r="V72" s="202" t="str">
+      <c r="R72" s="189"/>
+      <c r="S72" s="190"/>
+      <c r="V72" s="180" t="str">
         <f>IF(AB36="","",AB36)</f>
         <v/>
       </c>
-      <c r="W72" s="203" t="str">
+      <c r="W72" s="181" t="str">
         <f>IF(AB39="","",AB39)</f>
         <v/>
       </c>
@@ -5246,11 +5228,11 @@
       </c>
       <c r="M73" s="12"/>
       <c r="O73" s="13"/>
-      <c r="Q73" s="194"/>
-      <c r="R73" s="199"/>
-      <c r="S73" s="200"/>
-      <c r="V73" s="202"/>
-      <c r="W73" s="203"/>
+      <c r="Q73" s="182"/>
+      <c r="R73" s="189"/>
+      <c r="S73" s="190"/>
+      <c r="V73" s="180"/>
+      <c r="W73" s="181"/>
       <c r="Y73" s="14"/>
     </row>
     <row r="74" spans="1:30" ht="14.45" customHeight="1">
@@ -5286,16 +5268,16 @@
       </c>
       <c r="M74" s="12"/>
       <c r="O74" s="13"/>
-      <c r="Q74" s="194" t="s">
+      <c r="Q74" s="182" t="s">
         <v>104</v>
       </c>
-      <c r="R74" s="204"/>
-      <c r="S74" s="205"/>
-      <c r="V74" s="206" t="str">
+      <c r="R74" s="183"/>
+      <c r="S74" s="184"/>
+      <c r="V74" s="185" t="str">
         <f>IF(AB37="","",AB37)</f>
         <v/>
       </c>
-      <c r="W74" s="207" t="str">
+      <c r="W74" s="186" t="str">
         <f>IF(AB40="","",AB40)</f>
         <v/>
       </c>
@@ -5327,11 +5309,11 @@
       </c>
       <c r="M75" s="12"/>
       <c r="O75" s="13"/>
-      <c r="Q75" s="194"/>
-      <c r="R75" s="204"/>
-      <c r="S75" s="205"/>
-      <c r="V75" s="206"/>
-      <c r="W75" s="207"/>
+      <c r="Q75" s="182"/>
+      <c r="R75" s="183"/>
+      <c r="S75" s="184"/>
+      <c r="V75" s="185"/>
+      <c r="W75" s="186"/>
       <c r="Y75" s="14"/>
     </row>
     <row r="76" spans="1:30" ht="14.45" customHeight="1">
@@ -5542,14 +5524,14 @@
       <c r="L83" s="77"/>
       <c r="M83" s="12"/>
       <c r="O83" s="13"/>
-      <c r="Q83" s="201" t="s">
+      <c r="Q83" s="179" t="s">
         <v>122</v>
       </c>
-      <c r="R83" s="201"/>
-      <c r="S83" s="201" t="s">
+      <c r="R83" s="179"/>
+      <c r="S83" s="179" t="s">
         <v>123</v>
       </c>
-      <c r="T83" s="201"/>
+      <c r="T83" s="179"/>
       <c r="V83" s="132" t="s">
         <v>44</v>
       </c>
@@ -6873,6 +6855,44 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="47">
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="S70:S71"/>
+    <mergeCell ref="V70:V71"/>
+    <mergeCell ref="W70:W71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="S72:S73"/>
     <mergeCell ref="Q83:R83"/>
     <mergeCell ref="S83:T83"/>
     <mergeCell ref="V72:V73"/>
@@ -6882,44 +6902,6 @@
     <mergeCell ref="S74:S75"/>
     <mergeCell ref="V74:V75"/>
     <mergeCell ref="W74:W75"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="S72:S73"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="S70:S71"/>
-    <mergeCell ref="V70:V71"/>
-    <mergeCell ref="W70:W71"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <conditionalFormatting sqref="I72:I74">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">

--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -15,10 +15,11 @@
     <sheet name="Barco" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="Lamb">Barco!$T$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Barco!$B$1:$M$132</definedName>
     <definedName name="Z_B8088769_C3DE_4DF8_A82B_D0EB46FFCC4A_.wvu.PrintArea" localSheetId="0" hidden="1">Barco!$B$1:$M$132</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
     <customWorkbookView name="Eugene Mah - Personal View" guid="{B8088769-C3DE-4DF8-A82B-D0EB46FFCC4A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="784" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
@@ -35,8 +36,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eugene Mah</author>
+  </authors>
+  <commentList>
+    <comment ref="Q59" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Total Luminance = Measured luminance + ambient luminance</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q88" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eugene Mah:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Total Luminance = Measured luminance + ambient luminance</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="184">
   <si>
     <t>Print Area</t>
   </si>
@@ -185,9 +244,6 @@
     <t>TG18-QC test pattern</t>
   </si>
   <si>
-    <t>Ambient Light:</t>
-  </si>
-  <si>
     <t>Rapid Frame acceptable</t>
   </si>
   <si>
@@ -212,9 +268,6 @@
     <t>Uniformity Dev UNL10 R:</t>
   </si>
   <si>
-    <t>Ambient light:</t>
-  </si>
-  <si>
     <t>Criteria:</t>
   </si>
   <si>
@@ -353,12 +406,6 @@
     <t>White</t>
   </si>
   <si>
-    <t>LN-01 (cd/m^2)</t>
-  </si>
-  <si>
-    <t>LN-18 (cd/m^2)</t>
-  </si>
-  <si>
     <t>Annually</t>
   </si>
   <si>
@@ -410,21 +457,6 @@
     <t>UNL-80 (cd/m^2)</t>
   </si>
   <si>
-    <t>Top left</t>
-  </si>
-  <si>
-    <t>Top right</t>
-  </si>
-  <si>
-    <t>Center</t>
-  </si>
-  <si>
-    <t>Bottom left</t>
-  </si>
-  <si>
-    <t>Bottom right</t>
-  </si>
-  <si>
     <t>Average (cd/m^2):</t>
   </si>
   <si>
@@ -467,13 +499,154 @@
     <t>Rapid Frame acceptable:</t>
   </si>
   <si>
-    <t>Revision 1.4-20200130</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Piranha CB2-19020491</t>
+  </si>
+  <si>
+    <t>Revision 1.5-20210527</t>
+  </si>
+  <si>
+    <t>Ambient light illuminance measured at the surface of the monitor(s) must be less than 20 lux</t>
+  </si>
+  <si>
+    <t>cd/m^2</t>
+  </si>
+  <si>
+    <t>Ambient Illum:</t>
+  </si>
+  <si>
+    <t>Ambient Lum:</t>
+  </si>
+  <si>
+    <t>Amb Luminance:</t>
+  </si>
+  <si>
+    <t>LUDM UNL 10</t>
+  </si>
+  <si>
+    <t>LUDM UNL 80</t>
+  </si>
+  <si>
+    <t>LUDM (%):</t>
+  </si>
+  <si>
+    <t>Ambient Lum</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>Luminance ratio:</t>
+  </si>
+  <si>
+    <t>LN-01 (cd/m^2):</t>
+  </si>
+  <si>
+    <t>LN-18 (cd/m^2):</t>
+  </si>
+  <si>
+    <t>TG-18 LN01 L:</t>
+  </si>
+  <si>
+    <t>TG-18 LN01 R:</t>
+  </si>
+  <si>
+    <t>TG-18 LN18 L:</t>
+  </si>
+  <si>
+    <t>TG-18 LN18 R:</t>
+  </si>
+  <si>
+    <t>TG-18 Lum Ratio R:</t>
+  </si>
+  <si>
+    <t>TG-18 Lum Ratio L:</t>
+  </si>
+  <si>
+    <t>Measurements</t>
+  </si>
+  <si>
+    <t>Set text</t>
+  </si>
+  <si>
+    <t>Light_x000D_(cd/m²)</t>
+  </si>
+  <si>
+    <t>LN01</t>
+  </si>
+  <si>
+    <t>LN18</t>
+  </si>
+  <si>
+    <t>UNL10</t>
+  </si>
+  <si>
+    <t>UNL80</t>
+  </si>
+  <si>
+    <t>LUDM UNL 10 L:</t>
+  </si>
+  <si>
+    <t>LUDM UNL 10 R:</t>
+  </si>
+  <si>
+    <t>LUDM UNL 18 L:</t>
+  </si>
+  <si>
+    <t>LUDM UNL 18 R:</t>
+  </si>
+  <si>
+    <t>Region 1:</t>
+  </si>
+  <si>
+    <t>Region 2:</t>
+  </si>
+  <si>
+    <t>Region 3:</t>
+  </si>
+  <si>
+    <t>Region 4:</t>
+  </si>
+  <si>
+    <t>Region 5:</t>
+  </si>
+  <si>
+    <t>Region 6:</t>
+  </si>
+  <si>
+    <t>Region 7:</t>
+  </si>
+  <si>
+    <t>Region 8:</t>
+  </si>
+  <si>
+    <t>Region 9:</t>
+  </si>
+  <si>
+    <t>Ambience ratio:</t>
+  </si>
+  <si>
+    <t>Ambience Ratio L:</t>
+  </si>
+  <si>
+    <t>Ambience Ratio R:</t>
+  </si>
+  <si>
+    <t>Luminance Ratio:</t>
+  </si>
+  <si>
+    <t>Ambience Ratio:</t>
+  </si>
+  <si>
+    <t>L_amb</t>
+  </si>
+  <si>
+    <t>Luminance deviation from median is &lt; 30%</t>
+  </si>
+  <si>
+    <t>Luminance deviation from medium (LUDM) is &lt; 30%</t>
+  </si>
+  <si>
+    <t>Lum Dev from Median (%):</t>
   </si>
 </sst>
 </file>
@@ -489,7 +662,7 @@
     <numFmt numFmtId="169" formatCode="0.0%"/>
     <numFmt numFmtId="170" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -592,8 +765,33 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,8 +840,14 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="49">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1147,10 +1351,170 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -1163,7 +1527,7 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -1176,67 +1540,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1248,8 +1588,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1527,178 +1868,145 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1725,10 +2033,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1740,7 +2048,7 @@
     <xf numFmtId="170" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1758,102 +2066,219 @@
     <xf numFmtId="166" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="47" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="39" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1873,16 +2298,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Fail" xfId="6"/>
     <cellStyle name="Heading" xfId="3"/>
     <cellStyle name="Heading1" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pass" xfId="5"/>
+    <cellStyle name="Percent" xfId="7" builtinId="5"/>
     <cellStyle name="Result" xfId="1"/>
     <cellStyle name="Result2" xfId="2"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1905,11 +2341,51 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2346,10 +2822,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2378,7 +2856,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="5"/>
       <c r="O1" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
@@ -2393,12 +2871,12 @@
       <c r="AA1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="204" t="s">
+      <c r="AG1" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="204"/>
-      <c r="AI1" s="204"/>
-      <c r="AJ1" s="204"/>
+      <c r="AH1" s="232"/>
+      <c r="AI1" s="232"/>
+      <c r="AJ1" s="232"/>
     </row>
     <row r="2" spans="1:36" ht="14.45" customHeight="1">
       <c r="A2" s="2">
@@ -2415,14 +2893,14 @@
       </c>
       <c r="Y2" s="14"/>
       <c r="AA2" s="15"/>
-      <c r="AG2" s="205" t="s">
+      <c r="AG2" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206" t="s">
+      <c r="AH2" s="233"/>
+      <c r="AI2" s="234" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="206"/>
+      <c r="AJ2" s="234"/>
     </row>
     <row r="3" spans="1:36" ht="14.45" customHeight="1">
       <c r="A3" s="2">
@@ -2571,7 +3049,7 @@
       <c r="O7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="152"/>
+      <c r="P7" s="141"/>
       <c r="Q7" s="31"/>
       <c r="W7" s="1" t="s">
         <v>21</v>
@@ -2632,7 +3110,7 @@
       <c r="O8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="154" t="str">
+      <c r="P8" s="143" t="str">
         <f>IF(AB8="","",AB8)</f>
         <v/>
       </c>
@@ -2703,6 +3181,10 @@
         <f>IF(X7="","",X7)</f>
         <v>Eugene Mah</v>
       </c>
+      <c r="AF9" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:36" ht="14.45" customHeight="1">
       <c r="A10" s="2">
@@ -2712,19 +3194,19 @@
       <c r="D10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="207" t="str">
+      <c r="E10" s="235" t="str">
         <f t="shared" ref="E10:E15" si="1">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="F10" s="207"/>
+      <c r="F10" s="235"/>
       <c r="I10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="207" t="str">
+      <c r="J10" s="235" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="K10" s="207"/>
+      <c r="K10" s="235"/>
       <c r="M10" s="12"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="21" t="s">
@@ -2756,6 +3238,8 @@
         <f t="shared" ref="AD10:AD15" si="3">IF(R10="","",R10)</f>
         <v/>
       </c>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="1:36" ht="14.45" customHeight="1">
       <c r="A11" s="2">
@@ -2765,19 +3249,19 @@
       <c r="D11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="201" t="str">
+      <c r="E11" s="228" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="201"/>
+      <c r="F11" s="228"/>
       <c r="I11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="203" t="str">
+      <c r="J11" s="231" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="K11" s="203"/>
+      <c r="K11" s="231"/>
       <c r="M11" s="12"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="21" t="s">
@@ -2809,6 +3293,12 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="AF11" s="185" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG11" s="185" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="12" spans="1:36" ht="14.45" customHeight="1">
       <c r="A12" s="2">
@@ -2818,19 +3308,19 @@
       <c r="D12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="201" t="str">
+      <c r="E12" s="228" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="201"/>
+      <c r="F12" s="228"/>
       <c r="I12" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="201" t="str">
+      <c r="J12" s="228" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="K12" s="201"/>
+      <c r="K12" s="228"/>
       <c r="M12" s="12"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="21" t="s">
@@ -2862,6 +3352,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="AF12" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="13" spans="1:36" ht="14.45" customHeight="1">
       <c r="A13" s="2">
@@ -2871,19 +3364,19 @@
       <c r="D13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="201" t="str">
+      <c r="E13" s="228" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="201"/>
+      <c r="F13" s="228"/>
       <c r="I13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="201" t="str">
+      <c r="J13" s="228" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="K13" s="201"/>
+      <c r="K13" s="228"/>
       <c r="M13" s="12"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="21" t="s">
@@ -2915,6 +3408,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="AF13" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="14" spans="1:36" ht="14.45" customHeight="1">
       <c r="A14" s="2">
@@ -2924,19 +3420,19 @@
       <c r="D14" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="201" t="str">
+      <c r="E14" s="228" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="201"/>
+      <c r="F14" s="228"/>
       <c r="I14" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="201" t="str">
+      <c r="J14" s="228" t="str">
         <f>IF(V14="","",V14)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K14" s="201"/>
+        <v/>
+      </c>
+      <c r="K14" s="228"/>
       <c r="M14" s="12"/>
       <c r="O14" s="13"/>
       <c r="Q14" s="21" t="s">
@@ -2952,7 +3448,7 @@
       </c>
       <c r="V14" s="61" t="str">
         <f>IF(W14&lt;&gt;"",W14,IF(AB20="","",AB20))</f>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="W14" s="60"/>
       <c r="Y14" s="14"/>
@@ -2968,8 +3464,11 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:36" ht="14.45" customHeight="1">
+      <c r="AF14" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="14.45" customHeight="1" thickBot="1">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -2977,11 +3476,11 @@
       <c r="D15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="201" t="str">
+      <c r="E15" s="228" t="str">
         <f t="shared" si="1"/>
         <v>IMPAX 4.2 2015</v>
       </c>
-      <c r="F15" s="201"/>
+      <c r="F15" s="228"/>
       <c r="M15" s="12"/>
       <c r="O15" s="26"/>
       <c r="P15" s="27"/>
@@ -3013,8 +3512,11 @@
         <f t="shared" si="3"/>
         <v>IMPAX 4.2 2015</v>
       </c>
-    </row>
-    <row r="16" spans="1:36" ht="14.45" customHeight="1">
+      <c r="AF15" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="14.45" customHeight="1" thickBot="1">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -3042,8 +3544,11 @@
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AF16" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="14.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -3068,8 +3573,11 @@
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+      <c r="AF17" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -3103,8 +3611,11 @@
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:30" ht="14.45" customHeight="1" thickTop="1">
+      <c r="AF18" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="14.45" customHeight="1" thickTop="1">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -3112,17 +3623,17 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165" t="s">
+      <c r="F19" s="154"/>
+      <c r="G19" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="165"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="165"/>
-      <c r="K19" s="202" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="202"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="230" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="230"/>
       <c r="M19" s="5"/>
       <c r="O19" s="13"/>
       <c r="R19" s="1" t="s">
@@ -3130,7 +3641,7 @@
       </c>
       <c r="S19" s="40"/>
       <c r="V19" s="40" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="W19" s="40"/>
       <c r="X19" s="40"/>
@@ -3147,14 +3658,17 @@
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AF19" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="14.45" customHeight="1">
       <c r="A20" s="2">
         <v>20</v>
       </c>
       <c r="B20" s="10"/>
       <c r="D20" s="52" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E20" s="53" t="str">
         <f>IF(O20="","",IF(O20=1,"YES",IF(O20=2,"NO",IF(O20=3,"NA",""))))</f>
@@ -3172,7 +3686,7 @@
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
       <c r="K20" s="62" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="L20" s="88" t="str">
         <f>IF(W20="","",W20)</f>
@@ -3186,38 +3700,39 @@
       <c r="R20" s="76"/>
       <c r="S20" s="40"/>
       <c r="V20" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="W20" s="159" t="str">
+        <v>126</v>
+      </c>
+      <c r="W20" s="148" t="str">
         <f>IF(X20&lt;&gt;"",X20,IF(AB23="","",AB23))</f>
         <v>Piranha CB2-19020491</v>
       </c>
-      <c r="X20" s="160" t="s">
-        <v>145</v>
+      <c r="X20" s="149" t="s">
+        <v>134</v>
       </c>
       <c r="Y20" s="14"/>
       <c r="AA20" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AB20" s="69" t="s">
-        <v>144</v>
-      </c>
+      <c r="AB20" s="69"/>
       <c r="AC20" s="35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AD20" s="73" t="str">
         <f>IF(V14="","",V14)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="14.45" customHeight="1">
+        <v/>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="14.45" customHeight="1">
       <c r="A21" s="2">
         <v>21</v>
       </c>
       <c r="B21" s="10"/>
       <c r="D21" s="52" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E21" s="56" t="str">
         <f>IF(O21="","",IF(O21=1,"YES",IF(O21=2,"NO",IF(O21=3,"NA",""))))</f>
@@ -3235,9 +3750,9 @@
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
       <c r="K21" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="L21" s="166">
+        <v>128</v>
+      </c>
+      <c r="L21" s="155">
         <f t="shared" ref="L21:L22" si="5">IF(W21="","",W21)</f>
         <v>43549</v>
       </c>
@@ -3249,27 +3764,30 @@
       <c r="R21" s="76"/>
       <c r="S21" s="40"/>
       <c r="V21" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="W21" s="164">
+        <v>128</v>
+      </c>
+      <c r="W21" s="153">
         <f t="shared" ref="W21:W22" si="6">IF(X21&lt;&gt;"",X21,IF(AB24="","",AB24))</f>
         <v>43549</v>
       </c>
-      <c r="X21" s="161">
+      <c r="X21" s="150">
         <v>43549</v>
       </c>
       <c r="Y21" s="14"/>
       <c r="AB21" s="20"/>
       <c r="AC21" s="20"/>
       <c r="AD21" s="20"/>
-    </row>
-    <row r="22" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AF21" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="14.45" customHeight="1">
       <c r="A22" s="2">
         <v>22</v>
       </c>
       <c r="B22" s="10"/>
       <c r="D22" s="52" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E22" s="56" t="str">
         <f>IF(O22="","",IF(O22=1,"YES",IF(O22=2,"NO",IF(O22=3,"NA",""))))</f>
@@ -3287,9 +3805,9 @@
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
       <c r="K22" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="L22" s="166">
+        <v>127</v>
+      </c>
+      <c r="L22" s="155">
         <f t="shared" si="5"/>
         <v>44280</v>
       </c>
@@ -3301,27 +3819,30 @@
       <c r="R22" s="76"/>
       <c r="S22" s="40"/>
       <c r="V22" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="W22" s="164">
+        <v>127</v>
+      </c>
+      <c r="W22" s="153">
         <f t="shared" si="6"/>
         <v>44280</v>
       </c>
-      <c r="X22" s="161">
+      <c r="X22" s="150">
         <v>44280</v>
       </c>
       <c r="Y22" s="14"/>
       <c r="AA22" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="14.45" customHeight="1">
+        <v>129</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="14.45" customHeight="1">
       <c r="A23" s="2">
         <v>23</v>
       </c>
       <c r="B23" s="10"/>
       <c r="D23" s="52" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E23" s="56" t="str">
         <f>IF(O23="","",IF(O23=1,"YES",IF(O23=2,"NO",IF(O23=3,"NA",""))))</f>
@@ -3343,7 +3864,7 @@
       <c r="M23" s="12"/>
       <c r="O23" s="75"/>
       <c r="P23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R23" s="76"/>
       <c r="S23" s="40"/>
@@ -3354,7 +3875,7 @@
       <c r="X23" s="40"/>
       <c r="Y23" s="14"/>
       <c r="AA23" s="66" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AB23" s="34"/>
       <c r="AC23" s="35" t="str">
@@ -3365,20 +3886,23 @@
         <f>IF(X20="","",X20)</f>
         <v>Piranha CB2-19020491</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AF23" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="14.45" customHeight="1">
       <c r="A24" s="2">
         <v>24</v>
       </c>
       <c r="B24" s="10"/>
       <c r="D24" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="199" t="str">
-        <f>IF(P51="","",P51)</f>
-        <v/>
-      </c>
-      <c r="F24" s="199"/>
+        <v>85</v>
+      </c>
+      <c r="E24" s="229" t="str">
+        <f>IF(P52="","",P52)</f>
+        <v/>
+      </c>
+      <c r="F24" s="229"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -3389,219 +3913,242 @@
       <c r="O24" s="13"/>
       <c r="Y24" s="14"/>
       <c r="AA24" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB24" s="163"/>
+        <v>128</v>
+      </c>
+      <c r="AB24" s="152"/>
       <c r="AC24" s="35" t="str">
         <f t="shared" si="7"/>
         <v>Change</v>
       </c>
-      <c r="AD24" s="162">
+      <c r="AD24" s="151">
         <f t="shared" ref="AD24:AD25" si="8">IF(X21="","",X21)</f>
         <v>43549</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AF24" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="14.45" customHeight="1">
       <c r="A25" s="2">
         <v>25</v>
       </c>
       <c r="B25" s="10"/>
       <c r="M25" s="12"/>
       <c r="O25" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="U25" s="21" t="s">
         <v>53</v>
-      </c>
-      <c r="U25" s="21" t="s">
-        <v>54</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Y25" s="14"/>
       <c r="AA25" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB25" s="163"/>
+        <v>127</v>
+      </c>
+      <c r="AB25" s="152"/>
       <c r="AC25" s="35" t="str">
         <f t="shared" si="7"/>
         <v>Change</v>
       </c>
-      <c r="AD25" s="162">
+      <c r="AD25" s="151">
         <f t="shared" si="8"/>
         <v>44280</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AF25" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="14.45" customHeight="1">
       <c r="A26" s="2">
         <v>26</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M26" s="12"/>
       <c r="O26" s="84" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="P26" s="85"/>
       <c r="Q26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="S26" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="T26" s="85" t="str">
+        <f>IF(AG12="","",AG12)</f>
+        <v/>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="Y26" s="14"/>
-    </row>
-    <row r="27" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AF26" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" ht="14.45" customHeight="1">
       <c r="A27" s="2">
         <v>27</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="147" t="str">
+        <f>IF(P26="","",P26)</f>
+        <v/>
+      </c>
+      <c r="E27" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D27" s="158" t="str">
-        <f>IF(P26="","",P26)</f>
-        <v/>
-      </c>
-      <c r="E27" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="M27" s="12"/>
       <c r="O27" s="84" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P27" s="87" t="str">
         <f>IF(AB27="","",AB27)</f>
         <v/>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R27" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="S27" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>60</v>
+      <c r="T27" s="87" t="str">
+        <f>IF(AB28="","",AB28)</f>
+        <v/>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="Y27" s="14"/>
       <c r="AA27" s="66" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="AB27" s="34"/>
       <c r="AC27" s="35" t="str">
-        <f t="shared" ref="AC27:AC40" si="9">IF(AB27&lt;&gt;AD27,"Change","")</f>
+        <f>IF(AB27&lt;&gt;AD27,"Change","")</f>
         <v/>
       </c>
       <c r="AD27" s="73" t="str">
         <f>IF(P26="","",P26)</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AF27" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" ht="14.45" customHeight="1">
       <c r="A28" s="2">
         <v>28</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="88" t="str">
-        <f>IF(Q28="","",IF(LEN(Q28)&lt;=135,Q28,IF(LEN(Q28)&lt;=260,LEFT(Q28,SEARCH(" ",Q28,125)),LEFT(Q28,SEARCH(" ",Q28,130)))))</f>
-        <v/>
-      </c>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
+        <v>144</v>
+      </c>
+      <c r="D28" s="168" t="str">
+        <f>IF(T26="","",T26)</f>
+        <v/>
+      </c>
+      <c r="E28" s="167" t="s">
+        <v>137</v>
+      </c>
       <c r="M28" s="12"/>
       <c r="O28" s="13"/>
-      <c r="P28" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q28" s="89" t="str">
-        <f>IF(Q30&lt;&gt;"",Q30,IF(AB43="","",AB43))</f>
-        <v/>
-      </c>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="90"/>
-      <c r="U28" s="90"/>
-      <c r="X28" s="90"/>
+      <c r="P28" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="Y28" s="14"/>
-      <c r="AA28" s="21" t="s">
-        <v>51</v>
+      <c r="AA28" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AB28" s="34"/>
       <c r="AC28" s="35" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AD28" s="79" t="str">
-        <f>IF(R36="","",R36)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="14.45" customHeight="1">
+        <f>IF(AB28&lt;&gt;AD28,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD28" s="73" t="str">
+        <f>IF(T26="","",T26)</f>
+        <v/>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="14.45" customHeight="1">
       <c r="A29" s="2">
         <v>29</v>
       </c>
       <c r="B29" s="10"/>
-      <c r="D29" s="91" t="str">
-        <f>IF(LEN(Q28)&lt;=135,"",IF(LEN(Q28)&lt;=260,RIGHT(Q28,LEN(Q28)-SEARCH(" ",Q28,125)),MID(Q28,SEARCH(" ",Q28,130),IF(LEN(Q28)&lt;=265,LEN(Q28),SEARCH(" ",Q28,255)-SEARCH(" ",Q28,130)))))</f>
-        <v/>
-      </c>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
+      <c r="C29" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="88" t="str">
+        <f>IF(Q29="","",IF(LEN(Q29)&lt;=135,Q29,IF(LEN(Q29)&lt;=260,LEFT(Q29,SEARCH(" ",Q29,125)),LEFT(Q29,SEARCH(" ",Q29,130)))))</f>
+        <v/>
+      </c>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
       <c r="M29" s="12"/>
       <c r="O29" s="13"/>
-      <c r="P29" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="94">
-        <f>LEN(Q28)</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="77"/>
-      <c r="T29" s="77"/>
-      <c r="U29" s="77"/>
-      <c r="V29" s="77"/>
-      <c r="W29" s="77"/>
-      <c r="X29" s="77"/>
+      <c r="P29" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q29" s="89" t="str">
+        <f>IF(Q31&lt;&gt;"",Q31,IF(AB56="","",AB56))</f>
+        <v/>
+      </c>
+      <c r="R29" s="90"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="X29" s="90"/>
       <c r="Y29" s="14"/>
       <c r="AA29" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB29" s="34"/>
       <c r="AC29" s="35" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB29&lt;&gt;AD29,"Change","")</f>
         <v/>
       </c>
       <c r="AD29" s="79" t="str">
-        <f>IF(S36="","",S36)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:30" ht="14.45" customHeight="1">
+        <f>IF(R37="","",R37)</f>
+        <v/>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="14.45" customHeight="1">
       <c r="A30" s="2">
         <v>30</v>
       </c>
       <c r="B30" s="10"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="91" t="str">
-        <f>IF(LEN(Q28)&lt;=265,"",RIGHT(Q28,LEN(Q28)-SEARCH(" ",Q28,255)))</f>
+        <f>IF(LEN(Q29)&lt;=135,"",IF(LEN(Q29)&lt;=260,RIGHT(Q29,LEN(Q29)-SEARCH(" ",Q29,125)),MID(Q29,SEARCH(" ",Q29,130),IF(LEN(Q29)&lt;=265,LEN(Q29),SEARCH(" ",Q29,255)-SEARCH(" ",Q29,130)))))</f>
         <v/>
       </c>
       <c r="E30" s="78"/>
@@ -3614,316 +4161,419 @@
       <c r="L30" s="78"/>
       <c r="M30" s="12"/>
       <c r="O30" s="13"/>
-      <c r="P30" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77"/>
-      <c r="U30" s="77"/>
-      <c r="V30" s="77"/>
-      <c r="W30" s="77"/>
-      <c r="X30" s="77"/>
+      <c r="P30" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="93">
+        <f>LEN(Q29)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
       <c r="Y30" s="14"/>
       <c r="AA30" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB30" s="81"/>
+        <v>51</v>
+      </c>
+      <c r="AB30" s="34"/>
       <c r="AC30" s="35" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AD30" s="82" t="str">
-        <f>IF(Q92="","",Q92)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="14.45" customHeight="1">
+        <f>IF(AB30&lt;&gt;AD30,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD30" s="79" t="str">
+        <f>IF(S37="","",S37)</f>
+        <v/>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="14.45" customHeight="1">
       <c r="A31" s="2">
         <v>31</v>
       </c>
       <c r="B31" s="10"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="91" t="str">
+        <f>IF(LEN(Q29)&lt;=265,"",RIGHT(Q29,LEN(Q29)-SEARCH(" ",Q29,255)))</f>
+        <v/>
+      </c>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
       <c r="M31" s="12"/>
       <c r="O31" s="13"/>
+      <c r="P31" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="78"/>
+      <c r="V31" s="78"/>
+      <c r="W31" s="78"/>
+      <c r="X31" s="78"/>
       <c r="Y31" s="14"/>
-      <c r="AA31" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB31" s="81"/>
+      <c r="AA31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB31" s="34"/>
       <c r="AC31" s="35" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AD31" s="82" t="str">
-        <f>IF(R92="","",R92)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:30" ht="14.45" customHeight="1">
+        <f t="shared" ref="AC31:AC38" si="9">IF(AB31&lt;&gt;AD31,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD31" s="73" t="str">
+        <f>IF(Q59="","",Q59)</f>
+        <v/>
+      </c>
+      <c r="AF31" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" ht="14.45" customHeight="1">
       <c r="A32" s="2">
         <v>32</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="83" t="s">
-        <v>70</v>
-      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="12"/>
-      <c r="O32" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="U32" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="O32" s="13"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
       <c r="Y32" s="14"/>
-      <c r="AA32" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB32" s="81"/>
+      <c r="AA32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB32" s="34"/>
       <c r="AC32" s="35" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AD32" s="82" t="str">
-        <f>IF(S92="","",S92)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AD32" s="73" t="str">
+        <f>IF(R59="","",R59)</f>
+        <v/>
+      </c>
+      <c r="AF32" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="14.45" customHeight="1">
       <c r="A33" s="2">
         <v>33</v>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="12"/>
+      <c r="O33" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="14"/>
+      <c r="AA33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AD33" s="73" t="str">
+        <f>IF(Q60="","",Q60)</f>
+        <v/>
+      </c>
+      <c r="AF33" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
+      <c r="A34" s="2">
+        <v>34</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(P33="","",P33)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199"/>
-      <c r="F33" s="86" t="s">
+      <c r="D34" s="166" t="str">
+        <f>IF(P34="","",P34)</f>
+        <v/>
+      </c>
+      <c r="E34" s="166"/>
+      <c r="F34" s="167" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="167" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="12"/>
-      <c r="O33" s="84" t="s">
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="12"/>
+      <c r="O34" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="P33" s="152"/>
-      <c r="R33" s="20" t="str">
+      <c r="P34" s="141"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="159" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
-      <c r="S33" s="20" t="str">
+      <c r="S34" s="159" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right ( )</v>
-      </c>
-      <c r="Y33" s="14"/>
-      <c r="AA33" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB33" s="81"/>
-      <c r="AC33" s="35" t="str">
+        <v>Right ()</v>
+      </c>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="14"/>
+      <c r="AA34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="35" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AD33" s="82" t="str">
-        <f>IF(T92="","",T92)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A34" s="2">
-        <v>34</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="52" t="str">
-        <f>R33</f>
-        <v>Left ()</v>
-      </c>
-      <c r="F34" s="97" t="str">
-        <f>IF(R34="","",R34)</f>
-        <v/>
-      </c>
-      <c r="G34" s="97" t="str">
-        <f>IF(R35="","",R35)</f>
-        <v/>
-      </c>
-      <c r="H34" s="98" t="str">
-        <f>IF(R36="","",R36)</f>
-        <v/>
-      </c>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="12"/>
-      <c r="O34" s="13"/>
-      <c r="Q34" s="99" t="s">
-        <v>77</v>
-      </c>
-      <c r="R34" s="156"/>
-      <c r="S34" s="156"/>
-      <c r="Y34" s="14"/>
-      <c r="AA34" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-    </row>
-    <row r="35" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+      <c r="AD34" s="73" t="str">
+        <f>IF(R60="","",R60)</f>
+        <v/>
+      </c>
+      <c r="AF34" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="14.45" customHeight="1">
       <c r="A35" s="2">
         <v>35</v>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
       <c r="E35" s="52" t="str">
-        <f>S33</f>
-        <v>Right ( )</v>
-      </c>
-      <c r="F35" s="97" t="str">
-        <f>IF(S34="","",S34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="97" t="str">
-        <f>IF(S35="","",S35)</f>
-        <v/>
-      </c>
-      <c r="H35" s="98" t="str">
-        <f>IF(S36="","",S36)</f>
-        <v/>
-      </c>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
+        <f>R34</f>
+        <v>Left ()</v>
+      </c>
+      <c r="F35" s="96" t="str">
+        <f>IF(R35="","",R35)</f>
+        <v/>
+      </c>
+      <c r="G35" s="96" t="str">
+        <f>IF(R36="","",R36)</f>
+        <v/>
+      </c>
+      <c r="H35" s="97" t="str">
+        <f>IF(R37="","",R37)</f>
+        <v/>
+      </c>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
       <c r="M35" s="12"/>
       <c r="O35" s="13"/>
-      <c r="Q35" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="R35" s="157"/>
-      <c r="S35" s="157"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="R35" s="145"/>
+      <c r="S35" s="145"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
       <c r="Y35" s="14"/>
       <c r="AA35" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB35" s="167"/>
+        <v>154</v>
+      </c>
+      <c r="AB35" s="34"/>
       <c r="AC35" s="35" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AD35" s="82" t="str">
-        <f>IF(R70="","",R70)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+      <c r="AD35" s="73" t="str">
+        <f>IF(Q61="","",Q61)</f>
+        <v/>
+      </c>
+      <c r="AF35" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
       <c r="A36" s="2">
         <v>36</v>
       </c>
       <c r="B36" s="10"/>
-      <c r="C36" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="88" t="str">
-        <f>IF(Q38="","",IF(LEN(Q38)&lt;=135,Q38,IF(LEN(Q38)&lt;=260,LEFT(Q38,SEARCH(" ",Q38,125)),LEFT(Q38,SEARCH(" ",Q38,130)))))</f>
-        <v/>
-      </c>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="88"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="52" t="str">
+        <f>S34</f>
+        <v>Right ()</v>
+      </c>
+      <c r="F36" s="96" t="str">
+        <f>IF(S35="","",S35)</f>
+        <v/>
+      </c>
+      <c r="G36" s="96" t="str">
+        <f>IF(S36="","",S36)</f>
+        <v/>
+      </c>
+      <c r="H36" s="97" t="str">
+        <f>IF(S37="","",S37)</f>
+        <v/>
+      </c>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
       <c r="M36" s="12"/>
       <c r="O36" s="13"/>
-      <c r="Q36" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="R36" s="101" t="str">
-        <f>IF(OR(R34="",R35=""),"",R35/R34)</f>
-        <v/>
-      </c>
-      <c r="S36" s="102" t="str">
-        <f>IF(OR(S34="",S35=""),"",S35/S34)</f>
-        <v/>
-      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="99" t="s">
+        <v>77</v>
+      </c>
+      <c r="R36" s="146"/>
+      <c r="S36" s="146"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
       <c r="Y36" s="14"/>
       <c r="AA36" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB36" s="167"/>
+        <v>153</v>
+      </c>
+      <c r="AB36" s="34"/>
       <c r="AC36" s="35" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AD36" s="82" t="str">
-        <f>IF(R72="","",R72)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AD36" s="73" t="str">
+        <f>IF(R61="","",R61)</f>
+        <v/>
+      </c>
+      <c r="AF36" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
       <c r="A37" s="2">
         <v>37</v>
       </c>
       <c r="B37" s="10"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="91" t="str">
-        <f>IF(LEN(Q38)&lt;=135,"",IF(LEN(Q38)&lt;=260,RIGHT(Q38,LEN(Q38)-SEARCH(" ",Q38,125)),MID(Q38,SEARCH(" ",Q38,130),IF(LEN(Q38)&lt;=265,LEN(Q38),SEARCH(" ",Q38,255)-SEARCH(" ",Q38,130)))))</f>
-        <v/>
-      </c>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="91"/>
+      <c r="C37" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="88" t="str">
+        <f>IF(Q39="","",IF(LEN(Q39)&lt;=135,Q39,IF(LEN(Q39)&lt;=260,LEFT(Q39,SEARCH(" ",Q39,125)),LEFT(Q39,SEARCH(" ",Q39,130)))))</f>
+        <v/>
+      </c>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
       <c r="M37" s="12"/>
       <c r="O37" s="13"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="R37" s="100" t="str">
+        <f>IF(OR(R35="",R36=""),"",R36/R35)</f>
+        <v/>
+      </c>
+      <c r="S37" s="101" t="str">
+        <f>IF(OR(S35="",S36=""),"",S36/S35)</f>
+        <v/>
+      </c>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
       <c r="Y37" s="14"/>
       <c r="AA37" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB37" s="167"/>
+        <v>176</v>
+      </c>
+      <c r="AB37" s="34"/>
       <c r="AC37" s="35" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AD37" s="82" t="str">
-        <f>IF(R74="","",R74)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AD37" s="73" t="str">
+        <f>IF(Q62="","",Q62)</f>
+        <v/>
+      </c>
+      <c r="AF37" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" ht="14.45" customHeight="1">
       <c r="A38" s="2">
         <v>38</v>
       </c>
       <c r="B38" s="10"/>
-      <c r="C38" s="96"/>
+      <c r="C38" s="95"/>
       <c r="D38" s="91" t="str">
-        <f>IF(LEN(Q38)&lt;=265,"",RIGHT(Q38,LEN(Q38)-SEARCH(" ",Q38,255)))</f>
+        <f>IF(LEN(Q39)&lt;=135,"",IF(LEN(Q39)&lt;=260,RIGHT(Q39,LEN(Q39)-SEARCH(" ",Q39,125)),MID(Q39,SEARCH(" ",Q39,130),IF(LEN(Q39)&lt;=265,LEN(Q39),SEARCH(" ",Q39,255)-SEARCH(" ",Q39,130)))))</f>
         <v/>
       </c>
       <c r="E38" s="91"/>
@@ -3936,255 +4586,349 @@
       <c r="L38" s="91"/>
       <c r="M38" s="12"/>
       <c r="O38" s="13"/>
-      <c r="P38" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q38" s="89" t="str">
-        <f>IF(Q40&lt;&gt;"",Q40,IF(AB44="","",AB44))</f>
-        <v/>
-      </c>
-      <c r="R38" s="90"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="90"/>
-      <c r="U38" s="90"/>
-      <c r="X38" s="90"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
       <c r="Y38" s="14"/>
       <c r="AA38" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB38" s="167"/>
+        <v>177</v>
+      </c>
+      <c r="AB38" s="34"/>
       <c r="AC38" s="35" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AD38" s="82" t="str">
-        <f>IF(S70="","",S70)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AD38" s="73" t="str">
+        <f>IF(R62="","",R62)</f>
+        <v/>
+      </c>
+      <c r="AF38" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" ht="14.45" customHeight="1">
       <c r="A39" s="2">
         <v>39</v>
       </c>
       <c r="B39" s="10"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="91" t="str">
+        <f>IF(LEN(Q39)&lt;=265,"",RIGHT(Q39,LEN(Q39)-SEARCH(" ",Q39,255)))</f>
+        <v/>
+      </c>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
       <c r="M39" s="12"/>
       <c r="O39" s="13"/>
-      <c r="P39" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q39" s="93"/>
-      <c r="R39" s="94">
-        <f>LEN(Q38)</f>
-        <v>0</v>
-      </c>
-      <c r="S39" s="77"/>
-      <c r="T39" s="77"/>
-      <c r="U39" s="77"/>
-      <c r="V39" s="77"/>
-      <c r="W39" s="77"/>
-      <c r="X39" s="77"/>
+      <c r="P39" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q39" s="89" t="str">
+        <f>IF(Q41&lt;&gt;"",Q41,IF(AB57="","",AB57))</f>
+        <v/>
+      </c>
+      <c r="R39" s="90"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="90"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="90"/>
       <c r="Y39" s="14"/>
       <c r="AA39" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB39" s="167"/>
+        <v>54</v>
+      </c>
+      <c r="AB39" s="81"/>
       <c r="AC39" s="35" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB39&lt;&gt;AD39,"Change","")</f>
         <v/>
       </c>
       <c r="AD39" s="82" t="str">
-        <f>IF(S72="","",S72)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+        <f>IF(Q99="","",Q99)</f>
+        <v/>
+      </c>
+      <c r="AF39" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" ht="14.45" customHeight="1">
       <c r="A40" s="2">
         <v>40</v>
       </c>
       <c r="B40" s="10"/>
-      <c r="C40" s="83" t="s">
-        <v>12</v>
-      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
       <c r="M40" s="12"/>
       <c r="O40" s="13"/>
-      <c r="P40" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q40" s="76"/>
-      <c r="R40" s="77"/>
-      <c r="S40" s="77"/>
-      <c r="T40" s="77"/>
-      <c r="U40" s="77"/>
-      <c r="V40" s="77"/>
-      <c r="W40" s="77"/>
-      <c r="X40" s="77"/>
+      <c r="P40" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q40" s="126"/>
+      <c r="R40" s="93">
+        <f>LEN(Q39)</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="78"/>
+      <c r="T40" s="78"/>
+      <c r="U40" s="78"/>
+      <c r="V40" s="78"/>
+      <c r="W40" s="78"/>
+      <c r="X40" s="78"/>
       <c r="Y40" s="14"/>
       <c r="AA40" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB40" s="167"/>
+        <v>56</v>
+      </c>
+      <c r="AB40" s="81"/>
       <c r="AC40" s="35" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(AB40&lt;&gt;AD40,"Change","")</f>
         <v/>
       </c>
       <c r="AD40" s="82" t="str">
-        <f>IF(S74="","",S74)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:30" ht="14.45" customHeight="1">
+        <f>IF(R99="","",R99)</f>
+        <v/>
+      </c>
+      <c r="AF40" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
       <c r="A41" s="2">
         <v>41</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="199" t="str">
-        <f>IF(P43="","",P43)</f>
-        <v/>
-      </c>
-      <c r="E41" s="199"/>
-      <c r="F41" s="103" t="str">
-        <f>R44</f>
-        <v>Left ()</v>
-      </c>
-      <c r="G41" s="104" t="str">
-        <f>S44</f>
-        <v>Right ( )</v>
-      </c>
+      <c r="C41" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
       <c r="M41" s="12"/>
       <c r="O41" s="13"/>
+      <c r="P41" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q41" s="76"/>
+      <c r="R41" s="78"/>
+      <c r="S41" s="78"/>
+      <c r="T41" s="78"/>
+      <c r="U41" s="78"/>
+      <c r="V41" s="78"/>
+      <c r="W41" s="78"/>
+      <c r="X41" s="78"/>
       <c r="Y41" s="14"/>
-    </row>
-    <row r="42" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+      <c r="AA41" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB41" s="81"/>
+      <c r="AC41" s="35" t="str">
+        <f>IF(AB41&lt;&gt;AD41,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD41" s="82" t="str">
+        <f>IF(S99="","",S99)</f>
+        <v/>
+      </c>
+      <c r="AF41" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" ht="14.45" customHeight="1">
       <c r="A42" s="2">
         <v>42</v>
       </c>
       <c r="B42" s="10"/>
-      <c r="E42" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="F42" s="105" t="str">
-        <f>IF(R45="","",IF(R45=1,"YES",IF(R45=2,"NO",IF(R45=3,"NA",""))))</f>
-        <v/>
-      </c>
-      <c r="G42" s="106" t="str">
-        <f>IF(S45="","",IF(S45=1,"YES",IF(S45=2,"NO",IF(S45=3,"NA",""))))</f>
-        <v/>
-      </c>
+      <c r="C42" s="167" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="166" t="str">
+        <f>IF(P44="","",P44)</f>
+        <v/>
+      </c>
+      <c r="E42" s="166"/>
+      <c r="F42" s="160" t="str">
+        <f>R45</f>
+        <v>Left ()</v>
+      </c>
+      <c r="G42" s="161" t="str">
+        <f>S45</f>
+        <v>Right ()</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
       <c r="M42" s="12"/>
-      <c r="O42" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="U42" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="O42" s="13"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
       <c r="Y42" s="14"/>
-      <c r="AA42" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
-      <c r="AD42" s="20"/>
-    </row>
-    <row r="43" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AA42" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB42" s="81"/>
+      <c r="AC42" s="35" t="str">
+        <f>IF(AB42&lt;&gt;AD42,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD42" s="82" t="str">
+        <f>IF(T99="","",T99)</f>
+        <v/>
+      </c>
+      <c r="AF42" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
       <c r="A43" s="2">
         <v>43</v>
       </c>
       <c r="B43" s="10"/>
-      <c r="C43" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="88" t="str">
-        <f>IF(Q46="","",IF(LEN(Q46)&lt;=135,Q46,IF(LEN(Q46)&lt;=260,LEFT(Q46,SEARCH(" ",Q46,125)),LEFT(Q46,SEARCH(" ",Q46,130)))))</f>
-        <v/>
-      </c>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="164" t="str">
+        <f>IF(R46="","",IF(R46=1,"YES",IF(R46=2,"NO",IF(R46=3,"NA",""))))</f>
+        <v/>
+      </c>
+      <c r="G43" s="165" t="str">
+        <f>IF(S46="","",IF(S46=1,"YES",IF(S46=2,"NO",IF(S46=3,"NA",""))))</f>
+        <v/>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
       <c r="M43" s="12"/>
-      <c r="O43" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="P43" s="152"/>
-      <c r="V43" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="O43" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
       <c r="Y43" s="14"/>
       <c r="AA43" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB43" s="168"/>
+        <v>162</v>
+      </c>
+      <c r="AB43" s="81"/>
       <c r="AC43" s="35" t="str">
-        <f t="shared" ref="AC43:AC49" si="10">IF(AB43&lt;&gt;AD43,"Change","")</f>
+        <f t="shared" ref="AC43:AC46" si="10">IF(AB43&lt;&gt;AD43,"Change","")</f>
         <v/>
       </c>
       <c r="AD43" s="82" t="str">
-        <f>IF(Q30="","",Q30)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+        <f>IF(Q100="","",Q100)</f>
+        <v/>
+      </c>
+      <c r="AF43" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" ht="14.45" customHeight="1">
       <c r="A44" s="2">
         <v>44</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="91" t="str">
-        <f>IF(LEN(Q46)&lt;=135,"",IF(LEN(Q46)&lt;=260,RIGHT(Q46,LEN(Q46)-SEARCH(" ",Q46,125)),MID(Q46,SEARCH(" ",Q46,130),IF(LEN(Q46)&lt;=265,LEN(Q46),SEARCH(" ",Q46,255)-SEARCH(" ",Q46,130)))))</f>
-        <v/>
-      </c>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="91"/>
-      <c r="L44" s="91"/>
+      <c r="C44" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="88" t="str">
+        <f>IF(Q47="","",IF(LEN(Q47)&lt;=135,Q47,IF(LEN(Q47)&lt;=260,LEFT(Q47,SEARCH(" ",Q47,125)),LEFT(Q47,SEARCH(" ",Q47,130)))))</f>
+        <v/>
+      </c>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="88"/>
       <c r="M44" s="12"/>
-      <c r="O44" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="R44" s="20" t="str">
-        <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
-        <v>Left ()</v>
-      </c>
-      <c r="S44" s="20" t="str">
-        <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right ( )</v>
-      </c>
+      <c r="O44" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="141"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
       <c r="Y44" s="14"/>
       <c r="AA44" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB44" s="168"/>
+        <v>163</v>
+      </c>
+      <c r="AB44" s="81"/>
       <c r="AC44" s="35" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD44" s="82" t="str">
-        <f>IF(Q40="","",Q40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+        <f>IF(R100="","",R100)</f>
+        <v/>
+      </c>
+      <c r="AF44" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
       <c r="A45" s="2">
         <v>45</v>
       </c>
       <c r="B45" s="10"/>
-      <c r="C45" s="96"/>
+      <c r="C45" s="95"/>
       <c r="D45" s="91" t="str">
-        <f>IF(LEN(Q46)&lt;=265,"",RIGHT(Q46,LEN(Q46)-SEARCH(" ",Q46,255)))</f>
+        <f>IF(LEN(Q47)&lt;=135,"",IF(LEN(Q47)&lt;=260,RIGHT(Q47,LEN(Q47)-SEARCH(" ",Q47,125)),MID(Q47,SEARCH(" ",Q47,130),IF(LEN(Q47)&lt;=265,LEN(Q47),SEARCH(" ",Q47,255)-SEARCH(" ",Q47,130)))))</f>
         <v/>
       </c>
       <c r="E45" s="91"/>
@@ -4196,664 +4940,789 @@
       <c r="K45" s="91"/>
       <c r="L45" s="91"/>
       <c r="M45" s="12"/>
-      <c r="O45" s="13"/>
-      <c r="Q45" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="R45" s="108"/>
-      <c r="S45" s="108"/>
+      <c r="O45" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="159" t="str">
+        <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
+        <v>Left ()</v>
+      </c>
+      <c r="S45" s="159" t="str">
+        <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
+        <v>Right ()</v>
+      </c>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
       <c r="Y45" s="14"/>
       <c r="AA45" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB45" s="168"/>
+        <v>164</v>
+      </c>
+      <c r="AB45" s="81"/>
       <c r="AC45" s="35" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD45" s="82" t="str">
-        <f>IF(Q48="","",Q48)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:30" ht="14.45" customHeight="1">
+        <f>IF(S100="","",S100)</f>
+        <v/>
+      </c>
+      <c r="AF45" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
       <c r="A46" s="2">
         <v>46</v>
       </c>
       <c r="B46" s="10"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="91" t="str">
+        <f>IF(LEN(Q47)&lt;=265,"",RIGHT(Q47,LEN(Q47)-SEARCH(" ",Q47,255)))</f>
+        <v/>
+      </c>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="91"/>
       <c r="M46" s="12"/>
       <c r="O46" s="13"/>
-      <c r="P46" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q46" s="89" t="str">
-        <f>IF(Q48&lt;&gt;"",Q48,IF(AB45="","",AB45))</f>
-        <v/>
-      </c>
-      <c r="R46" s="90"/>
-      <c r="S46" s="90"/>
-      <c r="T46" s="90"/>
-      <c r="U46" s="90"/>
-      <c r="X46" s="90"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="R46" s="105"/>
+      <c r="S46" s="105"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
       <c r="Y46" s="14"/>
       <c r="AA46" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB46" s="168"/>
+        <v>165</v>
+      </c>
+      <c r="AB46" s="81"/>
       <c r="AC46" s="35" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD46" s="82" t="str">
-        <f>IF(Q54="","",Q54)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:30" ht="14.45" customHeight="1">
+        <f>IF(T100="","",T100)</f>
+        <v/>
+      </c>
+      <c r="AF46" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" ht="14.45" customHeight="1">
       <c r="A47" s="2">
         <v>47</v>
       </c>
       <c r="B47" s="10"/>
-      <c r="C47" s="83" t="s">
-        <v>88</v>
-      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
       <c r="M47" s="12"/>
       <c r="O47" s="13"/>
-      <c r="P47" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q47" s="93"/>
-      <c r="R47" s="94">
-        <f>LEN(Q46)</f>
-        <v>0</v>
-      </c>
-      <c r="S47" s="77"/>
-      <c r="T47" s="77"/>
-      <c r="U47" s="77"/>
-      <c r="V47" s="77"/>
-      <c r="W47" s="77"/>
-      <c r="X47" s="77"/>
+      <c r="P47" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q47" s="89" t="str">
+        <f>IF(Q49&lt;&gt;"",Q49,IF(AB58="","",AB58))</f>
+        <v/>
+      </c>
+      <c r="R47" s="90"/>
+      <c r="S47" s="90"/>
+      <c r="T47" s="90"/>
+      <c r="U47" s="90"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="90"/>
       <c r="Y47" s="14"/>
       <c r="AA47" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB47" s="168"/>
-      <c r="AC47" s="35" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AD47" s="82" t="str">
-        <f>IF(Q62="","",Q62)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:30" ht="14.45" customHeight="1">
+        <v>64</v>
+      </c>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20"/>
+      <c r="AF47" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" ht="14.45" customHeight="1">
       <c r="A48" s="2">
         <v>48</v>
       </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="109" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="109" t="s">
-        <v>91</v>
-      </c>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="96"/>
+      <c r="C48" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
       <c r="M48" s="12"/>
       <c r="O48" s="13"/>
-      <c r="P48" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q48" s="76"/>
-      <c r="R48" s="77"/>
-      <c r="S48" s="77"/>
-      <c r="T48" s="77"/>
-      <c r="U48" s="77"/>
-      <c r="V48" s="77"/>
-      <c r="W48" s="77"/>
-      <c r="X48" s="77"/>
+      <c r="P48" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q48" s="126"/>
+      <c r="R48" s="93">
+        <f>LEN(Q47)</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="78"/>
+      <c r="T48" s="78"/>
+      <c r="U48" s="78"/>
+      <c r="V48" s="78"/>
+      <c r="W48" s="78"/>
+      <c r="X48" s="78"/>
       <c r="Y48" s="14"/>
       <c r="AA48" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB48" s="168"/>
+        <v>66</v>
+      </c>
+      <c r="AB48" s="156"/>
       <c r="AC48" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AC48:AC53" si="11">IF(AB48&lt;&gt;AD48,"Change","")</f>
         <v/>
       </c>
       <c r="AD48" s="82" t="str">
-        <f>IF(Q80="","",Q80)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:30" ht="14.45" customHeight="1">
+        <f>IF(R73="","",R73)</f>
+        <v/>
+      </c>
+      <c r="AF48" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" ht="14.45" customHeight="1">
       <c r="A49" s="2">
         <v>49</v>
       </c>
       <c r="B49" s="10"/>
-      <c r="C49" s="86" t="str">
-        <f>Q57</f>
-        <v>Left ()</v>
-      </c>
-      <c r="D49" s="155" t="str">
-        <f>IF(Q58="","",Q58)</f>
-        <v/>
-      </c>
-      <c r="E49" s="86" t="str">
-        <f>R57</f>
-        <v>Right ( )</v>
-      </c>
-      <c r="F49" s="155" t="str">
-        <f>IF(R58="","",R58)</f>
-        <v/>
-      </c>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="86" t="str">
-        <f>Q57</f>
-        <v>Left ()</v>
-      </c>
-      <c r="J49" s="155" t="str">
-        <f>IF(Q59="","",Q59)</f>
-        <v/>
-      </c>
-      <c r="K49" s="86" t="str">
-        <f>R57</f>
-        <v>Right ( )</v>
-      </c>
-      <c r="L49" s="155" t="str">
-        <f>IF(R59="","",R59)</f>
-        <v/>
-      </c>
+      <c r="C49" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="106" t="s">
+        <v>89</v>
+      </c>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
+      <c r="L49" s="95"/>
       <c r="M49" s="12"/>
       <c r="O49" s="13"/>
+      <c r="P49" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q49" s="76"/>
+      <c r="R49" s="78"/>
+      <c r="S49" s="78"/>
+      <c r="T49" s="78"/>
+      <c r="U49" s="78"/>
+      <c r="V49" s="78"/>
+      <c r="W49" s="78"/>
+      <c r="X49" s="78"/>
       <c r="Y49" s="14"/>
       <c r="AA49" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB49" s="168"/>
+        <v>67</v>
+      </c>
+      <c r="AB49" s="156"/>
       <c r="AC49" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD49" s="82" t="str">
-        <f>IF(Q95="","",Q95)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:30" ht="14.45" customHeight="1">
+        <f>IF(R75="","",R75)</f>
+        <v/>
+      </c>
+      <c r="AF49" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" ht="14.45" customHeight="1">
       <c r="A50" s="2">
         <v>50</v>
       </c>
       <c r="B50" s="10"/>
-      <c r="C50" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D50" s="88" t="str">
-        <f>IF(Q60="","",IF(LEN(Q60)&lt;=135,Q60,IF(LEN(Q60)&lt;=260,LEFT(Q60,SEARCH(" ",Q60,125)),LEFT(Q60,SEARCH(" ",Q60,130)))))</f>
-        <v/>
-      </c>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
+      <c r="D50" s="167" t="str">
+        <f>Q58</f>
+        <v>Left ()</v>
+      </c>
+      <c r="E50" s="144" t="str">
+        <f>IF(Q59="","",Q59)</f>
+        <v/>
+      </c>
+      <c r="F50" s="167" t="s">
+        <v>137</v>
+      </c>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="167" t="str">
+        <f>Q58</f>
+        <v>Left ()</v>
+      </c>
+      <c r="J50" s="144" t="str">
+        <f>IF(Q60="","",Q60)</f>
+        <v/>
+      </c>
+      <c r="K50" s="167" t="s">
+        <v>137</v>
+      </c>
       <c r="M50" s="12"/>
-      <c r="O50" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="U50" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="O50" s="13"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
       <c r="Y50" s="14"/>
-      <c r="AB50" s="20"/>
-      <c r="AC50" s="20"/>
-      <c r="AD50" s="20"/>
-    </row>
-    <row r="51" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AA50" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB50" s="156"/>
+      <c r="AC50" s="35" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD50" s="82" t="str">
+        <f>IF(R77="","",R77)</f>
+        <v/>
+      </c>
+      <c r="AF50" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" ht="14.45" customHeight="1">
       <c r="A51" s="2">
         <v>51</v>
       </c>
       <c r="B51" s="10"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="91" t="str">
-        <f>IF(LEN(Q60)&lt;=135,"",IF(LEN(Q60)&lt;=260,RIGHT(Q60,LEN(Q60)-SEARCH(" ",Q60,125)),MID(Q60,SEARCH(" ",Q60,130),IF(LEN(Q60)&lt;=265,LEN(Q60),SEARCH(" ",Q60,255)-SEARCH(" ",Q60,130)))))</f>
-        <v/>
-      </c>
-      <c r="E51" s="91"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="91"/>
-      <c r="H51" s="91"/>
-      <c r="I51" s="91"/>
-      <c r="J51" s="91"/>
-      <c r="K51" s="91"/>
-      <c r="L51" s="91"/>
+      <c r="D51" s="167" t="str">
+        <f>R58</f>
+        <v>Right ()</v>
+      </c>
+      <c r="E51" s="144" t="str">
+        <f>IF(R59="","",R59)</f>
+        <v/>
+      </c>
+      <c r="F51" s="167" t="s">
+        <v>137</v>
+      </c>
+      <c r="I51" s="167" t="str">
+        <f>R58</f>
+        <v>Right ()</v>
+      </c>
+      <c r="J51" s="204" t="str">
+        <f>IF(R60="","",R60)</f>
+        <v/>
+      </c>
+      <c r="K51" s="167" t="s">
+        <v>137</v>
+      </c>
       <c r="M51" s="12"/>
-      <c r="O51" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="P51" s="152"/>
-      <c r="V51" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="O51" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
       <c r="Y51" s="14"/>
-      <c r="AA51" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB51" s="169"/>
+      <c r="AA51" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB51" s="156"/>
       <c r="AC51" s="35" t="str">
-        <f>IF(AB51&lt;&gt;AD51,"Change","")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD51" s="82" t="str">
-        <f>IF(Q100="","",Q100)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:30" ht="14.45" customHeight="1">
+        <f>IF(S73="","",S73)</f>
+        <v/>
+      </c>
+      <c r="AF51" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" ht="14.45" customHeight="1">
       <c r="A52" s="2">
         <v>52</v>
       </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="96"/>
-      <c r="D52" s="91" t="str">
-        <f>IF(LEN(Q60)&lt;=265,"",RIGHT(Q60,LEN(Q60)-SEARCH(" ",Q60,255)))</f>
-        <v/>
-      </c>
-      <c r="E52" s="91"/>
-      <c r="F52" s="91"/>
-      <c r="G52" s="91"/>
-      <c r="H52" s="91"/>
-      <c r="I52" s="91"/>
-      <c r="J52" s="91"/>
-      <c r="K52" s="91"/>
-      <c r="L52" s="91"/>
+      <c r="F52" s="95"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="199"/>
       <c r="M52" s="12"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q52" s="89" t="str">
-        <f>IF(Q54&lt;&gt;"",Q54,IF(AB46="","",AB46))</f>
-        <v/>
-      </c>
-      <c r="R52" s="90"/>
-      <c r="S52" s="90"/>
-      <c r="T52" s="90"/>
-      <c r="U52" s="90"/>
-      <c r="X52" s="90"/>
+      <c r="O52" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="141"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
       <c r="Y52" s="14"/>
-      <c r="AB52" s="2"/>
-      <c r="AC52" s="20"/>
-      <c r="AD52" s="20"/>
-    </row>
-    <row r="53" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AA52" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB52" s="156"/>
+      <c r="AC52" s="35" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD52" s="82" t="str">
+        <f>IF(S75="","",S75)</f>
+        <v/>
+      </c>
+      <c r="AF52" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
       <c r="A53" s="2">
         <v>53</v>
       </c>
       <c r="B53" s="10"/>
+      <c r="E53" s="199" t="str">
+        <f>Q58</f>
+        <v>Left ()</v>
+      </c>
+      <c r="F53" s="95" t="str">
+        <f>R58</f>
+        <v>Right ()</v>
+      </c>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
       <c r="M53" s="12"/>
       <c r="O53" s="13"/>
-      <c r="P53" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q53" s="93"/>
-      <c r="R53" s="94">
-        <f>LEN(Q52)</f>
-        <v>0</v>
-      </c>
-      <c r="S53" s="77"/>
-      <c r="T53" s="77"/>
-      <c r="U53" s="77"/>
-      <c r="V53" s="77"/>
-      <c r="W53" s="77"/>
-      <c r="X53" s="77"/>
+      <c r="P53" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q53" s="89" t="str">
+        <f>IF(Q55&lt;&gt;"",Q55,IF(AB59="","",AB59))</f>
+        <v/>
+      </c>
+      <c r="R53" s="90"/>
+      <c r="S53" s="90"/>
+      <c r="T53" s="90"/>
+      <c r="U53" s="90"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="90"/>
       <c r="Y53" s="14"/>
-      <c r="AB53" s="169"/>
+      <c r="AA53" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB53" s="156"/>
       <c r="AC53" s="35" t="str">
-        <f>IF(AB53&lt;&gt;AD53,"Change","")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD53" s="82" t="str">
-        <f>IF(Q102="","",Q102)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+        <f>IF(S77="","",S77)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:32" ht="14.45" customHeight="1">
       <c r="A54" s="2">
         <v>54</v>
       </c>
       <c r="B54" s="10"/>
-      <c r="C54" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="I54" s="200" t="s">
-        <v>97</v>
-      </c>
-      <c r="J54" s="200"/>
-      <c r="K54" s="200"/>
-      <c r="L54" s="200"/>
+      <c r="D54" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="200" t="str">
+        <f>IF(Q61="","",Q61)</f>
+        <v/>
+      </c>
+      <c r="F54" s="201" t="str">
+        <f>IF(R61="","",R61)</f>
+        <v/>
+      </c>
       <c r="M54" s="12"/>
       <c r="O54" s="13"/>
-      <c r="P54" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q54" s="76"/>
-      <c r="R54" s="77"/>
-      <c r="S54" s="77"/>
-      <c r="T54" s="77"/>
-      <c r="U54" s="77"/>
-      <c r="V54" s="77"/>
-      <c r="W54" s="77"/>
-      <c r="X54" s="77"/>
+      <c r="P54" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q54" s="126"/>
+      <c r="R54" s="93">
+        <f>LEN(Q53)</f>
+        <v>0</v>
+      </c>
+      <c r="S54" s="78"/>
+      <c r="T54" s="78"/>
+      <c r="U54" s="78"/>
+      <c r="V54" s="78"/>
+      <c r="W54" s="78"/>
+      <c r="X54" s="78"/>
       <c r="Y54" s="14"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="20"/>
-      <c r="AD54" s="20"/>
-    </row>
-    <row r="55" spans="1:30" ht="14.45" customHeight="1">
+    </row>
+    <row r="55" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
       <c r="A55" s="2">
         <v>55</v>
       </c>
       <c r="B55" s="10"/>
-      <c r="F55" s="103" t="str">
-        <f>R65</f>
-        <v>Left ()</v>
-      </c>
-      <c r="G55" s="104" t="str">
-        <f>S65</f>
-        <v>Right ( )</v>
-      </c>
-      <c r="I55" s="187" t="str">
-        <f>R65</f>
-        <v>Left ()</v>
-      </c>
-      <c r="J55" s="187"/>
-      <c r="K55" s="188" t="str">
-        <f>S65</f>
-        <v>Right ( )</v>
-      </c>
-      <c r="L55" s="188"/>
+      <c r="D55" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" s="202" t="str">
+        <f>IF(Q62="","",Q62)</f>
+        <v/>
+      </c>
+      <c r="F55" s="203" t="str">
+        <f>IF(R62="","",R62)</f>
+        <v/>
+      </c>
       <c r="M55" s="12"/>
       <c r="O55" s="13"/>
+      <c r="P55" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q55" s="76"/>
+      <c r="R55" s="78"/>
+      <c r="S55" s="78"/>
+      <c r="T55" s="78"/>
+      <c r="U55" s="78"/>
+      <c r="V55" s="78"/>
+      <c r="W55" s="78"/>
+      <c r="X55" s="78"/>
       <c r="Y55" s="14"/>
-      <c r="AB55" s="169"/>
-      <c r="AC55" s="35" t="str">
-        <f>IF(AB55&lt;&gt;AD55,"Change","")</f>
-        <v/>
-      </c>
-      <c r="AD55" s="82" t="str">
-        <f>IF(Q104="","",Q104)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AA55" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB55" s="20"/>
+      <c r="AC55" s="20"/>
+      <c r="AD55" s="20"/>
+    </row>
+    <row r="56" spans="1:32" ht="14.45" customHeight="1">
       <c r="A56" s="2">
         <v>56</v>
       </c>
       <c r="B56" s="10"/>
-      <c r="E56" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="F56" s="110" t="str">
-        <f t="shared" ref="F56:G58" si="11">IF(R66="","",IF(R66=1,"YES",IF(R66=2,"NO",IF(R66=3,"NA",""))))</f>
-        <v/>
-      </c>
-      <c r="G56" s="111" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H56" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="I56" s="195" t="str">
-        <f>IF(R70="","",R70)</f>
-        <v/>
-      </c>
-      <c r="J56" s="195"/>
-      <c r="K56" s="196" t="str">
-        <f>IF(S70="","",S70)</f>
-        <v/>
-      </c>
-      <c r="L56" s="196"/>
       <c r="M56" s="12"/>
-      <c r="O56" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="U56"/>
-      <c r="V56"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
       <c r="Y56" s="14"/>
-      <c r="AB56" s="2"/>
-      <c r="AC56" s="20"/>
-      <c r="AD56" s="20"/>
-    </row>
-    <row r="57" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+      <c r="AA56" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB56" s="157"/>
+      <c r="AC56" s="35" t="str">
+        <f t="shared" ref="AC56:AC62" si="12">IF(AB56&lt;&gt;AD56,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD56" s="82" t="str">
+        <f>IF(Q31="","",Q31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:32" ht="14.45" customHeight="1">
       <c r="A57" s="2">
         <v>57</v>
       </c>
       <c r="B57" s="10"/>
-      <c r="E57" s="52" t="s">
+      <c r="C57" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="88" t="str">
+        <f>IF(Q63="","",IF(LEN(Q63)&lt;=135,Q63,IF(LEN(Q63)&lt;=260,LEFT(Q63,SEARCH(" ",Q63,125)),LEFT(Q63,SEARCH(" ",Q63,130)))))</f>
+        <v/>
+      </c>
+      <c r="E57" s="88"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="88"/>
+      <c r="M57" s="12"/>
+      <c r="O57" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="14"/>
+      <c r="AA57" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB57" s="157"/>
+      <c r="AC57" s="35" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AD57" s="82" t="str">
+        <f>IF(Q41="","",Q41)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
+      <c r="A58" s="2">
+        <v>58</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="91" t="str">
+        <f>IF(LEN(Q63)&lt;=135,"",IF(LEN(Q63)&lt;=260,RIGHT(Q63,LEN(Q63)-SEARCH(" ",Q63,125)),MID(Q63,SEARCH(" ",Q63,130),IF(LEN(Q63)&lt;=265,LEN(Q63),SEARCH(" ",Q63,255)-SEARCH(" ",Q63,130)))))</f>
+        <v/>
+      </c>
+      <c r="E58" s="91"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="91"/>
+      <c r="K58" s="91"/>
+      <c r="L58" s="91"/>
+      <c r="M58" s="12"/>
+      <c r="O58" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="F57" s="110" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G57" s="111" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H57" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I57" s="195" t="str">
-        <f>IF(R72="","",R72)</f>
-        <v/>
-      </c>
-      <c r="J57" s="195"/>
-      <c r="K57" s="196" t="str">
-        <f>IF(S72="","",S72)</f>
-        <v/>
-      </c>
-      <c r="L57" s="196"/>
-      <c r="M57" s="12"/>
-      <c r="O57" s="112" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q57" s="20" t="str">
+      <c r="P58" s="2"/>
+      <c r="Q58" s="159" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
-      <c r="R57" s="20" t="str">
+      <c r="R58" s="159" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right ( )</v>
-      </c>
-      <c r="Y57" s="14"/>
-      <c r="AB57" s="169"/>
-      <c r="AC57" s="35" t="str">
-        <f>IF(AB57&lt;&gt;AD57,"Change","")</f>
-        <v/>
-      </c>
-      <c r="AD57" s="82" t="str">
-        <f>IF(Q106="","",Q106)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
-      <c r="A58" s="2">
-        <v>58</v>
-      </c>
-      <c r="B58" s="10"/>
-      <c r="E58" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="F58" s="105" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="G58" s="106" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H58" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="I58" s="197" t="str">
-        <f>IF(R74="","",R74)</f>
-        <v/>
-      </c>
-      <c r="J58" s="197"/>
-      <c r="K58" s="198" t="str">
-        <f>IF(S74="","",S74)</f>
-        <v/>
-      </c>
-      <c r="L58" s="198"/>
-      <c r="M58" s="12"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q58" s="156"/>
-      <c r="R58" s="156"/>
+        <v>Right ()</v>
+      </c>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="U58" s="159" t="str">
+        <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
+        <v>Left ()</v>
+      </c>
+      <c r="V58" s="159" t="str">
+        <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
+        <v>Right ()</v>
+      </c>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
       <c r="Y58" s="14"/>
-      <c r="AB58" s="2"/>
-      <c r="AC58" s="20"/>
-      <c r="AD58" s="20"/>
-    </row>
-    <row r="59" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+      <c r="AA58" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB58" s="157"/>
+      <c r="AC58" s="35" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AD58" s="82" t="str">
+        <f>IF(Q49="","",Q49)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:32" ht="14.45" customHeight="1">
       <c r="A59" s="2">
         <v>59</v>
       </c>
       <c r="B59" s="10"/>
-      <c r="C59" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="88" t="str">
-        <f>IF(Q78="","",IF(LEN(Q78)&lt;=135,Q78,IF(LEN(Q78)&lt;=260,LEFT(Q78,SEARCH(" ",Q78,125)),LEFT(Q78,SEARCH(" ",Q78,130)))))</f>
-        <v/>
-      </c>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="91" t="str">
+        <f>IF(LEN(Q63)&lt;=265,"",RIGHT(Q63,LEN(Q63)-SEARCH(" ",Q63,255)))</f>
+        <v/>
+      </c>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="91"/>
+      <c r="K59" s="91"/>
+      <c r="L59" s="91"/>
       <c r="M59" s="12"/>
       <c r="O59" s="13"/>
-      <c r="P59" s="114" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q59" s="157"/>
-      <c r="R59" s="157"/>
+      <c r="P59" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q59" s="186" t="str">
+        <f>IF(AG12="","",AG12+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R59" s="187" t="str">
+        <f>IF(AG13="","",AG13+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S59" s="2"/>
+      <c r="T59" s="182" t="s">
+        <v>147</v>
+      </c>
+      <c r="U59" s="178" t="str">
+        <f>IF(AB31="","",AB31)</f>
+        <v/>
+      </c>
+      <c r="V59" s="179" t="str">
+        <f>IF(AB32="","",AB32)</f>
+        <v/>
+      </c>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
       <c r="Y59" s="14"/>
-      <c r="AB59" s="169"/>
+      <c r="AA59" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB59" s="157"/>
       <c r="AC59" s="35" t="str">
-        <f>IF(AB59&lt;&gt;AD59,"Change","")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD59" s="82" t="str">
-        <f>IF(Q108="","",Q108)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:30" ht="14.45" customHeight="1">
+        <f>IF(Q55="","",Q55)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:32" ht="14.45" customHeight="1">
       <c r="A60" s="2">
         <v>60</v>
       </c>
       <c r="B60" s="10"/>
-      <c r="C60" s="96"/>
-      <c r="D60" s="91" t="str">
-        <f>IF(LEN(Q78)&lt;=135,"",IF(LEN(Q78)&lt;=260,RIGHT(Q78,LEN(Q78)-SEARCH(" ",Q78,125)),MID(Q78,SEARCH(" ",Q78,130),IF(LEN(Q78)&lt;=265,LEN(Q78),SEARCH(" ",Q78,255)-SEARCH(" ",Q78,130)))))</f>
-        <v/>
-      </c>
-      <c r="E60" s="91"/>
-      <c r="F60" s="91"/>
-      <c r="G60" s="91"/>
-      <c r="H60" s="91"/>
-      <c r="I60" s="91"/>
-      <c r="J60" s="91"/>
-      <c r="K60" s="91"/>
-      <c r="L60" s="91"/>
       <c r="M60" s="12"/>
       <c r="O60" s="13"/>
-      <c r="P60" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q60" s="89" t="str">
-        <f>IF(Q62&lt;&gt;"",Q62,IF(AB54="","",AB47))</f>
-        <v/>
-      </c>
-      <c r="R60" s="90"/>
-      <c r="S60" s="90"/>
-      <c r="T60" s="90"/>
-      <c r="U60" s="90"/>
-      <c r="X60" s="90"/>
+      <c r="P60" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q60" s="189" t="str">
+        <f>IF(AG14="","",AG14+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R60" s="190" t="str">
+        <f>IF(AG15="","",AG15+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S60" s="2"/>
+      <c r="T60" s="182" t="s">
+        <v>148</v>
+      </c>
+      <c r="U60" s="197" t="str">
+        <f>IF(AB33="","",AB33)</f>
+        <v/>
+      </c>
+      <c r="V60" s="198" t="str">
+        <f>IF(AB34="","",AB34)</f>
+        <v/>
+      </c>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
       <c r="Y60" s="14"/>
-      <c r="AB60" s="2"/>
-      <c r="AC60" s="20"/>
-      <c r="AD60" s="20"/>
-    </row>
-    <row r="61" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AA60" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB60" s="157"/>
+      <c r="AC60" s="35" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AD60" s="82" t="str">
+        <f>IF(Q65="","",Q65)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:32" ht="14.45" customHeight="1">
       <c r="A61" s="2">
         <v>61</v>
       </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="91" t="str">
-        <f>IF(LEN(Q78)&lt;=265,"",RIGHT(Q78,LEN(Q78)-SEARCH(" ",Q78,255)))</f>
-        <v/>
-      </c>
-      <c r="E61" s="91"/>
-      <c r="F61" s="91"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="91"/>
-      <c r="I61" s="91"/>
-      <c r="J61" s="91"/>
-      <c r="K61" s="91"/>
-      <c r="L61" s="91"/>
       <c r="M61" s="12"/>
       <c r="O61" s="13"/>
-      <c r="P61" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q61" s="93"/>
-      <c r="R61" s="94">
-        <f>LEN(Q60)</f>
-        <v>0</v>
-      </c>
-      <c r="S61" s="77"/>
-      <c r="T61" s="77"/>
-      <c r="U61" s="77"/>
-      <c r="V61" s="77"/>
-      <c r="W61" s="77"/>
-      <c r="X61" s="77"/>
+      <c r="P61" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q61" s="195" t="str">
+        <f>IF(Q59="","",Q60/Q59)</f>
+        <v/>
+      </c>
+      <c r="R61" s="196" t="str">
+        <f>IF(R59="","",R60/R59)</f>
+        <v/>
+      </c>
+      <c r="T61" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="U61" s="197" t="str">
+        <f>IF(AB35="","",AB35)</f>
+        <v/>
+      </c>
+      <c r="V61" s="198" t="str">
+        <f>IF(AB36="","",AB36)</f>
+        <v/>
+      </c>
       <c r="Y61" s="14"/>
-      <c r="AB61" s="169"/>
+      <c r="AA61" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB61" s="157"/>
       <c r="AC61" s="35" t="str">
-        <f>IF(AB61&lt;&gt;AD61,"Change","")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD61" s="82" t="str">
-        <f>IF(Q110="","",Q110)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:30" ht="14.45" customHeight="1">
+        <f>IF(Q83="","",Q83)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
       <c r="A62" s="2">
         <v>62</v>
       </c>
@@ -4861,40 +5730,68 @@
       <c r="M62" s="12"/>
       <c r="O62" s="13"/>
       <c r="P62" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q62" s="76"/>
-      <c r="R62" s="77"/>
-      <c r="S62" s="77"/>
-      <c r="T62" s="77"/>
-      <c r="U62" s="77"/>
-      <c r="V62" s="77"/>
-      <c r="W62" s="77"/>
-      <c r="X62" s="77"/>
+        <v>175</v>
+      </c>
+      <c r="Q62" s="183" t="str">
+        <f>IF(OR(Q59="",Lamb=""),"",Lamb/Q59)</f>
+        <v/>
+      </c>
+      <c r="R62" s="184" t="str">
+        <f>IF(OR(R59="",Lamb=""),"",Lamb/R59)</f>
+        <v/>
+      </c>
+      <c r="T62" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="U62" s="180" t="str">
+        <f>IF(AB37="","",AB37)</f>
+        <v/>
+      </c>
+      <c r="V62" s="181" t="str">
+        <f>IF(AB38="","",AB38)</f>
+        <v/>
+      </c>
       <c r="Y62" s="14"/>
-      <c r="AB62" s="2"/>
-      <c r="AC62" s="20"/>
-      <c r="AD62" s="20"/>
-    </row>
-    <row r="63" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AA62" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB62" s="157"/>
+      <c r="AC62" s="35" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AD62" s="82" t="str">
+        <f>IF(Q103="","",Q103)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:32" ht="14.45" customHeight="1">
       <c r="A63" s="2">
         <v>63</v>
       </c>
       <c r="B63" s="10"/>
       <c r="M63" s="12"/>
       <c r="O63" s="13"/>
+      <c r="P63" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q63" s="169" t="str">
+        <f>IF(Q65&lt;&gt;"",Q65,IF(AB67="","",AB60))</f>
+        <v/>
+      </c>
+      <c r="R63" s="90"/>
+      <c r="S63" s="90"/>
+      <c r="T63" s="90"/>
+      <c r="U63" s="90"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="90"/>
       <c r="Y63" s="14"/>
-      <c r="AB63" s="169"/>
-      <c r="AC63" s="35" t="str">
-        <f>IF(AB63&lt;&gt;AD63,"Change","")</f>
-        <v/>
-      </c>
-      <c r="AD63" s="82" t="str">
-        <f>IF(Q112="","",Q112)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+      <c r="AB63" s="20"/>
+      <c r="AC63" s="20"/>
+      <c r="AD63" s="20"/>
+    </row>
+    <row r="64" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
       <c r="A64" s="2">
         <v>64</v>
       </c>
@@ -4910,113 +5807,137 @@
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
       <c r="M64" s="25"/>
-      <c r="O64" s="112" t="s">
-        <v>96</v>
-      </c>
-      <c r="U64" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="O64" s="13"/>
+      <c r="P64" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q64" s="126"/>
+      <c r="R64" s="93">
+        <f>LEN(Q63)</f>
+        <v>0</v>
+      </c>
+      <c r="S64" s="78"/>
+      <c r="T64" s="78"/>
+      <c r="U64" s="78"/>
+      <c r="V64" s="78"/>
+      <c r="W64" s="78"/>
+      <c r="X64" s="78"/>
       <c r="Y64" s="14"/>
-      <c r="AB64" s="2"/>
-      <c r="AC64" s="20"/>
-      <c r="AD64" s="20"/>
-    </row>
-    <row r="65" spans="1:30" ht="14.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="AA64" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB64" s="158"/>
+      <c r="AC64" s="35" t="str">
+        <f>IF(AB64&lt;&gt;AD64,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD64" s="82" t="str">
+        <f>IF(Q108="","",Q108)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:30" ht="14.45" customHeight="1" thickTop="1">
       <c r="A65" s="2">
         <v>65</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="153" t="str">
+      <c r="D65" s="142" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
       <c r="L65" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M65" s="115" t="str">
+      <c r="M65" s="110" t="str">
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="O65" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="R65" s="20" t="str">
-        <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
-        <v>Left ()</v>
-      </c>
-      <c r="S65" s="20" t="str">
-        <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right ( )</v>
-      </c>
+      <c r="O65" s="13"/>
+      <c r="P65" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q65" s="76"/>
+      <c r="R65" s="78"/>
+      <c r="S65" s="78"/>
+      <c r="T65" s="78"/>
+      <c r="U65" s="78"/>
+      <c r="V65" s="78"/>
+      <c r="W65" s="78"/>
+      <c r="X65" s="78"/>
       <c r="Y65" s="14"/>
-      <c r="AB65" s="169"/>
-      <c r="AC65" s="35" t="str">
-        <f>IF(AB65&lt;&gt;AD65,"Change","")</f>
-        <v/>
-      </c>
-      <c r="AD65" s="82" t="str">
-        <f>IF(Q114="","",Q114)</f>
-        <v/>
-      </c>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="20"/>
+      <c r="AD65" s="20"/>
     </row>
     <row r="66" spans="1:30" ht="14.45" customHeight="1">
       <c r="A66" s="2">
         <v>66</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D66" s="116" t="str">
+        <v>104</v>
+      </c>
+      <c r="D66" s="111" t="str">
         <f>IF($E$14="","",$E$14)</f>
         <v/>
       </c>
       <c r="L66" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="M66" s="117" t="str">
+      <c r="M66" s="112" t="str">
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
       <c r="O66" s="13"/>
-      <c r="Q66" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="R66" s="118"/>
-      <c r="S66" s="119"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
       <c r="Y66" s="14"/>
-      <c r="AB66" s="2"/>
-      <c r="AC66" s="20"/>
-      <c r="AD66" s="20"/>
+      <c r="AB66" s="158"/>
+      <c r="AC66" s="35" t="str">
+        <f>IF(AB66&lt;&gt;AD66,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD66" s="82" t="str">
+        <f>IF(Q110="","",Q110)</f>
+        <v/>
+      </c>
     </row>
     <row r="67" spans="1:30" ht="14.45" customHeight="1">
       <c r="A67" s="2">
         <v>1</v>
       </c>
-      <c r="M67" s="120" t="str">
+      <c r="M67" s="115" t="str">
         <f>$H$2</f>
         <v>Medical University of South Carolina</v>
       </c>
-      <c r="O67" s="13"/>
-      <c r="Q67" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="R67" s="121"/>
-      <c r="S67" s="122"/>
+      <c r="O67" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
       <c r="Y67" s="14"/>
-      <c r="AB67" s="169"/>
-      <c r="AC67" s="35" t="str">
-        <f>IF(AB67&lt;&gt;AD67,"Change","")</f>
-        <v/>
-      </c>
-      <c r="AD67" s="82" t="str">
-        <f>IF(Q116="","",Q116)</f>
-        <v/>
-      </c>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="20"/>
+      <c r="AD67" s="20"/>
     </row>
     <row r="68" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A68" s="2">
@@ -5026,16 +5947,34 @@
         <f>$H$5</f>
         <v>Mammography Monitor Compliance Inspection</v>
       </c>
-      <c r="O68" s="13"/>
-      <c r="Q68" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="R68" s="123"/>
-      <c r="S68" s="124"/>
+      <c r="O68" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="159" t="str">
+        <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
+        <v>Left ()</v>
+      </c>
+      <c r="S68" s="159" t="str">
+        <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
+        <v>Right ()</v>
+      </c>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
       <c r="Y68" s="14"/>
-      <c r="AB68" s="2"/>
-      <c r="AC68" s="20"/>
-      <c r="AD68" s="20"/>
+      <c r="AB68" s="158"/>
+      <c r="AC68" s="35" t="str">
+        <f>IF(AB68&lt;&gt;AD68,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD68" s="82" t="str">
+        <f>IF(Q112="","",Q112)</f>
+        <v/>
+      </c>
     </row>
     <row r="69" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A69" s="2">
@@ -5054,26 +5993,21 @@
       <c r="L69" s="40"/>
       <c r="M69" s="40"/>
       <c r="O69" s="13"/>
+      <c r="P69" s="2"/>
       <c r="Q69" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V69" s="182" t="s">
-        <v>110</v>
-      </c>
-      <c r="W69" s="182"/>
+        <v>96</v>
+      </c>
+      <c r="R69" s="113"/>
+      <c r="S69" s="114"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
       <c r="Y69" s="14"/>
-      <c r="AB69" s="169"/>
-      <c r="AC69" s="35" t="str">
-        <f>IF(AB69&lt;&gt;AD69,"Change","")</f>
-        <v/>
-      </c>
-      <c r="AD69" s="82" t="str">
-        <f>IF(Q118="","",Q118)</f>
-        <v/>
-      </c>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="20"/>
+      <c r="AD69" s="20"/>
     </row>
     <row r="70" spans="1:30" ht="14.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A70" s="2">
@@ -5081,7 +6015,7 @@
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="48" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -5094,106 +6028,121 @@
       <c r="L70" s="4"/>
       <c r="M70" s="5"/>
       <c r="O70" s="13"/>
-      <c r="Q70" s="182" t="s">
-        <v>99</v>
-      </c>
-      <c r="R70" s="191"/>
-      <c r="S70" s="192"/>
-      <c r="V70" s="193" t="str">
-        <f>IF(AB35="","",AB35)</f>
-        <v/>
-      </c>
-      <c r="W70" s="194" t="str">
-        <f>IF(AB38="","",AB38)</f>
-        <v/>
-      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="R70" s="116"/>
+      <c r="S70" s="117"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
       <c r="Y70" s="14"/>
-      <c r="AB70" s="2"/>
-      <c r="AC70" s="20"/>
-      <c r="AD70" s="20"/>
-    </row>
-    <row r="71" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AB70" s="158"/>
+      <c r="AC70" s="35" t="str">
+        <f>IF(AB70&lt;&gt;AD70,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD70" s="82" t="str">
+        <f>IF(Q114="","",Q114)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A71" s="2">
         <v>5</v>
       </c>
       <c r="B71" s="10"/>
-      <c r="C71" s="96"/>
-      <c r="D71" s="187" t="str">
-        <f>Q83</f>
+      <c r="C71" s="95"/>
+      <c r="D71" s="224" t="str">
+        <f>Q86</f>
         <v>UNL-10 (cd/m^2)</v>
       </c>
-      <c r="E71" s="187"/>
-      <c r="F71" s="188" t="str">
-        <f>S83</f>
+      <c r="E71" s="224"/>
+      <c r="F71" s="225" t="str">
+        <f>S86</f>
         <v>UNL-80 (cd/m^2)</v>
       </c>
-      <c r="G71" s="188"/>
+      <c r="G71" s="225"/>
       <c r="I71" s="68" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M71" s="12"/>
       <c r="O71" s="13"/>
-      <c r="Q71" s="182"/>
-      <c r="R71" s="191"/>
-      <c r="S71" s="192"/>
-      <c r="V71" s="193"/>
-      <c r="W71" s="194"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="R71" s="118"/>
+      <c r="S71" s="119"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
       <c r="Y71" s="14"/>
-      <c r="AB71" s="169"/>
-      <c r="AC71" s="35" t="str">
-        <f>IF(AB71&lt;&gt;AD71,"Change","")</f>
-        <v/>
-      </c>
-      <c r="AD71" s="82" t="str">
-        <f>IF(Q120="","",Q120)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="20"/>
+      <c r="AD71" s="20"/>
+    </row>
+    <row r="72" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A72" s="2">
         <v>6</v>
       </c>
       <c r="B72" s="10"/>
-      <c r="C72" s="96"/>
-      <c r="D72" s="110" t="str">
-        <f>Q84</f>
+      <c r="C72" s="95"/>
+      <c r="D72" s="107" t="str">
+        <f>Q87</f>
         <v>Left ()</v>
       </c>
-      <c r="E72" s="97" t="str">
-        <f>R84</f>
-        <v>Right ( )</v>
-      </c>
-      <c r="F72" s="97" t="str">
-        <f>S84</f>
+      <c r="E72" s="96" t="str">
+        <f>R87</f>
+        <v>Right ()</v>
+      </c>
+      <c r="F72" s="96" t="str">
+        <f>S87</f>
         <v>Left ()</v>
       </c>
-      <c r="G72" s="111" t="str">
-        <f>T84</f>
-        <v>Right ( )</v>
+      <c r="G72" s="108" t="str">
+        <f>T87</f>
+        <v>Right ()</v>
       </c>
       <c r="I72" s="53" t="str">
-        <f>IF(V84="","TBD",IF(V84=1,"YES",IF(V84=2,"NO",IF(V84=3,"NA",""))))</f>
+        <f>IF(V87="","TBD",IF(V87=1,"YES",IF(V87=2,"NO",IF(V87=3,"NA",""))))</f>
         <v>TBD</v>
       </c>
-      <c r="J72" s="96" t="s">
-        <v>113</v>
+      <c r="J72" s="95" t="s">
+        <v>109</v>
       </c>
       <c r="M72" s="12"/>
       <c r="O72" s="13"/>
-      <c r="Q72" s="182" t="s">
-        <v>101</v>
-      </c>
-      <c r="R72" s="189"/>
-      <c r="S72" s="190"/>
-      <c r="V72" s="180" t="str">
-        <f>IF(AB36="","",AB36)</f>
-        <v/>
-      </c>
-      <c r="W72" s="181" t="str">
-        <f>IF(AB39="","",AB39)</f>
-        <v/>
-      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="159" t="s">
+        <v>106</v>
+      </c>
+      <c r="W72" s="159"/>
+      <c r="X72" s="2"/>
       <c r="Y72" s="14"/>
+      <c r="AB72" s="158"/>
+      <c r="AC72" s="35" t="str">
+        <f>IF(AB72&lt;&gt;AD72,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD72" s="82" t="str">
+        <f>IF(Q116="","",Q116)</f>
+        <v/>
+      </c>
     </row>
     <row r="73" spans="1:30" ht="14.45" customHeight="1">
       <c r="A73" s="2">
@@ -5201,39 +6150,54 @@
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D73" s="125" t="str">
-        <f t="shared" ref="D73:G75" si="12">IF(Q90="","",Q90)</f>
-        <v/>
-      </c>
-      <c r="E73" s="98" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F73" s="98" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G73" s="126" t="str">
-        <f t="shared" si="12"/>
+        <v>110</v>
+      </c>
+      <c r="D73" s="120" t="str">
+        <f t="shared" ref="D73:G76" si="13">IF(Q97="","",Q97)</f>
+        <v/>
+      </c>
+      <c r="E73" s="97" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F73" s="97" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G73" s="121" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I73" s="56" t="str">
-        <f>IF(V85="","TBD",IF(V85=1,"YES",IF(V85=2,"NO",IF(V85=3,"NA",""))))</f>
+        <f>IF(V88="","TBD",IF(V88=1,"YES",IF(V88=2,"NO",IF(V88=3,"NA",""))))</f>
         <v>TBD</v>
       </c>
-      <c r="J73" s="96" t="s">
-        <v>115</v>
+      <c r="J73" s="95" t="s">
+        <v>111</v>
       </c>
       <c r="M73" s="12"/>
       <c r="O73" s="13"/>
-      <c r="Q73" s="182"/>
-      <c r="R73" s="189"/>
-      <c r="S73" s="190"/>
-      <c r="V73" s="180"/>
-      <c r="W73" s="181"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="159" t="s">
+        <v>97</v>
+      </c>
+      <c r="R73" s="208"/>
+      <c r="S73" s="212"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="219" t="str">
+        <f>IF(AB48="","",AB48)</f>
+        <v/>
+      </c>
+      <c r="W73" s="220" t="str">
+        <f>IF(AB51="","",AB51)</f>
+        <v/>
+      </c>
+      <c r="X73" s="2"/>
       <c r="Y73" s="14"/>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="20"/>
+      <c r="AD73" s="20"/>
     </row>
     <row r="74" spans="1:30" ht="14.45" customHeight="1">
       <c r="A74" s="2">
@@ -5241,47 +6205,52 @@
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D74" s="125" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="E74" s="98" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F74" s="98" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G74" s="126" t="str">
-        <f t="shared" si="12"/>
+        <v>112</v>
+      </c>
+      <c r="D74" s="120" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E74" s="97" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F74" s="97" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G74" s="121" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I74" s="56" t="str">
-        <f>IF(V86="","TBD",IF(V86=1,"YES",IF(V86=2,"NO",IF(V86=3,"NA",""))))</f>
+        <f>IF(V89="","TBD",IF(V89=1,"YES",IF(V89=2,"NO",IF(V89=3,"NA",""))))</f>
         <v>TBD</v>
       </c>
-      <c r="J74" s="96" t="s">
-        <v>117</v>
+      <c r="J74" s="95" t="s">
+        <v>113</v>
       </c>
       <c r="M74" s="12"/>
       <c r="O74" s="13"/>
-      <c r="Q74" s="182" t="s">
-        <v>104</v>
-      </c>
-      <c r="R74" s="183"/>
-      <c r="S74" s="184"/>
-      <c r="V74" s="185" t="str">
-        <f>IF(AB37="","",AB37)</f>
-        <v/>
-      </c>
-      <c r="W74" s="186" t="str">
-        <f>IF(AB40="","",AB40)</f>
-        <v/>
-      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="159"/>
+      <c r="R74" s="209"/>
+      <c r="S74" s="213"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="218"/>
+      <c r="W74" s="221"/>
+      <c r="X74" s="2"/>
       <c r="Y74" s="14"/>
+      <c r="AB74" s="158"/>
+      <c r="AC74" s="35" t="str">
+        <f>IF(AB74&lt;&gt;AD74,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD74" s="82" t="str">
+        <f>IF(Q118="","",Q118)</f>
+        <v/>
+      </c>
     </row>
     <row r="75" spans="1:30" ht="14.45" customHeight="1">
       <c r="A75" s="2">
@@ -5289,609 +6258,925 @@
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="D75" s="127" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="E75" s="128" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F75" s="128" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G75" s="129" t="str">
-        <f t="shared" si="12"/>
+        <v>114</v>
+      </c>
+      <c r="D75" s="122" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E75" s="123" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F75" s="123" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G75" s="124" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M75" s="12"/>
       <c r="O75" s="13"/>
-      <c r="Q75" s="182"/>
-      <c r="R75" s="183"/>
-      <c r="S75" s="184"/>
-      <c r="V75" s="185"/>
-      <c r="W75" s="186"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="159" t="s">
+        <v>99</v>
+      </c>
+      <c r="R75" s="210"/>
+      <c r="S75" s="214"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="216" t="str">
+        <f>IF(AB49="","",AB49)</f>
+        <v/>
+      </c>
+      <c r="W75" s="222" t="str">
+        <f>IF(AB52="","",AB52)</f>
+        <v/>
+      </c>
+      <c r="X75" s="2"/>
       <c r="Y75" s="14"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="20"/>
+      <c r="AD75" s="20"/>
     </row>
     <row r="76" spans="1:30" ht="14.45" customHeight="1">
       <c r="A76" s="2">
         <v>10</v>
       </c>
       <c r="B76" s="10"/>
-      <c r="D76" s="105" t="str">
-        <f>IF(D75="","",IF(D75&lt;=0.3,"PASS","FAIL"))</f>
-        <v/>
-      </c>
-      <c r="E76" s="130" t="str">
-        <f>IF(E75="","",IF(E75&lt;=0.3,"PASS","FAIL"))</f>
-        <v/>
-      </c>
-      <c r="F76" s="130" t="str">
-        <f>IF(F75="","",IF(F75&lt;=0.3,"PASS","FAIL"))</f>
-        <v/>
-      </c>
-      <c r="G76" s="106" t="str">
-        <f>IF(G75="","",IF(G75&lt;=0.3,"PASS","FAIL"))</f>
+      <c r="C76" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" s="122" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E76" s="123" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F76" s="123" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G76" s="124" t="str">
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I76" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M76" s="12"/>
       <c r="O76" s="13"/>
-      <c r="Q76" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="159"/>
+      <c r="R76" s="209"/>
+      <c r="S76" s="213"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="218"/>
+      <c r="W76" s="221"/>
+      <c r="X76" s="2"/>
       <c r="Y76" s="14"/>
-    </row>
-    <row r="77" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AB76" s="158"/>
+      <c r="AC76" s="35" t="str">
+        <f>IF(AB76&lt;&gt;AD76,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD76" s="82" t="str">
+        <f>IF(Q120="","",Q120)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A77" s="2">
         <v>11</v>
       </c>
       <c r="B77" s="10"/>
-      <c r="C77" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D77" s="88" t="str">
-        <f>IF(Q93="","",IF(LEN(Q93)&lt;=135,Q93,IF(LEN(Q93)&lt;=260,LEFT(Q93,SEARCH(" ",Q93,125)),LEFT(Q93,SEARCH(" ",Q93,130)))))</f>
-        <v/>
-      </c>
-      <c r="E77" s="88"/>
-      <c r="F77" s="88"/>
-      <c r="G77" s="88"/>
-      <c r="H77" s="88"/>
-      <c r="I77" s="88"/>
-      <c r="J77" s="88"/>
-      <c r="K77" s="88"/>
-      <c r="L77" s="88"/>
+      <c r="D77" s="102" t="str">
+        <f>IF(OR(D75="",D76=""),"",IF(AND(D75&lt;=0.3,D76&lt;=0.3),"PASS","FAIL"))</f>
+        <v/>
+      </c>
+      <c r="E77" s="125" t="str">
+        <f t="shared" ref="E77:G77" si="14">IF(OR(E75="",E76=""),"",IF(AND(E75&lt;=0.3,E76&lt;=0.3),"PASS","FAIL"))</f>
+        <v/>
+      </c>
+      <c r="F77" s="125" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="G77" s="103" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="M77" s="12"/>
       <c r="O77" s="13"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="159" t="s">
+        <v>102</v>
+      </c>
+      <c r="R77" s="210"/>
+      <c r="S77" s="214"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="216" t="str">
+        <f>IF(AB50="","",AB50)</f>
+        <v/>
+      </c>
+      <c r="W77" s="222" t="str">
+        <f>IF(AB53="","",AB53)</f>
+        <v/>
+      </c>
+      <c r="X77" s="2"/>
       <c r="Y77" s="14"/>
-    </row>
-    <row r="78" spans="1:30" ht="14.45" customHeight="1">
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="20"/>
+      <c r="AD77" s="20"/>
+    </row>
+    <row r="78" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A78" s="2">
         <v>12</v>
       </c>
       <c r="B78" s="10"/>
-      <c r="C78" s="96"/>
-      <c r="D78" s="91" t="str">
-        <f>IF(LEN(Q93)&lt;=135,"",IF(LEN(Q93)&lt;=260,RIGHT(Q93,LEN(Q96)-SEARCH(" ",Q93,125)),MID(Q93,SEARCH(" ",Q93,130),IF(LEN(Q93)&lt;=265,LEN(Q93),SEARCH(" ",Q93,255)-SEARCH(" ",Q93,130)))))</f>
-        <v/>
-      </c>
-      <c r="E78" s="91"/>
-      <c r="F78" s="91"/>
-      <c r="G78" s="91"/>
-      <c r="H78" s="91"/>
-      <c r="I78" s="91"/>
-      <c r="J78" s="91"/>
-      <c r="K78" s="91"/>
-      <c r="L78" s="91"/>
       <c r="M78" s="12"/>
       <c r="O78" s="13"/>
-      <c r="P78" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q78" s="89" t="str">
-        <f>IF(Q80&lt;&gt;"",Q80,IF(AB48="","",AB48))</f>
-        <v/>
-      </c>
-      <c r="R78" s="90"/>
-      <c r="S78" s="90"/>
-      <c r="T78" s="90"/>
-      <c r="U78" s="90"/>
-      <c r="X78" s="90"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="159"/>
+      <c r="R78" s="211"/>
+      <c r="S78" s="215"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="217"/>
+      <c r="W78" s="223"/>
+      <c r="X78" s="2"/>
       <c r="Y78" s="14"/>
+      <c r="AB78" s="158"/>
+      <c r="AC78" s="35" t="str">
+        <f>IF(AB78&lt;&gt;AD78,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD78" s="82" t="str">
+        <f>IF(Q122="","",Q122)</f>
+        <v/>
+      </c>
     </row>
     <row r="79" spans="1:30" ht="14.45" customHeight="1">
       <c r="A79" s="2">
         <v>13</v>
       </c>
       <c r="B79" s="10"/>
-      <c r="C79" s="96"/>
-      <c r="D79" s="91" t="str">
-        <f>IF(LEN(Q93)&lt;=265,"",RIGHT(Q93,LEN(Q93)-SEARCH(" ",Q93,255)))</f>
-        <v/>
-      </c>
-      <c r="E79" s="91"/>
-      <c r="F79" s="91"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="91"/>
-      <c r="J79" s="91"/>
-      <c r="K79" s="91"/>
-      <c r="L79" s="91"/>
+      <c r="C79" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="88" t="str">
+        <f>IF(Q101="","",IF(LEN(Q101)&lt;=135,Q101,IF(LEN(Q101)&lt;=260,LEFT(Q101,SEARCH(" ",Q101,125)),LEFT(Q101,SEARCH(" ",Q101,130)))))</f>
+        <v/>
+      </c>
+      <c r="E79" s="88"/>
+      <c r="F79" s="88"/>
+      <c r="G79" s="88"/>
+      <c r="H79" s="88"/>
+      <c r="I79" s="88"/>
+      <c r="J79" s="88"/>
+      <c r="K79" s="88"/>
+      <c r="L79" s="88"/>
       <c r="M79" s="12"/>
       <c r="O79" s="13"/>
-      <c r="P79" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q79" s="93"/>
-      <c r="R79" s="94">
-        <f>LEN(Q78)</f>
-        <v>0</v>
-      </c>
-      <c r="S79" s="77"/>
-      <c r="T79" s="77"/>
-      <c r="U79" s="77"/>
-      <c r="V79" s="77"/>
-      <c r="W79" s="77"/>
-      <c r="X79" s="77"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
       <c r="Y79" s="14"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="20"/>
+      <c r="AD79" s="20"/>
     </row>
     <row r="80" spans="1:30" ht="14.45" customHeight="1">
       <c r="A80" s="2">
         <v>14</v>
       </c>
       <c r="B80" s="10"/>
+      <c r="C80" s="95"/>
+      <c r="D80" s="91" t="str">
+        <f>IF(LEN(Q101)&lt;=135,"",IF(LEN(Q101)&lt;=260,RIGHT(Q101,LEN(Q104)-SEARCH(" ",Q101,125)),MID(Q101,SEARCH(" ",Q101,130),IF(LEN(Q101)&lt;=265,LEN(Q101),SEARCH(" ",Q101,255)-SEARCH(" ",Q101,130)))))</f>
+        <v/>
+      </c>
+      <c r="E80" s="91"/>
+      <c r="F80" s="91"/>
+      <c r="G80" s="91"/>
+      <c r="H80" s="91"/>
+      <c r="I80" s="91"/>
+      <c r="J80" s="91"/>
+      <c r="K80" s="91"/>
+      <c r="L80" s="91"/>
       <c r="M80" s="12"/>
       <c r="O80" s="13"/>
-      <c r="P80" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q80" s="76"/>
-      <c r="R80" s="77"/>
-      <c r="S80" s="77"/>
-      <c r="T80" s="77"/>
-      <c r="U80" s="77"/>
-      <c r="V80" s="77"/>
-      <c r="W80" s="77"/>
-      <c r="X80" s="77"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
       <c r="Y80" s="14"/>
-    </row>
-    <row r="81" spans="1:25" ht="14.45" customHeight="1">
+      <c r="AB80" s="158"/>
+      <c r="AC80" s="35" t="str">
+        <f>IF(AB80&lt;&gt;AD80,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD80" s="82" t="str">
+        <f>IF(Q124="","",Q124)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:30" ht="14.45" customHeight="1">
       <c r="A81" s="2">
         <v>15</v>
       </c>
       <c r="B81" s="10"/>
-      <c r="C81" s="83" t="s">
-        <v>63</v>
-      </c>
+      <c r="C81" s="95"/>
+      <c r="D81" s="91" t="str">
+        <f>IF(LEN(Q101)&lt;=265,"",RIGHT(Q101,LEN(Q101)-SEARCH(" ",Q101,255)))</f>
+        <v/>
+      </c>
+      <c r="E81" s="91"/>
+      <c r="F81" s="91"/>
+      <c r="G81" s="91"/>
+      <c r="H81" s="91"/>
+      <c r="I81" s="91"/>
+      <c r="J81" s="91"/>
+      <c r="K81" s="91"/>
+      <c r="L81" s="91"/>
       <c r="M81" s="12"/>
       <c r="O81" s="13"/>
+      <c r="P81" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q81" s="89" t="str">
+        <f>IF(Q83&lt;&gt;"",Q83,IF(AB61="","",AB61))</f>
+        <v/>
+      </c>
+      <c r="R81" s="90"/>
+      <c r="S81" s="90"/>
+      <c r="T81" s="90"/>
+      <c r="U81" s="90"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="90"/>
       <c r="Y81" s="14"/>
-    </row>
-    <row r="82" spans="1:25" ht="14.45" customHeight="1">
+      <c r="AB81" s="2"/>
+      <c r="AC81" s="20"/>
+      <c r="AD81" s="20"/>
+    </row>
+    <row r="82" spans="1:30" ht="14.45" customHeight="1">
       <c r="A82" s="2">
         <v>16</v>
       </c>
       <c r="B82" s="10"/>
-      <c r="D82" s="116" t="str">
-        <f>IF(Q100="","",IF(LEN(Q100)&lt;=135,Q100,IF(LEN(Q100)&lt;=260,LEFT(Q100,SEARCH(" ",Q100,125)),LEFT(Q100,SEARCH(" ",Q100,130)))))</f>
-        <v/>
-      </c>
-      <c r="E82" s="90"/>
-      <c r="F82" s="90"/>
-      <c r="G82" s="90"/>
-      <c r="H82" s="90"/>
-      <c r="I82" s="90"/>
-      <c r="J82" s="90"/>
-      <c r="K82" s="90"/>
-      <c r="L82" s="90"/>
       <c r="M82" s="12"/>
-      <c r="O82" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="V82" s="68" t="s">
-        <v>121</v>
-      </c>
+      <c r="O82" s="13"/>
+      <c r="P82" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q82" s="126"/>
+      <c r="R82" s="93">
+        <f>LEN(Q81)</f>
+        <v>0</v>
+      </c>
+      <c r="S82" s="78"/>
+      <c r="T82" s="78"/>
+      <c r="U82" s="78"/>
+      <c r="V82" s="78"/>
+      <c r="W82" s="78"/>
+      <c r="X82" s="78"/>
       <c r="Y82" s="14"/>
-    </row>
-    <row r="83" spans="1:25" ht="14.45" customHeight="1">
+      <c r="AB82" s="158"/>
+      <c r="AC82" s="35" t="str">
+        <f>IF(AB82&lt;&gt;AD82,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD82" s="82" t="str">
+        <f>IF(Q126="","",Q126)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A83" s="2">
         <v>17</v>
       </c>
       <c r="B83" s="10"/>
-      <c r="D83" s="131" t="str">
-        <f>IF(LEN(Q100)&lt;=135,"",IF(LEN(Q100)&lt;=260,RIGHT(Q100,LEN(Q100)-SEARCH(" ",Q100,125)),MID(Q100,SEARCH(" ",Q100,130),IF(LEN(Q100)&lt;=265,LEN(Q100),SEARCH(" ",Q100,255)-SEARCH(" ",Q100,130)))))</f>
-        <v/>
-      </c>
-      <c r="E83" s="77"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="77"/>
-      <c r="H83" s="77"/>
-      <c r="I83" s="77"/>
-      <c r="J83" s="77"/>
-      <c r="K83" s="77"/>
-      <c r="L83" s="77"/>
+      <c r="C83" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="167" t="s">
+        <v>95</v>
+      </c>
+      <c r="J83" s="167"/>
+      <c r="K83" s="167"/>
+      <c r="L83" s="167"/>
       <c r="M83" s="12"/>
       <c r="O83" s="13"/>
-      <c r="Q83" s="179" t="s">
-        <v>122</v>
-      </c>
-      <c r="R83" s="179"/>
-      <c r="S83" s="179" t="s">
-        <v>123</v>
-      </c>
-      <c r="T83" s="179"/>
-      <c r="V83" s="132" t="s">
-        <v>44</v>
-      </c>
+      <c r="P83" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q83" s="76"/>
+      <c r="R83" s="78"/>
+      <c r="S83" s="78"/>
+      <c r="T83" s="78"/>
+      <c r="U83" s="78"/>
+      <c r="V83" s="78"/>
+      <c r="W83" s="78"/>
+      <c r="X83" s="78"/>
       <c r="Y83" s="14"/>
-    </row>
-    <row r="84" spans="1:25" ht="14.45" customHeight="1">
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="20"/>
+      <c r="AD83" s="20"/>
+    </row>
+    <row r="84" spans="1:30" ht="14.45" customHeight="1">
       <c r="A84" s="2">
         <v>18</v>
       </c>
       <c r="B84" s="10"/>
-      <c r="D84" s="131" t="str">
-        <f>IF(LEN(Q100)&lt;=265,"",RIGHT(Q100,LEN(Q100)-SEARCH(" ",Q100,255)))</f>
-        <v/>
-      </c>
-      <c r="E84" s="77"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="77"/>
-      <c r="H84" s="77"/>
-      <c r="I84" s="77"/>
-      <c r="J84" s="77"/>
-      <c r="K84" s="77"/>
-      <c r="L84" s="77"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="160" t="str">
+        <f>R68</f>
+        <v>Left ()</v>
+      </c>
+      <c r="G84" s="161" t="str">
+        <f>S68</f>
+        <v>Right ()</v>
+      </c>
+      <c r="H84" s="2"/>
+      <c r="I84" s="226" t="str">
+        <f>R68</f>
+        <v>Left ()</v>
+      </c>
+      <c r="J84" s="226"/>
+      <c r="K84" s="226" t="str">
+        <f>S68</f>
+        <v>Right ()</v>
+      </c>
+      <c r="L84" s="226"/>
       <c r="M84" s="12"/>
       <c r="O84" s="13"/>
-      <c r="Q84" s="133" t="str">
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="14"/>
+      <c r="AB84" s="158"/>
+      <c r="AC84" s="35" t="str">
+        <f>IF(AB84&lt;&gt;AD84,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD84" s="82" t="str">
+        <f>IF(Q128="","",Q128)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+      <c r="A85" s="2">
+        <v>19</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F85" s="162" t="str">
+        <f t="shared" ref="F85:G87" si="15">IF(R69="","",IF(R69=1,"YES",IF(R69=2,"NO",IF(R69=3,"NA",""))))</f>
+        <v/>
+      </c>
+      <c r="G85" s="163" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="H85" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="I85" s="227" t="str">
+        <f>IF(R73="","",R73)</f>
+        <v/>
+      </c>
+      <c r="J85" s="227"/>
+      <c r="K85" s="227" t="str">
+        <f>IF(S73="","",S73)</f>
+        <v/>
+      </c>
+      <c r="L85" s="227"/>
+      <c r="M85" s="12"/>
+      <c r="O85" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="14"/>
+    </row>
+    <row r="86" spans="1:30" ht="14.45" customHeight="1">
+      <c r="A86" s="2">
+        <v>20</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" s="162" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G86" s="163" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="H86" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="I86" s="227" t="str">
+        <f>IF(R75="","",R75)</f>
+        <v/>
+      </c>
+      <c r="J86" s="227"/>
+      <c r="K86" s="227" t="str">
+        <f>IF(S75="","",S75)</f>
+        <v/>
+      </c>
+      <c r="L86" s="227"/>
+      <c r="M86" s="12"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="206" t="s">
+        <v>118</v>
+      </c>
+      <c r="R86" s="207"/>
+      <c r="S86" s="206" t="s">
+        <v>119</v>
+      </c>
+      <c r="T86" s="207"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="14"/>
+    </row>
+    <row r="87" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+      <c r="A87" s="2">
+        <v>21</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F87" s="164" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G87" s="165" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="H87" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="I87" s="205" t="str">
+        <f>IF(R77="","",R77)</f>
+        <v/>
+      </c>
+      <c r="J87" s="205"/>
+      <c r="K87" s="205" t="str">
+        <f>IF(S77="","",S77)</f>
+        <v/>
+      </c>
+      <c r="L87" s="205"/>
+      <c r="M87" s="12"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="128" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
-      <c r="R84" s="134" t="str">
+      <c r="R87" s="129" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right ( )</v>
-      </c>
-      <c r="S84" s="133" t="str">
+        <v>Right ()</v>
+      </c>
+      <c r="S87" s="128" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
-      <c r="T84" s="134" t="str">
+      <c r="T87" s="129" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right ( )</v>
-      </c>
-      <c r="V84" s="135"/>
-      <c r="W84" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y84" s="14"/>
-    </row>
-    <row r="85" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A85" s="2">
-        <v>19</v>
-      </c>
-      <c r="B85" s="10"/>
-      <c r="D85" s="131" t="str">
-        <f>IF(Q102="","",IF(LEN(Q102)&lt;=135,Q102,IF(LEN(Q102)&lt;=260,LEFT(Q102,SEARCH(" ",Q102,125)),LEFT(Q102,SEARCH(" ",Q102,130)))))</f>
-        <v/>
-      </c>
-      <c r="E85" s="77"/>
-      <c r="F85" s="77"/>
-      <c r="G85" s="77"/>
-      <c r="H85" s="77"/>
-      <c r="I85" s="77"/>
-      <c r="J85" s="77"/>
-      <c r="K85" s="77"/>
-      <c r="L85" s="77"/>
-      <c r="M85" s="12"/>
-      <c r="O85" s="13"/>
-      <c r="P85" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q85" s="170"/>
-      <c r="R85" s="171"/>
-      <c r="S85" s="172"/>
-      <c r="T85" s="171"/>
-      <c r="V85" s="135"/>
-      <c r="W85" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y85" s="14"/>
-    </row>
-    <row r="86" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A86" s="2">
-        <v>20</v>
-      </c>
-      <c r="B86" s="10"/>
-      <c r="D86" s="131" t="str">
-        <f>IF(LEN(Q102)&lt;=135,"",IF(LEN(Q102)&lt;=260,RIGHT(Q102,LEN(Q102)-SEARCH(" ",Q102,125)),MID(Q102,SEARCH(" ",Q102,130),IF(LEN(Q102)&lt;=265,LEN(Q102),SEARCH(" ",Q102,255)-SEARCH(" ",Q102,130)))))</f>
-        <v/>
-      </c>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="77"/>
-      <c r="H86" s="77"/>
-      <c r="I86" s="77"/>
-      <c r="J86" s="77"/>
-      <c r="K86" s="77"/>
-      <c r="L86" s="77"/>
-      <c r="M86" s="12"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q86" s="173"/>
-      <c r="R86" s="174"/>
-      <c r="S86" s="175"/>
-      <c r="T86" s="174"/>
-      <c r="V86" s="135"/>
-      <c r="W86" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y86" s="14"/>
-    </row>
-    <row r="87" spans="1:25" ht="14.45" customHeight="1">
-      <c r="A87" s="2">
-        <v>21</v>
-      </c>
-      <c r="B87" s="10"/>
-      <c r="D87" s="131" t="str">
-        <f>IF(LEN(Q102)&lt;=265,"",RIGHT(Q102,LEN(Q102)-SEARCH(" ",Q102,255)))</f>
-        <v/>
-      </c>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="77"/>
-      <c r="H87" s="77"/>
-      <c r="I87" s="77"/>
-      <c r="J87" s="77"/>
-      <c r="K87" s="77"/>
-      <c r="L87" s="77"/>
-      <c r="M87" s="12"/>
-      <c r="O87" s="13"/>
-      <c r="P87" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q87" s="173"/>
-      <c r="R87" s="174"/>
-      <c r="S87" s="175"/>
-      <c r="T87" s="174"/>
+        <v>Right ()</v>
+      </c>
+      <c r="U87" s="2"/>
+      <c r="V87" s="130"/>
+      <c r="W87" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X87" s="2"/>
       <c r="Y87" s="14"/>
-    </row>
-    <row r="88" spans="1:25" ht="14.45" customHeight="1">
+      <c r="AA87" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC87" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" ht="14.45" customHeight="1">
       <c r="A88" s="2">
         <v>22</v>
       </c>
       <c r="B88" s="10"/>
-      <c r="D88" s="131" t="str">
-        <f>IF(Q104="","",IF(LEN(Q104)&lt;=135,Q104,IF(LEN(Q104)&lt;=260,LEFT(Q104,SEARCH(" ",Q104,125)),LEFT(Q104,SEARCH(" ",Q104,130)))))</f>
-        <v/>
-      </c>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="77"/>
-      <c r="H88" s="77"/>
-      <c r="I88" s="77"/>
-      <c r="J88" s="77"/>
-      <c r="K88" s="77"/>
-      <c r="L88" s="77"/>
+      <c r="C88" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88" s="88" t="str">
+        <f>IF(Q81="","",IF(LEN(Q81)&lt;=135,Q81,IF(LEN(Q81)&lt;=260,LEFT(Q81,SEARCH(" ",Q81,125)),LEFT(Q81,SEARCH(" ",Q81,130)))))</f>
+        <v/>
+      </c>
+      <c r="E88" s="88"/>
+      <c r="F88" s="88"/>
+      <c r="G88" s="88"/>
+      <c r="H88" s="88"/>
+      <c r="I88" s="88"/>
+      <c r="J88" s="88"/>
+      <c r="K88" s="88"/>
+      <c r="L88" s="88"/>
       <c r="M88" s="12"/>
       <c r="O88" s="13"/>
       <c r="P88" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q88" s="173"/>
-      <c r="R88" s="174"/>
-      <c r="S88" s="175"/>
-      <c r="T88" s="174"/>
+        <v>166</v>
+      </c>
+      <c r="Q88" s="186" t="str">
+        <f t="shared" ref="Q88:Q96" si="16">IF(AG16="","",AG16+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R88" s="187" t="str">
+        <f t="shared" ref="R88:R96" si="17">IF(AG25="","",AG25+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S88" s="188" t="str">
+        <f t="shared" ref="S88:S96" si="18">IF(AG34="","",AG34+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T88" s="187" t="str">
+        <f t="shared" ref="T88:T96" si="19">IF(AG43="","",AG43+Lamb)</f>
+        <v/>
+      </c>
+      <c r="U88" s="2"/>
+      <c r="V88" s="130"/>
+      <c r="W88" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="X88" s="2"/>
       <c r="Y88" s="14"/>
-    </row>
-    <row r="89" spans="1:25" ht="14.45" customHeight="1">
+      <c r="AA88" s="1" t="e">
+        <f>ABS(Q88-MEDIAN($Q$88:$Q$96))/MEDIAN($Q$88:$Q$96)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB88" s="2" t="e">
+        <f>ABS(R88-MEDIAN($R$88:$R$96))/MEDIAN($R$88:$R$96)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC88" s="2" t="e">
+        <f>ABS(S88-MEDIAN($S$88:$S$96))/MEDIAN($S$88:$S$96)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD88" s="2" t="e">
+        <f>ABS(T88-MEDIAN($T$88:$T$96))/MEDIAN($T$88:$T$96)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" ht="14.45" customHeight="1">
       <c r="A89" s="2">
         <v>23</v>
       </c>
       <c r="B89" s="10"/>
-      <c r="D89" s="131" t="str">
-        <f>IF(LEN(Q104)&lt;=135,"",IF(LEN(Q104)&lt;=260,RIGHT(Q104,LEN(Q104)-SEARCH(" ",Q104,125)),MID(Q104,SEARCH(" ",Q104,130),IF(LEN(Q104)&lt;=265,LEN(Q104),SEARCH(" ",Q104,255)-SEARCH(" ",Q104,130)))))</f>
-        <v/>
-      </c>
-      <c r="E89" s="77"/>
-      <c r="F89" s="77"/>
-      <c r="G89" s="77"/>
-      <c r="H89" s="77"/>
-      <c r="I89" s="77"/>
-      <c r="J89" s="77"/>
-      <c r="K89" s="77"/>
-      <c r="L89" s="77"/>
+      <c r="C89" s="95"/>
+      <c r="D89" s="91" t="str">
+        <f>IF(LEN(Q81)&lt;=135,"",IF(LEN(Q81)&lt;=260,RIGHT(Q81,LEN(Q81)-SEARCH(" ",Q81,125)),MID(Q81,SEARCH(" ",Q81,130),IF(LEN(Q81)&lt;=265,LEN(Q81),SEARCH(" ",Q81,255)-SEARCH(" ",Q81,130)))))</f>
+        <v/>
+      </c>
+      <c r="E89" s="91"/>
+      <c r="F89" s="91"/>
+      <c r="G89" s="91"/>
+      <c r="H89" s="91"/>
+      <c r="I89" s="91"/>
+      <c r="J89" s="91"/>
+      <c r="K89" s="91"/>
+      <c r="L89" s="91"/>
       <c r="M89" s="12"/>
       <c r="O89" s="13"/>
       <c r="P89" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q89" s="176"/>
-      <c r="R89" s="177"/>
-      <c r="S89" s="178"/>
-      <c r="T89" s="177"/>
+        <v>167</v>
+      </c>
+      <c r="Q89" s="189" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R89" s="190" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S89" s="191" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T89" s="190" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="U89" s="2"/>
+      <c r="V89" s="130"/>
+      <c r="W89" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="X89" s="2"/>
       <c r="Y89" s="14"/>
-    </row>
-    <row r="90" spans="1:25" ht="14.45" customHeight="1">
+      <c r="AA89" s="2" t="e">
+        <f t="shared" ref="AA89:AA96" si="20">ABS(Q89-MEDIAN($Q$88:$Q$96))/MEDIAN($Q$88:$Q$96)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB89" s="2" t="e">
+        <f t="shared" ref="AB89:AB96" si="21">ABS(R89-MEDIAN($R$88:$R$96))/MEDIAN($R$88:$R$96)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC89" s="2" t="e">
+        <f t="shared" ref="AC89:AC96" si="22">ABS(S89-MEDIAN($S$88:$S$96))/MEDIAN($S$88:$S$96)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD89" s="2" t="e">
+        <f t="shared" ref="AD89:AD96" si="23">ABS(T89-MEDIAN($T$88:$T$96))/MEDIAN($T$88:$T$96)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" ht="14.45" customHeight="1">
       <c r="A90" s="2">
         <v>24</v>
       </c>
       <c r="B90" s="10"/>
-      <c r="D90" s="131" t="str">
-        <f>IF(LEN(Q104)&lt;=265,"",RIGHT(Q104,LEN(Q104)-SEARCH(" ",Q104,255)))</f>
-        <v/>
-      </c>
-      <c r="E90" s="77"/>
-      <c r="F90" s="77"/>
-      <c r="G90" s="77"/>
-      <c r="H90" s="77"/>
-      <c r="I90" s="77"/>
-      <c r="J90" s="77"/>
-      <c r="K90" s="77"/>
-      <c r="L90" s="77"/>
+      <c r="C90" s="95"/>
+      <c r="D90" s="91" t="str">
+        <f>IF(LEN(Q81)&lt;=265,"",RIGHT(Q81,LEN(Q81)-SEARCH(" ",Q81,255)))</f>
+        <v/>
+      </c>
+      <c r="E90" s="91"/>
+      <c r="F90" s="91"/>
+      <c r="G90" s="91"/>
+      <c r="H90" s="91"/>
+      <c r="I90" s="91"/>
+      <c r="J90" s="91"/>
+      <c r="K90" s="91"/>
+      <c r="L90" s="91"/>
       <c r="M90" s="12"/>
       <c r="O90" s="13"/>
       <c r="P90" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q90" s="136" t="str">
-        <f>IF(Q85="","",AVERAGE(Q85:Q89))</f>
-        <v/>
-      </c>
-      <c r="R90" s="137" t="str">
-        <f>IF(R85="","",AVERAGE(R85:R89))</f>
-        <v/>
-      </c>
-      <c r="S90" s="138" t="str">
-        <f>IF(S85="","",AVERAGE(S85:S89))</f>
-        <v/>
-      </c>
-      <c r="T90" s="137" t="str">
-        <f>IF(T85="","",AVERAGE(T85:T89))</f>
-        <v/>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="Q90" s="189" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R90" s="190" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S90" s="191" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T90" s="190" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
       <c r="Y90" s="14"/>
-    </row>
-    <row r="91" spans="1:25" ht="14.45" customHeight="1">
+      <c r="AA90" s="2" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB90" s="2" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC90" s="2" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD90" s="2" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" ht="14.45" customHeight="1">
       <c r="A91" s="2">
         <v>25</v>
       </c>
       <c r="B91" s="10"/>
-      <c r="D91" s="131" t="str">
-        <f>IF(Q106="","",IF(LEN(Q106)&lt;=135,Q106,IF(LEN(Q106)&lt;=260,LEFT(Q106,SEARCH(" ",Q106,125)),LEFT(Q106,SEARCH(" ",Q106,130)))))</f>
-        <v/>
-      </c>
-      <c r="E91" s="77"/>
-      <c r="F91" s="77"/>
-      <c r="G91" s="77"/>
-      <c r="H91" s="77"/>
-      <c r="I91" s="77"/>
-      <c r="J91" s="77"/>
-      <c r="K91" s="77"/>
-      <c r="L91" s="77"/>
       <c r="M91" s="12"/>
       <c r="O91" s="13"/>
       <c r="P91" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q91" s="139" t="str">
-        <f>IF(Q85="","",STDEV(Q85:Q89))</f>
-        <v/>
-      </c>
-      <c r="R91" s="140" t="str">
-        <f>IF(R85="","",STDEV(R85:R89))</f>
-        <v/>
-      </c>
-      <c r="S91" s="141" t="str">
-        <f>IF(S85="","",STDEV(S85:S89))</f>
-        <v/>
-      </c>
-      <c r="T91" s="140" t="str">
-        <f>IF(T85="","",STDEV(T85:T89))</f>
-        <v/>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="Q91" s="189" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R91" s="190" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S91" s="191" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T91" s="190" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
       <c r="Y91" s="14"/>
-    </row>
-    <row r="92" spans="1:25" ht="14.45" customHeight="1">
+      <c r="AA91" s="2" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB91" s="2" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC91" s="2" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD91" s="2" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" ht="14.45" customHeight="1">
       <c r="A92" s="2">
         <v>26</v>
       </c>
       <c r="B92" s="10"/>
-      <c r="D92" s="131" t="str">
-        <f>IF(LEN(Q106)&lt;=135,"",IF(LEN(Q106)&lt;=260,RIGHT(Q106,LEN(Q106)-SEARCH(" ",Q106,125)),MID(Q106,SEARCH(" ",Q106,130),IF(LEN(Q106)&lt;=265,LEN(Q106),SEARCH(" ",Q106,255)-SEARCH(" ",Q106,130)))))</f>
-        <v/>
-      </c>
-      <c r="E92" s="77"/>
-      <c r="F92" s="77"/>
-      <c r="G92" s="77"/>
-      <c r="H92" s="77"/>
-      <c r="I92" s="77"/>
-      <c r="J92" s="77"/>
-      <c r="K92" s="77"/>
-      <c r="L92" s="77"/>
+      <c r="C92" s="83" t="s">
+        <v>61</v>
+      </c>
       <c r="M92" s="12"/>
       <c r="O92" s="13"/>
       <c r="P92" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q92" s="142" t="str">
-        <f>IF(Q85="","",(MAX(Q85:Q89)-MIN(Q85:Q89))/(MIN(Q85:Q89)+MAX(Q85:Q89)))</f>
-        <v/>
-      </c>
-      <c r="R92" s="143" t="str">
-        <f>IF(R85="","",(MAX(R85:R89)-MIN(R85:R89))/(MIN(R85:R89)+MAX(R85:R89)))</f>
-        <v/>
-      </c>
-      <c r="S92" s="144" t="str">
-        <f>IF(S85="","",(MAX(S85:S89)-MIN(S85:S89))/(MIN(S85:S89)+MAX(S85:S89)))</f>
-        <v/>
-      </c>
-      <c r="T92" s="143" t="str">
-        <f>IF(T85="","",(MAX(T85:T89)-MIN(T85:T89))/(MIN(T85:T89)+MAX(T85:T89)))</f>
-        <v/>
-      </c>
-      <c r="U92" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="V92" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="Q92" s="189" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R92" s="190" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S92" s="191" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T92" s="190" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
       <c r="Y92" s="14"/>
-    </row>
-    <row r="93" spans="1:25" ht="14.45" customHeight="1">
+      <c r="AA92" s="2" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB92" s="2" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC92" s="2" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD92" s="2" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" ht="14.45" customHeight="1">
       <c r="A93" s="2">
         <v>27</v>
       </c>
       <c r="B93" s="10"/>
-      <c r="D93" s="131" t="str">
-        <f>IF(LEN(Q106)&lt;=265,"",RIGHT(Q106,LEN(Q106)-SEARCH(" ",Q106,255)))</f>
-        <v/>
-      </c>
-      <c r="E93" s="77"/>
-      <c r="F93" s="77"/>
-      <c r="G93" s="77"/>
-      <c r="H93" s="77"/>
-      <c r="I93" s="77"/>
-      <c r="J93" s="77"/>
-      <c r="K93" s="77"/>
-      <c r="L93" s="77"/>
+      <c r="D93" s="111" t="str">
+        <f>IF(Q108="","",IF(LEN(Q108)&lt;=135,Q108,IF(LEN(Q108)&lt;=260,LEFT(Q108,SEARCH(" ",Q108,125)),LEFT(Q108,SEARCH(" ",Q108,130)))))</f>
+        <v/>
+      </c>
+      <c r="E93" s="90"/>
+      <c r="F93" s="90"/>
+      <c r="G93" s="90"/>
+      <c r="H93" s="90"/>
+      <c r="I93" s="90"/>
+      <c r="J93" s="90"/>
+      <c r="K93" s="90"/>
+      <c r="L93" s="90"/>
       <c r="M93" s="12"/>
       <c r="O93" s="13"/>
       <c r="P93" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q93" s="89" t="str">
-        <f>IF(Q95&lt;&gt;"",Q95,IF(AB49="","",AB49))</f>
-        <v/>
-      </c>
-      <c r="R93" s="90"/>
-      <c r="S93" s="90"/>
-      <c r="T93" s="90"/>
-      <c r="U93" s="90"/>
-      <c r="X93" s="90"/>
+        <v>171</v>
+      </c>
+      <c r="Q93" s="189" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R93" s="190" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S93" s="191" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T93" s="190" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="Y93" s="14"/>
-    </row>
-    <row r="94" spans="1:25" ht="14.45" customHeight="1">
+      <c r="AA93" s="2" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB93" s="2" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC93" s="2" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD93" s="2" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" ht="14.45" customHeight="1">
       <c r="A94" s="2">
         <v>28</v>
       </c>
       <c r="B94" s="10"/>
-      <c r="D94" s="131" t="str">
-        <f>IF(Q108="","",IF(LEN(Q108)&lt;=135,Q108,IF(LEN(Q108)&lt;=260,LEFT(Q108,SEARCH(" ",Q108,125)),LEFT(Q108,SEARCH(" ",Q108,130)))))</f>
+      <c r="D94" s="126" t="str">
+        <f>IF(LEN(Q108)&lt;=135,"",IF(LEN(Q108)&lt;=260,RIGHT(Q108,LEN(Q108)-SEARCH(" ",Q108,125)),MID(Q108,SEARCH(" ",Q108,130),IF(LEN(Q108)&lt;=265,LEN(Q108),SEARCH(" ",Q108,255)-SEARCH(" ",Q108,130)))))</f>
         <v/>
       </c>
       <c r="E94" s="77"/>
@@ -5904,29 +7189,50 @@
       <c r="L94" s="77"/>
       <c r="M94" s="12"/>
       <c r="O94" s="13"/>
-      <c r="P94" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q94" s="93"/>
-      <c r="R94" s="94">
-        <f>LEN(Q93)</f>
-        <v>0</v>
-      </c>
-      <c r="S94" s="77"/>
-      <c r="T94" s="77"/>
-      <c r="U94" s="77"/>
-      <c r="V94" s="77"/>
-      <c r="W94" s="77"/>
-      <c r="X94" s="77"/>
+      <c r="P94" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q94" s="189" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R94" s="190" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S94" s="191" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T94" s="190" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="Y94" s="14"/>
-    </row>
-    <row r="95" spans="1:25" ht="14.45" customHeight="1">
+      <c r="AA94" s="2" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB94" s="2" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC94" s="2" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD94" s="2" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" ht="14.45" customHeight="1">
       <c r="A95" s="2">
         <v>29</v>
       </c>
       <c r="B95" s="10"/>
-      <c r="D95" s="131" t="str">
-        <f>IF(LEN(Q108)&lt;=135,"",IF(LEN(Q108)&lt;=260,RIGHT(Q108,LEN(Q108)-SEARCH(" ",Q108,125)),MID(Q108,SEARCH(" ",Q108,130),IF(LEN(Q108)&lt;=265,LEN(Q108),SEARCH(" ",Q108,255)-SEARCH(" ",Q108,130)))))</f>
+      <c r="D95" s="126" t="str">
+        <f>IF(LEN(Q108)&lt;=265,"",RIGHT(Q108,LEN(Q108)-SEARCH(" ",Q108,255)))</f>
         <v/>
       </c>
       <c r="E95" s="77"/>
@@ -5940,25 +7246,49 @@
       <c r="M95" s="12"/>
       <c r="O95" s="13"/>
       <c r="P95" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q95" s="76"/>
-      <c r="R95" s="77"/>
-      <c r="S95" s="77"/>
-      <c r="T95" s="77"/>
-      <c r="U95" s="77"/>
-      <c r="V95" s="77"/>
-      <c r="W95" s="77"/>
-      <c r="X95" s="77"/>
+        <v>173</v>
+      </c>
+      <c r="Q95" s="189" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R95" s="190" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S95" s="191" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T95" s="190" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="Y95" s="14"/>
-    </row>
-    <row r="96" spans="1:25" ht="14.45" customHeight="1">
+      <c r="AA95" s="2" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB95" s="2" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC95" s="2" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD95" s="2" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A96" s="2">
         <v>30</v>
       </c>
       <c r="B96" s="10"/>
-      <c r="D96" s="131" t="str">
-        <f>IF(LEN(Q108)&lt;=265,"",RIGHT(Q108,LEN(Q108)-SEARCH(" ",Q108,255)))</f>
+      <c r="D96" s="126" t="str">
+        <f>IF(Q110="","",IF(LEN(Q110)&lt;=135,Q110,IF(LEN(Q110)&lt;=260,LEFT(Q110,SEARCH(" ",Q110,125)),LEFT(Q110,SEARCH(" ",Q110,130)))))</f>
         <v/>
       </c>
       <c r="E96" s="77"/>
@@ -5970,25 +7300,51 @@
       <c r="K96" s="77"/>
       <c r="L96" s="77"/>
       <c r="M96" s="12"/>
-      <c r="O96" s="26"/>
-      <c r="P96" s="27"/>
-      <c r="Q96" s="27"/>
-      <c r="R96" s="27"/>
-      <c r="S96" s="27"/>
-      <c r="T96" s="27"/>
-      <c r="U96" s="27"/>
-      <c r="V96" s="27"/>
-      <c r="W96" s="27"/>
-      <c r="X96" s="27"/>
-      <c r="Y96" s="28"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q96" s="192" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R96" s="193" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S96" s="194" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T96" s="193" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Y96" s="14"/>
+      <c r="AA96" s="2" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB96" s="2" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC96" s="2" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD96" s="2" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="97" spans="1:25" ht="14.45" customHeight="1">
       <c r="A97" s="2">
         <v>31</v>
       </c>
       <c r="B97" s="10"/>
-      <c r="D97" s="131" t="str">
-        <f>IF(Q110="","",IF(LEN(Q110)&lt;=135,Q110,IF(LEN(Q110)&lt;=260,LEFT(Q110,SEARCH(" ",Q110,125)),LEFT(Q110,SEARCH(" ",Q110,130)))))</f>
+      <c r="D97" s="126" t="str">
+        <f>IF(LEN(Q110)&lt;=135,"",IF(LEN(Q110)&lt;=260,RIGHT(Q110,LEN(Q110)-SEARCH(" ",Q110,125)),MID(Q110,SEARCH(" ",Q110,130),IF(LEN(Q110)&lt;=265,LEN(Q110),SEARCH(" ",Q110,255)-SEARCH(" ",Q110,130)))))</f>
         <v/>
       </c>
       <c r="E97" s="77"/>
@@ -6000,14 +7356,39 @@
       <c r="K97" s="77"/>
       <c r="L97" s="77"/>
       <c r="M97" s="12"/>
-    </row>
-    <row r="98" spans="1:25" ht="14.45" customHeight="1">
+      <c r="O97" s="13"/>
+      <c r="P97" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q97" s="131" t="str">
+        <f>IF(Q88="","",AVERAGE(Q88:Q92))</f>
+        <v/>
+      </c>
+      <c r="R97" s="132" t="str">
+        <f>IF(R88="","",AVERAGE(R88:R92))</f>
+        <v/>
+      </c>
+      <c r="S97" s="133" t="str">
+        <f>IF(S88="","",AVERAGE(S88:S92))</f>
+        <v/>
+      </c>
+      <c r="T97" s="132" t="str">
+        <f>IF(T88="","",AVERAGE(T88:T92))</f>
+        <v/>
+      </c>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="14"/>
+    </row>
+    <row r="98" spans="1:25" ht="14.45" customHeight="1" thickBot="1">
       <c r="A98" s="2">
         <v>32</v>
       </c>
       <c r="B98" s="10"/>
-      <c r="D98" s="131" t="str">
-        <f>IF(LEN(Q110)&lt;=135,"",IF(LEN(Q110)&lt;=260,RIGHT(Q110,LEN(Q110)-SEARCH(" ",Q110,125)),MID(Q110,SEARCH(" ",Q110,130),IF(LEN(Q110)&lt;=265,LEN(Q110),SEARCH(" ",Q110,255)-SEARCH(" ",Q110,130)))))</f>
+      <c r="D98" s="126" t="str">
+        <f>IF(LEN(Q110)&lt;=265,"",RIGHT(Q110,LEN(Q110)-SEARCH(" ",Q110,255)))</f>
         <v/>
       </c>
       <c r="E98" s="77"/>
@@ -6019,17 +7400,39 @@
       <c r="K98" s="77"/>
       <c r="L98" s="77"/>
       <c r="M98" s="12"/>
-      <c r="T98" s="145" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" ht="14.45" customHeight="1">
+      <c r="O98" s="13"/>
+      <c r="P98" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q98" s="172" t="str">
+        <f>IF(Q88="","",STDEV(Q88:Q92))</f>
+        <v/>
+      </c>
+      <c r="R98" s="173" t="str">
+        <f>IF(R88="","",STDEV(R88:R92))</f>
+        <v/>
+      </c>
+      <c r="S98" s="174" t="str">
+        <f>IF(S88="","",STDEV(S88:S92))</f>
+        <v/>
+      </c>
+      <c r="T98" s="173" t="str">
+        <f>IF(T88="","",STDEV(T88:T92))</f>
+        <v/>
+      </c>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="14"/>
+    </row>
+    <row r="99" spans="1:25" ht="14.45" customHeight="1" thickBot="1">
       <c r="A99" s="2">
         <v>33</v>
       </c>
       <c r="B99" s="10"/>
-      <c r="D99" s="131" t="str">
-        <f>IF(LEN(Q110)&lt;=265,"",RIGHT(Q110,LEN(Q110)-SEARCH(" ",Q110,255)))</f>
+      <c r="D99" s="126" t="str">
+        <f>IF(Q112="","",IF(LEN(Q112)&lt;=135,Q112,IF(LEN(Q112)&lt;=260,LEFT(Q112,SEARCH(" ",Q112,125)),LEFT(Q112,SEARCH(" ",Q112,130)))))</f>
         <v/>
       </c>
       <c r="E99" s="77"/>
@@ -6041,27 +7444,43 @@
       <c r="K99" s="77"/>
       <c r="L99" s="77"/>
       <c r="M99" s="12"/>
-      <c r="O99" s="49"/>
-      <c r="P99" s="7"/>
-      <c r="Q99" s="7"/>
-      <c r="R99" s="7"/>
-      <c r="S99" s="146" t="s">
-        <v>133</v>
-      </c>
-      <c r="T99" s="7"/>
-      <c r="U99" s="7"/>
-      <c r="V99" s="7"/>
-      <c r="W99" s="7"/>
-      <c r="X99" s="7"/>
-      <c r="Y99" s="8"/>
-    </row>
-    <row r="100" spans="1:25" ht="14.45" customHeight="1">
+      <c r="O99" s="13"/>
+      <c r="P99" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q99" s="175" t="str">
+        <f>IF(Q88="","",2*(MAX(Q88:Q96)-MIN(Q88:Q96))/(MIN(Q88:Q96)+MAX(Q88:Q96)))</f>
+        <v/>
+      </c>
+      <c r="R99" s="176" t="str">
+        <f>IF(R88="","",2*(MAX(R88:R96)-MIN(R88:R96))/(MIN(R88:R96)+MAX(R88:R96)))</f>
+        <v/>
+      </c>
+      <c r="S99" s="177" t="str">
+        <f>IF(S88="","",2*(MAX(S88:S96)-MIN(S88:S96))/(MIN(S88:S96)+MAX(S88:S96)))</f>
+        <v/>
+      </c>
+      <c r="T99" s="176" t="str">
+        <f>IF(T88="","",2*(MAX(T88:T96)-MIN(T88:T96))/(MIN(T88:T96)+MAX(T88:T96)))</f>
+        <v/>
+      </c>
+      <c r="U99" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="V99" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="14"/>
+    </row>
+    <row r="100" spans="1:25" ht="14.45" customHeight="1" thickBot="1">
       <c r="A100" s="2">
         <v>34</v>
       </c>
       <c r="B100" s="10"/>
-      <c r="D100" s="131" t="str">
-        <f>IF(Q112="","",IF(LEN(Q112)&lt;=135,Q112,IF(LEN(Q112)&lt;=260,LEFT(Q112,SEARCH(" ",Q112,125)),LEFT(Q112,SEARCH(" ",Q112,130)))))</f>
+      <c r="D100" s="126" t="str">
+        <f>IF(LEN(Q112)&lt;=135,"",IF(LEN(Q112)&lt;=260,RIGHT(Q112,LEN(Q112)-SEARCH(" ",Q112,125)),MID(Q112,SEARCH(" ",Q112,130),IF(LEN(Q112)&lt;=265,LEN(Q112),SEARCH(" ",Q112,255)-SEARCH(" ",Q112,130)))))</f>
         <v/>
       </c>
       <c r="E100" s="77"/>
@@ -6075,17 +7494,27 @@
       <c r="M100" s="12"/>
       <c r="O100" s="13"/>
       <c r="P100" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q100" s="147"/>
-      <c r="R100" s="148"/>
-      <c r="S100" s="149" t="str">
-        <f>IF(AB51="","",AB51)</f>
-        <v/>
-      </c>
-      <c r="T100" s="90"/>
-      <c r="U100" s="90"/>
-      <c r="X100" s="90"/>
+        <v>183</v>
+      </c>
+      <c r="Q100" s="170" t="str">
+        <f>IF(Q88="","",MAX(AA88:AA96))</f>
+        <v/>
+      </c>
+      <c r="R100" s="171" t="str">
+        <f>IF(R88="","",MAX(AB88:AB96))</f>
+        <v/>
+      </c>
+      <c r="S100" s="170" t="str">
+        <f>IF(S88="","",MAX(AC88:AC96))</f>
+        <v/>
+      </c>
+      <c r="T100" s="171" t="str">
+        <f>IF(T88="","",MAX(AD88:AD96))</f>
+        <v/>
+      </c>
+      <c r="V100" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="Y100" s="14"/>
     </row>
     <row r="101" spans="1:25" ht="14.45" customHeight="1">
@@ -6093,8 +7522,8 @@
         <v>35</v>
       </c>
       <c r="B101" s="10"/>
-      <c r="D101" s="131" t="str">
-        <f>IF(LEN(Q112)&lt;=135,"",IF(LEN(Q112)&lt;=260,RIGHT(Q112,LEN(Q112)-SEARCH(" ",Q112,125)),MID(Q112,SEARCH(" ",Q112,130),IF(LEN(Q112)&lt;=265,LEN(Q112),SEARCH(" ",Q112,255)-SEARCH(" ",Q112,130)))))</f>
+      <c r="D101" s="126" t="str">
+        <f>IF(LEN(Q112)&lt;=265,"",RIGHT(Q112,LEN(Q112)-SEARCH(" ",Q112,255)))</f>
         <v/>
       </c>
       <c r="E101" s="77"/>
@@ -6107,20 +7536,20 @@
       <c r="L101" s="77"/>
       <c r="M101" s="12"/>
       <c r="O101" s="13"/>
-      <c r="P101" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q101" s="93"/>
-      <c r="R101" s="150">
-        <f>LEN(Q100)</f>
-        <v>0</v>
-      </c>
-      <c r="S101" s="77"/>
-      <c r="T101" s="77"/>
-      <c r="U101" s="151"/>
-      <c r="V101" s="77"/>
-      <c r="W101" s="77"/>
-      <c r="X101" s="77"/>
+      <c r="P101" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q101" s="169" t="str">
+        <f>IF(Q103&lt;&gt;"",Q103,IF(AB62="","",AB62))</f>
+        <v/>
+      </c>
+      <c r="R101" s="90"/>
+      <c r="S101" s="90"/>
+      <c r="T101" s="90"/>
+      <c r="U101" s="90"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="90"/>
       <c r="Y101" s="14"/>
     </row>
     <row r="102" spans="1:25" ht="14.45" customHeight="1">
@@ -6128,8 +7557,8 @@
         <v>36</v>
       </c>
       <c r="B102" s="10"/>
-      <c r="D102" s="131" t="str">
-        <f>IF(LEN(Q112)&lt;=265,"",RIGHT(Q112,LEN(Q112)-SEARCH(" ",Q112,255)))</f>
+      <c r="D102" s="126" t="str">
+        <f>IF(Q114="","",IF(LEN(Q114)&lt;=135,Q114,IF(LEN(Q114)&lt;=260,LEFT(Q114,SEARCH(" ",Q114,125)),LEFT(Q114,SEARCH(" ",Q114,130)))))</f>
         <v/>
       </c>
       <c r="E102" s="77"/>
@@ -6142,18 +7571,20 @@
       <c r="L102" s="77"/>
       <c r="M102" s="12"/>
       <c r="O102" s="13"/>
-      <c r="P102" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q102" s="147"/>
-      <c r="R102" s="148"/>
-      <c r="S102" s="149" t="str">
-        <f>IF(AB53="","",AB53)</f>
-        <v/>
-      </c>
-      <c r="T102" s="90"/>
-      <c r="U102" s="90"/>
-      <c r="X102" s="90"/>
+      <c r="P102" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q102" s="126"/>
+      <c r="R102" s="93">
+        <f>LEN(Q101)</f>
+        <v>0</v>
+      </c>
+      <c r="S102" s="78"/>
+      <c r="T102" s="78"/>
+      <c r="U102" s="78"/>
+      <c r="V102" s="78"/>
+      <c r="W102" s="78"/>
+      <c r="X102" s="78"/>
       <c r="Y102" s="14"/>
     </row>
     <row r="103" spans="1:25" ht="14.45" customHeight="1">
@@ -6161,8 +7592,8 @@
         <v>37</v>
       </c>
       <c r="B103" s="10"/>
-      <c r="D103" s="131" t="str">
-        <f>IF(Q114="","",IF(LEN(Q114)&lt;=135,Q114,IF(LEN(Q114)&lt;=260,LEFT(Q114,SEARCH(" ",Q114,125)),LEFT(Q114,SEARCH(" ",Q114,130)))))</f>
+      <c r="D103" s="126" t="str">
+        <f>IF(LEN(Q114)&lt;=135,"",IF(LEN(Q114)&lt;=260,RIGHT(Q114,LEN(Q114)-SEARCH(" ",Q114,125)),MID(Q114,SEARCH(" ",Q114,130),IF(LEN(Q114)&lt;=265,LEN(Q114),SEARCH(" ",Q114,255)-SEARCH(" ",Q114,130)))))</f>
         <v/>
       </c>
       <c r="E103" s="77"/>
@@ -6175,29 +7606,26 @@
       <c r="L103" s="77"/>
       <c r="M103" s="12"/>
       <c r="O103" s="13"/>
-      <c r="P103" s="92" t="s">
+      <c r="P103" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="Q103" s="93"/>
-      <c r="R103" s="150">
-        <f>LEN(Q102)</f>
-        <v>0</v>
-      </c>
-      <c r="S103" s="77"/>
-      <c r="T103" s="77"/>
-      <c r="U103" s="151"/>
-      <c r="V103" s="77"/>
-      <c r="W103" s="77"/>
-      <c r="X103" s="77"/>
+      <c r="Q103" s="76"/>
+      <c r="R103" s="78"/>
+      <c r="S103" s="78"/>
+      <c r="T103" s="78"/>
+      <c r="U103" s="78"/>
+      <c r="V103" s="78"/>
+      <c r="W103" s="78"/>
+      <c r="X103" s="78"/>
       <c r="Y103" s="14"/>
     </row>
-    <row r="104" spans="1:25" ht="14.45" customHeight="1">
+    <row r="104" spans="1:25" ht="14.45" customHeight="1" thickBot="1">
       <c r="A104" s="2">
         <v>38</v>
       </c>
       <c r="B104" s="10"/>
-      <c r="D104" s="131" t="str">
-        <f>IF(LEN(Q114)&lt;=135,"",IF(LEN(Q114)&lt;=260,RIGHT(Q114,LEN(Q114)-SEARCH(" ",Q114,125)),MID(Q114,SEARCH(" ",Q114,130),IF(LEN(Q114)&lt;=265,LEN(Q114),SEARCH(" ",Q114,255)-SEARCH(" ",Q114,130)))))</f>
+      <c r="D104" s="126" t="str">
+        <f>IF(LEN(Q114)&lt;=265,"",RIGHT(Q114,LEN(Q114)-SEARCH(" ",Q114,255)))</f>
         <v/>
       </c>
       <c r="E104" s="77"/>
@@ -6209,28 +7637,25 @@
       <c r="K104" s="77"/>
       <c r="L104" s="77"/>
       <c r="M104" s="12"/>
-      <c r="O104" s="13"/>
-      <c r="P104" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q104" s="147"/>
-      <c r="R104" s="148"/>
-      <c r="S104" s="149" t="str">
-        <f>IF(AB55="","",AB55)</f>
-        <v/>
-      </c>
-      <c r="T104" s="90"/>
-      <c r="U104" s="90"/>
-      <c r="X104" s="90"/>
-      <c r="Y104" s="14"/>
+      <c r="O104" s="26"/>
+      <c r="P104" s="44"/>
+      <c r="Q104" s="44"/>
+      <c r="R104" s="44"/>
+      <c r="S104" s="44"/>
+      <c r="T104" s="44"/>
+      <c r="U104" s="44"/>
+      <c r="V104" s="44"/>
+      <c r="W104" s="44"/>
+      <c r="X104" s="44"/>
+      <c r="Y104" s="28"/>
     </row>
     <row r="105" spans="1:25" ht="14.45" customHeight="1">
       <c r="A105" s="2">
         <v>39</v>
       </c>
       <c r="B105" s="10"/>
-      <c r="D105" s="131" t="str">
-        <f>IF(LEN(Q114)&lt;=265,"",RIGHT(Q114,LEN(Q114)-SEARCH(" ",Q114,255)))</f>
+      <c r="D105" s="126" t="str">
+        <f>IF(Q116="","",IF(LEN(Q116)&lt;=135,Q116,IF(LEN(Q116)&lt;=260,LEFT(Q116,SEARCH(" ",Q116,125)),LEFT(Q116,SEARCH(" ",Q116,130)))))</f>
         <v/>
       </c>
       <c r="E105" s="77"/>
@@ -6242,30 +7667,25 @@
       <c r="K105" s="77"/>
       <c r="L105" s="77"/>
       <c r="M105" s="12"/>
-      <c r="O105" s="13"/>
-      <c r="P105" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q105" s="93"/>
-      <c r="R105" s="150">
-        <f>LEN(Q104)</f>
-        <v>0</v>
-      </c>
-      <c r="S105" s="77"/>
-      <c r="T105" s="77"/>
-      <c r="U105" s="151"/>
-      <c r="V105" s="77"/>
-      <c r="W105" s="77"/>
-      <c r="X105" s="77"/>
-      <c r="Y105" s="14"/>
-    </row>
-    <row r="106" spans="1:25" ht="14.45" customHeight="1">
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="2"/>
+      <c r="Y105" s="2"/>
+    </row>
+    <row r="106" spans="1:25" ht="14.45" customHeight="1" thickBot="1">
       <c r="A106" s="2">
         <v>40</v>
       </c>
       <c r="B106" s="10"/>
-      <c r="D106" s="131" t="str">
-        <f>IF(Q116="","",IF(LEN(Q116)&lt;=135,Q116,IF(LEN(Q116)&lt;=260,LEFT(Q116,SEARCH(" ",Q116,125)),LEFT(Q116,SEARCH(" ",Q116,130)))))</f>
+      <c r="D106" s="126" t="str">
+        <f>IF(LEN(Q116)&lt;=135,"",IF(LEN(Q116)&lt;=260,RIGHT(Q116,LEN(Q116)-SEARCH(" ",Q116,125)),MID(Q116,SEARCH(" ",Q116,130),IF(LEN(Q116)&lt;=265,LEN(Q116),SEARCH(" ",Q116,255)-SEARCH(" ",Q116,130)))))</f>
         <v/>
       </c>
       <c r="E106" s="77"/>
@@ -6277,28 +7697,27 @@
       <c r="K106" s="77"/>
       <c r="L106" s="77"/>
       <c r="M106" s="12"/>
-      <c r="O106" s="13"/>
-      <c r="P106" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q106" s="147"/>
-      <c r="R106" s="148"/>
-      <c r="S106" s="149" t="str">
-        <f>IF(AB57="","",AB57)</f>
-        <v/>
-      </c>
-      <c r="T106" s="90"/>
-      <c r="U106" s="90"/>
-      <c r="X106" s="90"/>
-      <c r="Y106" s="14"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="134" t="s">
+        <v>123</v>
+      </c>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
     </row>
     <row r="107" spans="1:25" ht="14.45" customHeight="1">
       <c r="A107" s="2">
         <v>41</v>
       </c>
       <c r="B107" s="10"/>
-      <c r="D107" s="131" t="str">
-        <f>IF(LEN(Q116)&lt;=135,"",IF(LEN(Q116)&lt;=260,RIGHT(Q116,LEN(Q116)-SEARCH(" ",Q116,125)),MID(Q116,SEARCH(" ",Q116,130),IF(LEN(Q116)&lt;=265,LEN(Q116),SEARCH(" ",Q116,255)-SEARCH(" ",Q116,130)))))</f>
+      <c r="D107" s="126" t="str">
+        <f>IF(LEN(Q116)&lt;=265,"",RIGHT(Q116,LEN(Q116)-SEARCH(" ",Q116,255)))</f>
         <v/>
       </c>
       <c r="E107" s="77"/>
@@ -6310,30 +7729,27 @@
       <c r="K107" s="77"/>
       <c r="L107" s="77"/>
       <c r="M107" s="12"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q107" s="93"/>
-      <c r="R107" s="150">
-        <f>LEN(Q106)</f>
-        <v>0</v>
-      </c>
-      <c r="S107" s="77"/>
-      <c r="T107" s="77"/>
-      <c r="U107" s="151"/>
-      <c r="V107" s="77"/>
-      <c r="W107" s="77"/>
-      <c r="X107" s="77"/>
-      <c r="Y107" s="14"/>
+      <c r="O107" s="49"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
+      <c r="S107" s="135" t="s">
+        <v>124</v>
+      </c>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="7"/>
+      <c r="Y107" s="8"/>
     </row>
     <row r="108" spans="1:25" ht="14.45" customHeight="1">
       <c r="A108" s="2">
         <v>42</v>
       </c>
       <c r="B108" s="10"/>
-      <c r="D108" s="131" t="str">
-        <f>IF(LEN(Q116)&lt;=265,"",RIGHT(Q116,LEN(Q116)-SEARCH(" ",Q116,255)))</f>
+      <c r="D108" s="126" t="str">
+        <f>IF(Q118="","",IF(LEN(Q118)&lt;=135,Q118,IF(LEN(Q118)&lt;=260,LEFT(Q118,SEARCH(" ",Q118,125)),LEFT(Q118,SEARCH(" ",Q118,130)))))</f>
         <v/>
       </c>
       <c r="E108" s="77"/>
@@ -6347,16 +7763,18 @@
       <c r="M108" s="12"/>
       <c r="O108" s="13"/>
       <c r="P108" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q108" s="147"/>
-      <c r="R108" s="148"/>
-      <c r="S108" s="149" t="str">
-        <f>IF(AB59="","",AB59)</f>
+        <v>61</v>
+      </c>
+      <c r="Q108" s="136"/>
+      <c r="R108" s="137"/>
+      <c r="S108" s="138" t="str">
+        <f>IF(AB64="","",AB64)</f>
         <v/>
       </c>
       <c r="T108" s="90"/>
       <c r="U108" s="90"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
       <c r="X108" s="90"/>
       <c r="Y108" s="14"/>
     </row>
@@ -6365,8 +7783,8 @@
         <v>43</v>
       </c>
       <c r="B109" s="10"/>
-      <c r="D109" s="131" t="str">
-        <f>IF(Q118="","",IF(LEN(Q118)&lt;=135,Q118,IF(LEN(Q118)&lt;=260,LEFT(Q118,SEARCH(" ",Q118,125)),LEFT(Q118,SEARCH(" ",Q118,130)))))</f>
+      <c r="D109" s="126" t="str">
+        <f>IF(LEN(Q118)&lt;=135,"",IF(LEN(Q118)&lt;=260,RIGHT(Q118,LEN(Q118)-SEARCH(" ",Q118,125)),MID(Q118,SEARCH(" ",Q118,130),IF(LEN(Q118)&lt;=265,LEN(Q118),SEARCH(" ",Q118,255)-SEARCH(" ",Q118,130)))))</f>
         <v/>
       </c>
       <c r="E109" s="77"/>
@@ -6380,19 +7798,19 @@
       <c r="M109" s="12"/>
       <c r="O109" s="13"/>
       <c r="P109" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q109" s="93"/>
-      <c r="R109" s="150">
+        <v>63</v>
+      </c>
+      <c r="Q109" s="126"/>
+      <c r="R109" s="139">
         <f>LEN(Q108)</f>
         <v>0</v>
       </c>
-      <c r="S109" s="77"/>
-      <c r="T109" s="77"/>
-      <c r="U109" s="151"/>
-      <c r="V109" s="77"/>
-      <c r="W109" s="77"/>
-      <c r="X109" s="77"/>
+      <c r="S109" s="78"/>
+      <c r="T109" s="78"/>
+      <c r="U109" s="140"/>
+      <c r="V109" s="78"/>
+      <c r="W109" s="78"/>
+      <c r="X109" s="78"/>
       <c r="Y109" s="14"/>
     </row>
     <row r="110" spans="1:25" ht="14.45" customHeight="1">
@@ -6400,8 +7818,8 @@
         <v>44</v>
       </c>
       <c r="B110" s="10"/>
-      <c r="D110" s="131" t="str">
-        <f>IF(LEN(Q118)&lt;=135,"",IF(LEN(Q118)&lt;=260,RIGHT(Q118,LEN(Q118)-SEARCH(" ",Q118,125)),MID(Q118,SEARCH(" ",Q118,130),IF(LEN(Q118)&lt;=265,LEN(Q118),SEARCH(" ",Q118,255)-SEARCH(" ",Q118,130)))))</f>
+      <c r="D110" s="126" t="str">
+        <f>IF(LEN(Q118)&lt;=265,"",RIGHT(Q118,LEN(Q118)-SEARCH(" ",Q118,255)))</f>
         <v/>
       </c>
       <c r="E110" s="77"/>
@@ -6415,16 +7833,18 @@
       <c r="M110" s="12"/>
       <c r="O110" s="13"/>
       <c r="P110" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q110" s="147"/>
-      <c r="R110" s="148"/>
-      <c r="S110" s="149" t="str">
-        <f>IF(AB61="","",AB61)</f>
+        <v>125</v>
+      </c>
+      <c r="Q110" s="136"/>
+      <c r="R110" s="137"/>
+      <c r="S110" s="138" t="str">
+        <f>IF(AB66="","",AB66)</f>
         <v/>
       </c>
       <c r="T110" s="90"/>
       <c r="U110" s="90"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
       <c r="X110" s="90"/>
       <c r="Y110" s="14"/>
     </row>
@@ -6433,8 +7853,8 @@
         <v>45</v>
       </c>
       <c r="B111" s="10"/>
-      <c r="D111" s="131" t="str">
-        <f>IF(LEN(Q118)&lt;=265,"",RIGHT(Q118,LEN(Q118)-SEARCH(" ",Q118,255)))</f>
+      <c r="D111" s="126" t="str">
+        <f>IF(Q120="","",IF(LEN(Q120)&lt;=135,Q120,IF(LEN(Q120)&lt;=260,LEFT(Q120,SEARCH(" ",Q120,125)),LEFT(Q120,SEARCH(" ",Q120,130)))))</f>
         <v/>
       </c>
       <c r="E111" s="77"/>
@@ -6448,19 +7868,19 @@
       <c r="M111" s="12"/>
       <c r="O111" s="13"/>
       <c r="P111" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q111" s="93"/>
-      <c r="R111" s="150">
+        <v>63</v>
+      </c>
+      <c r="Q111" s="126"/>
+      <c r="R111" s="139">
         <f>LEN(Q110)</f>
         <v>0</v>
       </c>
-      <c r="S111" s="77"/>
-      <c r="T111" s="77"/>
-      <c r="U111" s="77"/>
-      <c r="V111" s="77"/>
-      <c r="W111" s="77"/>
-      <c r="X111" s="77"/>
+      <c r="S111" s="78"/>
+      <c r="T111" s="78"/>
+      <c r="U111" s="140"/>
+      <c r="V111" s="78"/>
+      <c r="W111" s="78"/>
+      <c r="X111" s="78"/>
       <c r="Y111" s="14"/>
     </row>
     <row r="112" spans="1:25" ht="14.45" customHeight="1">
@@ -6468,8 +7888,8 @@
         <v>46</v>
       </c>
       <c r="B112" s="10"/>
-      <c r="D112" s="131" t="str">
-        <f>IF(Q120="","",IF(LEN(Q120)&lt;=135,Q120,IF(LEN(Q120)&lt;=260,LEFT(Q120,SEARCH(" ",Q120,125)),LEFT(Q120,SEARCH(" ",Q120,130)))))</f>
+      <c r="D112" s="126" t="str">
+        <f>IF(LEN(Q120)&lt;=135,"",IF(LEN(Q120)&lt;=260,RIGHT(Q120,LEN(Q120)-SEARCH(" ",Q120,125)),MID(Q120,SEARCH(" ",Q120,130),IF(LEN(Q120)&lt;=265,LEN(Q120),SEARCH(" ",Q120,255)-SEARCH(" ",Q120,130)))))</f>
         <v/>
       </c>
       <c r="E112" s="77"/>
@@ -6483,16 +7903,18 @@
       <c r="M112" s="12"/>
       <c r="O112" s="13"/>
       <c r="P112" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q112" s="147"/>
-      <c r="R112" s="148"/>
-      <c r="S112" s="149" t="str">
-        <f>IF(AB63="","",AB63)</f>
+        <v>125</v>
+      </c>
+      <c r="Q112" s="136"/>
+      <c r="R112" s="137"/>
+      <c r="S112" s="138" t="str">
+        <f>IF(AB68="","",AB68)</f>
         <v/>
       </c>
       <c r="T112" s="90"/>
       <c r="U112" s="90"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
       <c r="X112" s="90"/>
       <c r="Y112" s="14"/>
     </row>
@@ -6501,8 +7923,8 @@
         <v>47</v>
       </c>
       <c r="B113" s="10"/>
-      <c r="D113" s="131" t="str">
-        <f>IF(LEN(Q120)&lt;=135,"",IF(LEN(Q120)&lt;=260,RIGHT(Q120,LEN(Q120)-SEARCH(" ",Q120,125)),MID(Q120,SEARCH(" ",Q120,130),IF(LEN(Q120)&lt;=265,LEN(Q120),SEARCH(" ",Q120,255)-SEARCH(" ",Q120,130)))))</f>
+      <c r="D113" s="126" t="str">
+        <f>IF(LEN(Q120)&lt;=265,"",RIGHT(Q120,LEN(Q120)-SEARCH(" ",Q120,255)))</f>
         <v/>
       </c>
       <c r="E113" s="77"/>
@@ -6516,19 +7938,19 @@
       <c r="M113" s="12"/>
       <c r="O113" s="13"/>
       <c r="P113" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q113" s="93"/>
-      <c r="R113" s="150">
+        <v>63</v>
+      </c>
+      <c r="Q113" s="126"/>
+      <c r="R113" s="139">
         <f>LEN(Q112)</f>
         <v>0</v>
       </c>
-      <c r="S113" s="77"/>
-      <c r="T113" s="77"/>
-      <c r="U113" s="77"/>
-      <c r="V113" s="77"/>
-      <c r="W113" s="77"/>
-      <c r="X113" s="77"/>
+      <c r="S113" s="78"/>
+      <c r="T113" s="78"/>
+      <c r="U113" s="140"/>
+      <c r="V113" s="78"/>
+      <c r="W113" s="78"/>
+      <c r="X113" s="78"/>
       <c r="Y113" s="14"/>
     </row>
     <row r="114" spans="1:25" ht="14.45" customHeight="1">
@@ -6536,8 +7958,8 @@
         <v>48</v>
       </c>
       <c r="B114" s="10"/>
-      <c r="D114" s="131" t="str">
-        <f>IF(LEN(Q120)&lt;=265,"",RIGHT(Q120,LEN(Q120)-SEARCH(" ",Q120,255)))</f>
+      <c r="D114" s="126" t="str">
+        <f>IF(Q122="","",IF(LEN(Q122)&lt;=135,Q122,IF(LEN(Q122)&lt;=260,LEFT(Q122,SEARCH(" ",Q122,125)),LEFT(Q122,SEARCH(" ",Q122,130)))))</f>
         <v/>
       </c>
       <c r="E114" s="77"/>
@@ -6551,16 +7973,18 @@
       <c r="M114" s="12"/>
       <c r="O114" s="13"/>
       <c r="P114" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q114" s="147"/>
-      <c r="R114" s="148"/>
-      <c r="S114" s="149" t="str">
-        <f>IF(AB65="","",AB65)</f>
+        <v>125</v>
+      </c>
+      <c r="Q114" s="136"/>
+      <c r="R114" s="137"/>
+      <c r="S114" s="138" t="str">
+        <f>IF(AB70="","",AB70)</f>
         <v/>
       </c>
       <c r="T114" s="90"/>
       <c r="U114" s="90"/>
+      <c r="V114" s="2"/>
+      <c r="W114" s="2"/>
       <c r="X114" s="90"/>
       <c r="Y114" s="14"/>
     </row>
@@ -6569,22 +7993,34 @@
         <v>49</v>
       </c>
       <c r="B115" s="10"/>
+      <c r="D115" s="126" t="str">
+        <f>IF(LEN(Q122)&lt;=135,"",IF(LEN(Q122)&lt;=260,RIGHT(Q122,LEN(Q122)-SEARCH(" ",Q122,125)),MID(Q122,SEARCH(" ",Q122,130),IF(LEN(Q122)&lt;=265,LEN(Q122),SEARCH(" ",Q122,255)-SEARCH(" ",Q122,130)))))</f>
+        <v/>
+      </c>
+      <c r="E115" s="77"/>
+      <c r="F115" s="77"/>
+      <c r="G115" s="77"/>
+      <c r="H115" s="77"/>
+      <c r="I115" s="77"/>
+      <c r="J115" s="77"/>
+      <c r="K115" s="77"/>
+      <c r="L115" s="77"/>
       <c r="M115" s="12"/>
       <c r="O115" s="13"/>
       <c r="P115" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q115" s="93"/>
-      <c r="R115" s="150">
+        <v>63</v>
+      </c>
+      <c r="Q115" s="126"/>
+      <c r="R115" s="139">
         <f>LEN(Q114)</f>
         <v>0</v>
       </c>
-      <c r="S115" s="77"/>
-      <c r="T115" s="77"/>
-      <c r="U115" s="77"/>
-      <c r="V115" s="77"/>
-      <c r="W115" s="77"/>
-      <c r="X115" s="77"/>
+      <c r="S115" s="78"/>
+      <c r="T115" s="78"/>
+      <c r="U115" s="140"/>
+      <c r="V115" s="78"/>
+      <c r="W115" s="78"/>
+      <c r="X115" s="78"/>
       <c r="Y115" s="14"/>
     </row>
     <row r="116" spans="1:25" ht="14.45" customHeight="1">
@@ -6592,19 +8028,33 @@
         <v>50</v>
       </c>
       <c r="B116" s="10"/>
+      <c r="D116" s="126" t="str">
+        <f>IF(LEN(Q122)&lt;=265,"",RIGHT(Q122,LEN(Q122)-SEARCH(" ",Q122,255)))</f>
+        <v/>
+      </c>
+      <c r="E116" s="77"/>
+      <c r="F116" s="77"/>
+      <c r="G116" s="77"/>
+      <c r="H116" s="77"/>
+      <c r="I116" s="77"/>
+      <c r="J116" s="77"/>
+      <c r="K116" s="77"/>
+      <c r="L116" s="77"/>
       <c r="M116" s="12"/>
       <c r="O116" s="13"/>
       <c r="P116" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q116" s="147"/>
-      <c r="R116" s="148"/>
-      <c r="S116" s="149" t="str">
-        <f>IF(AB67="","",AB67)</f>
+        <v>125</v>
+      </c>
+      <c r="Q116" s="136"/>
+      <c r="R116" s="137"/>
+      <c r="S116" s="138" t="str">
+        <f>IF(AB72="","",AB72)</f>
         <v/>
       </c>
       <c r="T116" s="90"/>
       <c r="U116" s="90"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="2"/>
       <c r="X116" s="90"/>
       <c r="Y116" s="14"/>
     </row>
@@ -6613,22 +8063,34 @@
         <v>51</v>
       </c>
       <c r="B117" s="10"/>
+      <c r="D117" s="126" t="str">
+        <f>IF(Q124="","",IF(LEN(Q124)&lt;=135,Q124,IF(LEN(Q124)&lt;=260,LEFT(Q124,SEARCH(" ",Q124,125)),LEFT(Q124,SEARCH(" ",Q124,130)))))</f>
+        <v/>
+      </c>
+      <c r="E117" s="77"/>
+      <c r="F117" s="77"/>
+      <c r="G117" s="77"/>
+      <c r="H117" s="77"/>
+      <c r="I117" s="77"/>
+      <c r="J117" s="77"/>
+      <c r="K117" s="77"/>
+      <c r="L117" s="77"/>
       <c r="M117" s="12"/>
       <c r="O117" s="13"/>
       <c r="P117" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q117" s="93"/>
-      <c r="R117" s="150">
+        <v>63</v>
+      </c>
+      <c r="Q117" s="126"/>
+      <c r="R117" s="139">
         <f>LEN(Q116)</f>
         <v>0</v>
       </c>
-      <c r="S117" s="77"/>
-      <c r="T117" s="77"/>
-      <c r="U117" s="77"/>
-      <c r="V117" s="77"/>
-      <c r="W117" s="77"/>
-      <c r="X117" s="77"/>
+      <c r="S117" s="78"/>
+      <c r="T117" s="78"/>
+      <c r="U117" s="140"/>
+      <c r="V117" s="78"/>
+      <c r="W117" s="78"/>
+      <c r="X117" s="78"/>
       <c r="Y117" s="14"/>
     </row>
     <row r="118" spans="1:25" ht="14.45" customHeight="1">
@@ -6636,19 +8098,33 @@
         <v>52</v>
       </c>
       <c r="B118" s="10"/>
+      <c r="D118" s="126" t="str">
+        <f>IF(LEN(Q124)&lt;=135,"",IF(LEN(Q124)&lt;=260,RIGHT(Q124,LEN(Q124)-SEARCH(" ",Q124,125)),MID(Q124,SEARCH(" ",Q124,130),IF(LEN(Q124)&lt;=265,LEN(Q124),SEARCH(" ",Q124,255)-SEARCH(" ",Q124,130)))))</f>
+        <v/>
+      </c>
+      <c r="E118" s="77"/>
+      <c r="F118" s="77"/>
+      <c r="G118" s="77"/>
+      <c r="H118" s="77"/>
+      <c r="I118" s="77"/>
+      <c r="J118" s="77"/>
+      <c r="K118" s="77"/>
+      <c r="L118" s="77"/>
       <c r="M118" s="12"/>
       <c r="O118" s="13"/>
       <c r="P118" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q118" s="147"/>
-      <c r="R118" s="148"/>
-      <c r="S118" s="149" t="str">
-        <f>IF(AB69="","",AB69)</f>
+        <v>125</v>
+      </c>
+      <c r="Q118" s="136"/>
+      <c r="R118" s="137"/>
+      <c r="S118" s="138" t="str">
+        <f>IF(AB74="","",AB74)</f>
         <v/>
       </c>
       <c r="T118" s="90"/>
       <c r="U118" s="90"/>
+      <c r="V118" s="2"/>
+      <c r="W118" s="2"/>
       <c r="X118" s="90"/>
       <c r="Y118" s="14"/>
     </row>
@@ -6657,22 +8133,34 @@
         <v>53</v>
       </c>
       <c r="B119" s="10"/>
+      <c r="D119" s="126" t="str">
+        <f>IF(LEN(Q124)&lt;=265,"",RIGHT(Q124,LEN(Q124)-SEARCH(" ",Q124,255)))</f>
+        <v/>
+      </c>
+      <c r="E119" s="77"/>
+      <c r="F119" s="77"/>
+      <c r="G119" s="77"/>
+      <c r="H119" s="77"/>
+      <c r="I119" s="77"/>
+      <c r="J119" s="77"/>
+      <c r="K119" s="77"/>
+      <c r="L119" s="77"/>
       <c r="M119" s="12"/>
       <c r="O119" s="13"/>
       <c r="P119" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q119" s="93"/>
-      <c r="R119" s="150">
+        <v>63</v>
+      </c>
+      <c r="Q119" s="126"/>
+      <c r="R119" s="139">
         <f>LEN(Q118)</f>
         <v>0</v>
       </c>
-      <c r="S119" s="77"/>
-      <c r="T119" s="77"/>
-      <c r="U119" s="77"/>
-      <c r="V119" s="77"/>
-      <c r="W119" s="77"/>
-      <c r="X119" s="77"/>
+      <c r="S119" s="78"/>
+      <c r="T119" s="78"/>
+      <c r="U119" s="78"/>
+      <c r="V119" s="78"/>
+      <c r="W119" s="78"/>
+      <c r="X119" s="78"/>
       <c r="Y119" s="14"/>
     </row>
     <row r="120" spans="1:25" ht="14.45" customHeight="1">
@@ -6680,19 +8168,33 @@
         <v>54</v>
       </c>
       <c r="B120" s="10"/>
+      <c r="D120" s="126" t="str">
+        <f>IF(Q126="","",IF(LEN(Q126)&lt;=135,Q126,IF(LEN(Q126)&lt;=260,LEFT(Q126,SEARCH(" ",Q126,125)),LEFT(Q126,SEARCH(" ",Q126,130)))))</f>
+        <v/>
+      </c>
+      <c r="E120" s="77"/>
+      <c r="F120" s="77"/>
+      <c r="G120" s="77"/>
+      <c r="H120" s="77"/>
+      <c r="I120" s="77"/>
+      <c r="J120" s="77"/>
+      <c r="K120" s="77"/>
+      <c r="L120" s="77"/>
       <c r="M120" s="12"/>
       <c r="O120" s="13"/>
       <c r="P120" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q120" s="147"/>
-      <c r="R120" s="148"/>
-      <c r="S120" s="149" t="str">
-        <f>IF(AB71="","",AB71)</f>
+        <v>125</v>
+      </c>
+      <c r="Q120" s="136"/>
+      <c r="R120" s="137"/>
+      <c r="S120" s="138" t="str">
+        <f>IF(AB76="","",AB76)</f>
         <v/>
       </c>
       <c r="T120" s="90"/>
       <c r="U120" s="90"/>
+      <c r="V120" s="2"/>
+      <c r="W120" s="2"/>
       <c r="X120" s="90"/>
       <c r="Y120" s="14"/>
     </row>
@@ -6701,22 +8203,34 @@
         <v>55</v>
       </c>
       <c r="B121" s="10"/>
+      <c r="D121" s="126" t="str">
+        <f>IF(LEN(Q126)&lt;=135,"",IF(LEN(Q126)&lt;=260,RIGHT(Q126,LEN(Q126)-SEARCH(" ",Q126,125)),MID(Q126,SEARCH(" ",Q126,130),IF(LEN(Q126)&lt;=265,LEN(Q126),SEARCH(" ",Q126,255)-SEARCH(" ",Q126,130)))))</f>
+        <v/>
+      </c>
+      <c r="E121" s="77"/>
+      <c r="F121" s="77"/>
+      <c r="G121" s="77"/>
+      <c r="H121" s="77"/>
+      <c r="I121" s="77"/>
+      <c r="J121" s="77"/>
+      <c r="K121" s="77"/>
+      <c r="L121" s="77"/>
       <c r="M121" s="12"/>
       <c r="O121" s="13"/>
       <c r="P121" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q121" s="93"/>
-      <c r="R121" s="150">
+        <v>63</v>
+      </c>
+      <c r="Q121" s="126"/>
+      <c r="R121" s="139">
         <f>LEN(Q120)</f>
         <v>0</v>
       </c>
-      <c r="S121" s="77"/>
-      <c r="T121" s="77"/>
-      <c r="U121" s="77"/>
-      <c r="V121" s="77"/>
-      <c r="W121" s="77"/>
-      <c r="X121" s="77"/>
+      <c r="S121" s="78"/>
+      <c r="T121" s="78"/>
+      <c r="U121" s="78"/>
+      <c r="V121" s="78"/>
+      <c r="W121" s="78"/>
+      <c r="X121" s="78"/>
       <c r="Y121" s="14"/>
     </row>
     <row r="122" spans="1:25" ht="14.45" customHeight="1">
@@ -6724,39 +8238,140 @@
         <v>56</v>
       </c>
       <c r="B122" s="10"/>
+      <c r="D122" s="126" t="str">
+        <f>IF(LEN(Q126)&lt;=265,"",RIGHT(Q126,LEN(Q126)-SEARCH(" ",Q126,255)))</f>
+        <v/>
+      </c>
+      <c r="E122" s="77"/>
+      <c r="F122" s="77"/>
+      <c r="G122" s="77"/>
+      <c r="H122" s="77"/>
+      <c r="I122" s="77"/>
+      <c r="J122" s="77"/>
+      <c r="K122" s="77"/>
+      <c r="L122" s="77"/>
       <c r="M122" s="12"/>
-      <c r="O122" s="26"/>
-      <c r="P122" s="27"/>
-      <c r="Q122" s="27"/>
-      <c r="R122" s="27"/>
-      <c r="S122" s="27"/>
-      <c r="T122" s="27"/>
-      <c r="U122" s="27"/>
-      <c r="V122" s="27"/>
-      <c r="W122" s="27"/>
-      <c r="X122" s="27"/>
-      <c r="Y122" s="28"/>
+      <c r="O122" s="13"/>
+      <c r="P122" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q122" s="136"/>
+      <c r="R122" s="137"/>
+      <c r="S122" s="138" t="str">
+        <f>IF(AB78="","",AB78)</f>
+        <v/>
+      </c>
+      <c r="T122" s="90"/>
+      <c r="U122" s="90"/>
+      <c r="V122" s="2"/>
+      <c r="W122" s="2"/>
+      <c r="X122" s="90"/>
+      <c r="Y122" s="14"/>
     </row>
     <row r="123" spans="1:25" ht="14.45" customHeight="1">
       <c r="A123" s="2">
         <v>57</v>
       </c>
       <c r="B123" s="10"/>
+      <c r="D123" s="126" t="str">
+        <f>IF(Q128="","",IF(LEN(Q128)&lt;=135,Q128,IF(LEN(Q128)&lt;=260,LEFT(Q128,SEARCH(" ",Q128,125)),LEFT(Q128,SEARCH(" ",Q128,130)))))</f>
+        <v/>
+      </c>
+      <c r="E123" s="77"/>
+      <c r="F123" s="77"/>
+      <c r="G123" s="77"/>
+      <c r="H123" s="77"/>
+      <c r="I123" s="77"/>
+      <c r="J123" s="77"/>
+      <c r="K123" s="77"/>
+      <c r="L123" s="77"/>
       <c r="M123" s="12"/>
+      <c r="O123" s="13"/>
+      <c r="P123" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q123" s="126"/>
+      <c r="R123" s="139">
+        <f>LEN(Q122)</f>
+        <v>0</v>
+      </c>
+      <c r="S123" s="78"/>
+      <c r="T123" s="78"/>
+      <c r="U123" s="78"/>
+      <c r="V123" s="78"/>
+      <c r="W123" s="78"/>
+      <c r="X123" s="78"/>
+      <c r="Y123" s="14"/>
     </row>
     <row r="124" spans="1:25" ht="14.45" customHeight="1">
       <c r="A124" s="2">
         <v>58</v>
       </c>
       <c r="B124" s="10"/>
+      <c r="D124" s="126" t="str">
+        <f>IF(LEN(Q128)&lt;=135,"",IF(LEN(Q128)&lt;=260,RIGHT(Q128,LEN(Q128)-SEARCH(" ",Q128,125)),MID(Q128,SEARCH(" ",Q128,130),IF(LEN(Q128)&lt;=265,LEN(Q128),SEARCH(" ",Q128,255)-SEARCH(" ",Q128,130)))))</f>
+        <v/>
+      </c>
+      <c r="E124" s="77"/>
+      <c r="F124" s="77"/>
+      <c r="G124" s="77"/>
+      <c r="H124" s="77"/>
+      <c r="I124" s="77"/>
+      <c r="J124" s="77"/>
+      <c r="K124" s="77"/>
+      <c r="L124" s="77"/>
       <c r="M124" s="12"/>
+      <c r="O124" s="13"/>
+      <c r="P124" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q124" s="136"/>
+      <c r="R124" s="137"/>
+      <c r="S124" s="138" t="str">
+        <f>IF(AB80="","",AB80)</f>
+        <v/>
+      </c>
+      <c r="T124" s="90"/>
+      <c r="U124" s="90"/>
+      <c r="V124" s="2"/>
+      <c r="W124" s="2"/>
+      <c r="X124" s="90"/>
+      <c r="Y124" s="14"/>
     </row>
     <row r="125" spans="1:25" ht="14.45" customHeight="1">
       <c r="A125" s="2">
         <v>59</v>
       </c>
       <c r="B125" s="10"/>
+      <c r="D125" s="126" t="str">
+        <f>IF(LEN(Q128)&lt;=265,"",RIGHT(Q128,LEN(Q128)-SEARCH(" ",Q128,255)))</f>
+        <v/>
+      </c>
+      <c r="E125" s="77"/>
+      <c r="F125" s="77"/>
+      <c r="G125" s="77"/>
+      <c r="H125" s="77"/>
+      <c r="I125" s="77"/>
+      <c r="J125" s="77"/>
+      <c r="K125" s="77"/>
+      <c r="L125" s="77"/>
       <c r="M125" s="12"/>
+      <c r="O125" s="13"/>
+      <c r="P125" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q125" s="126"/>
+      <c r="R125" s="139">
+        <f>LEN(Q124)</f>
+        <v>0</v>
+      </c>
+      <c r="S125" s="78"/>
+      <c r="T125" s="78"/>
+      <c r="U125" s="78"/>
+      <c r="V125" s="78"/>
+      <c r="W125" s="78"/>
+      <c r="X125" s="78"/>
+      <c r="Y125" s="14"/>
     </row>
     <row r="126" spans="1:25" ht="14.45" customHeight="1">
       <c r="A126" s="2">
@@ -6764,6 +8379,22 @@
       </c>
       <c r="B126" s="10"/>
       <c r="M126" s="12"/>
+      <c r="O126" s="13"/>
+      <c r="P126" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q126" s="136"/>
+      <c r="R126" s="137"/>
+      <c r="S126" s="138" t="str">
+        <f>IF(AB82="","",AB82)</f>
+        <v/>
+      </c>
+      <c r="T126" s="90"/>
+      <c r="U126" s="90"/>
+      <c r="V126" s="2"/>
+      <c r="W126" s="2"/>
+      <c r="X126" s="90"/>
+      <c r="Y126" s="14"/>
     </row>
     <row r="127" spans="1:25" ht="14.45" customHeight="1">
       <c r="A127" s="2">
@@ -6771,6 +8402,22 @@
       </c>
       <c r="B127" s="10"/>
       <c r="M127" s="12"/>
+      <c r="O127" s="13"/>
+      <c r="P127" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q127" s="126"/>
+      <c r="R127" s="139">
+        <f>LEN(Q126)</f>
+        <v>0</v>
+      </c>
+      <c r="S127" s="78"/>
+      <c r="T127" s="78"/>
+      <c r="U127" s="78"/>
+      <c r="V127" s="78"/>
+      <c r="W127" s="78"/>
+      <c r="X127" s="78"/>
+      <c r="Y127" s="14"/>
     </row>
     <row r="128" spans="1:25" ht="14.45" customHeight="1">
       <c r="A128" s="2">
@@ -6778,15 +8425,47 @@
       </c>
       <c r="B128" s="10"/>
       <c r="M128" s="12"/>
-    </row>
-    <row r="129" spans="1:13" ht="14.45" customHeight="1">
+      <c r="O128" s="13"/>
+      <c r="P128" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q128" s="136"/>
+      <c r="R128" s="137"/>
+      <c r="S128" s="138" t="str">
+        <f>IF(AB84="","",AB84)</f>
+        <v/>
+      </c>
+      <c r="T128" s="90"/>
+      <c r="U128" s="90"/>
+      <c r="V128" s="2"/>
+      <c r="W128" s="2"/>
+      <c r="X128" s="90"/>
+      <c r="Y128" s="14"/>
+    </row>
+    <row r="129" spans="1:25" ht="14.45" customHeight="1">
       <c r="A129" s="2">
         <v>63</v>
       </c>
       <c r="B129" s="10"/>
       <c r="M129" s="12"/>
-    </row>
-    <row r="130" spans="1:13" ht="14.45" customHeight="1">
+      <c r="O129" s="13"/>
+      <c r="P129" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q129" s="126"/>
+      <c r="R129" s="139">
+        <f>LEN(Q128)</f>
+        <v>0</v>
+      </c>
+      <c r="S129" s="78"/>
+      <c r="T129" s="78"/>
+      <c r="U129" s="78"/>
+      <c r="V129" s="78"/>
+      <c r="W129" s="78"/>
+      <c r="X129" s="78"/>
+      <c r="Y129" s="14"/>
+    </row>
+    <row r="130" spans="1:25" ht="14.45" customHeight="1" thickBot="1">
       <c r="A130" s="2">
         <v>64</v>
       </c>
@@ -6802,41 +8481,52 @@
       <c r="K130" s="24"/>
       <c r="L130" s="24"/>
       <c r="M130" s="25"/>
-    </row>
-    <row r="131" spans="1:13" ht="14.45" customHeight="1">
+      <c r="O130" s="26"/>
+      <c r="P130" s="44"/>
+      <c r="Q130" s="44"/>
+      <c r="R130" s="44"/>
+      <c r="S130" s="44"/>
+      <c r="T130" s="44"/>
+      <c r="U130" s="44"/>
+      <c r="V130" s="44"/>
+      <c r="W130" s="44"/>
+      <c r="X130" s="44"/>
+      <c r="Y130" s="28"/>
+    </row>
+    <row r="131" spans="1:25" ht="14.45" customHeight="1" thickTop="1">
       <c r="A131" s="2">
         <v>65</v>
       </c>
       <c r="C131" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D131" s="153" t="str">
+      <c r="D131" s="142" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
       <c r="L131" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="M131" s="115" t="str">
+      <c r="M131" s="110" t="str">
         <f>IF($X$7="","",$X$7)</f>
         <v>Eugene Mah</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="14.45" customHeight="1">
+    <row r="132" spans="1:25" ht="14.45" customHeight="1">
       <c r="A132" s="2">
         <v>66</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D132" s="116" t="str">
+        <v>104</v>
+      </c>
+      <c r="D132" s="111" t="str">
         <f>IF($J$12="","",$J$12)</f>
         <v/>
       </c>
       <c r="L132" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="M132" s="117" t="str">
+      <c r="M132" s="112" t="str">
         <f>IF($R$13="","",$R$13)</f>
         <v/>
       </c>
@@ -6854,7 +8544,7 @@
       </headerFooter>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="47">
+  <mergeCells count="40">
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
@@ -6871,84 +8561,100 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="S70:S71"/>
-    <mergeCell ref="V70:V71"/>
-    <mergeCell ref="W70:W71"/>
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="F71:G71"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="S72:S73"/>
-    <mergeCell ref="Q83:R83"/>
-    <mergeCell ref="S83:T83"/>
-    <mergeCell ref="V72:V73"/>
-    <mergeCell ref="W72:W73"/>
-    <mergeCell ref="Q74:Q75"/>
-    <mergeCell ref="R74:R75"/>
-    <mergeCell ref="S74:S75"/>
-    <mergeCell ref="V74:V75"/>
-    <mergeCell ref="W74:W75"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="V77:V78"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="V73:V74"/>
+    <mergeCell ref="W73:W74"/>
+    <mergeCell ref="W75:W76"/>
+    <mergeCell ref="W77:W78"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="Q86:R86"/>
+    <mergeCell ref="S86:T86"/>
+    <mergeCell ref="R73:R74"/>
+    <mergeCell ref="R75:R76"/>
+    <mergeCell ref="R77:R78"/>
+    <mergeCell ref="S73:S74"/>
+    <mergeCell ref="S75:S76"/>
+    <mergeCell ref="S77:S78"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="K86:L86"/>
   </mergeCells>
   <conditionalFormatting sqref="I72:I74">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27 P26">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="greaterThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56:G58 F42:G42">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+  <conditionalFormatting sqref="F85:G87 F43:G43">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76:G76">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="D77:G77">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75:G75 Q92:T92">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
-      <formula>0.3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="D75:G75 Q99:T99">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E23">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T26">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q100:T100">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>0.3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D76:G76">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>0.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+      <formula>0.3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.92638888888888904" header="0.51180555555555496" footer="0.78749999999999998"/>
@@ -6959,5 +8665,6 @@
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="66" max="16383" man="1"/>
   </rowBreaks>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\workspace\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D86285C-5C96-4B5B-8074-696614E77EB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Barco" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Barco!$B$1:$M$132</definedName>
     <definedName name="Z_B8088769_C3DE_4DF8_A82B_D0EB46FFCC4A_.wvu.PrintArea" localSheetId="0" hidden="1">Barco!$B$1:$M$132</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Eugene Mah - Personal View" guid="{B8088769-C3DE-4DF8-A82B-D0EB46FFCC4A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="784" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
@@ -27,6 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -37,12 +41,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Eugene Mah</author>
   </authors>
   <commentList>
-    <comment ref="Q59" authorId="0" shapeId="0">
+    <comment ref="Q59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q88" authorId="0" shapeId="0">
+    <comment ref="Q88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="184">
   <si>
     <t>Print Area</t>
   </si>
@@ -652,7 +656,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
@@ -1590,7 +1594,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2093,18 +2097,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="47" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="39" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2138,12 +2133,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2174,12 +2163,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2189,20 +2172,68 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2237,76 +2268,52 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="47" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="39" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Fail" xfId="6"/>
-    <cellStyle name="Heading" xfId="3"/>
-    <cellStyle name="Heading1" xfId="4"/>
+    <cellStyle name="Fail" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Heading" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Heading1" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pass" xfId="5"/>
+    <cellStyle name="Pass" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Percent" xfId="7" builtinId="5"/>
-    <cellStyle name="Result" xfId="1"/>
-    <cellStyle name="Result2" xfId="2"/>
+    <cellStyle name="Result" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Result2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -2822,24 +2829,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="2" width="2.5703125" style="1" customWidth="1"/>
-    <col min="3" max="11" width="11.5703125" style="1"/>
-    <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="1"/>
-    <col min="14" max="14" width="2.5703125" style="1" customWidth="1"/>
-    <col min="15" max="36" width="11.5703125" style="1"/>
+    <col min="1" max="2" width="2.5546875" style="1" customWidth="1"/>
+    <col min="3" max="11" width="11.5546875" style="1"/>
+    <col min="12" max="12" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="1"/>
+    <col min="14" max="14" width="2.5546875" style="1" customWidth="1"/>
+    <col min="15" max="36" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="14.45" customHeight="1">
+    <row r="1" spans="1:36" ht="14.4" customHeight="1">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -2871,14 +2878,14 @@
       <c r="AA1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="232" t="s">
+      <c r="AG1" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="232"/>
-      <c r="AI1" s="232"/>
-      <c r="AJ1" s="232"/>
-    </row>
-    <row r="2" spans="1:36" ht="14.45" customHeight="1">
+      <c r="AH1" s="194"/>
+      <c r="AI1" s="194"/>
+      <c r="AJ1" s="194"/>
+    </row>
+    <row r="2" spans="1:36" ht="14.4" customHeight="1">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -2893,16 +2900,16 @@
       </c>
       <c r="Y2" s="14"/>
       <c r="AA2" s="15"/>
-      <c r="AG2" s="233" t="s">
+      <c r="AG2" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="233"/>
-      <c r="AI2" s="234" t="s">
+      <c r="AH2" s="195"/>
+      <c r="AI2" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="234"/>
-    </row>
-    <row r="3" spans="1:36" ht="14.45" customHeight="1">
+      <c r="AJ2" s="196"/>
+    </row>
+    <row r="3" spans="1:36" ht="14.4" customHeight="1">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -2933,7 +2940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="14.45" customHeight="1">
+    <row r="4" spans="1:36" ht="14.4" customHeight="1">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -2963,7 +2970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="14.45" customHeight="1">
+    <row r="5" spans="1:36" ht="14.4" customHeight="1">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -2993,7 +3000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="14.45" customHeight="1">
+    <row r="6" spans="1:36" ht="14.4" customHeight="1">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -3042,7 +3049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="14.45" customHeight="1">
+    <row r="7" spans="1:36" ht="14.4" customHeight="1">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -3089,7 +3096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="14.45" customHeight="1">
+    <row r="8" spans="1:36" ht="14.4" customHeight="1">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -3134,7 +3141,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14.45" customHeight="1">
+    <row r="9" spans="1:36" ht="14.4" customHeight="1">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -3186,7 +3193,7 @@
       </c>
       <c r="AG9" s="2"/>
     </row>
-    <row r="10" spans="1:36" ht="14.45" customHeight="1">
+    <row r="10" spans="1:36" ht="14.4" customHeight="1">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -3194,19 +3201,19 @@
       <c r="D10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="235" t="str">
+      <c r="E10" s="197" t="str">
         <f t="shared" ref="E10:E15" si="1">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="F10" s="235"/>
+      <c r="F10" s="197"/>
       <c r="I10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="235" t="str">
+      <c r="J10" s="197" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="K10" s="235"/>
+      <c r="K10" s="197"/>
       <c r="M10" s="12"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="21" t="s">
@@ -3241,7 +3248,7 @@
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
     </row>
-    <row r="11" spans="1:36" ht="14.45" customHeight="1">
+    <row r="11" spans="1:36" ht="14.4" customHeight="1">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3249,19 +3256,19 @@
       <c r="D11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="228" t="str">
+      <c r="E11" s="198" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="228"/>
+      <c r="F11" s="198"/>
       <c r="I11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="231" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="K11" s="231"/>
+      <c r="K11" s="199"/>
       <c r="M11" s="12"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="21" t="s">
@@ -3293,14 +3300,14 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AF11" s="185" t="s">
+      <c r="AF11" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="AG11" s="185" t="s">
+      <c r="AG11" s="180" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.45" customHeight="1">
+    <row r="12" spans="1:36" ht="14.4" customHeight="1">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -3308,19 +3315,19 @@
       <c r="D12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="228" t="str">
+      <c r="E12" s="198" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="228"/>
+      <c r="F12" s="198"/>
       <c r="I12" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="228" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="K12" s="228"/>
+      <c r="K12" s="198"/>
       <c r="M12" s="12"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="21" t="s">
@@ -3352,11 +3359,12 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AF12" s="1" t="s">
+      <c r="AF12" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="13" spans="1:36" ht="14.45" customHeight="1">
+      <c r="AG12" s="2"/>
+    </row>
+    <row r="13" spans="1:36" ht="14.4" customHeight="1">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -3364,19 +3372,19 @@
       <c r="D13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="228" t="str">
+      <c r="E13" s="198" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="228"/>
+      <c r="F13" s="198"/>
       <c r="I13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="228" t="str">
+      <c r="J13" s="198" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="K13" s="228"/>
+      <c r="K13" s="198"/>
       <c r="M13" s="12"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="21" t="s">
@@ -3411,8 +3419,9 @@
       <c r="AF13" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" ht="14.45" customHeight="1">
+      <c r="AG13" s="2"/>
+    </row>
+    <row r="14" spans="1:36" ht="14.4" customHeight="1">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -3420,19 +3429,19 @@
       <c r="D14" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="228" t="str">
+      <c r="E14" s="198" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="228"/>
+      <c r="F14" s="198"/>
       <c r="I14" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="228" t="str">
+      <c r="J14" s="198" t="str">
         <f>IF(V14="","",V14)</f>
         <v/>
       </c>
-      <c r="K14" s="228"/>
+      <c r="K14" s="198"/>
       <c r="M14" s="12"/>
       <c r="O14" s="13"/>
       <c r="Q14" s="21" t="s">
@@ -3467,8 +3476,9 @@
       <c r="AF14" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" ht="14.45" customHeight="1" thickBot="1">
+      <c r="AG14" s="2"/>
+    </row>
+    <row r="15" spans="1:36" ht="14.4" customHeight="1" thickBot="1">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -3476,11 +3486,11 @@
       <c r="D15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="228" t="str">
+      <c r="E15" s="198" t="str">
         <f t="shared" si="1"/>
         <v>IMPAX 4.2 2015</v>
       </c>
-      <c r="F15" s="228"/>
+      <c r="F15" s="198"/>
       <c r="M15" s="12"/>
       <c r="O15" s="26"/>
       <c r="P15" s="27"/>
@@ -3515,8 +3525,9 @@
       <c r="AF15" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="16" spans="1:36" ht="14.45" customHeight="1" thickBot="1">
+      <c r="AG15" s="2"/>
+    </row>
+    <row r="16" spans="1:36" ht="14.4" customHeight="1" thickBot="1">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -3547,8 +3558,9 @@
       <c r="AF16" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" ht="14.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="AG16" s="2"/>
+    </row>
+    <row r="17" spans="1:33" ht="14.4" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -3576,8 +3588,9 @@
       <c r="AF17" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
+      <c r="AG17" s="2"/>
+    </row>
+    <row r="18" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -3614,8 +3627,9 @@
       <c r="AF18" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" ht="14.45" customHeight="1" thickTop="1">
+      <c r="AG18" s="2"/>
+    </row>
+    <row r="19" spans="1:33" ht="14.4" customHeight="1" thickTop="1">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -3630,10 +3644,10 @@
       <c r="H19" s="154"/>
       <c r="I19" s="154"/>
       <c r="J19" s="154"/>
-      <c r="K19" s="230" t="s">
+      <c r="K19" s="201" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="230"/>
+      <c r="L19" s="201"/>
       <c r="M19" s="5"/>
       <c r="O19" s="13"/>
       <c r="R19" s="1" t="s">
@@ -3661,8 +3675,9 @@
       <c r="AF19" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG19" s="2"/>
+    </row>
+    <row r="20" spans="1:33" ht="14.4" customHeight="1">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -3725,8 +3740,9 @@
       <c r="AF20" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG20" s="2"/>
+    </row>
+    <row r="21" spans="1:33" ht="14.4" customHeight="1">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -3780,8 +3796,9 @@
       <c r="AF21" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG21" s="2"/>
+    </row>
+    <row r="22" spans="1:33" ht="14.4" customHeight="1">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -3835,8 +3852,9 @@
       <c r="AF22" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG22" s="2"/>
+    </row>
+    <row r="23" spans="1:33" ht="14.4" customHeight="1">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -3889,8 +3907,9 @@
       <c r="AF23" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG23" s="2"/>
+    </row>
+    <row r="24" spans="1:33" ht="14.4" customHeight="1">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -3898,11 +3917,11 @@
       <c r="D24" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="229" t="str">
+      <c r="E24" s="200" t="str">
         <f>IF(P52="","",P52)</f>
         <v/>
       </c>
-      <c r="F24" s="229"/>
+      <c r="F24" s="200"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -3927,8 +3946,9 @@
       <c r="AF24" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG24" s="2"/>
+    </row>
+    <row r="25" spans="1:33" ht="14.4" customHeight="1">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -3959,8 +3979,9 @@
       <c r="AF25" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG25" s="2"/>
+    </row>
+    <row r="26" spans="1:33" ht="14.4" customHeight="1">
       <c r="A26" s="2">
         <v>26</v>
       </c>
@@ -3979,7 +4000,7 @@
       <c r="S26" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="T26" s="85" t="str">
+      <c r="T26" s="232" t="str">
         <f>IF(AG12="","",AG12)</f>
         <v/>
       </c>
@@ -3990,8 +4011,9 @@
       <c r="AF26" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG26" s="2"/>
+    </row>
+    <row r="27" spans="1:33" ht="14.4" customHeight="1">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -4049,8 +4071,9 @@
       <c r="AF27" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG27" s="2"/>
+    </row>
+    <row r="28" spans="1:33" ht="14.4" customHeight="1">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -4058,7 +4081,7 @@
       <c r="C28" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="168" t="str">
+      <c r="D28" s="144" t="str">
         <f>IF(T26="","",T26)</f>
         <v/>
       </c>
@@ -4089,8 +4112,9 @@
       <c r="AF28" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG28" s="2"/>
+    </row>
+    <row r="29" spans="1:33" ht="14.4" customHeight="1">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -4140,8 +4164,9 @@
       <c r="AF29" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG29" s="2"/>
+    </row>
+    <row r="30" spans="1:33" ht="14.4" customHeight="1">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -4191,8 +4216,9 @@
       <c r="AF30" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG30" s="2"/>
+    </row>
+    <row r="31" spans="1:33" ht="14.4" customHeight="1">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -4239,8 +4265,9 @@
       <c r="AF31" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG31" s="2"/>
+    </row>
+    <row r="32" spans="1:33" ht="14.4" customHeight="1">
       <c r="A32" s="2">
         <v>32</v>
       </c>
@@ -4282,8 +4309,9 @@
       <c r="AF32" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="33" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG32" s="2"/>
+    </row>
+    <row r="33" spans="1:33" ht="14.4" customHeight="1">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -4333,8 +4361,9 @@
       <c r="AF33" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
+      <c r="AG33" s="2"/>
+    </row>
+    <row r="34" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -4395,8 +4424,9 @@
       <c r="AF34" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="35" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG34" s="2"/>
+    </row>
+    <row r="35" spans="1:33" ht="14.4" customHeight="1">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -4452,8 +4482,9 @@
       <c r="AF35" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
+      <c r="AG35" s="2"/>
+    </row>
+    <row r="36" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -4509,8 +4540,9 @@
       <c r="AF36" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="37" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
+      <c r="AG36" s="2"/>
+    </row>
+    <row r="37" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -4565,8 +4597,9 @@
       <c r="AF37" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG37" s="2"/>
+    </row>
+    <row r="38" spans="1:33" ht="14.4" customHeight="1">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -4611,8 +4644,9 @@
       <c r="AF38" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="39" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG38" s="2"/>
+    </row>
+    <row r="39" spans="1:33" ht="14.4" customHeight="1">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -4662,8 +4696,9 @@
       <c r="AF39" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG39" s="2"/>
+    </row>
+    <row r="40" spans="1:33" ht="14.4" customHeight="1">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -4710,8 +4745,9 @@
       <c r="AF40" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
+      <c r="AG40" s="2"/>
+    </row>
+    <row r="41" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -4757,8 +4793,9 @@
       <c r="AF41" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG41" s="2"/>
+    </row>
+    <row r="42" spans="1:33" ht="14.4" customHeight="1">
       <c r="A42" s="2">
         <v>42</v>
       </c>
@@ -4811,8 +4848,9 @@
       <c r="AF42" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="43" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
+      <c r="AG42" s="2"/>
+    </row>
+    <row r="43" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -4868,8 +4906,9 @@
       <c r="AF43" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG43" s="2"/>
+    </row>
+    <row r="44" spans="1:33" ht="14.4" customHeight="1">
       <c r="A44" s="2">
         <v>44</v>
       </c>
@@ -4920,8 +4959,9 @@
       <c r="AF44" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
+      <c r="AG44" s="2"/>
+    </row>
+    <row r="45" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
       <c r="A45" s="2">
         <v>45</v>
       </c>
@@ -4974,8 +5014,9 @@
       <c r="AF45" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
+      <c r="AG45" s="2"/>
+    </row>
+    <row r="46" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
       <c r="A46" s="2">
         <v>46</v>
       </c>
@@ -5022,8 +5063,9 @@
       <c r="AF46" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG46" s="2"/>
+    </row>
+    <row r="47" spans="1:33" ht="14.4" customHeight="1">
       <c r="A47" s="2">
         <v>47</v>
       </c>
@@ -5064,8 +5106,9 @@
       <c r="AF47" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG47" s="2"/>
+    </row>
+    <row r="48" spans="1:33" ht="14.4" customHeight="1">
       <c r="A48" s="2">
         <v>48</v>
       </c>
@@ -5114,8 +5157,9 @@
       <c r="AF48" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="49" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG48" s="2"/>
+    </row>
+    <row r="49" spans="1:33" ht="14.4" customHeight="1">
       <c r="A49" s="2">
         <v>49</v>
       </c>
@@ -5163,8 +5207,9 @@
       <c r="AF49" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="50" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG49" s="2"/>
+    </row>
+    <row r="50" spans="1:33" ht="14.4" customHeight="1">
       <c r="A50" s="2">
         <v>50</v>
       </c>
@@ -5220,8 +5265,9 @@
       <c r="AF50" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="51" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG50" s="2"/>
+    </row>
+    <row r="51" spans="1:33" ht="14.4" customHeight="1">
       <c r="A51" s="2">
         <v>51</v>
       </c>
@@ -5241,7 +5287,7 @@
         <f>R58</f>
         <v>Right ()</v>
       </c>
-      <c r="J51" s="204" t="str">
+      <c r="J51" s="193" t="str">
         <f>IF(R60="","",R60)</f>
         <v/>
       </c>
@@ -5281,15 +5327,16 @@
       <c r="AF51" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="52" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AG51" s="2"/>
+    </row>
+    <row r="52" spans="1:33" ht="14.4" customHeight="1">
       <c r="A52" s="2">
         <v>52</v>
       </c>
       <c r="B52" s="10"/>
       <c r="F52" s="95"/>
       <c r="I52" s="62"/>
-      <c r="J52" s="199"/>
+      <c r="J52" s="192"/>
       <c r="M52" s="12"/>
       <c r="O52" s="84" t="s">
         <v>20</v>
@@ -5321,13 +5368,14 @@
       <c r="AF52" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="53" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
+      <c r="AG52" s="2"/>
+    </row>
+    <row r="53" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
       <c r="A53" s="2">
         <v>53</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="E53" s="199" t="str">
+      <c r="E53" s="192" t="str">
         <f>Q58</f>
         <v>Left ()</v>
       </c>
@@ -5366,8 +5414,12 @@
         <f>IF(S77="","",S77)</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:32" ht="14.45" customHeight="1">
+      <c r="AF53" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG53" s="2"/>
+    </row>
+    <row r="54" spans="1:33" ht="14.4" customHeight="1">
       <c r="A54" s="2">
         <v>54</v>
       </c>
@@ -5375,11 +5427,11 @@
       <c r="D54" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="E54" s="200" t="str">
+      <c r="E54" s="233" t="str">
         <f>IF(Q61="","",Q61)</f>
         <v/>
       </c>
-      <c r="F54" s="201" t="str">
+      <c r="F54" s="234" t="str">
         <f>IF(R61="","",R61)</f>
         <v/>
       </c>
@@ -5401,7 +5453,7 @@
       <c r="X54" s="78"/>
       <c r="Y54" s="14"/>
     </row>
-    <row r="55" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
+    <row r="55" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
       <c r="A55" s="2">
         <v>55</v>
       </c>
@@ -5409,11 +5461,11 @@
       <c r="D55" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="E55" s="202" t="str">
+      <c r="E55" s="235" t="str">
         <f>IF(Q62="","",Q62)</f>
         <v/>
       </c>
-      <c r="F55" s="203" t="str">
+      <c r="F55" s="236" t="str">
         <f>IF(R62="","",R62)</f>
         <v/>
       </c>
@@ -5438,7 +5490,7 @@
       <c r="AC55" s="20"/>
       <c r="AD55" s="20"/>
     </row>
-    <row r="56" spans="1:32" ht="14.45" customHeight="1">
+    <row r="56" spans="1:33" ht="14.4" customHeight="1">
       <c r="A56" s="2">
         <v>56</v>
       </c>
@@ -5468,7 +5520,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="14.45" customHeight="1">
+    <row r="57" spans="1:33" ht="14.4" customHeight="1">
       <c r="A57" s="2">
         <v>57</v>
       </c>
@@ -5515,7 +5567,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
+    <row r="58" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
       <c r="A58" s="2">
         <v>58</v>
       </c>
@@ -5574,7 +5626,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="14.45" customHeight="1">
+    <row r="59" spans="1:33" ht="14.4" customHeight="1">
       <c r="A59" s="2">
         <v>59</v>
       </c>
@@ -5597,23 +5649,23 @@
       <c r="P59" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="Q59" s="186" t="str">
-        <f>IF(AG12="","",AG12+Lamb)</f>
-        <v/>
-      </c>
-      <c r="R59" s="187" t="str">
-        <f>IF(AG13="","",AG13+Lamb)</f>
+      <c r="Q59" s="181" t="str">
+        <f>IF(AG12="","",AG13+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R59" s="182" t="str">
+        <f>IF(AG13="","",AG14+Lamb)</f>
         <v/>
       </c>
       <c r="S59" s="2"/>
-      <c r="T59" s="182" t="s">
+      <c r="T59" s="179" t="s">
         <v>147</v>
       </c>
-      <c r="U59" s="178" t="str">
+      <c r="U59" s="175" t="str">
         <f>IF(AB31="","",AB31)</f>
         <v/>
       </c>
-      <c r="V59" s="179" t="str">
+      <c r="V59" s="176" t="str">
         <f>IF(AB32="","",AB32)</f>
         <v/>
       </c>
@@ -5633,7 +5685,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="14.45" customHeight="1">
+    <row r="60" spans="1:33" ht="14.4" customHeight="1">
       <c r="A60" s="2">
         <v>60</v>
       </c>
@@ -5643,23 +5695,23 @@
       <c r="P60" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="Q60" s="189" t="str">
-        <f>IF(AG14="","",AG14+Lamb)</f>
-        <v/>
-      </c>
-      <c r="R60" s="190" t="str">
-        <f>IF(AG15="","",AG15+Lamb)</f>
+      <c r="Q60" s="184" t="str">
+        <f>IF(AG14="","",AG15+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R60" s="185" t="str">
+        <f>IF(AG15="","",AG16+Lamb)</f>
         <v/>
       </c>
       <c r="S60" s="2"/>
-      <c r="T60" s="182" t="s">
+      <c r="T60" s="179" t="s">
         <v>148</v>
       </c>
-      <c r="U60" s="197" t="str">
+      <c r="U60" s="190" t="str">
         <f>IF(AB33="","",AB33)</f>
         <v/>
       </c>
-      <c r="V60" s="198" t="str">
+      <c r="V60" s="191" t="str">
         <f>IF(AB34="","",AB34)</f>
         <v/>
       </c>
@@ -5679,7 +5731,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="14.45" customHeight="1">
+    <row r="61" spans="1:33" ht="14.4" customHeight="1">
       <c r="A61" s="2">
         <v>61</v>
       </c>
@@ -5689,22 +5741,22 @@
       <c r="P61" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="Q61" s="195" t="str">
+      <c r="Q61" s="225" t="str">
         <f>IF(Q59="","",Q60/Q59)</f>
         <v/>
       </c>
-      <c r="R61" s="196" t="str">
+      <c r="R61" s="226" t="str">
         <f>IF(R59="","",R60/R59)</f>
         <v/>
       </c>
       <c r="T61" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="U61" s="197" t="str">
+      <c r="U61" s="190" t="str">
         <f>IF(AB35="","",AB35)</f>
         <v/>
       </c>
-      <c r="V61" s="198" t="str">
+      <c r="V61" s="191" t="str">
         <f>IF(AB36="","",AB36)</f>
         <v/>
       </c>
@@ -5722,7 +5774,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
+    <row r="62" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
       <c r="A62" s="2">
         <v>62</v>
       </c>
@@ -5732,22 +5784,22 @@
       <c r="P62" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="Q62" s="183" t="str">
+      <c r="Q62" s="227" t="str">
         <f>IF(OR(Q59="",Lamb=""),"",Lamb/Q59)</f>
         <v/>
       </c>
-      <c r="R62" s="184" t="str">
+      <c r="R62" s="228" t="str">
         <f>IF(OR(R59="",Lamb=""),"",Lamb/R59)</f>
         <v/>
       </c>
       <c r="T62" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="U62" s="180" t="str">
+      <c r="U62" s="177" t="str">
         <f>IF(AB37="","",AB37)</f>
         <v/>
       </c>
-      <c r="V62" s="181" t="str">
+      <c r="V62" s="178" t="str">
         <f>IF(AB38="","",AB38)</f>
         <v/>
       </c>
@@ -5765,7 +5817,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="14.45" customHeight="1">
+    <row r="63" spans="1:33" ht="14.4" customHeight="1">
       <c r="A63" s="2">
         <v>63</v>
       </c>
@@ -5775,7 +5827,7 @@
       <c r="P63" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Q63" s="169" t="str">
+      <c r="Q63" s="168" t="str">
         <f>IF(Q65&lt;&gt;"",Q65,IF(AB67="","",AB60))</f>
         <v/>
       </c>
@@ -5791,7 +5843,7 @@
       <c r="AC63" s="20"/>
       <c r="AD63" s="20"/>
     </row>
-    <row r="64" spans="1:32" ht="14.45" customHeight="1" thickBot="1">
+    <row r="64" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
       <c r="A64" s="2">
         <v>64</v>
       </c>
@@ -5836,7 +5888,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="14.45" customHeight="1" thickTop="1">
+    <row r="65" spans="1:30" ht="14.4" customHeight="1" thickTop="1">
       <c r="A65" s="2">
         <v>65</v>
       </c>
@@ -5871,7 +5923,7 @@
       <c r="AC65" s="20"/>
       <c r="AD65" s="20"/>
     </row>
-    <row r="66" spans="1:30" ht="14.45" customHeight="1">
+    <row r="66" spans="1:30" ht="14.4" customHeight="1">
       <c r="A66" s="2">
         <v>66</v>
       </c>
@@ -5910,7 +5962,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="14.45" customHeight="1">
+    <row r="67" spans="1:30" ht="14.4" customHeight="1">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -5939,7 +5991,7 @@
       <c r="AC67" s="20"/>
       <c r="AD67" s="20"/>
     </row>
-    <row r="68" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+    <row r="68" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A68" s="2">
         <v>2</v>
       </c>
@@ -5976,7 +6028,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+    <row r="69" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A69" s="2">
         <v>3</v>
       </c>
@@ -6009,7 +6061,7 @@
       <c r="AC69" s="20"/>
       <c r="AD69" s="20"/>
     </row>
-    <row r="70" spans="1:30" ht="14.45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="70" spans="1:30" ht="14.4" customHeight="1" thickTop="1" thickBot="1">
       <c r="A70" s="2">
         <v>4</v>
       </c>
@@ -6050,22 +6102,22 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+    <row r="71" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A71" s="2">
         <v>5</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="95"/>
-      <c r="D71" s="224" t="str">
+      <c r="D71" s="202" t="str">
         <f>Q86</f>
         <v>UNL-10 (cd/m^2)</v>
       </c>
-      <c r="E71" s="224"/>
-      <c r="F71" s="225" t="str">
+      <c r="E71" s="202"/>
+      <c r="F71" s="203" t="str">
         <f>S86</f>
         <v>UNL-80 (cd/m^2)</v>
       </c>
-      <c r="G71" s="225"/>
+      <c r="G71" s="203"/>
       <c r="I71" s="68" t="s">
         <v>108</v>
       </c>
@@ -6087,7 +6139,7 @@
       <c r="AC71" s="20"/>
       <c r="AD71" s="20"/>
     </row>
-    <row r="72" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+    <row r="72" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A72" s="2">
         <v>6</v>
       </c>
@@ -6144,7 +6196,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="14.45" customHeight="1">
+    <row r="73" spans="1:30" ht="14.4" customHeight="1">
       <c r="A73" s="2">
         <v>7</v>
       </c>
@@ -6181,15 +6233,15 @@
       <c r="Q73" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="R73" s="208"/>
-      <c r="S73" s="212"/>
+      <c r="R73" s="217"/>
+      <c r="S73" s="221"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
-      <c r="V73" s="219" t="str">
+      <c r="V73" s="209" t="str">
         <f>IF(AB48="","",AB48)</f>
         <v/>
       </c>
-      <c r="W73" s="220" t="str">
+      <c r="W73" s="210" t="str">
         <f>IF(AB51="","",AB51)</f>
         <v/>
       </c>
@@ -6199,7 +6251,7 @@
       <c r="AC73" s="20"/>
       <c r="AD73" s="20"/>
     </row>
-    <row r="74" spans="1:30" ht="14.45" customHeight="1">
+    <row r="74" spans="1:30" ht="14.4" customHeight="1">
       <c r="A74" s="2">
         <v>8</v>
       </c>
@@ -6234,12 +6286,12 @@
       <c r="O74" s="13"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="159"/>
-      <c r="R74" s="209"/>
-      <c r="S74" s="213"/>
+      <c r="R74" s="218"/>
+      <c r="S74" s="222"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
-      <c r="V74" s="218"/>
-      <c r="W74" s="221"/>
+      <c r="V74" s="208"/>
+      <c r="W74" s="211"/>
       <c r="X74" s="2"/>
       <c r="Y74" s="14"/>
       <c r="AB74" s="158"/>
@@ -6252,7 +6304,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="14.45" customHeight="1">
+    <row r="75" spans="1:30" ht="14.4" customHeight="1">
       <c r="A75" s="2">
         <v>9</v>
       </c>
@@ -6282,15 +6334,15 @@
       <c r="Q75" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="R75" s="210"/>
-      <c r="S75" s="214"/>
+      <c r="R75" s="219"/>
+      <c r="S75" s="223"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
-      <c r="V75" s="216" t="str">
+      <c r="V75" s="206" t="str">
         <f>IF(AB49="","",AB49)</f>
         <v/>
       </c>
-      <c r="W75" s="222" t="str">
+      <c r="W75" s="212" t="str">
         <f>IF(AB52="","",AB52)</f>
         <v/>
       </c>
@@ -6300,7 +6352,7 @@
       <c r="AC75" s="20"/>
       <c r="AD75" s="20"/>
     </row>
-    <row r="76" spans="1:30" ht="14.45" customHeight="1">
+    <row r="76" spans="1:30" ht="14.4" customHeight="1">
       <c r="A76" s="2">
         <v>10</v>
       </c>
@@ -6334,12 +6386,12 @@
       <c r="O76" s="13"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="159"/>
-      <c r="R76" s="209"/>
-      <c r="S76" s="213"/>
+      <c r="R76" s="218"/>
+      <c r="S76" s="222"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
-      <c r="V76" s="218"/>
-      <c r="W76" s="221"/>
+      <c r="V76" s="208"/>
+      <c r="W76" s="211"/>
       <c r="X76" s="2"/>
       <c r="Y76" s="14"/>
       <c r="AB76" s="158"/>
@@ -6352,7 +6404,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+    <row r="77" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A77" s="2">
         <v>11</v>
       </c>
@@ -6382,15 +6434,15 @@
       <c r="Q77" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="R77" s="210"/>
-      <c r="S77" s="214"/>
+      <c r="R77" s="219"/>
+      <c r="S77" s="223"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
-      <c r="V77" s="216" t="str">
+      <c r="V77" s="206" t="str">
         <f>IF(AB50="","",AB50)</f>
         <v/>
       </c>
-      <c r="W77" s="222" t="str">
+      <c r="W77" s="212" t="str">
         <f>IF(AB53="","",AB53)</f>
         <v/>
       </c>
@@ -6400,7 +6452,7 @@
       <c r="AC77" s="20"/>
       <c r="AD77" s="20"/>
     </row>
-    <row r="78" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+    <row r="78" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A78" s="2">
         <v>12</v>
       </c>
@@ -6409,12 +6461,12 @@
       <c r="O78" s="13"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="159"/>
-      <c r="R78" s="211"/>
-      <c r="S78" s="215"/>
+      <c r="R78" s="220"/>
+      <c r="S78" s="224"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
-      <c r="V78" s="217"/>
-      <c r="W78" s="223"/>
+      <c r="V78" s="207"/>
+      <c r="W78" s="213"/>
       <c r="X78" s="2"/>
       <c r="Y78" s="14"/>
       <c r="AB78" s="158"/>
@@ -6427,7 +6479,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="14.45" customHeight="1">
+    <row r="79" spans="1:30" ht="14.4" customHeight="1">
       <c r="A79" s="2">
         <v>13</v>
       </c>
@@ -6467,7 +6519,7 @@
       <c r="AC79" s="20"/>
       <c r="AD79" s="20"/>
     </row>
-    <row r="80" spans="1:30" ht="14.45" customHeight="1">
+    <row r="80" spans="1:30" ht="14.4" customHeight="1">
       <c r="A80" s="2">
         <v>14</v>
       </c>
@@ -6507,7 +6559,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="14.45" customHeight="1">
+    <row r="81" spans="1:30" ht="14.4" customHeight="1">
       <c r="A81" s="2">
         <v>15</v>
       </c>
@@ -6546,7 +6598,7 @@
       <c r="AC81" s="20"/>
       <c r="AD81" s="20"/>
     </row>
-    <row r="82" spans="1:30" ht="14.45" customHeight="1">
+    <row r="82" spans="1:30" ht="14.4" customHeight="1">
       <c r="A82" s="2">
         <v>16</v>
       </c>
@@ -6578,7 +6630,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+    <row r="83" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A83" s="2">
         <v>17</v>
       </c>
@@ -6615,7 +6667,7 @@
       <c r="AC83" s="20"/>
       <c r="AD83" s="20"/>
     </row>
-    <row r="84" spans="1:30" ht="14.45" customHeight="1">
+    <row r="84" spans="1:30" ht="14.4" customHeight="1">
       <c r="A84" s="2">
         <v>18</v>
       </c>
@@ -6632,16 +6684,16 @@
         <v>Right ()</v>
       </c>
       <c r="H84" s="2"/>
-      <c r="I84" s="226" t="str">
+      <c r="I84" s="204" t="str">
         <f>R68</f>
         <v>Left ()</v>
       </c>
-      <c r="J84" s="226"/>
-      <c r="K84" s="226" t="str">
+      <c r="J84" s="204"/>
+      <c r="K84" s="204" t="str">
         <f>S68</f>
         <v>Right ()</v>
       </c>
-      <c r="L84" s="226"/>
+      <c r="L84" s="204"/>
       <c r="M84" s="12"/>
       <c r="O84" s="13"/>
       <c r="P84" s="2"/>
@@ -6664,7 +6716,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+    <row r="85" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A85" s="2">
         <v>19</v>
       </c>
@@ -6685,16 +6737,16 @@
       <c r="H85" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="I85" s="227" t="str">
+      <c r="I85" s="205" t="str">
         <f>IF(R73="","",R73)</f>
         <v/>
       </c>
-      <c r="J85" s="227"/>
-      <c r="K85" s="227" t="str">
+      <c r="J85" s="205"/>
+      <c r="K85" s="205" t="str">
         <f>IF(S73="","",S73)</f>
         <v/>
       </c>
-      <c r="L85" s="227"/>
+      <c r="L85" s="205"/>
       <c r="M85" s="12"/>
       <c r="O85" s="109" t="s">
         <v>107</v>
@@ -6712,7 +6764,7 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="14"/>
     </row>
-    <row r="86" spans="1:30" ht="14.45" customHeight="1">
+    <row r="86" spans="1:30" ht="14.4" customHeight="1">
       <c r="A86" s="2">
         <v>20</v>
       </c>
@@ -6733,27 +6785,27 @@
       <c r="H86" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="I86" s="227" t="str">
+      <c r="I86" s="205" t="str">
         <f>IF(R75="","",R75)</f>
         <v/>
       </c>
-      <c r="J86" s="227"/>
-      <c r="K86" s="227" t="str">
+      <c r="J86" s="205"/>
+      <c r="K86" s="205" t="str">
         <f>IF(S75="","",S75)</f>
         <v/>
       </c>
-      <c r="L86" s="227"/>
+      <c r="L86" s="205"/>
       <c r="M86" s="12"/>
       <c r="O86" s="13"/>
       <c r="P86" s="2"/>
-      <c r="Q86" s="206" t="s">
+      <c r="Q86" s="215" t="s">
         <v>118</v>
       </c>
-      <c r="R86" s="207"/>
-      <c r="S86" s="206" t="s">
+      <c r="R86" s="216"/>
+      <c r="S86" s="215" t="s">
         <v>119</v>
       </c>
-      <c r="T86" s="207"/>
+      <c r="T86" s="216"/>
       <c r="U86" s="2"/>
       <c r="V86" s="127" t="s">
         <v>44</v>
@@ -6762,7 +6814,7 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="14"/>
     </row>
-    <row r="87" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+    <row r="87" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A87" s="2">
         <v>21</v>
       </c>
@@ -6783,16 +6835,16 @@
       <c r="H87" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="I87" s="205" t="str">
+      <c r="I87" s="214" t="str">
         <f>IF(R77="","",R77)</f>
         <v/>
       </c>
-      <c r="J87" s="205"/>
-      <c r="K87" s="205" t="str">
+      <c r="J87" s="214"/>
+      <c r="K87" s="214" t="str">
         <f>IF(S77="","",S77)</f>
         <v/>
       </c>
-      <c r="L87" s="205"/>
+      <c r="L87" s="214"/>
       <c r="M87" s="12"/>
       <c r="O87" s="13"/>
       <c r="P87" s="2"/>
@@ -6826,7 +6878,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="14.45" customHeight="1">
+    <row r="88" spans="1:30" ht="14.4" customHeight="1">
       <c r="A88" s="2">
         <v>22</v>
       </c>
@@ -6851,20 +6903,20 @@
       <c r="P88" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="Q88" s="186" t="str">
-        <f t="shared" ref="Q88:Q96" si="16">IF(AG16="","",AG16+Lamb)</f>
-        <v/>
-      </c>
-      <c r="R88" s="187" t="str">
-        <f t="shared" ref="R88:R96" si="17">IF(AG25="","",AG25+Lamb)</f>
-        <v/>
-      </c>
-      <c r="S88" s="188" t="str">
-        <f t="shared" ref="S88:S96" si="18">IF(AG34="","",AG34+Lamb)</f>
-        <v/>
-      </c>
-      <c r="T88" s="187" t="str">
-        <f t="shared" ref="T88:T96" si="19">IF(AG43="","",AG43+Lamb)</f>
+      <c r="Q88" s="181" t="str">
+        <f>IF(AG16="","",AG17+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R88" s="182" t="str">
+        <f>IF(AG25="","",AG26+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S88" s="183" t="str">
+        <f>IF(AG34="","",AG35+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T88" s="182" t="str">
+        <f>IF(AG43="","",AG44+Lamb)</f>
         <v/>
       </c>
       <c r="U88" s="2"/>
@@ -6874,24 +6926,24 @@
       </c>
       <c r="X88" s="2"/>
       <c r="Y88" s="14"/>
-      <c r="AA88" s="1" t="e">
+      <c r="AA88" s="231" t="e">
         <f>ABS(Q88-MEDIAN($Q$88:$Q$96))/MEDIAN($Q$88:$Q$96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AB88" s="2" t="e">
+      <c r="AB88" s="231" t="e">
         <f>ABS(R88-MEDIAN($R$88:$R$96))/MEDIAN($R$88:$R$96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AC88" s="2" t="e">
+      <c r="AC88" s="231" t="e">
         <f>ABS(S88-MEDIAN($S$88:$S$96))/MEDIAN($S$88:$S$96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD88" s="2" t="e">
+      <c r="AD88" s="231" t="e">
         <f>ABS(T88-MEDIAN($T$88:$T$96))/MEDIAN($T$88:$T$96)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="14.45" customHeight="1">
+    <row r="89" spans="1:30" ht="14.4" customHeight="1">
       <c r="A89" s="2">
         <v>23</v>
       </c>
@@ -6914,20 +6966,20 @@
       <c r="P89" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="Q89" s="189" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="R89" s="190" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="S89" s="191" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T89" s="190" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q89" s="184" t="str">
+        <f>IF(AG17="","",AG18+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R89" s="185" t="str">
+        <f>IF(AG26="","",AG27+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S89" s="186" t="str">
+        <f>IF(AG35="","",AG36+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T89" s="185" t="str">
+        <f>IF(AG44="","",AG45+Lamb)</f>
         <v/>
       </c>
       <c r="U89" s="2"/>
@@ -6937,24 +6989,24 @@
       </c>
       <c r="X89" s="2"/>
       <c r="Y89" s="14"/>
-      <c r="AA89" s="2" t="e">
-        <f t="shared" ref="AA89:AA96" si="20">ABS(Q89-MEDIAN($Q$88:$Q$96))/MEDIAN($Q$88:$Q$96)</f>
+      <c r="AA89" s="231" t="e">
+        <f t="shared" ref="AA89:AA96" si="16">ABS(Q89-MEDIAN($Q$88:$Q$96))/MEDIAN($Q$88:$Q$96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AB89" s="2" t="e">
-        <f t="shared" ref="AB89:AB96" si="21">ABS(R89-MEDIAN($R$88:$R$96))/MEDIAN($R$88:$R$96)</f>
+      <c r="AB89" s="231" t="e">
+        <f t="shared" ref="AB89:AB96" si="17">ABS(R89-MEDIAN($R$88:$R$96))/MEDIAN($R$88:$R$96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AC89" s="2" t="e">
-        <f t="shared" ref="AC89:AC96" si="22">ABS(S89-MEDIAN($S$88:$S$96))/MEDIAN($S$88:$S$96)</f>
+      <c r="AC89" s="231" t="e">
+        <f t="shared" ref="AC89:AC96" si="18">ABS(S89-MEDIAN($S$88:$S$96))/MEDIAN($S$88:$S$96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD89" s="2" t="e">
-        <f t="shared" ref="AD89:AD96" si="23">ABS(T89-MEDIAN($T$88:$T$96))/MEDIAN($T$88:$T$96)</f>
+      <c r="AD89" s="231" t="e">
+        <f t="shared" ref="AD89:AD96" si="19">ABS(T89-MEDIAN($T$88:$T$96))/MEDIAN($T$88:$T$96)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="14.45" customHeight="1">
+    <row r="90" spans="1:30" ht="14.4" customHeight="1">
       <c r="A90" s="2">
         <v>24</v>
       </c>
@@ -6977,20 +7029,20 @@
       <c r="P90" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="Q90" s="189" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="R90" s="190" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="S90" s="191" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T90" s="190" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q90" s="184" t="str">
+        <f>IF(AG18="","",AG19+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R90" s="185" t="str">
+        <f>IF(AG27="","",AG28+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S90" s="186" t="str">
+        <f>IF(AG36="","",AG37+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T90" s="185" t="str">
+        <f>IF(AG45="","",AG46+Lamb)</f>
         <v/>
       </c>
       <c r="U90" s="2"/>
@@ -6998,24 +7050,24 @@
       <c r="W90" s="2"/>
       <c r="X90" s="2"/>
       <c r="Y90" s="14"/>
-      <c r="AA90" s="2" t="e">
-        <f t="shared" si="20"/>
+      <c r="AA90" s="231" t="e">
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB90" s="2" t="e">
-        <f t="shared" si="21"/>
+      <c r="AB90" s="231" t="e">
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC90" s="2" t="e">
-        <f t="shared" si="22"/>
+      <c r="AC90" s="231" t="e">
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AD90" s="2" t="e">
-        <f t="shared" si="23"/>
+      <c r="AD90" s="231" t="e">
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="14.45" customHeight="1">
+    <row r="91" spans="1:30" ht="14.4" customHeight="1">
       <c r="A91" s="2">
         <v>25</v>
       </c>
@@ -7025,20 +7077,20 @@
       <c r="P91" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="Q91" s="189" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="R91" s="190" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="S91" s="191" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T91" s="190" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q91" s="184" t="str">
+        <f>IF(AG19="","",AG20+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R91" s="185" t="str">
+        <f>IF(AG28="","",AG29+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S91" s="186" t="str">
+        <f>IF(AG37="","",AG38+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T91" s="185" t="str">
+        <f>IF(AG46="","",AG47+Lamb)</f>
         <v/>
       </c>
       <c r="U91" s="2"/>
@@ -7046,24 +7098,24 @@
       <c r="W91" s="2"/>
       <c r="X91" s="2"/>
       <c r="Y91" s="14"/>
-      <c r="AA91" s="2" t="e">
-        <f t="shared" si="20"/>
+      <c r="AA91" s="231" t="e">
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB91" s="2" t="e">
-        <f t="shared" si="21"/>
+      <c r="AB91" s="231" t="e">
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC91" s="2" t="e">
-        <f t="shared" si="22"/>
+      <c r="AC91" s="231" t="e">
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AD91" s="2" t="e">
-        <f t="shared" si="23"/>
+      <c r="AD91" s="231" t="e">
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="14.45" customHeight="1">
+    <row r="92" spans="1:30" ht="14.4" customHeight="1">
       <c r="A92" s="2">
         <v>26</v>
       </c>
@@ -7076,20 +7128,20 @@
       <c r="P92" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="Q92" s="189" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="R92" s="190" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="S92" s="191" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T92" s="190" t="str">
-        <f t="shared" si="19"/>
+      <c r="Q92" s="184" t="str">
+        <f>IF(AG20="","",AG21+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R92" s="185" t="str">
+        <f>IF(AG29="","",AG30+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S92" s="186" t="str">
+        <f>IF(AG38="","",AG39+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T92" s="185" t="str">
+        <f>IF(AG47="","",AG48+Lamb)</f>
         <v/>
       </c>
       <c r="U92" s="2"/>
@@ -7097,24 +7149,24 @@
       <c r="W92" s="2"/>
       <c r="X92" s="2"/>
       <c r="Y92" s="14"/>
-      <c r="AA92" s="2" t="e">
-        <f t="shared" si="20"/>
+      <c r="AA92" s="231" t="e">
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB92" s="2" t="e">
-        <f t="shared" si="21"/>
+      <c r="AB92" s="231" t="e">
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC92" s="2" t="e">
-        <f t="shared" si="22"/>
+      <c r="AC92" s="231" t="e">
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AD92" s="2" t="e">
-        <f t="shared" si="23"/>
+      <c r="AD92" s="231" t="e">
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="14.45" customHeight="1">
+    <row r="93" spans="1:30" ht="14.4" customHeight="1">
       <c r="A93" s="2">
         <v>27</v>
       </c>
@@ -7136,41 +7188,41 @@
       <c r="P93" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="Q93" s="189" t="str">
+      <c r="Q93" s="184" t="str">
+        <f>IF(AG21="","",AG22+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R93" s="185" t="str">
+        <f>IF(AG30="","",AG31+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S93" s="186" t="str">
+        <f>IF(AG39="","",AG40+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T93" s="185" t="str">
+        <f>IF(AG48="","",AG49+Lamb)</f>
+        <v/>
+      </c>
+      <c r="Y93" s="14"/>
+      <c r="AA93" s="231" t="e">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="R93" s="190" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB93" s="231" t="e">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="S93" s="191" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC93" s="231" t="e">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T93" s="190" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD93" s="231" t="e">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Y93" s="14"/>
-      <c r="AA93" s="2" t="e">
-        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB93" s="2" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC93" s="2" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD93" s="2" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="94" spans="1:30" ht="14.45" customHeight="1">
+    </row>
+    <row r="94" spans="1:30" ht="14.4" customHeight="1">
       <c r="A94" s="2">
         <v>28</v>
       </c>
@@ -7192,41 +7244,41 @@
       <c r="P94" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="Q94" s="189" t="str">
+      <c r="Q94" s="184" t="str">
+        <f>IF(AG22="","",AG23+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R94" s="185" t="str">
+        <f>IF(AG31="","",AG32+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S94" s="186" t="str">
+        <f>IF(AG40="","",AG41+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T94" s="185" t="str">
+        <f>IF(AG49="","",AG50+Lamb)</f>
+        <v/>
+      </c>
+      <c r="Y94" s="14"/>
+      <c r="AA94" s="231" t="e">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="R94" s="190" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB94" s="231" t="e">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="S94" s="191" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC94" s="231" t="e">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T94" s="190" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD94" s="231" t="e">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Y94" s="14"/>
-      <c r="AA94" s="2" t="e">
-        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB94" s="2" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC94" s="2" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD94" s="2" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="95" spans="1:30" ht="14.45" customHeight="1">
+    </row>
+    <row r="95" spans="1:30" ht="14.4" customHeight="1">
       <c r="A95" s="2">
         <v>29</v>
       </c>
@@ -7248,41 +7300,41 @@
       <c r="P95" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="Q95" s="189" t="str">
+      <c r="Q95" s="184" t="str">
+        <f>IF(AG23="","",AG24+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R95" s="185" t="str">
+        <f>IF(AG32="","",AG33+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S95" s="186" t="str">
+        <f>IF(AG41="","",AG42+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T95" s="185" t="str">
+        <f>IF(AG50="","",AG51+Lamb)</f>
+        <v/>
+      </c>
+      <c r="Y95" s="14"/>
+      <c r="AA95" s="231" t="e">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="R95" s="190" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB95" s="231" t="e">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="S95" s="191" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC95" s="231" t="e">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T95" s="190" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD95" s="231" t="e">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Y95" s="14"/>
-      <c r="AA95" s="2" t="e">
-        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB95" s="2" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC95" s="2" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD95" s="2" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="96" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
+    </row>
+    <row r="96" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
       <c r="A96" s="2">
         <v>30</v>
       </c>
@@ -7304,41 +7356,41 @@
       <c r="P96" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="Q96" s="192" t="str">
+      <c r="Q96" s="187" t="str">
+        <f>IF(AG24="","",AG25+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R96" s="188" t="str">
+        <f>IF(AG33="","",AG34+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S96" s="189" t="str">
+        <f>IF(AG42="","",AG43+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T96" s="188" t="str">
+        <f>IF(AG51="","",AG52+Lamb)</f>
+        <v/>
+      </c>
+      <c r="Y96" s="14"/>
+      <c r="AA96" s="231" t="e">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="R96" s="193" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB96" s="231" t="e">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="S96" s="194" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC96" s="231" t="e">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T96" s="193" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD96" s="231" t="e">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Y96" s="14"/>
-      <c r="AA96" s="2" t="e">
-        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB96" s="2" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC96" s="2" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD96" s="2" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" ht="14.45" customHeight="1">
+    </row>
+    <row r="97" spans="1:25" ht="14.4" customHeight="1">
       <c r="A97" s="2">
         <v>31</v>
       </c>
@@ -7382,7 +7434,7 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="14"/>
     </row>
-    <row r="98" spans="1:25" ht="14.45" customHeight="1" thickBot="1">
+    <row r="98" spans="1:25" ht="14.4" customHeight="1" thickBot="1">
       <c r="A98" s="2">
         <v>32</v>
       </c>
@@ -7404,19 +7456,19 @@
       <c r="P98" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="Q98" s="172" t="str">
+      <c r="Q98" s="169" t="str">
         <f>IF(Q88="","",STDEV(Q88:Q92))</f>
         <v/>
       </c>
-      <c r="R98" s="173" t="str">
+      <c r="R98" s="170" t="str">
         <f>IF(R88="","",STDEV(R88:R92))</f>
         <v/>
       </c>
-      <c r="S98" s="174" t="str">
+      <c r="S98" s="171" t="str">
         <f>IF(S88="","",STDEV(S88:S92))</f>
         <v/>
       </c>
-      <c r="T98" s="173" t="str">
+      <c r="T98" s="170" t="str">
         <f>IF(T88="","",STDEV(T88:T92))</f>
         <v/>
       </c>
@@ -7426,7 +7478,7 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="14"/>
     </row>
-    <row r="99" spans="1:25" ht="14.45" customHeight="1" thickBot="1">
+    <row r="99" spans="1:25" ht="14.4" customHeight="1" thickBot="1">
       <c r="A99" s="2">
         <v>33</v>
       </c>
@@ -7448,19 +7500,19 @@
       <c r="P99" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="Q99" s="175" t="str">
+      <c r="Q99" s="172" t="str">
         <f>IF(Q88="","",2*(MAX(Q88:Q96)-MIN(Q88:Q96))/(MIN(Q88:Q96)+MAX(Q88:Q96)))</f>
         <v/>
       </c>
-      <c r="R99" s="176" t="str">
+      <c r="R99" s="173" t="str">
         <f>IF(R88="","",2*(MAX(R88:R96)-MIN(R88:R96))/(MIN(R88:R96)+MAX(R88:R96)))</f>
         <v/>
       </c>
-      <c r="S99" s="177" t="str">
+      <c r="S99" s="174" t="str">
         <f>IF(S88="","",2*(MAX(S88:S96)-MIN(S88:S96))/(MIN(S88:S96)+MAX(S88:S96)))</f>
         <v/>
       </c>
-      <c r="T99" s="176" t="str">
+      <c r="T99" s="173" t="str">
         <f>IF(T88="","",2*(MAX(T88:T96)-MIN(T88:T96))/(MIN(T88:T96)+MAX(T88:T96)))</f>
         <v/>
       </c>
@@ -7474,7 +7526,7 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="14"/>
     </row>
-    <row r="100" spans="1:25" ht="14.45" customHeight="1" thickBot="1">
+    <row r="100" spans="1:25" ht="14.4" customHeight="1" thickBot="1">
       <c r="A100" s="2">
         <v>34</v>
       </c>
@@ -7496,19 +7548,19 @@
       <c r="P100" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="Q100" s="170" t="str">
+      <c r="Q100" s="229" t="str">
         <f>IF(Q88="","",MAX(AA88:AA96))</f>
         <v/>
       </c>
-      <c r="R100" s="171" t="str">
+      <c r="R100" s="230" t="str">
         <f>IF(R88="","",MAX(AB88:AB96))</f>
         <v/>
       </c>
-      <c r="S100" s="170" t="str">
+      <c r="S100" s="229" t="str">
         <f>IF(S88="","",MAX(AC88:AC96))</f>
         <v/>
       </c>
-      <c r="T100" s="171" t="str">
+      <c r="T100" s="230" t="str">
         <f>IF(T88="","",MAX(AD88:AD96))</f>
         <v/>
       </c>
@@ -7517,7 +7569,7 @@
       </c>
       <c r="Y100" s="14"/>
     </row>
-    <row r="101" spans="1:25" ht="14.45" customHeight="1">
+    <row r="101" spans="1:25" ht="14.4" customHeight="1">
       <c r="A101" s="2">
         <v>35</v>
       </c>
@@ -7539,7 +7591,7 @@
       <c r="P101" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Q101" s="169" t="str">
+      <c r="Q101" s="168" t="str">
         <f>IF(Q103&lt;&gt;"",Q103,IF(AB62="","",AB62))</f>
         <v/>
       </c>
@@ -7552,7 +7604,7 @@
       <c r="X101" s="90"/>
       <c r="Y101" s="14"/>
     </row>
-    <row r="102" spans="1:25" ht="14.45" customHeight="1">
+    <row r="102" spans="1:25" ht="14.4" customHeight="1">
       <c r="A102" s="2">
         <v>36</v>
       </c>
@@ -7587,7 +7639,7 @@
       <c r="X102" s="78"/>
       <c r="Y102" s="14"/>
     </row>
-    <row r="103" spans="1:25" ht="14.45" customHeight="1">
+    <row r="103" spans="1:25" ht="14.4" customHeight="1">
       <c r="A103" s="2">
         <v>37</v>
       </c>
@@ -7619,7 +7671,7 @@
       <c r="X103" s="78"/>
       <c r="Y103" s="14"/>
     </row>
-    <row r="104" spans="1:25" ht="14.45" customHeight="1" thickBot="1">
+    <row r="104" spans="1:25" ht="14.4" customHeight="1" thickBot="1">
       <c r="A104" s="2">
         <v>38</v>
       </c>
@@ -7649,7 +7701,7 @@
       <c r="X104" s="44"/>
       <c r="Y104" s="28"/>
     </row>
-    <row r="105" spans="1:25" ht="14.45" customHeight="1">
+    <row r="105" spans="1:25" ht="14.4" customHeight="1">
       <c r="A105" s="2">
         <v>39</v>
       </c>
@@ -7679,7 +7731,7 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
     </row>
-    <row r="106" spans="1:25" ht="14.45" customHeight="1" thickBot="1">
+    <row r="106" spans="1:25" ht="14.4" customHeight="1" thickBot="1">
       <c r="A106" s="2">
         <v>40</v>
       </c>
@@ -7711,7 +7763,7 @@
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
     </row>
-    <row r="107" spans="1:25" ht="14.45" customHeight="1">
+    <row r="107" spans="1:25" ht="14.4" customHeight="1">
       <c r="A107" s="2">
         <v>41</v>
       </c>
@@ -7743,7 +7795,7 @@
       <c r="X107" s="7"/>
       <c r="Y107" s="8"/>
     </row>
-    <row r="108" spans="1:25" ht="14.45" customHeight="1">
+    <row r="108" spans="1:25" ht="14.4" customHeight="1">
       <c r="A108" s="2">
         <v>42</v>
       </c>
@@ -7778,7 +7830,7 @@
       <c r="X108" s="90"/>
       <c r="Y108" s="14"/>
     </row>
-    <row r="109" spans="1:25" ht="14.45" customHeight="1">
+    <row r="109" spans="1:25" ht="14.4" customHeight="1">
       <c r="A109" s="2">
         <v>43</v>
       </c>
@@ -7813,7 +7865,7 @@
       <c r="X109" s="78"/>
       <c r="Y109" s="14"/>
     </row>
-    <row r="110" spans="1:25" ht="14.45" customHeight="1">
+    <row r="110" spans="1:25" ht="14.4" customHeight="1">
       <c r="A110" s="2">
         <v>44</v>
       </c>
@@ -7848,7 +7900,7 @@
       <c r="X110" s="90"/>
       <c r="Y110" s="14"/>
     </row>
-    <row r="111" spans="1:25" ht="14.45" customHeight="1">
+    <row r="111" spans="1:25" ht="14.4" customHeight="1">
       <c r="A111" s="2">
         <v>45</v>
       </c>
@@ -7883,7 +7935,7 @@
       <c r="X111" s="78"/>
       <c r="Y111" s="14"/>
     </row>
-    <row r="112" spans="1:25" ht="14.45" customHeight="1">
+    <row r="112" spans="1:25" ht="14.4" customHeight="1">
       <c r="A112" s="2">
         <v>46</v>
       </c>
@@ -7918,7 +7970,7 @@
       <c r="X112" s="90"/>
       <c r="Y112" s="14"/>
     </row>
-    <row r="113" spans="1:25" ht="14.45" customHeight="1">
+    <row r="113" spans="1:25" ht="14.4" customHeight="1">
       <c r="A113" s="2">
         <v>47</v>
       </c>
@@ -7953,7 +8005,7 @@
       <c r="X113" s="78"/>
       <c r="Y113" s="14"/>
     </row>
-    <row r="114" spans="1:25" ht="14.45" customHeight="1">
+    <row r="114" spans="1:25" ht="14.4" customHeight="1">
       <c r="A114" s="2">
         <v>48</v>
       </c>
@@ -7988,7 +8040,7 @@
       <c r="X114" s="90"/>
       <c r="Y114" s="14"/>
     </row>
-    <row r="115" spans="1:25" ht="14.45" customHeight="1">
+    <row r="115" spans="1:25" ht="14.4" customHeight="1">
       <c r="A115" s="2">
         <v>49</v>
       </c>
@@ -8023,7 +8075,7 @@
       <c r="X115" s="78"/>
       <c r="Y115" s="14"/>
     </row>
-    <row r="116" spans="1:25" ht="14.45" customHeight="1">
+    <row r="116" spans="1:25" ht="14.4" customHeight="1">
       <c r="A116" s="2">
         <v>50</v>
       </c>
@@ -8058,7 +8110,7 @@
       <c r="X116" s="90"/>
       <c r="Y116" s="14"/>
     </row>
-    <row r="117" spans="1:25" ht="14.45" customHeight="1">
+    <row r="117" spans="1:25" ht="14.4" customHeight="1">
       <c r="A117" s="2">
         <v>51</v>
       </c>
@@ -8093,7 +8145,7 @@
       <c r="X117" s="78"/>
       <c r="Y117" s="14"/>
     </row>
-    <row r="118" spans="1:25" ht="14.45" customHeight="1">
+    <row r="118" spans="1:25" ht="14.4" customHeight="1">
       <c r="A118" s="2">
         <v>52</v>
       </c>
@@ -8128,7 +8180,7 @@
       <c r="X118" s="90"/>
       <c r="Y118" s="14"/>
     </row>
-    <row r="119" spans="1:25" ht="14.45" customHeight="1">
+    <row r="119" spans="1:25" ht="14.4" customHeight="1">
       <c r="A119" s="2">
         <v>53</v>
       </c>
@@ -8163,7 +8215,7 @@
       <c r="X119" s="78"/>
       <c r="Y119" s="14"/>
     </row>
-    <row r="120" spans="1:25" ht="14.45" customHeight="1">
+    <row r="120" spans="1:25" ht="14.4" customHeight="1">
       <c r="A120" s="2">
         <v>54</v>
       </c>
@@ -8198,7 +8250,7 @@
       <c r="X120" s="90"/>
       <c r="Y120" s="14"/>
     </row>
-    <row r="121" spans="1:25" ht="14.45" customHeight="1">
+    <row r="121" spans="1:25" ht="14.4" customHeight="1">
       <c r="A121" s="2">
         <v>55</v>
       </c>
@@ -8233,7 +8285,7 @@
       <c r="X121" s="78"/>
       <c r="Y121" s="14"/>
     </row>
-    <row r="122" spans="1:25" ht="14.45" customHeight="1">
+    <row r="122" spans="1:25" ht="14.4" customHeight="1">
       <c r="A122" s="2">
         <v>56</v>
       </c>
@@ -8268,7 +8320,7 @@
       <c r="X122" s="90"/>
       <c r="Y122" s="14"/>
     </row>
-    <row r="123" spans="1:25" ht="14.45" customHeight="1">
+    <row r="123" spans="1:25" ht="14.4" customHeight="1">
       <c r="A123" s="2">
         <v>57</v>
       </c>
@@ -8303,7 +8355,7 @@
       <c r="X123" s="78"/>
       <c r="Y123" s="14"/>
     </row>
-    <row r="124" spans="1:25" ht="14.45" customHeight="1">
+    <row r="124" spans="1:25" ht="14.4" customHeight="1">
       <c r="A124" s="2">
         <v>58</v>
       </c>
@@ -8338,7 +8390,7 @@
       <c r="X124" s="90"/>
       <c r="Y124" s="14"/>
     </row>
-    <row r="125" spans="1:25" ht="14.45" customHeight="1">
+    <row r="125" spans="1:25" ht="14.4" customHeight="1">
       <c r="A125" s="2">
         <v>59</v>
       </c>
@@ -8373,7 +8425,7 @@
       <c r="X125" s="78"/>
       <c r="Y125" s="14"/>
     </row>
-    <row r="126" spans="1:25" ht="14.45" customHeight="1">
+    <row r="126" spans="1:25" ht="14.4" customHeight="1">
       <c r="A126" s="2">
         <v>60</v>
       </c>
@@ -8396,7 +8448,7 @@
       <c r="X126" s="90"/>
       <c r="Y126" s="14"/>
     </row>
-    <row r="127" spans="1:25" ht="14.45" customHeight="1">
+    <row r="127" spans="1:25" ht="14.4" customHeight="1">
       <c r="A127" s="2">
         <v>61</v>
       </c>
@@ -8419,7 +8471,7 @@
       <c r="X127" s="78"/>
       <c r="Y127" s="14"/>
     </row>
-    <row r="128" spans="1:25" ht="14.45" customHeight="1">
+    <row r="128" spans="1:25" ht="14.4" customHeight="1">
       <c r="A128" s="2">
         <v>62</v>
       </c>
@@ -8442,7 +8494,7 @@
       <c r="X128" s="90"/>
       <c r="Y128" s="14"/>
     </row>
-    <row r="129" spans="1:25" ht="14.45" customHeight="1">
+    <row r="129" spans="1:25" ht="14.4" customHeight="1">
       <c r="A129" s="2">
         <v>63</v>
       </c>
@@ -8465,7 +8517,7 @@
       <c r="X129" s="78"/>
       <c r="Y129" s="14"/>
     </row>
-    <row r="130" spans="1:25" ht="14.45" customHeight="1" thickBot="1">
+    <row r="130" spans="1:25" ht="14.4" customHeight="1" thickBot="1">
       <c r="A130" s="2">
         <v>64</v>
       </c>
@@ -8493,7 +8545,7 @@
       <c r="X130" s="44"/>
       <c r="Y130" s="28"/>
     </row>
-    <row r="131" spans="1:25" ht="14.45" customHeight="1" thickTop="1">
+    <row r="131" spans="1:25" ht="14.4" customHeight="1" thickTop="1">
       <c r="A131" s="2">
         <v>65</v>
       </c>
@@ -8512,7 +8564,7 @@
         <v>Eugene Mah</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="14.45" customHeight="1">
+    <row r="132" spans="1:25" ht="14.4" customHeight="1">
       <c r="A132" s="2">
         <v>66</v>
       </c>
@@ -8545,34 +8597,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="40">
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="V77:V78"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="W73:W74"/>
-    <mergeCell ref="W75:W76"/>
-    <mergeCell ref="W77:W78"/>
     <mergeCell ref="I87:J87"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="Q86:R86"/>
@@ -8585,6 +8609,34 @@
     <mergeCell ref="S77:S78"/>
     <mergeCell ref="I86:J86"/>
     <mergeCell ref="K86:L86"/>
+    <mergeCell ref="V77:V78"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="V73:V74"/>
+    <mergeCell ref="W73:W74"/>
+    <mergeCell ref="W75:W76"/>
+    <mergeCell ref="W77:W78"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <conditionalFormatting sqref="I72:I74">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">

--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\workspace\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D86285C-5C96-4B5B-8074-696614E77EB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6861AF77-9C69-4059-93C2-C46413026BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2118,18 +2118,6 @@
     <xf numFmtId="169" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2163,18 +2151,48 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="47" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="39" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2268,40 +2286,22 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="47" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="39" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2833,7 +2833,7 @@
   <dimension ref="A1:AJ132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2878,12 +2878,12 @@
       <c r="AA1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="194" t="s">
+      <c r="AG1" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="194"/>
-      <c r="AI1" s="194"/>
-      <c r="AJ1" s="194"/>
+      <c r="AH1" s="200"/>
+      <c r="AI1" s="200"/>
+      <c r="AJ1" s="200"/>
     </row>
     <row r="2" spans="1:36" ht="14.4" customHeight="1">
       <c r="A2" s="2">
@@ -2900,14 +2900,14 @@
       </c>
       <c r="Y2" s="14"/>
       <c r="AA2" s="15"/>
-      <c r="AG2" s="195" t="s">
+      <c r="AG2" s="201" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="195"/>
-      <c r="AI2" s="196" t="s">
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="196"/>
+      <c r="AJ2" s="202"/>
     </row>
     <row r="3" spans="1:36" ht="14.4" customHeight="1">
       <c r="A3" s="2">
@@ -3201,19 +3201,19 @@
       <c r="D10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="197" t="str">
+      <c r="E10" s="203" t="str">
         <f t="shared" ref="E10:E15" si="1">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="F10" s="197"/>
+      <c r="F10" s="203"/>
       <c r="I10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="197" t="str">
+      <c r="J10" s="203" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="K10" s="197"/>
+      <c r="K10" s="203"/>
       <c r="M10" s="12"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="21" t="s">
@@ -3256,19 +3256,19 @@
       <c r="D11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="204" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="198"/>
+      <c r="F11" s="204"/>
       <c r="I11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="205" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="K11" s="199"/>
+      <c r="K11" s="205"/>
       <c r="M11" s="12"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="21" t="s">
@@ -3300,10 +3300,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AF11" s="180" t="s">
+      <c r="AF11" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="AG11" s="180" t="s">
+      <c r="AG11" s="176" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3315,19 +3315,19 @@
       <c r="D12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="204" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="198"/>
+      <c r="F12" s="204"/>
       <c r="I12" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="204" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="K12" s="198"/>
+      <c r="K12" s="204"/>
       <c r="M12" s="12"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="21" t="s">
@@ -3372,19 +3372,19 @@
       <c r="D13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="198" t="str">
+      <c r="E13" s="204" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="198"/>
+      <c r="F13" s="204"/>
       <c r="I13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="198" t="str">
+      <c r="J13" s="204" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="K13" s="198"/>
+      <c r="K13" s="204"/>
       <c r="M13" s="12"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="21" t="s">
@@ -3429,19 +3429,19 @@
       <c r="D14" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="198" t="str">
+      <c r="E14" s="204" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="198"/>
+      <c r="F14" s="204"/>
       <c r="I14" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="198" t="str">
+      <c r="J14" s="204" t="str">
         <f>IF(V14="","",V14)</f>
         <v/>
       </c>
-      <c r="K14" s="198"/>
+      <c r="K14" s="204"/>
       <c r="M14" s="12"/>
       <c r="O14" s="13"/>
       <c r="Q14" s="21" t="s">
@@ -3486,11 +3486,11 @@
       <c r="D15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="198" t="str">
+      <c r="E15" s="204" t="str">
         <f t="shared" si="1"/>
         <v>IMPAX 4.2 2015</v>
       </c>
-      <c r="F15" s="198"/>
+      <c r="F15" s="204"/>
       <c r="M15" s="12"/>
       <c r="O15" s="26"/>
       <c r="P15" s="27"/>
@@ -3644,10 +3644,10 @@
       <c r="H19" s="154"/>
       <c r="I19" s="154"/>
       <c r="J19" s="154"/>
-      <c r="K19" s="201" t="s">
+      <c r="K19" s="207" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="201"/>
+      <c r="L19" s="207"/>
       <c r="M19" s="5"/>
       <c r="O19" s="13"/>
       <c r="R19" s="1" t="s">
@@ -3917,11 +3917,11 @@
       <c r="D24" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="200" t="str">
+      <c r="E24" s="206" t="str">
         <f>IF(P52="","",P52)</f>
         <v/>
       </c>
-      <c r="F24" s="200"/>
+      <c r="F24" s="206"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -4000,7 +4000,7 @@
       <c r="S26" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="T26" s="232" t="str">
+      <c r="T26" s="195" t="str">
         <f>IF(AG12="","",AG12)</f>
         <v/>
       </c>
@@ -5287,7 +5287,7 @@
         <f>R58</f>
         <v>Right ()</v>
       </c>
-      <c r="J51" s="193" t="str">
+      <c r="J51" s="187" t="str">
         <f>IF(R60="","",R60)</f>
         <v/>
       </c>
@@ -5336,7 +5336,7 @@
       <c r="B52" s="10"/>
       <c r="F52" s="95"/>
       <c r="I52" s="62"/>
-      <c r="J52" s="192"/>
+      <c r="J52" s="186"/>
       <c r="M52" s="12"/>
       <c r="O52" s="84" t="s">
         <v>20</v>
@@ -5375,7 +5375,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="E53" s="192" t="str">
+      <c r="E53" s="186" t="str">
         <f>Q58</f>
         <v>Left ()</v>
       </c>
@@ -5427,11 +5427,11 @@
       <c r="D54" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="E54" s="233" t="str">
+      <c r="E54" s="196" t="str">
         <f>IF(Q61="","",Q61)</f>
         <v/>
       </c>
-      <c r="F54" s="234" t="str">
+      <c r="F54" s="197" t="str">
         <f>IF(R61="","",R61)</f>
         <v/>
       </c>
@@ -5461,11 +5461,11 @@
       <c r="D55" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="E55" s="235" t="str">
+      <c r="E55" s="198" t="str">
         <f>IF(Q62="","",Q62)</f>
         <v/>
       </c>
-      <c r="F55" s="236" t="str">
+      <c r="F55" s="199" t="str">
         <f>IF(R62="","",R62)</f>
         <v/>
       </c>
@@ -5649,23 +5649,23 @@
       <c r="P59" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="Q59" s="181" t="str">
+      <c r="Q59" s="177" t="str">
         <f>IF(AG12="","",AG13+Lamb)</f>
         <v/>
       </c>
-      <c r="R59" s="182" t="str">
+      <c r="R59" s="178" t="str">
         <f>IF(AG13="","",AG14+Lamb)</f>
         <v/>
       </c>
       <c r="S59" s="2"/>
-      <c r="T59" s="179" t="s">
+      <c r="T59" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="U59" s="175" t="str">
+      <c r="U59" s="231" t="str">
         <f>IF(AB31="","",AB31)</f>
         <v/>
       </c>
-      <c r="V59" s="176" t="str">
+      <c r="V59" s="232" t="str">
         <f>IF(AB32="","",AB32)</f>
         <v/>
       </c>
@@ -5695,23 +5695,23 @@
       <c r="P60" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="Q60" s="184" t="str">
+      <c r="Q60" s="180" t="str">
         <f>IF(AG14="","",AG15+Lamb)</f>
         <v/>
       </c>
-      <c r="R60" s="185" t="str">
+      <c r="R60" s="181" t="str">
         <f>IF(AG15="","",AG16+Lamb)</f>
         <v/>
       </c>
       <c r="S60" s="2"/>
-      <c r="T60" s="179" t="s">
+      <c r="T60" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="U60" s="190" t="str">
+      <c r="U60" s="233" t="str">
         <f>IF(AB33="","",AB33)</f>
         <v/>
       </c>
-      <c r="V60" s="191" t="str">
+      <c r="V60" s="234" t="str">
         <f>IF(AB34="","",AB34)</f>
         <v/>
       </c>
@@ -5741,22 +5741,22 @@
       <c r="P61" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="Q61" s="225" t="str">
+      <c r="Q61" s="188" t="str">
         <f>IF(Q59="","",Q60/Q59)</f>
         <v/>
       </c>
-      <c r="R61" s="226" t="str">
+      <c r="R61" s="189" t="str">
         <f>IF(R59="","",R60/R59)</f>
         <v/>
       </c>
       <c r="T61" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="U61" s="190" t="str">
+      <c r="U61" s="233" t="str">
         <f>IF(AB35="","",AB35)</f>
         <v/>
       </c>
-      <c r="V61" s="191" t="str">
+      <c r="V61" s="234" t="str">
         <f>IF(AB36="","",AB36)</f>
         <v/>
       </c>
@@ -5784,22 +5784,22 @@
       <c r="P62" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="Q62" s="227" t="str">
+      <c r="Q62" s="190" t="str">
         <f>IF(OR(Q59="",Lamb=""),"",Lamb/Q59)</f>
         <v/>
       </c>
-      <c r="R62" s="228" t="str">
+      <c r="R62" s="191" t="str">
         <f>IF(OR(R59="",Lamb=""),"",Lamb/R59)</f>
         <v/>
       </c>
       <c r="T62" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="U62" s="177" t="str">
+      <c r="U62" s="235" t="str">
         <f>IF(AB37="","",AB37)</f>
         <v/>
       </c>
-      <c r="V62" s="178" t="str">
+      <c r="V62" s="236" t="str">
         <f>IF(AB38="","",AB38)</f>
         <v/>
       </c>
@@ -6108,16 +6108,16 @@
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="95"/>
-      <c r="D71" s="202" t="str">
+      <c r="D71" s="208" t="str">
         <f>Q86</f>
         <v>UNL-10 (cd/m^2)</v>
       </c>
-      <c r="E71" s="202"/>
-      <c r="F71" s="203" t="str">
+      <c r="E71" s="208"/>
+      <c r="F71" s="209" t="str">
         <f>S86</f>
         <v>UNL-80 (cd/m^2)</v>
       </c>
-      <c r="G71" s="203"/>
+      <c r="G71" s="209"/>
       <c r="I71" s="68" t="s">
         <v>108</v>
       </c>
@@ -6233,15 +6233,15 @@
       <c r="Q73" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="R73" s="217"/>
-      <c r="S73" s="221"/>
+      <c r="R73" s="223"/>
+      <c r="S73" s="227"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
-      <c r="V73" s="209" t="str">
+      <c r="V73" s="215" t="str">
         <f>IF(AB48="","",AB48)</f>
         <v/>
       </c>
-      <c r="W73" s="210" t="str">
+      <c r="W73" s="216" t="str">
         <f>IF(AB51="","",AB51)</f>
         <v/>
       </c>
@@ -6286,12 +6286,12 @@
       <c r="O74" s="13"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="159"/>
-      <c r="R74" s="218"/>
-      <c r="S74" s="222"/>
+      <c r="R74" s="224"/>
+      <c r="S74" s="228"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
-      <c r="V74" s="208"/>
-      <c r="W74" s="211"/>
+      <c r="V74" s="214"/>
+      <c r="W74" s="217"/>
       <c r="X74" s="2"/>
       <c r="Y74" s="14"/>
       <c r="AB74" s="158"/>
@@ -6334,15 +6334,15 @@
       <c r="Q75" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="R75" s="219"/>
-      <c r="S75" s="223"/>
+      <c r="R75" s="225"/>
+      <c r="S75" s="229"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
-      <c r="V75" s="206" t="str">
+      <c r="V75" s="212" t="str">
         <f>IF(AB49="","",AB49)</f>
         <v/>
       </c>
-      <c r="W75" s="212" t="str">
+      <c r="W75" s="218" t="str">
         <f>IF(AB52="","",AB52)</f>
         <v/>
       </c>
@@ -6386,12 +6386,12 @@
       <c r="O76" s="13"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="159"/>
-      <c r="R76" s="218"/>
-      <c r="S76" s="222"/>
+      <c r="R76" s="224"/>
+      <c r="S76" s="228"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
-      <c r="V76" s="208"/>
-      <c r="W76" s="211"/>
+      <c r="V76" s="214"/>
+      <c r="W76" s="217"/>
       <c r="X76" s="2"/>
       <c r="Y76" s="14"/>
       <c r="AB76" s="158"/>
@@ -6434,15 +6434,15 @@
       <c r="Q77" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="R77" s="219"/>
-      <c r="S77" s="223"/>
+      <c r="R77" s="225"/>
+      <c r="S77" s="229"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
-      <c r="V77" s="206" t="str">
+      <c r="V77" s="212" t="str">
         <f>IF(AB50="","",AB50)</f>
         <v/>
       </c>
-      <c r="W77" s="212" t="str">
+      <c r="W77" s="218" t="str">
         <f>IF(AB53="","",AB53)</f>
         <v/>
       </c>
@@ -6461,12 +6461,12 @@
       <c r="O78" s="13"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="159"/>
-      <c r="R78" s="220"/>
-      <c r="S78" s="224"/>
+      <c r="R78" s="226"/>
+      <c r="S78" s="230"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
-      <c r="V78" s="207"/>
-      <c r="W78" s="213"/>
+      <c r="V78" s="213"/>
+      <c r="W78" s="219"/>
       <c r="X78" s="2"/>
       <c r="Y78" s="14"/>
       <c r="AB78" s="158"/>
@@ -6684,16 +6684,16 @@
         <v>Right ()</v>
       </c>
       <c r="H84" s="2"/>
-      <c r="I84" s="204" t="str">
+      <c r="I84" s="210" t="str">
         <f>R68</f>
         <v>Left ()</v>
       </c>
-      <c r="J84" s="204"/>
-      <c r="K84" s="204" t="str">
+      <c r="J84" s="210"/>
+      <c r="K84" s="210" t="str">
         <f>S68</f>
         <v>Right ()</v>
       </c>
-      <c r="L84" s="204"/>
+      <c r="L84" s="210"/>
       <c r="M84" s="12"/>
       <c r="O84" s="13"/>
       <c r="P84" s="2"/>
@@ -6737,16 +6737,16 @@
       <c r="H85" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="I85" s="205" t="str">
+      <c r="I85" s="211" t="str">
         <f>IF(R73="","",R73)</f>
         <v/>
       </c>
-      <c r="J85" s="205"/>
-      <c r="K85" s="205" t="str">
+      <c r="J85" s="211"/>
+      <c r="K85" s="211" t="str">
         <f>IF(S73="","",S73)</f>
         <v/>
       </c>
-      <c r="L85" s="205"/>
+      <c r="L85" s="211"/>
       <c r="M85" s="12"/>
       <c r="O85" s="109" t="s">
         <v>107</v>
@@ -6785,27 +6785,27 @@
       <c r="H86" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="I86" s="205" t="str">
+      <c r="I86" s="211" t="str">
         <f>IF(R75="","",R75)</f>
         <v/>
       </c>
-      <c r="J86" s="205"/>
-      <c r="K86" s="205" t="str">
+      <c r="J86" s="211"/>
+      <c r="K86" s="211" t="str">
         <f>IF(S75="","",S75)</f>
         <v/>
       </c>
-      <c r="L86" s="205"/>
+      <c r="L86" s="211"/>
       <c r="M86" s="12"/>
       <c r="O86" s="13"/>
       <c r="P86" s="2"/>
-      <c r="Q86" s="215" t="s">
+      <c r="Q86" s="221" t="s">
         <v>118</v>
       </c>
-      <c r="R86" s="216"/>
-      <c r="S86" s="215" t="s">
+      <c r="R86" s="222"/>
+      <c r="S86" s="221" t="s">
         <v>119</v>
       </c>
-      <c r="T86" s="216"/>
+      <c r="T86" s="222"/>
       <c r="U86" s="2"/>
       <c r="V86" s="127" t="s">
         <v>44</v>
@@ -6835,16 +6835,16 @@
       <c r="H87" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="I87" s="214" t="str">
+      <c r="I87" s="220" t="str">
         <f>IF(R77="","",R77)</f>
         <v/>
       </c>
-      <c r="J87" s="214"/>
-      <c r="K87" s="214" t="str">
+      <c r="J87" s="220"/>
+      <c r="K87" s="220" t="str">
         <f>IF(S77="","",S77)</f>
         <v/>
       </c>
-      <c r="L87" s="214"/>
+      <c r="L87" s="220"/>
       <c r="M87" s="12"/>
       <c r="O87" s="13"/>
       <c r="P87" s="2"/>
@@ -6903,20 +6903,20 @@
       <c r="P88" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="Q88" s="181" t="str">
-        <f>IF(AG16="","",AG17+Lamb)</f>
-        <v/>
-      </c>
-      <c r="R88" s="182" t="str">
-        <f>IF(AG25="","",AG26+Lamb)</f>
-        <v/>
-      </c>
-      <c r="S88" s="183" t="str">
-        <f>IF(AG34="","",AG35+Lamb)</f>
-        <v/>
-      </c>
-      <c r="T88" s="182" t="str">
-        <f>IF(AG43="","",AG44+Lamb)</f>
+      <c r="Q88" s="177" t="str">
+        <f t="shared" ref="Q88:Q96" si="16">IF(AG17="","",AG17+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R88" s="178" t="str">
+        <f t="shared" ref="R88:R96" si="17">IF(AG26="","",AG26+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S88" s="179" t="str">
+        <f t="shared" ref="S88:S96" si="18">IF(AG35="","",AG35+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T88" s="178" t="str">
+        <f t="shared" ref="T88:T96" si="19">IF(AG44="","",AG44+Lamb)</f>
         <v/>
       </c>
       <c r="U88" s="2"/>
@@ -6926,19 +6926,19 @@
       </c>
       <c r="X88" s="2"/>
       <c r="Y88" s="14"/>
-      <c r="AA88" s="231" t="e">
+      <c r="AA88" s="194" t="e">
         <f>ABS(Q88-MEDIAN($Q$88:$Q$96))/MEDIAN($Q$88:$Q$96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AB88" s="231" t="e">
+      <c r="AB88" s="194" t="e">
         <f>ABS(R88-MEDIAN($R$88:$R$96))/MEDIAN($R$88:$R$96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AC88" s="231" t="e">
+      <c r="AC88" s="194" t="e">
         <f>ABS(S88-MEDIAN($S$88:$S$96))/MEDIAN($S$88:$S$96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD88" s="231" t="e">
+      <c r="AD88" s="194" t="e">
         <f>ABS(T88-MEDIAN($T$88:$T$96))/MEDIAN($T$88:$T$96)</f>
         <v>#VALUE!</v>
       </c>
@@ -6966,20 +6966,20 @@
       <c r="P89" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="Q89" s="184" t="str">
-        <f>IF(AG17="","",AG18+Lamb)</f>
-        <v/>
-      </c>
-      <c r="R89" s="185" t="str">
-        <f>IF(AG26="","",AG27+Lamb)</f>
-        <v/>
-      </c>
-      <c r="S89" s="186" t="str">
-        <f>IF(AG35="","",AG36+Lamb)</f>
-        <v/>
-      </c>
-      <c r="T89" s="185" t="str">
-        <f>IF(AG44="","",AG45+Lamb)</f>
+      <c r="Q89" s="180" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R89" s="181" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S89" s="182" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T89" s="181" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U89" s="2"/>
@@ -6989,20 +6989,20 @@
       </c>
       <c r="X89" s="2"/>
       <c r="Y89" s="14"/>
-      <c r="AA89" s="231" t="e">
-        <f t="shared" ref="AA89:AA96" si="16">ABS(Q89-MEDIAN($Q$88:$Q$96))/MEDIAN($Q$88:$Q$96)</f>
+      <c r="AA89" s="194" t="e">
+        <f t="shared" ref="AA89:AA96" si="20">ABS(Q89-MEDIAN($Q$88:$Q$96))/MEDIAN($Q$88:$Q$96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AB89" s="231" t="e">
-        <f t="shared" ref="AB89:AB96" si="17">ABS(R89-MEDIAN($R$88:$R$96))/MEDIAN($R$88:$R$96)</f>
+      <c r="AB89" s="194" t="e">
+        <f t="shared" ref="AB89:AB96" si="21">ABS(R89-MEDIAN($R$88:$R$96))/MEDIAN($R$88:$R$96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AC89" s="231" t="e">
-        <f t="shared" ref="AC89:AC96" si="18">ABS(S89-MEDIAN($S$88:$S$96))/MEDIAN($S$88:$S$96)</f>
+      <c r="AC89" s="194" t="e">
+        <f t="shared" ref="AC89:AC96" si="22">ABS(S89-MEDIAN($S$88:$S$96))/MEDIAN($S$88:$S$96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD89" s="231" t="e">
-        <f t="shared" ref="AD89:AD96" si="19">ABS(T89-MEDIAN($T$88:$T$96))/MEDIAN($T$88:$T$96)</f>
+      <c r="AD89" s="194" t="e">
+        <f t="shared" ref="AD89:AD96" si="23">ABS(T89-MEDIAN($T$88:$T$96))/MEDIAN($T$88:$T$96)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7029,20 +7029,20 @@
       <c r="P90" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="Q90" s="184" t="str">
-        <f>IF(AG18="","",AG19+Lamb)</f>
-        <v/>
-      </c>
-      <c r="R90" s="185" t="str">
-        <f>IF(AG27="","",AG28+Lamb)</f>
-        <v/>
-      </c>
-      <c r="S90" s="186" t="str">
-        <f>IF(AG36="","",AG37+Lamb)</f>
-        <v/>
-      </c>
-      <c r="T90" s="185" t="str">
-        <f>IF(AG45="","",AG46+Lamb)</f>
+      <c r="Q90" s="180" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R90" s="181" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S90" s="182" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T90" s="181" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U90" s="2"/>
@@ -7050,20 +7050,20 @@
       <c r="W90" s="2"/>
       <c r="X90" s="2"/>
       <c r="Y90" s="14"/>
-      <c r="AA90" s="231" t="e">
-        <f t="shared" si="16"/>
+      <c r="AA90" s="194" t="e">
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB90" s="231" t="e">
-        <f t="shared" si="17"/>
+      <c r="AB90" s="194" t="e">
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC90" s="231" t="e">
-        <f t="shared" si="18"/>
+      <c r="AC90" s="194" t="e">
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AD90" s="231" t="e">
-        <f t="shared" si="19"/>
+      <c r="AD90" s="194" t="e">
+        <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7077,20 +7077,20 @@
       <c r="P91" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="Q91" s="184" t="str">
-        <f>IF(AG19="","",AG20+Lamb)</f>
-        <v/>
-      </c>
-      <c r="R91" s="185" t="str">
-        <f>IF(AG28="","",AG29+Lamb)</f>
-        <v/>
-      </c>
-      <c r="S91" s="186" t="str">
-        <f>IF(AG37="","",AG38+Lamb)</f>
-        <v/>
-      </c>
-      <c r="T91" s="185" t="str">
-        <f>IF(AG46="","",AG47+Lamb)</f>
+      <c r="Q91" s="180" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R91" s="181" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S91" s="182" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T91" s="181" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U91" s="2"/>
@@ -7098,20 +7098,20 @@
       <c r="W91" s="2"/>
       <c r="X91" s="2"/>
       <c r="Y91" s="14"/>
-      <c r="AA91" s="231" t="e">
-        <f t="shared" si="16"/>
+      <c r="AA91" s="194" t="e">
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB91" s="231" t="e">
-        <f t="shared" si="17"/>
+      <c r="AB91" s="194" t="e">
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC91" s="231" t="e">
-        <f t="shared" si="18"/>
+      <c r="AC91" s="194" t="e">
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AD91" s="231" t="e">
-        <f t="shared" si="19"/>
+      <c r="AD91" s="194" t="e">
+        <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7128,20 +7128,20 @@
       <c r="P92" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="Q92" s="184" t="str">
-        <f>IF(AG20="","",AG21+Lamb)</f>
-        <v/>
-      </c>
-      <c r="R92" s="185" t="str">
-        <f>IF(AG29="","",AG30+Lamb)</f>
-        <v/>
-      </c>
-      <c r="S92" s="186" t="str">
-        <f>IF(AG38="","",AG39+Lamb)</f>
-        <v/>
-      </c>
-      <c r="T92" s="185" t="str">
-        <f>IF(AG47="","",AG48+Lamb)</f>
+      <c r="Q92" s="180" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R92" s="181" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S92" s="182" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T92" s="181" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U92" s="2"/>
@@ -7149,20 +7149,20 @@
       <c r="W92" s="2"/>
       <c r="X92" s="2"/>
       <c r="Y92" s="14"/>
-      <c r="AA92" s="231" t="e">
-        <f t="shared" si="16"/>
+      <c r="AA92" s="194" t="e">
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB92" s="231" t="e">
-        <f t="shared" si="17"/>
+      <c r="AB92" s="194" t="e">
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC92" s="231" t="e">
-        <f t="shared" si="18"/>
+      <c r="AC92" s="194" t="e">
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AD92" s="231" t="e">
-        <f t="shared" si="19"/>
+      <c r="AD92" s="194" t="e">
+        <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7188,37 +7188,37 @@
       <c r="P93" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="Q93" s="184" t="str">
-        <f>IF(AG21="","",AG22+Lamb)</f>
-        <v/>
-      </c>
-      <c r="R93" s="185" t="str">
-        <f>IF(AG30="","",AG31+Lamb)</f>
-        <v/>
-      </c>
-      <c r="S93" s="186" t="str">
-        <f>IF(AG39="","",AG40+Lamb)</f>
-        <v/>
-      </c>
-      <c r="T93" s="185" t="str">
-        <f>IF(AG48="","",AG49+Lamb)</f>
+      <c r="Q93" s="180" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R93" s="181" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S93" s="182" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T93" s="181" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Y93" s="14"/>
-      <c r="AA93" s="231" t="e">
-        <f t="shared" si="16"/>
+      <c r="AA93" s="194" t="e">
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB93" s="231" t="e">
-        <f t="shared" si="17"/>
+      <c r="AB93" s="194" t="e">
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC93" s="231" t="e">
-        <f t="shared" si="18"/>
+      <c r="AC93" s="194" t="e">
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AD93" s="231" t="e">
-        <f t="shared" si="19"/>
+      <c r="AD93" s="194" t="e">
+        <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7244,37 +7244,37 @@
       <c r="P94" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="Q94" s="184" t="str">
-        <f>IF(AG22="","",AG23+Lamb)</f>
-        <v/>
-      </c>
-      <c r="R94" s="185" t="str">
-        <f>IF(AG31="","",AG32+Lamb)</f>
-        <v/>
-      </c>
-      <c r="S94" s="186" t="str">
-        <f>IF(AG40="","",AG41+Lamb)</f>
-        <v/>
-      </c>
-      <c r="T94" s="185" t="str">
-        <f>IF(AG49="","",AG50+Lamb)</f>
+      <c r="Q94" s="180" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R94" s="181" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S94" s="182" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T94" s="181" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Y94" s="14"/>
-      <c r="AA94" s="231" t="e">
-        <f t="shared" si="16"/>
+      <c r="AA94" s="194" t="e">
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB94" s="231" t="e">
-        <f t="shared" si="17"/>
+      <c r="AB94" s="194" t="e">
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC94" s="231" t="e">
-        <f t="shared" si="18"/>
+      <c r="AC94" s="194" t="e">
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AD94" s="231" t="e">
-        <f t="shared" si="19"/>
+      <c r="AD94" s="194" t="e">
+        <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7300,37 +7300,37 @@
       <c r="P95" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="Q95" s="184" t="str">
-        <f>IF(AG23="","",AG24+Lamb)</f>
-        <v/>
-      </c>
-      <c r="R95" s="185" t="str">
-        <f>IF(AG32="","",AG33+Lamb)</f>
-        <v/>
-      </c>
-      <c r="S95" s="186" t="str">
-        <f>IF(AG41="","",AG42+Lamb)</f>
-        <v/>
-      </c>
-      <c r="T95" s="185" t="str">
-        <f>IF(AG50="","",AG51+Lamb)</f>
+      <c r="Q95" s="180" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R95" s="181" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S95" s="182" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T95" s="181" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Y95" s="14"/>
-      <c r="AA95" s="231" t="e">
-        <f t="shared" si="16"/>
+      <c r="AA95" s="194" t="e">
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB95" s="231" t="e">
-        <f t="shared" si="17"/>
+      <c r="AB95" s="194" t="e">
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC95" s="231" t="e">
-        <f t="shared" si="18"/>
+      <c r="AC95" s="194" t="e">
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AD95" s="231" t="e">
-        <f t="shared" si="19"/>
+      <c r="AD95" s="194" t="e">
+        <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7356,37 +7356,37 @@
       <c r="P96" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="Q96" s="187" t="str">
-        <f>IF(AG24="","",AG25+Lamb)</f>
-        <v/>
-      </c>
-      <c r="R96" s="188" t="str">
-        <f>IF(AG33="","",AG34+Lamb)</f>
-        <v/>
-      </c>
-      <c r="S96" s="189" t="str">
-        <f>IF(AG42="","",AG43+Lamb)</f>
-        <v/>
-      </c>
-      <c r="T96" s="188" t="str">
-        <f>IF(AG51="","",AG52+Lamb)</f>
+      <c r="Q96" s="183" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="R96" s="184" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="S96" s="185" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="T96" s="184" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Y96" s="14"/>
-      <c r="AA96" s="231" t="e">
-        <f t="shared" si="16"/>
+      <c r="AA96" s="194" t="e">
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB96" s="231" t="e">
-        <f t="shared" si="17"/>
+      <c r="AB96" s="194" t="e">
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC96" s="231" t="e">
-        <f t="shared" si="18"/>
+      <c r="AC96" s="194" t="e">
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AD96" s="231" t="e">
-        <f t="shared" si="19"/>
+      <c r="AD96" s="194" t="e">
+        <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7548,19 +7548,19 @@
       <c r="P100" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="Q100" s="229" t="str">
+      <c r="Q100" s="192" t="str">
         <f>IF(Q88="","",MAX(AA88:AA96))</f>
         <v/>
       </c>
-      <c r="R100" s="230" t="str">
+      <c r="R100" s="193" t="str">
         <f>IF(R88="","",MAX(AB88:AB96))</f>
         <v/>
       </c>
-      <c r="S100" s="229" t="str">
+      <c r="S100" s="192" t="str">
         <f>IF(S88="","",MAX(AC88:AC96))</f>
         <v/>
       </c>
-      <c r="T100" s="230" t="str">
+      <c r="T100" s="193" t="str">
         <f>IF(T88="","",MAX(AD88:AD96))</f>
         <v/>
       </c>

--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\workspace\EquipTestingSpreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6861AF77-9C69-4059-93C2-C46413026BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D79B9E-EBEF-43BE-9B71-DFA2A16884CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Barco" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="186">
   <si>
     <t>Print Area</t>
   </si>
@@ -651,6 +651,12 @@
   </si>
   <si>
     <t>Lum Dev from Median (%):</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>SD</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1600,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2193,38 +2199,56 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2253,56 +2277,41 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2832,21 +2841,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="N82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X98" sqref="X98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="2.5546875" style="1" customWidth="1"/>
-    <col min="3" max="11" width="11.5546875" style="1"/>
-    <col min="12" max="12" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="1"/>
-    <col min="14" max="14" width="2.5546875" style="1" customWidth="1"/>
-    <col min="15" max="36" width="11.5546875" style="1"/>
+    <col min="1" max="2" width="2.5703125" style="1" customWidth="1"/>
+    <col min="3" max="11" width="11.5703125" style="1"/>
+    <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="1"/>
+    <col min="14" max="14" width="2.5703125" style="1" customWidth="1"/>
+    <col min="15" max="36" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="14.4" customHeight="1">
+    <row r="1" spans="1:36" ht="14.45" customHeight="1">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -2878,14 +2887,14 @@
       <c r="AA1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="200" t="s">
+      <c r="AG1" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="200"/>
-      <c r="AI1" s="200"/>
-      <c r="AJ1" s="200"/>
-    </row>
-    <row r="2" spans="1:36" ht="14.4" customHeight="1">
+      <c r="AH1" s="233"/>
+      <c r="AI1" s="233"/>
+      <c r="AJ1" s="233"/>
+    </row>
+    <row r="2" spans="1:36" ht="14.45" customHeight="1">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -2900,16 +2909,16 @@
       </c>
       <c r="Y2" s="14"/>
       <c r="AA2" s="15"/>
-      <c r="AG2" s="201" t="s">
+      <c r="AG2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202" t="s">
+      <c r="AH2" s="234"/>
+      <c r="AI2" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="202"/>
-    </row>
-    <row r="3" spans="1:36" ht="14.4" customHeight="1">
+      <c r="AJ2" s="235"/>
+    </row>
+    <row r="3" spans="1:36" ht="14.45" customHeight="1">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -2940,7 +2949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="14.4" customHeight="1">
+    <row r="4" spans="1:36" ht="14.45" customHeight="1">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -2970,7 +2979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="14.4" customHeight="1">
+    <row r="5" spans="1:36" ht="14.45" customHeight="1">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -3000,7 +3009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="14.4" customHeight="1">
+    <row r="6" spans="1:36" ht="14.45" customHeight="1">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -3049,7 +3058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="14.4" customHeight="1">
+    <row r="7" spans="1:36" ht="14.45" customHeight="1">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -3096,7 +3105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="14.4" customHeight="1">
+    <row r="8" spans="1:36" ht="14.45" customHeight="1">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -3141,7 +3150,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14.4" customHeight="1">
+    <row r="9" spans="1:36" ht="14.45" customHeight="1">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -3193,7 +3202,7 @@
       </c>
       <c r="AG9" s="2"/>
     </row>
-    <row r="10" spans="1:36" ht="14.4" customHeight="1">
+    <row r="10" spans="1:36" ht="14.45" customHeight="1">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -3201,19 +3210,19 @@
       <c r="D10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="203" t="str">
+      <c r="E10" s="236" t="str">
         <f t="shared" ref="E10:E15" si="1">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="F10" s="203"/>
+      <c r="F10" s="236"/>
       <c r="I10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="203" t="str">
+      <c r="J10" s="236" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="K10" s="203"/>
+      <c r="K10" s="236"/>
       <c r="M10" s="12"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="21" t="s">
@@ -3248,7 +3257,7 @@
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
     </row>
-    <row r="11" spans="1:36" ht="14.4" customHeight="1">
+    <row r="11" spans="1:36" ht="14.45" customHeight="1">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -3256,19 +3265,19 @@
       <c r="D11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="204" t="str">
+      <c r="E11" s="229" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="204"/>
+      <c r="F11" s="229"/>
       <c r="I11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="205" t="str">
+      <c r="J11" s="232" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="K11" s="205"/>
+      <c r="K11" s="232"/>
       <c r="M11" s="12"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="21" t="s">
@@ -3307,7 +3316,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.4" customHeight="1">
+    <row r="12" spans="1:36" ht="14.45" customHeight="1">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -3315,19 +3324,19 @@
       <c r="D12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="204" t="str">
+      <c r="E12" s="229" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="204"/>
+      <c r="F12" s="229"/>
       <c r="I12" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="204" t="str">
+      <c r="J12" s="229" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="K12" s="204"/>
+      <c r="K12" s="229"/>
       <c r="M12" s="12"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="21" t="s">
@@ -3364,7 +3373,7 @@
       </c>
       <c r="AG12" s="2"/>
     </row>
-    <row r="13" spans="1:36" ht="14.4" customHeight="1">
+    <row r="13" spans="1:36" ht="14.45" customHeight="1">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -3372,19 +3381,19 @@
       <c r="D13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="204" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="204"/>
+      <c r="F13" s="229"/>
       <c r="I13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="204" t="str">
+      <c r="J13" s="229" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="K13" s="204"/>
+      <c r="K13" s="229"/>
       <c r="M13" s="12"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="21" t="s">
@@ -3421,7 +3430,7 @@
       </c>
       <c r="AG13" s="2"/>
     </row>
-    <row r="14" spans="1:36" ht="14.4" customHeight="1">
+    <row r="14" spans="1:36" ht="14.45" customHeight="1">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -3429,19 +3438,19 @@
       <c r="D14" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="204" t="str">
+      <c r="E14" s="229" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="204"/>
+      <c r="F14" s="229"/>
       <c r="I14" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="204" t="str">
+      <c r="J14" s="229" t="str">
         <f>IF(V14="","",V14)</f>
         <v/>
       </c>
-      <c r="K14" s="204"/>
+      <c r="K14" s="229"/>
       <c r="M14" s="12"/>
       <c r="O14" s="13"/>
       <c r="Q14" s="21" t="s">
@@ -3478,7 +3487,7 @@
       </c>
       <c r="AG14" s="2"/>
     </row>
-    <row r="15" spans="1:36" ht="14.4" customHeight="1" thickBot="1">
+    <row r="15" spans="1:36" ht="14.45" customHeight="1" thickBot="1">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -3486,11 +3495,11 @@
       <c r="D15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="204" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="1"/>
         <v>IMPAX 4.2 2015</v>
       </c>
-      <c r="F15" s="204"/>
+      <c r="F15" s="229"/>
       <c r="M15" s="12"/>
       <c r="O15" s="26"/>
       <c r="P15" s="27"/>
@@ -3527,7 +3536,7 @@
       </c>
       <c r="AG15" s="2"/>
     </row>
-    <row r="16" spans="1:36" ht="14.4" customHeight="1" thickBot="1">
+    <row r="16" spans="1:36" ht="14.45" customHeight="1" thickBot="1">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -3560,7 +3569,7 @@
       </c>
       <c r="AG16" s="2"/>
     </row>
-    <row r="17" spans="1:33" ht="14.4" customHeight="1" thickTop="1" thickBot="1">
+    <row r="17" spans="1:33" ht="14.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -3590,7 +3599,7 @@
       </c>
       <c r="AG17" s="2"/>
     </row>
-    <row r="18" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
+    <row r="18" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -3629,7 +3638,7 @@
       </c>
       <c r="AG18" s="2"/>
     </row>
-    <row r="19" spans="1:33" ht="14.4" customHeight="1" thickTop="1">
+    <row r="19" spans="1:33" ht="14.45" customHeight="1" thickTop="1">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -3644,10 +3653,10 @@
       <c r="H19" s="154"/>
       <c r="I19" s="154"/>
       <c r="J19" s="154"/>
-      <c r="K19" s="207" t="s">
+      <c r="K19" s="231" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="207"/>
+      <c r="L19" s="231"/>
       <c r="M19" s="5"/>
       <c r="O19" s="13"/>
       <c r="R19" s="1" t="s">
@@ -3677,7 +3686,7 @@
       </c>
       <c r="AG19" s="2"/>
     </row>
-    <row r="20" spans="1:33" ht="14.4" customHeight="1">
+    <row r="20" spans="1:33" ht="14.45" customHeight="1">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -3742,7 +3751,7 @@
       </c>
       <c r="AG20" s="2"/>
     </row>
-    <row r="21" spans="1:33" ht="14.4" customHeight="1">
+    <row r="21" spans="1:33" ht="14.45" customHeight="1">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -3798,7 +3807,7 @@
       </c>
       <c r="AG21" s="2"/>
     </row>
-    <row r="22" spans="1:33" ht="14.4" customHeight="1">
+    <row r="22" spans="1:33" ht="14.45" customHeight="1">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -3854,7 +3863,7 @@
       </c>
       <c r="AG22" s="2"/>
     </row>
-    <row r="23" spans="1:33" ht="14.4" customHeight="1">
+    <row r="23" spans="1:33" ht="14.45" customHeight="1">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -3909,7 +3918,7 @@
       </c>
       <c r="AG23" s="2"/>
     </row>
-    <row r="24" spans="1:33" ht="14.4" customHeight="1">
+    <row r="24" spans="1:33" ht="14.45" customHeight="1">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -3917,11 +3926,11 @@
       <c r="D24" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="206" t="str">
+      <c r="E24" s="230" t="str">
         <f>IF(P52="","",P52)</f>
         <v/>
       </c>
-      <c r="F24" s="206"/>
+      <c r="F24" s="230"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -3948,7 +3957,7 @@
       </c>
       <c r="AG24" s="2"/>
     </row>
-    <row r="25" spans="1:33" ht="14.4" customHeight="1">
+    <row r="25" spans="1:33" ht="14.45" customHeight="1">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -3981,7 +3990,7 @@
       </c>
       <c r="AG25" s="2"/>
     </row>
-    <row r="26" spans="1:33" ht="14.4" customHeight="1">
+    <row r="26" spans="1:33" ht="14.45" customHeight="1">
       <c r="A26" s="2">
         <v>26</v>
       </c>
@@ -4013,7 +4022,7 @@
       </c>
       <c r="AG26" s="2"/>
     </row>
-    <row r="27" spans="1:33" ht="14.4" customHeight="1">
+    <row r="27" spans="1:33" ht="14.45" customHeight="1">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -4073,7 +4082,7 @@
       </c>
       <c r="AG27" s="2"/>
     </row>
-    <row r="28" spans="1:33" ht="14.4" customHeight="1">
+    <row r="28" spans="1:33" ht="14.45" customHeight="1">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -4114,7 +4123,7 @@
       </c>
       <c r="AG28" s="2"/>
     </row>
-    <row r="29" spans="1:33" ht="14.4" customHeight="1">
+    <row r="29" spans="1:33" ht="14.45" customHeight="1">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -4166,7 +4175,7 @@
       </c>
       <c r="AG29" s="2"/>
     </row>
-    <row r="30" spans="1:33" ht="14.4" customHeight="1">
+    <row r="30" spans="1:33" ht="14.45" customHeight="1">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -4218,7 +4227,7 @@
       </c>
       <c r="AG30" s="2"/>
     </row>
-    <row r="31" spans="1:33" ht="14.4" customHeight="1">
+    <row r="31" spans="1:33" ht="14.45" customHeight="1">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -4267,7 +4276,7 @@
       </c>
       <c r="AG31" s="2"/>
     </row>
-    <row r="32" spans="1:33" ht="14.4" customHeight="1">
+    <row r="32" spans="1:33" ht="14.45" customHeight="1">
       <c r="A32" s="2">
         <v>32</v>
       </c>
@@ -4311,7 +4320,7 @@
       </c>
       <c r="AG32" s="2"/>
     </row>
-    <row r="33" spans="1:33" ht="14.4" customHeight="1">
+    <row r="33" spans="1:33" ht="14.45" customHeight="1">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -4363,7 +4372,7 @@
       </c>
       <c r="AG33" s="2"/>
     </row>
-    <row r="34" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
+    <row r="34" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -4426,7 +4435,7 @@
       </c>
       <c r="AG34" s="2"/>
     </row>
-    <row r="35" spans="1:33" ht="14.4" customHeight="1">
+    <row r="35" spans="1:33" ht="14.45" customHeight="1">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -4484,7 +4493,7 @@
       </c>
       <c r="AG35" s="2"/>
     </row>
-    <row r="36" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
+    <row r="36" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -4542,7 +4551,7 @@
       </c>
       <c r="AG36" s="2"/>
     </row>
-    <row r="37" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
+    <row r="37" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -4599,7 +4608,7 @@
       </c>
       <c r="AG37" s="2"/>
     </row>
-    <row r="38" spans="1:33" ht="14.4" customHeight="1">
+    <row r="38" spans="1:33" ht="14.45" customHeight="1">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -4646,7 +4655,7 @@
       </c>
       <c r="AG38" s="2"/>
     </row>
-    <row r="39" spans="1:33" ht="14.4" customHeight="1">
+    <row r="39" spans="1:33" ht="14.45" customHeight="1">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -4698,7 +4707,7 @@
       </c>
       <c r="AG39" s="2"/>
     </row>
-    <row r="40" spans="1:33" ht="14.4" customHeight="1">
+    <row r="40" spans="1:33" ht="14.45" customHeight="1">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -4747,7 +4756,7 @@
       </c>
       <c r="AG40" s="2"/>
     </row>
-    <row r="41" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
+    <row r="41" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -4795,7 +4804,7 @@
       </c>
       <c r="AG41" s="2"/>
     </row>
-    <row r="42" spans="1:33" ht="14.4" customHeight="1">
+    <row r="42" spans="1:33" ht="14.45" customHeight="1">
       <c r="A42" s="2">
         <v>42</v>
       </c>
@@ -4850,7 +4859,7 @@
       </c>
       <c r="AG42" s="2"/>
     </row>
-    <row r="43" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
+    <row r="43" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -4908,7 +4917,7 @@
       </c>
       <c r="AG43" s="2"/>
     </row>
-    <row r="44" spans="1:33" ht="14.4" customHeight="1">
+    <row r="44" spans="1:33" ht="14.45" customHeight="1">
       <c r="A44" s="2">
         <v>44</v>
       </c>
@@ -4961,7 +4970,7 @@
       </c>
       <c r="AG44" s="2"/>
     </row>
-    <row r="45" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
+    <row r="45" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A45" s="2">
         <v>45</v>
       </c>
@@ -5016,7 +5025,7 @@
       </c>
       <c r="AG45" s="2"/>
     </row>
-    <row r="46" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
+    <row r="46" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A46" s="2">
         <v>46</v>
       </c>
@@ -5065,7 +5074,7 @@
       </c>
       <c r="AG46" s="2"/>
     </row>
-    <row r="47" spans="1:33" ht="14.4" customHeight="1">
+    <row r="47" spans="1:33" ht="14.45" customHeight="1">
       <c r="A47" s="2">
         <v>47</v>
       </c>
@@ -5108,7 +5117,7 @@
       </c>
       <c r="AG47" s="2"/>
     </row>
-    <row r="48" spans="1:33" ht="14.4" customHeight="1">
+    <row r="48" spans="1:33" ht="14.45" customHeight="1">
       <c r="A48" s="2">
         <v>48</v>
       </c>
@@ -5159,7 +5168,7 @@
       </c>
       <c r="AG48" s="2"/>
     </row>
-    <row r="49" spans="1:33" ht="14.4" customHeight="1">
+    <row r="49" spans="1:33" ht="14.45" customHeight="1">
       <c r="A49" s="2">
         <v>49</v>
       </c>
@@ -5209,7 +5218,7 @@
       </c>
       <c r="AG49" s="2"/>
     </row>
-    <row r="50" spans="1:33" ht="14.4" customHeight="1">
+    <row r="50" spans="1:33" ht="14.45" customHeight="1">
       <c r="A50" s="2">
         <v>50</v>
       </c>
@@ -5267,7 +5276,7 @@
       </c>
       <c r="AG50" s="2"/>
     </row>
-    <row r="51" spans="1:33" ht="14.4" customHeight="1">
+    <row r="51" spans="1:33" ht="14.45" customHeight="1">
       <c r="A51" s="2">
         <v>51</v>
       </c>
@@ -5329,7 +5338,7 @@
       </c>
       <c r="AG51" s="2"/>
     </row>
-    <row r="52" spans="1:33" ht="14.4" customHeight="1">
+    <row r="52" spans="1:33" ht="14.45" customHeight="1">
       <c r="A52" s="2">
         <v>52</v>
       </c>
@@ -5370,7 +5379,7 @@
       </c>
       <c r="AG52" s="2"/>
     </row>
-    <row r="53" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
+    <row r="53" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A53" s="2">
         <v>53</v>
       </c>
@@ -5419,7 +5428,7 @@
       </c>
       <c r="AG53" s="2"/>
     </row>
-    <row r="54" spans="1:33" ht="14.4" customHeight="1">
+    <row r="54" spans="1:33" ht="14.45" customHeight="1">
       <c r="A54" s="2">
         <v>54</v>
       </c>
@@ -5453,7 +5462,7 @@
       <c r="X54" s="78"/>
       <c r="Y54" s="14"/>
     </row>
-    <row r="55" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
+    <row r="55" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A55" s="2">
         <v>55</v>
       </c>
@@ -5490,7 +5499,7 @@
       <c r="AC55" s="20"/>
       <c r="AD55" s="20"/>
     </row>
-    <row r="56" spans="1:33" ht="14.4" customHeight="1">
+    <row r="56" spans="1:33" ht="14.45" customHeight="1">
       <c r="A56" s="2">
         <v>56</v>
       </c>
@@ -5520,7 +5529,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="14.4" customHeight="1">
+    <row r="57" spans="1:33" ht="14.45" customHeight="1">
       <c r="A57" s="2">
         <v>57</v>
       </c>
@@ -5567,7 +5576,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
+    <row r="58" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A58" s="2">
         <v>58</v>
       </c>
@@ -5626,7 +5635,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="14.4" customHeight="1">
+    <row r="59" spans="1:33" ht="14.45" customHeight="1">
       <c r="A59" s="2">
         <v>59</v>
       </c>
@@ -5661,11 +5670,11 @@
       <c r="T59" s="175" t="s">
         <v>147</v>
       </c>
-      <c r="U59" s="231" t="str">
+      <c r="U59" s="200" t="str">
         <f>IF(AB31="","",AB31)</f>
         <v/>
       </c>
-      <c r="V59" s="232" t="str">
+      <c r="V59" s="201" t="str">
         <f>IF(AB32="","",AB32)</f>
         <v/>
       </c>
@@ -5685,7 +5694,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="14.4" customHeight="1">
+    <row r="60" spans="1:33" ht="14.45" customHeight="1">
       <c r="A60" s="2">
         <v>60</v>
       </c>
@@ -5707,11 +5716,11 @@
       <c r="T60" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="U60" s="233" t="str">
+      <c r="U60" s="202" t="str">
         <f>IF(AB33="","",AB33)</f>
         <v/>
       </c>
-      <c r="V60" s="234" t="str">
+      <c r="V60" s="203" t="str">
         <f>IF(AB34="","",AB34)</f>
         <v/>
       </c>
@@ -5731,7 +5740,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="14.4" customHeight="1">
+    <row r="61" spans="1:33" ht="14.45" customHeight="1">
       <c r="A61" s="2">
         <v>61</v>
       </c>
@@ -5752,11 +5761,11 @@
       <c r="T61" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="U61" s="233" t="str">
+      <c r="U61" s="202" t="str">
         <f>IF(AB35="","",AB35)</f>
         <v/>
       </c>
-      <c r="V61" s="234" t="str">
+      <c r="V61" s="203" t="str">
         <f>IF(AB36="","",AB36)</f>
         <v/>
       </c>
@@ -5774,7 +5783,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
+    <row r="62" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A62" s="2">
         <v>62</v>
       </c>
@@ -5795,11 +5804,11 @@
       <c r="T62" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="U62" s="235" t="str">
+      <c r="U62" s="204" t="str">
         <f>IF(AB37="","",AB37)</f>
         <v/>
       </c>
-      <c r="V62" s="236" t="str">
+      <c r="V62" s="205" t="str">
         <f>IF(AB38="","",AB38)</f>
         <v/>
       </c>
@@ -5817,7 +5826,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="14.4" customHeight="1">
+    <row r="63" spans="1:33" ht="14.45" customHeight="1">
       <c r="A63" s="2">
         <v>63</v>
       </c>
@@ -5843,7 +5852,7 @@
       <c r="AC63" s="20"/>
       <c r="AD63" s="20"/>
     </row>
-    <row r="64" spans="1:33" ht="14.4" customHeight="1" thickBot="1">
+    <row r="64" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A64" s="2">
         <v>64</v>
       </c>
@@ -5888,7 +5897,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="14.4" customHeight="1" thickTop="1">
+    <row r="65" spans="1:30" ht="14.45" customHeight="1" thickTop="1">
       <c r="A65" s="2">
         <v>65</v>
       </c>
@@ -5923,7 +5932,7 @@
       <c r="AC65" s="20"/>
       <c r="AD65" s="20"/>
     </row>
-    <row r="66" spans="1:30" ht="14.4" customHeight="1">
+    <row r="66" spans="1:30" ht="14.45" customHeight="1">
       <c r="A66" s="2">
         <v>66</v>
       </c>
@@ -5962,7 +5971,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="14.4" customHeight="1">
+    <row r="67" spans="1:30" ht="14.45" customHeight="1">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -5991,7 +6000,7 @@
       <c r="AC67" s="20"/>
       <c r="AD67" s="20"/>
     </row>
-    <row r="68" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="68" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A68" s="2">
         <v>2</v>
       </c>
@@ -6028,7 +6037,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="69" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A69" s="2">
         <v>3</v>
       </c>
@@ -6061,7 +6070,7 @@
       <c r="AC69" s="20"/>
       <c r="AD69" s="20"/>
     </row>
-    <row r="70" spans="1:30" ht="14.4" customHeight="1" thickTop="1" thickBot="1">
+    <row r="70" spans="1:30" ht="14.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A70" s="2">
         <v>4</v>
       </c>
@@ -6102,22 +6111,22 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="71" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A71" s="2">
         <v>5</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="95"/>
-      <c r="D71" s="208" t="str">
+      <c r="D71" s="226" t="str">
         <f>Q86</f>
         <v>UNL-10 (cd/m^2)</v>
       </c>
-      <c r="E71" s="208"/>
-      <c r="F71" s="209" t="str">
+      <c r="E71" s="226"/>
+      <c r="F71" s="227" t="str">
         <f>S86</f>
         <v>UNL-80 (cd/m^2)</v>
       </c>
-      <c r="G71" s="209"/>
+      <c r="G71" s="227"/>
       <c r="I71" s="68" t="s">
         <v>108</v>
       </c>
@@ -6139,7 +6148,7 @@
       <c r="AC71" s="20"/>
       <c r="AD71" s="20"/>
     </row>
-    <row r="72" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="72" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A72" s="2">
         <v>6</v>
       </c>
@@ -6196,7 +6205,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="14.4" customHeight="1">
+    <row r="73" spans="1:30" ht="14.45" customHeight="1">
       <c r="A73" s="2">
         <v>7</v>
       </c>
@@ -6233,15 +6242,15 @@
       <c r="Q73" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="R73" s="223"/>
-      <c r="S73" s="227"/>
+      <c r="R73" s="209"/>
+      <c r="S73" s="213"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
-      <c r="V73" s="215" t="str">
+      <c r="V73" s="221" t="str">
         <f>IF(AB48="","",AB48)</f>
         <v/>
       </c>
-      <c r="W73" s="216" t="str">
+      <c r="W73" s="222" t="str">
         <f>IF(AB51="","",AB51)</f>
         <v/>
       </c>
@@ -6251,7 +6260,7 @@
       <c r="AC73" s="20"/>
       <c r="AD73" s="20"/>
     </row>
-    <row r="74" spans="1:30" ht="14.4" customHeight="1">
+    <row r="74" spans="1:30" ht="14.45" customHeight="1">
       <c r="A74" s="2">
         <v>8</v>
       </c>
@@ -6286,12 +6295,12 @@
       <c r="O74" s="13"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="159"/>
-      <c r="R74" s="224"/>
-      <c r="S74" s="228"/>
+      <c r="R74" s="210"/>
+      <c r="S74" s="214"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
-      <c r="V74" s="214"/>
-      <c r="W74" s="217"/>
+      <c r="V74" s="220"/>
+      <c r="W74" s="223"/>
       <c r="X74" s="2"/>
       <c r="Y74" s="14"/>
       <c r="AB74" s="158"/>
@@ -6304,7 +6313,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="14.4" customHeight="1">
+    <row r="75" spans="1:30" ht="14.45" customHeight="1">
       <c r="A75" s="2">
         <v>9</v>
       </c>
@@ -6334,15 +6343,15 @@
       <c r="Q75" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="R75" s="225"/>
-      <c r="S75" s="229"/>
+      <c r="R75" s="211"/>
+      <c r="S75" s="215"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
-      <c r="V75" s="212" t="str">
+      <c r="V75" s="218" t="str">
         <f>IF(AB49="","",AB49)</f>
         <v/>
       </c>
-      <c r="W75" s="218" t="str">
+      <c r="W75" s="224" t="str">
         <f>IF(AB52="","",AB52)</f>
         <v/>
       </c>
@@ -6352,7 +6361,7 @@
       <c r="AC75" s="20"/>
       <c r="AD75" s="20"/>
     </row>
-    <row r="76" spans="1:30" ht="14.4" customHeight="1">
+    <row r="76" spans="1:30" ht="14.45" customHeight="1">
       <c r="A76" s="2">
         <v>10</v>
       </c>
@@ -6386,12 +6395,12 @@
       <c r="O76" s="13"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="159"/>
-      <c r="R76" s="224"/>
-      <c r="S76" s="228"/>
+      <c r="R76" s="210"/>
+      <c r="S76" s="214"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
-      <c r="V76" s="214"/>
-      <c r="W76" s="217"/>
+      <c r="V76" s="220"/>
+      <c r="W76" s="223"/>
       <c r="X76" s="2"/>
       <c r="Y76" s="14"/>
       <c r="AB76" s="158"/>
@@ -6404,7 +6413,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="77" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A77" s="2">
         <v>11</v>
       </c>
@@ -6434,15 +6443,15 @@
       <c r="Q77" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="R77" s="225"/>
-      <c r="S77" s="229"/>
+      <c r="R77" s="211"/>
+      <c r="S77" s="215"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
-      <c r="V77" s="212" t="str">
+      <c r="V77" s="218" t="str">
         <f>IF(AB50="","",AB50)</f>
         <v/>
       </c>
-      <c r="W77" s="218" t="str">
+      <c r="W77" s="224" t="str">
         <f>IF(AB53="","",AB53)</f>
         <v/>
       </c>
@@ -6452,7 +6461,7 @@
       <c r="AC77" s="20"/>
       <c r="AD77" s="20"/>
     </row>
-    <row r="78" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="78" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A78" s="2">
         <v>12</v>
       </c>
@@ -6461,12 +6470,12 @@
       <c r="O78" s="13"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="159"/>
-      <c r="R78" s="226"/>
-      <c r="S78" s="230"/>
+      <c r="R78" s="212"/>
+      <c r="S78" s="216"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
-      <c r="V78" s="213"/>
-      <c r="W78" s="219"/>
+      <c r="V78" s="219"/>
+      <c r="W78" s="225"/>
       <c r="X78" s="2"/>
       <c r="Y78" s="14"/>
       <c r="AB78" s="158"/>
@@ -6479,7 +6488,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="14.4" customHeight="1">
+    <row r="79" spans="1:30" ht="14.45" customHeight="1">
       <c r="A79" s="2">
         <v>13</v>
       </c>
@@ -6519,7 +6528,7 @@
       <c r="AC79" s="20"/>
       <c r="AD79" s="20"/>
     </row>
-    <row r="80" spans="1:30" ht="14.4" customHeight="1">
+    <row r="80" spans="1:30" ht="14.45" customHeight="1">
       <c r="A80" s="2">
         <v>14</v>
       </c>
@@ -6559,7 +6568,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="14.4" customHeight="1">
+    <row r="81" spans="1:30" ht="14.45" customHeight="1">
       <c r="A81" s="2">
         <v>15</v>
       </c>
@@ -6598,7 +6607,7 @@
       <c r="AC81" s="20"/>
       <c r="AD81" s="20"/>
     </row>
-    <row r="82" spans="1:30" ht="14.4" customHeight="1">
+    <row r="82" spans="1:30" ht="14.45" customHeight="1">
       <c r="A82" s="2">
         <v>16</v>
       </c>
@@ -6630,7 +6639,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="83" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A83" s="2">
         <v>17</v>
       </c>
@@ -6667,7 +6676,7 @@
       <c r="AC83" s="20"/>
       <c r="AD83" s="20"/>
     </row>
-    <row r="84" spans="1:30" ht="14.4" customHeight="1">
+    <row r="84" spans="1:30" ht="14.45" customHeight="1">
       <c r="A84" s="2">
         <v>18</v>
       </c>
@@ -6684,16 +6693,16 @@
         <v>Right ()</v>
       </c>
       <c r="H84" s="2"/>
-      <c r="I84" s="210" t="str">
+      <c r="I84" s="228" t="str">
         <f>R68</f>
         <v>Left ()</v>
       </c>
-      <c r="J84" s="210"/>
-      <c r="K84" s="210" t="str">
+      <c r="J84" s="228"/>
+      <c r="K84" s="228" t="str">
         <f>S68</f>
         <v>Right ()</v>
       </c>
-      <c r="L84" s="210"/>
+      <c r="L84" s="228"/>
       <c r="M84" s="12"/>
       <c r="O84" s="13"/>
       <c r="P84" s="2"/>
@@ -6716,7 +6725,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="85" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A85" s="2">
         <v>19</v>
       </c>
@@ -6737,16 +6746,16 @@
       <c r="H85" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="I85" s="211" t="str">
+      <c r="I85" s="217" t="str">
         <f>IF(R73="","",R73)</f>
         <v/>
       </c>
-      <c r="J85" s="211"/>
-      <c r="K85" s="211" t="str">
+      <c r="J85" s="217"/>
+      <c r="K85" s="217" t="str">
         <f>IF(S73="","",S73)</f>
         <v/>
       </c>
-      <c r="L85" s="211"/>
+      <c r="L85" s="217"/>
       <c r="M85" s="12"/>
       <c r="O85" s="109" t="s">
         <v>107</v>
@@ -6764,7 +6773,7 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="14"/>
     </row>
-    <row r="86" spans="1:30" ht="14.4" customHeight="1">
+    <row r="86" spans="1:30" ht="14.45" customHeight="1">
       <c r="A86" s="2">
         <v>20</v>
       </c>
@@ -6785,27 +6794,27 @@
       <c r="H86" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="I86" s="211" t="str">
+      <c r="I86" s="217" t="str">
         <f>IF(R75="","",R75)</f>
         <v/>
       </c>
-      <c r="J86" s="211"/>
-      <c r="K86" s="211" t="str">
+      <c r="J86" s="217"/>
+      <c r="K86" s="217" t="str">
         <f>IF(S75="","",S75)</f>
         <v/>
       </c>
-      <c r="L86" s="211"/>
+      <c r="L86" s="217"/>
       <c r="M86" s="12"/>
       <c r="O86" s="13"/>
       <c r="P86" s="2"/>
-      <c r="Q86" s="221" t="s">
+      <c r="Q86" s="207" t="s">
         <v>118</v>
       </c>
-      <c r="R86" s="222"/>
-      <c r="S86" s="221" t="s">
+      <c r="R86" s="208"/>
+      <c r="S86" s="207" t="s">
         <v>119</v>
       </c>
-      <c r="T86" s="222"/>
+      <c r="T86" s="208"/>
       <c r="U86" s="2"/>
       <c r="V86" s="127" t="s">
         <v>44</v>
@@ -6814,7 +6823,7 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="14"/>
     </row>
-    <row r="87" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="87" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A87" s="2">
         <v>21</v>
       </c>
@@ -6835,16 +6844,16 @@
       <c r="H87" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="I87" s="220" t="str">
+      <c r="I87" s="206" t="str">
         <f>IF(R77="","",R77)</f>
         <v/>
       </c>
-      <c r="J87" s="220"/>
-      <c r="K87" s="220" t="str">
+      <c r="J87" s="206"/>
+      <c r="K87" s="206" t="str">
         <f>IF(S77="","",S77)</f>
         <v/>
       </c>
-      <c r="L87" s="220"/>
+      <c r="L87" s="206"/>
       <c r="M87" s="12"/>
       <c r="O87" s="13"/>
       <c r="P87" s="2"/>
@@ -6878,7 +6887,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="14.4" customHeight="1">
+    <row r="88" spans="1:30" ht="14.45" customHeight="1">
       <c r="A88" s="2">
         <v>22</v>
       </c>
@@ -6943,7 +6952,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="14.4" customHeight="1">
+    <row r="89" spans="1:30" ht="14.45" customHeight="1">
       <c r="A89" s="2">
         <v>23</v>
       </c>
@@ -7006,7 +7015,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="14.4" customHeight="1">
+    <row r="90" spans="1:30" ht="14.45" customHeight="1">
       <c r="A90" s="2">
         <v>24</v>
       </c>
@@ -7067,7 +7076,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="14.4" customHeight="1">
+    <row r="91" spans="1:30" ht="14.45" customHeight="1">
       <c r="A91" s="2">
         <v>25</v>
       </c>
@@ -7115,7 +7124,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="14.4" customHeight="1">
+    <row r="92" spans="1:30" ht="14.45" customHeight="1">
       <c r="A92" s="2">
         <v>26</v>
       </c>
@@ -7146,8 +7155,12 @@
       </c>
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
-      <c r="W92" s="2"/>
-      <c r="X92" s="2"/>
+      <c r="W92" s="159" t="s">
+        <v>184</v>
+      </c>
+      <c r="X92" s="159" t="s">
+        <v>185</v>
+      </c>
       <c r="Y92" s="14"/>
       <c r="AA92" s="194" t="e">
         <f t="shared" si="20"/>
@@ -7166,7 +7179,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="14.4" customHeight="1">
+    <row r="93" spans="1:30" ht="14.45" customHeight="1">
       <c r="A93" s="2">
         <v>27</v>
       </c>
@@ -7204,6 +7217,17 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
+      <c r="V93" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="W93" s="237" t="e">
+        <f>AVERAGE(Q88:R96)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X93" s="1" t="e">
+        <f>STDEV(Q88:R96)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Y93" s="14"/>
       <c r="AA93" s="194" t="e">
         <f t="shared" si="20"/>
@@ -7222,7 +7246,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="14.4" customHeight="1">
+    <row r="94" spans="1:30" ht="14.45" customHeight="1">
       <c r="A94" s="2">
         <v>28</v>
       </c>
@@ -7260,6 +7284,17 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
+      <c r="V94" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="W94" s="237" t="e">
+        <f>AVERAGE(S88:T96)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X94" s="1" t="e">
+        <f>STDEV(S88:T96)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Y94" s="14"/>
       <c r="AA94" s="194" t="e">
         <f t="shared" si="20"/>
@@ -7278,7 +7313,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="14.4" customHeight="1">
+    <row r="95" spans="1:30" ht="14.45" customHeight="1">
       <c r="A95" s="2">
         <v>29</v>
       </c>
@@ -7334,7 +7369,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="14.4" customHeight="1" thickBot="1">
+    <row r="96" spans="1:30" ht="14.45" customHeight="1" thickBot="1">
       <c r="A96" s="2">
         <v>30</v>
       </c>
@@ -7390,7 +7425,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="14.4" customHeight="1">
+    <row r="97" spans="1:25" ht="14.45" customHeight="1">
       <c r="A97" s="2">
         <v>31</v>
       </c>
@@ -7434,7 +7469,7 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="14"/>
     </row>
-    <row r="98" spans="1:25" ht="14.4" customHeight="1" thickBot="1">
+    <row r="98" spans="1:25" ht="14.45" customHeight="1" thickBot="1">
       <c r="A98" s="2">
         <v>32</v>
       </c>
@@ -7478,7 +7513,7 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="14"/>
     </row>
-    <row r="99" spans="1:25" ht="14.4" customHeight="1" thickBot="1">
+    <row r="99" spans="1:25" ht="14.45" customHeight="1" thickBot="1">
       <c r="A99" s="2">
         <v>33</v>
       </c>
@@ -7526,7 +7561,7 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="14"/>
     </row>
-    <row r="100" spans="1:25" ht="14.4" customHeight="1" thickBot="1">
+    <row r="100" spans="1:25" ht="14.45" customHeight="1" thickBot="1">
       <c r="A100" s="2">
         <v>34</v>
       </c>
@@ -7569,7 +7604,7 @@
       </c>
       <c r="Y100" s="14"/>
     </row>
-    <row r="101" spans="1:25" ht="14.4" customHeight="1">
+    <row r="101" spans="1:25" ht="14.45" customHeight="1">
       <c r="A101" s="2">
         <v>35</v>
       </c>
@@ -7604,7 +7639,7 @@
       <c r="X101" s="90"/>
       <c r="Y101" s="14"/>
     </row>
-    <row r="102" spans="1:25" ht="14.4" customHeight="1">
+    <row r="102" spans="1:25" ht="14.45" customHeight="1">
       <c r="A102" s="2">
         <v>36</v>
       </c>
@@ -7639,7 +7674,7 @@
       <c r="X102" s="78"/>
       <c r="Y102" s="14"/>
     </row>
-    <row r="103" spans="1:25" ht="14.4" customHeight="1">
+    <row r="103" spans="1:25" ht="14.45" customHeight="1">
       <c r="A103" s="2">
         <v>37</v>
       </c>
@@ -7671,7 +7706,7 @@
       <c r="X103" s="78"/>
       <c r="Y103" s="14"/>
     </row>
-    <row r="104" spans="1:25" ht="14.4" customHeight="1" thickBot="1">
+    <row r="104" spans="1:25" ht="14.45" customHeight="1" thickBot="1">
       <c r="A104" s="2">
         <v>38</v>
       </c>
@@ -7701,7 +7736,7 @@
       <c r="X104" s="44"/>
       <c r="Y104" s="28"/>
     </row>
-    <row r="105" spans="1:25" ht="14.4" customHeight="1">
+    <row r="105" spans="1:25" ht="14.45" customHeight="1">
       <c r="A105" s="2">
         <v>39</v>
       </c>
@@ -7731,7 +7766,7 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
     </row>
-    <row r="106" spans="1:25" ht="14.4" customHeight="1" thickBot="1">
+    <row r="106" spans="1:25" ht="14.45" customHeight="1" thickBot="1">
       <c r="A106" s="2">
         <v>40</v>
       </c>
@@ -7763,7 +7798,7 @@
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
     </row>
-    <row r="107" spans="1:25" ht="14.4" customHeight="1">
+    <row r="107" spans="1:25" ht="14.45" customHeight="1">
       <c r="A107" s="2">
         <v>41</v>
       </c>
@@ -7795,7 +7830,7 @@
       <c r="X107" s="7"/>
       <c r="Y107" s="8"/>
     </row>
-    <row r="108" spans="1:25" ht="14.4" customHeight="1">
+    <row r="108" spans="1:25" ht="14.45" customHeight="1">
       <c r="A108" s="2">
         <v>42</v>
       </c>
@@ -7830,7 +7865,7 @@
       <c r="X108" s="90"/>
       <c r="Y108" s="14"/>
     </row>
-    <row r="109" spans="1:25" ht="14.4" customHeight="1">
+    <row r="109" spans="1:25" ht="14.45" customHeight="1">
       <c r="A109" s="2">
         <v>43</v>
       </c>
@@ -7865,7 +7900,7 @@
       <c r="X109" s="78"/>
       <c r="Y109" s="14"/>
     </row>
-    <row r="110" spans="1:25" ht="14.4" customHeight="1">
+    <row r="110" spans="1:25" ht="14.45" customHeight="1">
       <c r="A110" s="2">
         <v>44</v>
       </c>
@@ -7900,7 +7935,7 @@
       <c r="X110" s="90"/>
       <c r="Y110" s="14"/>
     </row>
-    <row r="111" spans="1:25" ht="14.4" customHeight="1">
+    <row r="111" spans="1:25" ht="14.45" customHeight="1">
       <c r="A111" s="2">
         <v>45</v>
       </c>
@@ -7935,7 +7970,7 @@
       <c r="X111" s="78"/>
       <c r="Y111" s="14"/>
     </row>
-    <row r="112" spans="1:25" ht="14.4" customHeight="1">
+    <row r="112" spans="1:25" ht="14.45" customHeight="1">
       <c r="A112" s="2">
         <v>46</v>
       </c>
@@ -7970,7 +8005,7 @@
       <c r="X112" s="90"/>
       <c r="Y112" s="14"/>
     </row>
-    <row r="113" spans="1:25" ht="14.4" customHeight="1">
+    <row r="113" spans="1:25" ht="14.45" customHeight="1">
       <c r="A113" s="2">
         <v>47</v>
       </c>
@@ -8005,7 +8040,7 @@
       <c r="X113" s="78"/>
       <c r="Y113" s="14"/>
     </row>
-    <row r="114" spans="1:25" ht="14.4" customHeight="1">
+    <row r="114" spans="1:25" ht="14.45" customHeight="1">
       <c r="A114" s="2">
         <v>48</v>
       </c>
@@ -8040,7 +8075,7 @@
       <c r="X114" s="90"/>
       <c r="Y114" s="14"/>
     </row>
-    <row r="115" spans="1:25" ht="14.4" customHeight="1">
+    <row r="115" spans="1:25" ht="14.45" customHeight="1">
       <c r="A115" s="2">
         <v>49</v>
       </c>
@@ -8075,7 +8110,7 @@
       <c r="X115" s="78"/>
       <c r="Y115" s="14"/>
     </row>
-    <row r="116" spans="1:25" ht="14.4" customHeight="1">
+    <row r="116" spans="1:25" ht="14.45" customHeight="1">
       <c r="A116" s="2">
         <v>50</v>
       </c>
@@ -8110,7 +8145,7 @@
       <c r="X116" s="90"/>
       <c r="Y116" s="14"/>
     </row>
-    <row r="117" spans="1:25" ht="14.4" customHeight="1">
+    <row r="117" spans="1:25" ht="14.45" customHeight="1">
       <c r="A117" s="2">
         <v>51</v>
       </c>
@@ -8145,7 +8180,7 @@
       <c r="X117" s="78"/>
       <c r="Y117" s="14"/>
     </row>
-    <row r="118" spans="1:25" ht="14.4" customHeight="1">
+    <row r="118" spans="1:25" ht="14.45" customHeight="1">
       <c r="A118" s="2">
         <v>52</v>
       </c>
@@ -8180,7 +8215,7 @@
       <c r="X118" s="90"/>
       <c r="Y118" s="14"/>
     </row>
-    <row r="119" spans="1:25" ht="14.4" customHeight="1">
+    <row r="119" spans="1:25" ht="14.45" customHeight="1">
       <c r="A119" s="2">
         <v>53</v>
       </c>
@@ -8215,7 +8250,7 @@
       <c r="X119" s="78"/>
       <c r="Y119" s="14"/>
     </row>
-    <row r="120" spans="1:25" ht="14.4" customHeight="1">
+    <row r="120" spans="1:25" ht="14.45" customHeight="1">
       <c r="A120" s="2">
         <v>54</v>
       </c>
@@ -8250,7 +8285,7 @@
       <c r="X120" s="90"/>
       <c r="Y120" s="14"/>
     </row>
-    <row r="121" spans="1:25" ht="14.4" customHeight="1">
+    <row r="121" spans="1:25" ht="14.45" customHeight="1">
       <c r="A121" s="2">
         <v>55</v>
       </c>
@@ -8285,7 +8320,7 @@
       <c r="X121" s="78"/>
       <c r="Y121" s="14"/>
     </row>
-    <row r="122" spans="1:25" ht="14.4" customHeight="1">
+    <row r="122" spans="1:25" ht="14.45" customHeight="1">
       <c r="A122" s="2">
         <v>56</v>
       </c>
@@ -8320,7 +8355,7 @@
       <c r="X122" s="90"/>
       <c r="Y122" s="14"/>
     </row>
-    <row r="123" spans="1:25" ht="14.4" customHeight="1">
+    <row r="123" spans="1:25" ht="14.45" customHeight="1">
       <c r="A123" s="2">
         <v>57</v>
       </c>
@@ -8355,7 +8390,7 @@
       <c r="X123" s="78"/>
       <c r="Y123" s="14"/>
     </row>
-    <row r="124" spans="1:25" ht="14.4" customHeight="1">
+    <row r="124" spans="1:25" ht="14.45" customHeight="1">
       <c r="A124" s="2">
         <v>58</v>
       </c>
@@ -8390,7 +8425,7 @@
       <c r="X124" s="90"/>
       <c r="Y124" s="14"/>
     </row>
-    <row r="125" spans="1:25" ht="14.4" customHeight="1">
+    <row r="125" spans="1:25" ht="14.45" customHeight="1">
       <c r="A125" s="2">
         <v>59</v>
       </c>
@@ -8425,7 +8460,7 @@
       <c r="X125" s="78"/>
       <c r="Y125" s="14"/>
     </row>
-    <row r="126" spans="1:25" ht="14.4" customHeight="1">
+    <row r="126" spans="1:25" ht="14.45" customHeight="1">
       <c r="A126" s="2">
         <v>60</v>
       </c>
@@ -8448,7 +8483,7 @@
       <c r="X126" s="90"/>
       <c r="Y126" s="14"/>
     </row>
-    <row r="127" spans="1:25" ht="14.4" customHeight="1">
+    <row r="127" spans="1:25" ht="14.45" customHeight="1">
       <c r="A127" s="2">
         <v>61</v>
       </c>
@@ -8471,7 +8506,7 @@
       <c r="X127" s="78"/>
       <c r="Y127" s="14"/>
     </row>
-    <row r="128" spans="1:25" ht="14.4" customHeight="1">
+    <row r="128" spans="1:25" ht="14.45" customHeight="1">
       <c r="A128" s="2">
         <v>62</v>
       </c>
@@ -8494,7 +8529,7 @@
       <c r="X128" s="90"/>
       <c r="Y128" s="14"/>
     </row>
-    <row r="129" spans="1:25" ht="14.4" customHeight="1">
+    <row r="129" spans="1:25" ht="14.45" customHeight="1">
       <c r="A129" s="2">
         <v>63</v>
       </c>
@@ -8517,7 +8552,7 @@
       <c r="X129" s="78"/>
       <c r="Y129" s="14"/>
     </row>
-    <row r="130" spans="1:25" ht="14.4" customHeight="1" thickBot="1">
+    <row r="130" spans="1:25" ht="14.45" customHeight="1" thickBot="1">
       <c r="A130" s="2">
         <v>64</v>
       </c>
@@ -8545,7 +8580,7 @@
       <c r="X130" s="44"/>
       <c r="Y130" s="28"/>
     </row>
-    <row r="131" spans="1:25" ht="14.4" customHeight="1" thickTop="1">
+    <row r="131" spans="1:25" ht="14.45" customHeight="1" thickTop="1">
       <c r="A131" s="2">
         <v>65</v>
       </c>
@@ -8564,7 +8599,7 @@
         <v>Eugene Mah</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="14.4" customHeight="1">
+    <row r="132" spans="1:25" ht="14.45" customHeight="1">
       <c r="A132" s="2">
         <v>66</v>
       </c>
@@ -8597,6 +8632,34 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="40">
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="V77:V78"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="V73:V74"/>
+    <mergeCell ref="W73:W74"/>
+    <mergeCell ref="W75:W76"/>
+    <mergeCell ref="W77:W78"/>
     <mergeCell ref="I87:J87"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="Q86:R86"/>
@@ -8609,34 +8672,6 @@
     <mergeCell ref="S77:S78"/>
     <mergeCell ref="I86:J86"/>
     <mergeCell ref="K86:L86"/>
-    <mergeCell ref="V77:V78"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="W73:W74"/>
-    <mergeCell ref="W75:W76"/>
-    <mergeCell ref="W77:W78"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <conditionalFormatting sqref="I72:I74">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">

--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D79B9E-EBEF-43BE-9B71-DFA2A16884CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B78240B-419B-4DF7-8F4E-FCE73FCACBDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Barco" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Lamb">Barco!$T$26</definedName>
+    <definedName name="Page1">Barco!$B$1:$M$66</definedName>
+    <definedName name="Page2">Barco!$B$67:$M$132</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Barco!$B$1:$M$132</definedName>
     <definedName name="Z_B8088769_C3DE_4DF8_A82B_D0EB46FFCC4A_.wvu.PrintArea" localSheetId="0" hidden="1">Barco!$B$1:$M$132</definedName>
   </definedNames>
@@ -99,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="188">
   <si>
     <t>Print Area</t>
   </si>
@@ -506,9 +509,6 @@
     <t>Piranha CB2-19020491</t>
   </si>
   <si>
-    <t>Revision 1.5-20210527</t>
-  </si>
-  <si>
     <t>Ambient light illuminance measured at the surface of the monitor(s) must be less than 20 lux</t>
   </si>
   <si>
@@ -569,9 +569,6 @@
     <t>Measurements</t>
   </si>
   <si>
-    <t>Set text</t>
-  </si>
-  <si>
     <t>Light_x000D_(cd/m²)</t>
   </si>
   <si>
@@ -581,12 +578,6 @@
     <t>LN18</t>
   </si>
   <si>
-    <t>UNL10</t>
-  </si>
-  <si>
-    <t>UNL80</t>
-  </si>
-  <si>
     <t>LUDM UNL 10 L:</t>
   </si>
   <si>
@@ -641,9 +632,6 @@
     <t>Ambience Ratio:</t>
   </si>
   <si>
-    <t>L_amb</t>
-  </si>
-  <si>
     <t>Luminance deviation from median is &lt; 30%</t>
   </si>
   <si>
@@ -657,6 +645,27 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>Test Pattern</t>
+  </si>
+  <si>
+    <t>Lamb</t>
+  </si>
+  <si>
+    <t>UN10</t>
+  </si>
+  <si>
+    <t>UN80</t>
+  </si>
+  <si>
+    <t>Waveforms</t>
+  </si>
+  <si>
+    <t>Revision 1.6-20220607</t>
+  </si>
+  <si>
+    <t>Page1,Page2</t>
   </si>
 </sst>
 </file>
@@ -672,7 +681,7 @@
     <numFmt numFmtId="169" formatCode="0.0%"/>
     <numFmt numFmtId="170" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -781,13 +790,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -798,6 +800,19 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1600,7 +1615,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2127,9 +2142,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2217,6 +2229,66 @@
     <xf numFmtId="2" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2250,68 +2322,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2841,9 +2855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X98" sqref="X98"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2872,7 +2884,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="5"/>
       <c r="O1" s="6" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
@@ -2887,12 +2899,12 @@
       <c r="AA1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="233" t="s">
+      <c r="AG1" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="233"/>
-      <c r="AI1" s="233"/>
-      <c r="AJ1" s="233"/>
+      <c r="AH1" s="205"/>
+      <c r="AI1" s="205"/>
+      <c r="AJ1" s="205"/>
     </row>
     <row r="2" spans="1:36" ht="14.45" customHeight="1">
       <c r="A2" s="2">
@@ -2908,15 +2920,17 @@
         <v>2</v>
       </c>
       <c r="Y2" s="14"/>
-      <c r="AA2" s="15"/>
-      <c r="AG2" s="234" t="s">
+      <c r="AA2" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG2" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="234"/>
-      <c r="AI2" s="235" t="s">
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="235"/>
+      <c r="AJ2" s="207"/>
     </row>
     <row r="3" spans="1:36" ht="14.45" customHeight="1">
       <c r="A3" s="2">
@@ -2962,7 +2976,9 @@
       <c r="AA4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="22"/>
+      <c r="AB4" s="22" t="s">
+        <v>187</v>
+      </c>
       <c r="AF4" s="21" t="s">
         <v>9</v>
       </c>
@@ -3083,11 +3099,11 @@
       <c r="AB7" s="34"/>
       <c r="AC7" s="35" t="str">
         <f t="shared" ref="AC7:AC20" si="0">IF(AB7&lt;&gt;AD7,"Change","")</f>
-        <v/>
+        <v>Change</v>
       </c>
       <c r="AD7" s="36" t="str">
         <f>IF(OR(AA2="",AA2=0),"",AA2)</f>
-        <v/>
+        <v>Page1,Page2</v>
       </c>
       <c r="AF7" s="21" t="s">
         <v>23</v>
@@ -3197,10 +3213,8 @@
         <f>IF(X7="","",X7)</f>
         <v>Eugene Mah</v>
       </c>
-      <c r="AF9" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG9" s="2"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
     </row>
     <row r="10" spans="1:36" ht="14.45" customHeight="1">
       <c r="A10" s="2">
@@ -3210,19 +3224,19 @@
       <c r="D10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="236" t="str">
+      <c r="E10" s="208" t="str">
         <f t="shared" ref="E10:E15" si="1">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="F10" s="236"/>
+      <c r="F10" s="208"/>
       <c r="I10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="236" t="str">
+      <c r="J10" s="208" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="K10" s="236"/>
+      <c r="K10" s="208"/>
       <c r="M10" s="12"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="21" t="s">
@@ -3254,8 +3268,8 @@
         <f t="shared" ref="AD10:AD15" si="3">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
     </row>
     <row r="11" spans="1:36" ht="14.45" customHeight="1">
       <c r="A11" s="2">
@@ -3265,19 +3279,19 @@
       <c r="D11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="229" t="str">
+      <c r="E11" s="209" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="229"/>
+      <c r="F11" s="209"/>
       <c r="I11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="232" t="str">
+      <c r="J11" s="210" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="K11" s="232"/>
+      <c r="K11" s="210"/>
       <c r="M11" s="12"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="21" t="s">
@@ -3309,12 +3323,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AF11" s="176" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG11" s="176" t="s">
-        <v>157</v>
-      </c>
+      <c r="AF11"/>
+      <c r="AG11"/>
     </row>
     <row r="12" spans="1:36" ht="14.45" customHeight="1">
       <c r="A12" s="2">
@@ -3324,19 +3334,19 @@
       <c r="D12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="229" t="str">
+      <c r="E12" s="209" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="229"/>
+      <c r="F12" s="209"/>
       <c r="I12" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="229" t="str">
+      <c r="J12" s="209" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="K12" s="229"/>
+      <c r="K12" s="209"/>
       <c r="M12" s="12"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="21" t="s">
@@ -3368,10 +3378,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AF12" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG12" s="2"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
     </row>
     <row r="13" spans="1:36" ht="14.45" customHeight="1">
       <c r="A13" s="2">
@@ -3381,19 +3389,19 @@
       <c r="D13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="209" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="229"/>
+      <c r="F13" s="209"/>
       <c r="I13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="209" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="K13" s="229"/>
+      <c r="K13" s="209"/>
       <c r="M13" s="12"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="21" t="s">
@@ -3425,10 +3433,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AF13" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG13" s="2"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
     </row>
     <row r="14" spans="1:36" ht="14.45" customHeight="1">
       <c r="A14" s="2">
@@ -3438,19 +3444,19 @@
       <c r="D14" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="229" t="str">
+      <c r="E14" s="209" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="229"/>
+      <c r="F14" s="209"/>
       <c r="I14" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="229" t="str">
+      <c r="J14" s="209" t="str">
         <f>IF(V14="","",V14)</f>
         <v/>
       </c>
-      <c r="K14" s="229"/>
+      <c r="K14" s="209"/>
       <c r="M14" s="12"/>
       <c r="O14" s="13"/>
       <c r="Q14" s="21" t="s">
@@ -3482,10 +3488,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AF14" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG14" s="2"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
     </row>
     <row r="15" spans="1:36" ht="14.45" customHeight="1" thickBot="1">
       <c r="A15" s="2">
@@ -3495,11 +3499,11 @@
       <c r="D15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="209" t="str">
         <f t="shared" si="1"/>
         <v>IMPAX 4.2 2015</v>
       </c>
-      <c r="F15" s="229"/>
+      <c r="F15" s="209"/>
       <c r="M15" s="12"/>
       <c r="O15" s="26"/>
       <c r="P15" s="27"/>
@@ -3531,10 +3535,8 @@
         <f t="shared" si="3"/>
         <v>IMPAX 4.2 2015</v>
       </c>
-      <c r="AF15" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG15" s="2"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
     </row>
     <row r="16" spans="1:36" ht="14.45" customHeight="1" thickBot="1">
       <c r="A16" s="2">
@@ -3564,10 +3566,8 @@
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="AF16" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG16" s="2"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
     </row>
     <row r="17" spans="1:33" ht="14.45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="2">
@@ -3594,10 +3594,8 @@
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="AF17" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG17" s="2"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
     </row>
     <row r="18" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A18" s="2">
@@ -3633,10 +3631,8 @@
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="AF18" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG18" s="2"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
     </row>
     <row r="19" spans="1:33" ht="14.45" customHeight="1" thickTop="1">
       <c r="A19" s="2">
@@ -3653,10 +3649,10 @@
       <c r="H19" s="154"/>
       <c r="I19" s="154"/>
       <c r="J19" s="154"/>
-      <c r="K19" s="231" t="s">
+      <c r="K19" s="212" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="231"/>
+      <c r="L19" s="212"/>
       <c r="M19" s="5"/>
       <c r="O19" s="13"/>
       <c r="R19" s="1" t="s">
@@ -3681,10 +3677,8 @@
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="AF19" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG19" s="2"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
     </row>
     <row r="20" spans="1:33" ht="14.45" customHeight="1">
       <c r="A20" s="2">
@@ -3746,10 +3740,8 @@
         <f>IF(V14="","",V14)</f>
         <v/>
       </c>
-      <c r="AF20" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG20" s="2"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
     </row>
     <row r="21" spans="1:33" ht="14.45" customHeight="1">
       <c r="A21" s="2">
@@ -3802,10 +3794,8 @@
       <c r="AB21" s="20"/>
       <c r="AC21" s="20"/>
       <c r="AD21" s="20"/>
-      <c r="AF21" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG21" s="2"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
     </row>
     <row r="22" spans="1:33" ht="14.45" customHeight="1">
       <c r="A22" s="2">
@@ -3858,10 +3848,8 @@
       <c r="AA22" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="AF22" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG22" s="2"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
     </row>
     <row r="23" spans="1:33" ht="14.45" customHeight="1">
       <c r="A23" s="2">
@@ -3913,10 +3901,8 @@
         <f>IF(X20="","",X20)</f>
         <v>Piranha CB2-19020491</v>
       </c>
-      <c r="AF23" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG23" s="2"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
     </row>
     <row r="24" spans="1:33" ht="14.45" customHeight="1">
       <c r="A24" s="2">
@@ -3926,11 +3912,11 @@
       <c r="D24" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="230" t="str">
+      <c r="E24" s="211" t="str">
         <f>IF(P52="","",P52)</f>
         <v/>
       </c>
-      <c r="F24" s="230"/>
+      <c r="F24" s="211"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -3952,10 +3938,8 @@
         <f t="shared" ref="AD24:AD25" si="8">IF(X21="","",X21)</f>
         <v>43549</v>
       </c>
-      <c r="AF24" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG24" s="2"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
     </row>
     <row r="25" spans="1:33" ht="14.45" customHeight="1">
       <c r="A25" s="2">
@@ -3985,10 +3969,8 @@
         <f t="shared" si="8"/>
         <v>44280</v>
       </c>
-      <c r="AF25" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG25" s="2"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
     </row>
     <row r="26" spans="1:33" ht="14.45" customHeight="1">
       <c r="A26" s="2">
@@ -4000,27 +3982,25 @@
       </c>
       <c r="M26" s="12"/>
       <c r="O26" s="84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P26" s="85"/>
       <c r="Q26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="T26" s="195" t="str">
-        <f>IF(AG12="","",AG12)</f>
+        <v>139</v>
+      </c>
+      <c r="T26" s="194" t="str">
+        <f>IF(Sheet1!B4="","",Sheet1!B4)</f>
         <v/>
       </c>
       <c r="U26" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y26" s="14"/>
-      <c r="AF26" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG26" s="2"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
     </row>
     <row r="27" spans="1:33" ht="14.45" customHeight="1">
       <c r="A27" s="2">
@@ -4028,7 +4008,7 @@
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D27" s="147" t="str">
         <f>IF(P26="","",P26)</f>
@@ -4062,11 +4042,11 @@
         <v/>
       </c>
       <c r="U27" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y27" s="14"/>
       <c r="AA27" s="66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB27" s="34"/>
       <c r="AC27" s="35" t="str">
@@ -4077,10 +4057,8 @@
         <f>IF(P26="","",P26)</f>
         <v/>
       </c>
-      <c r="AF27" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG27" s="2"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
     </row>
     <row r="28" spans="1:33" ht="14.45" customHeight="1">
       <c r="A28" s="2">
@@ -4088,14 +4066,14 @@
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D28" s="144" t="str">
         <f>IF(T26="","",T26)</f>
         <v/>
       </c>
       <c r="E28" s="167" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M28" s="12"/>
       <c r="O28" s="13"/>
@@ -4103,11 +4081,11 @@
         <v>57</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y28" s="14"/>
       <c r="AA28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB28" s="34"/>
       <c r="AC28" s="35" t="str">
@@ -4118,10 +4096,8 @@
         <f>IF(T26="","",T26)</f>
         <v/>
       </c>
-      <c r="AF28" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG28" s="2"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
     </row>
     <row r="29" spans="1:33" ht="14.45" customHeight="1">
       <c r="A29" s="2">
@@ -4170,10 +4146,8 @@
         <f>IF(R37="","",R37)</f>
         <v/>
       </c>
-      <c r="AF29" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG29" s="2"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
     </row>
     <row r="30" spans="1:33" ht="14.45" customHeight="1">
       <c r="A30" s="2">
@@ -4222,10 +4196,8 @@
         <f>IF(S37="","",S37)</f>
         <v/>
       </c>
-      <c r="AF30" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG30" s="2"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
     </row>
     <row r="31" spans="1:33" ht="14.45" customHeight="1">
       <c r="A31" s="2">
@@ -4260,7 +4232,7 @@
       <c r="X31" s="78"/>
       <c r="Y31" s="14"/>
       <c r="AA31" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB31" s="34"/>
       <c r="AC31" s="35" t="str">
@@ -4271,10 +4243,8 @@
         <f>IF(Q59="","",Q59)</f>
         <v/>
       </c>
-      <c r="AF31" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG31" s="2"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
     </row>
     <row r="32" spans="1:33" ht="14.45" customHeight="1">
       <c r="A32" s="2">
@@ -4304,7 +4274,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="14"/>
       <c r="AA32" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB32" s="34"/>
       <c r="AC32" s="35" t="str">
@@ -4315,10 +4285,8 @@
         <f>IF(R59="","",R59)</f>
         <v/>
       </c>
-      <c r="AF32" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG32" s="2"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
     </row>
     <row r="33" spans="1:33" ht="14.45" customHeight="1">
       <c r="A33" s="2">
@@ -4356,7 +4324,7 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="14"/>
       <c r="AA33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB33" s="34"/>
       <c r="AC33" s="35" t="str">
@@ -4367,10 +4335,8 @@
         <f>IF(Q60="","",Q60)</f>
         <v/>
       </c>
-      <c r="AF33" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG33" s="2"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
     </row>
     <row r="34" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A34" s="2">
@@ -4419,7 +4385,7 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="14"/>
       <c r="AA34" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AB34" s="34"/>
       <c r="AC34" s="35" t="str">
@@ -4430,10 +4396,8 @@
         <f>IF(R60="","",R60)</f>
         <v/>
       </c>
-      <c r="AF34" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG34" s="2"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
     </row>
     <row r="35" spans="1:33" ht="14.45" customHeight="1">
       <c r="A35" s="2">
@@ -4477,7 +4441,7 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="14"/>
       <c r="AA35" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB35" s="34"/>
       <c r="AC35" s="35" t="str">
@@ -4488,10 +4452,8 @@
         <f>IF(Q61="","",Q61)</f>
         <v/>
       </c>
-      <c r="AF35" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG35" s="2"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
     </row>
     <row r="36" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A36" s="2">
@@ -4535,7 +4497,7 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="14"/>
       <c r="AA36" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB36" s="34"/>
       <c r="AC36" s="35" t="str">
@@ -4546,10 +4508,8 @@
         <f>IF(R61="","",R61)</f>
         <v/>
       </c>
-      <c r="AF36" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG36" s="2"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
     </row>
     <row r="37" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A37" s="2">
@@ -4592,7 +4552,7 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="14"/>
       <c r="AA37" s="21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AB37" s="34"/>
       <c r="AC37" s="35" t="str">
@@ -4603,10 +4563,8 @@
         <f>IF(Q62="","",Q62)</f>
         <v/>
       </c>
-      <c r="AF37" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG37" s="2"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
     </row>
     <row r="38" spans="1:33" ht="14.45" customHeight="1">
       <c r="A38" s="2">
@@ -4639,7 +4597,7 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="14"/>
       <c r="AA38" s="21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AB38" s="34"/>
       <c r="AC38" s="35" t="str">
@@ -4650,10 +4608,8 @@
         <f>IF(R62="","",R62)</f>
         <v/>
       </c>
-      <c r="AF38" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG38" s="2"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
     </row>
     <row r="39" spans="1:33" ht="14.45" customHeight="1">
       <c r="A39" s="2">
@@ -4702,10 +4658,8 @@
         <f>IF(Q99="","",Q99)</f>
         <v/>
       </c>
-      <c r="AF39" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG39" s="2"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
     </row>
     <row r="40" spans="1:33" ht="14.45" customHeight="1">
       <c r="A40" s="2">
@@ -4751,10 +4705,8 @@
         <f>IF(R99="","",R99)</f>
         <v/>
       </c>
-      <c r="AF40" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG40" s="2"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
     </row>
     <row r="41" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A41" s="2">
@@ -4799,10 +4751,8 @@
         <f>IF(S99="","",S99)</f>
         <v/>
       </c>
-      <c r="AF41" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG41" s="2"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
     </row>
     <row r="42" spans="1:33" ht="14.45" customHeight="1">
       <c r="A42" s="2">
@@ -4854,10 +4804,8 @@
         <f>IF(T99="","",T99)</f>
         <v/>
       </c>
-      <c r="AF42" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG42" s="2"/>
+      <c r="AF42"/>
+      <c r="AG42"/>
     </row>
     <row r="43" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A43" s="2">
@@ -4901,7 +4849,7 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="14"/>
       <c r="AA43" s="21" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AB43" s="81"/>
       <c r="AC43" s="35" t="str">
@@ -4912,10 +4860,8 @@
         <f>IF(Q100="","",Q100)</f>
         <v/>
       </c>
-      <c r="AF43" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG43" s="2"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
     </row>
     <row r="44" spans="1:33" ht="14.45" customHeight="1">
       <c r="A44" s="2">
@@ -4954,7 +4900,7 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="14"/>
       <c r="AA44" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AB44" s="81"/>
       <c r="AC44" s="35" t="str">
@@ -4965,10 +4911,8 @@
         <f>IF(R100="","",R100)</f>
         <v/>
       </c>
-      <c r="AF44" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG44" s="2"/>
+      <c r="AF44"/>
+      <c r="AG44"/>
     </row>
     <row r="45" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A45" s="2">
@@ -5009,7 +4953,7 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="14"/>
       <c r="AA45" s="21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AB45" s="81"/>
       <c r="AC45" s="35" t="str">
@@ -5020,10 +4964,8 @@
         <f>IF(S100="","",S100)</f>
         <v/>
       </c>
-      <c r="AF45" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG45" s="2"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
     </row>
     <row r="46" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A46" s="2">
@@ -5058,7 +5000,7 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="14"/>
       <c r="AA46" s="21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AB46" s="81"/>
       <c r="AC46" s="35" t="str">
@@ -5069,10 +5011,8 @@
         <f>IF(T100="","",T100)</f>
         <v/>
       </c>
-      <c r="AF46" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG46" s="2"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
     </row>
     <row r="47" spans="1:33" ht="14.45" customHeight="1">
       <c r="A47" s="2">
@@ -5112,10 +5052,8 @@
       <c r="AB47" s="20"/>
       <c r="AC47" s="20"/>
       <c r="AD47" s="20"/>
-      <c r="AF47" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG47" s="2"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
     </row>
     <row r="48" spans="1:33" ht="14.45" customHeight="1">
       <c r="A48" s="2">
@@ -5163,10 +5101,8 @@
         <f>IF(R73="","",R73)</f>
         <v/>
       </c>
-      <c r="AF48" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG48" s="2"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
     </row>
     <row r="49" spans="1:33" ht="14.45" customHeight="1">
       <c r="A49" s="2">
@@ -5213,10 +5149,8 @@
         <f>IF(R75="","",R75)</f>
         <v/>
       </c>
-      <c r="AF49" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG49" s="2"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
     </row>
     <row r="50" spans="1:33" ht="14.45" customHeight="1">
       <c r="A50" s="2">
@@ -5232,7 +5166,7 @@
         <v/>
       </c>
       <c r="F50" s="167" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G50" s="95"/>
       <c r="H50" s="95"/>
@@ -5245,7 +5179,7 @@
         <v/>
       </c>
       <c r="K50" s="167" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M50" s="12"/>
       <c r="O50" s="13"/>
@@ -5271,10 +5205,8 @@
         <f>IF(R77="","",R77)</f>
         <v/>
       </c>
-      <c r="AF50" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG50" s="2"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
     </row>
     <row r="51" spans="1:33" ht="14.45" customHeight="1">
       <c r="A51" s="2">
@@ -5290,18 +5222,18 @@
         <v/>
       </c>
       <c r="F51" s="167" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I51" s="167" t="str">
         <f>R58</f>
         <v>Right ()</v>
       </c>
-      <c r="J51" s="187" t="str">
+      <c r="J51" s="186" t="str">
         <f>IF(R60="","",R60)</f>
         <v/>
       </c>
       <c r="K51" s="167" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M51" s="12"/>
       <c r="O51" s="80" t="s">
@@ -5333,10 +5265,8 @@
         <f>IF(S73="","",S73)</f>
         <v/>
       </c>
-      <c r="AF51" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG51" s="2"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
     </row>
     <row r="52" spans="1:33" ht="14.45" customHeight="1">
       <c r="A52" s="2">
@@ -5345,7 +5275,7 @@
       <c r="B52" s="10"/>
       <c r="F52" s="95"/>
       <c r="I52" s="62"/>
-      <c r="J52" s="186"/>
+      <c r="J52" s="185"/>
       <c r="M52" s="12"/>
       <c r="O52" s="84" t="s">
         <v>20</v>
@@ -5374,17 +5304,15 @@
         <f>IF(S75="","",S75)</f>
         <v/>
       </c>
-      <c r="AF52" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG52" s="2"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
     </row>
     <row r="53" spans="1:33" ht="14.45" customHeight="1" thickBot="1">
       <c r="A53" s="2">
         <v>53</v>
       </c>
       <c r="B53" s="10"/>
-      <c r="E53" s="186" t="str">
+      <c r="E53" s="185" t="str">
         <f>Q58</f>
         <v>Left ()</v>
       </c>
@@ -5423,10 +5351,8 @@
         <f>IF(S77="","",S77)</f>
         <v/>
       </c>
-      <c r="AF53" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG53" s="2"/>
+      <c r="AF53"/>
+      <c r="AG53"/>
     </row>
     <row r="54" spans="1:33" ht="14.45" customHeight="1">
       <c r="A54" s="2">
@@ -5434,13 +5360,13 @@
       </c>
       <c r="B54" s="10"/>
       <c r="D54" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="E54" s="196" t="str">
+        <v>174</v>
+      </c>
+      <c r="E54" s="195" t="str">
         <f>IF(Q61="","",Q61)</f>
         <v/>
       </c>
-      <c r="F54" s="197" t="str">
+      <c r="F54" s="196" t="str">
         <f>IF(R61="","",R61)</f>
         <v/>
       </c>
@@ -5468,13 +5394,13 @@
       </c>
       <c r="B55" s="10"/>
       <c r="D55" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="E55" s="198" t="str">
+        <v>175</v>
+      </c>
+      <c r="E55" s="197" t="str">
         <f>IF(Q62="","",Q62)</f>
         <v/>
       </c>
-      <c r="F55" s="199" t="str">
+      <c r="F55" s="198" t="str">
         <f>IF(R62="","",R62)</f>
         <v/>
       </c>
@@ -5609,7 +5535,7 @@
       </c>
       <c r="S58" s="2"/>
       <c r="T58" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U58" s="159" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
@@ -5656,25 +5582,25 @@
       <c r="M59" s="12"/>
       <c r="O59" s="13"/>
       <c r="P59" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q59" s="177" t="str">
-        <f>IF(AG12="","",AG13+Lamb)</f>
-        <v/>
-      </c>
-      <c r="R59" s="178" t="str">
-        <f>IF(AG13="","",AG14+Lamb)</f>
+        <v>146</v>
+      </c>
+      <c r="Q59" s="176" t="str">
+        <f>IF(Sheet1!B5="","",Sheet1!B5+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R59" s="177" t="str">
+        <f>IF(Sheet1!B6="","",Sheet1!B6+Lamb)</f>
         <v/>
       </c>
       <c r="S59" s="2"/>
       <c r="T59" s="175" t="s">
-        <v>147</v>
-      </c>
-      <c r="U59" s="200" t="str">
+        <v>146</v>
+      </c>
+      <c r="U59" s="199" t="str">
         <f>IF(AB31="","",AB31)</f>
         <v/>
       </c>
-      <c r="V59" s="201" t="str">
+      <c r="V59" s="200" t="str">
         <f>IF(AB32="","",AB32)</f>
         <v/>
       </c>
@@ -5702,25 +5628,25 @@
       <c r="M60" s="12"/>
       <c r="O60" s="13"/>
       <c r="P60" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q60" s="180" t="str">
-        <f>IF(AG14="","",AG15+Lamb)</f>
-        <v/>
-      </c>
-      <c r="R60" s="181" t="str">
-        <f>IF(AG15="","",AG16+Lamb)</f>
+        <v>147</v>
+      </c>
+      <c r="Q60" s="179" t="str">
+        <f>IF(Sheet1!B7="","",Sheet1!B7+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R60" s="180" t="str">
+        <f>IF(Sheet1!B8="","",Sheet1!B8+Lamb)</f>
         <v/>
       </c>
       <c r="S60" s="2"/>
       <c r="T60" s="175" t="s">
-        <v>148</v>
-      </c>
-      <c r="U60" s="202" t="str">
+        <v>147</v>
+      </c>
+      <c r="U60" s="201" t="str">
         <f>IF(AB33="","",AB33)</f>
         <v/>
       </c>
-      <c r="V60" s="203" t="str">
+      <c r="V60" s="202" t="str">
         <f>IF(AB34="","",AB34)</f>
         <v/>
       </c>
@@ -5748,24 +5674,24 @@
       <c r="M61" s="12"/>
       <c r="O61" s="13"/>
       <c r="P61" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q61" s="188" t="str">
+        <v>145</v>
+      </c>
+      <c r="Q61" s="187" t="str">
         <f>IF(Q59="","",Q60/Q59)</f>
         <v/>
       </c>
-      <c r="R61" s="189" t="str">
+      <c r="R61" s="188" t="str">
         <f>IF(R59="","",R60/R59)</f>
         <v/>
       </c>
       <c r="T61" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="U61" s="202" t="str">
+        <v>145</v>
+      </c>
+      <c r="U61" s="201" t="str">
         <f>IF(AB35="","",AB35)</f>
         <v/>
       </c>
-      <c r="V61" s="203" t="str">
+      <c r="V61" s="202" t="str">
         <f>IF(AB36="","",AB36)</f>
         <v/>
       </c>
@@ -5791,24 +5717,24 @@
       <c r="M62" s="12"/>
       <c r="O62" s="13"/>
       <c r="P62" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q62" s="190" t="str">
+        <v>171</v>
+      </c>
+      <c r="Q62" s="189" t="str">
         <f>IF(OR(Q59="",Lamb=""),"",Lamb/Q59)</f>
         <v/>
       </c>
-      <c r="R62" s="191" t="str">
+      <c r="R62" s="190" t="str">
         <f>IF(OR(R59="",Lamb=""),"",Lamb/R59)</f>
         <v/>
       </c>
       <c r="T62" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="U62" s="204" t="str">
+        <v>171</v>
+      </c>
+      <c r="U62" s="203" t="str">
         <f>IF(AB37="","",AB37)</f>
         <v/>
       </c>
-      <c r="V62" s="205" t="str">
+      <c r="V62" s="204" t="str">
         <f>IF(AB38="","",AB38)</f>
         <v/>
       </c>
@@ -6117,16 +6043,16 @@
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="95"/>
-      <c r="D71" s="226" t="str">
+      <c r="D71" s="213" t="str">
         <f>Q86</f>
         <v>UNL-10 (cd/m^2)</v>
       </c>
-      <c r="E71" s="226"/>
-      <c r="F71" s="227" t="str">
+      <c r="E71" s="213"/>
+      <c r="F71" s="214" t="str">
         <f>S86</f>
         <v>UNL-80 (cd/m^2)</v>
       </c>
-      <c r="G71" s="227"/>
+      <c r="G71" s="214"/>
       <c r="I71" s="68" t="s">
         <v>108</v>
       </c>
@@ -6242,15 +6168,15 @@
       <c r="Q73" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="R73" s="209"/>
-      <c r="S73" s="213"/>
+      <c r="R73" s="228"/>
+      <c r="S73" s="232"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
-      <c r="V73" s="221" t="str">
+      <c r="V73" s="220" t="str">
         <f>IF(AB48="","",AB48)</f>
         <v/>
       </c>
-      <c r="W73" s="222" t="str">
+      <c r="W73" s="221" t="str">
         <f>IF(AB51="","",AB51)</f>
         <v/>
       </c>
@@ -6295,12 +6221,12 @@
       <c r="O74" s="13"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="159"/>
-      <c r="R74" s="210"/>
-      <c r="S74" s="214"/>
+      <c r="R74" s="229"/>
+      <c r="S74" s="233"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
-      <c r="V74" s="220"/>
-      <c r="W74" s="223"/>
+      <c r="V74" s="219"/>
+      <c r="W74" s="222"/>
       <c r="X74" s="2"/>
       <c r="Y74" s="14"/>
       <c r="AB74" s="158"/>
@@ -6343,15 +6269,15 @@
       <c r="Q75" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="R75" s="211"/>
-      <c r="S75" s="215"/>
+      <c r="R75" s="230"/>
+      <c r="S75" s="234"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
-      <c r="V75" s="218" t="str">
+      <c r="V75" s="217" t="str">
         <f>IF(AB49="","",AB49)</f>
         <v/>
       </c>
-      <c r="W75" s="224" t="str">
+      <c r="W75" s="223" t="str">
         <f>IF(AB52="","",AB52)</f>
         <v/>
       </c>
@@ -6367,7 +6293,7 @@
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D76" s="122" t="str">
         <f t="shared" si="13"/>
@@ -6395,12 +6321,12 @@
       <c r="O76" s="13"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="159"/>
-      <c r="R76" s="210"/>
-      <c r="S76" s="214"/>
+      <c r="R76" s="229"/>
+      <c r="S76" s="233"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
-      <c r="V76" s="220"/>
-      <c r="W76" s="223"/>
+      <c r="V76" s="219"/>
+      <c r="W76" s="222"/>
       <c r="X76" s="2"/>
       <c r="Y76" s="14"/>
       <c r="AB76" s="158"/>
@@ -6435,7 +6361,7 @@
         <v/>
       </c>
       <c r="J77" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M77" s="12"/>
       <c r="O77" s="13"/>
@@ -6443,15 +6369,15 @@
       <c r="Q77" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="R77" s="211"/>
-      <c r="S77" s="215"/>
+      <c r="R77" s="230"/>
+      <c r="S77" s="234"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
-      <c r="V77" s="218" t="str">
+      <c r="V77" s="217" t="str">
         <f>IF(AB50="","",AB50)</f>
         <v/>
       </c>
-      <c r="W77" s="224" t="str">
+      <c r="W77" s="223" t="str">
         <f>IF(AB53="","",AB53)</f>
         <v/>
       </c>
@@ -6470,12 +6396,12 @@
       <c r="O78" s="13"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="159"/>
-      <c r="R78" s="212"/>
-      <c r="S78" s="216"/>
+      <c r="R78" s="231"/>
+      <c r="S78" s="235"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
-      <c r="V78" s="219"/>
-      <c r="W78" s="225"/>
+      <c r="V78" s="218"/>
+      <c r="W78" s="224"/>
       <c r="X78" s="2"/>
       <c r="Y78" s="14"/>
       <c r="AB78" s="158"/>
@@ -6693,16 +6619,16 @@
         <v>Right ()</v>
       </c>
       <c r="H84" s="2"/>
-      <c r="I84" s="228" t="str">
+      <c r="I84" s="215" t="str">
         <f>R68</f>
         <v>Left ()</v>
       </c>
-      <c r="J84" s="228"/>
-      <c r="K84" s="228" t="str">
+      <c r="J84" s="215"/>
+      <c r="K84" s="215" t="str">
         <f>S68</f>
         <v>Right ()</v>
       </c>
-      <c r="L84" s="228"/>
+      <c r="L84" s="215"/>
       <c r="M84" s="12"/>
       <c r="O84" s="13"/>
       <c r="P84" s="2"/>
@@ -6746,16 +6672,16 @@
       <c r="H85" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="I85" s="217" t="str">
+      <c r="I85" s="216" t="str">
         <f>IF(R73="","",R73)</f>
         <v/>
       </c>
-      <c r="J85" s="217"/>
-      <c r="K85" s="217" t="str">
+      <c r="J85" s="216"/>
+      <c r="K85" s="216" t="str">
         <f>IF(S73="","",S73)</f>
         <v/>
       </c>
-      <c r="L85" s="217"/>
+      <c r="L85" s="216"/>
       <c r="M85" s="12"/>
       <c r="O85" s="109" t="s">
         <v>107</v>
@@ -6794,27 +6720,27 @@
       <c r="H86" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="I86" s="217" t="str">
+      <c r="I86" s="216" t="str">
         <f>IF(R75="","",R75)</f>
         <v/>
       </c>
-      <c r="J86" s="217"/>
-      <c r="K86" s="217" t="str">
+      <c r="J86" s="216"/>
+      <c r="K86" s="216" t="str">
         <f>IF(S75="","",S75)</f>
         <v/>
       </c>
-      <c r="L86" s="217"/>
+      <c r="L86" s="216"/>
       <c r="M86" s="12"/>
       <c r="O86" s="13"/>
       <c r="P86" s="2"/>
-      <c r="Q86" s="207" t="s">
+      <c r="Q86" s="226" t="s">
         <v>118</v>
       </c>
-      <c r="R86" s="208"/>
-      <c r="S86" s="207" t="s">
+      <c r="R86" s="227"/>
+      <c r="S86" s="226" t="s">
         <v>119</v>
       </c>
-      <c r="T86" s="208"/>
+      <c r="T86" s="227"/>
       <c r="U86" s="2"/>
       <c r="V86" s="127" t="s">
         <v>44</v>
@@ -6844,16 +6770,16 @@
       <c r="H87" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="I87" s="206" t="str">
+      <c r="I87" s="225" t="str">
         <f>IF(R77="","",R77)</f>
         <v/>
       </c>
-      <c r="J87" s="206"/>
-      <c r="K87" s="206" t="str">
+      <c r="J87" s="225"/>
+      <c r="K87" s="225" t="str">
         <f>IF(S77="","",S77)</f>
         <v/>
       </c>
-      <c r="L87" s="206"/>
+      <c r="L87" s="225"/>
       <c r="M87" s="12"/>
       <c r="O87" s="13"/>
       <c r="P87" s="2"/>
@@ -6881,10 +6807,10 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="14"/>
       <c r="AA87" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC87" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="AC87" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:30" ht="14.45" customHeight="1">
@@ -6910,22 +6836,22 @@
       <c r="M88" s="12"/>
       <c r="O88" s="13"/>
       <c r="P88" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q88" s="177" t="str">
-        <f t="shared" ref="Q88:Q96" si="16">IF(AG17="","",AG17+Lamb)</f>
-        <v/>
-      </c>
-      <c r="R88" s="178" t="str">
-        <f t="shared" ref="R88:R96" si="17">IF(AG26="","",AG26+Lamb)</f>
-        <v/>
-      </c>
-      <c r="S88" s="179" t="str">
-        <f t="shared" ref="S88:S96" si="18">IF(AG35="","",AG35+Lamb)</f>
-        <v/>
-      </c>
-      <c r="T88" s="178" t="str">
-        <f t="shared" ref="T88:T96" si="19">IF(AG44="","",AG44+Lamb)</f>
+        <v>162</v>
+      </c>
+      <c r="Q88" s="176" t="str">
+        <f>IF(Sheet1!B9="","",Sheet1!B9+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R88" s="177" t="str">
+        <f>IF(Sheet1!B18="","",Sheet1!B18+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S88" s="178" t="str">
+        <f>IF(Sheet1!B27="","",Sheet1!B27+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T88" s="177" t="str">
+        <f>IF(Sheet1!B36="","",Sheet1!B36+Lamb)</f>
         <v/>
       </c>
       <c r="U88" s="2"/>
@@ -6935,19 +6861,19 @@
       </c>
       <c r="X88" s="2"/>
       <c r="Y88" s="14"/>
-      <c r="AA88" s="194" t="e">
+      <c r="AA88" s="193" t="e">
         <f>ABS(Q88-MEDIAN($Q$88:$Q$96))/MEDIAN($Q$88:$Q$96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AB88" s="194" t="e">
+      <c r="AB88" s="193" t="e">
         <f>ABS(R88-MEDIAN($R$88:$R$96))/MEDIAN($R$88:$R$96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AC88" s="194" t="e">
+      <c r="AC88" s="193" t="e">
         <f>ABS(S88-MEDIAN($S$88:$S$96))/MEDIAN($S$88:$S$96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD88" s="194" t="e">
+      <c r="AD88" s="193" t="e">
         <f>ABS(T88-MEDIAN($T$88:$T$96))/MEDIAN($T$88:$T$96)</f>
         <v>#VALUE!</v>
       </c>
@@ -6973,22 +6899,22 @@
       <c r="M89" s="12"/>
       <c r="O89" s="13"/>
       <c r="P89" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q89" s="180" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="R89" s="181" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="S89" s="182" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T89" s="181" t="str">
-        <f t="shared" si="19"/>
+        <v>163</v>
+      </c>
+      <c r="Q89" s="179" t="str">
+        <f>IF(Sheet1!B10="","",Sheet1!B10+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R89" s="180" t="str">
+        <f>IF(Sheet1!B19="","",Sheet1!B19+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S89" s="181" t="str">
+        <f>IF(Sheet1!B28="","",Sheet1!B28+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T89" s="180" t="str">
+        <f>IF(Sheet1!B37="","",Sheet1!B37+Lamb)</f>
         <v/>
       </c>
       <c r="U89" s="2"/>
@@ -6998,20 +6924,20 @@
       </c>
       <c r="X89" s="2"/>
       <c r="Y89" s="14"/>
-      <c r="AA89" s="194" t="e">
-        <f t="shared" ref="AA89:AA96" si="20">ABS(Q89-MEDIAN($Q$88:$Q$96))/MEDIAN($Q$88:$Q$96)</f>
+      <c r="AA89" s="193" t="e">
+        <f t="shared" ref="AA89:AA96" si="16">ABS(Q89-MEDIAN($Q$88:$Q$96))/MEDIAN($Q$88:$Q$96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AB89" s="194" t="e">
-        <f t="shared" ref="AB89:AB96" si="21">ABS(R89-MEDIAN($R$88:$R$96))/MEDIAN($R$88:$R$96)</f>
+      <c r="AB89" s="193" t="e">
+        <f t="shared" ref="AB89:AB96" si="17">ABS(R89-MEDIAN($R$88:$R$96))/MEDIAN($R$88:$R$96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AC89" s="194" t="e">
-        <f t="shared" ref="AC89:AC96" si="22">ABS(S89-MEDIAN($S$88:$S$96))/MEDIAN($S$88:$S$96)</f>
+      <c r="AC89" s="193" t="e">
+        <f t="shared" ref="AC89:AC96" si="18">ABS(S89-MEDIAN($S$88:$S$96))/MEDIAN($S$88:$S$96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AD89" s="194" t="e">
-        <f t="shared" ref="AD89:AD96" si="23">ABS(T89-MEDIAN($T$88:$T$96))/MEDIAN($T$88:$T$96)</f>
+      <c r="AD89" s="193" t="e">
+        <f t="shared" ref="AD89:AD96" si="19">ABS(T89-MEDIAN($T$88:$T$96))/MEDIAN($T$88:$T$96)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7036,22 +6962,22 @@
       <c r="M90" s="12"/>
       <c r="O90" s="13"/>
       <c r="P90" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q90" s="180" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="R90" s="181" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="S90" s="182" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T90" s="181" t="str">
-        <f t="shared" si="19"/>
+        <v>164</v>
+      </c>
+      <c r="Q90" s="179" t="str">
+        <f>IF(Sheet1!B11="","",Sheet1!B11+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R90" s="180" t="str">
+        <f>IF(Sheet1!B20="","",Sheet1!B20+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S90" s="181" t="str">
+        <f>IF(Sheet1!B29="","",Sheet1!B29+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T90" s="180" t="str">
+        <f>IF(Sheet1!B38="","",Sheet1!B38+Lamb)</f>
         <v/>
       </c>
       <c r="U90" s="2"/>
@@ -7059,20 +6985,20 @@
       <c r="W90" s="2"/>
       <c r="X90" s="2"/>
       <c r="Y90" s="14"/>
-      <c r="AA90" s="194" t="e">
-        <f t="shared" si="20"/>
+      <c r="AA90" s="193" t="e">
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB90" s="194" t="e">
-        <f t="shared" si="21"/>
+      <c r="AB90" s="193" t="e">
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC90" s="194" t="e">
-        <f t="shared" si="22"/>
+      <c r="AC90" s="193" t="e">
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AD90" s="194" t="e">
-        <f t="shared" si="23"/>
+      <c r="AD90" s="193" t="e">
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7084,22 +7010,22 @@
       <c r="M91" s="12"/>
       <c r="O91" s="13"/>
       <c r="P91" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q91" s="180" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="R91" s="181" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="S91" s="182" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T91" s="181" t="str">
-        <f t="shared" si="19"/>
+        <v>165</v>
+      </c>
+      <c r="Q91" s="179" t="str">
+        <f>IF(Sheet1!B12="","",Sheet1!B12+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R91" s="180" t="str">
+        <f>IF(Sheet1!B21="","",Sheet1!B21+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S91" s="181" t="str">
+        <f>IF(Sheet1!B30="","",Sheet1!B30+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T91" s="180" t="str">
+        <f>IF(Sheet1!B39="","",Sheet1!B39+Lamb)</f>
         <v/>
       </c>
       <c r="U91" s="2"/>
@@ -7107,20 +7033,20 @@
       <c r="W91" s="2"/>
       <c r="X91" s="2"/>
       <c r="Y91" s="14"/>
-      <c r="AA91" s="194" t="e">
-        <f t="shared" si="20"/>
+      <c r="AA91" s="193" t="e">
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB91" s="194" t="e">
-        <f t="shared" si="21"/>
+      <c r="AB91" s="193" t="e">
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC91" s="194" t="e">
-        <f t="shared" si="22"/>
+      <c r="AC91" s="193" t="e">
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AD91" s="194" t="e">
-        <f t="shared" si="23"/>
+      <c r="AD91" s="193" t="e">
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7135,47 +7061,47 @@
       <c r="M92" s="12"/>
       <c r="O92" s="13"/>
       <c r="P92" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q92" s="180" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="R92" s="181" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="S92" s="182" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T92" s="181" t="str">
-        <f t="shared" si="19"/>
+        <v>166</v>
+      </c>
+      <c r="Q92" s="179" t="str">
+        <f>IF(Sheet1!B13="","",Sheet1!B13+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R92" s="180" t="str">
+        <f>IF(Sheet1!B22="","",Sheet1!B22+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S92" s="181" t="str">
+        <f>IF(Sheet1!B31="","",Sheet1!B31+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T92" s="180" t="str">
+        <f>IF(Sheet1!B40="","",Sheet1!B40+Lamb)</f>
         <v/>
       </c>
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
       <c r="W92" s="159" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="X92" s="159" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Y92" s="14"/>
-      <c r="AA92" s="194" t="e">
-        <f t="shared" si="20"/>
+      <c r="AA92" s="193" t="e">
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB92" s="194" t="e">
-        <f t="shared" si="21"/>
+      <c r="AB92" s="193" t="e">
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC92" s="194" t="e">
-        <f t="shared" si="22"/>
+      <c r="AC92" s="193" t="e">
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AD92" s="194" t="e">
-        <f t="shared" si="23"/>
+      <c r="AD92" s="193" t="e">
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7199,50 +7125,50 @@
       <c r="M93" s="12"/>
       <c r="O93" s="13"/>
       <c r="P93" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q93" s="180" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="R93" s="181" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="S93" s="182" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T93" s="181" t="str">
-        <f t="shared" si="19"/>
+        <v>167</v>
+      </c>
+      <c r="Q93" s="179" t="str">
+        <f>IF(Sheet1!B14="","",Sheet1!B14+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R93" s="180" t="str">
+        <f>IF(Sheet1!B23="","",Sheet1!B23+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S93" s="181" t="str">
+        <f>IF(Sheet1!B32="","",Sheet1!B32+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T93" s="180" t="str">
+        <f>IF(Sheet1!B41="","",Sheet1!B41+Lamb)</f>
         <v/>
       </c>
       <c r="V93" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="W93" s="237" t="e">
+      <c r="W93" s="238" t="e">
         <f>AVERAGE(Q88:R96)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X93" s="1" t="e">
+      <c r="X93" s="159" t="e">
         <f>STDEV(Q88:R96)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y93" s="14"/>
-      <c r="AA93" s="194" t="e">
-        <f t="shared" si="20"/>
+      <c r="AA93" s="193" t="e">
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB93" s="194" t="e">
-        <f t="shared" si="21"/>
+      <c r="AB93" s="193" t="e">
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC93" s="194" t="e">
-        <f t="shared" si="22"/>
+      <c r="AC93" s="193" t="e">
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AD93" s="194" t="e">
-        <f t="shared" si="23"/>
+      <c r="AD93" s="193" t="e">
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7266,50 +7192,50 @@
       <c r="M94" s="12"/>
       <c r="O94" s="13"/>
       <c r="P94" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q94" s="180" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="R94" s="181" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="S94" s="182" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T94" s="181" t="str">
-        <f t="shared" si="19"/>
+        <v>168</v>
+      </c>
+      <c r="Q94" s="179" t="str">
+        <f>IF(Sheet1!B15="","",Sheet1!B15+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R94" s="180" t="str">
+        <f>IF(Sheet1!B24="","",Sheet1!B24+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S94" s="181" t="str">
+        <f>IF(Sheet1!B33="","",Sheet1!B33+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T94" s="180" t="str">
+        <f>IF(Sheet1!B42="","",Sheet1!B42+Lamb)</f>
         <v/>
       </c>
       <c r="V94" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="W94" s="237" t="e">
+      <c r="W94" s="238" t="e">
         <f>AVERAGE(S88:T96)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X94" s="1" t="e">
+      <c r="X94" s="159" t="e">
         <f>STDEV(S88:T96)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y94" s="14"/>
-      <c r="AA94" s="194" t="e">
-        <f t="shared" si="20"/>
+      <c r="AA94" s="193" t="e">
+        <f t="shared" si="16"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AB94" s="194" t="e">
-        <f t="shared" si="21"/>
+      <c r="AB94" s="193" t="e">
+        <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC94" s="194" t="e">
-        <f t="shared" si="22"/>
+      <c r="AC94" s="193" t="e">
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AD94" s="194" t="e">
-        <f t="shared" si="23"/>
+      <c r="AD94" s="193" t="e">
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7333,39 +7259,39 @@
       <c r="M95" s="12"/>
       <c r="O95" s="13"/>
       <c r="P95" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q95" s="180" t="str">
+        <v>169</v>
+      </c>
+      <c r="Q95" s="179" t="str">
+        <f>IF(Sheet1!B16="","",Sheet1!B16+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R95" s="180" t="str">
+        <f>IF(Sheet1!B25="","",Sheet1!B25+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S95" s="181" t="str">
+        <f>IF(Sheet1!B34="","",Sheet1!B34+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T95" s="180" t="str">
+        <f>IF(Sheet1!B43="","",Sheet1!B43+Lamb)</f>
+        <v/>
+      </c>
+      <c r="Y95" s="14"/>
+      <c r="AA95" s="193" t="e">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="R95" s="181" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB95" s="193" t="e">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="S95" s="182" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC95" s="193" t="e">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T95" s="181" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD95" s="193" t="e">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Y95" s="14"/>
-      <c r="AA95" s="194" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB95" s="194" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC95" s="194" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD95" s="194" t="e">
-        <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7389,39 +7315,39 @@
       <c r="M96" s="12"/>
       <c r="O96" s="13"/>
       <c r="P96" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q96" s="183" t="str">
+        <v>170</v>
+      </c>
+      <c r="Q96" s="182" t="str">
+        <f>IF(Sheet1!B17="","",Sheet1!B17+Lamb)</f>
+        <v/>
+      </c>
+      <c r="R96" s="183" t="str">
+        <f>IF(Sheet1!B26="","",Sheet1!B26+Lamb)</f>
+        <v/>
+      </c>
+      <c r="S96" s="184" t="str">
+        <f>IF(Sheet1!B35="","",Sheet1!B35+Lamb)</f>
+        <v/>
+      </c>
+      <c r="T96" s="183" t="str">
+        <f>IF(Sheet1!B44="","",Sheet1!B44+Lamb)</f>
+        <v/>
+      </c>
+      <c r="Y96" s="14"/>
+      <c r="AA96" s="193" t="e">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="R96" s="184" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB96" s="193" t="e">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="S96" s="185" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC96" s="193" t="e">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="T96" s="184" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD96" s="193" t="e">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Y96" s="14"/>
-      <c r="AA96" s="194" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB96" s="194" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC96" s="194" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD96" s="194" t="e">
-        <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7581,26 +7507,26 @@
       <c r="M100" s="12"/>
       <c r="O100" s="13"/>
       <c r="P100" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q100" s="192" t="str">
+        <v>178</v>
+      </c>
+      <c r="Q100" s="191" t="str">
         <f>IF(Q88="","",MAX(AA88:AA96))</f>
         <v/>
       </c>
-      <c r="R100" s="193" t="str">
+      <c r="R100" s="192" t="str">
         <f>IF(R88="","",MAX(AB88:AB96))</f>
         <v/>
       </c>
-      <c r="S100" s="192" t="str">
+      <c r="S100" s="191" t="str">
         <f>IF(S88="","",MAX(AC88:AC96))</f>
         <v/>
       </c>
-      <c r="T100" s="193" t="str">
+      <c r="T100" s="192" t="str">
         <f>IF(T88="","",MAX(AD88:AD96))</f>
         <v/>
       </c>
       <c r="V100" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Y100" s="14"/>
     </row>
@@ -8632,34 +8558,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="40">
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="V77:V78"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="W73:W74"/>
-    <mergeCell ref="W75:W76"/>
-    <mergeCell ref="W77:W78"/>
     <mergeCell ref="I87:J87"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="Q86:R86"/>
@@ -8672,6 +8570,34 @@
     <mergeCell ref="S77:S78"/>
     <mergeCell ref="I86:J86"/>
     <mergeCell ref="K86:L86"/>
+    <mergeCell ref="V77:V78"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="V73:V74"/>
+    <mergeCell ref="W73:W74"/>
+    <mergeCell ref="W75:W76"/>
+    <mergeCell ref="W77:W78"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <conditionalFormatting sqref="I72:I74">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
@@ -8744,7 +8670,7 @@
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.92638888888888904" header="0.51180555555555496" footer="0.78749999999999998"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.94488188976377963" header="0.51181102362204722" footer="0.78740157480314965"/>
   <pageSetup scale="65" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -8754,4 +8680,240 @@
   </rowBreaks>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C29263F-D78E-4F41-860C-A3D9FC1D1372}">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="236" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="237" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="237" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="236" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B78240B-419B-4DF7-8F4E-FCE73FCACBDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4682771E-6CC9-437B-A11B-811A6139EDE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2229,102 +2229,102 @@
     <xf numFmtId="2" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2855,7 +2855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2899,12 +2901,12 @@
       <c r="AA1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="205" t="s">
+      <c r="AG1" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="205"/>
-      <c r="AI1" s="205"/>
-      <c r="AJ1" s="205"/>
+      <c r="AH1" s="235"/>
+      <c r="AI1" s="235"/>
+      <c r="AJ1" s="235"/>
     </row>
     <row r="2" spans="1:36" ht="14.45" customHeight="1">
       <c r="A2" s="2">
@@ -2923,14 +2925,14 @@
       <c r="AA2" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="AG2" s="206" t="s">
+      <c r="AG2" s="236" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="206"/>
-      <c r="AI2" s="207" t="s">
+      <c r="AH2" s="236"/>
+      <c r="AI2" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="207"/>
+      <c r="AJ2" s="237"/>
     </row>
     <row r="3" spans="1:36" ht="14.45" customHeight="1">
       <c r="A3" s="2">
@@ -3224,19 +3226,19 @@
       <c r="D10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="208" t="str">
+      <c r="E10" s="238" t="str">
         <f t="shared" ref="E10:E15" si="1">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="F10" s="208"/>
+      <c r="F10" s="238"/>
       <c r="I10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="208" t="str">
+      <c r="J10" s="238" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="K10" s="208"/>
+      <c r="K10" s="238"/>
       <c r="M10" s="12"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="21" t="s">
@@ -3279,19 +3281,19 @@
       <c r="D11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="209" t="str">
+      <c r="E11" s="231" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="209"/>
+      <c r="F11" s="231"/>
       <c r="I11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="210" t="str">
+      <c r="J11" s="234" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="K11" s="210"/>
+      <c r="K11" s="234"/>
       <c r="M11" s="12"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="21" t="s">
@@ -3334,19 +3336,19 @@
       <c r="D12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="209" t="str">
+      <c r="E12" s="231" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="209"/>
+      <c r="F12" s="231"/>
       <c r="I12" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="209" t="str">
+      <c r="J12" s="231" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="K12" s="209"/>
+      <c r="K12" s="231"/>
       <c r="M12" s="12"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="21" t="s">
@@ -3389,19 +3391,19 @@
       <c r="D13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="209" t="str">
+      <c r="E13" s="231" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="209"/>
+      <c r="F13" s="231"/>
       <c r="I13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="209" t="str">
+      <c r="J13" s="231" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="K13" s="209"/>
+      <c r="K13" s="231"/>
       <c r="M13" s="12"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="21" t="s">
@@ -3444,19 +3446,19 @@
       <c r="D14" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="209" t="str">
+      <c r="E14" s="231" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="209"/>
+      <c r="F14" s="231"/>
       <c r="I14" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="209" t="str">
+      <c r="J14" s="231" t="str">
         <f>IF(V14="","",V14)</f>
         <v/>
       </c>
-      <c r="K14" s="209"/>
+      <c r="K14" s="231"/>
       <c r="M14" s="12"/>
       <c r="O14" s="13"/>
       <c r="Q14" s="21" t="s">
@@ -3499,11 +3501,11 @@
       <c r="D15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="209" t="str">
+      <c r="E15" s="231" t="str">
         <f t="shared" si="1"/>
         <v>IMPAX 4.2 2015</v>
       </c>
-      <c r="F15" s="209"/>
+      <c r="F15" s="231"/>
       <c r="M15" s="12"/>
       <c r="O15" s="26"/>
       <c r="P15" s="27"/>
@@ -3649,10 +3651,10 @@
       <c r="H19" s="154"/>
       <c r="I19" s="154"/>
       <c r="J19" s="154"/>
-      <c r="K19" s="212" t="s">
+      <c r="K19" s="233" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="212"/>
+      <c r="L19" s="233"/>
       <c r="M19" s="5"/>
       <c r="O19" s="13"/>
       <c r="R19" s="1" t="s">
@@ -3771,7 +3773,7 @@
       </c>
       <c r="L21" s="155">
         <f t="shared" ref="L21:L22" si="5">IF(W21="","",W21)</f>
-        <v>43549</v>
+        <v>45089</v>
       </c>
       <c r="M21" s="12"/>
       <c r="O21" s="75"/>
@@ -3785,10 +3787,10 @@
       </c>
       <c r="W21" s="153">
         <f t="shared" ref="W21:W22" si="6">IF(X21&lt;&gt;"",X21,IF(AB24="","",AB24))</f>
-        <v>43549</v>
+        <v>45089</v>
       </c>
       <c r="X21" s="150">
-        <v>43549</v>
+        <v>45089</v>
       </c>
       <c r="Y21" s="14"/>
       <c r="AB21" s="20"/>
@@ -3825,7 +3827,7 @@
       </c>
       <c r="L22" s="155">
         <f t="shared" si="5"/>
-        <v>44280</v>
+        <v>45820</v>
       </c>
       <c r="M22" s="12"/>
       <c r="O22" s="75"/>
@@ -3839,10 +3841,10 @@
       </c>
       <c r="W22" s="153">
         <f t="shared" si="6"/>
-        <v>44280</v>
+        <v>45820</v>
       </c>
       <c r="X22" s="150">
-        <v>44280</v>
+        <v>45820</v>
       </c>
       <c r="Y22" s="14"/>
       <c r="AA22" s="21" t="s">
@@ -3912,11 +3914,11 @@
       <c r="D24" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="211" t="str">
+      <c r="E24" s="232" t="str">
         <f>IF(P52="","",P52)</f>
         <v/>
       </c>
-      <c r="F24" s="211"/>
+      <c r="F24" s="232"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -3936,7 +3938,7 @@
       </c>
       <c r="AD24" s="151">
         <f t="shared" ref="AD24:AD25" si="8">IF(X21="","",X21)</f>
-        <v>43549</v>
+        <v>45089</v>
       </c>
       <c r="AF24"/>
       <c r="AG24"/>
@@ -3967,7 +3969,7 @@
       </c>
       <c r="AD25" s="151">
         <f t="shared" si="8"/>
-        <v>44280</v>
+        <v>45820</v>
       </c>
       <c r="AF25"/>
       <c r="AG25"/>
@@ -6043,16 +6045,16 @@
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="95"/>
-      <c r="D71" s="213" t="str">
+      <c r="D71" s="228" t="str">
         <f>Q86</f>
         <v>UNL-10 (cd/m^2)</v>
       </c>
-      <c r="E71" s="213"/>
-      <c r="F71" s="214" t="str">
+      <c r="E71" s="228"/>
+      <c r="F71" s="229" t="str">
         <f>S86</f>
         <v>UNL-80 (cd/m^2)</v>
       </c>
-      <c r="G71" s="214"/>
+      <c r="G71" s="229"/>
       <c r="I71" s="68" t="s">
         <v>108</v>
       </c>
@@ -6168,15 +6170,15 @@
       <c r="Q73" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="R73" s="228"/>
-      <c r="S73" s="232"/>
+      <c r="R73" s="211"/>
+      <c r="S73" s="215"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
-      <c r="V73" s="220" t="str">
+      <c r="V73" s="223" t="str">
         <f>IF(AB48="","",AB48)</f>
         <v/>
       </c>
-      <c r="W73" s="221" t="str">
+      <c r="W73" s="224" t="str">
         <f>IF(AB51="","",AB51)</f>
         <v/>
       </c>
@@ -6221,12 +6223,12 @@
       <c r="O74" s="13"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="159"/>
-      <c r="R74" s="229"/>
-      <c r="S74" s="233"/>
+      <c r="R74" s="212"/>
+      <c r="S74" s="216"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
-      <c r="V74" s="219"/>
-      <c r="W74" s="222"/>
+      <c r="V74" s="222"/>
+      <c r="W74" s="225"/>
       <c r="X74" s="2"/>
       <c r="Y74" s="14"/>
       <c r="AB74" s="158"/>
@@ -6269,15 +6271,15 @@
       <c r="Q75" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="R75" s="230"/>
-      <c r="S75" s="234"/>
+      <c r="R75" s="213"/>
+      <c r="S75" s="217"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
-      <c r="V75" s="217" t="str">
+      <c r="V75" s="220" t="str">
         <f>IF(AB49="","",AB49)</f>
         <v/>
       </c>
-      <c r="W75" s="223" t="str">
+      <c r="W75" s="226" t="str">
         <f>IF(AB52="","",AB52)</f>
         <v/>
       </c>
@@ -6321,12 +6323,12 @@
       <c r="O76" s="13"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="159"/>
-      <c r="R76" s="229"/>
-      <c r="S76" s="233"/>
+      <c r="R76" s="212"/>
+      <c r="S76" s="216"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
-      <c r="V76" s="219"/>
-      <c r="W76" s="222"/>
+      <c r="V76" s="222"/>
+      <c r="W76" s="225"/>
       <c r="X76" s="2"/>
       <c r="Y76" s="14"/>
       <c r="AB76" s="158"/>
@@ -6369,15 +6371,15 @@
       <c r="Q77" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="R77" s="230"/>
-      <c r="S77" s="234"/>
+      <c r="R77" s="213"/>
+      <c r="S77" s="217"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
-      <c r="V77" s="217" t="str">
+      <c r="V77" s="220" t="str">
         <f>IF(AB50="","",AB50)</f>
         <v/>
       </c>
-      <c r="W77" s="223" t="str">
+      <c r="W77" s="226" t="str">
         <f>IF(AB53="","",AB53)</f>
         <v/>
       </c>
@@ -6396,12 +6398,12 @@
       <c r="O78" s="13"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="159"/>
-      <c r="R78" s="231"/>
-      <c r="S78" s="235"/>
+      <c r="R78" s="214"/>
+      <c r="S78" s="218"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
-      <c r="V78" s="218"/>
-      <c r="W78" s="224"/>
+      <c r="V78" s="221"/>
+      <c r="W78" s="227"/>
       <c r="X78" s="2"/>
       <c r="Y78" s="14"/>
       <c r="AB78" s="158"/>
@@ -6619,16 +6621,16 @@
         <v>Right ()</v>
       </c>
       <c r="H84" s="2"/>
-      <c r="I84" s="215" t="str">
+      <c r="I84" s="230" t="str">
         <f>R68</f>
         <v>Left ()</v>
       </c>
-      <c r="J84" s="215"/>
-      <c r="K84" s="215" t="str">
+      <c r="J84" s="230"/>
+      <c r="K84" s="230" t="str">
         <f>S68</f>
         <v>Right ()</v>
       </c>
-      <c r="L84" s="215"/>
+      <c r="L84" s="230"/>
       <c r="M84" s="12"/>
       <c r="O84" s="13"/>
       <c r="P84" s="2"/>
@@ -6672,16 +6674,16 @@
       <c r="H85" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="I85" s="216" t="str">
+      <c r="I85" s="219" t="str">
         <f>IF(R73="","",R73)</f>
         <v/>
       </c>
-      <c r="J85" s="216"/>
-      <c r="K85" s="216" t="str">
+      <c r="J85" s="219"/>
+      <c r="K85" s="219" t="str">
         <f>IF(S73="","",S73)</f>
         <v/>
       </c>
-      <c r="L85" s="216"/>
+      <c r="L85" s="219"/>
       <c r="M85" s="12"/>
       <c r="O85" s="109" t="s">
         <v>107</v>
@@ -6720,27 +6722,27 @@
       <c r="H86" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="I86" s="216" t="str">
+      <c r="I86" s="219" t="str">
         <f>IF(R75="","",R75)</f>
         <v/>
       </c>
-      <c r="J86" s="216"/>
-      <c r="K86" s="216" t="str">
+      <c r="J86" s="219"/>
+      <c r="K86" s="219" t="str">
         <f>IF(S75="","",S75)</f>
         <v/>
       </c>
-      <c r="L86" s="216"/>
+      <c r="L86" s="219"/>
       <c r="M86" s="12"/>
       <c r="O86" s="13"/>
       <c r="P86" s="2"/>
-      <c r="Q86" s="226" t="s">
+      <c r="Q86" s="209" t="s">
         <v>118</v>
       </c>
-      <c r="R86" s="227"/>
-      <c r="S86" s="226" t="s">
+      <c r="R86" s="210"/>
+      <c r="S86" s="209" t="s">
         <v>119</v>
       </c>
-      <c r="T86" s="227"/>
+      <c r="T86" s="210"/>
       <c r="U86" s="2"/>
       <c r="V86" s="127" t="s">
         <v>44</v>
@@ -6770,16 +6772,16 @@
       <c r="H87" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="I87" s="225" t="str">
+      <c r="I87" s="208" t="str">
         <f>IF(R77="","",R77)</f>
         <v/>
       </c>
-      <c r="J87" s="225"/>
-      <c r="K87" s="225" t="str">
+      <c r="J87" s="208"/>
+      <c r="K87" s="208" t="str">
         <f>IF(S77="","",S77)</f>
         <v/>
       </c>
-      <c r="L87" s="225"/>
+      <c r="L87" s="208"/>
       <c r="M87" s="12"/>
       <c r="O87" s="13"/>
       <c r="P87" s="2"/>
@@ -7146,7 +7148,7 @@
       <c r="V93" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="W93" s="238" t="e">
+      <c r="W93" s="207" t="e">
         <f>AVERAGE(Q88:R96)</f>
         <v>#DIV/0!</v>
       </c>
@@ -7213,7 +7215,7 @@
       <c r="V94" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="W94" s="238" t="e">
+      <c r="W94" s="207" t="e">
         <f>AVERAGE(S88:T96)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8558,6 +8560,34 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="40">
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="V77:V78"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="V73:V74"/>
+    <mergeCell ref="W73:W74"/>
+    <mergeCell ref="W75:W76"/>
+    <mergeCell ref="W77:W78"/>
     <mergeCell ref="I87:J87"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="Q86:R86"/>
@@ -8570,34 +8600,6 @@
     <mergeCell ref="S77:S78"/>
     <mergeCell ref="I86:J86"/>
     <mergeCell ref="K86:L86"/>
-    <mergeCell ref="V77:V78"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="W73:W74"/>
-    <mergeCell ref="W75:W76"/>
-    <mergeCell ref="W77:W78"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <conditionalFormatting sqref="I72:I74">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
@@ -8691,15 +8693,15 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="205" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="206" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="237" t="s">
+      <c r="B3" s="206" t="s">
         <v>155</v>
       </c>
     </row>
@@ -8909,7 +8911,7 @@
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="236" t="s">
+      <c r="A46" s="205" t="s">
         <v>185</v>
       </c>
     </row>

--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B78240B-419B-4DF7-8F4E-FCE73FCACBDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2A796B-BDF5-4FBE-AFAE-519274D7D90D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,9 +230,6 @@
     <t>QC Manual version:</t>
   </si>
   <si>
-    <t>IMPAX 4.2 2015</t>
-  </si>
-  <si>
     <t>Inspection Results</t>
   </si>
   <si>
@@ -666,6 +663,9 @@
   </si>
   <si>
     <t>Page1,Page2</t>
+  </si>
+  <si>
+    <t>Barco K5905277 v16</t>
   </si>
 </sst>
 </file>
@@ -2229,103 +2229,103 @@
     <xf numFmtId="2" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2855,7 +2855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2884,7 +2886,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="5"/>
       <c r="O1" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
@@ -2899,12 +2901,12 @@
       <c r="AA1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="205" t="s">
+      <c r="AG1" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="205"/>
-      <c r="AI1" s="205"/>
-      <c r="AJ1" s="205"/>
+      <c r="AH1" s="208"/>
+      <c r="AI1" s="208"/>
+      <c r="AJ1" s="208"/>
     </row>
     <row r="2" spans="1:36" ht="14.45" customHeight="1">
       <c r="A2" s="2">
@@ -2921,16 +2923,16 @@
       </c>
       <c r="Y2" s="14"/>
       <c r="AA2" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG2" s="206" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG2" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="206"/>
-      <c r="AI2" s="207" t="s">
+      <c r="AH2" s="209"/>
+      <c r="AI2" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="207"/>
+      <c r="AJ2" s="210"/>
     </row>
     <row r="3" spans="1:36" ht="14.45" customHeight="1">
       <c r="A3" s="2">
@@ -2977,7 +2979,7 @@
         <v>8</v>
       </c>
       <c r="AB4" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF4" s="21" t="s">
         <v>9</v>
@@ -3224,19 +3226,19 @@
       <c r="D10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="208" t="str">
+      <c r="E10" s="211" t="str">
         <f t="shared" ref="E10:E15" si="1">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="F10" s="208"/>
+      <c r="F10" s="211"/>
       <c r="I10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="208" t="str">
+      <c r="J10" s="211" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="K10" s="208"/>
+      <c r="K10" s="211"/>
       <c r="M10" s="12"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="21" t="s">
@@ -3279,19 +3281,19 @@
       <c r="D11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="209" t="str">
+      <c r="E11" s="212" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="209"/>
+      <c r="F11" s="212"/>
       <c r="I11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="210" t="str">
+      <c r="J11" s="213" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="K11" s="210"/>
+      <c r="K11" s="213"/>
       <c r="M11" s="12"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="21" t="s">
@@ -3334,19 +3336,19 @@
       <c r="D12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="209" t="str">
+      <c r="E12" s="212" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="209"/>
+      <c r="F12" s="212"/>
       <c r="I12" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="209" t="str">
+      <c r="J12" s="212" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="K12" s="209"/>
+      <c r="K12" s="212"/>
       <c r="M12" s="12"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="21" t="s">
@@ -3389,19 +3391,19 @@
       <c r="D13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="209" t="str">
+      <c r="E13" s="212" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="209"/>
+      <c r="F13" s="212"/>
       <c r="I13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="209" t="str">
+      <c r="J13" s="212" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="K13" s="209"/>
+      <c r="K13" s="212"/>
       <c r="M13" s="12"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="21" t="s">
@@ -3444,19 +3446,19 @@
       <c r="D14" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="209" t="str">
+      <c r="E14" s="212" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="209"/>
+      <c r="F14" s="212"/>
       <c r="I14" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="209" t="str">
+      <c r="J14" s="212" t="str">
         <f>IF(V14="","",V14)</f>
         <v/>
       </c>
-      <c r="K14" s="209"/>
+      <c r="K14" s="212"/>
       <c r="M14" s="12"/>
       <c r="O14" s="13"/>
       <c r="Q14" s="21" t="s">
@@ -3499,11 +3501,11 @@
       <c r="D15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="209" t="str">
+      <c r="E15" s="212" t="str">
         <f t="shared" si="1"/>
-        <v>IMPAX 4.2 2015</v>
-      </c>
-      <c r="F15" s="209"/>
+        <v>Barco K5905277 v16</v>
+      </c>
+      <c r="F15" s="212"/>
       <c r="M15" s="12"/>
       <c r="O15" s="26"/>
       <c r="P15" s="27"/>
@@ -3512,10 +3514,10 @@
       </c>
       <c r="R15" s="64" t="str">
         <f t="shared" si="2"/>
-        <v>IMPAX 4.2 2015</v>
+        <v>Barco K5905277 v16</v>
       </c>
       <c r="S15" s="65" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
@@ -3533,7 +3535,7 @@
       </c>
       <c r="AD15" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>IMPAX 4.2 2015</v>
+        <v>Barco K5905277 v16</v>
       </c>
       <c r="AF15"/>
       <c r="AG15"/>
@@ -3580,7 +3582,7 @@
       </c>
       <c r="S17" s="68"/>
       <c r="T17" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA17" s="21" t="s">
         <v>34</v>
@@ -3607,7 +3609,7 @@
         <v>Mammography Monitor Compliance Inspection</v>
       </c>
       <c r="O18" s="72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -3644,23 +3646,23 @@
       <c r="E19" s="4"/>
       <c r="F19" s="154"/>
       <c r="G19" s="154" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="154"/>
       <c r="I19" s="154"/>
       <c r="J19" s="154"/>
-      <c r="K19" s="212" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="212"/>
+      <c r="K19" s="215" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="215"/>
       <c r="M19" s="5"/>
       <c r="O19" s="13"/>
       <c r="R19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S19" s="40"/>
       <c r="V19" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W19" s="40"/>
       <c r="X19" s="40"/>
@@ -3686,7 +3688,7 @@
       </c>
       <c r="B20" s="10"/>
       <c r="D20" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" s="53" t="str">
         <f>IF(O20="","",IF(O20=1,"YES",IF(O20=2,"NO",IF(O20=3,"NA",""))))</f>
@@ -3704,7 +3706,7 @@
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
       <c r="K20" s="62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L20" s="88" t="str">
         <f>IF(W20="","",W20)</f>
@@ -3713,19 +3715,19 @@
       <c r="M20" s="12"/>
       <c r="O20" s="75"/>
       <c r="P20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R20" s="76"/>
       <c r="S20" s="40"/>
       <c r="V20" s="66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W20" s="148" t="str">
         <f>IF(X20&lt;&gt;"",X20,IF(AB23="","",AB23))</f>
         <v>Piranha CB2-19020491</v>
       </c>
       <c r="X20" s="149" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y20" s="14"/>
       <c r="AA20" s="21" t="s">
@@ -3749,7 +3751,7 @@
       </c>
       <c r="B21" s="10"/>
       <c r="D21" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" s="56" t="str">
         <f>IF(O21="","",IF(O21=1,"YES",IF(O21=2,"NO",IF(O21=3,"NA",""))))</f>
@@ -3767,28 +3769,28 @@
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
       <c r="K21" s="62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L21" s="155">
         <f t="shared" ref="L21:L22" si="5">IF(W21="","",W21)</f>
-        <v>43549</v>
+        <v>45089</v>
       </c>
       <c r="M21" s="12"/>
       <c r="O21" s="75"/>
       <c r="P21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R21" s="76"/>
       <c r="S21" s="40"/>
       <c r="V21" s="66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W21" s="153">
         <f t="shared" ref="W21:W22" si="6">IF(X21&lt;&gt;"",X21,IF(AB24="","",AB24))</f>
-        <v>43549</v>
+        <v>45089</v>
       </c>
       <c r="X21" s="150">
-        <v>43549</v>
+        <v>45089</v>
       </c>
       <c r="Y21" s="14"/>
       <c r="AB21" s="20"/>
@@ -3803,7 +3805,7 @@
       </c>
       <c r="B22" s="10"/>
       <c r="D22" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="56" t="str">
         <f>IF(O22="","",IF(O22=1,"YES",IF(O22=2,"NO",IF(O22=3,"NA",""))))</f>
@@ -3821,32 +3823,32 @@
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
       <c r="K22" s="62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L22" s="155">
         <f t="shared" si="5"/>
-        <v>44280</v>
+        <v>45820</v>
       </c>
       <c r="M22" s="12"/>
       <c r="O22" s="75"/>
       <c r="P22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R22" s="76"/>
       <c r="S22" s="40"/>
       <c r="V22" s="66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W22" s="153">
         <f t="shared" si="6"/>
-        <v>44280</v>
+        <v>45820</v>
       </c>
       <c r="X22" s="150">
-        <v>44280</v>
+        <v>45820</v>
       </c>
       <c r="Y22" s="14"/>
       <c r="AA22" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF22"/>
       <c r="AG22"/>
@@ -3857,7 +3859,7 @@
       </c>
       <c r="B23" s="10"/>
       <c r="D23" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E23" s="56" t="str">
         <f>IF(O23="","",IF(O23=1,"YES",IF(O23=2,"NO",IF(O23=3,"NA",""))))</f>
@@ -3879,7 +3881,7 @@
       <c r="M23" s="12"/>
       <c r="O23" s="75"/>
       <c r="P23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R23" s="76"/>
       <c r="S23" s="40"/>
@@ -3890,7 +3892,7 @@
       <c r="X23" s="40"/>
       <c r="Y23" s="14"/>
       <c r="AA23" s="66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB23" s="34"/>
       <c r="AC23" s="35" t="str">
@@ -3910,13 +3912,13 @@
       </c>
       <c r="B24" s="10"/>
       <c r="D24" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="211" t="str">
+        <v>84</v>
+      </c>
+      <c r="E24" s="214" t="str">
         <f>IF(P52="","",P52)</f>
         <v/>
       </c>
-      <c r="F24" s="211"/>
+      <c r="F24" s="214"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -3927,7 +3929,7 @@
       <c r="O24" s="13"/>
       <c r="Y24" s="14"/>
       <c r="AA24" s="66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB24" s="152"/>
       <c r="AC24" s="35" t="str">
@@ -3936,7 +3938,7 @@
       </c>
       <c r="AD24" s="151">
         <f t="shared" ref="AD24:AD25" si="8">IF(X21="","",X21)</f>
-        <v>43549</v>
+        <v>45089</v>
       </c>
       <c r="AF24"/>
       <c r="AG24"/>
@@ -3948,17 +3950,17 @@
       <c r="B25" s="10"/>
       <c r="M25" s="12"/>
       <c r="O25" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="U25" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="U25" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Y25" s="14"/>
       <c r="AA25" s="66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB25" s="152"/>
       <c r="AC25" s="35" t="str">
@@ -3967,7 +3969,7 @@
       </c>
       <c r="AD25" s="151">
         <f t="shared" si="8"/>
-        <v>44280</v>
+        <v>45820</v>
       </c>
       <c r="AF25"/>
       <c r="AG25"/>
@@ -3978,25 +3980,25 @@
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M26" s="12"/>
       <c r="O26" s="84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P26" s="85"/>
       <c r="Q26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T26" s="194" t="str">
         <f>IF(Sheet1!B4="","",Sheet1!B4)</f>
         <v/>
       </c>
       <c r="U26" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y26" s="14"/>
       <c r="AF26"/>
@@ -4008,45 +4010,45 @@
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D27" s="147" t="str">
         <f>IF(P26="","",P26)</f>
         <v/>
       </c>
       <c r="E27" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="M27" s="12"/>
       <c r="O27" s="84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P27" s="87" t="str">
         <f>IF(AB27="","",AB27)</f>
         <v/>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S27" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T27" s="87" t="str">
         <f>IF(AB28="","",AB28)</f>
         <v/>
       </c>
       <c r="U27" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y27" s="14"/>
       <c r="AA27" s="66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB27" s="34"/>
       <c r="AC27" s="35" t="str">
@@ -4066,26 +4068,26 @@
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28" s="144" t="str">
         <f>IF(T26="","",T26)</f>
         <v/>
       </c>
       <c r="E28" s="167" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M28" s="12"/>
       <c r="O28" s="13"/>
       <c r="P28" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y28" s="14"/>
       <c r="AA28" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB28" s="34"/>
       <c r="AC28" s="35" t="str">
@@ -4105,7 +4107,7 @@
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="88" t="str">
         <f>IF(Q29="","",IF(LEN(Q29)&lt;=135,Q29,IF(LEN(Q29)&lt;=260,LEFT(Q29,SEARCH(" ",Q29,125)),LEFT(Q29,SEARCH(" ",Q29,130)))))</f>
@@ -4122,7 +4124,7 @@
       <c r="M29" s="12"/>
       <c r="O29" s="13"/>
       <c r="P29" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q29" s="89" t="str">
         <f>IF(Q31&lt;&gt;"",Q31,IF(AB56="","",AB56))</f>
@@ -4135,7 +4137,7 @@
       <c r="X29" s="90"/>
       <c r="Y29" s="14"/>
       <c r="AA29" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB29" s="34"/>
       <c r="AC29" s="35" t="str">
@@ -4170,7 +4172,7 @@
       <c r="M30" s="12"/>
       <c r="O30" s="13"/>
       <c r="P30" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q30" s="126"/>
       <c r="R30" s="93">
@@ -4185,7 +4187,7 @@
       <c r="X30" s="78"/>
       <c r="Y30" s="14"/>
       <c r="AA30" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB30" s="34"/>
       <c r="AC30" s="35" t="str">
@@ -4220,7 +4222,7 @@
       <c r="M31" s="12"/>
       <c r="O31" s="13"/>
       <c r="P31" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q31" s="76"/>
       <c r="R31" s="78"/>
@@ -4232,7 +4234,7 @@
       <c r="X31" s="78"/>
       <c r="Y31" s="14"/>
       <c r="AA31" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AB31" s="34"/>
       <c r="AC31" s="35" t="str">
@@ -4274,7 +4276,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="14"/>
       <c r="AA32" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB32" s="34"/>
       <c r="AC32" s="35" t="str">
@@ -4294,7 +4296,7 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -4307,7 +4309,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="12"/>
       <c r="O33" s="80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -4315,16 +4317,16 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="14"/>
       <c r="AA33" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB33" s="34"/>
       <c r="AC33" s="35" t="str">
@@ -4352,13 +4354,13 @@
       </c>
       <c r="E34" s="166"/>
       <c r="F34" s="167" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="167" t="s">
+      <c r="H34" s="94" t="s">
         <v>72</v>
-      </c>
-      <c r="H34" s="94" t="s">
-        <v>73</v>
       </c>
       <c r="I34" s="95"/>
       <c r="J34" s="95"/>
@@ -4385,7 +4387,7 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="14"/>
       <c r="AA34" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB34" s="34"/>
       <c r="AC34" s="35" t="str">
@@ -4430,7 +4432,7 @@
       <c r="O35" s="13"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R35" s="145"/>
       <c r="S35" s="145"/>
@@ -4441,7 +4443,7 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="14"/>
       <c r="AA35" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB35" s="34"/>
       <c r="AC35" s="35" t="str">
@@ -4486,7 +4488,7 @@
       <c r="O36" s="13"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="99" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R36" s="146"/>
       <c r="S36" s="146"/>
@@ -4497,7 +4499,7 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="14"/>
       <c r="AA36" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AB36" s="34"/>
       <c r="AC36" s="35" t="str">
@@ -4517,7 +4519,7 @@
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="88" t="str">
         <f>IF(Q39="","",IF(LEN(Q39)&lt;=135,Q39,IF(LEN(Q39)&lt;=260,LEFT(Q39,SEARCH(" ",Q39,125)),LEFT(Q39,SEARCH(" ",Q39,130)))))</f>
@@ -4535,7 +4537,7 @@
       <c r="O37" s="13"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R37" s="100" t="str">
         <f>IF(OR(R35="",R36=""),"",R36/R35)</f>
@@ -4552,7 +4554,7 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="14"/>
       <c r="AA37" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB37" s="34"/>
       <c r="AC37" s="35" t="str">
@@ -4597,7 +4599,7 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="14"/>
       <c r="AA38" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB38" s="34"/>
       <c r="AC38" s="35" t="str">
@@ -4632,7 +4634,7 @@
       <c r="M39" s="12"/>
       <c r="O39" s="13"/>
       <c r="P39" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="89" t="str">
         <f>IF(Q41&lt;&gt;"",Q41,IF(AB57="","",AB57))</f>
@@ -4647,7 +4649,7 @@
       <c r="X39" s="90"/>
       <c r="Y39" s="14"/>
       <c r="AA39" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB39" s="81"/>
       <c r="AC39" s="35" t="str">
@@ -4679,7 +4681,7 @@
       <c r="M40" s="12"/>
       <c r="O40" s="13"/>
       <c r="P40" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q40" s="126"/>
       <c r="R40" s="93">
@@ -4694,7 +4696,7 @@
       <c r="X40" s="78"/>
       <c r="Y40" s="14"/>
       <c r="AA40" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB40" s="81"/>
       <c r="AC40" s="35" t="str">
@@ -4728,7 +4730,7 @@
       <c r="M41" s="12"/>
       <c r="O41" s="13"/>
       <c r="P41" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q41" s="76"/>
       <c r="R41" s="78"/>
@@ -4740,7 +4742,7 @@
       <c r="X41" s="78"/>
       <c r="Y41" s="14"/>
       <c r="AA41" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB41" s="81"/>
       <c r="AC41" s="35" t="str">
@@ -4793,7 +4795,7 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="14"/>
       <c r="AA42" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB42" s="81"/>
       <c r="AC42" s="35" t="str">
@@ -4815,7 +4817,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F43" s="164" t="str">
         <f>IF(R46="","",IF(R46=1,"YES",IF(R46=2,"NO",IF(R46=3,"NA",""))))</f>
@@ -4840,16 +4842,16 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="14"/>
       <c r="AA43" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB43" s="81"/>
       <c r="AC43" s="35" t="str">
@@ -4869,7 +4871,7 @@
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" s="88" t="str">
         <f>IF(Q47="","",IF(LEN(Q47)&lt;=135,Q47,IF(LEN(Q47)&lt;=260,LEFT(Q47,SEARCH(" ",Q47,125)),LEFT(Q47,SEARCH(" ",Q47,130)))))</f>
@@ -4894,13 +4896,13 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="14"/>
       <c r="AA44" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AB44" s="81"/>
       <c r="AC44" s="35" t="str">
@@ -4934,7 +4936,7 @@
       <c r="L45" s="91"/>
       <c r="M45" s="12"/>
       <c r="O45" s="104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -4953,7 +4955,7 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="14"/>
       <c r="AA45" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AB45" s="81"/>
       <c r="AC45" s="35" t="str">
@@ -4989,7 +4991,7 @@
       <c r="O46" s="13"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R46" s="105"/>
       <c r="S46" s="105"/>
@@ -5000,7 +5002,7 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="14"/>
       <c r="AA46" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AB46" s="81"/>
       <c r="AC46" s="35" t="str">
@@ -5032,7 +5034,7 @@
       <c r="M47" s="12"/>
       <c r="O47" s="13"/>
       <c r="P47" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q47" s="89" t="str">
         <f>IF(Q49&lt;&gt;"",Q49,IF(AB58="","",AB58))</f>
@@ -5047,7 +5049,7 @@
       <c r="X47" s="90"/>
       <c r="Y47" s="14"/>
       <c r="AA47" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB47" s="20"/>
       <c r="AC47" s="20"/>
@@ -5061,7 +5063,7 @@
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -5075,7 +5077,7 @@
       <c r="M48" s="12"/>
       <c r="O48" s="13"/>
       <c r="P48" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q48" s="126"/>
       <c r="R48" s="93">
@@ -5090,7 +5092,7 @@
       <c r="X48" s="78"/>
       <c r="Y48" s="14"/>
       <c r="AA48" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB48" s="156"/>
       <c r="AC48" s="35" t="str">
@@ -5110,7 +5112,7 @@
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="106" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D49" s="95"/>
       <c r="E49" s="95"/>
@@ -5118,7 +5120,7 @@
       <c r="G49" s="95"/>
       <c r="H49" s="95"/>
       <c r="I49" s="106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J49" s="95"/>
       <c r="K49" s="95"/>
@@ -5126,7 +5128,7 @@
       <c r="M49" s="12"/>
       <c r="O49" s="13"/>
       <c r="P49" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q49" s="76"/>
       <c r="R49" s="78"/>
@@ -5138,7 +5140,7 @@
       <c r="X49" s="78"/>
       <c r="Y49" s="14"/>
       <c r="AA49" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB49" s="156"/>
       <c r="AC49" s="35" t="str">
@@ -5166,7 +5168,7 @@
         <v/>
       </c>
       <c r="F50" s="167" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G50" s="95"/>
       <c r="H50" s="95"/>
@@ -5179,7 +5181,7 @@
         <v/>
       </c>
       <c r="K50" s="167" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M50" s="12"/>
       <c r="O50" s="13"/>
@@ -5194,7 +5196,7 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="14"/>
       <c r="AA50" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB50" s="156"/>
       <c r="AC50" s="35" t="str">
@@ -5222,7 +5224,7 @@
         <v/>
       </c>
       <c r="F51" s="167" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I51" s="167" t="str">
         <f>R58</f>
@@ -5233,7 +5235,7 @@
         <v/>
       </c>
       <c r="K51" s="167" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M51" s="12"/>
       <c r="O51" s="80" t="s">
@@ -5245,16 +5247,16 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
       <c r="Y51" s="14"/>
       <c r="AA51" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB51" s="156"/>
       <c r="AC51" s="35" t="str">
@@ -5287,13 +5289,13 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
       <c r="Y52" s="14"/>
       <c r="AA52" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB52" s="156"/>
       <c r="AC52" s="35" t="str">
@@ -5325,7 +5327,7 @@
       <c r="M53" s="12"/>
       <c r="O53" s="13"/>
       <c r="P53" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q53" s="89" t="str">
         <f>IF(Q55&lt;&gt;"",Q55,IF(AB59="","",AB59))</f>
@@ -5340,7 +5342,7 @@
       <c r="X53" s="90"/>
       <c r="Y53" s="14"/>
       <c r="AA53" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB53" s="156"/>
       <c r="AC53" s="35" t="str">
@@ -5360,7 +5362,7 @@
       </c>
       <c r="B54" s="10"/>
       <c r="D54" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E54" s="195" t="str">
         <f>IF(Q61="","",Q61)</f>
@@ -5373,7 +5375,7 @@
       <c r="M54" s="12"/>
       <c r="O54" s="13"/>
       <c r="P54" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q54" s="126"/>
       <c r="R54" s="93">
@@ -5394,7 +5396,7 @@
       </c>
       <c r="B55" s="10"/>
       <c r="D55" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E55" s="197" t="str">
         <f>IF(Q62="","",Q62)</f>
@@ -5407,7 +5409,7 @@
       <c r="M55" s="12"/>
       <c r="O55" s="13"/>
       <c r="P55" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q55" s="76"/>
       <c r="R55" s="78"/>
@@ -5419,7 +5421,7 @@
       <c r="X55" s="78"/>
       <c r="Y55" s="14"/>
       <c r="AA55" s="68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB55" s="20"/>
       <c r="AC55" s="20"/>
@@ -5443,7 +5445,7 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="14"/>
       <c r="AA56" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB56" s="157"/>
       <c r="AC56" s="35" t="str">
@@ -5461,7 +5463,7 @@
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" s="88" t="str">
         <f>IF(Q63="","",IF(LEN(Q63)&lt;=135,Q63,IF(LEN(Q63)&lt;=260,LEFT(Q63,SEARCH(" ",Q63,125)),LEFT(Q63,SEARCH(" ",Q63,130)))))</f>
@@ -5477,7 +5479,7 @@
       <c r="L57" s="88"/>
       <c r="M57" s="12"/>
       <c r="O57" s="80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
@@ -5490,7 +5492,7 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="14"/>
       <c r="AA57" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB57" s="157"/>
       <c r="AC57" s="35" t="str">
@@ -5522,7 +5524,7 @@
       <c r="L58" s="91"/>
       <c r="M58" s="12"/>
       <c r="O58" s="109" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="159" t="str">
@@ -5535,7 +5537,7 @@
       </c>
       <c r="S58" s="2"/>
       <c r="T58" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U58" s="159" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
@@ -5549,7 +5551,7 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="14"/>
       <c r="AA58" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB58" s="157"/>
       <c r="AC58" s="35" t="str">
@@ -5582,7 +5584,7 @@
       <c r="M59" s="12"/>
       <c r="O59" s="13"/>
       <c r="P59" s="66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q59" s="176" t="str">
         <f>IF(Sheet1!B5="","",Sheet1!B5+Lamb)</f>
@@ -5594,7 +5596,7 @@
       </c>
       <c r="S59" s="2"/>
       <c r="T59" s="175" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U59" s="199" t="str">
         <f>IF(AB31="","",AB31)</f>
@@ -5608,7 +5610,7 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="14"/>
       <c r="AA59" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB59" s="157"/>
       <c r="AC59" s="35" t="str">
@@ -5628,7 +5630,7 @@
       <c r="M60" s="12"/>
       <c r="O60" s="13"/>
       <c r="P60" s="66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q60" s="179" t="str">
         <f>IF(Sheet1!B7="","",Sheet1!B7+Lamb)</f>
@@ -5640,7 +5642,7 @@
       </c>
       <c r="S60" s="2"/>
       <c r="T60" s="175" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U60" s="201" t="str">
         <f>IF(AB33="","",AB33)</f>
@@ -5654,7 +5656,7 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="14"/>
       <c r="AA60" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AB60" s="157"/>
       <c r="AC60" s="35" t="str">
@@ -5674,7 +5676,7 @@
       <c r="M61" s="12"/>
       <c r="O61" s="13"/>
       <c r="P61" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q61" s="187" t="str">
         <f>IF(Q59="","",Q60/Q59)</f>
@@ -5685,7 +5687,7 @@
         <v/>
       </c>
       <c r="T61" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U61" s="201" t="str">
         <f>IF(AB35="","",AB35)</f>
@@ -5697,7 +5699,7 @@
       </c>
       <c r="Y61" s="14"/>
       <c r="AA61" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB61" s="157"/>
       <c r="AC61" s="35" t="str">
@@ -5717,7 +5719,7 @@
       <c r="M62" s="12"/>
       <c r="O62" s="13"/>
       <c r="P62" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q62" s="189" t="str">
         <f>IF(OR(Q59="",Lamb=""),"",Lamb/Q59)</f>
@@ -5728,7 +5730,7 @@
         <v/>
       </c>
       <c r="T62" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U62" s="203" t="str">
         <f>IF(AB37="","",AB37)</f>
@@ -5740,7 +5742,7 @@
       </c>
       <c r="Y62" s="14"/>
       <c r="AA62" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB62" s="157"/>
       <c r="AC62" s="35" t="str">
@@ -5760,7 +5762,7 @@
       <c r="M63" s="12"/>
       <c r="O63" s="13"/>
       <c r="P63" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q63" s="168" t="str">
         <f>IF(Q65&lt;&gt;"",Q65,IF(AB67="","",AB60))</f>
@@ -5796,7 +5798,7 @@
       <c r="M64" s="25"/>
       <c r="O64" s="13"/>
       <c r="P64" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q64" s="126"/>
       <c r="R64" s="93">
@@ -5811,7 +5813,7 @@
       <c r="X64" s="78"/>
       <c r="Y64" s="14"/>
       <c r="AA64" s="68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB64" s="158"/>
       <c r="AC64" s="35" t="str">
@@ -5843,7 +5845,7 @@
       </c>
       <c r="O65" s="13"/>
       <c r="P65" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q65" s="76"/>
       <c r="R65" s="78"/>
@@ -5863,7 +5865,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D66" s="111" t="str">
         <f>IF($E$14="","",$E$14)</f>
@@ -5906,7 +5908,7 @@
         <v>Medical University of South Carolina</v>
       </c>
       <c r="O67" s="109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
@@ -5914,10 +5916,10 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
@@ -5935,7 +5937,7 @@
         <v>Mammography Monitor Compliance Inspection</v>
       </c>
       <c r="O68" s="104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
@@ -5982,7 +5984,7 @@
       <c r="O69" s="13"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R69" s="113"/>
       <c r="S69" s="114"/>
@@ -6002,7 +6004,7 @@
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -6017,7 +6019,7 @@
       <c r="O70" s="13"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R70" s="116"/>
       <c r="S70" s="117"/>
@@ -6043,24 +6045,24 @@
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="95"/>
-      <c r="D71" s="213" t="str">
+      <c r="D71" s="216" t="str">
         <f>Q86</f>
         <v>UNL-10 (cd/m^2)</v>
       </c>
-      <c r="E71" s="213"/>
-      <c r="F71" s="214" t="str">
+      <c r="E71" s="216"/>
+      <c r="F71" s="217" t="str">
         <f>S86</f>
         <v>UNL-80 (cd/m^2)</v>
       </c>
-      <c r="G71" s="214"/>
+      <c r="G71" s="217"/>
       <c r="I71" s="68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M71" s="12"/>
       <c r="O71" s="13"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R71" s="118"/>
       <c r="S71" s="119"/>
@@ -6101,22 +6103,22 @@
         <v>TBD</v>
       </c>
       <c r="J72" s="95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M72" s="12"/>
       <c r="O72" s="13"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="159" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W72" s="159"/>
       <c r="X72" s="2"/>
@@ -6137,7 +6139,7 @@
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D73" s="120" t="str">
         <f t="shared" ref="D73:G76" si="13">IF(Q97="","",Q97)</f>
@@ -6160,23 +6162,23 @@
         <v>TBD</v>
       </c>
       <c r="J73" s="95" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M73" s="12"/>
       <c r="O73" s="13"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="159" t="s">
-        <v>97</v>
-      </c>
-      <c r="R73" s="228"/>
-      <c r="S73" s="232"/>
+        <v>96</v>
+      </c>
+      <c r="R73" s="231"/>
+      <c r="S73" s="235"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
-      <c r="V73" s="220" t="str">
+      <c r="V73" s="223" t="str">
         <f>IF(AB48="","",AB48)</f>
         <v/>
       </c>
-      <c r="W73" s="221" t="str">
+      <c r="W73" s="224" t="str">
         <f>IF(AB51="","",AB51)</f>
         <v/>
       </c>
@@ -6192,7 +6194,7 @@
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D74" s="120" t="str">
         <f t="shared" si="13"/>
@@ -6215,18 +6217,18 @@
         <v>TBD</v>
       </c>
       <c r="J74" s="95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M74" s="12"/>
       <c r="O74" s="13"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="159"/>
-      <c r="R74" s="229"/>
-      <c r="S74" s="233"/>
+      <c r="R74" s="232"/>
+      <c r="S74" s="236"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
-      <c r="V74" s="219"/>
-      <c r="W74" s="222"/>
+      <c r="V74" s="222"/>
+      <c r="W74" s="225"/>
       <c r="X74" s="2"/>
       <c r="Y74" s="14"/>
       <c r="AB74" s="158"/>
@@ -6245,7 +6247,7 @@
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D75" s="122" t="str">
         <f t="shared" si="13"/>
@@ -6267,17 +6269,17 @@
       <c r="O75" s="13"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="159" t="s">
-        <v>99</v>
-      </c>
-      <c r="R75" s="230"/>
-      <c r="S75" s="234"/>
+        <v>98</v>
+      </c>
+      <c r="R75" s="233"/>
+      <c r="S75" s="237"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
-      <c r="V75" s="217" t="str">
+      <c r="V75" s="220" t="str">
         <f>IF(AB49="","",AB49)</f>
         <v/>
       </c>
-      <c r="W75" s="223" t="str">
+      <c r="W75" s="226" t="str">
         <f>IF(AB52="","",AB52)</f>
         <v/>
       </c>
@@ -6293,7 +6295,7 @@
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D76" s="122" t="str">
         <f t="shared" si="13"/>
@@ -6312,21 +6314,21 @@
         <v/>
       </c>
       <c r="I76" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M76" s="12"/>
       <c r="O76" s="13"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="159"/>
-      <c r="R76" s="229"/>
-      <c r="S76" s="233"/>
+      <c r="R76" s="232"/>
+      <c r="S76" s="236"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
-      <c r="V76" s="219"/>
-      <c r="W76" s="222"/>
+      <c r="V76" s="222"/>
+      <c r="W76" s="225"/>
       <c r="X76" s="2"/>
       <c r="Y76" s="14"/>
       <c r="AB76" s="158"/>
@@ -6361,23 +6363,23 @@
         <v/>
       </c>
       <c r="J77" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M77" s="12"/>
       <c r="O77" s="13"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="159" t="s">
-        <v>102</v>
-      </c>
-      <c r="R77" s="230"/>
-      <c r="S77" s="234"/>
+        <v>101</v>
+      </c>
+      <c r="R77" s="233"/>
+      <c r="S77" s="237"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
-      <c r="V77" s="217" t="str">
+      <c r="V77" s="220" t="str">
         <f>IF(AB50="","",AB50)</f>
         <v/>
       </c>
-      <c r="W77" s="223" t="str">
+      <c r="W77" s="226" t="str">
         <f>IF(AB53="","",AB53)</f>
         <v/>
       </c>
@@ -6396,12 +6398,12 @@
       <c r="O78" s="13"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="159"/>
-      <c r="R78" s="231"/>
-      <c r="S78" s="235"/>
+      <c r="R78" s="234"/>
+      <c r="S78" s="238"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
-      <c r="V78" s="218"/>
-      <c r="W78" s="224"/>
+      <c r="V78" s="221"/>
+      <c r="W78" s="227"/>
       <c r="X78" s="2"/>
       <c r="Y78" s="14"/>
       <c r="AB78" s="158"/>
@@ -6420,7 +6422,7 @@
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D79" s="88" t="str">
         <f>IF(Q101="","",IF(LEN(Q101)&lt;=135,Q101,IF(LEN(Q101)&lt;=260,LEFT(Q101,SEARCH(" ",Q101,125)),LEFT(Q101,SEARCH(" ",Q101,130)))))</f>
@@ -6438,10 +6440,10 @@
       <c r="O79" s="13"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
@@ -6515,7 +6517,7 @@
       <c r="M81" s="12"/>
       <c r="O81" s="13"/>
       <c r="P81" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q81" s="89" t="str">
         <f>IF(Q83&lt;&gt;"",Q83,IF(AB61="","",AB61))</f>
@@ -6541,7 +6543,7 @@
       <c r="M82" s="12"/>
       <c r="O82" s="13"/>
       <c r="P82" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q82" s="126"/>
       <c r="R82" s="93">
@@ -6571,7 +6573,7 @@
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="106" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -6579,7 +6581,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J83" s="167"/>
       <c r="K83" s="167"/>
@@ -6587,7 +6589,7 @@
       <c r="M83" s="12"/>
       <c r="O83" s="13"/>
       <c r="P83" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q83" s="76"/>
       <c r="R83" s="78"/>
@@ -6619,16 +6621,16 @@
         <v>Right ()</v>
       </c>
       <c r="H84" s="2"/>
-      <c r="I84" s="215" t="str">
+      <c r="I84" s="218" t="str">
         <f>R68</f>
         <v>Left ()</v>
       </c>
-      <c r="J84" s="215"/>
-      <c r="K84" s="215" t="str">
+      <c r="J84" s="218"/>
+      <c r="K84" s="218" t="str">
         <f>S68</f>
         <v>Right ()</v>
       </c>
-      <c r="L84" s="215"/>
+      <c r="L84" s="218"/>
       <c r="M84" s="12"/>
       <c r="O84" s="13"/>
       <c r="P84" s="2"/>
@@ -6659,7 +6661,7 @@
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F85" s="162" t="str">
         <f t="shared" ref="F85:G87" si="15">IF(R69="","",IF(R69=1,"YES",IF(R69=2,"NO",IF(R69=3,"NA",""))))</f>
@@ -6670,21 +6672,21 @@
         <v/>
       </c>
       <c r="H85" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="I85" s="216" t="str">
+        <v>96</v>
+      </c>
+      <c r="I85" s="219" t="str">
         <f>IF(R73="","",R73)</f>
         <v/>
       </c>
-      <c r="J85" s="216"/>
-      <c r="K85" s="216" t="str">
+      <c r="J85" s="219"/>
+      <c r="K85" s="219" t="str">
         <f>IF(S73="","",S73)</f>
         <v/>
       </c>
-      <c r="L85" s="216"/>
+      <c r="L85" s="219"/>
       <c r="M85" s="12"/>
       <c r="O85" s="109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
@@ -6693,7 +6695,7 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
       <c r="V85" s="68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W85" s="2"/>
       <c r="X85" s="2"/>
@@ -6707,7 +6709,7 @@
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F86" s="162" t="str">
         <f t="shared" si="15"/>
@@ -6718,32 +6720,32 @@
         <v/>
       </c>
       <c r="H86" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="I86" s="216" t="str">
+        <v>98</v>
+      </c>
+      <c r="I86" s="219" t="str">
         <f>IF(R75="","",R75)</f>
         <v/>
       </c>
-      <c r="J86" s="216"/>
-      <c r="K86" s="216" t="str">
+      <c r="J86" s="219"/>
+      <c r="K86" s="219" t="str">
         <f>IF(S75="","",S75)</f>
         <v/>
       </c>
-      <c r="L86" s="216"/>
+      <c r="L86" s="219"/>
       <c r="M86" s="12"/>
       <c r="O86" s="13"/>
       <c r="P86" s="2"/>
-      <c r="Q86" s="226" t="s">
+      <c r="Q86" s="229" t="s">
+        <v>117</v>
+      </c>
+      <c r="R86" s="230"/>
+      <c r="S86" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="R86" s="227"/>
-      <c r="S86" s="226" t="s">
-        <v>119</v>
-      </c>
-      <c r="T86" s="227"/>
+      <c r="T86" s="230"/>
       <c r="U86" s="2"/>
       <c r="V86" s="127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
@@ -6757,7 +6759,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F87" s="164" t="str">
         <f t="shared" si="15"/>
@@ -6768,18 +6770,18 @@
         <v/>
       </c>
       <c r="H87" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="I87" s="225" t="str">
+        <v>101</v>
+      </c>
+      <c r="I87" s="228" t="str">
         <f>IF(R77="","",R77)</f>
         <v/>
       </c>
-      <c r="J87" s="225"/>
-      <c r="K87" s="225" t="str">
+      <c r="J87" s="228"/>
+      <c r="K87" s="228" t="str">
         <f>IF(S77="","",S77)</f>
         <v/>
       </c>
-      <c r="L87" s="225"/>
+      <c r="L87" s="228"/>
       <c r="M87" s="12"/>
       <c r="O87" s="13"/>
       <c r="P87" s="2"/>
@@ -6802,15 +6804,15 @@
       <c r="U87" s="2"/>
       <c r="V87" s="130"/>
       <c r="W87" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X87" s="2"/>
       <c r="Y87" s="14"/>
       <c r="AA87" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC87" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="AC87" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:30" ht="14.45" customHeight="1">
@@ -6819,7 +6821,7 @@
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D88" s="88" t="str">
         <f>IF(Q81="","",IF(LEN(Q81)&lt;=135,Q81,IF(LEN(Q81)&lt;=260,LEFT(Q81,SEARCH(" ",Q81,125)),LEFT(Q81,SEARCH(" ",Q81,130)))))</f>
@@ -6836,7 +6838,7 @@
       <c r="M88" s="12"/>
       <c r="O88" s="13"/>
       <c r="P88" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q88" s="176" t="str">
         <f>IF(Sheet1!B9="","",Sheet1!B9+Lamb)</f>
@@ -6857,7 +6859,7 @@
       <c r="U88" s="2"/>
       <c r="V88" s="130"/>
       <c r="W88" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X88" s="2"/>
       <c r="Y88" s="14"/>
@@ -6899,7 +6901,7 @@
       <c r="M89" s="12"/>
       <c r="O89" s="13"/>
       <c r="P89" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q89" s="179" t="str">
         <f>IF(Sheet1!B10="","",Sheet1!B10+Lamb)</f>
@@ -6920,7 +6922,7 @@
       <c r="U89" s="2"/>
       <c r="V89" s="130"/>
       <c r="W89" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X89" s="2"/>
       <c r="Y89" s="14"/>
@@ -6962,7 +6964,7 @@
       <c r="M90" s="12"/>
       <c r="O90" s="13"/>
       <c r="P90" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q90" s="179" t="str">
         <f>IF(Sheet1!B11="","",Sheet1!B11+Lamb)</f>
@@ -7010,7 +7012,7 @@
       <c r="M91" s="12"/>
       <c r="O91" s="13"/>
       <c r="P91" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q91" s="179" t="str">
         <f>IF(Sheet1!B12="","",Sheet1!B12+Lamb)</f>
@@ -7056,12 +7058,12 @@
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M92" s="12"/>
       <c r="O92" s="13"/>
       <c r="P92" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q92" s="179" t="str">
         <f>IF(Sheet1!B13="","",Sheet1!B13+Lamb)</f>
@@ -7082,10 +7084,10 @@
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
       <c r="W92" s="159" t="s">
+        <v>178</v>
+      </c>
+      <c r="X92" s="159" t="s">
         <v>179</v>
-      </c>
-      <c r="X92" s="159" t="s">
-        <v>180</v>
       </c>
       <c r="Y92" s="14"/>
       <c r="AA92" s="193" t="e">
@@ -7125,7 +7127,7 @@
       <c r="M93" s="12"/>
       <c r="O93" s="13"/>
       <c r="P93" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q93" s="179" t="str">
         <f>IF(Sheet1!B14="","",Sheet1!B14+Lamb)</f>
@@ -7144,9 +7146,9 @@
         <v/>
       </c>
       <c r="V93" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="W93" s="238" t="e">
+        <v>117</v>
+      </c>
+      <c r="W93" s="207" t="e">
         <f>AVERAGE(Q88:R96)</f>
         <v>#DIV/0!</v>
       </c>
@@ -7192,7 +7194,7 @@
       <c r="M94" s="12"/>
       <c r="O94" s="13"/>
       <c r="P94" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q94" s="179" t="str">
         <f>IF(Sheet1!B15="","",Sheet1!B15+Lamb)</f>
@@ -7211,9 +7213,9 @@
         <v/>
       </c>
       <c r="V94" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="W94" s="238" t="e">
+        <v>118</v>
+      </c>
+      <c r="W94" s="207" t="e">
         <f>AVERAGE(S88:T96)</f>
         <v>#DIV/0!</v>
       </c>
@@ -7259,7 +7261,7 @@
       <c r="M95" s="12"/>
       <c r="O95" s="13"/>
       <c r="P95" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q95" s="179" t="str">
         <f>IF(Sheet1!B16="","",Sheet1!B16+Lamb)</f>
@@ -7315,7 +7317,7 @@
       <c r="M96" s="12"/>
       <c r="O96" s="13"/>
       <c r="P96" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q96" s="182" t="str">
         <f>IF(Sheet1!B17="","",Sheet1!B17+Lamb)</f>
@@ -7371,7 +7373,7 @@
       <c r="M97" s="12"/>
       <c r="O97" s="13"/>
       <c r="P97" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q97" s="131" t="str">
         <f>IF(Q88="","",AVERAGE(Q88:Q92))</f>
@@ -7415,7 +7417,7 @@
       <c r="M98" s="12"/>
       <c r="O98" s="13"/>
       <c r="P98" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q98" s="169" t="str">
         <f>IF(Q88="","",STDEV(Q88:Q92))</f>
@@ -7459,7 +7461,7 @@
       <c r="M99" s="12"/>
       <c r="O99" s="13"/>
       <c r="P99" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q99" s="172" t="str">
         <f>IF(Q88="","",2*(MAX(Q88:Q96)-MIN(Q88:Q96))/(MIN(Q88:Q96)+MAX(Q88:Q96)))</f>
@@ -7478,10 +7480,10 @@
         <v/>
       </c>
       <c r="U99" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V99" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W99" s="2"/>
       <c r="X99" s="2"/>
@@ -7507,7 +7509,7 @@
       <c r="M100" s="12"/>
       <c r="O100" s="13"/>
       <c r="P100" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q100" s="191" t="str">
         <f>IF(Q88="","",MAX(AA88:AA96))</f>
@@ -7526,7 +7528,7 @@
         <v/>
       </c>
       <c r="V100" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y100" s="14"/>
     </row>
@@ -7550,7 +7552,7 @@
       <c r="M101" s="12"/>
       <c r="O101" s="13"/>
       <c r="P101" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q101" s="168" t="str">
         <f>IF(Q103&lt;&gt;"",Q103,IF(AB62="","",AB62))</f>
@@ -7585,7 +7587,7 @@
       <c r="M102" s="12"/>
       <c r="O102" s="13"/>
       <c r="P102" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q102" s="126"/>
       <c r="R102" s="93">
@@ -7620,7 +7622,7 @@
       <c r="M103" s="12"/>
       <c r="O103" s="13"/>
       <c r="P103" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q103" s="76"/>
       <c r="R103" s="78"/>
@@ -7716,7 +7718,7 @@
       <c r="R106" s="2"/>
       <c r="S106" s="2"/>
       <c r="T106" s="134" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
@@ -7747,7 +7749,7 @@
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
       <c r="S107" s="135" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T107" s="7"/>
       <c r="U107" s="7"/>
@@ -7776,7 +7778,7 @@
       <c r="M108" s="12"/>
       <c r="O108" s="13"/>
       <c r="P108" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q108" s="136"/>
       <c r="R108" s="137"/>
@@ -7811,7 +7813,7 @@
       <c r="M109" s="12"/>
       <c r="O109" s="13"/>
       <c r="P109" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q109" s="126"/>
       <c r="R109" s="139">
@@ -7846,7 +7848,7 @@
       <c r="M110" s="12"/>
       <c r="O110" s="13"/>
       <c r="P110" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q110" s="136"/>
       <c r="R110" s="137"/>
@@ -7881,7 +7883,7 @@
       <c r="M111" s="12"/>
       <c r="O111" s="13"/>
       <c r="P111" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q111" s="126"/>
       <c r="R111" s="139">
@@ -7916,7 +7918,7 @@
       <c r="M112" s="12"/>
       <c r="O112" s="13"/>
       <c r="P112" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q112" s="136"/>
       <c r="R112" s="137"/>
@@ -7951,7 +7953,7 @@
       <c r="M113" s="12"/>
       <c r="O113" s="13"/>
       <c r="P113" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q113" s="126"/>
       <c r="R113" s="139">
@@ -7986,7 +7988,7 @@
       <c r="M114" s="12"/>
       <c r="O114" s="13"/>
       <c r="P114" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q114" s="136"/>
       <c r="R114" s="137"/>
@@ -8021,7 +8023,7 @@
       <c r="M115" s="12"/>
       <c r="O115" s="13"/>
       <c r="P115" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q115" s="126"/>
       <c r="R115" s="139">
@@ -8056,7 +8058,7 @@
       <c r="M116" s="12"/>
       <c r="O116" s="13"/>
       <c r="P116" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q116" s="136"/>
       <c r="R116" s="137"/>
@@ -8091,7 +8093,7 @@
       <c r="M117" s="12"/>
       <c r="O117" s="13"/>
       <c r="P117" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q117" s="126"/>
       <c r="R117" s="139">
@@ -8126,7 +8128,7 @@
       <c r="M118" s="12"/>
       <c r="O118" s="13"/>
       <c r="P118" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q118" s="136"/>
       <c r="R118" s="137"/>
@@ -8161,7 +8163,7 @@
       <c r="M119" s="12"/>
       <c r="O119" s="13"/>
       <c r="P119" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q119" s="126"/>
       <c r="R119" s="139">
@@ -8196,7 +8198,7 @@
       <c r="M120" s="12"/>
       <c r="O120" s="13"/>
       <c r="P120" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q120" s="136"/>
       <c r="R120" s="137"/>
@@ -8231,7 +8233,7 @@
       <c r="M121" s="12"/>
       <c r="O121" s="13"/>
       <c r="P121" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q121" s="126"/>
       <c r="R121" s="139">
@@ -8266,7 +8268,7 @@
       <c r="M122" s="12"/>
       <c r="O122" s="13"/>
       <c r="P122" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q122" s="136"/>
       <c r="R122" s="137"/>
@@ -8301,7 +8303,7 @@
       <c r="M123" s="12"/>
       <c r="O123" s="13"/>
       <c r="P123" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q123" s="126"/>
       <c r="R123" s="139">
@@ -8336,7 +8338,7 @@
       <c r="M124" s="12"/>
       <c r="O124" s="13"/>
       <c r="P124" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q124" s="136"/>
       <c r="R124" s="137"/>
@@ -8371,7 +8373,7 @@
       <c r="M125" s="12"/>
       <c r="O125" s="13"/>
       <c r="P125" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q125" s="126"/>
       <c r="R125" s="139">
@@ -8394,7 +8396,7 @@
       <c r="M126" s="12"/>
       <c r="O126" s="13"/>
       <c r="P126" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q126" s="136"/>
       <c r="R126" s="137"/>
@@ -8417,7 +8419,7 @@
       <c r="M127" s="12"/>
       <c r="O127" s="13"/>
       <c r="P127" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q127" s="126"/>
       <c r="R127" s="139">
@@ -8440,7 +8442,7 @@
       <c r="M128" s="12"/>
       <c r="O128" s="13"/>
       <c r="P128" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q128" s="136"/>
       <c r="R128" s="137"/>
@@ -8463,7 +8465,7 @@
       <c r="M129" s="12"/>
       <c r="O129" s="13"/>
       <c r="P129" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q129" s="126"/>
       <c r="R129" s="139">
@@ -8530,7 +8532,7 @@
         <v>66</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D132" s="111" t="str">
         <f>IF($J$12="","",$J$12)</f>
@@ -8691,226 +8693,226 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="205" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="206" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="206" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="237" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="237" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="205" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="236" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugenem\Documents\GitHub\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EEE753-CF3D-4373-8CBD-38EBD29031D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D603258B-BD81-4957-86C2-8F9DAFDF04E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Barco" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="BarcoYearlyChecks" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Lamb">Barco!$T$26</definedName>
     <definedName name="Page1">Barco!$B$1:$M$66</definedName>
     <definedName name="Page2">Barco!$B$67:$M$132</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Barco!$B$1:$M$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">BarcoYearlyChecks!$B$1:$L$46</definedName>
     <definedName name="Z_B8088769_C3DE_4DF8_A82B_D0EB46FFCC4A_.wvu.PrintArea" localSheetId="0" hidden="1">Barco!$B$1:$M$132</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -102,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="202">
   <si>
     <t>Print Area</t>
   </si>
@@ -666,6 +668,48 @@
   </si>
   <si>
     <t>Barco K5905277 v16</t>
+  </si>
+  <si>
+    <t>Barco Yearly Checks</t>
+  </si>
+  <si>
+    <t>Visual test - Temporal response</t>
+  </si>
+  <si>
+    <t>Visual test - TG18 OIQ</t>
+  </si>
+  <si>
+    <t>Artifacts, non-uniformities</t>
+  </si>
+  <si>
+    <t>Grayscale continuity</t>
+  </si>
+  <si>
+    <t>0-5% Contrast</t>
+  </si>
+  <si>
+    <t>Gray Steps</t>
+  </si>
+  <si>
+    <t>Alphanumerics</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>5%/95%</t>
+  </si>
+  <si>
+    <t>Line Pairs</t>
   </si>
 </sst>
 </file>
@@ -681,7 +725,7 @@
     <numFmt numFmtId="169" formatCode="0.0%"/>
     <numFmt numFmtId="170" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -815,8 +859,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,8 +920,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1596,6 +1651,32 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1615,7 +1696,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2234,6 +2315,66 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2267,66 +2408,52 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Fail" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2578,6 +2705,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2855,8 +2985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65:M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2901,12 +3031,12 @@
       <c r="AA1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="235" t="s">
+      <c r="AG1" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="235"/>
-      <c r="AI1" s="235"/>
-      <c r="AJ1" s="235"/>
+      <c r="AH1" s="208"/>
+      <c r="AI1" s="208"/>
+      <c r="AJ1" s="208"/>
     </row>
     <row r="2" spans="1:36" ht="14.45" customHeight="1">
       <c r="A2" s="2">
@@ -2925,14 +3055,14 @@
       <c r="AA2" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="AG2" s="236" t="s">
+      <c r="AG2" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="236"/>
-      <c r="AI2" s="237" t="s">
+      <c r="AH2" s="209"/>
+      <c r="AI2" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="237"/>
+      <c r="AJ2" s="210"/>
     </row>
     <row r="3" spans="1:36" ht="14.45" customHeight="1">
       <c r="A3" s="2">
@@ -3226,19 +3356,19 @@
       <c r="D10" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="238" t="str">
+      <c r="E10" s="211" t="str">
         <f t="shared" ref="E10:E15" si="1">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="F10" s="238"/>
+      <c r="F10" s="211"/>
       <c r="I10" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="238" t="str">
+      <c r="J10" s="211" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="K10" s="238"/>
+      <c r="K10" s="211"/>
       <c r="M10" s="12"/>
       <c r="O10" s="13"/>
       <c r="Q10" s="21" t="s">
@@ -3281,19 +3411,19 @@
       <c r="D11" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="231" t="str">
+      <c r="E11" s="212" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="231"/>
+      <c r="F11" s="212"/>
       <c r="I11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="234" t="str">
+      <c r="J11" s="213" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="K11" s="234"/>
+      <c r="K11" s="213"/>
       <c r="M11" s="12"/>
       <c r="O11" s="13"/>
       <c r="Q11" s="21" t="s">
@@ -3336,19 +3466,19 @@
       <c r="D12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="231" t="str">
+      <c r="E12" s="212" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="231"/>
+      <c r="F12" s="212"/>
       <c r="I12" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="231" t="str">
+      <c r="J12" s="212" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="K12" s="231"/>
+      <c r="K12" s="212"/>
       <c r="M12" s="12"/>
       <c r="O12" s="13"/>
       <c r="Q12" s="21" t="s">
@@ -3391,19 +3521,19 @@
       <c r="D13" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="231" t="str">
+      <c r="E13" s="212" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="231"/>
+      <c r="F13" s="212"/>
       <c r="I13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="231" t="str">
+      <c r="J13" s="212" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="K13" s="231"/>
+      <c r="K13" s="212"/>
       <c r="M13" s="12"/>
       <c r="O13" s="13"/>
       <c r="Q13" s="21" t="s">
@@ -3446,19 +3576,19 @@
       <c r="D14" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="212" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="231"/>
+      <c r="F14" s="212"/>
       <c r="I14" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="212" t="str">
         <f>IF(V14="","",V14)</f>
         <v/>
       </c>
-      <c r="K14" s="231"/>
+      <c r="K14" s="212"/>
       <c r="M14" s="12"/>
       <c r="O14" s="13"/>
       <c r="Q14" s="21" t="s">
@@ -3501,11 +3631,11 @@
       <c r="D15" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="231" t="str">
+      <c r="E15" s="212" t="str">
         <f t="shared" si="1"/>
         <v>Barco K5905277 v16</v>
       </c>
-      <c r="F15" s="231"/>
+      <c r="F15" s="212"/>
       <c r="M15" s="12"/>
       <c r="O15" s="26"/>
       <c r="P15" s="27"/>
@@ -3651,10 +3781,10 @@
       <c r="H19" s="154"/>
       <c r="I19" s="154"/>
       <c r="J19" s="154"/>
-      <c r="K19" s="233" t="s">
+      <c r="K19" s="215" t="s">
         <v>128</v>
       </c>
-      <c r="L19" s="233"/>
+      <c r="L19" s="215"/>
       <c r="M19" s="5"/>
       <c r="O19" s="13"/>
       <c r="R19" s="1" t="s">
@@ -3914,11 +4044,11 @@
       <c r="D24" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="232" t="str">
+      <c r="E24" s="214" t="str">
         <f>IF(P52="","",P52)</f>
         <v/>
       </c>
-      <c r="F24" s="232"/>
+      <c r="F24" s="214"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -6045,16 +6175,16 @@
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="95"/>
-      <c r="D71" s="228" t="str">
+      <c r="D71" s="216" t="str">
         <f>Q86</f>
         <v>UNL-10 (cd/m^2)</v>
       </c>
-      <c r="E71" s="228"/>
-      <c r="F71" s="229" t="str">
+      <c r="E71" s="216"/>
+      <c r="F71" s="217" t="str">
         <f>S86</f>
         <v>UNL-80 (cd/m^2)</v>
       </c>
-      <c r="G71" s="229"/>
+      <c r="G71" s="217"/>
       <c r="I71" s="68" t="s">
         <v>107</v>
       </c>
@@ -6170,8 +6300,8 @@
       <c r="Q73" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="R73" s="211"/>
-      <c r="S73" s="215"/>
+      <c r="R73" s="231"/>
+      <c r="S73" s="235"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="V73" s="223" t="str">
@@ -6223,8 +6353,8 @@
       <c r="O74" s="13"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="159"/>
-      <c r="R74" s="212"/>
-      <c r="S74" s="216"/>
+      <c r="R74" s="232"/>
+      <c r="S74" s="236"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
       <c r="V74" s="222"/>
@@ -6271,8 +6401,8 @@
       <c r="Q75" s="159" t="s">
         <v>98</v>
       </c>
-      <c r="R75" s="213"/>
-      <c r="S75" s="217"/>
+      <c r="R75" s="233"/>
+      <c r="S75" s="237"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
       <c r="V75" s="220" t="str">
@@ -6323,8 +6453,8 @@
       <c r="O76" s="13"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="159"/>
-      <c r="R76" s="212"/>
-      <c r="S76" s="216"/>
+      <c r="R76" s="232"/>
+      <c r="S76" s="236"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="V76" s="222"/>
@@ -6371,8 +6501,8 @@
       <c r="Q77" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="R77" s="213"/>
-      <c r="S77" s="217"/>
+      <c r="R77" s="233"/>
+      <c r="S77" s="237"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
       <c r="V77" s="220" t="str">
@@ -6398,8 +6528,8 @@
       <c r="O78" s="13"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="159"/>
-      <c r="R78" s="214"/>
-      <c r="S78" s="218"/>
+      <c r="R78" s="234"/>
+      <c r="S78" s="238"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
       <c r="V78" s="221"/>
@@ -6621,16 +6751,16 @@
         <v>Right ()</v>
       </c>
       <c r="H84" s="2"/>
-      <c r="I84" s="230" t="str">
+      <c r="I84" s="218" t="str">
         <f>R68</f>
         <v>Left ()</v>
       </c>
-      <c r="J84" s="230"/>
-      <c r="K84" s="230" t="str">
+      <c r="J84" s="218"/>
+      <c r="K84" s="218" t="str">
         <f>S68</f>
         <v>Right ()</v>
       </c>
-      <c r="L84" s="230"/>
+      <c r="L84" s="218"/>
       <c r="M84" s="12"/>
       <c r="O84" s="13"/>
       <c r="P84" s="2"/>
@@ -6735,14 +6865,14 @@
       <c r="M86" s="12"/>
       <c r="O86" s="13"/>
       <c r="P86" s="2"/>
-      <c r="Q86" s="209" t="s">
+      <c r="Q86" s="229" t="s">
         <v>117</v>
       </c>
-      <c r="R86" s="210"/>
-      <c r="S86" s="209" t="s">
+      <c r="R86" s="230"/>
+      <c r="S86" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="T86" s="210"/>
+      <c r="T86" s="230"/>
       <c r="U86" s="2"/>
       <c r="V86" s="127" t="s">
         <v>43</v>
@@ -6772,16 +6902,16 @@
       <c r="H87" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="I87" s="208" t="str">
+      <c r="I87" s="228" t="str">
         <f>IF(R77="","",R77)</f>
         <v/>
       </c>
-      <c r="J87" s="208"/>
-      <c r="K87" s="208" t="str">
+      <c r="J87" s="228"/>
+      <c r="K87" s="228" t="str">
         <f>IF(S77="","",S77)</f>
         <v/>
       </c>
-      <c r="L87" s="208"/>
+      <c r="L87" s="228"/>
       <c r="M87" s="12"/>
       <c r="O87" s="13"/>
       <c r="P87" s="2"/>
@@ -8560,34 +8690,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="40">
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="V77:V78"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="W73:W74"/>
-    <mergeCell ref="W75:W76"/>
-    <mergeCell ref="W77:W78"/>
     <mergeCell ref="I87:J87"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="Q86:R86"/>
@@ -8600,6 +8702,34 @@
     <mergeCell ref="S77:S78"/>
     <mergeCell ref="I86:J86"/>
     <mergeCell ref="K86:L86"/>
+    <mergeCell ref="V77:V78"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="V73:V74"/>
+    <mergeCell ref="W73:W74"/>
+    <mergeCell ref="W75:W76"/>
+    <mergeCell ref="W77:W78"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <conditionalFormatting sqref="I72:I74">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
@@ -8685,6 +8815,868 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756B15AE-536E-4AE5-82F4-E521E392C0F6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="247" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="95"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="16.5" thickTop="1">
+      <c r="A1" s="247">
+        <v>1</v>
+      </c>
+      <c r="B1" s="239"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="240"/>
+      <c r="R1" s="95" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="20.25">
+      <c r="A2" s="247">
+        <v>2</v>
+      </c>
+      <c r="B2" s="241"/>
+      <c r="G2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="242"/>
+      <c r="R2" s="95" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="20.25">
+      <c r="A3" s="247">
+        <v>3</v>
+      </c>
+      <c r="B3" s="241"/>
+      <c r="G3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="242"/>
+      <c r="R3" s="95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="247">
+        <v>4</v>
+      </c>
+      <c r="B4" s="241"/>
+      <c r="G4" s="159"/>
+      <c r="L4" s="242"/>
+    </row>
+    <row r="5" spans="1:18" ht="20.25">
+      <c r="A5" s="247">
+        <v>5</v>
+      </c>
+      <c r="B5" s="241"/>
+      <c r="G5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="242"/>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" thickBot="1">
+      <c r="A6" s="247">
+        <v>6</v>
+      </c>
+      <c r="B6" s="243"/>
+      <c r="C6" s="244"/>
+      <c r="D6" s="244"/>
+      <c r="E6" s="244"/>
+      <c r="F6" s="244"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="244"/>
+      <c r="L6" s="245"/>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" thickTop="1">
+      <c r="A7" s="247">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" thickBot="1">
+      <c r="A8" s="247">
+        <v>8</v>
+      </c>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="246" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="185"/>
+      <c r="J8" s="185"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="185"/>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" thickTop="1">
+      <c r="A9" s="247">
+        <v>9</v>
+      </c>
+      <c r="B9" s="239"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="154"/>
+      <c r="L9" s="240"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="247">
+        <v>10</v>
+      </c>
+      <c r="B10" s="241"/>
+      <c r="D10" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="211" t="str">
+        <f>Barco!E10</f>
+        <v/>
+      </c>
+      <c r="F10" s="211"/>
+      <c r="I10" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="211" t="str">
+        <f>Barco!J10</f>
+        <v/>
+      </c>
+      <c r="K10" s="211"/>
+      <c r="L10" s="242"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="247">
+        <v>11</v>
+      </c>
+      <c r="B11" s="241"/>
+      <c r="D11" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="211" t="str">
+        <f>Barco!E11</f>
+        <v/>
+      </c>
+      <c r="F11" s="211"/>
+      <c r="I11" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="211" t="str">
+        <f>Barco!J11</f>
+        <v/>
+      </c>
+      <c r="K11" s="211"/>
+      <c r="L11" s="242"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="247">
+        <v>12</v>
+      </c>
+      <c r="B12" s="241"/>
+      <c r="D12" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="211" t="str">
+        <f>Barco!E12</f>
+        <v/>
+      </c>
+      <c r="F12" s="211"/>
+      <c r="I12" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="211" t="str">
+        <f>Barco!J12</f>
+        <v/>
+      </c>
+      <c r="K12" s="211"/>
+      <c r="L12" s="242"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="247">
+        <v>13</v>
+      </c>
+      <c r="B13" s="241"/>
+      <c r="D13" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="211" t="str">
+        <f>Barco!E13</f>
+        <v/>
+      </c>
+      <c r="F13" s="211"/>
+      <c r="I13" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="211" t="str">
+        <f>Barco!J13</f>
+        <v/>
+      </c>
+      <c r="K13" s="211"/>
+      <c r="L13" s="242"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="247">
+        <v>14</v>
+      </c>
+      <c r="B14" s="241"/>
+      <c r="D14" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="211" t="str">
+        <f>Barco!E14</f>
+        <v/>
+      </c>
+      <c r="F14" s="211"/>
+      <c r="I14" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="211" t="str">
+        <f>Barco!J14</f>
+        <v/>
+      </c>
+      <c r="K14" s="211"/>
+      <c r="L14" s="242"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="247">
+        <v>15</v>
+      </c>
+      <c r="B15" s="241"/>
+      <c r="D15" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="211" t="str">
+        <f>Barco!E15</f>
+        <v>Barco K5905277 v16</v>
+      </c>
+      <c r="F15" s="211"/>
+      <c r="L15" s="242"/>
+    </row>
+    <row r="16" spans="1:18" ht="16.5" thickBot="1">
+      <c r="A16" s="247">
+        <v>16</v>
+      </c>
+      <c r="B16" s="243"/>
+      <c r="C16" s="244"/>
+      <c r="D16" s="244"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="244"/>
+      <c r="I16" s="244"/>
+      <c r="J16" s="244"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="245"/>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A17" s="247">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" thickTop="1">
+      <c r="A18" s="247">
+        <v>18</v>
+      </c>
+      <c r="B18" s="253" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="240"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="247">
+        <v>19</v>
+      </c>
+      <c r="B19" s="241"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="185"/>
+      <c r="K19" s="185"/>
+      <c r="L19" s="242"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="247">
+        <v>20</v>
+      </c>
+      <c r="B20" s="241"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="249" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="249"/>
+      <c r="H20" s="249" t="s">
+        <v>197</v>
+      </c>
+      <c r="I20" s="249"/>
+      <c r="J20" s="185"/>
+      <c r="K20" s="185"/>
+      <c r="L20" s="242"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="247">
+        <v>21</v>
+      </c>
+      <c r="B21" s="241"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="249" t="str">
+        <f>J13</f>
+        <v/>
+      </c>
+      <c r="G21" s="249"/>
+      <c r="H21" s="249" t="str">
+        <f>J14</f>
+        <v/>
+      </c>
+      <c r="I21" s="249"/>
+      <c r="J21" s="185"/>
+      <c r="K21" s="185"/>
+      <c r="L21" s="242"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="247">
+        <v>22</v>
+      </c>
+      <c r="B22" s="241"/>
+      <c r="C22" s="185"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="248" t="str">
+        <f>IF(Barco!E23="","",IF(Barco!E23="YES","PASS","FAIL"))</f>
+        <v/>
+      </c>
+      <c r="G22" s="248"/>
+      <c r="H22" s="248"/>
+      <c r="I22" s="248"/>
+      <c r="J22" s="185"/>
+      <c r="K22" s="185"/>
+      <c r="L22" s="242"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="247">
+        <v>23</v>
+      </c>
+      <c r="B23" s="241"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="185"/>
+      <c r="E23" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="248" t="str">
+        <f>IF(Barco!E22="","",IF(Barco!E22="YES","PASS","FAIL"))</f>
+        <v/>
+      </c>
+      <c r="G23" s="248"/>
+      <c r="H23" s="248"/>
+      <c r="I23" s="248"/>
+      <c r="J23" s="185"/>
+      <c r="K23" s="185"/>
+      <c r="L23" s="242"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="247">
+        <v>24</v>
+      </c>
+      <c r="B24" s="241"/>
+      <c r="C24" s="185"/>
+      <c r="D24" s="185"/>
+      <c r="E24" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" s="248" t="str">
+        <f>IF(OR(Barco!I72="TBD",Barco!I73="TBD"),"",IF(AND(Barco!I72="YES",Barco!I73="YES"),"PASS","FAIL"))</f>
+        <v/>
+      </c>
+      <c r="G24" s="248"/>
+      <c r="H24" s="248"/>
+      <c r="I24" s="248"/>
+      <c r="J24" s="185"/>
+      <c r="K24" s="185"/>
+      <c r="L24" s="242"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="247">
+        <v>25</v>
+      </c>
+      <c r="B25" s="241"/>
+      <c r="C25" s="185"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="252"/>
+      <c r="G25" s="252"/>
+      <c r="H25" s="252"/>
+      <c r="I25" s="252"/>
+      <c r="J25" s="185"/>
+      <c r="K25" s="185"/>
+      <c r="L25" s="242"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="247">
+        <v>26</v>
+      </c>
+      <c r="B26" s="241"/>
+      <c r="C26" s="185"/>
+      <c r="D26" s="185" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="248" t="str">
+        <f>IF(Barco!F85="","",IF(Barco!F85="YES","PASS","FAIL"))</f>
+        <v/>
+      </c>
+      <c r="G26" s="248"/>
+      <c r="H26" s="248"/>
+      <c r="I26" s="248"/>
+      <c r="J26" s="185"/>
+      <c r="K26" s="185"/>
+      <c r="L26" s="242"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="247">
+        <v>27</v>
+      </c>
+      <c r="B27" s="241"/>
+      <c r="C27" s="185"/>
+      <c r="D27" s="185"/>
+      <c r="E27" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" s="252"/>
+      <c r="G27" s="252"/>
+      <c r="H27" s="252"/>
+      <c r="I27" s="252"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="185"/>
+      <c r="L27" s="242"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="247">
+        <v>28</v>
+      </c>
+      <c r="B28" s="241"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="252"/>
+      <c r="G28" s="252"/>
+      <c r="H28" s="252"/>
+      <c r="I28" s="252"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="242"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="247">
+        <v>29</v>
+      </c>
+      <c r="B29" s="241"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="250" t="str">
+        <f>IF(Barco!F86="","",IF(Barco!F86="YES","PASS","FAIL"))</f>
+        <v/>
+      </c>
+      <c r="G29" s="251"/>
+      <c r="H29" s="250" t="str">
+        <f>IF(Barco!G86="","",IF(Barco!G86="YES","PASS","FAIL"))</f>
+        <v/>
+      </c>
+      <c r="I29" s="251"/>
+      <c r="J29" s="185"/>
+      <c r="K29" s="185"/>
+      <c r="L29" s="242"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="247">
+        <v>30</v>
+      </c>
+      <c r="B30" s="241"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="254"/>
+      <c r="F30" s="254"/>
+      <c r="G30" s="254"/>
+      <c r="H30" s="254"/>
+      <c r="I30" s="254"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="185"/>
+      <c r="L30" s="242"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="247">
+        <v>31</v>
+      </c>
+      <c r="B31" s="241"/>
+      <c r="C31" s="185"/>
+      <c r="D31" s="185"/>
+      <c r="E31" s="185"/>
+      <c r="F31" s="185"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="185"/>
+      <c r="K31" s="185"/>
+      <c r="L31" s="242"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="247">
+        <v>32</v>
+      </c>
+      <c r="B32" s="241"/>
+      <c r="C32" s="185"/>
+      <c r="D32" s="185"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="185"/>
+      <c r="G32" s="185"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="185"/>
+      <c r="L32" s="242"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="247">
+        <v>33</v>
+      </c>
+      <c r="B33" s="241"/>
+      <c r="C33" s="185"/>
+      <c r="D33" s="185"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="185"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="242"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="247">
+        <v>34</v>
+      </c>
+      <c r="B34" s="241"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="185"/>
+      <c r="E34" s="185"/>
+      <c r="F34" s="185"/>
+      <c r="G34" s="185"/>
+      <c r="H34" s="185"/>
+      <c r="I34" s="185"/>
+      <c r="J34" s="185"/>
+      <c r="K34" s="185"/>
+      <c r="L34" s="242"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="247">
+        <v>35</v>
+      </c>
+      <c r="B35" s="241"/>
+      <c r="C35" s="185"/>
+      <c r="D35" s="185"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="185"/>
+      <c r="G35" s="185"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="185"/>
+      <c r="K35" s="185"/>
+      <c r="L35" s="242"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="247">
+        <v>36</v>
+      </c>
+      <c r="B36" s="241"/>
+      <c r="C36" s="185"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="185"/>
+      <c r="F36" s="185"/>
+      <c r="G36" s="185"/>
+      <c r="H36" s="185"/>
+      <c r="I36" s="185"/>
+      <c r="J36" s="185"/>
+      <c r="K36" s="185"/>
+      <c r="L36" s="242"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="247">
+        <v>37</v>
+      </c>
+      <c r="B37" s="241"/>
+      <c r="C37" s="185"/>
+      <c r="D37" s="185"/>
+      <c r="E37" s="185"/>
+      <c r="F37" s="185"/>
+      <c r="G37" s="185"/>
+      <c r="H37" s="185"/>
+      <c r="I37" s="185"/>
+      <c r="J37" s="185"/>
+      <c r="K37" s="185"/>
+      <c r="L37" s="242"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="247">
+        <v>38</v>
+      </c>
+      <c r="B38" s="241"/>
+      <c r="C38" s="185"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="185"/>
+      <c r="G38" s="185"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="185"/>
+      <c r="J38" s="185"/>
+      <c r="K38" s="185"/>
+      <c r="L38" s="242"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="247">
+        <v>39</v>
+      </c>
+      <c r="B39" s="241"/>
+      <c r="C39" s="185"/>
+      <c r="D39" s="185"/>
+      <c r="E39" s="185"/>
+      <c r="F39" s="185"/>
+      <c r="G39" s="185"/>
+      <c r="H39" s="185"/>
+      <c r="I39" s="185"/>
+      <c r="J39" s="185"/>
+      <c r="K39" s="185"/>
+      <c r="L39" s="242"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="247">
+        <v>40</v>
+      </c>
+      <c r="B40" s="241"/>
+      <c r="C40" s="185"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="185"/>
+      <c r="G40" s="185"/>
+      <c r="H40" s="185"/>
+      <c r="I40" s="185"/>
+      <c r="J40" s="185"/>
+      <c r="K40" s="185"/>
+      <c r="L40" s="242"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="247">
+        <v>41</v>
+      </c>
+      <c r="B41" s="241"/>
+      <c r="C41" s="185"/>
+      <c r="D41" s="185"/>
+      <c r="E41" s="185"/>
+      <c r="F41" s="185"/>
+      <c r="G41" s="185"/>
+      <c r="H41" s="185"/>
+      <c r="I41" s="185"/>
+      <c r="J41" s="185"/>
+      <c r="K41" s="185"/>
+      <c r="L41" s="242"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="247">
+        <v>42</v>
+      </c>
+      <c r="B42" s="241"/>
+      <c r="C42" s="185"/>
+      <c r="D42" s="185"/>
+      <c r="E42" s="185"/>
+      <c r="F42" s="185"/>
+      <c r="G42" s="185"/>
+      <c r="H42" s="185"/>
+      <c r="I42" s="185"/>
+      <c r="J42" s="185"/>
+      <c r="K42" s="185"/>
+      <c r="L42" s="242"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="247">
+        <v>43</v>
+      </c>
+      <c r="B43" s="241"/>
+      <c r="C43" s="185"/>
+      <c r="D43" s="185"/>
+      <c r="E43" s="185"/>
+      <c r="F43" s="185"/>
+      <c r="G43" s="185"/>
+      <c r="H43" s="185"/>
+      <c r="I43" s="185"/>
+      <c r="J43" s="185"/>
+      <c r="K43" s="185"/>
+      <c r="L43" s="242"/>
+    </row>
+    <row r="44" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A44" s="247">
+        <v>44</v>
+      </c>
+      <c r="B44" s="243"/>
+      <c r="C44" s="244"/>
+      <c r="D44" s="244"/>
+      <c r="E44" s="244"/>
+      <c r="F44" s="244"/>
+      <c r="G44" s="244"/>
+      <c r="H44" s="244"/>
+      <c r="I44" s="244"/>
+      <c r="J44" s="244"/>
+      <c r="K44" s="244"/>
+      <c r="L44" s="245"/>
+    </row>
+    <row r="45" spans="1:12" ht="16.5" thickTop="1">
+      <c r="A45" s="247">
+        <v>45</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="142" t="str">
+        <f>Barco!D65</f>
+        <v/>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="112" t="str">
+        <f>Barco!M65</f>
+        <v>Eugene Mah</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="247">
+        <v>46</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="142" t="str">
+        <f>Barco!D66</f>
+        <v/>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L46" s="112" t="str">
+        <f>Barco!M66</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:I25 F27:I28" xr:uid="{CEAD9B4F-4A05-4883-9435-EBBC3722EE42}">
+      <formula1>$R$1:$R$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C29263F-D78E-4F41-860C-A3D9FC1D1372}">
   <dimension ref="A1:B46"/>
   <sheetViews>

--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\workspace\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EA8C08-EF7F-46D5-B9CB-145D66892A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA916DD7-E49E-40BF-A8DC-0931A4D97E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="211">
   <si>
     <t>Print Area</t>
   </si>
@@ -277,9 +277,6 @@
     <t>Criteria:</t>
   </si>
   <si>
-    <t>Ambient light measured at the surface of the monitor(s) must be less than 20 lux</t>
-  </si>
-  <si>
     <t>Previous:</t>
   </si>
   <si>
@@ -508,9 +505,6 @@
     <t>Piranha CB2-19020491</t>
   </si>
   <si>
-    <t>Ambient light illuminance measured at the surface of the monitor(s) must be less than 20 lux</t>
-  </si>
-  <si>
     <t>cd/m^2</t>
   </si>
   <si>
@@ -667,9 +661,6 @@
     <t>Page1,Page2</t>
   </si>
   <si>
-    <t>Barco K5905277 v16</t>
-  </si>
-  <si>
     <t>Barco Yearly Checks</t>
   </si>
   <si>
@@ -710,6 +701,42 @@
   </si>
   <si>
     <t>Line Pairs</t>
+  </si>
+  <si>
+    <t>Barco K5905277 v18</t>
+  </si>
+  <si>
+    <t>Monitor model:</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Max ambient illumination</t>
+  </si>
+  <si>
+    <t>Monitor model</t>
+  </si>
+  <si>
+    <t>Max illumination (lux)</t>
+  </si>
+  <si>
+    <t>MDMC-12133</t>
+  </si>
+  <si>
+    <t>MDMC-32133</t>
+  </si>
+  <si>
+    <t>MDMG-5221</t>
+  </si>
+  <si>
+    <t>MDMNC-12130</t>
+  </si>
+  <si>
+    <t>MDNC-6121</t>
+  </si>
+  <si>
+    <t>MDNG-6221</t>
   </si>
 </sst>
 </file>
@@ -927,7 +954,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1674,6 +1701,45 @@
         <color auto="1"/>
       </right>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1696,7 +1762,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2246,6 +2312,75 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2279,92 +2414,35 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2377,7 +2455,157 @@
     <cellStyle name="Result" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Result2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2877,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P52" activeCellId="4" sqref="P7:P8 X21:X22 P34 P44 P52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" activeCellId="1" sqref="D34 D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2908,7 +3136,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="O1" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
@@ -2923,12 +3151,12 @@
       <c r="AA1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="211" t="s">
+      <c r="AG1" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="211"/>
-      <c r="AI1" s="211"/>
-      <c r="AJ1" s="211"/>
+      <c r="AH1" s="188"/>
+      <c r="AI1" s="188"/>
+      <c r="AJ1" s="188"/>
     </row>
     <row r="2" spans="1:36" ht="14.4" customHeight="1">
       <c r="A2" s="1">
@@ -2945,16 +3173,16 @@
       </c>
       <c r="Y2" s="13"/>
       <c r="AA2" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG2" s="212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG2" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="212"/>
-      <c r="AI2" s="213" t="s">
+      <c r="AH2" s="189"/>
+      <c r="AI2" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="213"/>
+      <c r="AJ2" s="190"/>
     </row>
     <row r="3" spans="1:36" ht="14.4" customHeight="1">
       <c r="A3" s="1">
@@ -3001,7 +3229,7 @@
         <v>8</v>
       </c>
       <c r="AB4" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF4" s="20" t="s">
         <v>9</v>
@@ -3145,7 +3373,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="14.4" customHeight="1">
+    <row r="8" spans="1:36" ht="14.4" customHeight="1" thickBot="1">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -3179,7 +3407,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="14.4" customHeight="1">
+    <row r="9" spans="1:36" ht="14.4" customHeight="1" thickTop="1">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -3227,7 +3455,10 @@
         <v>Eugene Mah</v>
       </c>
       <c r="AF9"/>
-      <c r="AG9"/>
+      <c r="AG9" s="226" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH9" s="227"/>
     </row>
     <row r="10" spans="1:36" ht="14.4" customHeight="1">
       <c r="A10" s="1">
@@ -3237,19 +3468,19 @@
       <c r="D10" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="214" t="str">
+      <c r="E10" s="191" t="str">
         <f t="shared" ref="E10:E15" si="1">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="F10" s="214"/>
+      <c r="F10" s="191"/>
       <c r="I10" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="214" t="str">
+      <c r="J10" s="191" t="str">
         <f>IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="K10" s="214"/>
+      <c r="K10" s="191"/>
       <c r="M10" s="11"/>
       <c r="O10" s="12"/>
       <c r="Q10" s="20" t="s">
@@ -3282,7 +3513,12 @@
         <v/>
       </c>
       <c r="AF10"/>
-      <c r="AG10"/>
+      <c r="AG10" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH10" s="225" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="11" spans="1:36" ht="14.4" customHeight="1">
       <c r="A11" s="1">
@@ -3292,19 +3528,19 @@
       <c r="D11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="208" t="str">
+      <c r="E11" s="192" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="208"/>
+      <c r="F11" s="192"/>
       <c r="I11" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="221" t="str">
+      <c r="J11" s="193" t="str">
         <f>IF(V11="","",V11)</f>
         <v/>
       </c>
-      <c r="K11" s="221"/>
+      <c r="K11" s="193"/>
       <c r="M11" s="11"/>
       <c r="O11" s="12"/>
       <c r="Q11" s="20" t="s">
@@ -3337,7 +3573,12 @@
         <v/>
       </c>
       <c r="AF11"/>
-      <c r="AG11"/>
+      <c r="AG11" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH11" s="16">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:36" ht="14.4" customHeight="1">
       <c r="A12" s="1">
@@ -3347,19 +3588,19 @@
       <c r="D12" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="208" t="str">
+      <c r="E12" s="192" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="208"/>
+      <c r="F12" s="192"/>
       <c r="I12" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="208" t="str">
+      <c r="J12" s="192" t="str">
         <f>IF(V12="","",V12)</f>
         <v/>
       </c>
-      <c r="K12" s="208"/>
+      <c r="K12" s="192"/>
       <c r="M12" s="11"/>
       <c r="O12" s="12"/>
       <c r="Q12" s="20" t="s">
@@ -3392,7 +3633,12 @@
         <v/>
       </c>
       <c r="AF12"/>
-      <c r="AG12"/>
+      <c r="AG12" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH12" s="16">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:36" ht="14.4" customHeight="1">
       <c r="A13" s="1">
@@ -3402,19 +3648,19 @@
       <c r="D13" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="208" t="str">
+      <c r="E13" s="192" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="208"/>
+      <c r="F13" s="192"/>
       <c r="I13" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="208" t="str">
+        <v>200</v>
+      </c>
+      <c r="J13" s="192" t="str">
         <f>IF(V13="","",V13)</f>
         <v/>
       </c>
-      <c r="K13" s="208"/>
+      <c r="K13" s="192"/>
       <c r="M13" s="11"/>
       <c r="O13" s="12"/>
       <c r="Q13" s="20" t="s">
@@ -3426,13 +3672,13 @@
       </c>
       <c r="S13" s="51"/>
       <c r="U13" s="20" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="V13" s="55" t="str">
         <f>IF(W13&lt;&gt;"",W13,IF(AB19="","",AB19))</f>
         <v/>
       </c>
-      <c r="W13" s="51"/>
+      <c r="W13" s="32"/>
       <c r="Y13" s="13"/>
       <c r="AA13" s="20" t="s">
         <v>37</v>
@@ -3447,7 +3693,12 @@
         <v/>
       </c>
       <c r="AF13"/>
-      <c r="AG13"/>
+      <c r="AG13" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH13" s="16">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:36" ht="14.4" customHeight="1">
       <c r="A14" s="1">
@@ -3457,19 +3708,19 @@
       <c r="D14" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="208" t="str">
+      <c r="E14" s="192" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="208"/>
+      <c r="F14" s="192"/>
       <c r="I14" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="208" t="str">
+        <v>38</v>
+      </c>
+      <c r="J14" s="192">
         <f>IF(V14="","",V14)</f>
-        <v/>
-      </c>
-      <c r="K14" s="208"/>
+        <v>2590411503</v>
+      </c>
+      <c r="K14" s="192"/>
       <c r="M14" s="11"/>
       <c r="O14" s="12"/>
       <c r="Q14" s="20" t="s">
@@ -3481,11 +3732,11 @@
       </c>
       <c r="S14" s="51"/>
       <c r="U14" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="V14" s="55" t="str">
+        <v>38</v>
+      </c>
+      <c r="V14" s="55">
         <f>IF(W14&lt;&gt;"",W14,IF(AB20="","",AB20))</f>
-        <v/>
+        <v>2590411503</v>
       </c>
       <c r="W14" s="51"/>
       <c r="Y14" s="13"/>
@@ -3502,7 +3753,12 @@
         <v/>
       </c>
       <c r="AF14"/>
-      <c r="AG14"/>
+      <c r="AG14" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH14" s="16">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:36" ht="14.4" customHeight="1" thickBot="1">
       <c r="A15" s="1">
@@ -3512,11 +3768,19 @@
       <c r="D15" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="208" t="str">
+      <c r="E15" s="192" t="str">
         <f t="shared" si="1"/>
-        <v>Barco K5905277 v16</v>
-      </c>
-      <c r="F15" s="208"/>
+        <v>Barco K5905277 v18</v>
+      </c>
+      <c r="F15" s="192"/>
+      <c r="I15" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="192" t="str">
+        <f>IF(V15="","",V15)</f>
+        <v/>
+      </c>
+      <c r="K15" s="192"/>
       <c r="M15" s="11"/>
       <c r="O15" s="25"/>
       <c r="P15" s="26"/>
@@ -3525,15 +3789,20 @@
       </c>
       <c r="R15" s="57" t="str">
         <f t="shared" si="2"/>
-        <v>Barco K5905277 v16</v>
+        <v>Barco K5905277 v18</v>
       </c>
       <c r="S15" s="58" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
+      <c r="U15" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="V15" s="224" t="str">
+        <f>IF(W15&lt;&gt;"",W15,IF(AB21="","",AB21))</f>
+        <v/>
+      </c>
+      <c r="W15" s="58"/>
       <c r="X15" s="26"/>
       <c r="Y15" s="27"/>
       <c r="AA15" s="20" t="s">
@@ -3546,10 +3815,15 @@
       </c>
       <c r="AD15" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>Barco K5905277 v16</v>
+        <v>Barco K5905277 v18</v>
       </c>
       <c r="AF15"/>
-      <c r="AG15"/>
+      <c r="AG15" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH15" s="16">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:36" ht="14.4" customHeight="1" thickBot="1">
       <c r="A16" s="1">
@@ -3580,7 +3854,12 @@
         <v/>
       </c>
       <c r="AF16"/>
-      <c r="AG16"/>
+      <c r="AG16" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH16" s="38">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:33" ht="14.4" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="1">
@@ -3660,25 +3939,25 @@
       <c r="H19" s="136"/>
       <c r="I19" s="136"/>
       <c r="J19" s="136"/>
-      <c r="K19" s="210" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="210"/>
+      <c r="K19" s="195" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="195"/>
       <c r="M19" s="4"/>
       <c r="O19" s="12"/>
       <c r="R19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y19" s="13"/>
       <c r="AA19" s="20" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="AB19" s="33"/>
       <c r="AC19" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AB19&lt;&gt;AD19,"Change","")</f>
         <v/>
       </c>
       <c r="AD19" s="35" t="str">
@@ -3694,7 +3973,7 @@
       </c>
       <c r="B20" s="9"/>
       <c r="D20" s="48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" s="49" t="str">
         <f>IF(O20="","",IF(O20=1,"YES",IF(O20=2,"NO",IF(O20=3,"NA",""))))</f>
@@ -3709,7 +3988,7 @@
         <v/>
       </c>
       <c r="K20" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L20" s="77" t="str">
         <f>IF(W20="","",W20)</f>
@@ -3722,27 +4001,29 @@
       </c>
       <c r="R20" s="66"/>
       <c r="V20" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W20" s="131" t="str">
         <f>IF(X20&lt;&gt;"",X20,IF(AB23="","",AB23))</f>
         <v>Piranha CB2-19020491</v>
       </c>
       <c r="X20" s="132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y20" s="13"/>
       <c r="AA20" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB20" s="61"/>
+        <v>38</v>
+      </c>
+      <c r="AB20" s="33">
+        <v>2590411503</v>
+      </c>
       <c r="AC20" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AD20" s="35" t="str">
+        <f>IF(AB20&lt;&gt;AD20,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD20" s="35">
         <f>IF(V14="","",V14)</f>
-        <v/>
+        <v>2590411503</v>
       </c>
       <c r="AF20"/>
       <c r="AG20"/>
@@ -3753,7 +4034,7 @@
       </c>
       <c r="B21" s="9"/>
       <c r="D21" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E21" s="52" t="str">
         <f>IF(O21="","",IF(O21=1,"YES",IF(O21=2,"NO",IF(O21=3,"NA",""))))</f>
@@ -3768,9 +4049,9 @@
         <v/>
       </c>
       <c r="K21" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="L21" s="220">
+        <v>126</v>
+      </c>
+      <c r="L21" s="185">
         <f t="shared" ref="L21:L22" si="5">IF(W21="","",W21)</f>
         <v>45089</v>
       </c>
@@ -3781,19 +4062,30 @@
       </c>
       <c r="R21" s="66"/>
       <c r="V21" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W21" s="135">
         <f t="shared" ref="W21:W22" si="6">IF(X21&lt;&gt;"",X21,IF(AB24="","",AB24))</f>
         <v>45089</v>
       </c>
-      <c r="X21" s="224">
+      <c r="X21" s="187">
         <v>45089</v>
       </c>
       <c r="Y21" s="13"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
+      <c r="AA21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB21" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC21" s="34" t="str">
+        <f>IF(AB21&lt;&gt;AD21,"Change","")</f>
+        <v/>
+      </c>
+      <c r="AD21" s="35" t="str">
+        <f>IF(V15="","",V15)</f>
+        <v/>
+      </c>
       <c r="AF21"/>
       <c r="AG21"/>
     </row>
@@ -3803,7 +4095,7 @@
       </c>
       <c r="B22" s="9"/>
       <c r="D22" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E22" s="52" t="str">
         <f>IF(O22="","",IF(O22=1,"YES",IF(O22=2,"NO",IF(O22=3,"NA",""))))</f>
@@ -3818,9 +4110,9 @@
         <v/>
       </c>
       <c r="K22" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="L22" s="220">
+        <v>125</v>
+      </c>
+      <c r="L22" s="185">
         <f t="shared" si="5"/>
         <v>45820</v>
       </c>
@@ -3831,18 +4123,18 @@
       </c>
       <c r="R22" s="66"/>
       <c r="V22" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W22" s="135">
         <f t="shared" si="6"/>
         <v>45820</v>
       </c>
-      <c r="X22" s="224">
+      <c r="X22" s="187">
         <v>45820</v>
       </c>
       <c r="Y22" s="13"/>
       <c r="AA22" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF22"/>
       <c r="AG22"/>
@@ -3853,7 +4145,7 @@
       </c>
       <c r="B23" s="9"/>
       <c r="D23" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E23" s="52" t="str">
         <f>IF(O23="","",IF(O23=1,"YES",IF(O23=2,"NO",IF(O23=3,"NA",""))))</f>
@@ -3875,7 +4167,7 @@
       <c r="R23" s="66"/>
       <c r="Y23" s="13"/>
       <c r="AA23" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AB23" s="33"/>
       <c r="AC23" s="34" t="str">
@@ -3895,18 +4187,18 @@
       </c>
       <c r="B24" s="9"/>
       <c r="D24" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="209" t="str">
+        <v>83</v>
+      </c>
+      <c r="E24" s="194" t="str">
         <f>IF(P52="","",P52)</f>
         <v/>
       </c>
-      <c r="F24" s="209"/>
+      <c r="F24" s="194"/>
       <c r="M24" s="11"/>
       <c r="O24" s="12"/>
       <c r="Y24" s="13"/>
       <c r="AA24" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB24" s="134"/>
       <c r="AC24" s="34" t="str">
@@ -3937,7 +4229,7 @@
       </c>
       <c r="Y25" s="13"/>
       <c r="AA25" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB25" s="134"/>
       <c r="AC25" s="34" t="str">
@@ -3961,21 +4253,21 @@
       </c>
       <c r="M26" s="11"/>
       <c r="O26" s="73" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P26" s="74"/>
       <c r="Q26" s="1" t="s">
         <v>54</v>
       </c>
       <c r="S26" s="20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T26" s="161" t="str">
         <f>IF(Sheet1!B4="","",Sheet1!B4)</f>
         <v/>
       </c>
       <c r="U26" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Y26" s="13"/>
       <c r="AF26"/>
@@ -3987,7 +4279,7 @@
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D27" s="49" t="str">
         <f>IF(P26="","",P26)</f>
@@ -3999,12 +4291,13 @@
       <c r="G27" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>57</v>
+      <c r="H27" s="1" t="str">
+        <f>Q28</f>
+        <v>Ambient light illuminance measured at the surface of the monitor(s) is less than __ lux</v>
       </c>
       <c r="M27" s="11"/>
       <c r="O27" s="73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" s="76" t="str">
         <f>IF(AB27="","",AB27)</f>
@@ -4014,18 +4307,18 @@
         <v>54</v>
       </c>
       <c r="S27" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T27" s="76" t="str">
         <f>IF(AB28="","",AB28)</f>
         <v/>
       </c>
       <c r="U27" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Y27" s="13"/>
       <c r="AA27" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AB27" s="33"/>
       <c r="AC27" s="34" t="str">
@@ -4045,26 +4338,27 @@
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D28" s="128" t="str">
         <f>IF(T26="","",T26)</f>
         <v/>
       </c>
       <c r="E28" s="75" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M28" s="11"/>
       <c r="O28" s="12"/>
       <c r="P28" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>134</v>
+      <c r="Q28" s="1" t="str">
+        <f>"Ambient light illuminance measured at the surface of the monitor(s) is less than "&amp;IF(V13="","__",VLOOKUP(V13,AG10:AH16,2))&amp;" lux"</f>
+        <v>Ambient light illuminance measured at the surface of the monitor(s) is less than __ lux</v>
       </c>
       <c r="Y28" s="13"/>
       <c r="AA28" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AB28" s="33"/>
       <c r="AC28" s="34" t="str">
@@ -4084,7 +4378,7 @@
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="77" t="str">
         <f>IF(Q29="","",IF(LEN(Q29)&lt;=135,Q29,IF(LEN(Q29)&lt;=260,LEFT(Q29,SEARCH(" ",Q29,125)),LEFT(Q29,SEARCH(" ",Q29,130)))))</f>
@@ -4101,7 +4395,7 @@
       <c r="M29" s="11"/>
       <c r="O29" s="12"/>
       <c r="P29" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q29" s="78" t="str">
         <f>IF(Q31&lt;&gt;"",Q31,IF(AB56="","",AB56))</f>
@@ -4148,7 +4442,7 @@
       <c r="M30" s="11"/>
       <c r="O30" s="12"/>
       <c r="P30" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q30" s="112"/>
       <c r="R30" s="81">
@@ -4197,7 +4491,7 @@
       <c r="M31" s="11"/>
       <c r="O31" s="12"/>
       <c r="P31" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q31" s="66"/>
       <c r="R31" s="67"/>
@@ -4209,7 +4503,7 @@
       <c r="X31" s="67"/>
       <c r="Y31" s="13"/>
       <c r="AA31" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AB31" s="33"/>
       <c r="AC31" s="34" t="str">
@@ -4232,7 +4526,7 @@
       <c r="O32" s="12"/>
       <c r="Y32" s="13"/>
       <c r="AA32" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AB32" s="33"/>
       <c r="AC32" s="34" t="str">
@@ -4252,21 +4546,21 @@
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M33" s="11"/>
       <c r="O33" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U33" s="20" t="s">
         <v>52</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y33" s="13"/>
       <c r="AA33" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AB33" s="33"/>
       <c r="AC33" s="34" t="str">
@@ -4288,19 +4582,19 @@
       <c r="C34" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="222" t="str">
+      <c r="D34" s="228" t="str">
         <f>IF(P34="","",P34)</f>
         <v/>
       </c>
       <c r="E34" s="142"/>
       <c r="F34" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="75" t="s">
+      <c r="H34" s="82" t="s">
         <v>71</v>
-      </c>
-      <c r="H34" s="82" t="s">
-        <v>72</v>
       </c>
       <c r="I34" s="83"/>
       <c r="J34" s="83"/>
@@ -4317,11 +4611,11 @@
       </c>
       <c r="S34" s="19" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right ()</v>
+        <v>Right (1503)</v>
       </c>
       <c r="Y34" s="13"/>
       <c r="AA34" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AB34" s="33"/>
       <c r="AC34" s="34" t="str">
@@ -4365,13 +4659,13 @@
       <c r="M35" s="11"/>
       <c r="O35" s="12"/>
       <c r="Q35" s="86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R35" s="129"/>
       <c r="S35" s="129"/>
       <c r="Y35" s="13"/>
       <c r="AA35" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AB35" s="33"/>
       <c r="AC35" s="34" t="str">
@@ -4394,7 +4688,7 @@
       <c r="D36" s="83"/>
       <c r="E36" s="48" t="str">
         <f>S34</f>
-        <v>Right ()</v>
+        <v>Right (1503)</v>
       </c>
       <c r="F36" s="84" t="str">
         <f>IF(S35="","",S35)</f>
@@ -4415,13 +4709,13 @@
       <c r="M36" s="11"/>
       <c r="O36" s="12"/>
       <c r="Q36" s="87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R36" s="130"/>
       <c r="S36" s="130"/>
       <c r="Y36" s="13"/>
       <c r="AA36" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AB36" s="33"/>
       <c r="AC36" s="34" t="str">
@@ -4441,7 +4735,7 @@
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" s="77" t="str">
         <f>IF(Q39="","",IF(LEN(Q39)&lt;=135,Q39,IF(LEN(Q39)&lt;=260,LEFT(Q39,SEARCH(" ",Q39,125)),LEFT(Q39,SEARCH(" ",Q39,130)))))</f>
@@ -4458,7 +4752,7 @@
       <c r="M37" s="11"/>
       <c r="O37" s="12"/>
       <c r="Q37" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R37" s="88" t="str">
         <f>IF(OR(R35="",R36=""),"",R36/R35)</f>
@@ -4470,7 +4764,7 @@
       </c>
       <c r="Y37" s="13"/>
       <c r="AA37" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AB37" s="33"/>
       <c r="AC37" s="34" t="str">
@@ -4506,7 +4800,7 @@
       <c r="O38" s="12"/>
       <c r="Y38" s="13"/>
       <c r="AA38" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AB38" s="33"/>
       <c r="AC38" s="34" t="str">
@@ -4541,7 +4835,7 @@
       <c r="M39" s="11"/>
       <c r="O39" s="12"/>
       <c r="P39" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="78" t="str">
         <f>IF(Q41&lt;&gt;"",Q41,IF(AB57="","",AB57))</f>
@@ -4576,7 +4870,7 @@
       <c r="M40" s="11"/>
       <c r="O40" s="12"/>
       <c r="P40" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q40" s="112"/>
       <c r="R40" s="81">
@@ -4616,7 +4910,7 @@
       <c r="M41" s="11"/>
       <c r="O41" s="12"/>
       <c r="P41" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q41" s="66"/>
       <c r="R41" s="67"/>
@@ -4628,7 +4922,7 @@
       <c r="X41" s="67"/>
       <c r="Y41" s="13"/>
       <c r="AA41" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB41" s="70"/>
       <c r="AC41" s="34" t="str">
@@ -4650,7 +4944,7 @@
       <c r="C42" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="222" t="str">
+      <c r="D42" s="228" t="str">
         <f>IF(P44="","",P44)</f>
         <v/>
       </c>
@@ -4661,13 +4955,13 @@
       </c>
       <c r="G42" s="141" t="str">
         <f>S45</f>
-        <v>Right ()</v>
+        <v>Right (1503)</v>
       </c>
       <c r="M42" s="11"/>
       <c r="O42" s="12"/>
       <c r="Y42" s="13"/>
       <c r="AA42" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB42" s="70"/>
       <c r="AC42" s="34" t="str">
@@ -4687,7 +4981,7 @@
       </c>
       <c r="B43" s="9"/>
       <c r="E43" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F43" s="90" t="str">
         <f>IF(R46="","",IF(R46=1,"YES",IF(R46=2,"NO",IF(R46=3,"NA",""))))</f>
@@ -4705,11 +4999,11 @@
         <v>52</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y43" s="13"/>
       <c r="AA43" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AB43" s="70"/>
       <c r="AC43" s="34" t="str">
@@ -4729,7 +5023,7 @@
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="77" t="str">
         <f>IF(Q47="","",IF(LEN(Q47)&lt;=135,Q47,IF(LEN(Q47)&lt;=260,LEFT(Q47,SEARCH(" ",Q47,125)),LEFT(Q47,SEARCH(" ",Q47,130)))))</f>
@@ -4749,11 +5043,11 @@
       </c>
       <c r="P44" s="54"/>
       <c r="V44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y44" s="13"/>
       <c r="AA44" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AB44" s="70"/>
       <c r="AC44" s="34" t="str">
@@ -4795,11 +5089,11 @@
       </c>
       <c r="S45" s="19" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right ()</v>
+        <v>Right (1503)</v>
       </c>
       <c r="Y45" s="13"/>
       <c r="AA45" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AB45" s="70"/>
       <c r="AC45" s="34" t="str">
@@ -4834,13 +5128,13 @@
       <c r="M46" s="11"/>
       <c r="O46" s="12"/>
       <c r="Q46" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R46" s="93"/>
       <c r="S46" s="93"/>
       <c r="Y46" s="13"/>
       <c r="AA46" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AB46" s="70"/>
       <c r="AC46" s="34" t="str">
@@ -4862,7 +5156,7 @@
       <c r="M47" s="11"/>
       <c r="O47" s="12"/>
       <c r="P47" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q47" s="78" t="str">
         <f>IF(Q49&lt;&gt;"",Q49,IF(AB58="","",AB58))</f>
@@ -4875,7 +5169,7 @@
       <c r="X47" s="64"/>
       <c r="Y47" s="13"/>
       <c r="AA47" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB47" s="19"/>
       <c r="AC47" s="19"/>
@@ -4889,12 +5183,12 @@
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M48" s="11"/>
       <c r="O48" s="12"/>
       <c r="P48" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q48" s="112"/>
       <c r="R48" s="81">
@@ -4909,7 +5203,7 @@
       <c r="X48" s="67"/>
       <c r="Y48" s="13"/>
       <c r="AA48" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB48" s="137"/>
       <c r="AC48" s="34" t="str">
@@ -4929,7 +5223,7 @@
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="94" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D49" s="83"/>
       <c r="E49" s="83"/>
@@ -4937,7 +5231,7 @@
       <c r="G49" s="83"/>
       <c r="H49" s="83"/>
       <c r="I49" s="94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J49" s="83"/>
       <c r="K49" s="83"/>
@@ -4945,7 +5239,7 @@
       <c r="M49" s="11"/>
       <c r="O49" s="12"/>
       <c r="P49" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q49" s="66"/>
       <c r="R49" s="67"/>
@@ -4957,7 +5251,7 @@
       <c r="X49" s="67"/>
       <c r="Y49" s="13"/>
       <c r="AA49" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB49" s="137"/>
       <c r="AC49" s="34" t="str">
@@ -4985,7 +5279,7 @@
         <v/>
       </c>
       <c r="F50" s="75" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G50" s="83"/>
       <c r="H50" s="83"/>
@@ -4998,13 +5292,13 @@
         <v/>
       </c>
       <c r="K50" s="75" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M50" s="11"/>
       <c r="O50" s="12"/>
       <c r="Y50" s="13"/>
       <c r="AA50" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB50" s="137"/>
       <c r="AC50" s="34" t="str">
@@ -5025,25 +5319,25 @@
       <c r="B51" s="9"/>
       <c r="D51" s="75" t="str">
         <f>R58</f>
-        <v>Right ()</v>
+        <v>Right (1503)</v>
       </c>
       <c r="E51" s="128" t="str">
         <f>IF(R59="","",R59)</f>
         <v/>
       </c>
       <c r="F51" s="75" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I51" s="75" t="str">
         <f>R58</f>
-        <v>Right ()</v>
+        <v>Right (1503)</v>
       </c>
       <c r="J51" s="157" t="str">
         <f>IF(R60="","",R60)</f>
         <v/>
       </c>
       <c r="K51" s="75" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M51" s="11"/>
       <c r="O51" s="69" t="s">
@@ -5053,11 +5347,11 @@
         <v>52</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y51" s="13"/>
       <c r="AA51" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB51" s="137"/>
       <c r="AC51" s="34" t="str">
@@ -5085,11 +5379,11 @@
       </c>
       <c r="P52" s="54"/>
       <c r="V52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y52" s="13"/>
       <c r="AA52" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB52" s="137"/>
       <c r="AC52" s="34" t="str">
@@ -5114,14 +5408,14 @@
       </c>
       <c r="F53" s="83" t="str">
         <f>R58</f>
-        <v>Right ()</v>
+        <v>Right (1503)</v>
       </c>
       <c r="I53" s="48"/>
       <c r="J53" s="48"/>
       <c r="M53" s="11"/>
       <c r="O53" s="12"/>
       <c r="P53" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q53" s="78" t="str">
         <f>IF(Q55&lt;&gt;"",Q55,IF(AB59="","",AB59))</f>
@@ -5134,7 +5428,7 @@
       <c r="X53" s="64"/>
       <c r="Y53" s="13"/>
       <c r="AA53" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB53" s="137"/>
       <c r="AC53" s="34" t="str">
@@ -5154,7 +5448,7 @@
       </c>
       <c r="B54" s="9"/>
       <c r="D54" s="48" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E54" s="162" t="str">
         <f>IF(Q61="","",Q61)</f>
@@ -5167,7 +5461,7 @@
       <c r="M54" s="11"/>
       <c r="O54" s="12"/>
       <c r="P54" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q54" s="112"/>
       <c r="R54" s="81">
@@ -5188,7 +5482,7 @@
       </c>
       <c r="B55" s="9"/>
       <c r="D55" s="48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E55" s="164" t="str">
         <f>IF(Q62="","",Q62)</f>
@@ -5201,7 +5495,7 @@
       <c r="M55" s="11"/>
       <c r="O55" s="12"/>
       <c r="P55" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q55" s="66"/>
       <c r="R55" s="67"/>
@@ -5228,7 +5522,7 @@
       <c r="O56" s="12"/>
       <c r="Y56" s="13"/>
       <c r="AA56" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB56" s="138"/>
       <c r="AC56" s="34" t="str">
@@ -5246,7 +5540,7 @@
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D57" s="77" t="str">
         <f>IF(Q63="","",IF(LEN(Q63)&lt;=135,Q63,IF(LEN(Q63)&lt;=260,LEFT(Q63,SEARCH(" ",Q63,125)),LEFT(Q63,SEARCH(" ",Q63,130)))))</f>
@@ -5262,13 +5556,13 @@
       <c r="L57" s="77"/>
       <c r="M57" s="11"/>
       <c r="O57" s="69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U57"/>
       <c r="V57"/>
       <c r="Y57" s="13"/>
       <c r="AA57" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB57" s="138"/>
       <c r="AC57" s="34" t="str">
@@ -5300,7 +5594,7 @@
       <c r="L58" s="79"/>
       <c r="M58" s="11"/>
       <c r="O58" s="97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q58" s="19" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
@@ -5308,10 +5602,10 @@
       </c>
       <c r="R58" s="19" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right ()</v>
+        <v>Right (1503)</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U58" s="19" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
@@ -5319,11 +5613,11 @@
       </c>
       <c r="V58" s="19" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right ()</v>
+        <v>Right (1503)</v>
       </c>
       <c r="Y58" s="13"/>
       <c r="AA58" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB58" s="138"/>
       <c r="AC58" s="34" t="str">
@@ -5356,7 +5650,7 @@
       <c r="M59" s="11"/>
       <c r="O59" s="12"/>
       <c r="P59" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q59" s="117" t="str">
         <f>IF(Sheet1!B5="","",Sheet1!B5+Lamb)</f>
@@ -5367,7 +5661,7 @@
         <v/>
       </c>
       <c r="T59" s="150" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="U59" s="166" t="str">
         <f>IF(AB31="","",AB31)</f>
@@ -5379,7 +5673,7 @@
       </c>
       <c r="Y59" s="13"/>
       <c r="AA59" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB59" s="138"/>
       <c r="AC59" s="34" t="str">
@@ -5399,7 +5693,7 @@
       <c r="M60" s="11"/>
       <c r="O60" s="12"/>
       <c r="P60" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q60" s="151" t="str">
         <f>IF(Sheet1!B7="","",Sheet1!B7+Lamb)</f>
@@ -5410,7 +5704,7 @@
         <v/>
       </c>
       <c r="T60" s="150" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U60" s="168" t="str">
         <f>IF(AB33="","",AB33)</f>
@@ -5422,7 +5716,7 @@
       </c>
       <c r="Y60" s="13"/>
       <c r="AA60" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB60" s="138"/>
       <c r="AC60" s="34" t="str">
@@ -5442,7 +5736,7 @@
       <c r="M61" s="11"/>
       <c r="O61" s="12"/>
       <c r="P61" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q61" s="151" t="str">
         <f>IF(Q59="","",Q60/Q59)</f>
@@ -5453,7 +5747,7 @@
         <v/>
       </c>
       <c r="T61" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U61" s="168" t="str">
         <f>IF(AB35="","",AB35)</f>
@@ -5465,7 +5759,7 @@
       </c>
       <c r="Y61" s="13"/>
       <c r="AA61" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB61" s="138"/>
       <c r="AC61" s="34" t="str">
@@ -5485,7 +5779,7 @@
       <c r="M62" s="11"/>
       <c r="O62" s="12"/>
       <c r="P62" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q62" s="154" t="str">
         <f>IF(OR(Q59="",Lamb=""),"",Lamb/Q59)</f>
@@ -5496,7 +5790,7 @@
         <v/>
       </c>
       <c r="T62" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="U62" s="170" t="str">
         <f>IF(AB37="","",AB37)</f>
@@ -5508,7 +5802,7 @@
       </c>
       <c r="Y62" s="13"/>
       <c r="AA62" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB62" s="138"/>
       <c r="AC62" s="34" t="str">
@@ -5528,7 +5822,7 @@
       <c r="M63" s="11"/>
       <c r="O63" s="12"/>
       <c r="P63" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q63" s="143" t="str">
         <f>IF(Q65&lt;&gt;"",Q65,IF(AB67="","",AB60))</f>
@@ -5562,7 +5856,7 @@
       <c r="M64" s="24"/>
       <c r="O64" s="12"/>
       <c r="P64" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q64" s="112"/>
       <c r="R64" s="81">
@@ -5596,7 +5890,7 @@
       <c r="C65" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="223" t="str">
+      <c r="D65" s="186" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
@@ -5609,7 +5903,7 @@
       </c>
       <c r="O65" s="12"/>
       <c r="P65" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q65" s="66"/>
       <c r="R65" s="67"/>
@@ -5628,7 +5922,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D66" s="99" t="str">
         <f>IF($E$14="","",$E$14)</f>
@@ -5662,13 +5956,13 @@
         <v>Medical University of South Carolina</v>
       </c>
       <c r="O67" s="97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U67" s="20" t="s">
         <v>52</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y67" s="13"/>
       <c r="AC67" s="19"/>
@@ -5691,7 +5985,7 @@
       </c>
       <c r="S68" s="19" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right ()</v>
+        <v>Right (1503)</v>
       </c>
       <c r="Y68" s="13"/>
       <c r="AB68" s="139"/>
@@ -5710,7 +6004,7 @@
       </c>
       <c r="O69" s="12"/>
       <c r="Q69" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R69" s="100"/>
       <c r="S69" s="101"/>
@@ -5724,7 +6018,7 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -5738,7 +6032,7 @@
       <c r="M70" s="4"/>
       <c r="O70" s="12"/>
       <c r="Q70" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R70" s="102"/>
       <c r="S70" s="103"/>
@@ -5759,23 +6053,23 @@
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="83"/>
-      <c r="D71" s="205" t="str">
+      <c r="D71" s="196" t="str">
         <f>Q86</f>
         <v>UNL-10 (cd/m^2)</v>
       </c>
-      <c r="E71" s="205"/>
-      <c r="F71" s="206" t="str">
+      <c r="E71" s="196"/>
+      <c r="F71" s="197" t="str">
         <f>S86</f>
         <v>UNL-80 (cd/m^2)</v>
       </c>
-      <c r="G71" s="206"/>
+      <c r="G71" s="197"/>
       <c r="I71" s="60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M71" s="11"/>
       <c r="O71" s="12"/>
       <c r="Q71" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R71" s="104"/>
       <c r="S71" s="105"/>
@@ -5795,7 +6089,7 @@
       </c>
       <c r="E72" s="84" t="str">
         <f>R87</f>
-        <v>Right ()</v>
+        <v>Right (1503)</v>
       </c>
       <c r="F72" s="84" t="str">
         <f>S87</f>
@@ -5803,25 +6097,25 @@
       </c>
       <c r="G72" s="96" t="str">
         <f>T87</f>
-        <v>Right ()</v>
+        <v>Right (1503)</v>
       </c>
       <c r="I72" s="49" t="str">
         <f>IF(V87="","TBD",IF(V87=1,"YES",IF(V87=2,"NO",IF(V87=3,"NA",""))))</f>
         <v>TBD</v>
       </c>
       <c r="J72" s="83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M72" s="11"/>
       <c r="O72" s="12"/>
       <c r="Q72" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V72" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="V72" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="W72" s="19"/>
       <c r="Y72" s="13"/>
@@ -5841,7 +6135,7 @@
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D73" s="106" t="str">
         <f t="shared" ref="D73:G76" si="13">IF(Q97="","",Q97)</f>
@@ -5864,20 +6158,20 @@
         <v>TBD</v>
       </c>
       <c r="J73" s="83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M73" s="11"/>
       <c r="O73" s="12"/>
       <c r="Q73" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R73" s="188"/>
-      <c r="S73" s="192"/>
-      <c r="V73" s="200" t="str">
+        <v>95</v>
+      </c>
+      <c r="R73" s="211"/>
+      <c r="S73" s="215"/>
+      <c r="V73" s="203" t="str">
         <f>IF(AB48="","",AB48)</f>
         <v/>
       </c>
-      <c r="W73" s="201" t="str">
+      <c r="W73" s="204" t="str">
         <f>IF(AB51="","",AB51)</f>
         <v/>
       </c>
@@ -5891,7 +6185,7 @@
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D74" s="106" t="str">
         <f t="shared" si="13"/>
@@ -5914,15 +6208,15 @@
         <v>TBD</v>
       </c>
       <c r="J74" s="83" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M74" s="11"/>
       <c r="O74" s="12"/>
       <c r="Q74" s="19"/>
-      <c r="R74" s="189"/>
-      <c r="S74" s="193"/>
-      <c r="V74" s="199"/>
-      <c r="W74" s="202"/>
+      <c r="R74" s="212"/>
+      <c r="S74" s="216"/>
+      <c r="V74" s="202"/>
+      <c r="W74" s="205"/>
       <c r="Y74" s="13"/>
       <c r="AB74" s="139"/>
       <c r="AC74" s="34" t="str">
@@ -5940,7 +6234,7 @@
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D75" s="108" t="str">
         <f t="shared" si="13"/>
@@ -5961,15 +6255,15 @@
       <c r="M75" s="11"/>
       <c r="O75" s="12"/>
       <c r="Q75" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="R75" s="190"/>
-      <c r="S75" s="194"/>
-      <c r="V75" s="197" t="str">
+        <v>97</v>
+      </c>
+      <c r="R75" s="213"/>
+      <c r="S75" s="217"/>
+      <c r="V75" s="200" t="str">
         <f>IF(AB49="","",AB49)</f>
         <v/>
       </c>
-      <c r="W75" s="203" t="str">
+      <c r="W75" s="206" t="str">
         <f>IF(AB52="","",AB52)</f>
         <v/>
       </c>
@@ -5983,7 +6277,7 @@
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D76" s="108" t="str">
         <f t="shared" si="13"/>
@@ -6005,15 +6299,15 @@
         <v>56</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M76" s="11"/>
       <c r="O76" s="12"/>
       <c r="Q76" s="19"/>
-      <c r="R76" s="189"/>
-      <c r="S76" s="193"/>
-      <c r="V76" s="199"/>
-      <c r="W76" s="202"/>
+      <c r="R76" s="212"/>
+      <c r="S76" s="216"/>
+      <c r="V76" s="202"/>
+      <c r="W76" s="205"/>
       <c r="Y76" s="13"/>
       <c r="AB76" s="139"/>
       <c r="AC76" s="34" t="str">
@@ -6047,20 +6341,20 @@
         <v/>
       </c>
       <c r="J77" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M77" s="11"/>
       <c r="O77" s="12"/>
       <c r="Q77" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="R77" s="190"/>
-      <c r="S77" s="194"/>
-      <c r="V77" s="197" t="str">
+        <v>100</v>
+      </c>
+      <c r="R77" s="213"/>
+      <c r="S77" s="217"/>
+      <c r="V77" s="200" t="str">
         <f>IF(AB50="","",AB50)</f>
         <v/>
       </c>
-      <c r="W77" s="203" t="str">
+      <c r="W77" s="206" t="str">
         <f>IF(AB53="","",AB53)</f>
         <v/>
       </c>
@@ -6076,10 +6370,10 @@
       <c r="M78" s="11"/>
       <c r="O78" s="12"/>
       <c r="Q78" s="19"/>
-      <c r="R78" s="191"/>
-      <c r="S78" s="195"/>
-      <c r="V78" s="198"/>
-      <c r="W78" s="204"/>
+      <c r="R78" s="214"/>
+      <c r="S78" s="218"/>
+      <c r="V78" s="201"/>
+      <c r="W78" s="207"/>
       <c r="Y78" s="13"/>
       <c r="AB78" s="139"/>
       <c r="AC78" s="34" t="str">
@@ -6097,7 +6391,7 @@
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D79" s="77" t="str">
         <f>IF(Q101="","",IF(LEN(Q101)&lt;=135,Q101,IF(LEN(Q101)&lt;=260,LEFT(Q101,SEARCH(" ",Q101,125)),LEFT(Q101,SEARCH(" ",Q101,130)))))</f>
@@ -6117,7 +6411,7 @@
         <v>56</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y79" s="13"/>
       <c r="AC79" s="19"/>
@@ -6175,7 +6469,7 @@
       <c r="M81" s="11"/>
       <c r="O81" s="12"/>
       <c r="P81" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q81" s="78" t="str">
         <f>IF(Q83&lt;&gt;"",Q83,IF(AB61="","",AB61))</f>
@@ -6198,7 +6492,7 @@
       <c r="M82" s="11"/>
       <c r="O82" s="12"/>
       <c r="P82" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q82" s="112"/>
       <c r="R82" s="81">
@@ -6228,10 +6522,10 @@
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="I83" s="75" t="s">
         <v>93</v>
-      </c>
-      <c r="I83" s="75" t="s">
-        <v>94</v>
       </c>
       <c r="J83" s="75"/>
       <c r="K83" s="75"/>
@@ -6239,7 +6533,7 @@
       <c r="M83" s="11"/>
       <c r="O83" s="12"/>
       <c r="P83" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q83" s="66"/>
       <c r="R83" s="67"/>
@@ -6264,18 +6558,18 @@
       </c>
       <c r="G84" s="141" t="str">
         <f>S68</f>
-        <v>Right ()</v>
-      </c>
-      <c r="I84" s="207" t="str">
+        <v>Right (1503)</v>
+      </c>
+      <c r="I84" s="198" t="str">
         <f>R68</f>
         <v>Left ()</v>
       </c>
-      <c r="J84" s="207"/>
-      <c r="K84" s="207" t="str">
+      <c r="J84" s="198"/>
+      <c r="K84" s="198" t="str">
         <f>S68</f>
-        <v>Right ()</v>
-      </c>
-      <c r="L84" s="207"/>
+        <v>Right (1503)</v>
+      </c>
+      <c r="L84" s="198"/>
       <c r="M84" s="11"/>
       <c r="O84" s="12"/>
       <c r="Y84" s="13"/>
@@ -6295,7 +6589,7 @@
       </c>
       <c r="B85" s="9"/>
       <c r="E85" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F85" s="95" t="str">
         <f t="shared" ref="F85:G87" si="15">IF(R69="","",IF(R69=1,"YES",IF(R69=2,"NO",IF(R69=3,"NA",""))))</f>
@@ -6306,24 +6600,24 @@
         <v/>
       </c>
       <c r="H85" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="I85" s="196" t="str">
+        <v>95</v>
+      </c>
+      <c r="I85" s="199" t="str">
         <f>IF(R73="","",R73)</f>
         <v/>
       </c>
-      <c r="J85" s="196"/>
-      <c r="K85" s="196" t="str">
+      <c r="J85" s="199"/>
+      <c r="K85" s="199" t="str">
         <f>IF(S73="","",S73)</f>
         <v/>
       </c>
-      <c r="L85" s="196"/>
+      <c r="L85" s="199"/>
       <c r="M85" s="11"/>
       <c r="O85" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V85" s="60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y85" s="13"/>
     </row>
@@ -6333,7 +6627,7 @@
       </c>
       <c r="B86" s="9"/>
       <c r="E86" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F86" s="95" t="str">
         <f t="shared" si="15"/>
@@ -6344,28 +6638,28 @@
         <v/>
       </c>
       <c r="H86" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="I86" s="196" t="str">
+        <v>97</v>
+      </c>
+      <c r="I86" s="199" t="str">
         <f>IF(R75="","",R75)</f>
         <v/>
       </c>
-      <c r="J86" s="196"/>
-      <c r="K86" s="196" t="str">
+      <c r="J86" s="199"/>
+      <c r="K86" s="199" t="str">
         <f>IF(S75="","",S75)</f>
         <v/>
       </c>
-      <c r="L86" s="196"/>
+      <c r="L86" s="199"/>
       <c r="M86" s="11"/>
       <c r="O86" s="12"/>
-      <c r="Q86" s="186" t="s">
+      <c r="Q86" s="209" t="s">
+        <v>116</v>
+      </c>
+      <c r="R86" s="210"/>
+      <c r="S86" s="209" t="s">
         <v>117</v>
       </c>
-      <c r="R86" s="187"/>
-      <c r="S86" s="186" t="s">
-        <v>118</v>
-      </c>
-      <c r="T86" s="187"/>
+      <c r="T86" s="210"/>
       <c r="V86" s="113" t="s">
         <v>43</v>
       </c>
@@ -6377,7 +6671,7 @@
       </c>
       <c r="B87" s="9"/>
       <c r="E87" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F87" s="90" t="str">
         <f t="shared" si="15"/>
@@ -6388,18 +6682,18 @@
         <v/>
       </c>
       <c r="H87" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="I87" s="185" t="str">
+        <v>100</v>
+      </c>
+      <c r="I87" s="208" t="str">
         <f>IF(R77="","",R77)</f>
         <v/>
       </c>
-      <c r="J87" s="185"/>
-      <c r="K87" s="185" t="str">
+      <c r="J87" s="208"/>
+      <c r="K87" s="208" t="str">
         <f>IF(S77="","",S77)</f>
         <v/>
       </c>
-      <c r="L87" s="185"/>
+      <c r="L87" s="208"/>
       <c r="M87" s="11"/>
       <c r="O87" s="12"/>
       <c r="Q87" s="114" t="str">
@@ -6408,7 +6702,7 @@
       </c>
       <c r="R87" s="115" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right ()</v>
+        <v>Right (1503)</v>
       </c>
       <c r="S87" s="114" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
@@ -6416,18 +6710,18 @@
       </c>
       <c r="T87" s="115" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right ()</v>
+        <v>Right (1503)</v>
       </c>
       <c r="V87" s="116"/>
       <c r="W87" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y87" s="13"/>
       <c r="AA87" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AC87" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:30" ht="14.4" customHeight="1">
@@ -6436,7 +6730,7 @@
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D88" s="77" t="str">
         <f>IF(Q81="","",IF(LEN(Q81)&lt;=135,Q81,IF(LEN(Q81)&lt;=260,LEFT(Q81,SEARCH(" ",Q81,125)),LEFT(Q81,SEARCH(" ",Q81,130)))))</f>
@@ -6453,7 +6747,7 @@
       <c r="M88" s="11"/>
       <c r="O88" s="12"/>
       <c r="P88" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q88" s="117" t="str">
         <f>IF(Sheet1!B9="","",Sheet1!B9+Lamb)</f>
@@ -6473,7 +6767,7 @@
       </c>
       <c r="V88" s="116"/>
       <c r="W88" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y88" s="13"/>
       <c r="AA88" s="160" t="e">
@@ -6514,7 +6808,7 @@
       <c r="M89" s="11"/>
       <c r="O89" s="12"/>
       <c r="P89" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q89" s="151" t="str">
         <f>IF(Sheet1!B10="","",Sheet1!B10+Lamb)</f>
@@ -6534,7 +6828,7 @@
       </c>
       <c r="V89" s="116"/>
       <c r="W89" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y89" s="13"/>
       <c r="AA89" s="160" t="e">
@@ -6575,7 +6869,7 @@
       <c r="M90" s="11"/>
       <c r="O90" s="12"/>
       <c r="P90" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q90" s="151" t="str">
         <f>IF(Sheet1!B11="","",Sheet1!B11+Lamb)</f>
@@ -6619,7 +6913,7 @@
       <c r="M91" s="11"/>
       <c r="O91" s="12"/>
       <c r="P91" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q91" s="151" t="str">
         <f>IF(Sheet1!B12="","",Sheet1!B12+Lamb)</f>
@@ -6661,12 +6955,12 @@
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M92" s="11"/>
       <c r="O92" s="12"/>
       <c r="P92" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q92" s="151" t="str">
         <f>IF(Sheet1!B13="","",Sheet1!B13+Lamb)</f>
@@ -6685,10 +6979,10 @@
         <v/>
       </c>
       <c r="W92" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="X92" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Y92" s="13"/>
       <c r="AA92" s="160" t="e">
@@ -6728,7 +7022,7 @@
       <c r="M93" s="11"/>
       <c r="O93" s="12"/>
       <c r="P93" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q93" s="151" t="str">
         <f>IF(Sheet1!B14="","",Sheet1!B14+Lamb)</f>
@@ -6747,7 +7041,7 @@
         <v/>
       </c>
       <c r="V93" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W93" s="174" t="e">
         <f>AVERAGE(Q88:R96)</f>
@@ -6795,7 +7089,7 @@
       <c r="M94" s="11"/>
       <c r="O94" s="12"/>
       <c r="P94" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q94" s="151" t="str">
         <f>IF(Sheet1!B15="","",Sheet1!B15+Lamb)</f>
@@ -6814,7 +7108,7 @@
         <v/>
       </c>
       <c r="V94" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W94" s="174" t="e">
         <f>AVERAGE(S88:T96)</f>
@@ -6862,7 +7156,7 @@
       <c r="M95" s="11"/>
       <c r="O95" s="12"/>
       <c r="P95" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q95" s="151" t="str">
         <f>IF(Sheet1!B16="","",Sheet1!B16+Lamb)</f>
@@ -6918,7 +7212,7 @@
       <c r="M96" s="11"/>
       <c r="O96" s="12"/>
       <c r="P96" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q96" s="154" t="str">
         <f>IF(Sheet1!B17="","",Sheet1!B17+Lamb)</f>
@@ -6974,7 +7268,7 @@
       <c r="M97" s="11"/>
       <c r="O97" s="12"/>
       <c r="P97" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q97" s="117" t="str">
         <f>IF(Q88="","",AVERAGE(Q88:Q92))</f>
@@ -7014,7 +7308,7 @@
       <c r="M98" s="11"/>
       <c r="O98" s="12"/>
       <c r="P98" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q98" s="144" t="str">
         <f>IF(Q88="","",STDEV(Q88:Q92))</f>
@@ -7054,7 +7348,7 @@
       <c r="M99" s="11"/>
       <c r="O99" s="12"/>
       <c r="P99" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q99" s="147" t="str">
         <f>IF(Q88="","",2*(MAX(Q88:Q96)-MIN(Q88:Q96))/(MIN(Q88:Q96)+MAX(Q88:Q96)))</f>
@@ -7076,7 +7370,7 @@
         <v>56</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y99" s="13"/>
     </row>
@@ -7100,7 +7394,7 @@
       <c r="M100" s="11"/>
       <c r="O100" s="12"/>
       <c r="P100" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q100" s="158" t="str">
         <f>IF(Q88="","",MAX(AA88:AA96))</f>
@@ -7119,7 +7413,7 @@
         <v/>
       </c>
       <c r="V100" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Y100" s="13"/>
     </row>
@@ -7143,7 +7437,7 @@
       <c r="M101" s="11"/>
       <c r="O101" s="12"/>
       <c r="P101" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q101" s="143" t="str">
         <f>IF(Q103&lt;&gt;"",Q103,IF(AB62="","",AB62))</f>
@@ -7176,7 +7470,7 @@
       <c r="M102" s="11"/>
       <c r="O102" s="12"/>
       <c r="P102" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q102" s="112"/>
       <c r="R102" s="81">
@@ -7211,7 +7505,7 @@
       <c r="M103" s="11"/>
       <c r="O103" s="12"/>
       <c r="P103" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q103" s="66"/>
       <c r="R103" s="67"/>
@@ -7291,7 +7585,7 @@
       <c r="L106" s="67"/>
       <c r="M106" s="11"/>
       <c r="T106" s="120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:25" ht="14.4" customHeight="1">
@@ -7317,7 +7611,7 @@
       <c r="Q107" s="6"/>
       <c r="R107" s="6"/>
       <c r="S107" s="121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T107" s="6"/>
       <c r="U107" s="6"/>
@@ -7346,7 +7640,7 @@
       <c r="M108" s="11"/>
       <c r="O108" s="12"/>
       <c r="P108" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q108" s="122"/>
       <c r="R108" s="123"/>
@@ -7379,7 +7673,7 @@
       <c r="M109" s="11"/>
       <c r="O109" s="12"/>
       <c r="P109" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q109" s="112"/>
       <c r="R109" s="125">
@@ -7414,7 +7708,7 @@
       <c r="M110" s="11"/>
       <c r="O110" s="12"/>
       <c r="P110" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q110" s="122"/>
       <c r="R110" s="123"/>
@@ -7447,7 +7741,7 @@
       <c r="M111" s="11"/>
       <c r="O111" s="12"/>
       <c r="P111" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q111" s="112"/>
       <c r="R111" s="125">
@@ -7482,7 +7776,7 @@
       <c r="M112" s="11"/>
       <c r="O112" s="12"/>
       <c r="P112" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q112" s="122"/>
       <c r="R112" s="123"/>
@@ -7515,7 +7809,7 @@
       <c r="M113" s="11"/>
       <c r="O113" s="12"/>
       <c r="P113" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q113" s="112"/>
       <c r="R113" s="125">
@@ -7550,7 +7844,7 @@
       <c r="M114" s="11"/>
       <c r="O114" s="12"/>
       <c r="P114" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q114" s="122"/>
       <c r="R114" s="123"/>
@@ -7583,7 +7877,7 @@
       <c r="M115" s="11"/>
       <c r="O115" s="12"/>
       <c r="P115" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q115" s="112"/>
       <c r="R115" s="125">
@@ -7618,7 +7912,7 @@
       <c r="M116" s="11"/>
       <c r="O116" s="12"/>
       <c r="P116" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q116" s="122"/>
       <c r="R116" s="123"/>
@@ -7651,7 +7945,7 @@
       <c r="M117" s="11"/>
       <c r="O117" s="12"/>
       <c r="P117" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q117" s="112"/>
       <c r="R117" s="125">
@@ -7686,7 +7980,7 @@
       <c r="M118" s="11"/>
       <c r="O118" s="12"/>
       <c r="P118" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q118" s="122"/>
       <c r="R118" s="123"/>
@@ -7719,7 +8013,7 @@
       <c r="M119" s="11"/>
       <c r="O119" s="12"/>
       <c r="P119" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q119" s="112"/>
       <c r="R119" s="125">
@@ -7754,7 +8048,7 @@
       <c r="M120" s="11"/>
       <c r="O120" s="12"/>
       <c r="P120" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q120" s="122"/>
       <c r="R120" s="123"/>
@@ -7787,7 +8081,7 @@
       <c r="M121" s="11"/>
       <c r="O121" s="12"/>
       <c r="P121" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q121" s="112"/>
       <c r="R121" s="125">
@@ -7822,7 +8116,7 @@
       <c r="M122" s="11"/>
       <c r="O122" s="12"/>
       <c r="P122" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q122" s="122"/>
       <c r="R122" s="123"/>
@@ -7855,7 +8149,7 @@
       <c r="M123" s="11"/>
       <c r="O123" s="12"/>
       <c r="P123" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q123" s="112"/>
       <c r="R123" s="125">
@@ -7890,7 +8184,7 @@
       <c r="M124" s="11"/>
       <c r="O124" s="12"/>
       <c r="P124" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q124" s="122"/>
       <c r="R124" s="123"/>
@@ -7923,7 +8217,7 @@
       <c r="M125" s="11"/>
       <c r="O125" s="12"/>
       <c r="P125" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q125" s="112"/>
       <c r="R125" s="125">
@@ -7946,7 +8240,7 @@
       <c r="M126" s="11"/>
       <c r="O126" s="12"/>
       <c r="P126" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q126" s="122"/>
       <c r="R126" s="123"/>
@@ -7967,7 +8261,7 @@
       <c r="M127" s="11"/>
       <c r="O127" s="12"/>
       <c r="P127" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q127" s="112"/>
       <c r="R127" s="125">
@@ -7990,7 +8284,7 @@
       <c r="M128" s="11"/>
       <c r="O128" s="12"/>
       <c r="P128" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q128" s="122"/>
       <c r="R128" s="123"/>
@@ -8011,7 +8305,7 @@
       <c r="M129" s="11"/>
       <c r="O129" s="12"/>
       <c r="P129" s="80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q129" s="112"/>
       <c r="R129" s="125">
@@ -8061,7 +8355,7 @@
       <c r="C131" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D131" s="223" t="str">
+      <c r="D131" s="186" t="str">
         <f>IF($P$7="","",$P$7)</f>
         <v/>
       </c>
@@ -8078,7 +8372,7 @@
         <v>66</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D132" s="99" t="str">
         <f>IF($J$12="","",$J$12)</f>
@@ -8105,35 +8399,7 @@
       </headerFooter>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="40">
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="V77:V78"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="W73:W74"/>
-    <mergeCell ref="W75:W76"/>
-    <mergeCell ref="W77:W78"/>
+  <mergeCells count="42">
     <mergeCell ref="I87:J87"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="Q86:R86"/>
@@ -8146,10 +8412,40 @@
     <mergeCell ref="S77:S78"/>
     <mergeCell ref="I86:J86"/>
     <mergeCell ref="K86:L86"/>
+    <mergeCell ref="V77:V78"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="V73:V74"/>
+    <mergeCell ref="W73:W74"/>
+    <mergeCell ref="W75:W76"/>
+    <mergeCell ref="W77:W78"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="AG9:AH9"/>
   </mergeCells>
   <conditionalFormatting sqref="D27:D28">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
-      <formula>20</formula>
+      <formula>"VLOOKUP(V13,AG10:AH16,2)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:G76">
@@ -8209,7 +8505,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="T26">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
-      <formula>20</formula>
+      <formula>"VLOOKUP(V13,AG10:AH16,2)"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.94488188976377963" header="0.51181102362204722" footer="0.78740157480314965"/>
@@ -8257,7 +8553,7 @@
       <c r="K1" s="136"/>
       <c r="L1" s="176"/>
       <c r="R1" s="83" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20.399999999999999">
@@ -8270,7 +8566,7 @@
       </c>
       <c r="L2" s="178"/>
       <c r="R2" s="83" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999">
@@ -8359,19 +8655,19 @@
       <c r="D10" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="214" t="str">
+      <c r="E10" s="191" t="str">
         <f>Barco!E10</f>
         <v/>
       </c>
-      <c r="F10" s="214"/>
+      <c r="F10" s="191"/>
       <c r="I10" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="214" t="str">
+      <c r="J10" s="191" t="str">
         <f>Barco!J10</f>
         <v/>
       </c>
-      <c r="K10" s="214"/>
+      <c r="K10" s="191"/>
       <c r="L10" s="178"/>
     </row>
     <row r="11" spans="1:18">
@@ -8382,19 +8678,19 @@
       <c r="D11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="214" t="str">
+      <c r="E11" s="191" t="str">
         <f>Barco!E11</f>
         <v/>
       </c>
-      <c r="F11" s="214"/>
+      <c r="F11" s="191"/>
       <c r="I11" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="214" t="str">
+      <c r="J11" s="191" t="str">
         <f>Barco!J11</f>
         <v/>
       </c>
-      <c r="K11" s="214"/>
+      <c r="K11" s="191"/>
       <c r="L11" s="178"/>
     </row>
     <row r="12" spans="1:18">
@@ -8405,19 +8701,19 @@
       <c r="D12" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="214" t="str">
+      <c r="E12" s="191" t="str">
         <f>Barco!E12</f>
         <v/>
       </c>
-      <c r="F12" s="214"/>
+      <c r="F12" s="191"/>
       <c r="I12" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="214" t="str">
+      <c r="J12" s="191" t="str">
         <f>Barco!J12</f>
         <v/>
       </c>
-      <c r="K12" s="214"/>
+      <c r="K12" s="191"/>
       <c r="L12" s="178"/>
     </row>
     <row r="13" spans="1:18">
@@ -8428,19 +8724,19 @@
       <c r="D13" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="214" t="str">
+      <c r="E13" s="191" t="str">
         <f>Barco!E13</f>
         <v/>
       </c>
-      <c r="F13" s="214"/>
+      <c r="F13" s="191"/>
       <c r="I13" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="214" t="str">
-        <f>Barco!J13</f>
-        <v/>
-      </c>
-      <c r="K13" s="214"/>
+      <c r="J13" s="191">
+        <f>Barco!J14</f>
+        <v>2590411503</v>
+      </c>
+      <c r="K13" s="191"/>
       <c r="L13" s="178"/>
     </row>
     <row r="14" spans="1:18">
@@ -8451,19 +8747,19 @@
       <c r="D14" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="214" t="str">
+      <c r="E14" s="191" t="str">
         <f>Barco!E14</f>
         <v/>
       </c>
-      <c r="F14" s="214"/>
+      <c r="F14" s="191"/>
       <c r="I14" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="214" t="str">
-        <f>Barco!J14</f>
-        <v/>
-      </c>
-      <c r="K14" s="214"/>
+      <c r="J14" s="191" t="str">
+        <f>Barco!J15</f>
+        <v/>
+      </c>
+      <c r="K14" s="191"/>
       <c r="L14" s="178"/>
     </row>
     <row r="15" spans="1:18">
@@ -8474,11 +8770,11 @@
       <c r="D15" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="214" t="str">
+      <c r="E15" s="191" t="str">
         <f>Barco!E15</f>
-        <v>Barco K5905277 v16</v>
-      </c>
-      <c r="F15" s="214"/>
+        <v>Barco K5905277 v18</v>
+      </c>
+      <c r="F15" s="191"/>
       <c r="L15" s="178"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1">
@@ -8507,7 +8803,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="184" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C18" s="136"/>
       <c r="D18" s="136"/>
@@ -8532,14 +8828,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="177"/>
-      <c r="F20" s="219" t="s">
-        <v>196</v>
-      </c>
-      <c r="G20" s="219"/>
-      <c r="H20" s="219" t="s">
-        <v>197</v>
-      </c>
-      <c r="I20" s="219"/>
+      <c r="F20" s="222" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" s="222"/>
+      <c r="H20" s="222" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" s="222"/>
       <c r="L20" s="178"/>
     </row>
     <row r="21" spans="1:12">
@@ -8547,16 +8843,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="177"/>
-      <c r="F21" s="219" t="str">
+      <c r="F21" s="222">
         <f>J13</f>
-        <v/>
-      </c>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219" t="str">
+        <v>2590411503</v>
+      </c>
+      <c r="G21" s="222"/>
+      <c r="H21" s="222" t="str">
         <f>J14</f>
         <v/>
       </c>
-      <c r="I21" s="219"/>
+      <c r="I21" s="222"/>
       <c r="L21" s="178"/>
     </row>
     <row r="22" spans="1:12">
@@ -8565,15 +8861,15 @@
       </c>
       <c r="B22" s="177"/>
       <c r="E22" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="F22" s="218" t="str">
+        <v>186</v>
+      </c>
+      <c r="F22" s="223" t="str">
         <f>IF(Barco!E23="","",IF(Barco!E23="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G22" s="218"/>
-      <c r="H22" s="218"/>
-      <c r="I22" s="218"/>
+      <c r="G22" s="223"/>
+      <c r="H22" s="223"/>
+      <c r="I22" s="223"/>
       <c r="L22" s="178"/>
     </row>
     <row r="23" spans="1:12">
@@ -8582,15 +8878,15 @@
       </c>
       <c r="B23" s="177"/>
       <c r="E23" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="218" t="str">
+        <v>187</v>
+      </c>
+      <c r="F23" s="223" t="str">
         <f>IF(Barco!E22="","",IF(Barco!E22="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G23" s="218"/>
-      <c r="H23" s="218"/>
-      <c r="I23" s="218"/>
+      <c r="G23" s="223"/>
+      <c r="H23" s="223"/>
+      <c r="I23" s="223"/>
       <c r="L23" s="178"/>
     </row>
     <row r="24" spans="1:12">
@@ -8599,15 +8895,15 @@
       </c>
       <c r="B24" s="177"/>
       <c r="E24" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="F24" s="218" t="str">
+        <v>188</v>
+      </c>
+      <c r="F24" s="223" t="str">
         <f>IF(OR(Barco!I72="TBD",Barco!I73="TBD"),"",IF(AND(Barco!I72="YES",Barco!I73="YES"),"PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G24" s="218"/>
-      <c r="H24" s="218"/>
-      <c r="I24" s="218"/>
+      <c r="G24" s="223"/>
+      <c r="H24" s="223"/>
+      <c r="I24" s="223"/>
       <c r="L24" s="178"/>
     </row>
     <row r="25" spans="1:12">
@@ -8616,12 +8912,12 @@
       </c>
       <c r="B25" s="177"/>
       <c r="E25" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="F25" s="215"/>
-      <c r="G25" s="215"/>
-      <c r="H25" s="215"/>
-      <c r="I25" s="215"/>
+        <v>189</v>
+      </c>
+      <c r="F25" s="219"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="219"/>
+      <c r="I25" s="219"/>
       <c r="L25" s="178"/>
     </row>
     <row r="26" spans="1:12">
@@ -8630,18 +8926,18 @@
       </c>
       <c r="B26" s="177"/>
       <c r="D26" s="83" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="F26" s="218" t="str">
+        <v>190</v>
+      </c>
+      <c r="F26" s="223" t="str">
         <f>IF(Barco!F85="","",IF(Barco!F85="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G26" s="218"/>
-      <c r="H26" s="218"/>
-      <c r="I26" s="218"/>
+      <c r="G26" s="223"/>
+      <c r="H26" s="223"/>
+      <c r="I26" s="223"/>
       <c r="L26" s="178"/>
     </row>
     <row r="27" spans="1:12">
@@ -8650,12 +8946,12 @@
       </c>
       <c r="B27" s="177"/>
       <c r="E27" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="F27" s="215"/>
-      <c r="G27" s="215"/>
-      <c r="H27" s="215"/>
-      <c r="I27" s="215"/>
+        <v>191</v>
+      </c>
+      <c r="F27" s="219"/>
+      <c r="G27" s="219"/>
+      <c r="H27" s="219"/>
+      <c r="I27" s="219"/>
       <c r="L27" s="178"/>
     </row>
     <row r="28" spans="1:12">
@@ -8664,12 +8960,12 @@
       </c>
       <c r="B28" s="177"/>
       <c r="E28" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="F28" s="215"/>
-      <c r="G28" s="215"/>
-      <c r="H28" s="215"/>
-      <c r="I28" s="215"/>
+        <v>192</v>
+      </c>
+      <c r="F28" s="219"/>
+      <c r="G28" s="219"/>
+      <c r="H28" s="219"/>
+      <c r="I28" s="219"/>
       <c r="L28" s="178"/>
     </row>
     <row r="29" spans="1:12">
@@ -8678,18 +8974,18 @@
       </c>
       <c r="B29" s="177"/>
       <c r="E29" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="F29" s="216" t="str">
+        <v>198</v>
+      </c>
+      <c r="F29" s="220" t="str">
         <f>IF(Barco!F86="","",IF(Barco!F86="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G29" s="217"/>
-      <c r="H29" s="216" t="str">
+      <c r="G29" s="221"/>
+      <c r="H29" s="220" t="str">
         <f>IF(Barco!G86="","",IF(Barco!G86="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="I29" s="217"/>
+      <c r="I29" s="221"/>
       <c r="L29" s="178"/>
     </row>
     <row r="30" spans="1:12">
@@ -8841,7 +9137,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D46" s="127" t="str">
         <f>Barco!D66</f>
@@ -8863,17 +9159,10 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F29:G29"/>
@@ -8890,10 +9179,17 @@
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:I25 F27:I28" xr:uid="{CEAD9B4F-4A05-4883-9435-EBBC3722EE42}">
@@ -8915,225 +9211,225 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="172" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="173" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" s="173" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="172" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\workspace\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA916DD7-E49E-40BF-A8DC-0931A4D97E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AD1766-3C67-49D2-AB11-277FE36AC196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3105,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" activeCellId="1" sqref="D34 D42"/>
+    <sheetView tabSelected="1" topLeftCell="P80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3716,9 +3716,9 @@
       <c r="I14" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="192">
+      <c r="J14" s="192" t="str">
         <f>IF(V14="","",V14)</f>
-        <v>2590411503</v>
+        <v/>
       </c>
       <c r="K14" s="192"/>
       <c r="M14" s="11"/>
@@ -3734,9 +3734,9 @@
       <c r="U14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="V14" s="55">
+      <c r="V14" s="55" t="str">
         <f>IF(W14&lt;&gt;"",W14,IF(AB20="","",AB20))</f>
-        <v>2590411503</v>
+        <v/>
       </c>
       <c r="W14" s="51"/>
       <c r="Y14" s="13"/>
@@ -4014,16 +4014,14 @@
       <c r="AA20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AB20" s="33">
-        <v>2590411503</v>
-      </c>
+      <c r="AB20" s="33"/>
       <c r="AC20" s="34" t="str">
         <f>IF(AB20&lt;&gt;AD20,"Change","")</f>
         <v/>
       </c>
-      <c r="AD20" s="35">
+      <c r="AD20" s="35" t="str">
         <f>IF(V14="","",V14)</f>
-        <v>2590411503</v>
+        <v/>
       </c>
       <c r="AF20"/>
       <c r="AG20"/>
@@ -4611,7 +4609,7 @@
       </c>
       <c r="S34" s="19" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right (1503)</v>
+        <v>Right ()</v>
       </c>
       <c r="Y34" s="13"/>
       <c r="AA34" s="1" t="s">
@@ -4688,7 +4686,7 @@
       <c r="D36" s="83"/>
       <c r="E36" s="48" t="str">
         <f>S34</f>
-        <v>Right (1503)</v>
+        <v>Right ()</v>
       </c>
       <c r="F36" s="84" t="str">
         <f>IF(S35="","",S35)</f>
@@ -4955,7 +4953,7 @@
       </c>
       <c r="G42" s="141" t="str">
         <f>S45</f>
-        <v>Right (1503)</v>
+        <v>Right ()</v>
       </c>
       <c r="M42" s="11"/>
       <c r="O42" s="12"/>
@@ -5089,7 +5087,7 @@
       </c>
       <c r="S45" s="19" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right (1503)</v>
+        <v>Right ()</v>
       </c>
       <c r="Y45" s="13"/>
       <c r="AA45" s="20" t="s">
@@ -5319,7 +5317,7 @@
       <c r="B51" s="9"/>
       <c r="D51" s="75" t="str">
         <f>R58</f>
-        <v>Right (1503)</v>
+        <v>Right ()</v>
       </c>
       <c r="E51" s="128" t="str">
         <f>IF(R59="","",R59)</f>
@@ -5330,7 +5328,7 @@
       </c>
       <c r="I51" s="75" t="str">
         <f>R58</f>
-        <v>Right (1503)</v>
+        <v>Right ()</v>
       </c>
       <c r="J51" s="157" t="str">
         <f>IF(R60="","",R60)</f>
@@ -5408,7 +5406,7 @@
       </c>
       <c r="F53" s="83" t="str">
         <f>R58</f>
-        <v>Right (1503)</v>
+        <v>Right ()</v>
       </c>
       <c r="I53" s="48"/>
       <c r="J53" s="48"/>
@@ -5602,7 +5600,7 @@
       </c>
       <c r="R58" s="19" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right (1503)</v>
+        <v>Right ()</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>141</v>
@@ -5613,7 +5611,7 @@
       </c>
       <c r="V58" s="19" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right (1503)</v>
+        <v>Right ()</v>
       </c>
       <c r="Y58" s="13"/>
       <c r="AA58" s="20" t="s">
@@ -5985,7 +5983,7 @@
       </c>
       <c r="S68" s="19" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right (1503)</v>
+        <v>Right ()</v>
       </c>
       <c r="Y68" s="13"/>
       <c r="AB68" s="139"/>
@@ -6089,7 +6087,7 @@
       </c>
       <c r="E72" s="84" t="str">
         <f>R87</f>
-        <v>Right (1503)</v>
+        <v>Right ()</v>
       </c>
       <c r="F72" s="84" t="str">
         <f>S87</f>
@@ -6097,7 +6095,7 @@
       </c>
       <c r="G72" s="96" t="str">
         <f>T87</f>
-        <v>Right (1503)</v>
+        <v>Right ()</v>
       </c>
       <c r="I72" s="49" t="str">
         <f>IF(V87="","TBD",IF(V87=1,"YES",IF(V87=2,"NO",IF(V87=3,"NA",""))))</f>
@@ -6558,7 +6556,7 @@
       </c>
       <c r="G84" s="141" t="str">
         <f>S68</f>
-        <v>Right (1503)</v>
+        <v>Right ()</v>
       </c>
       <c r="I84" s="198" t="str">
         <f>R68</f>
@@ -6567,7 +6565,7 @@
       <c r="J84" s="198"/>
       <c r="K84" s="198" t="str">
         <f>S68</f>
-        <v>Right (1503)</v>
+        <v>Right ()</v>
       </c>
       <c r="L84" s="198"/>
       <c r="M84" s="11"/>
@@ -6702,7 +6700,7 @@
       </c>
       <c r="R87" s="115" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right (1503)</v>
+        <v>Right ()</v>
       </c>
       <c r="S87" s="114" t="str">
         <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
@@ -6710,7 +6708,7 @@
       </c>
       <c r="T87" s="115" t="str">
         <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
-        <v>Right (1503)</v>
+        <v>Right ()</v>
       </c>
       <c r="V87" s="116"/>
       <c r="W87" s="1" t="s">
@@ -8732,9 +8730,9 @@
       <c r="I13" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="191">
+      <c r="J13" s="191" t="str">
         <f>Barco!J14</f>
-        <v>2590411503</v>
+        <v/>
       </c>
       <c r="K13" s="191"/>
       <c r="L13" s="178"/>
@@ -8843,9 +8841,9 @@
         <v>21</v>
       </c>
       <c r="B21" s="177"/>
-      <c r="F21" s="222">
+      <c r="F21" s="222" t="str">
         <f>J13</f>
-        <v>2590411503</v>
+        <v/>
       </c>
       <c r="G21" s="222"/>
       <c r="H21" s="222" t="str">

--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\workspace\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AD1766-3C67-49D2-AB11-277FE36AC196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3C7225-A6FA-43CD-A183-AD8D0E508F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,9 +655,6 @@
     <t>Waveforms</t>
   </si>
   <si>
-    <t>Revision 1.6-20220607</t>
-  </si>
-  <si>
     <t>Page1,Page2</t>
   </si>
   <si>
@@ -737,6 +734,9 @@
   </si>
   <si>
     <t>MDNG-6221</t>
+  </si>
+  <si>
+    <t>Revision 1.7-20250603</t>
   </si>
 </sst>
 </file>
@@ -2321,38 +2321,47 @@
     <xf numFmtId="167" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2381,38 +2390,44 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2423,26 +2438,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2455,157 +2455,7 @@
     <cellStyle name="Result" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Result2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3105,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3136,7 +2986,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="O1" s="5" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
@@ -3151,12 +3001,12 @@
       <c r="AA1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="188" t="s">
+      <c r="AG1" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="188"/>
-      <c r="AJ1" s="188"/>
+      <c r="AH1" s="218"/>
+      <c r="AI1" s="218"/>
+      <c r="AJ1" s="218"/>
     </row>
     <row r="2" spans="1:36" ht="14.4" customHeight="1">
       <c r="A2" s="1">
@@ -3173,16 +3023,16 @@
       </c>
       <c r="Y2" s="13"/>
       <c r="AA2" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG2" s="189" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG2" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="189"/>
-      <c r="AI2" s="190" t="s">
+      <c r="AH2" s="219"/>
+      <c r="AI2" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="190"/>
+      <c r="AJ2" s="220"/>
     </row>
     <row r="3" spans="1:36" ht="14.4" customHeight="1">
       <c r="A3" s="1">
@@ -3229,7 +3079,7 @@
         <v>8</v>
       </c>
       <c r="AB4" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF4" s="20" t="s">
         <v>9</v>
@@ -3350,7 +3200,7 @@
       </c>
       <c r="AB7" s="33"/>
       <c r="AC7" s="34" t="str">
-        <f t="shared" ref="AC7:AC20" si="0">IF(AB7&lt;&gt;AD7,"Change","")</f>
+        <f t="shared" ref="AC7:AC18" si="0">IF(AB7&lt;&gt;AD7,"Change","")</f>
         <v>Change</v>
       </c>
       <c r="AD7" s="35" t="str">
@@ -3455,10 +3305,10 @@
         <v>Eugene Mah</v>
       </c>
       <c r="AF9"/>
-      <c r="AG9" s="226" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH9" s="227"/>
+      <c r="AG9" s="222" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH9" s="223"/>
     </row>
     <row r="10" spans="1:36" ht="14.4" customHeight="1">
       <c r="A10" s="1">
@@ -3468,26 +3318,26 @@
       <c r="D10" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="191" t="str">
+      <c r="E10" s="221" t="str">
         <f t="shared" ref="E10:E15" si="1">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="F10" s="191"/>
+      <c r="F10" s="221"/>
       <c r="I10" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="191" t="str">
-        <f>IF(V10="","",V10)</f>
-        <v/>
-      </c>
-      <c r="K10" s="191"/>
+      <c r="J10" s="221" t="str">
+        <f t="shared" ref="J10:J15" si="2">IF(V10="","",V10)</f>
+        <v/>
+      </c>
+      <c r="K10" s="221"/>
       <c r="M10" s="11"/>
       <c r="O10" s="12"/>
       <c r="Q10" s="20" t="s">
         <v>31</v>
       </c>
       <c r="R10" s="50" t="str">
-        <f t="shared" ref="R10:R15" si="2">IF(S10&lt;&gt;"",S10,IF(AB10="","",AB10))</f>
+        <f t="shared" ref="R10:R15" si="3">IF(S10&lt;&gt;"",S10,IF(AB10="","",AB10))</f>
         <v/>
       </c>
       <c r="S10" s="51"/>
@@ -3495,7 +3345,7 @@
         <v>32</v>
       </c>
       <c r="V10" s="50" t="str">
-        <f>IF(W10&lt;&gt;"",W10,IF(AB16="","",AB16))</f>
+        <f t="shared" ref="V10:V15" si="4">IF(W10&lt;&gt;"",W10,IF(AB16="","",AB16))</f>
         <v/>
       </c>
       <c r="W10" s="51"/>
@@ -3509,15 +3359,15 @@
         <v/>
       </c>
       <c r="AD10" s="35" t="str">
-        <f t="shared" ref="AD10:AD15" si="3">IF(R10="","",R10)</f>
+        <f t="shared" ref="AD10:AD15" si="5">IF(R10="","",R10)</f>
         <v/>
       </c>
       <c r="AF10"/>
       <c r="AG10" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH10" s="189" t="s">
         <v>203</v>
-      </c>
-      <c r="AH10" s="225" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="14.4" customHeight="1">
@@ -3528,26 +3378,26 @@
       <c r="D11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="192" t="str">
+      <c r="E11" s="214" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="192"/>
+      <c r="F11" s="214"/>
       <c r="I11" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="193" t="str">
-        <f>IF(V11="","",V11)</f>
-        <v/>
-      </c>
-      <c r="K11" s="193"/>
+      <c r="J11" s="217" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="217"/>
       <c r="M11" s="11"/>
       <c r="O11" s="12"/>
       <c r="Q11" s="20" t="s">
         <v>33</v>
       </c>
       <c r="R11" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S11" s="51"/>
@@ -3555,7 +3405,7 @@
         <v>34</v>
       </c>
       <c r="V11" s="53" t="str">
-        <f>IF(W11&lt;&gt;"",W11,IF(AB17="","",AB17))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W11" s="54"/>
@@ -3569,12 +3419,12 @@
         <v/>
       </c>
       <c r="AD11" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF11"/>
       <c r="AG11" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AH11" s="16">
         <v>40</v>
@@ -3588,26 +3438,26 @@
       <c r="D12" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="192" t="str">
+      <c r="E12" s="214" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="192"/>
+      <c r="F12" s="214"/>
       <c r="I12" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="192" t="str">
-        <f>IF(V12="","",V12)</f>
-        <v/>
-      </c>
-      <c r="K12" s="192"/>
+      <c r="J12" s="214" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K12" s="214"/>
       <c r="M12" s="11"/>
       <c r="O12" s="12"/>
       <c r="Q12" s="20" t="s">
         <v>35</v>
       </c>
       <c r="R12" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S12" s="51"/>
@@ -3615,7 +3465,7 @@
         <v>36</v>
       </c>
       <c r="V12" s="50" t="str">
-        <f>IF(W12&lt;&gt;"",W12,IF(AB18="","",AB18))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W12" s="51"/>
@@ -3629,12 +3479,12 @@
         <v/>
       </c>
       <c r="AD12" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF12"/>
       <c r="AG12" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH12" s="16">
         <v>40</v>
@@ -3648,34 +3498,34 @@
       <c r="D13" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="192" t="str">
+      <c r="E13" s="214" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="192"/>
+      <c r="F13" s="214"/>
       <c r="I13" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="J13" s="192" t="str">
-        <f>IF(V13="","",V13)</f>
-        <v/>
-      </c>
-      <c r="K13" s="192"/>
+        <v>199</v>
+      </c>
+      <c r="J13" s="214" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K13" s="214"/>
       <c r="M13" s="11"/>
       <c r="O13" s="12"/>
       <c r="Q13" s="20" t="s">
         <v>37</v>
       </c>
       <c r="R13" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S13" s="51"/>
       <c r="U13" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V13" s="55" t="str">
-        <f>IF(W13&lt;&gt;"",W13,IF(AB19="","",AB19))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W13" s="32"/>
@@ -3689,12 +3539,12 @@
         <v/>
       </c>
       <c r="AD13" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF13"/>
       <c r="AG13" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AH13" s="16">
         <v>20</v>
@@ -3708,26 +3558,26 @@
       <c r="D14" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="192" t="str">
+      <c r="E14" s="214" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="192"/>
+      <c r="F14" s="214"/>
       <c r="I14" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="192" t="str">
-        <f>IF(V14="","",V14)</f>
-        <v/>
-      </c>
-      <c r="K14" s="192"/>
+      <c r="J14" s="214" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K14" s="214"/>
       <c r="M14" s="11"/>
       <c r="O14" s="12"/>
       <c r="Q14" s="20" t="s">
         <v>39</v>
       </c>
       <c r="R14" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="S14" s="51"/>
@@ -3735,7 +3585,7 @@
         <v>38</v>
       </c>
       <c r="V14" s="55" t="str">
-        <f>IF(W14&lt;&gt;"",W14,IF(AB20="","",AB20))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W14" s="51"/>
@@ -3749,12 +3599,12 @@
         <v/>
       </c>
       <c r="AD14" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AF14"/>
       <c r="AG14" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AH14" s="16">
         <v>40</v>
@@ -3768,19 +3618,19 @@
       <c r="D15" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="192" t="str">
+      <c r="E15" s="214" t="str">
         <f t="shared" si="1"/>
         <v>Barco K5905277 v18</v>
       </c>
-      <c r="F15" s="192"/>
+      <c r="F15" s="214"/>
       <c r="I15" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="192" t="str">
-        <f>IF(V15="","",V15)</f>
-        <v/>
-      </c>
-      <c r="K15" s="192"/>
+      <c r="J15" s="214" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K15" s="214"/>
       <c r="M15" s="11"/>
       <c r="O15" s="25"/>
       <c r="P15" s="26"/>
@@ -3788,18 +3638,18 @@
         <v>41</v>
       </c>
       <c r="R15" s="57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Barco K5905277 v18</v>
       </c>
       <c r="S15" s="58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T15" s="26"/>
       <c r="U15" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="V15" s="224" t="str">
-        <f>IF(W15&lt;&gt;"",W15,IF(AB21="","",AB21))</f>
+      <c r="V15" s="188" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W15" s="58"/>
@@ -3814,12 +3664,12 @@
         <v>Change</v>
       </c>
       <c r="AD15" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Barco K5905277 v18</v>
       </c>
       <c r="AF15"/>
       <c r="AG15" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH15" s="16">
         <v>20</v>
@@ -3850,12 +3700,12 @@
         <v/>
       </c>
       <c r="AD16" s="35" t="str">
-        <f>IF(V10="","",V10)</f>
+        <f t="shared" ref="AD16:AD21" si="6">IF(V10="","",V10)</f>
         <v/>
       </c>
       <c r="AF16"/>
       <c r="AG16" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AH16" s="38">
         <v>20</v>
@@ -3882,7 +3732,7 @@
         <v/>
       </c>
       <c r="AD17" s="62" t="str">
-        <f>IF(V11="","",V11)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AF17"/>
@@ -3918,7 +3768,7 @@
         <v/>
       </c>
       <c r="AD18" s="35" t="str">
-        <f>IF(V12="","",V12)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AF18"/>
@@ -3939,10 +3789,10 @@
       <c r="H19" s="136"/>
       <c r="I19" s="136"/>
       <c r="J19" s="136"/>
-      <c r="K19" s="195" t="s">
+      <c r="K19" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="L19" s="195"/>
+      <c r="L19" s="216"/>
       <c r="M19" s="4"/>
       <c r="O19" s="12"/>
       <c r="R19" s="1" t="s">
@@ -3953,7 +3803,7 @@
       </c>
       <c r="Y19" s="13"/>
       <c r="AA19" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB19" s="33"/>
       <c r="AC19" s="34" t="str">
@@ -3961,7 +3811,7 @@
         <v/>
       </c>
       <c r="AD19" s="35" t="str">
-        <f>IF(V13="","",V13)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AF19"/>
@@ -4020,7 +3870,7 @@
         <v/>
       </c>
       <c r="AD20" s="35" t="str">
-        <f>IF(V14="","",V14)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AF20"/>
@@ -4043,14 +3893,14 @@
         <v/>
       </c>
       <c r="G21" s="1" t="str">
-        <f t="shared" ref="G21:G23" si="4">IF(R21="","",R21)</f>
+        <f t="shared" ref="G21:G23" si="7">IF(R21="","",R21)</f>
         <v/>
       </c>
       <c r="K21" s="48" t="s">
         <v>126</v>
       </c>
       <c r="L21" s="185">
-        <f t="shared" ref="L21:L22" si="5">IF(W21="","",W21)</f>
+        <f t="shared" ref="L21:L22" si="8">IF(W21="","",W21)</f>
         <v>45089</v>
       </c>
       <c r="M21" s="11"/>
@@ -4063,7 +3913,7 @@
         <v>126</v>
       </c>
       <c r="W21" s="135">
-        <f t="shared" ref="W21:W22" si="6">IF(X21&lt;&gt;"",X21,IF(AB24="","",AB24))</f>
+        <f t="shared" ref="W21:W22" si="9">IF(X21&lt;&gt;"",X21,IF(AB24="","",AB24))</f>
         <v>45089</v>
       </c>
       <c r="X21" s="187">
@@ -4074,14 +3924,14 @@
         <v>40</v>
       </c>
       <c r="AB21" s="61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC21" s="34" t="str">
         <f>IF(AB21&lt;&gt;AD21,"Change","")</f>
         <v/>
       </c>
       <c r="AD21" s="35" t="str">
-        <f>IF(V15="","",V15)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AF21"/>
@@ -4104,14 +3954,14 @@
         <v/>
       </c>
       <c r="G22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K22" s="48" t="s">
         <v>125</v>
       </c>
       <c r="L22" s="185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>45820</v>
       </c>
       <c r="M22" s="11"/>
@@ -4124,7 +3974,7 @@
         <v>125</v>
       </c>
       <c r="W22" s="135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>45820</v>
       </c>
       <c r="X22" s="187">
@@ -4154,7 +4004,7 @@
         <v/>
       </c>
       <c r="G23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M23" s="11"/>
@@ -4169,7 +4019,7 @@
       </c>
       <c r="AB23" s="33"/>
       <c r="AC23" s="34" t="str">
-        <f t="shared" ref="AC23:AC25" si="7">IF(AB23&lt;&gt;AD23,"Change","")</f>
+        <f t="shared" ref="AC23:AC25" si="10">IF(AB23&lt;&gt;AD23,"Change","")</f>
         <v>Change</v>
       </c>
       <c r="AD23" s="35" t="str">
@@ -4187,11 +4037,11 @@
       <c r="D24" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="194" t="str">
+      <c r="E24" s="215" t="str">
         <f>IF(P52="","",P52)</f>
         <v/>
       </c>
-      <c r="F24" s="194"/>
+      <c r="F24" s="215"/>
       <c r="M24" s="11"/>
       <c r="O24" s="12"/>
       <c r="Y24" s="13"/>
@@ -4200,11 +4050,11 @@
       </c>
       <c r="AB24" s="134"/>
       <c r="AC24" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Change</v>
       </c>
       <c r="AD24" s="133">
-        <f t="shared" ref="AD24:AD25" si="8">IF(X21="","",X21)</f>
+        <f t="shared" ref="AD24:AD25" si="11">IF(X21="","",X21)</f>
         <v>45089</v>
       </c>
       <c r="AF24"/>
@@ -4231,11 +4081,11 @@
       </c>
       <c r="AB25" s="134"/>
       <c r="AC25" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Change</v>
       </c>
       <c r="AD25" s="133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>45820</v>
       </c>
       <c r="AF25"/>
@@ -4505,7 +4355,7 @@
       </c>
       <c r="AB31" s="33"/>
       <c r="AC31" s="34" t="str">
-        <f t="shared" ref="AC31:AC38" si="9">IF(AB31&lt;&gt;AD31,"Change","")</f>
+        <f t="shared" ref="AC31:AC38" si="12">IF(AB31&lt;&gt;AD31,"Change","")</f>
         <v/>
       </c>
       <c r="AD31" s="35" t="str">
@@ -4528,7 +4378,7 @@
       </c>
       <c r="AB32" s="33"/>
       <c r="AC32" s="34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD32" s="35" t="str">
@@ -4562,7 +4412,7 @@
       </c>
       <c r="AB33" s="33"/>
       <c r="AC33" s="34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD33" s="35" t="str">
@@ -4580,7 +4430,7 @@
       <c r="C34" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="228" t="str">
+      <c r="D34" s="190" t="str">
         <f>IF(P34="","",P34)</f>
         <v/>
       </c>
@@ -4604,11 +4454,11 @@
       </c>
       <c r="P34" s="54"/>
       <c r="R34" s="19" t="str">
-        <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
+        <f>"Left ("&amp;RIGHT($V$14,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
       <c r="S34" s="19" t="str">
-        <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
+        <f>"Right ("&amp;RIGHT($V$15,4)&amp;")"</f>
         <v>Right ()</v>
       </c>
       <c r="Y34" s="13"/>
@@ -4617,7 +4467,7 @@
       </c>
       <c r="AB34" s="33"/>
       <c r="AC34" s="34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD34" s="35" t="str">
@@ -4667,7 +4517,7 @@
       </c>
       <c r="AB35" s="33"/>
       <c r="AC35" s="34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD35" s="35" t="str">
@@ -4717,7 +4567,7 @@
       </c>
       <c r="AB36" s="33"/>
       <c r="AC36" s="34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD36" s="35" t="str">
@@ -4766,7 +4616,7 @@
       </c>
       <c r="AB37" s="33"/>
       <c r="AC37" s="34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD37" s="35" t="str">
@@ -4802,7 +4652,7 @@
       </c>
       <c r="AB38" s="33"/>
       <c r="AC38" s="34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD38" s="35" t="str">
@@ -4942,7 +4792,7 @@
       <c r="C42" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="228" t="str">
+      <c r="D42" s="190" t="str">
         <f>IF(P44="","",P44)</f>
         <v/>
       </c>
@@ -5005,7 +4855,7 @@
       </c>
       <c r="AB43" s="70"/>
       <c r="AC43" s="34" t="str">
-        <f t="shared" ref="AC43:AC46" si="10">IF(AB43&lt;&gt;AD43,"Change","")</f>
+        <f t="shared" ref="AC43:AC46" si="13">IF(AB43&lt;&gt;AD43,"Change","")</f>
         <v/>
       </c>
       <c r="AD43" s="71" t="str">
@@ -5049,7 +4899,7 @@
       </c>
       <c r="AB44" s="70"/>
       <c r="AC44" s="34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD44" s="71" t="str">
@@ -5082,11 +4932,11 @@
         <v>43</v>
       </c>
       <c r="R45" s="19" t="str">
-        <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
+        <f>"Left ("&amp;RIGHT($V$14,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
       <c r="S45" s="19" t="str">
-        <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
+        <f>"Right ("&amp;RIGHT($V$15,4)&amp;")"</f>
         <v>Right ()</v>
       </c>
       <c r="Y45" s="13"/>
@@ -5095,7 +4945,7 @@
       </c>
       <c r="AB45" s="70"/>
       <c r="AC45" s="34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD45" s="71" t="str">
@@ -5136,7 +4986,7 @@
       </c>
       <c r="AB46" s="70"/>
       <c r="AC46" s="34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD46" s="71" t="str">
@@ -5205,7 +5055,7 @@
       </c>
       <c r="AB48" s="137"/>
       <c r="AC48" s="34" t="str">
-        <f t="shared" ref="AC48:AC53" si="11">IF(AB48&lt;&gt;AD48,"Change","")</f>
+        <f t="shared" ref="AC48:AC53" si="14">IF(AB48&lt;&gt;AD48,"Change","")</f>
         <v/>
       </c>
       <c r="AD48" s="71" t="str">
@@ -5253,7 +5103,7 @@
       </c>
       <c r="AB49" s="137"/>
       <c r="AC49" s="34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AD49" s="71" t="str">
@@ -5300,7 +5150,7 @@
       </c>
       <c r="AB50" s="137"/>
       <c r="AC50" s="34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AD50" s="71" t="str">
@@ -5353,7 +5203,7 @@
       </c>
       <c r="AB51" s="137"/>
       <c r="AC51" s="34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AD51" s="71" t="str">
@@ -5385,7 +5235,7 @@
       </c>
       <c r="AB52" s="137"/>
       <c r="AC52" s="34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AD52" s="71" t="str">
@@ -5430,7 +5280,7 @@
       </c>
       <c r="AB53" s="137"/>
       <c r="AC53" s="34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AD53" s="71" t="str">
@@ -5524,7 +5374,7 @@
       </c>
       <c r="AB56" s="138"/>
       <c r="AC56" s="34" t="str">
-        <f t="shared" ref="AC56:AC62" si="12">IF(AB56&lt;&gt;AD56,"Change","")</f>
+        <f t="shared" ref="AC56:AC62" si="15">IF(AB56&lt;&gt;AD56,"Change","")</f>
         <v/>
       </c>
       <c r="AD56" s="71" t="str">
@@ -5564,7 +5414,7 @@
       </c>
       <c r="AB57" s="138"/>
       <c r="AC57" s="34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AD57" s="71" t="str">
@@ -5595,22 +5445,22 @@
         <v>98</v>
       </c>
       <c r="Q58" s="19" t="str">
-        <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
+        <f>"Left ("&amp;RIGHT($V$14,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
       <c r="R58" s="19" t="str">
-        <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
+        <f>"Right ("&amp;RIGHT($V$15,4)&amp;")"</f>
         <v>Right ()</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>141</v>
       </c>
       <c r="U58" s="19" t="str">
-        <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
+        <f>"Left ("&amp;RIGHT($V$14,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
       <c r="V58" s="19" t="str">
-        <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
+        <f>"Right ("&amp;RIGHT($V$15,4)&amp;")"</f>
         <v>Right ()</v>
       </c>
       <c r="Y58" s="13"/>
@@ -5619,7 +5469,7 @@
       </c>
       <c r="AB58" s="138"/>
       <c r="AC58" s="34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AD58" s="71" t="str">
@@ -5675,7 +5525,7 @@
       </c>
       <c r="AB59" s="138"/>
       <c r="AC59" s="34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AD59" s="71" t="str">
@@ -5718,7 +5568,7 @@
       </c>
       <c r="AB60" s="138"/>
       <c r="AC60" s="34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AD60" s="71" t="str">
@@ -5761,7 +5611,7 @@
       </c>
       <c r="AB61" s="138"/>
       <c r="AC61" s="34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AD61" s="71" t="str">
@@ -5804,7 +5654,7 @@
       </c>
       <c r="AB62" s="138"/>
       <c r="AC62" s="34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AD62" s="71" t="str">
@@ -5978,11 +5828,11 @@
         <v>43</v>
       </c>
       <c r="R68" s="19" t="str">
-        <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
+        <f>"Left ("&amp;RIGHT($V$14,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
       <c r="S68" s="19" t="str">
-        <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
+        <f>"Right ("&amp;RIGHT($V$15,4)&amp;")"</f>
         <v>Right ()</v>
       </c>
       <c r="Y68" s="13"/>
@@ -6051,16 +5901,16 @@
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="83"/>
-      <c r="D71" s="196" t="str">
+      <c r="D71" s="211" t="str">
         <f>Q86</f>
         <v>UNL-10 (cd/m^2)</v>
       </c>
-      <c r="E71" s="196"/>
-      <c r="F71" s="197" t="str">
+      <c r="E71" s="211"/>
+      <c r="F71" s="212" t="str">
         <f>S86</f>
         <v>UNL-80 (cd/m^2)</v>
       </c>
-      <c r="G71" s="197"/>
+      <c r="G71" s="212"/>
       <c r="I71" s="60" t="s">
         <v>106</v>
       </c>
@@ -6136,19 +5986,19 @@
         <v>108</v>
       </c>
       <c r="D73" s="106" t="str">
-        <f t="shared" ref="D73:G76" si="13">IF(Q97="","",Q97)</f>
+        <f t="shared" ref="D73:G76" si="16">IF(Q97="","",Q97)</f>
         <v/>
       </c>
       <c r="E73" s="85" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="F73" s="85" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G73" s="107" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I73" s="52" t="str">
@@ -6163,13 +6013,13 @@
       <c r="Q73" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="R73" s="211"/>
-      <c r="S73" s="215"/>
-      <c r="V73" s="203" t="str">
+      <c r="R73" s="194"/>
+      <c r="S73" s="198"/>
+      <c r="V73" s="206" t="str">
         <f>IF(AB48="","",AB48)</f>
         <v/>
       </c>
-      <c r="W73" s="204" t="str">
+      <c r="W73" s="207" t="str">
         <f>IF(AB51="","",AB51)</f>
         <v/>
       </c>
@@ -6186,19 +6036,19 @@
         <v>110</v>
       </c>
       <c r="D74" s="106" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E74" s="85" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="F74" s="85" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G74" s="107" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I74" s="52" t="str">
@@ -6211,10 +6061,10 @@
       <c r="M74" s="11"/>
       <c r="O74" s="12"/>
       <c r="Q74" s="19"/>
-      <c r="R74" s="212"/>
-      <c r="S74" s="216"/>
-      <c r="V74" s="202"/>
-      <c r="W74" s="205"/>
+      <c r="R74" s="195"/>
+      <c r="S74" s="199"/>
+      <c r="V74" s="205"/>
+      <c r="W74" s="208"/>
       <c r="Y74" s="13"/>
       <c r="AB74" s="139"/>
       <c r="AC74" s="34" t="str">
@@ -6235,19 +6085,19 @@
         <v>112</v>
       </c>
       <c r="D75" s="108" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E75" s="109" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="F75" s="109" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G75" s="110" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M75" s="11"/>
@@ -6255,13 +6105,13 @@
       <c r="Q75" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R75" s="213"/>
-      <c r="S75" s="217"/>
-      <c r="V75" s="200" t="str">
+      <c r="R75" s="196"/>
+      <c r="S75" s="200"/>
+      <c r="V75" s="203" t="str">
         <f>IF(AB49="","",AB49)</f>
         <v/>
       </c>
-      <c r="W75" s="206" t="str">
+      <c r="W75" s="209" t="str">
         <f>IF(AB52="","",AB52)</f>
         <v/>
       </c>
@@ -6278,19 +6128,19 @@
         <v>139</v>
       </c>
       <c r="D76" s="108" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E76" s="109" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="F76" s="109" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G76" s="110" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I76" s="28" t="s">
@@ -6302,10 +6152,10 @@
       <c r="M76" s="11"/>
       <c r="O76" s="12"/>
       <c r="Q76" s="19"/>
-      <c r="R76" s="212"/>
-      <c r="S76" s="216"/>
-      <c r="V76" s="202"/>
-      <c r="W76" s="205"/>
+      <c r="R76" s="195"/>
+      <c r="S76" s="199"/>
+      <c r="V76" s="205"/>
+      <c r="W76" s="208"/>
       <c r="Y76" s="13"/>
       <c r="AB76" s="139"/>
       <c r="AC76" s="34" t="str">
@@ -6327,15 +6177,15 @@
         <v/>
       </c>
       <c r="E77" s="111" t="str">
-        <f t="shared" ref="E77:G77" si="14">IF(OR(E75="",E76=""),"",IF(AND(E75&lt;=0.3,E76&lt;=0.3),"PASS","FAIL"))</f>
+        <f t="shared" ref="E77:G77" si="17">IF(OR(E75="",E76=""),"",IF(AND(E75&lt;=0.3,E76&lt;=0.3),"PASS","FAIL"))</f>
         <v/>
       </c>
       <c r="F77" s="111" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="G77" s="91" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J77" s="1" t="s">
@@ -6346,13 +6196,13 @@
       <c r="Q77" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="R77" s="213"/>
-      <c r="S77" s="217"/>
-      <c r="V77" s="200" t="str">
+      <c r="R77" s="196"/>
+      <c r="S77" s="200"/>
+      <c r="V77" s="203" t="str">
         <f>IF(AB50="","",AB50)</f>
         <v/>
       </c>
-      <c r="W77" s="206" t="str">
+      <c r="W77" s="209" t="str">
         <f>IF(AB53="","",AB53)</f>
         <v/>
       </c>
@@ -6368,10 +6218,10 @@
       <c r="M78" s="11"/>
       <c r="O78" s="12"/>
       <c r="Q78" s="19"/>
-      <c r="R78" s="214"/>
-      <c r="S78" s="218"/>
-      <c r="V78" s="201"/>
-      <c r="W78" s="207"/>
+      <c r="R78" s="197"/>
+      <c r="S78" s="201"/>
+      <c r="V78" s="204"/>
+      <c r="W78" s="210"/>
       <c r="Y78" s="13"/>
       <c r="AB78" s="139"/>
       <c r="AC78" s="34" t="str">
@@ -6558,16 +6408,16 @@
         <f>S68</f>
         <v>Right ()</v>
       </c>
-      <c r="I84" s="198" t="str">
+      <c r="I84" s="213" t="str">
         <f>R68</f>
         <v>Left ()</v>
       </c>
-      <c r="J84" s="198"/>
-      <c r="K84" s="198" t="str">
+      <c r="J84" s="213"/>
+      <c r="K84" s="213" t="str">
         <f>S68</f>
         <v>Right ()</v>
       </c>
-      <c r="L84" s="198"/>
+      <c r="L84" s="213"/>
       <c r="M84" s="11"/>
       <c r="O84" s="12"/>
       <c r="Y84" s="13"/>
@@ -6590,26 +6440,26 @@
         <v>94</v>
       </c>
       <c r="F85" s="95" t="str">
-        <f t="shared" ref="F85:G87" si="15">IF(R69="","",IF(R69=1,"YES",IF(R69=2,"NO",IF(R69=3,"NA",""))))</f>
+        <f t="shared" ref="F85:G87" si="18">IF(R69="","",IF(R69=1,"YES",IF(R69=2,"NO",IF(R69=3,"NA",""))))</f>
         <v/>
       </c>
       <c r="G85" s="96" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H85" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="I85" s="199" t="str">
+      <c r="I85" s="202" t="str">
         <f>IF(R73="","",R73)</f>
         <v/>
       </c>
-      <c r="J85" s="199"/>
-      <c r="K85" s="199" t="str">
+      <c r="J85" s="202"/>
+      <c r="K85" s="202" t="str">
         <f>IF(S73="","",S73)</f>
         <v/>
       </c>
-      <c r="L85" s="199"/>
+      <c r="L85" s="202"/>
       <c r="M85" s="11"/>
       <c r="O85" s="97" t="s">
         <v>105</v>
@@ -6628,36 +6478,36 @@
         <v>96</v>
       </c>
       <c r="F86" s="95" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G86" s="96" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H86" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="I86" s="199" t="str">
+      <c r="I86" s="202" t="str">
         <f>IF(R75="","",R75)</f>
         <v/>
       </c>
-      <c r="J86" s="199"/>
-      <c r="K86" s="199" t="str">
+      <c r="J86" s="202"/>
+      <c r="K86" s="202" t="str">
         <f>IF(S75="","",S75)</f>
         <v/>
       </c>
-      <c r="L86" s="199"/>
+      <c r="L86" s="202"/>
       <c r="M86" s="11"/>
       <c r="O86" s="12"/>
-      <c r="Q86" s="209" t="s">
+      <c r="Q86" s="192" t="s">
         <v>116</v>
       </c>
-      <c r="R86" s="210"/>
-      <c r="S86" s="209" t="s">
+      <c r="R86" s="193"/>
+      <c r="S86" s="192" t="s">
         <v>117</v>
       </c>
-      <c r="T86" s="210"/>
+      <c r="T86" s="193"/>
       <c r="V86" s="113" t="s">
         <v>43</v>
       </c>
@@ -6672,42 +6522,42 @@
         <v>99</v>
       </c>
       <c r="F87" s="90" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="G87" s="91" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H87" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="I87" s="208" t="str">
+      <c r="I87" s="191" t="str">
         <f>IF(R77="","",R77)</f>
         <v/>
       </c>
-      <c r="J87" s="208"/>
-      <c r="K87" s="208" t="str">
+      <c r="J87" s="191"/>
+      <c r="K87" s="191" t="str">
         <f>IF(S77="","",S77)</f>
         <v/>
       </c>
-      <c r="L87" s="208"/>
+      <c r="L87" s="191"/>
       <c r="M87" s="11"/>
       <c r="O87" s="12"/>
       <c r="Q87" s="114" t="str">
-        <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
+        <f>"Left ("&amp;RIGHT($V$14,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
       <c r="R87" s="115" t="str">
-        <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
+        <f>"Right ("&amp;RIGHT($V$15,4)&amp;")"</f>
         <v>Right ()</v>
       </c>
       <c r="S87" s="114" t="str">
-        <f>"Left ("&amp;RIGHT($V$13,4)&amp;")"</f>
+        <f>"Left ("&amp;RIGHT($V$14,4)&amp;")"</f>
         <v>Left ()</v>
       </c>
       <c r="T87" s="115" t="str">
-        <f>"Right ("&amp;RIGHT($V$14,4)&amp;")"</f>
+        <f>"Right ("&amp;RIGHT($V$15,4)&amp;")"</f>
         <v>Right ()</v>
       </c>
       <c r="V87" s="116"/>
@@ -6830,19 +6680,19 @@
       </c>
       <c r="Y89" s="13"/>
       <c r="AA89" s="160" t="e">
-        <f t="shared" ref="AA89:AA96" si="16">ABS(Q89-MEDIAN($Q$88:$Q$96))/MEDIAN($Q$88:$Q$96)</f>
+        <f t="shared" ref="AA89:AA96" si="19">ABS(Q89-MEDIAN($Q$88:$Q$96))/MEDIAN($Q$88:$Q$96)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AB89" s="160" t="e">
-        <f t="shared" ref="AB89:AB96" si="17">ABS(R89-MEDIAN($R$88:$R$96))/MEDIAN($R$88:$R$96)</f>
+        <f t="shared" ref="AB89:AB96" si="20">ABS(R89-MEDIAN($R$88:$R$96))/MEDIAN($R$88:$R$96)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AC89" s="160" t="e">
-        <f t="shared" ref="AC89:AC96" si="18">ABS(S89-MEDIAN($S$88:$S$96))/MEDIAN($S$88:$S$96)</f>
+        <f t="shared" ref="AC89:AC96" si="21">ABS(S89-MEDIAN($S$88:$S$96))/MEDIAN($S$88:$S$96)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AD89" s="160" t="e">
-        <f t="shared" ref="AD89:AD96" si="19">ABS(T89-MEDIAN($T$88:$T$96))/MEDIAN($T$88:$T$96)</f>
+        <f t="shared" ref="AD89:AD96" si="22">ABS(T89-MEDIAN($T$88:$T$96))/MEDIAN($T$88:$T$96)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -6887,19 +6737,19 @@
       </c>
       <c r="Y90" s="13"/>
       <c r="AA90" s="160" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB90" s="160" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC90" s="160" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD90" s="160" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -6931,19 +6781,19 @@
       </c>
       <c r="Y91" s="13"/>
       <c r="AA91" s="160" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB91" s="160" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC91" s="160" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD91" s="160" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -6984,19 +6834,19 @@
       </c>
       <c r="Y92" s="13"/>
       <c r="AA92" s="160" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB92" s="160" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC92" s="160" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD92" s="160" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7051,19 +6901,19 @@
       </c>
       <c r="Y93" s="13"/>
       <c r="AA93" s="160" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB93" s="160" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC93" s="160" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD93" s="160" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7118,19 +6968,19 @@
       </c>
       <c r="Y94" s="13"/>
       <c r="AA94" s="160" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB94" s="160" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC94" s="160" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD94" s="160" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7174,19 +7024,19 @@
       </c>
       <c r="Y95" s="13"/>
       <c r="AA95" s="160" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB95" s="160" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC95" s="160" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD95" s="160" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7230,19 +7080,19 @@
       </c>
       <c r="Y96" s="13"/>
       <c r="AA96" s="160" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="AB96" s="160" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="AC96" s="160" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="AD96" s="160" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -8398,6 +8248,36 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="42">
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="V77:V78"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="V73:V74"/>
+    <mergeCell ref="W73:W74"/>
+    <mergeCell ref="W75:W76"/>
+    <mergeCell ref="W77:W78"/>
     <mergeCell ref="I87:J87"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="Q86:R86"/>
@@ -8410,36 +8290,6 @@
     <mergeCell ref="S77:S78"/>
     <mergeCell ref="I86:J86"/>
     <mergeCell ref="K86:L86"/>
-    <mergeCell ref="V77:V78"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="W73:W74"/>
-    <mergeCell ref="W75:W76"/>
-    <mergeCell ref="W77:W78"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="AG9:AH9"/>
   </mergeCells>
   <conditionalFormatting sqref="D27:D28">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
@@ -8551,7 +8401,7 @@
       <c r="K1" s="136"/>
       <c r="L1" s="176"/>
       <c r="R1" s="83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20.399999999999999">
@@ -8564,7 +8414,7 @@
       </c>
       <c r="L2" s="178"/>
       <c r="R2" s="83" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.399999999999999">
@@ -8653,19 +8503,19 @@
       <c r="D10" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="191" t="str">
+      <c r="E10" s="221" t="str">
         <f>Barco!E10</f>
         <v/>
       </c>
-      <c r="F10" s="191"/>
+      <c r="F10" s="221"/>
       <c r="I10" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="191" t="str">
+      <c r="J10" s="221" t="str">
         <f>Barco!J10</f>
         <v/>
       </c>
-      <c r="K10" s="191"/>
+      <c r="K10" s="221"/>
       <c r="L10" s="178"/>
     </row>
     <row r="11" spans="1:18">
@@ -8676,19 +8526,19 @@
       <c r="D11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="191" t="str">
+      <c r="E11" s="221" t="str">
         <f>Barco!E11</f>
         <v/>
       </c>
-      <c r="F11" s="191"/>
+      <c r="F11" s="221"/>
       <c r="I11" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="191" t="str">
+      <c r="J11" s="221" t="str">
         <f>Barco!J11</f>
         <v/>
       </c>
-      <c r="K11" s="191"/>
+      <c r="K11" s="221"/>
       <c r="L11" s="178"/>
     </row>
     <row r="12" spans="1:18">
@@ -8699,19 +8549,19 @@
       <c r="D12" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="191" t="str">
+      <c r="E12" s="221" t="str">
         <f>Barco!E12</f>
         <v/>
       </c>
-      <c r="F12" s="191"/>
+      <c r="F12" s="221"/>
       <c r="I12" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="191" t="str">
+      <c r="J12" s="221" t="str">
         <f>Barco!J12</f>
         <v/>
       </c>
-      <c r="K12" s="191"/>
+      <c r="K12" s="221"/>
       <c r="L12" s="178"/>
     </row>
     <row r="13" spans="1:18">
@@ -8722,19 +8572,19 @@
       <c r="D13" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="191" t="str">
+      <c r="E13" s="221" t="str">
         <f>Barco!E13</f>
         <v/>
       </c>
-      <c r="F13" s="191"/>
+      <c r="F13" s="221"/>
       <c r="I13" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="191" t="str">
+      <c r="J13" s="221" t="str">
         <f>Barco!J14</f>
         <v/>
       </c>
-      <c r="K13" s="191"/>
+      <c r="K13" s="221"/>
       <c r="L13" s="178"/>
     </row>
     <row r="14" spans="1:18">
@@ -8745,19 +8595,19 @@
       <c r="D14" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="191" t="str">
+      <c r="E14" s="221" t="str">
         <f>Barco!E14</f>
         <v/>
       </c>
-      <c r="F14" s="191"/>
+      <c r="F14" s="221"/>
       <c r="I14" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="191" t="str">
+      <c r="J14" s="221" t="str">
         <f>Barco!J15</f>
         <v/>
       </c>
-      <c r="K14" s="191"/>
+      <c r="K14" s="221"/>
       <c r="L14" s="178"/>
     </row>
     <row r="15" spans="1:18">
@@ -8768,11 +8618,11 @@
       <c r="D15" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="191" t="str">
+      <c r="E15" s="221" t="str">
         <f>Barco!E15</f>
         <v>Barco K5905277 v18</v>
       </c>
-      <c r="F15" s="191"/>
+      <c r="F15" s="221"/>
       <c r="L15" s="178"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1">
@@ -8801,7 +8651,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="184" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18" s="136"/>
       <c r="D18" s="136"/>
@@ -8826,14 +8676,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="177"/>
-      <c r="F20" s="222" t="s">
+      <c r="F20" s="228" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" s="228"/>
+      <c r="H20" s="228" t="s">
         <v>193</v>
       </c>
-      <c r="G20" s="222"/>
-      <c r="H20" s="222" t="s">
-        <v>194</v>
-      </c>
-      <c r="I20" s="222"/>
+      <c r="I20" s="228"/>
       <c r="L20" s="178"/>
     </row>
     <row r="21" spans="1:12">
@@ -8841,16 +8691,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="177"/>
-      <c r="F21" s="222" t="str">
+      <c r="F21" s="228" t="str">
         <f>J13</f>
         <v/>
       </c>
-      <c r="G21" s="222"/>
-      <c r="H21" s="222" t="str">
+      <c r="G21" s="228"/>
+      <c r="H21" s="228" t="str">
         <f>J14</f>
         <v/>
       </c>
-      <c r="I21" s="222"/>
+      <c r="I21" s="228"/>
       <c r="L21" s="178"/>
     </row>
     <row r="22" spans="1:12">
@@ -8859,15 +8709,15 @@
       </c>
       <c r="B22" s="177"/>
       <c r="E22" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22" s="223" t="str">
+        <v>185</v>
+      </c>
+      <c r="F22" s="227" t="str">
         <f>IF(Barco!E23="","",IF(Barco!E23="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G22" s="223"/>
-      <c r="H22" s="223"/>
-      <c r="I22" s="223"/>
+      <c r="G22" s="227"/>
+      <c r="H22" s="227"/>
+      <c r="I22" s="227"/>
       <c r="L22" s="178"/>
     </row>
     <row r="23" spans="1:12">
@@ -8876,15 +8726,15 @@
       </c>
       <c r="B23" s="177"/>
       <c r="E23" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="F23" s="223" t="str">
+        <v>186</v>
+      </c>
+      <c r="F23" s="227" t="str">
         <f>IF(Barco!E22="","",IF(Barco!E22="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G23" s="223"/>
-      <c r="H23" s="223"/>
-      <c r="I23" s="223"/>
+      <c r="G23" s="227"/>
+      <c r="H23" s="227"/>
+      <c r="I23" s="227"/>
       <c r="L23" s="178"/>
     </row>
     <row r="24" spans="1:12">
@@ -8893,15 +8743,15 @@
       </c>
       <c r="B24" s="177"/>
       <c r="E24" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="F24" s="223" t="str">
+        <v>187</v>
+      </c>
+      <c r="F24" s="227" t="str">
         <f>IF(OR(Barco!I72="TBD",Barco!I73="TBD"),"",IF(AND(Barco!I72="YES",Barco!I73="YES"),"PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G24" s="223"/>
-      <c r="H24" s="223"/>
-      <c r="I24" s="223"/>
+      <c r="G24" s="227"/>
+      <c r="H24" s="227"/>
+      <c r="I24" s="227"/>
       <c r="L24" s="178"/>
     </row>
     <row r="25" spans="1:12">
@@ -8910,12 +8760,12 @@
       </c>
       <c r="B25" s="177"/>
       <c r="E25" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="F25" s="219"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="219"/>
+        <v>188</v>
+      </c>
+      <c r="F25" s="224"/>
+      <c r="G25" s="224"/>
+      <c r="H25" s="224"/>
+      <c r="I25" s="224"/>
       <c r="L25" s="178"/>
     </row>
     <row r="26" spans="1:12">
@@ -8924,18 +8774,18 @@
       </c>
       <c r="B26" s="177"/>
       <c r="D26" s="83" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="F26" s="223" t="str">
+        <v>189</v>
+      </c>
+      <c r="F26" s="227" t="str">
         <f>IF(Barco!F85="","",IF(Barco!F85="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G26" s="223"/>
-      <c r="H26" s="223"/>
-      <c r="I26" s="223"/>
+      <c r="G26" s="227"/>
+      <c r="H26" s="227"/>
+      <c r="I26" s="227"/>
       <c r="L26" s="178"/>
     </row>
     <row r="27" spans="1:12">
@@ -8944,12 +8794,12 @@
       </c>
       <c r="B27" s="177"/>
       <c r="E27" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="F27" s="219"/>
-      <c r="G27" s="219"/>
-      <c r="H27" s="219"/>
-      <c r="I27" s="219"/>
+        <v>190</v>
+      </c>
+      <c r="F27" s="224"/>
+      <c r="G27" s="224"/>
+      <c r="H27" s="224"/>
+      <c r="I27" s="224"/>
       <c r="L27" s="178"/>
     </row>
     <row r="28" spans="1:12">
@@ -8958,12 +8808,12 @@
       </c>
       <c r="B28" s="177"/>
       <c r="E28" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="F28" s="219"/>
-      <c r="G28" s="219"/>
-      <c r="H28" s="219"/>
-      <c r="I28" s="219"/>
+        <v>191</v>
+      </c>
+      <c r="F28" s="224"/>
+      <c r="G28" s="224"/>
+      <c r="H28" s="224"/>
+      <c r="I28" s="224"/>
       <c r="L28" s="178"/>
     </row>
     <row r="29" spans="1:12">
@@ -8972,18 +8822,18 @@
       </c>
       <c r="B29" s="177"/>
       <c r="E29" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="F29" s="220" t="str">
+        <v>197</v>
+      </c>
+      <c r="F29" s="225" t="str">
         <f>IF(Barco!F86="","",IF(Barco!F86="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G29" s="221"/>
-      <c r="H29" s="220" t="str">
+      <c r="G29" s="226"/>
+      <c r="H29" s="225" t="str">
         <f>IF(Barco!G86="","",IF(Barco!G86="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="I29" s="221"/>
+      <c r="I29" s="226"/>
       <c r="L29" s="178"/>
     </row>
     <row r="30" spans="1:12">
@@ -9157,6 +9007,29 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="H25:I25"/>
@@ -9164,30 +9037,7 @@
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:I25 F27:I28" xr:uid="{CEAD9B4F-4A05-4883-9435-EBBC3722EE42}">

--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\workspace\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3C7225-A6FA-43CD-A183-AD8D0E508F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC41648A-0D69-4614-A472-0CB45631F962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -727,9 +727,6 @@
     <t>MDMG-5221</t>
   </si>
   <si>
-    <t>MDMNC-12130</t>
-  </si>
-  <si>
     <t>MDNC-6121</t>
   </si>
   <si>
@@ -737,6 +734,9 @@
   </si>
   <si>
     <t>Revision 1.7-20250603</t>
+  </si>
+  <si>
+    <t>MDNC-12130</t>
   </si>
 </sst>
 </file>
@@ -2330,6 +2330,72 @@
     <xf numFmtId="167" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2363,85 +2429,19 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2955,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2986,7 +2986,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="O1" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
@@ -3001,12 +3001,12 @@
       <c r="AA1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="218" t="s">
+      <c r="AG1" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="218"/>
-      <c r="AI1" s="218"/>
-      <c r="AJ1" s="218"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="191"/>
+      <c r="AJ1" s="191"/>
     </row>
     <row r="2" spans="1:36" ht="14.4" customHeight="1">
       <c r="A2" s="1">
@@ -3025,14 +3025,14 @@
       <c r="AA2" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="AG2" s="219" t="s">
+      <c r="AG2" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="219"/>
-      <c r="AI2" s="220" t="s">
+      <c r="AH2" s="192"/>
+      <c r="AI2" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="220"/>
+      <c r="AJ2" s="193"/>
     </row>
     <row r="3" spans="1:36" ht="14.4" customHeight="1">
       <c r="A3" s="1">
@@ -3305,10 +3305,10 @@
         <v>Eugene Mah</v>
       </c>
       <c r="AF9"/>
-      <c r="AG9" s="222" t="s">
+      <c r="AG9" s="195" t="s">
         <v>201</v>
       </c>
-      <c r="AH9" s="223"/>
+      <c r="AH9" s="196"/>
     </row>
     <row r="10" spans="1:36" ht="14.4" customHeight="1">
       <c r="A10" s="1">
@@ -3318,19 +3318,19 @@
       <c r="D10" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="221" t="str">
+      <c r="E10" s="194" t="str">
         <f t="shared" ref="E10:E15" si="1">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="F10" s="221"/>
+      <c r="F10" s="194"/>
       <c r="I10" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="221" t="str">
+      <c r="J10" s="194" t="str">
         <f t="shared" ref="J10:J15" si="2">IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="K10" s="221"/>
+      <c r="K10" s="194"/>
       <c r="M10" s="11"/>
       <c r="O10" s="12"/>
       <c r="Q10" s="20" t="s">
@@ -3378,19 +3378,19 @@
       <c r="D11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="214" t="str">
+      <c r="E11" s="197" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="214"/>
+      <c r="F11" s="197"/>
       <c r="I11" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="217" t="str">
+      <c r="J11" s="198" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K11" s="217"/>
+      <c r="K11" s="198"/>
       <c r="M11" s="11"/>
       <c r="O11" s="12"/>
       <c r="Q11" s="20" t="s">
@@ -3438,19 +3438,19 @@
       <c r="D12" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="214" t="str">
+      <c r="E12" s="197" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="214"/>
+      <c r="F12" s="197"/>
       <c r="I12" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="214" t="str">
+      <c r="J12" s="197" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K12" s="214"/>
+      <c r="K12" s="197"/>
       <c r="M12" s="11"/>
       <c r="O12" s="12"/>
       <c r="Q12" s="20" t="s">
@@ -3498,19 +3498,19 @@
       <c r="D13" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="214" t="str">
+      <c r="E13" s="197" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="214"/>
+      <c r="F13" s="197"/>
       <c r="I13" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="J13" s="214" t="str">
+      <c r="J13" s="197" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K13" s="214"/>
+      <c r="K13" s="197"/>
       <c r="M13" s="11"/>
       <c r="O13" s="12"/>
       <c r="Q13" s="20" t="s">
@@ -3558,19 +3558,19 @@
       <c r="D14" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="214" t="str">
+      <c r="E14" s="197" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="214"/>
+      <c r="F14" s="197"/>
       <c r="I14" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="214" t="str">
+      <c r="J14" s="197" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K14" s="214"/>
+      <c r="K14" s="197"/>
       <c r="M14" s="11"/>
       <c r="O14" s="12"/>
       <c r="Q14" s="20" t="s">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="AF14"/>
       <c r="AG14" s="15" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AH14" s="16">
         <v>40</v>
@@ -3618,19 +3618,19 @@
       <c r="D15" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="214" t="str">
+      <c r="E15" s="197" t="str">
         <f t="shared" si="1"/>
         <v>Barco K5905277 v18</v>
       </c>
-      <c r="F15" s="214"/>
+      <c r="F15" s="197"/>
       <c r="I15" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="214" t="str">
+      <c r="J15" s="197" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K15" s="214"/>
+      <c r="K15" s="197"/>
       <c r="M15" s="11"/>
       <c r="O15" s="25"/>
       <c r="P15" s="26"/>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="AF15"/>
       <c r="AG15" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AH15" s="16">
         <v>20</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="AF16"/>
       <c r="AG16" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH16" s="38">
         <v>20</v>
@@ -3789,10 +3789,10 @@
       <c r="H19" s="136"/>
       <c r="I19" s="136"/>
       <c r="J19" s="136"/>
-      <c r="K19" s="216" t="s">
+      <c r="K19" s="200" t="s">
         <v>127</v>
       </c>
-      <c r="L19" s="216"/>
+      <c r="L19" s="200"/>
       <c r="M19" s="4"/>
       <c r="O19" s="12"/>
       <c r="R19" s="1" t="s">
@@ -4037,11 +4037,11 @@
       <c r="D24" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="215" t="str">
+      <c r="E24" s="199" t="str">
         <f>IF(P52="","",P52)</f>
         <v/>
       </c>
-      <c r="F24" s="215"/>
+      <c r="F24" s="199"/>
       <c r="M24" s="11"/>
       <c r="O24" s="12"/>
       <c r="Y24" s="13"/>
@@ -5901,16 +5901,16 @@
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="83"/>
-      <c r="D71" s="211" t="str">
+      <c r="D71" s="201" t="str">
         <f>Q86</f>
         <v>UNL-10 (cd/m^2)</v>
       </c>
-      <c r="E71" s="211"/>
-      <c r="F71" s="212" t="str">
+      <c r="E71" s="201"/>
+      <c r="F71" s="202" t="str">
         <f>S86</f>
         <v>UNL-80 (cd/m^2)</v>
       </c>
-      <c r="G71" s="212"/>
+      <c r="G71" s="202"/>
       <c r="I71" s="60" t="s">
         <v>106</v>
       </c>
@@ -6013,13 +6013,13 @@
       <c r="Q73" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="R73" s="194"/>
-      <c r="S73" s="198"/>
-      <c r="V73" s="206" t="str">
+      <c r="R73" s="216"/>
+      <c r="S73" s="220"/>
+      <c r="V73" s="208" t="str">
         <f>IF(AB48="","",AB48)</f>
         <v/>
       </c>
-      <c r="W73" s="207" t="str">
+      <c r="W73" s="209" t="str">
         <f>IF(AB51="","",AB51)</f>
         <v/>
       </c>
@@ -6061,10 +6061,10 @@
       <c r="M74" s="11"/>
       <c r="O74" s="12"/>
       <c r="Q74" s="19"/>
-      <c r="R74" s="195"/>
-      <c r="S74" s="199"/>
-      <c r="V74" s="205"/>
-      <c r="W74" s="208"/>
+      <c r="R74" s="217"/>
+      <c r="S74" s="221"/>
+      <c r="V74" s="207"/>
+      <c r="W74" s="210"/>
       <c r="Y74" s="13"/>
       <c r="AB74" s="139"/>
       <c r="AC74" s="34" t="str">
@@ -6105,13 +6105,13 @@
       <c r="Q75" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R75" s="196"/>
-      <c r="S75" s="200"/>
-      <c r="V75" s="203" t="str">
+      <c r="R75" s="218"/>
+      <c r="S75" s="222"/>
+      <c r="V75" s="205" t="str">
         <f>IF(AB49="","",AB49)</f>
         <v/>
       </c>
-      <c r="W75" s="209" t="str">
+      <c r="W75" s="211" t="str">
         <f>IF(AB52="","",AB52)</f>
         <v/>
       </c>
@@ -6152,10 +6152,10 @@
       <c r="M76" s="11"/>
       <c r="O76" s="12"/>
       <c r="Q76" s="19"/>
-      <c r="R76" s="195"/>
-      <c r="S76" s="199"/>
-      <c r="V76" s="205"/>
-      <c r="W76" s="208"/>
+      <c r="R76" s="217"/>
+      <c r="S76" s="221"/>
+      <c r="V76" s="207"/>
+      <c r="W76" s="210"/>
       <c r="Y76" s="13"/>
       <c r="AB76" s="139"/>
       <c r="AC76" s="34" t="str">
@@ -6196,13 +6196,13 @@
       <c r="Q77" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="R77" s="196"/>
-      <c r="S77" s="200"/>
-      <c r="V77" s="203" t="str">
+      <c r="R77" s="218"/>
+      <c r="S77" s="222"/>
+      <c r="V77" s="205" t="str">
         <f>IF(AB50="","",AB50)</f>
         <v/>
       </c>
-      <c r="W77" s="209" t="str">
+      <c r="W77" s="211" t="str">
         <f>IF(AB53="","",AB53)</f>
         <v/>
       </c>
@@ -6218,10 +6218,10 @@
       <c r="M78" s="11"/>
       <c r="O78" s="12"/>
       <c r="Q78" s="19"/>
-      <c r="R78" s="197"/>
-      <c r="S78" s="201"/>
-      <c r="V78" s="204"/>
-      <c r="W78" s="210"/>
+      <c r="R78" s="219"/>
+      <c r="S78" s="223"/>
+      <c r="V78" s="206"/>
+      <c r="W78" s="212"/>
       <c r="Y78" s="13"/>
       <c r="AB78" s="139"/>
       <c r="AC78" s="34" t="str">
@@ -6408,16 +6408,16 @@
         <f>S68</f>
         <v>Right ()</v>
       </c>
-      <c r="I84" s="213" t="str">
+      <c r="I84" s="203" t="str">
         <f>R68</f>
         <v>Left ()</v>
       </c>
-      <c r="J84" s="213"/>
-      <c r="K84" s="213" t="str">
+      <c r="J84" s="203"/>
+      <c r="K84" s="203" t="str">
         <f>S68</f>
         <v>Right ()</v>
       </c>
-      <c r="L84" s="213"/>
+      <c r="L84" s="203"/>
       <c r="M84" s="11"/>
       <c r="O84" s="12"/>
       <c r="Y84" s="13"/>
@@ -6450,16 +6450,16 @@
       <c r="H85" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="I85" s="202" t="str">
+      <c r="I85" s="204" t="str">
         <f>IF(R73="","",R73)</f>
         <v/>
       </c>
-      <c r="J85" s="202"/>
-      <c r="K85" s="202" t="str">
+      <c r="J85" s="204"/>
+      <c r="K85" s="204" t="str">
         <f>IF(S73="","",S73)</f>
         <v/>
       </c>
-      <c r="L85" s="202"/>
+      <c r="L85" s="204"/>
       <c r="M85" s="11"/>
       <c r="O85" s="97" t="s">
         <v>105</v>
@@ -6488,26 +6488,26 @@
       <c r="H86" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="I86" s="202" t="str">
+      <c r="I86" s="204" t="str">
         <f>IF(R75="","",R75)</f>
         <v/>
       </c>
-      <c r="J86" s="202"/>
-      <c r="K86" s="202" t="str">
+      <c r="J86" s="204"/>
+      <c r="K86" s="204" t="str">
         <f>IF(S75="","",S75)</f>
         <v/>
       </c>
-      <c r="L86" s="202"/>
+      <c r="L86" s="204"/>
       <c r="M86" s="11"/>
       <c r="O86" s="12"/>
-      <c r="Q86" s="192" t="s">
+      <c r="Q86" s="214" t="s">
         <v>116</v>
       </c>
-      <c r="R86" s="193"/>
-      <c r="S86" s="192" t="s">
+      <c r="R86" s="215"/>
+      <c r="S86" s="214" t="s">
         <v>117</v>
       </c>
-      <c r="T86" s="193"/>
+      <c r="T86" s="215"/>
       <c r="V86" s="113" t="s">
         <v>43</v>
       </c>
@@ -6532,16 +6532,16 @@
       <c r="H87" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="I87" s="191" t="str">
+      <c r="I87" s="213" t="str">
         <f>IF(R77="","",R77)</f>
         <v/>
       </c>
-      <c r="J87" s="191"/>
-      <c r="K87" s="191" t="str">
+      <c r="J87" s="213"/>
+      <c r="K87" s="213" t="str">
         <f>IF(S77="","",S77)</f>
         <v/>
       </c>
-      <c r="L87" s="191"/>
+      <c r="L87" s="213"/>
       <c r="M87" s="11"/>
       <c r="O87" s="12"/>
       <c r="Q87" s="114" t="str">
@@ -8248,36 +8248,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="42">
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="V77:V78"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="W73:W74"/>
-    <mergeCell ref="W75:W76"/>
-    <mergeCell ref="W77:W78"/>
     <mergeCell ref="I87:J87"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="Q86:R86"/>
@@ -8290,6 +8260,36 @@
     <mergeCell ref="S77:S78"/>
     <mergeCell ref="I86:J86"/>
     <mergeCell ref="K86:L86"/>
+    <mergeCell ref="V77:V78"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="V73:V74"/>
+    <mergeCell ref="W73:W74"/>
+    <mergeCell ref="W75:W76"/>
+    <mergeCell ref="W77:W78"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="AG9:AH9"/>
   </mergeCells>
   <conditionalFormatting sqref="D27:D28">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
@@ -8503,19 +8503,19 @@
       <c r="D10" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="221" t="str">
+      <c r="E10" s="194" t="str">
         <f>Barco!E10</f>
         <v/>
       </c>
-      <c r="F10" s="221"/>
+      <c r="F10" s="194"/>
       <c r="I10" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="221" t="str">
+      <c r="J10" s="194" t="str">
         <f>Barco!J10</f>
         <v/>
       </c>
-      <c r="K10" s="221"/>
+      <c r="K10" s="194"/>
       <c r="L10" s="178"/>
     </row>
     <row r="11" spans="1:18">
@@ -8526,19 +8526,19 @@
       <c r="D11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="221" t="str">
+      <c r="E11" s="194" t="str">
         <f>Barco!E11</f>
         <v/>
       </c>
-      <c r="F11" s="221"/>
+      <c r="F11" s="194"/>
       <c r="I11" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="221" t="str">
+      <c r="J11" s="194" t="str">
         <f>Barco!J11</f>
         <v/>
       </c>
-      <c r="K11" s="221"/>
+      <c r="K11" s="194"/>
       <c r="L11" s="178"/>
     </row>
     <row r="12" spans="1:18">
@@ -8549,19 +8549,19 @@
       <c r="D12" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="221" t="str">
+      <c r="E12" s="194" t="str">
         <f>Barco!E12</f>
         <v/>
       </c>
-      <c r="F12" s="221"/>
+      <c r="F12" s="194"/>
       <c r="I12" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="221" t="str">
+      <c r="J12" s="194" t="str">
         <f>Barco!J12</f>
         <v/>
       </c>
-      <c r="K12" s="221"/>
+      <c r="K12" s="194"/>
       <c r="L12" s="178"/>
     </row>
     <row r="13" spans="1:18">
@@ -8572,19 +8572,19 @@
       <c r="D13" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="221" t="str">
+      <c r="E13" s="194" t="str">
         <f>Barco!E13</f>
         <v/>
       </c>
-      <c r="F13" s="221"/>
+      <c r="F13" s="194"/>
       <c r="I13" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="221" t="str">
+      <c r="J13" s="194" t="str">
         <f>Barco!J14</f>
         <v/>
       </c>
-      <c r="K13" s="221"/>
+      <c r="K13" s="194"/>
       <c r="L13" s="178"/>
     </row>
     <row r="14" spans="1:18">
@@ -8595,19 +8595,19 @@
       <c r="D14" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="221" t="str">
+      <c r="E14" s="194" t="str">
         <f>Barco!E14</f>
         <v/>
       </c>
-      <c r="F14" s="221"/>
+      <c r="F14" s="194"/>
       <c r="I14" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="221" t="str">
+      <c r="J14" s="194" t="str">
         <f>Barco!J15</f>
         <v/>
       </c>
-      <c r="K14" s="221"/>
+      <c r="K14" s="194"/>
       <c r="L14" s="178"/>
     </row>
     <row r="15" spans="1:18">
@@ -8618,11 +8618,11 @@
       <c r="D15" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="221" t="str">
+      <c r="E15" s="194" t="str">
         <f>Barco!E15</f>
         <v>Barco K5905277 v18</v>
       </c>
-      <c r="F15" s="221"/>
+      <c r="F15" s="194"/>
       <c r="L15" s="178"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1">
@@ -8676,14 +8676,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="177"/>
-      <c r="F20" s="228" t="s">
+      <c r="F20" s="224" t="s">
         <v>192</v>
       </c>
-      <c r="G20" s="228"/>
-      <c r="H20" s="228" t="s">
+      <c r="G20" s="224"/>
+      <c r="H20" s="224" t="s">
         <v>193</v>
       </c>
-      <c r="I20" s="228"/>
+      <c r="I20" s="224"/>
       <c r="L20" s="178"/>
     </row>
     <row r="21" spans="1:12">
@@ -8691,16 +8691,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="177"/>
-      <c r="F21" s="228" t="str">
+      <c r="F21" s="224" t="str">
         <f>J13</f>
         <v/>
       </c>
-      <c r="G21" s="228"/>
-      <c r="H21" s="228" t="str">
+      <c r="G21" s="224"/>
+      <c r="H21" s="224" t="str">
         <f>J14</f>
         <v/>
       </c>
-      <c r="I21" s="228"/>
+      <c r="I21" s="224"/>
       <c r="L21" s="178"/>
     </row>
     <row r="22" spans="1:12">
@@ -8711,13 +8711,13 @@
       <c r="E22" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F22" s="227" t="str">
+      <c r="F22" s="226" t="str">
         <f>IF(Barco!E23="","",IF(Barco!E23="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G22" s="227"/>
-      <c r="H22" s="227"/>
-      <c r="I22" s="227"/>
+      <c r="G22" s="226"/>
+      <c r="H22" s="226"/>
+      <c r="I22" s="226"/>
       <c r="L22" s="178"/>
     </row>
     <row r="23" spans="1:12">
@@ -8728,13 +8728,13 @@
       <c r="E23" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="F23" s="227" t="str">
+      <c r="F23" s="226" t="str">
         <f>IF(Barco!E22="","",IF(Barco!E22="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G23" s="227"/>
-      <c r="H23" s="227"/>
-      <c r="I23" s="227"/>
+      <c r="G23" s="226"/>
+      <c r="H23" s="226"/>
+      <c r="I23" s="226"/>
       <c r="L23" s="178"/>
     </row>
     <row r="24" spans="1:12">
@@ -8745,13 +8745,13 @@
       <c r="E24" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="F24" s="227" t="str">
+      <c r="F24" s="226" t="str">
         <f>IF(OR(Barco!I72="TBD",Barco!I73="TBD"),"",IF(AND(Barco!I72="YES",Barco!I73="YES"),"PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G24" s="227"/>
-      <c r="H24" s="227"/>
-      <c r="I24" s="227"/>
+      <c r="G24" s="226"/>
+      <c r="H24" s="226"/>
+      <c r="I24" s="226"/>
       <c r="L24" s="178"/>
     </row>
     <row r="25" spans="1:12">
@@ -8762,10 +8762,10 @@
       <c r="E25" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="F25" s="224"/>
-      <c r="G25" s="224"/>
-      <c r="H25" s="224"/>
-      <c r="I25" s="224"/>
+      <c r="F25" s="225"/>
+      <c r="G25" s="225"/>
+      <c r="H25" s="225"/>
+      <c r="I25" s="225"/>
       <c r="L25" s="178"/>
     </row>
     <row r="26" spans="1:12">
@@ -8779,13 +8779,13 @@
       <c r="E26" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="F26" s="227" t="str">
+      <c r="F26" s="226" t="str">
         <f>IF(Barco!F85="","",IF(Barco!F85="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G26" s="227"/>
-      <c r="H26" s="227"/>
-      <c r="I26" s="227"/>
+      <c r="G26" s="226"/>
+      <c r="H26" s="226"/>
+      <c r="I26" s="226"/>
       <c r="L26" s="178"/>
     </row>
     <row r="27" spans="1:12">
@@ -8796,10 +8796,10 @@
       <c r="E27" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="F27" s="224"/>
-      <c r="G27" s="224"/>
-      <c r="H27" s="224"/>
-      <c r="I27" s="224"/>
+      <c r="F27" s="225"/>
+      <c r="G27" s="225"/>
+      <c r="H27" s="225"/>
+      <c r="I27" s="225"/>
       <c r="L27" s="178"/>
     </row>
     <row r="28" spans="1:12">
@@ -8810,10 +8810,10 @@
       <c r="E28" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="F28" s="224"/>
-      <c r="G28" s="224"/>
-      <c r="H28" s="224"/>
-      <c r="I28" s="224"/>
+      <c r="F28" s="225"/>
+      <c r="G28" s="225"/>
+      <c r="H28" s="225"/>
+      <c r="I28" s="225"/>
       <c r="L28" s="178"/>
     </row>
     <row r="29" spans="1:12">
@@ -8824,16 +8824,16 @@
       <c r="E29" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="225" t="str">
+      <c r="F29" s="227" t="str">
         <f>IF(Barco!F86="","",IF(Barco!F86="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G29" s="226"/>
-      <c r="H29" s="225" t="str">
+      <c r="G29" s="228"/>
+      <c r="H29" s="227" t="str">
         <f>IF(Barco!G86="","",IF(Barco!G86="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="I29" s="226"/>
+      <c r="I29" s="228"/>
       <c r="L29" s="178"/>
     </row>
     <row r="30" spans="1:12">
@@ -9007,12 +9007,15 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="E13:F13"/>
@@ -9029,15 +9032,12 @@
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:I25 F27:I28" xr:uid="{CEAD9B4F-4A05-4883-9435-EBBC3722EE42}">

--- a/MUSCMammoMonitor.xlsx
+++ b/MUSCMammoMonitor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\workspace\EquipTestingSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC41648A-0D69-4614-A472-0CB45631F962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CB544F-0450-48A3-9DC2-21A0B29942A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2330,44 +2330,38 @@
     <xf numFmtId="167" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2396,52 +2390,58 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2956,7 +2956,7 @@
   <dimension ref="A1:AJ132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3001,12 +3001,12 @@
       <c r="AA1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="191" t="s">
+      <c r="AG1" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="191"/>
-      <c r="AI1" s="191"/>
-      <c r="AJ1" s="191"/>
+      <c r="AH1" s="218"/>
+      <c r="AI1" s="218"/>
+      <c r="AJ1" s="218"/>
     </row>
     <row r="2" spans="1:36" ht="14.4" customHeight="1">
       <c r="A2" s="1">
@@ -3025,14 +3025,14 @@
       <c r="AA2" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="AG2" s="192" t="s">
+      <c r="AG2" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="192"/>
-      <c r="AI2" s="193" t="s">
+      <c r="AH2" s="219"/>
+      <c r="AI2" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="193"/>
+      <c r="AJ2" s="220"/>
     </row>
     <row r="3" spans="1:36" ht="14.4" customHeight="1">
       <c r="A3" s="1">
@@ -3305,10 +3305,10 @@
         <v>Eugene Mah</v>
       </c>
       <c r="AF9"/>
-      <c r="AG9" s="195" t="s">
+      <c r="AG9" s="222" t="s">
         <v>201</v>
       </c>
-      <c r="AH9" s="196"/>
+      <c r="AH9" s="223"/>
     </row>
     <row r="10" spans="1:36" ht="14.4" customHeight="1">
       <c r="A10" s="1">
@@ -3318,19 +3318,19 @@
       <c r="D10" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="194" t="str">
+      <c r="E10" s="221" t="str">
         <f t="shared" ref="E10:E15" si="1">IF(R10="","",R10)</f>
         <v/>
       </c>
-      <c r="F10" s="194"/>
+      <c r="F10" s="221"/>
       <c r="I10" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="194" t="str">
+      <c r="J10" s="221" t="str">
         <f t="shared" ref="J10:J15" si="2">IF(V10="","",V10)</f>
         <v/>
       </c>
-      <c r="K10" s="194"/>
+      <c r="K10" s="221"/>
       <c r="M10" s="11"/>
       <c r="O10" s="12"/>
       <c r="Q10" s="20" t="s">
@@ -3378,19 +3378,19 @@
       <c r="D11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="197" t="str">
+      <c r="E11" s="214" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="197"/>
+      <c r="F11" s="214"/>
       <c r="I11" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="217" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K11" s="198"/>
+      <c r="K11" s="217"/>
       <c r="M11" s="11"/>
       <c r="O11" s="12"/>
       <c r="Q11" s="20" t="s">
@@ -3438,19 +3438,19 @@
       <c r="D12" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="197" t="str">
+      <c r="E12" s="214" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="197"/>
+      <c r="F12" s="214"/>
       <c r="I12" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="197" t="str">
+      <c r="J12" s="214" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K12" s="197"/>
+      <c r="K12" s="214"/>
       <c r="M12" s="11"/>
       <c r="O12" s="12"/>
       <c r="Q12" s="20" t="s">
@@ -3498,19 +3498,19 @@
       <c r="D13" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="197" t="str">
+      <c r="E13" s="214" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="197"/>
+      <c r="F13" s="214"/>
       <c r="I13" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="J13" s="197" t="str">
+      <c r="J13" s="214" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K13" s="197"/>
+      <c r="K13" s="214"/>
       <c r="M13" s="11"/>
       <c r="O13" s="12"/>
       <c r="Q13" s="20" t="s">
@@ -3558,19 +3558,19 @@
       <c r="D14" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="197" t="str">
+      <c r="E14" s="214" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="197"/>
+      <c r="F14" s="214"/>
       <c r="I14" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="197" t="str">
+      <c r="J14" s="214" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K14" s="197"/>
+      <c r="K14" s="214"/>
       <c r="M14" s="11"/>
       <c r="O14" s="12"/>
       <c r="Q14" s="20" t="s">
@@ -3618,19 +3618,19 @@
       <c r="D15" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="197" t="str">
+      <c r="E15" s="214" t="str">
         <f t="shared" si="1"/>
         <v>Barco K5905277 v18</v>
       </c>
-      <c r="F15" s="197"/>
+      <c r="F15" s="214"/>
       <c r="I15" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="197" t="str">
+      <c r="J15" s="214" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K15" s="197"/>
+      <c r="K15" s="214"/>
       <c r="M15" s="11"/>
       <c r="O15" s="25"/>
       <c r="P15" s="26"/>
@@ -3789,10 +3789,10 @@
       <c r="H19" s="136"/>
       <c r="I19" s="136"/>
       <c r="J19" s="136"/>
-      <c r="K19" s="200" t="s">
+      <c r="K19" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="L19" s="200"/>
+      <c r="L19" s="216"/>
       <c r="M19" s="4"/>
       <c r="O19" s="12"/>
       <c r="R19" s="1" t="s">
@@ -4037,11 +4037,11 @@
       <c r="D24" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="199" t="str">
+      <c r="E24" s="215" t="str">
         <f>IF(P52="","",P52)</f>
         <v/>
       </c>
-      <c r="F24" s="199"/>
+      <c r="F24" s="215"/>
       <c r="M24" s="11"/>
       <c r="O24" s="12"/>
       <c r="Y24" s="13"/>
@@ -5901,16 +5901,16 @@
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="83"/>
-      <c r="D71" s="201" t="str">
+      <c r="D71" s="211" t="str">
         <f>Q86</f>
         <v>UNL-10 (cd/m^2)</v>
       </c>
-      <c r="E71" s="201"/>
-      <c r="F71" s="202" t="str">
+      <c r="E71" s="211"/>
+      <c r="F71" s="212" t="str">
         <f>S86</f>
         <v>UNL-80 (cd/m^2)</v>
       </c>
-      <c r="G71" s="202"/>
+      <c r="G71" s="212"/>
       <c r="I71" s="60" t="s">
         <v>106</v>
       </c>
@@ -6013,13 +6013,13 @@
       <c r="Q73" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="R73" s="216"/>
-      <c r="S73" s="220"/>
-      <c r="V73" s="208" t="str">
+      <c r="R73" s="194"/>
+      <c r="S73" s="198"/>
+      <c r="V73" s="206" t="str">
         <f>IF(AB48="","",AB48)</f>
         <v/>
       </c>
-      <c r="W73" s="209" t="str">
+      <c r="W73" s="207" t="str">
         <f>IF(AB51="","",AB51)</f>
         <v/>
       </c>
@@ -6061,10 +6061,10 @@
       <c r="M74" s="11"/>
       <c r="O74" s="12"/>
       <c r="Q74" s="19"/>
-      <c r="R74" s="217"/>
-      <c r="S74" s="221"/>
-      <c r="V74" s="207"/>
-      <c r="W74" s="210"/>
+      <c r="R74" s="195"/>
+      <c r="S74" s="199"/>
+      <c r="V74" s="205"/>
+      <c r="W74" s="208"/>
       <c r="Y74" s="13"/>
       <c r="AB74" s="139"/>
       <c r="AC74" s="34" t="str">
@@ -6105,13 +6105,13 @@
       <c r="Q75" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="R75" s="218"/>
-      <c r="S75" s="222"/>
-      <c r="V75" s="205" t="str">
+      <c r="R75" s="196"/>
+      <c r="S75" s="200"/>
+      <c r="V75" s="203" t="str">
         <f>IF(AB49="","",AB49)</f>
         <v/>
       </c>
-      <c r="W75" s="211" t="str">
+      <c r="W75" s="209" t="str">
         <f>IF(AB52="","",AB52)</f>
         <v/>
       </c>
@@ -6152,10 +6152,10 @@
       <c r="M76" s="11"/>
       <c r="O76" s="12"/>
       <c r="Q76" s="19"/>
-      <c r="R76" s="217"/>
-      <c r="S76" s="221"/>
-      <c r="V76" s="207"/>
-      <c r="W76" s="210"/>
+      <c r="R76" s="195"/>
+      <c r="S76" s="199"/>
+      <c r="V76" s="205"/>
+      <c r="W76" s="208"/>
       <c r="Y76" s="13"/>
       <c r="AB76" s="139"/>
       <c r="AC76" s="34" t="str">
@@ -6196,13 +6196,13 @@
       <c r="Q77" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="R77" s="218"/>
-      <c r="S77" s="222"/>
-      <c r="V77" s="205" t="str">
+      <c r="R77" s="196"/>
+      <c r="S77" s="200"/>
+      <c r="V77" s="203" t="str">
         <f>IF(AB50="","",AB50)</f>
         <v/>
       </c>
-      <c r="W77" s="211" t="str">
+      <c r="W77" s="209" t="str">
         <f>IF(AB53="","",AB53)</f>
         <v/>
       </c>
@@ -6218,10 +6218,10 @@
       <c r="M78" s="11"/>
       <c r="O78" s="12"/>
       <c r="Q78" s="19"/>
-      <c r="R78" s="219"/>
-      <c r="S78" s="223"/>
-      <c r="V78" s="206"/>
-      <c r="W78" s="212"/>
+      <c r="R78" s="197"/>
+      <c r="S78" s="201"/>
+      <c r="V78" s="204"/>
+      <c r="W78" s="210"/>
       <c r="Y78" s="13"/>
       <c r="AB78" s="139"/>
       <c r="AC78" s="34" t="str">
@@ -6408,16 +6408,16 @@
         <f>S68</f>
         <v>Right ()</v>
       </c>
-      <c r="I84" s="203" t="str">
+      <c r="I84" s="213" t="str">
         <f>R68</f>
         <v>Left ()</v>
       </c>
-      <c r="J84" s="203"/>
-      <c r="K84" s="203" t="str">
+      <c r="J84" s="213"/>
+      <c r="K84" s="213" t="str">
         <f>S68</f>
         <v>Right ()</v>
       </c>
-      <c r="L84" s="203"/>
+      <c r="L84" s="213"/>
       <c r="M84" s="11"/>
       <c r="O84" s="12"/>
       <c r="Y84" s="13"/>
@@ -6450,16 +6450,16 @@
       <c r="H85" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="I85" s="204" t="str">
+      <c r="I85" s="202" t="str">
         <f>IF(R73="","",R73)</f>
         <v/>
       </c>
-      <c r="J85" s="204"/>
-      <c r="K85" s="204" t="str">
+      <c r="J85" s="202"/>
+      <c r="K85" s="202" t="str">
         <f>IF(S73="","",S73)</f>
         <v/>
       </c>
-      <c r="L85" s="204"/>
+      <c r="L85" s="202"/>
       <c r="M85" s="11"/>
       <c r="O85" s="97" t="s">
         <v>105</v>
@@ -6488,26 +6488,26 @@
       <c r="H86" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="I86" s="204" t="str">
+      <c r="I86" s="202" t="str">
         <f>IF(R75="","",R75)</f>
         <v/>
       </c>
-      <c r="J86" s="204"/>
-      <c r="K86" s="204" t="str">
+      <c r="J86" s="202"/>
+      <c r="K86" s="202" t="str">
         <f>IF(S75="","",S75)</f>
         <v/>
       </c>
-      <c r="L86" s="204"/>
+      <c r="L86" s="202"/>
       <c r="M86" s="11"/>
       <c r="O86" s="12"/>
-      <c r="Q86" s="214" t="s">
+      <c r="Q86" s="192" t="s">
         <v>116</v>
       </c>
-      <c r="R86" s="215"/>
-      <c r="S86" s="214" t="s">
+      <c r="R86" s="193"/>
+      <c r="S86" s="192" t="s">
         <v>117</v>
       </c>
-      <c r="T86" s="215"/>
+      <c r="T86" s="193"/>
       <c r="V86" s="113" t="s">
         <v>43</v>
       </c>
@@ -6532,16 +6532,16 @@
       <c r="H87" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="I87" s="213" t="str">
+      <c r="I87" s="191" t="str">
         <f>IF(R77="","",R77)</f>
         <v/>
       </c>
-      <c r="J87" s="213"/>
-      <c r="K87" s="213" t="str">
+      <c r="J87" s="191"/>
+      <c r="K87" s="191" t="str">
         <f>IF(S77="","",S77)</f>
         <v/>
       </c>
-      <c r="L87" s="213"/>
+      <c r="L87" s="191"/>
       <c r="M87" s="11"/>
       <c r="O87" s="12"/>
       <c r="Q87" s="114" t="str">
@@ -8248,6 +8248,36 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="42">
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="V77:V78"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="V73:V74"/>
+    <mergeCell ref="W73:W74"/>
+    <mergeCell ref="W75:W76"/>
+    <mergeCell ref="W77:W78"/>
     <mergeCell ref="I87:J87"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="Q86:R86"/>
@@ -8260,36 +8290,6 @@
     <mergeCell ref="S77:S78"/>
     <mergeCell ref="I86:J86"/>
     <mergeCell ref="K86:L86"/>
-    <mergeCell ref="V77:V78"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="W73:W74"/>
-    <mergeCell ref="W75:W76"/>
-    <mergeCell ref="W77:W78"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="AG9:AH9"/>
   </mergeCells>
   <conditionalFormatting sqref="D27:D28">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
@@ -8503,19 +8503,19 @@
       <c r="D10" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="194" t="str">
+      <c r="E10" s="221" t="str">
         <f>Barco!E10</f>
         <v/>
       </c>
-      <c r="F10" s="194"/>
+      <c r="F10" s="221"/>
       <c r="I10" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="194" t="str">
+      <c r="J10" s="221" t="str">
         <f>Barco!J10</f>
         <v/>
       </c>
-      <c r="K10" s="194"/>
+      <c r="K10" s="221"/>
       <c r="L10" s="178"/>
     </row>
     <row r="11" spans="1:18">
@@ -8526,19 +8526,19 @@
       <c r="D11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="194" t="str">
+      <c r="E11" s="221" t="str">
         <f>Barco!E11</f>
         <v/>
       </c>
-      <c r="F11" s="194"/>
+      <c r="F11" s="221"/>
       <c r="I11" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="194" t="str">
+      <c r="J11" s="221" t="str">
         <f>Barco!J11</f>
         <v/>
       </c>
-      <c r="K11" s="194"/>
+      <c r="K11" s="221"/>
       <c r="L11" s="178"/>
     </row>
     <row r="12" spans="1:18">
@@ -8549,19 +8549,19 @@
       <c r="D12" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="194" t="str">
+      <c r="E12" s="221" t="str">
         <f>Barco!E12</f>
         <v/>
       </c>
-      <c r="F12" s="194"/>
+      <c r="F12" s="221"/>
       <c r="I12" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="194" t="str">
+      <c r="J12" s="221" t="str">
         <f>Barco!J12</f>
         <v/>
       </c>
-      <c r="K12" s="194"/>
+      <c r="K12" s="221"/>
       <c r="L12" s="178"/>
     </row>
     <row r="13" spans="1:18">
@@ -8572,19 +8572,19 @@
       <c r="D13" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="194" t="str">
+      <c r="E13" s="221" t="str">
         <f>Barco!E13</f>
         <v/>
       </c>
-      <c r="F13" s="194"/>
+      <c r="F13" s="221"/>
       <c r="I13" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="194" t="str">
+      <c r="J13" s="221" t="str">
         <f>Barco!J14</f>
         <v/>
       </c>
-      <c r="K13" s="194"/>
+      <c r="K13" s="221"/>
       <c r="L13" s="178"/>
     </row>
     <row r="14" spans="1:18">
@@ -8595,19 +8595,19 @@
       <c r="D14" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="194" t="str">
+      <c r="E14" s="221" t="str">
         <f>Barco!E14</f>
         <v/>
       </c>
-      <c r="F14" s="194"/>
+      <c r="F14" s="221"/>
       <c r="I14" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="194" t="str">
+      <c r="J14" s="221" t="str">
         <f>Barco!J15</f>
         <v/>
       </c>
-      <c r="K14" s="194"/>
+      <c r="K14" s="221"/>
       <c r="L14" s="178"/>
     </row>
     <row r="15" spans="1:18">
@@ -8618,11 +8618,11 @@
       <c r="D15" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="194" t="str">
+      <c r="E15" s="221" t="str">
         <f>Barco!E15</f>
         <v>Barco K5905277 v18</v>
       </c>
-      <c r="F15" s="194"/>
+      <c r="F15" s="221"/>
       <c r="L15" s="178"/>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1">
@@ -8676,14 +8676,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="177"/>
-      <c r="F20" s="224" t="s">
+      <c r="F20" s="228" t="s">
         <v>192</v>
       </c>
-      <c r="G20" s="224"/>
-      <c r="H20" s="224" t="s">
+      <c r="G20" s="228"/>
+      <c r="H20" s="228" t="s">
         <v>193</v>
       </c>
-      <c r="I20" s="224"/>
+      <c r="I20" s="228"/>
       <c r="L20" s="178"/>
     </row>
     <row r="21" spans="1:12">
@@ -8691,16 +8691,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="177"/>
-      <c r="F21" s="224" t="str">
+      <c r="F21" s="228" t="str">
         <f>J13</f>
         <v/>
       </c>
-      <c r="G21" s="224"/>
-      <c r="H21" s="224" t="str">
+      <c r="G21" s="228"/>
+      <c r="H21" s="228" t="str">
         <f>J14</f>
         <v/>
       </c>
-      <c r="I21" s="224"/>
+      <c r="I21" s="228"/>
       <c r="L21" s="178"/>
     </row>
     <row r="22" spans="1:12">
@@ -8711,13 +8711,13 @@
       <c r="E22" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F22" s="226" t="str">
+      <c r="F22" s="227" t="str">
         <f>IF(Barco!E23="","",IF(Barco!E23="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G22" s="226"/>
-      <c r="H22" s="226"/>
-      <c r="I22" s="226"/>
+      <c r="G22" s="227"/>
+      <c r="H22" s="227"/>
+      <c r="I22" s="227"/>
       <c r="L22" s="178"/>
     </row>
     <row r="23" spans="1:12">
@@ -8728,13 +8728,13 @@
       <c r="E23" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="F23" s="226" t="str">
+      <c r="F23" s="227" t="str">
         <f>IF(Barco!E22="","",IF(Barco!E22="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G23" s="226"/>
-      <c r="H23" s="226"/>
-      <c r="I23" s="226"/>
+      <c r="G23" s="227"/>
+      <c r="H23" s="227"/>
+      <c r="I23" s="227"/>
       <c r="L23" s="178"/>
     </row>
     <row r="24" spans="1:12">
@@ -8745,13 +8745,13 @@
       <c r="E24" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="F24" s="226" t="str">
+      <c r="F24" s="227" t="str">
         <f>IF(OR(Barco!I72="TBD",Barco!I73="TBD"),"",IF(AND(Barco!I72="YES",Barco!I73="YES"),"PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G24" s="226"/>
-      <c r="H24" s="226"/>
-      <c r="I24" s="226"/>
+      <c r="G24" s="227"/>
+      <c r="H24" s="227"/>
+      <c r="I24" s="227"/>
       <c r="L24" s="178"/>
     </row>
     <row r="25" spans="1:12">
@@ -8762,10 +8762,10 @@
       <c r="E25" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="F25" s="225"/>
-      <c r="G25" s="225"/>
-      <c r="H25" s="225"/>
-      <c r="I25" s="225"/>
+      <c r="F25" s="224"/>
+      <c r="G25" s="224"/>
+      <c r="H25" s="224"/>
+      <c r="I25" s="224"/>
       <c r="L25" s="178"/>
     </row>
     <row r="26" spans="1:12">
@@ -8779,13 +8779,13 @@
       <c r="E26" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="F26" s="226" t="str">
+      <c r="F26" s="227" t="str">
         <f>IF(Barco!F85="","",IF(Barco!F85="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G26" s="226"/>
-      <c r="H26" s="226"/>
-      <c r="I26" s="226"/>
+      <c r="G26" s="227"/>
+      <c r="H26" s="227"/>
+      <c r="I26" s="227"/>
       <c r="L26" s="178"/>
     </row>
     <row r="27" spans="1:12">
@@ -8796,10 +8796,10 @@
       <c r="E27" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="F27" s="225"/>
-      <c r="G27" s="225"/>
-      <c r="H27" s="225"/>
-      <c r="I27" s="225"/>
+      <c r="F27" s="224"/>
+      <c r="G27" s="224"/>
+      <c r="H27" s="224"/>
+      <c r="I27" s="224"/>
       <c r="L27" s="178"/>
     </row>
     <row r="28" spans="1:12">
@@ -8810,10 +8810,10 @@
       <c r="E28" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="F28" s="225"/>
-      <c r="G28" s="225"/>
-      <c r="H28" s="225"/>
-      <c r="I28" s="225"/>
+      <c r="F28" s="224"/>
+      <c r="G28" s="224"/>
+      <c r="H28" s="224"/>
+      <c r="I28" s="224"/>
       <c r="L28" s="178"/>
     </row>
     <row r="29" spans="1:12">
@@ -8824,16 +8824,16 @@
       <c r="E29" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="227" t="str">
+      <c r="F29" s="225" t="str">
         <f>IF(Barco!F86="","",IF(Barco!F86="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="G29" s="228"/>
-      <c r="H29" s="227" t="str">
+      <c r="G29" s="226"/>
+      <c r="H29" s="225" t="str">
         <f>IF(Barco!G86="","",IF(Barco!G86="YES","PASS","FAIL"))</f>
         <v/>
       </c>
-      <c r="I29" s="228"/>
+      <c r="I29" s="226"/>
       <c r="L29" s="178"/>
     </row>
     <row r="30" spans="1:12">
@@ -9007,15 +9007,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="E13:F13"/>
@@ -9032,12 +9029,15 @@
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:I25 F27:I28" xr:uid="{CEAD9B4F-4A05-4883-9435-EBBC3722EE42}">
